--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862DD378-C6C3-4F47-A128-D64C63AB4E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C536B94A-1D0C-4DE3-A8FD-5B2B6B44CA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="347">
   <si>
     <t>Name</t>
   </si>
@@ -292,24 +292,15 @@
     <t>C37</t>
   </si>
   <si>
-    <t>8 pin DIN</t>
-  </si>
-  <si>
     <t>CN5</t>
   </si>
   <si>
-    <t>Video/audio</t>
-  </si>
-  <si>
     <t>C50</t>
   </si>
   <si>
     <t>C51</t>
   </si>
   <si>
-    <t>RF</t>
-  </si>
-  <si>
     <t>C101</t>
   </si>
   <si>
@@ -349,18 +340,12 @@
     <t>CN4</t>
   </si>
   <si>
-    <t>6 pin DIN</t>
-  </si>
-  <si>
     <t>Serial bus</t>
   </si>
   <si>
     <t>CN8</t>
   </si>
   <si>
-    <t>9 pin DB9</t>
-  </si>
-  <si>
     <t>Joystick port 2</t>
   </si>
   <si>
@@ -373,18 +358,12 @@
     <t>CN1</t>
   </si>
   <si>
-    <t>20 pin</t>
-  </si>
-  <si>
     <t>Keyboard</t>
   </si>
   <si>
     <t>CN2</t>
   </si>
   <si>
-    <t>24 pin edge</t>
-  </si>
-  <si>
     <t>User port</t>
   </si>
   <si>
@@ -436,9 +415,6 @@
     <t>CN3</t>
   </si>
   <si>
-    <t>6 pin edge</t>
-  </si>
-  <si>
     <t>Cassette port</t>
   </si>
   <si>
@@ -517,9 +493,6 @@
     <t>CN10</t>
   </si>
   <si>
-    <t>3 pin</t>
-  </si>
-  <si>
     <t>Power LED</t>
   </si>
   <si>
@@ -529,12 +502,6 @@
     <t>CN7</t>
   </si>
   <si>
-    <t>7 pin DIN</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>CIA 1</t>
   </si>
   <si>
@@ -566,9 +533,6 @@
   </si>
   <si>
     <t>Crystal oscillator</t>
-  </si>
-  <si>
-    <t>Modulator</t>
   </si>
   <si>
     <t>https://www.breadbox64.com/blog/c64-restore-mod/</t>
@@ -844,14 +808,6 @@
   </si>
   <si>
     <t>Memory location:
-$DC00-$DCFF</t>
-  </si>
-  <si>
-    <t>Memory location:
-$DD00-$DDFF</t>
-  </si>
-  <si>
-    <t>Memory location:
 $A000-$BFFF</t>
   </si>
   <si>
@@ -871,37 +827,15 @@
 $D400-$D7FF</t>
   </si>
   <si>
-    <t>6569 (PAL)
-6567 (NTSC)
-Pin meassurements:
-17: PAL = 0.98 MHz
-17: NTSC = 1.02 MHz
-21: PAL = 17.734472 MHz
-21: NTSC = 14.31818 MHz
-22: PAL = 7.88 MHz
-22: NTSC = 8.18 MHz
-Memory location:
-$D000-$D3FF</t>
-  </si>
-  <si>
-    <t>44 pin edge</t>
-  </si>
-  <si>
     <t>PET/VIC-20/C64 Port Pinouts</t>
   </si>
   <si>
-    <t>1024 x 4-bit</t>
-  </si>
-  <si>
     <t>4096 x 8-bit</t>
   </si>
   <si>
     <t>8192 x 8-bit</t>
   </si>
   <si>
-    <t>65536 x 4-bit</t>
-  </si>
-  <si>
     <t>Dynamic RAM</t>
   </si>
   <si>
@@ -977,16 +911,10 @@
     <t>Data/Commodore shared files/Component images/6569.jpg</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/LM556.jpg</t>
-  </si>
-  <si>
     <t>Data/Commodore shared files/Component images/74LS373.jpg</t>
   </si>
   <si>
     <t>Data/Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/MC7800-series.jpg</t>
   </si>
   <si>
     <t>Data/Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
@@ -1112,6 +1040,100 @@
     </r>
   </si>
   <si>
+    <t>6 pin male edge</t>
+  </si>
+  <si>
+    <t>6 pin female DIN</t>
+  </si>
+  <si>
+    <t>20 pin male</t>
+  </si>
+  <si>
+    <t>9 pin male DB9</t>
+  </si>
+  <si>
+    <t>24 pin male edge</t>
+  </si>
+  <si>
+    <t>3 pin male</t>
+  </si>
+  <si>
+    <t>7 pin female DIN</t>
+  </si>
+  <si>
+    <t>Power input</t>
+  </si>
+  <si>
+    <t>44 pin female edge</t>
+  </si>
+  <si>
+    <t>8 pin female DIN</t>
+  </si>
+  <si>
+    <t>Audio/video</t>
+  </si>
+  <si>
+    <t>Rocker switch</t>
+  </si>
+  <si>
+    <t>65536 x 4-bit, 200ns</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/8701.jpg</t>
+  </si>
+  <si>
+    <t>Datasheet for 8701</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/MOS8701.pdf</t>
+  </si>
+  <si>
+    <t>6569 (PAL)
+6567 (NTSC)
+Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
+    <t>1024 x 4-bit, 150ns</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>RF modulator</t>
+  </si>
+  <si>
+    <t>My Old Computer; 6510</t>
+  </si>
+  <si>
+    <t>https://myoldcomputer.nl/technical-info/datasheets/integrated-chip-pinout-and-datasheets/processors/6510-2/</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 8500 (HMOS version)</t>
+  </si>
+  <si>
+    <t>Also used in:
+Commodore 64 + 128 computers
+Commodore 1570 + 1571 + 1581 diskdrives
+Compatible part-number: 8521
+Memory location:
+$DC00-$DCFF</t>
+  </si>
+  <si>
+    <t>Also used in:
+Commodore 64 + 128 computers
+Commodore 1570 + 1571 + 1581 diskdrives
+Compatible part-number: 8521
+Memory location:
+$DD00-$DDFF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/556.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7800-series.jpg</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1124,7 +1146,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-May-11</t>
+      <t>2025-May-31</t>
     </r>
   </si>
 </sst>
@@ -1718,17 +1740,17 @@
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1741,7 +1763,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1752,7 +1774,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="32" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1813,7 +1835,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1836,7 +1858,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1857,10 +1879,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -1985,12 +2007,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1998,12 +2020,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2041,44 +2063,44 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="17" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2086,13 +2108,13 @@
         <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2100,13 +2122,13 @@
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2114,13 +2136,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2128,27 +2150,27 @@
         <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2156,13 +2178,13 @@
         <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2170,13 +2192,13 @@
         <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2184,13 +2206,13 @@
         <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2198,13 +2220,13 @@
         <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2212,83 +2234,83 @@
         <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="17" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2296,13 +2318,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2310,13 +2332,13 @@
         <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2324,13 +2346,13 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2338,13 +2360,13 @@
         <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2352,27 +2374,27 @@
         <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2380,44 +2402,44 @@
         <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8">
       <c r="A34" s="17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2425,41 +2447,41 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="17" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2467,41 +2489,41 @@
         <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2509,13 +2531,13 @@
         <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2523,83 +2545,83 @@
         <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="17" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="17" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2607,97 +2629,97 @@
         <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2705,41 +2727,41 @@
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="17" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2747,13 +2769,13 @@
         <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2761,125 +2783,125 @@
         <v>80</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="17" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>84</v>
+        <v>329</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2887,103 +2909,103 @@
         <v>49</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="17" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="28.8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="115.2">
       <c r="A74" s="17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B74" s="1">
         <v>6526</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="28.8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="115.2">
       <c r="A75" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B75" s="1">
         <v>6526</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="28.8">
@@ -2994,16 +3016,16 @@
         <v>2364</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.8">
@@ -3014,36 +3036,36 @@
         <v>2364</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.8">
       <c r="A78" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B78" s="1">
         <v>2332</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="28.8">
@@ -3057,27 +3079,30 @@
         <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>270</v>
+        <v>336</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B80" s="1">
         <v>6510</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3088,10 +3113,10 @@
         <v>7406</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="43.2">
@@ -3102,16 +3127,16 @@
         <v>41464</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="43.2">
@@ -3122,16 +3147,16 @@
         <v>41464</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3142,10 +3167,10 @@
         <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3156,10 +3181,10 @@
         <v>60</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3170,10 +3195,10 @@
         <v>52</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3184,10 +3209,10 @@
         <v>4066</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="72">
@@ -3195,16 +3220,16 @@
         <v>48</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="28.8">
@@ -3218,13 +3243,13 @@
         <v>68</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="187.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="72">
       <c r="A90" s="17" t="s">
         <v>62</v>
       </c>
@@ -3235,24 +3260,24 @@
         <v>63</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B91" s="1">
         <v>556</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3263,10 +3288,10 @@
         <v>37</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3277,10 +3302,10 @@
         <v>57</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3291,24 +3316,24 @@
         <v>44</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B95" s="1">
         <v>4066</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3319,91 +3344,94 @@
         <v>8701</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="17" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="17" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B100" s="1">
         <v>7812</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="17" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B101" s="1">
         <v>7805</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="100.8">
       <c r="A102" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4220,12 +4248,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4240,7 +4268,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4252,7 +4280,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="32" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4591,7 +4619,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C23" s="19">
         <v>1170</v>
@@ -4671,7 +4699,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" s="19">
         <v>2998</v>
@@ -4691,7 +4719,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="19">
         <v>2998</v>
@@ -4771,7 +4799,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" s="19">
         <v>2565</v>
@@ -4851,7 +4879,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="19">
         <v>3726</v>
@@ -4891,7 +4919,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C38" s="19">
         <v>3356</v>
@@ -4911,7 +4939,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="C39" s="19">
         <v>3177</v>
@@ -4971,7 +4999,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" s="19">
         <v>1487</v>
@@ -5351,7 +5379,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C61" s="19">
         <v>3323</v>
@@ -5371,7 +5399,7 @@
         <v>31</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C62" s="19">
         <v>2486</v>
@@ -5391,7 +5419,7 @@
         <v>31</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C63" s="19">
         <v>1128</v>
@@ -5411,7 +5439,7 @@
         <v>31</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C64" s="19">
         <v>1164</v>
@@ -5431,7 +5459,7 @@
         <v>31</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C65" s="19">
         <v>1147</v>
@@ -5451,7 +5479,7 @@
         <v>31</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C66" s="19">
         <v>2402</v>
@@ -5471,7 +5499,7 @@
         <v>31</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C67" s="19">
         <v>2544</v>
@@ -5491,7 +5519,7 @@
         <v>31</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C68" s="19">
         <v>948</v>
@@ -5511,7 +5539,7 @@
         <v>31</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C69" s="19">
         <v>631</v>
@@ -5531,7 +5559,7 @@
         <v>31</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C70" s="19">
         <v>2804</v>
@@ -5551,7 +5579,7 @@
         <v>31</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C71" s="19">
         <v>2902</v>
@@ -5571,7 +5599,7 @@
         <v>31</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C72" s="19">
         <v>498</v>
@@ -5591,7 +5619,7 @@
         <v>31</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C73" s="19">
         <v>3105</v>
@@ -5611,7 +5639,7 @@
         <v>31</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C74" s="19">
         <v>1588</v>
@@ -5631,7 +5659,7 @@
         <v>31</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C75" s="19">
         <v>2071</v>
@@ -5651,7 +5679,7 @@
         <v>31</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C76" s="19">
         <v>2402</v>
@@ -5671,7 +5699,7 @@
         <v>31</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C77" s="19">
         <v>2330</v>
@@ -5691,7 +5719,7 @@
         <v>31</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C78" s="19">
         <v>2550</v>
@@ -5711,7 +5739,7 @@
         <v>31</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C79" s="19">
         <v>2745</v>
@@ -5731,7 +5759,7 @@
         <v>31</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C80" s="19">
         <v>2333</v>
@@ -5751,7 +5779,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C81" s="19">
         <v>2061</v>
@@ -5771,7 +5799,7 @@
         <v>31</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C82" s="19">
         <v>2358</v>
@@ -5791,7 +5819,7 @@
         <v>31</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C83" s="19">
         <v>2201</v>
@@ -5811,7 +5839,7 @@
         <v>31</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C84" s="19">
         <v>2047</v>
@@ -5831,7 +5859,7 @@
         <v>31</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C85" s="19">
         <v>1668</v>
@@ -5851,7 +5879,7 @@
         <v>31</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C86" s="19">
         <v>1825</v>
@@ -5871,7 +5899,7 @@
         <v>31</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C87" s="19">
         <v>2041</v>
@@ -5891,7 +5919,7 @@
         <v>31</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C88" s="19">
         <v>2180</v>
@@ -5911,7 +5939,7 @@
         <v>31</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C89" s="19">
         <v>256</v>
@@ -5931,7 +5959,7 @@
         <v>31</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C90" s="19">
         <v>260</v>
@@ -5951,7 +5979,7 @@
         <v>31</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C91" s="19">
         <v>2740</v>
@@ -5971,7 +5999,7 @@
         <v>31</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C92" s="19">
         <v>249</v>
@@ -6011,7 +6039,7 @@
         <v>31</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C94" s="19">
         <v>2512</v>
@@ -6031,7 +6059,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C95" s="19">
         <v>252</v>
@@ -6051,7 +6079,7 @@
         <v>31</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C96" s="19">
         <v>253</v>
@@ -6071,7 +6099,7 @@
         <v>31</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C97" s="19">
         <v>2113</v>
@@ -6091,7 +6119,7 @@
         <v>31</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C98" s="19">
         <v>2516</v>
@@ -6111,7 +6139,7 @@
         <v>31</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C99" s="19">
         <v>2587</v>
@@ -6131,7 +6159,7 @@
         <v>31</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C100" s="19">
         <v>1245</v>
@@ -6151,7 +6179,7 @@
         <v>31</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C101" s="19">
         <v>1245</v>
@@ -6171,7 +6199,7 @@
         <v>31</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C102" s="19">
         <v>1240</v>
@@ -6291,7 +6319,7 @@
         <v>31</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C108" s="19">
         <v>749</v>
@@ -6311,7 +6339,7 @@
         <v>31</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C109" s="19">
         <v>2962</v>
@@ -6351,7 +6379,7 @@
         <v>31</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C111" s="19">
         <v>402</v>
@@ -6371,7 +6399,7 @@
         <v>31</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C112" s="19">
         <v>2240</v>
@@ -6391,7 +6419,7 @@
         <v>31</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C113" s="19">
         <v>2237</v>
@@ -6408,10 +6436,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C114" s="19">
         <v>1635</v>
@@ -6428,10 +6456,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C115" s="19">
         <v>514</v>
@@ -6448,10 +6476,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C116" s="19">
         <v>856</v>
@@ -6468,7 +6496,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B117" s="19" t="s">
         <v>46</v>
@@ -6488,7 +6516,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B118" s="19" t="s">
         <v>47</v>
@@ -6508,7 +6536,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B119" s="19" t="s">
         <v>54</v>
@@ -6528,7 +6556,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B120" s="19" t="s">
         <v>69</v>
@@ -6548,10 +6576,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C121" s="19">
         <v>2217</v>
@@ -6568,7 +6596,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>72</v>
@@ -6588,7 +6616,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>73</v>
@@ -6608,7 +6636,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>78</v>
@@ -6628,7 +6656,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>79</v>
@@ -6648,7 +6676,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>65</v>
@@ -6668,10 +6696,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C127" s="19">
         <v>5061</v>
@@ -6688,10 +6716,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C128" s="19">
         <v>5682</v>
@@ -6708,10 +6736,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C129" s="19">
         <v>314</v>
@@ -6728,10 +6756,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C130" s="19">
         <v>560</v>
@@ -6748,7 +6776,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>35</v>
@@ -6768,7 +6796,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>34</v>
@@ -6788,10 +6816,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C133" s="19">
         <v>1238</v>
@@ -6808,7 +6836,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>33</v>
@@ -6828,7 +6856,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>61</v>
@@ -6848,7 +6876,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>53</v>
@@ -6868,10 +6896,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C137" s="19">
         <v>2681</v>
@@ -6888,10 +6916,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C138" s="19">
         <v>584</v>
@@ -6908,7 +6936,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>81</v>
@@ -6928,10 +6956,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C140" s="19">
         <v>318</v>
@@ -6948,10 +6976,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C141" s="19">
         <v>547</v>
@@ -6968,7 +6996,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>38</v>
@@ -6988,7 +7016,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>38</v>
@@ -7008,10 +7036,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C144" s="19">
         <v>2017</v>
@@ -7028,10 +7056,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C145" s="19">
         <v>2252</v>
@@ -7048,7 +7076,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>71</v>
@@ -7068,10 +7096,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C147" s="19">
         <v>2661</v>
@@ -7088,10 +7116,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C148" s="19">
         <v>2794</v>
@@ -7108,7 +7136,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>64</v>
@@ -7128,7 +7156,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>77</v>
@@ -7148,10 +7176,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C151" s="19">
         <v>4544</v>
@@ -7168,10 +7196,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C152" s="19">
         <v>4808</v>
@@ -7188,10 +7216,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C153" s="19">
         <v>4777</v>
@@ -7208,10 +7236,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C154" s="19">
         <v>5309</v>
@@ -7228,10 +7256,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C155" s="19">
         <v>5881</v>
@@ -7248,7 +7276,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>70</v>
@@ -7268,10 +7296,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C157" s="19">
         <v>5084</v>
@@ -7288,10 +7316,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C158" s="19">
         <v>3526</v>
@@ -7308,10 +7336,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C159" s="19">
         <v>4862</v>
@@ -7328,10 +7356,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C160" s="19">
         <v>1826</v>
@@ -7348,10 +7376,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C161" s="19">
         <v>1634</v>
@@ -7368,10 +7396,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C162" s="19">
         <v>1440</v>
@@ -7388,7 +7416,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>58</v>
@@ -7408,10 +7436,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C164" s="19">
         <v>1088</v>
@@ -7428,10 +7456,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C165" s="19">
         <v>1437</v>
@@ -7448,7 +7476,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>42</v>
@@ -7468,7 +7496,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>80</v>
@@ -7488,10 +7516,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C168" s="19">
         <v>4564</v>
@@ -7508,10 +7536,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C169" s="19">
         <v>5125</v>
@@ -7528,10 +7556,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C170" s="19">
         <v>344</v>
@@ -7548,10 +7576,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C171" s="19">
         <v>486</v>
@@ -7568,10 +7596,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C172" s="19">
         <v>1796</v>
@@ -7588,10 +7616,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C173" s="19">
         <v>2548</v>
@@ -7608,10 +7636,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C174" s="19">
         <v>3000</v>
@@ -7628,7 +7656,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>49</v>
@@ -7648,10 +7676,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C176" s="19">
         <v>5861</v>
@@ -7668,10 +7696,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C177" s="19">
         <v>5801</v>
@@ -7688,10 +7716,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C178" s="19">
         <v>5798</v>
@@ -7708,10 +7736,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C179" s="19">
         <v>5962</v>
@@ -7728,10 +7756,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C180" s="19">
         <v>4433</v>
@@ -7748,10 +7776,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C181" s="19">
         <v>4862</v>
@@ -7768,10 +7796,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="C182" s="19">
         <v>3401</v>
@@ -7788,10 +7816,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C183" s="19">
         <v>5706</v>
@@ -7808,10 +7836,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C184" s="19">
         <v>515</v>
@@ -7828,10 +7856,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C185" s="19">
         <v>823</v>
@@ -7848,7 +7876,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>45</v>
@@ -7868,7 +7896,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>55</v>
@@ -7888,10 +7916,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C188" s="19">
         <v>1794</v>
@@ -7908,7 +7936,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B189" s="19" t="s">
         <v>74</v>
@@ -7928,10 +7956,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C190" s="19">
         <v>2142</v>
@@ -7948,7 +7976,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>32</v>
@@ -7968,7 +7996,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>40</v>
@@ -7988,7 +8016,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B193" s="19" t="s">
         <v>41</v>
@@ -8008,10 +8036,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C194" s="19">
         <v>1285</v>
@@ -8028,7 +8056,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>36</v>
@@ -8048,7 +8076,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>59</v>
@@ -8068,7 +8096,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>51</v>
@@ -8088,7 +8116,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B198" s="19" t="s">
         <v>66</v>
@@ -8108,7 +8136,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>48</v>
@@ -8128,7 +8156,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>67</v>
@@ -8148,7 +8176,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>62</v>
@@ -8168,10 +8196,10 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C202" s="19">
         <v>553</v>
@@ -8188,7 +8216,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>39</v>
@@ -8208,7 +8236,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>56</v>
@@ -8228,7 +8256,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>43</v>
@@ -8248,10 +8276,10 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C206" s="19">
         <v>2720</v>
@@ -8268,7 +8296,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>76</v>
@@ -8288,10 +8316,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C208" s="19">
         <v>4863</v>
@@ -8308,10 +8336,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C209" s="19">
         <v>5107</v>
@@ -8328,10 +8356,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C210" s="19">
         <v>4182</v>
@@ -10191,7 +10219,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -10210,14 +10238,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="33"/>
@@ -10231,7 +10259,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
@@ -10241,7 +10269,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="32" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="36"/>
@@ -10270,10 +10298,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>0</v>
@@ -10284,54 +10312,54 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="34"/>
       <c r="D9" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="39"/>
       <c r="D10" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="39"/>
       <c r="D11" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="34"/>
       <c r="D12" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -10341,76 +10369,76 @@
       <c r="B13" s="19"/>
       <c r="C13" s="39"/>
       <c r="D13" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="39"/>
       <c r="D14" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="39"/>
       <c r="D15" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="39"/>
       <c r="D16" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="39"/>
       <c r="D17" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="39"/>
       <c r="D18" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="G18" s="14"/>
     </row>
@@ -10421,10 +10449,10 @@
       <c r="B19" s="14"/>
       <c r="C19" s="40"/>
       <c r="D19" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10434,23 +10462,23 @@
       <c r="B20" s="19"/>
       <c r="C20" s="39"/>
       <c r="D20" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="39"/>
       <c r="D21" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10460,23 +10488,23 @@
       <c r="B22" s="19"/>
       <c r="C22" s="39"/>
       <c r="D22" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="34"/>
       <c r="D23" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10486,10 +10514,10 @@
       <c r="B24" s="17"/>
       <c r="C24" s="34"/>
       <c r="D24" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10499,10 +10527,10 @@
       <c r="B25" s="17"/>
       <c r="C25" s="34"/>
       <c r="D25" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10512,10 +10540,10 @@
       <c r="B26" s="17"/>
       <c r="C26" s="34"/>
       <c r="D26" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10525,10 +10553,10 @@
       <c r="B27" s="14"/>
       <c r="C27" s="40"/>
       <c r="D27" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10538,10 +10566,10 @@
       <c r="B28" s="14"/>
       <c r="C28" s="40"/>
       <c r="D28" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10551,10 +10579,10 @@
       <c r="B29" s="14"/>
       <c r="C29" s="40"/>
       <c r="D29" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10564,10 +10592,10 @@
       <c r="B30" s="14"/>
       <c r="C30" s="40"/>
       <c r="D30" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10577,10 +10605,10 @@
       <c r="B31" s="14"/>
       <c r="C31" s="40"/>
       <c r="D31" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -10590,10 +10618,10 @@
       <c r="B32" s="14"/>
       <c r="C32" s="40"/>
       <c r="D32" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10603,23 +10631,23 @@
       <c r="B33" s="14"/>
       <c r="C33" s="40"/>
       <c r="D33" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="40"/>
       <c r="D34" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -10629,10 +10657,10 @@
       <c r="B35" s="14"/>
       <c r="C35" s="40"/>
       <c r="D35" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10642,10 +10670,10 @@
       <c r="B36" s="14"/>
       <c r="C36" s="40"/>
       <c r="D36" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -10655,80 +10683,88 @@
       <c r="B37" s="14"/>
       <c r="C37" s="40"/>
       <c r="D37" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="40"/>
       <c r="D38" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="40"/>
       <c r="D39" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="40"/>
       <c r="D40" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="B41" s="14"/>
       <c r="C41" s="40"/>
+      <c r="D41" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="35"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="35"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="41"/>
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="41"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="40"/>
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="14"/>
@@ -10736,14 +10772,14 @@
       <c r="C47" s="40"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="42"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="40"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="42"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="14"/>
@@ -10756,14 +10792,14 @@
       <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="42"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="40"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="42"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="14"/>
@@ -10954,6 +10990,11 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="40"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10968,7 +11009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C245209E-6306-4EA6-A390-1E9C7CB53619}">
   <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -10981,7 +11024,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="33"/>
@@ -10989,7 +11032,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="33"/>
@@ -11004,7 +11047,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
@@ -11014,7 +11057,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="32" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="36"/>
@@ -11031,7 +11074,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
       <c r="A7" s="24" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="37"/>
@@ -11043,14 +11086,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="44" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
@@ -12011,7 +12054,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -12027,12 +12070,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12042,14 +12085,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12079,46 +12122,46 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -12126,54 +12169,54 @@
         <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -12181,10 +12224,10 @@
         <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -12192,21 +12235,21 @@
         <v>55</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -12214,21 +12257,21 @@
         <v>74</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -12236,10 +12279,10 @@
         <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -12247,10 +12290,10 @@
         <v>36</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -12258,10 +12301,10 @@
         <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -12269,10 +12312,10 @@
         <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -12280,10 +12323,10 @@
         <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -12291,10 +12334,10 @@
         <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -12302,21 +12345,21 @@
         <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -12324,10 +12367,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -12335,10 +12378,10 @@
         <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -12346,57 +12389,65 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="C35" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="6"/>
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="28"/>
       <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="31"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:3">
+      <c r="A40" s="31"/>
       <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:3">
@@ -12406,26 +12457,29 @@
       <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="29"/>
       <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:3">
+      <c r="A44" s="29"/>
       <c r="B44" s="6"/>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="29"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="30"/>
+    <row r="45" spans="1:3">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="29"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="14"/>
+      <c r="A51" s="30"/>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="14"/>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="14"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12439,7 +12493,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9014B11-7294-4050-ABF4-8B4EFBD7F103}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -12450,17 +12504,17 @@
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="50.21875" customWidth="1"/>
-    <col min="3" max="3" width="70.21875" customWidth="1"/>
+    <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12468,12 +12522,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12499,32 +12553,43 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="28"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="31"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="29"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="29"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="30"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="14"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="28"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="31"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="29"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="29"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="30"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12554,12 +12619,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12568,14 +12633,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12604,24 +12669,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -12676,24 +12741,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12718,112 +12783,112 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:3">

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C536B94A-1D0C-4DE3-A8FD-5B2B6B44CA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65020E33-9F58-49BF-A000-B17F49A1E273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="346">
   <si>
     <t>Name</t>
   </si>
@@ -74,19 +74,10 @@
     <t>Red</t>
   </si>
   <si>
-    <t>Highlights in Main or List</t>
-  </si>
-  <si>
     <t>Main image highlight color</t>
   </si>
   <si>
-    <t>List image highlight color</t>
-  </si>
-  <si>
     <t>Main highlight opacity</t>
-  </si>
-  <si>
-    <t>List highlight opacity</t>
   </si>
   <si>
     <t>Components</t>
@@ -122,12 +113,6 @@
   <si>
     <t>Short one-liner description
 (one short line only!)</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Board schematics</t>
   </si>
   <si>
     <t>Schematic name</t>
@@ -1146,8 +1131,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-May-31</t>
+      <t>2025-June-10</t>
     </r>
+  </si>
+  <si>
+    <t>Board schematic images</t>
+  </si>
+  <si>
+    <t>Thumbnail image highlight color</t>
+  </si>
+  <si>
+    <t>Thumbnail highlight opacity</t>
+  </si>
+  <si>
+    <t>Highlights in Main or Thumbnail</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1268,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1342,9 +1339,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1722,7 +1716,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -1731,180 +1725,164 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="66.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="21">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="21">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="28" t="s">
-        <v>207</v>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="32" t="s">
-        <v>214</v>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1">
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>342</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="28.8">
+      <c r="A9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="43.2">
-      <c r="A9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4">
-        <v>1</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>317</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
+      <c r="E12" s="7">
+        <v>0.3</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="28"/>
-    </row>
-    <row r="15" spans="1:9">
+    <row r="14" spans="1:7">
+      <c r="A14" s="27"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="29"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="28"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17"/>
@@ -1916,7 +1894,7 @@
       <c r="A19"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14"/>
@@ -1934,7 +1912,7 @@
       <c r="A25"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="14"/>
@@ -1949,7 +1927,7 @@
       <c r="A30"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="29"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="14"/>
@@ -1961,7 +1939,7 @@
       <c r="A34" s="14"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="14"/>
@@ -1974,7 +1952,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" location="worksheet-board-schematics" xr:uid="{3750711D-F43E-4B87-8B4F-359A1E77A0B0}"/>
@@ -2007,25 +1985,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
-        <v>207</v>
+      <c r="A4" s="27" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="32" t="s">
-        <v>213</v>
+      <c r="A5" s="31" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2033,7 +2011,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2052,1399 +2030,1399 @@
         <v>2</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8">
       <c r="A34" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="17" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="115.2">
       <c r="A74" s="17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B74" s="1">
         <v>6526</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="115.2">
       <c r="A75" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B75" s="1">
         <v>6526</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="28.8">
       <c r="A76" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1">
         <v>2364</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.8">
       <c r="A77" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B77" s="1">
         <v>2364</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.8">
       <c r="A78" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1">
         <v>2332</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="28.8">
       <c r="A79" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1">
         <v>2114</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B80" s="1">
         <v>6510</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B81" s="1">
         <v>7406</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="43.2">
       <c r="A82" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B82" s="1">
         <v>41464</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="43.2">
       <c r="A83" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B83" s="1">
         <v>41464</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B87" s="1">
         <v>4066</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="72">
       <c r="A88" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="28.8">
       <c r="A89" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B89" s="1">
         <v>6581</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="72">
       <c r="A90" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B90" s="1">
         <v>6569</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B91" s="1">
         <v>556</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B95" s="1">
         <v>4066</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B96" s="1">
         <v>8701</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="17" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B100" s="1">
         <v>7812</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B101" s="1">
         <v>7805</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="100.8">
       <c r="A102" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="17"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="28"/>
+      <c r="A104" s="27"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="28"/>
+      <c r="A105" s="27"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="29"/>
+      <c r="A106" s="28"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107"/>
@@ -3456,7 +3434,7 @@
       <c r="A109"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="29"/>
+      <c r="A110" s="28"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111"/>
@@ -3471,7 +3449,7 @@
       <c r="A114"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="29"/>
+      <c r="A115" s="28"/>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="14"/>
@@ -3489,7 +3467,7 @@
       <c r="A120" s="14"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="30"/>
+      <c r="A121" s="29"/>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="14"/>
@@ -3507,7 +3485,7 @@
       <c r="A126" s="14"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="30"/>
+      <c r="A127" s="29"/>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="14"/>
@@ -3519,7 +3497,7 @@
       <c r="A130" s="14"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="30"/>
+      <c r="A131" s="29"/>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="14"/>
@@ -3534,7 +3512,7 @@
       <c r="A135" s="14"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="30"/>
+      <c r="A136" s="29"/>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="14"/>
@@ -4248,12 +4226,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4267,8 +4245,8 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28" t="s">
-        <v>207</v>
+      <c r="A4" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4279,8 +4257,8 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="32" t="s">
-        <v>212</v>
+      <c r="A5" s="31" t="s">
+        <v>207</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4302,7 +4280,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -4312,7 +4290,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -4332,10 +4310,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="19">
         <v>904</v>
@@ -4354,10 +4332,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" s="19">
         <v>1173</v>
@@ -4376,10 +4354,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" s="19">
         <v>1451</v>
@@ -4396,10 +4374,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" s="19">
         <v>2177</v>
@@ -4416,10 +4394,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="19">
         <v>2672</v>
@@ -4436,10 +4414,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14" s="19">
         <v>2672</v>
@@ -4456,10 +4434,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C15" s="19">
         <v>3215</v>
@@ -4476,10 +4454,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C16" s="19">
         <v>3487</v>
@@ -4496,10 +4474,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" s="19">
         <v>2664</v>
@@ -4516,10 +4494,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="19">
         <v>1162</v>
@@ -4536,10 +4514,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="19">
         <v>1004</v>
@@ -4556,10 +4534,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" s="19">
         <v>638</v>
@@ -4576,10 +4554,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C21" s="19">
         <v>2124</v>
@@ -4596,10 +4574,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C22" s="19">
         <v>1872</v>
@@ -4616,10 +4594,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C23" s="19">
         <v>1170</v>
@@ -4636,10 +4614,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C24" s="19">
         <v>3249</v>
@@ -4656,10 +4634,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C25" s="19">
         <v>634</v>
@@ -4676,10 +4654,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C26" s="19">
         <v>2741</v>
@@ -4696,10 +4674,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C27" s="19">
         <v>2998</v>
@@ -4716,10 +4694,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C28" s="19">
         <v>2998</v>
@@ -4736,10 +4714,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29" s="19">
         <v>2358</v>
@@ -4756,10 +4734,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C30" s="19">
         <v>3385</v>
@@ -4776,10 +4754,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C31" s="19">
         <v>2660</v>
@@ -4796,10 +4774,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C32" s="19">
         <v>2565</v>
@@ -4816,10 +4794,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C33" s="19">
         <v>1923</v>
@@ -4836,10 +4814,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C34" s="19">
         <v>610</v>
@@ -4856,10 +4834,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C35" s="19">
         <v>3433</v>
@@ -4876,10 +4854,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C36" s="19">
         <v>3726</v>
@@ -4896,10 +4874,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C37" s="19">
         <v>389</v>
@@ -4916,10 +4894,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C38" s="19">
         <v>3356</v>
@@ -4936,10 +4914,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C39" s="19">
         <v>3177</v>
@@ -4956,10 +4934,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C40" s="19">
         <v>953</v>
@@ -4976,10 +4954,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C41" s="19">
         <v>1223</v>
@@ -4996,10 +4974,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C42" s="19">
         <v>1487</v>
@@ -5016,10 +4994,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C43" s="19">
         <v>2287</v>
@@ -5036,10 +5014,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C44" s="19">
         <v>556</v>
@@ -5056,10 +5034,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C45" s="19">
         <v>912</v>
@@ -5076,10 +5054,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C46" s="19">
         <v>1134</v>
@@ -5096,10 +5074,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C47" s="19">
         <v>528</v>
@@ -5116,10 +5094,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C48" s="19">
         <v>2165</v>
@@ -5136,10 +5114,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C49" s="19">
         <v>2002</v>
@@ -5156,10 +5134,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C50" s="19">
         <v>1821</v>
@@ -5176,10 +5154,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C51" s="19">
         <v>2165</v>
@@ -5196,10 +5174,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C52" s="19">
         <v>956</v>
@@ -5216,10 +5194,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C53" s="19">
         <v>2823</v>
@@ -5236,10 +5214,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C54" s="19">
         <v>2484</v>
@@ -5256,10 +5234,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C55" s="19">
         <v>530</v>
@@ -5276,10 +5254,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C56" s="19">
         <v>1822</v>
@@ -5296,10 +5274,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C57" s="19">
         <v>269</v>
@@ -5316,10 +5294,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C58" s="19">
         <v>269</v>
@@ -5336,10 +5314,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C59" s="19">
         <v>2104</v>
@@ -5356,10 +5334,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C60" s="19">
         <v>3194</v>
@@ -5376,10 +5354,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C61" s="19">
         <v>3323</v>
@@ -5396,10 +5374,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C62" s="19">
         <v>2486</v>
@@ -5416,10 +5394,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C63" s="19">
         <v>1128</v>
@@ -5436,10 +5414,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C64" s="19">
         <v>1164</v>
@@ -5456,10 +5434,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C65" s="19">
         <v>1147</v>
@@ -5476,10 +5454,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C66" s="19">
         <v>2402</v>
@@ -5496,10 +5474,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C67" s="19">
         <v>2544</v>
@@ -5516,10 +5494,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C68" s="19">
         <v>948</v>
@@ -5536,10 +5514,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C69" s="19">
         <v>631</v>
@@ -5556,10 +5534,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C70" s="19">
         <v>2804</v>
@@ -5576,10 +5554,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C71" s="19">
         <v>2902</v>
@@ -5596,10 +5574,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C72" s="19">
         <v>498</v>
@@ -5616,10 +5594,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C73" s="19">
         <v>3105</v>
@@ -5636,10 +5614,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C74" s="19">
         <v>1588</v>
@@ -5656,10 +5634,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C75" s="19">
         <v>2071</v>
@@ -5676,10 +5654,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C76" s="19">
         <v>2402</v>
@@ -5696,10 +5674,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C77" s="19">
         <v>2330</v>
@@ -5716,10 +5694,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C78" s="19">
         <v>2550</v>
@@ -5736,10 +5714,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C79" s="19">
         <v>2745</v>
@@ -5756,10 +5734,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C80" s="19">
         <v>2333</v>
@@ -5776,10 +5754,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C81" s="19">
         <v>2061</v>
@@ -5796,10 +5774,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C82" s="19">
         <v>2358</v>
@@ -5816,10 +5794,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C83" s="19">
         <v>2201</v>
@@ -5836,10 +5814,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C84" s="19">
         <v>2047</v>
@@ -5856,10 +5834,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C85" s="19">
         <v>1668</v>
@@ -5876,10 +5854,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C86" s="19">
         <v>1825</v>
@@ -5896,10 +5874,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C87" s="19">
         <v>2041</v>
@@ -5916,10 +5894,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C88" s="19">
         <v>2180</v>
@@ -5936,10 +5914,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C89" s="19">
         <v>256</v>
@@ -5956,10 +5934,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C90" s="19">
         <v>260</v>
@@ -5976,10 +5954,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C91" s="19">
         <v>2740</v>
@@ -5996,10 +5974,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C92" s="19">
         <v>249</v>
@@ -6016,10 +5994,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C93" s="19">
         <v>1065</v>
@@ -6036,10 +6014,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C94" s="19">
         <v>2512</v>
@@ -6056,10 +6034,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C95" s="19">
         <v>252</v>
@@ -6076,10 +6054,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C96" s="19">
         <v>253</v>
@@ -6096,10 +6074,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C97" s="19">
         <v>2113</v>
@@ -6116,10 +6094,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C98" s="19">
         <v>2516</v>
@@ -6136,10 +6114,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C99" s="19">
         <v>2587</v>
@@ -6156,10 +6134,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C100" s="19">
         <v>1245</v>
@@ -6176,10 +6154,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C101" s="19">
         <v>1245</v>
@@ -6196,10 +6174,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C102" s="19">
         <v>1240</v>
@@ -6216,10 +6194,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C103" s="19">
         <v>857</v>
@@ -6236,10 +6214,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C104" s="19">
         <v>876</v>
@@ -6256,10 +6234,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C105" s="19">
         <v>857</v>
@@ -6276,10 +6254,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C106" s="19">
         <v>976</v>
@@ -6296,10 +6274,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C107" s="19">
         <v>3231</v>
@@ -6316,10 +6294,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C108" s="19">
         <v>749</v>
@@ -6336,10 +6314,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C109" s="19">
         <v>2962</v>
@@ -6356,10 +6334,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C110" s="19">
         <v>1535</v>
@@ -6376,10 +6354,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C111" s="19">
         <v>402</v>
@@ -6396,10 +6374,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C112" s="19">
         <v>2240</v>
@@ -6416,10 +6394,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C113" s="19">
         <v>2237</v>
@@ -6436,10 +6414,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C114" s="19">
         <v>1635</v>
@@ -6456,10 +6434,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C115" s="19">
         <v>514</v>
@@ -6476,10 +6454,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C116" s="19">
         <v>856</v>
@@ -6496,10 +6474,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C117" s="19">
         <v>1205</v>
@@ -6516,10 +6494,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C118" s="19">
         <v>1440</v>
@@ -6536,10 +6514,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C119" s="19">
         <v>1829</v>
@@ -6556,10 +6534,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C120" s="19">
         <v>2195</v>
@@ -6576,10 +6554,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C121" s="19">
         <v>2217</v>
@@ -6596,10 +6574,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C122" s="19">
         <v>2468</v>
@@ -6616,10 +6594,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C123" s="19">
         <v>2411</v>
@@ -6636,10 +6614,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C124" s="19">
         <v>2794</v>
@@ -6656,10 +6634,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C125" s="19">
         <v>3083</v>
@@ -6676,10 +6654,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C126" s="19">
         <v>3527</v>
@@ -6696,10 +6674,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C127" s="19">
         <v>5061</v>
@@ -6716,10 +6694,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C128" s="19">
         <v>5682</v>
@@ -6736,10 +6714,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C129" s="19">
         <v>314</v>
@@ -6756,10 +6734,10 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C130" s="19">
         <v>560</v>
@@ -6776,10 +6754,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C131" s="19">
         <v>1006</v>
@@ -6796,10 +6774,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C132" s="19">
         <v>777</v>
@@ -6816,10 +6794,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C133" s="19">
         <v>1238</v>
@@ -6836,10 +6814,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C134" s="19">
         <v>1747</v>
@@ -6856,10 +6834,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C135" s="19">
         <v>2488</v>
@@ -6876,10 +6854,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C136" s="19">
         <v>2020</v>
@@ -6896,10 +6874,10 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C137" s="19">
         <v>2681</v>
@@ -6916,10 +6894,10 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C138" s="19">
         <v>584</v>
@@ -6936,10 +6914,10 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C139" s="19">
         <v>2894</v>
@@ -6956,10 +6934,10 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C140" s="19">
         <v>318</v>
@@ -6976,10 +6954,10 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C141" s="19">
         <v>547</v>
@@ -6996,10 +6974,10 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C142" s="19">
         <v>548</v>
@@ -7016,10 +6994,10 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C143" s="19">
         <v>1747</v>
@@ -7036,10 +7014,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C144" s="19">
         <v>2017</v>
@@ -7056,10 +7034,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C145" s="19">
         <v>2252</v>
@@ -7076,10 +7054,10 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C146" s="19">
         <v>2641</v>
@@ -7096,10 +7074,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C147" s="19">
         <v>2661</v>
@@ -7116,10 +7094,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C148" s="19">
         <v>2794</v>
@@ -7136,10 +7114,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C149" s="19">
         <v>4423</v>
@@ -7156,10 +7134,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C150" s="19">
         <v>4384</v>
@@ -7176,10 +7154,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C151" s="19">
         <v>4544</v>
@@ -7196,10 +7174,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C152" s="19">
         <v>4808</v>
@@ -7216,10 +7194,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C153" s="19">
         <v>4777</v>
@@ -7236,10 +7214,10 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C154" s="19">
         <v>5309</v>
@@ -7256,10 +7234,10 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C155" s="19">
         <v>5881</v>
@@ -7276,10 +7254,10 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C156" s="19">
         <v>2641</v>
@@ -7296,10 +7274,10 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C157" s="19">
         <v>5084</v>
@@ -7316,10 +7294,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C158" s="19">
         <v>3526</v>
@@ -7336,10 +7314,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C159" s="19">
         <v>4862</v>
@@ -7356,10 +7334,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C160" s="19">
         <v>1826</v>
@@ -7376,10 +7354,10 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C161" s="19">
         <v>1634</v>
@@ -7396,10 +7374,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C162" s="19">
         <v>1440</v>
@@ -7416,10 +7394,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C163" s="19">
         <v>3104</v>
@@ -7436,10 +7414,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C164" s="19">
         <v>1088</v>
@@ -7456,10 +7434,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C165" s="19">
         <v>1437</v>
@@ -7476,10 +7454,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C166" s="19">
         <v>1029</v>
@@ -7496,10 +7474,10 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C167" s="19">
         <v>3064</v>
@@ -7516,10 +7494,10 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C168" s="19">
         <v>4564</v>
@@ -7536,10 +7514,10 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C169" s="19">
         <v>5125</v>
@@ -7556,10 +7534,10 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C170" s="19">
         <v>344</v>
@@ -7576,10 +7554,10 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C171" s="19">
         <v>486</v>
@@ -7596,10 +7574,10 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C172" s="19">
         <v>1796</v>
@@ -7616,10 +7594,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C173" s="19">
         <v>2548</v>
@@ -7636,10 +7614,10 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C174" s="19">
         <v>3000</v>
@@ -7656,10 +7634,10 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C175" s="19">
         <v>4485</v>
@@ -7676,10 +7654,10 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C176" s="19">
         <v>5861</v>
@@ -7696,10 +7674,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C177" s="19">
         <v>5801</v>
@@ -7716,10 +7694,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C178" s="19">
         <v>5798</v>
@@ -7736,10 +7714,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C179" s="19">
         <v>5962</v>
@@ -7756,10 +7734,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C180" s="19">
         <v>4433</v>
@@ -7776,10 +7754,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C181" s="19">
         <v>4862</v>
@@ -7796,10 +7774,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C182" s="19">
         <v>3401</v>
@@ -7816,10 +7794,10 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C183" s="19">
         <v>5706</v>
@@ -7836,10 +7814,10 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C184" s="19">
         <v>515</v>
@@ -7856,10 +7834,10 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C185" s="19">
         <v>823</v>
@@ -7876,10 +7854,10 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C186" s="19">
         <v>1171</v>
@@ -7896,10 +7874,10 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C187" s="19">
         <v>1483</v>
@@ -7916,10 +7894,10 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C188" s="19">
         <v>1794</v>
@@ -7936,10 +7914,10 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C189" s="19">
         <v>2256</v>
@@ -7956,10 +7934,10 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C190" s="19">
         <v>2142</v>
@@ -7976,10 +7954,10 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C191" s="19">
         <v>555</v>
@@ -7996,10 +7974,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C192" s="19">
         <v>1011</v>
@@ -8016,10 +7994,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C193" s="19">
         <v>779</v>
@@ -8036,10 +8014,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C194" s="19">
         <v>1285</v>
@@ -8056,10 +8034,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C195" s="19">
         <v>1752</v>
@@ -8076,10 +8054,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C196" s="19">
         <v>2489</v>
@@ -8096,10 +8074,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C197" s="19">
         <v>2023</v>
@@ -8116,10 +8094,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C198" s="19">
         <v>2487</v>
@@ -8136,10 +8114,10 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C199" s="19">
         <v>2720</v>
@@ -8156,10 +8134,10 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C200" s="19">
         <v>2526</v>
@@ -8176,10 +8154,10 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C201" s="19">
         <v>3607</v>
@@ -8196,10 +8174,10 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C202" s="19">
         <v>553</v>
@@ -8216,10 +8194,10 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C203" s="19">
         <v>1752</v>
@@ -8236,10 +8214,10 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C204" s="19">
         <v>2024</v>
@@ -8256,10 +8234,10 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C205" s="19">
         <v>2258</v>
@@ -8276,10 +8254,10 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C206" s="19">
         <v>2720</v>
@@ -8296,10 +8274,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C207" s="19">
         <v>4074</v>
@@ -8316,10 +8294,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C208" s="19">
         <v>4863</v>
@@ -8336,10 +8314,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C209" s="19">
         <v>5107</v>
@@ -8356,10 +8334,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C210" s="19">
         <v>4182</v>
@@ -10230,7 +10208,7 @@
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.5546875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
@@ -10238,41 +10216,41 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="33"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="33"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="G5" s="14"/>
@@ -10280,16 +10258,16 @@
     <row r="6" spans="1:7">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="34"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
@@ -10298,10 +10276,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>305</v>
+        <v>299</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>300</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>0</v>
@@ -10312,444 +10290,444 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="C20" s="39"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="39"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="39"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" s="17"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" s="17"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="40"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="40"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="40"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="40"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="40"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="40"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38" s="14"/>
-      <c r="C38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B39" s="14"/>
-      <c r="C39" s="40"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B40" s="14"/>
-      <c r="C40" s="40"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="40"/>
+      <c r="C42" s="39"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="34"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44"/>
@@ -10757,9 +10735,9 @@
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="41"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="40"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46"/>
@@ -10769,232 +10747,232 @@
     <row r="47" spans="1:5">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="40"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="40"/>
+      <c r="C48" s="39"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="42"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="41"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="40"/>
+      <c r="C50" s="39"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="40"/>
+      <c r="C51" s="39"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="40"/>
+      <c r="C52" s="39"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="42"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="41"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="40"/>
+      <c r="C54" s="39"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="40"/>
+      <c r="C55" s="39"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="40"/>
+      <c r="C56" s="39"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="40"/>
+      <c r="C57" s="39"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="40"/>
+      <c r="C58" s="39"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="40"/>
+      <c r="C59" s="39"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="40"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="40"/>
+      <c r="C61" s="39"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="40"/>
+      <c r="C62" s="39"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="40"/>
+      <c r="C63" s="39"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="40"/>
+      <c r="C64" s="39"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="40"/>
+      <c r="C65" s="39"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="40"/>
+      <c r="C66" s="39"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="40"/>
+      <c r="C67" s="39"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="40"/>
+      <c r="C68" s="39"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="40"/>
+      <c r="C69" s="39"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="40"/>
+      <c r="C70" s="39"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="40"/>
+      <c r="C71" s="39"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="40"/>
+      <c r="C72" s="39"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="40"/>
+      <c r="C73" s="39"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="40"/>
+      <c r="C74" s="39"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="40"/>
+      <c r="C75" s="39"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="40"/>
+      <c r="C76" s="39"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="40"/>
+      <c r="C77" s="39"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="40"/>
+      <c r="C78" s="39"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="40"/>
+      <c r="C79" s="39"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="40"/>
+      <c r="C80" s="39"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="40"/>
+      <c r="C81" s="39"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="40"/>
+      <c r="C82" s="39"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="40"/>
+      <c r="C83" s="39"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="40"/>
+      <c r="C84" s="39"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="40"/>
+      <c r="C85" s="39"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="40"/>
+      <c r="C86" s="39"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="40"/>
+      <c r="C87" s="39"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="40"/>
+      <c r="C88" s="39"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="40"/>
+      <c r="C89" s="39"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="40"/>
+      <c r="C90" s="39"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="40"/>
+      <c r="C91" s="39"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="40"/>
+      <c r="C92" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11024,222 +11002,222 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
       <c r="A7" s="24" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44" t="s">
-        <v>307</v>
+      <c r="B8" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="43" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="40"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="40"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="40"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="40"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="40"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="40"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="40"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="40"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="40"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="40"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="40"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="40"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="40"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="40"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
@@ -11551,145 +11529,145 @@
     <row r="97" spans="1:4">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="40"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="40"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="40"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="40"/>
+      <c r="C100" s="39"/>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="40"/>
+      <c r="C101" s="39"/>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="40"/>
+      <c r="C102" s="39"/>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="40"/>
+      <c r="C103" s="39"/>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="40"/>
+      <c r="C104" s="39"/>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="40"/>
+      <c r="C105" s="39"/>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="40"/>
+      <c r="C106" s="39"/>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="40"/>
+      <c r="C107" s="39"/>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="40"/>
+      <c r="C108" s="39"/>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="40"/>
+      <c r="C109" s="39"/>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="40"/>
+      <c r="C110" s="39"/>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="40"/>
+      <c r="C111" s="39"/>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="40"/>
+      <c r="C112" s="39"/>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="40"/>
+      <c r="C113" s="39"/>
       <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="40"/>
+      <c r="C114" s="39"/>
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="40"/>
+      <c r="C115" s="39"/>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="40"/>
+      <c r="C116" s="39"/>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="40"/>
+      <c r="C117" s="39"/>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="40"/>
+      <c r="C118" s="39"/>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="40"/>
+      <c r="C119" s="39"/>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="40"/>
+      <c r="C120" s="39"/>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4">
@@ -11887,103 +11865,103 @@
     <row r="169" spans="1:5">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
-      <c r="C169" s="40"/>
+      <c r="C169" s="39"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
-      <c r="C170" s="40"/>
+      <c r="C170" s="39"/>
       <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="40"/>
+      <c r="C171" s="39"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
-      <c r="C172" s="40"/>
+      <c r="C172" s="39"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
-      <c r="C173" s="40"/>
+      <c r="C173" s="39"/>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
-      <c r="C174" s="40"/>
+      <c r="C174" s="39"/>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
-      <c r="C175" s="40"/>
+      <c r="C175" s="39"/>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
-      <c r="C176" s="40"/>
+      <c r="C176" s="39"/>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
-      <c r="C177" s="40"/>
+      <c r="C177" s="39"/>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
-      <c r="C178" s="40"/>
+      <c r="C178" s="39"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
-      <c r="C179" s="40"/>
+      <c r="C179" s="39"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
-      <c r="C180" s="40"/>
+      <c r="C180" s="39"/>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
-      <c r="C181" s="40"/>
+      <c r="C181" s="39"/>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
-      <c r="C182" s="40"/>
+      <c r="C182" s="39"/>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
-      <c r="C183" s="40"/>
+      <c r="C183" s="39"/>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
-      <c r="C184" s="40"/>
+      <c r="C184" s="39"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
     </row>
@@ -12070,12 +12048,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12084,15 +12062,15 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
-        <v>207</v>
+      <c r="A4" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>210</v>
+      <c r="A5" s="31" t="s">
+        <v>205</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12104,7 +12082,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -12122,332 +12100,332 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C35" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="31"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:3">
@@ -12460,17 +12438,17 @@
       <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="29"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="6"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="28"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="30"/>
+      <c r="A51" s="29"/>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="14"/>
@@ -12509,25 +12487,25 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
-        <v>207</v>
+      <c r="A4" s="27" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>209</v>
+      <c r="A5" s="31" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12535,7 +12513,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -12548,45 +12526,45 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="31"/>
+      <c r="A15" s="30"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="14"/>
@@ -12619,12 +12597,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12632,15 +12610,15 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
-        <v>207</v>
+      <c r="A4" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>209</v>
+      <c r="A5" s="31" t="s">
+        <v>204</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12651,14 +12629,14 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
@@ -12669,40 +12647,40 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="31"/>
+      <c r="A17" s="30"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="14"/>
@@ -12741,38 +12719,38 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
-        <v>207</v>
+      <c r="A4" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32" t="s">
-        <v>208</v>
+      <c r="A5" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
@@ -12783,128 +12761,128 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>310</v>
+        <v>306</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>314</v>
+        <v>308</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
         <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="31"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="14"/>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65020E33-9F58-49BF-A000-B17F49A1E273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669FDCE-B943-44FD-96D8-77D708C67EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -1728,8 +1728,8 @@
     <col min="1" max="1" width="38.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="66.21875" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1805,10 +1805,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>343</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>344</v>
@@ -1824,11 +1824,11 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.3</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -1844,11 +1844,11 @@
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.3</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -1865,11 +1865,11 @@
       <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.3</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE63F79-459D-4CFB-87EA-F5374DB4D165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAEFF50-7C8A-4BDF-8FC2-771F78B5DF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1166,6 +1166,16 @@
     <t>Info</t>
   </si>
   <si>
+    <t>Video chip (PAL)</t>
+  </si>
+  <si>
+    <t>Video chip (NTSC)</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1178,18 +1188,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-7</t>
+      <t>2025-July-11</t>
     </r>
-  </si>
-  <si>
-    <t>Video chip (PAL)</t>
-  </si>
-  <si>
-    <t>Video chip (NTSC)</t>
-  </si>
-  <si>
-    <t>Memory location:
-$D000-$D3FF</t>
   </si>
 </sst>
 </file>
@@ -1435,9 +1435,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1458,6 +1455,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1805,7 +1805,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1847,12 +1847,12 @@
         <v>335</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="28.8">
       <c r="A9" s="22" t="s">
@@ -3264,7 +3264,7 @@
         <v>353</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3284,7 +3284,7 @@
         <v>354</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4400,7 +4400,7 @@
       <c r="B8" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>297</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -4444,7 +4444,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="18"/>
@@ -4457,7 +4457,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="18"/>
@@ -4483,7 +4483,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="18"/>
@@ -4497,7 +4497,7 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="18"/>
@@ -4510,7 +4510,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="18"/>
@@ -4523,7 +4523,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>95</v>
       </c>
       <c r="B17" s="18"/>
@@ -4536,7 +4536,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="115.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="18"/>
@@ -4552,7 +4552,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="115.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="18"/>
@@ -4585,7 +4585,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.8">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="18"/>
@@ -4601,7 +4601,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="28.8">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="47" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="18"/>
@@ -4617,7 +4617,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="47" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="18"/>
@@ -4790,7 +4790,7 @@
         <v>272</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4930,17 +4930,17 @@
       <c r="C45" s="33"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="49"/>
+      <c r="A46" s="48"/>
       <c r="B46"/>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="50"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="27"/>
       <c r="C47" s="38"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="49"/>
+      <c r="A48" s="48"/>
       <c r="B48"/>
       <c r="C48" s="4"/>
     </row>
@@ -5175,1644 +5175,1644 @@
       <c r="C94" s="37"/>
     </row>
     <row r="204" spans="5:5">
-      <c r="E204" s="44"/>
+      <c r="E204" s="43"/>
     </row>
     <row r="205" spans="5:5">
-      <c r="E205" s="44"/>
+      <c r="E205" s="43"/>
     </row>
     <row r="206" spans="5:5">
-      <c r="E206" s="44"/>
+      <c r="E206" s="43"/>
     </row>
     <row r="207" spans="5:5">
-      <c r="E207" s="44"/>
+      <c r="E207" s="43"/>
     </row>
     <row r="208" spans="5:5">
-      <c r="E208" s="44"/>
+      <c r="E208" s="43"/>
     </row>
     <row r="209" spans="5:7">
-      <c r="E209" s="44"/>
+      <c r="E209" s="43"/>
     </row>
     <row r="210" spans="5:7">
-      <c r="E210" s="44"/>
+      <c r="E210" s="43"/>
     </row>
     <row r="220" spans="5:7">
-      <c r="E220" s="44"/>
+      <c r="E220" s="43"/>
     </row>
     <row r="222" spans="5:7">
-      <c r="E222" s="44"/>
-      <c r="G222" s="44"/>
+      <c r="E222" s="43"/>
+      <c r="G222" s="43"/>
     </row>
     <row r="223" spans="5:7">
-      <c r="G223" s="44"/>
+      <c r="G223" s="43"/>
     </row>
     <row r="224" spans="5:7">
-      <c r="E224" s="45"/>
-      <c r="G224" s="44"/>
+      <c r="E224" s="44"/>
+      <c r="G224" s="43"/>
     </row>
     <row r="225" spans="5:7">
-      <c r="E225" s="44"/>
-      <c r="G225" s="44"/>
+      <c r="E225" s="43"/>
+      <c r="G225" s="43"/>
     </row>
     <row r="226" spans="5:7">
-      <c r="E226" s="44"/>
-      <c r="G226" s="44"/>
+      <c r="E226" s="43"/>
+      <c r="G226" s="43"/>
     </row>
     <row r="227" spans="5:7">
-      <c r="E227" s="44"/>
-      <c r="G227" s="44"/>
+      <c r="E227" s="43"/>
+      <c r="G227" s="43"/>
     </row>
     <row r="228" spans="5:7">
-      <c r="E228" s="44"/>
-      <c r="G228" s="44"/>
+      <c r="E228" s="43"/>
+      <c r="G228" s="43"/>
     </row>
     <row r="229" spans="5:7">
-      <c r="E229" s="44"/>
-      <c r="G229" s="44"/>
+      <c r="E229" s="43"/>
+      <c r="G229" s="43"/>
     </row>
     <row r="230" spans="5:7">
-      <c r="E230" s="46"/>
-      <c r="G230" s="44"/>
+      <c r="E230" s="45"/>
+      <c r="G230" s="43"/>
     </row>
     <row r="231" spans="5:7">
-      <c r="E231" s="44"/>
-      <c r="G231" s="44"/>
+      <c r="E231" s="43"/>
+      <c r="G231" s="43"/>
     </row>
     <row r="232" spans="5:7">
-      <c r="E232" s="44"/>
-      <c r="G232" s="44"/>
+      <c r="E232" s="43"/>
+      <c r="G232" s="43"/>
     </row>
     <row r="233" spans="5:7">
-      <c r="E233" s="44"/>
-      <c r="G233" s="44"/>
+      <c r="E233" s="43"/>
+      <c r="G233" s="43"/>
     </row>
     <row r="234" spans="5:7">
-      <c r="E234" s="44"/>
-      <c r="G234" s="44"/>
+      <c r="E234" s="43"/>
+      <c r="G234" s="43"/>
     </row>
     <row r="235" spans="5:7">
-      <c r="E235" s="44"/>
-      <c r="G235" s="44"/>
+      <c r="E235" s="43"/>
+      <c r="G235" s="43"/>
     </row>
     <row r="236" spans="5:7">
-      <c r="E236" s="44"/>
-      <c r="G236" s="44"/>
+      <c r="E236" s="43"/>
+      <c r="G236" s="43"/>
     </row>
     <row r="237" spans="5:7">
-      <c r="E237" s="44"/>
-      <c r="G237" s="44"/>
+      <c r="E237" s="43"/>
+      <c r="G237" s="43"/>
     </row>
     <row r="238" spans="5:7">
-      <c r="E238" s="44"/>
-      <c r="G238" s="44"/>
+      <c r="E238" s="43"/>
+      <c r="G238" s="43"/>
     </row>
     <row r="239" spans="5:7">
-      <c r="E239" s="44"/>
-      <c r="G239" s="44"/>
+      <c r="E239" s="43"/>
+      <c r="G239" s="43"/>
     </row>
     <row r="240" spans="5:7">
-      <c r="E240" s="44"/>
-      <c r="G240" s="44"/>
+      <c r="E240" s="43"/>
+      <c r="G240" s="43"/>
     </row>
     <row r="241" spans="5:7">
-      <c r="E241" s="44"/>
-      <c r="G241" s="44"/>
+      <c r="E241" s="43"/>
+      <c r="G241" s="43"/>
     </row>
     <row r="242" spans="5:7">
-      <c r="E242" s="44"/>
-      <c r="G242" s="44"/>
+      <c r="E242" s="43"/>
+      <c r="G242" s="43"/>
     </row>
     <row r="243" spans="5:7">
-      <c r="E243" s="44"/>
-      <c r="G243" s="44"/>
+      <c r="E243" s="43"/>
+      <c r="G243" s="43"/>
     </row>
     <row r="244" spans="5:7">
-      <c r="E244" s="44"/>
-      <c r="G244" s="44"/>
+      <c r="E244" s="43"/>
+      <c r="G244" s="43"/>
     </row>
     <row r="245" spans="5:7">
-      <c r="E245" s="44"/>
-      <c r="G245" s="44"/>
+      <c r="E245" s="43"/>
+      <c r="G245" s="43"/>
     </row>
     <row r="246" spans="5:7">
-      <c r="E246" s="44"/>
-      <c r="G246" s="44"/>
+      <c r="E246" s="43"/>
+      <c r="G246" s="43"/>
     </row>
     <row r="247" spans="5:7">
-      <c r="E247" s="44"/>
-      <c r="G247" s="44"/>
+      <c r="E247" s="43"/>
+      <c r="G247" s="43"/>
     </row>
     <row r="248" spans="5:7">
-      <c r="E248" s="44"/>
-      <c r="G248" s="44"/>
+      <c r="E248" s="43"/>
+      <c r="G248" s="43"/>
     </row>
     <row r="249" spans="5:7">
-      <c r="E249" s="44"/>
-      <c r="G249" s="44"/>
+      <c r="E249" s="43"/>
+      <c r="G249" s="43"/>
     </row>
     <row r="250" spans="5:7">
-      <c r="E250" s="44"/>
-      <c r="G250" s="44"/>
+      <c r="E250" s="43"/>
+      <c r="G250" s="43"/>
     </row>
     <row r="251" spans="5:7">
-      <c r="E251" s="44"/>
-      <c r="G251" s="44"/>
+      <c r="E251" s="43"/>
+      <c r="G251" s="43"/>
     </row>
     <row r="252" spans="5:7">
-      <c r="E252" s="44"/>
-      <c r="G252" s="44"/>
+      <c r="E252" s="43"/>
+      <c r="G252" s="43"/>
     </row>
     <row r="253" spans="5:7">
-      <c r="E253" s="44"/>
-      <c r="G253" s="44"/>
+      <c r="E253" s="43"/>
+      <c r="G253" s="43"/>
     </row>
     <row r="254" spans="5:7">
-      <c r="E254" s="44"/>
-      <c r="G254" s="44"/>
+      <c r="E254" s="43"/>
+      <c r="G254" s="43"/>
     </row>
     <row r="255" spans="5:7">
-      <c r="E255" s="44"/>
-      <c r="G255" s="44"/>
+      <c r="E255" s="43"/>
+      <c r="G255" s="43"/>
     </row>
     <row r="256" spans="5:7">
-      <c r="E256" s="44"/>
-      <c r="G256" s="44"/>
+      <c r="E256" s="43"/>
+      <c r="G256" s="43"/>
     </row>
     <row r="257" spans="5:7">
-      <c r="E257" s="44"/>
-      <c r="G257" s="44"/>
+      <c r="E257" s="43"/>
+      <c r="G257" s="43"/>
     </row>
     <row r="258" spans="5:7">
-      <c r="E258" s="44"/>
-      <c r="G258" s="44"/>
+      <c r="E258" s="43"/>
+      <c r="G258" s="43"/>
     </row>
     <row r="259" spans="5:7">
-      <c r="E259" s="44"/>
-      <c r="G259" s="44"/>
+      <c r="E259" s="43"/>
+      <c r="G259" s="43"/>
     </row>
     <row r="260" spans="5:7">
-      <c r="E260" s="44"/>
-      <c r="G260" s="44"/>
+      <c r="E260" s="43"/>
+      <c r="G260" s="43"/>
     </row>
     <row r="261" spans="5:7">
-      <c r="E261" s="44"/>
-      <c r="G261" s="44"/>
+      <c r="E261" s="43"/>
+      <c r="G261" s="43"/>
     </row>
     <row r="262" spans="5:7">
-      <c r="E262" s="44"/>
-      <c r="G262" s="44"/>
+      <c r="E262" s="43"/>
+      <c r="G262" s="43"/>
     </row>
     <row r="263" spans="5:7">
-      <c r="E263" s="44"/>
-      <c r="G263" s="44"/>
+      <c r="E263" s="43"/>
+      <c r="G263" s="43"/>
     </row>
     <row r="264" spans="5:7">
-      <c r="E264" s="44"/>
-      <c r="G264" s="44"/>
+      <c r="E264" s="43"/>
+      <c r="G264" s="43"/>
     </row>
     <row r="265" spans="5:7">
-      <c r="E265" s="44"/>
-      <c r="G265" s="44"/>
+      <c r="E265" s="43"/>
+      <c r="G265" s="43"/>
     </row>
     <row r="266" spans="5:7">
-      <c r="E266" s="44"/>
-      <c r="G266" s="44"/>
+      <c r="E266" s="43"/>
+      <c r="G266" s="43"/>
     </row>
     <row r="267" spans="5:7">
-      <c r="E267" s="44"/>
-      <c r="G267" s="44"/>
+      <c r="E267" s="43"/>
+      <c r="G267" s="43"/>
     </row>
     <row r="268" spans="5:7">
-      <c r="E268" s="44"/>
-      <c r="G268" s="44"/>
+      <c r="E268" s="43"/>
+      <c r="G268" s="43"/>
     </row>
     <row r="269" spans="5:7">
-      <c r="E269" s="44"/>
-      <c r="G269" s="44"/>
+      <c r="E269" s="43"/>
+      <c r="G269" s="43"/>
     </row>
     <row r="277" spans="5:7">
-      <c r="E277" s="44"/>
+      <c r="E277" s="43"/>
     </row>
     <row r="286" spans="5:7">
-      <c r="G286" s="44"/>
+      <c r="G286" s="43"/>
     </row>
     <row r="287" spans="5:7">
-      <c r="G287" s="44"/>
+      <c r="G287" s="43"/>
     </row>
     <row r="288" spans="5:7">
-      <c r="G288" s="44"/>
+      <c r="G288" s="43"/>
     </row>
     <row r="289" spans="7:7">
-      <c r="G289" s="44"/>
+      <c r="G289" s="43"/>
     </row>
     <row r="290" spans="7:7">
-      <c r="G290" s="44"/>
+      <c r="G290" s="43"/>
     </row>
     <row r="291" spans="7:7">
-      <c r="G291" s="44"/>
+      <c r="G291" s="43"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="44"/>
+      <c r="G292" s="43"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="44"/>
+      <c r="G293" s="43"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="44"/>
+      <c r="G294" s="43"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="44"/>
+      <c r="G295" s="43"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="44"/>
+      <c r="G296" s="43"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="44"/>
+      <c r="G297" s="43"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="44"/>
+      <c r="G298" s="43"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="44"/>
+      <c r="G299" s="43"/>
     </row>
     <row r="329" spans="5:5">
-      <c r="E329" s="44"/>
+      <c r="E329" s="43"/>
     </row>
     <row r="348" spans="5:5">
-      <c r="E348" s="44"/>
+      <c r="E348" s="43"/>
     </row>
     <row r="349" spans="5:5">
-      <c r="E349" s="44"/>
+      <c r="E349" s="43"/>
     </row>
     <row r="352" spans="5:5">
-      <c r="E352" s="44"/>
+      <c r="E352" s="43"/>
     </row>
     <row r="353" spans="5:5">
-      <c r="E353" s="44"/>
+      <c r="E353" s="43"/>
     </row>
     <row r="354" spans="5:5">
-      <c r="E354" s="44"/>
+      <c r="E354" s="43"/>
     </row>
     <row r="355" spans="5:5">
-      <c r="E355" s="44"/>
+      <c r="E355" s="43"/>
     </row>
     <row r="356" spans="5:5">
-      <c r="E356" s="44"/>
+      <c r="E356" s="43"/>
     </row>
     <row r="357" spans="5:5">
-      <c r="E357" s="44"/>
+      <c r="E357" s="43"/>
     </row>
     <row r="363" spans="5:5">
-      <c r="E363" s="44"/>
+      <c r="E363" s="43"/>
     </row>
     <row r="364" spans="5:5">
-      <c r="E364" s="44"/>
+      <c r="E364" s="43"/>
     </row>
     <row r="365" spans="5:5">
-      <c r="E365" s="44"/>
+      <c r="E365" s="43"/>
     </row>
     <row r="366" spans="5:5">
-      <c r="E366" s="44"/>
+      <c r="E366" s="43"/>
     </row>
     <row r="367" spans="5:5">
-      <c r="E367" s="44"/>
+      <c r="E367" s="43"/>
     </row>
     <row r="368" spans="5:5">
-      <c r="E368" s="44"/>
+      <c r="E368" s="43"/>
     </row>
     <row r="369" spans="5:5">
-      <c r="E369" s="44"/>
+      <c r="E369" s="43"/>
     </row>
     <row r="371" spans="5:5">
-      <c r="E371" s="44"/>
+      <c r="E371" s="43"/>
     </row>
     <row r="372" spans="5:5">
-      <c r="E372" s="44"/>
+      <c r="E372" s="43"/>
     </row>
     <row r="373" spans="5:5">
-      <c r="E373" s="44"/>
+      <c r="E373" s="43"/>
     </row>
     <row r="374" spans="5:5">
-      <c r="E374" s="44"/>
+      <c r="E374" s="43"/>
     </row>
     <row r="378" spans="5:5">
-      <c r="E378" s="44"/>
+      <c r="E378" s="43"/>
     </row>
     <row r="385" spans="5:5">
-      <c r="E385" s="44"/>
+      <c r="E385" s="43"/>
     </row>
     <row r="389" spans="5:5">
-      <c r="E389" s="44"/>
+      <c r="E389" s="43"/>
     </row>
     <row r="400" spans="5:5">
-      <c r="E400" s="44"/>
+      <c r="E400" s="43"/>
     </row>
     <row r="410" spans="5:7">
-      <c r="E410" s="44"/>
+      <c r="E410" s="43"/>
     </row>
     <row r="412" spans="5:7">
-      <c r="G412" s="44"/>
+      <c r="G412" s="43"/>
     </row>
     <row r="413" spans="5:7">
-      <c r="G413" s="44"/>
+      <c r="G413" s="43"/>
     </row>
     <row r="414" spans="5:7">
-      <c r="G414" s="44"/>
+      <c r="G414" s="43"/>
     </row>
     <row r="415" spans="5:7">
-      <c r="G415" s="44"/>
+      <c r="G415" s="43"/>
     </row>
     <row r="416" spans="5:7">
-      <c r="G416" s="44"/>
+      <c r="G416" s="43"/>
     </row>
     <row r="417" spans="5:7">
-      <c r="G417" s="44"/>
+      <c r="G417" s="43"/>
     </row>
     <row r="418" spans="5:7">
-      <c r="G418" s="44"/>
+      <c r="G418" s="43"/>
     </row>
     <row r="419" spans="5:7">
-      <c r="G419" s="44"/>
+      <c r="G419" s="43"/>
     </row>
     <row r="420" spans="5:7">
-      <c r="G420" s="44"/>
+      <c r="G420" s="43"/>
     </row>
     <row r="421" spans="5:7">
-      <c r="G421" s="44"/>
+      <c r="G421" s="43"/>
     </row>
     <row r="422" spans="5:7">
-      <c r="G422" s="44"/>
+      <c r="G422" s="43"/>
     </row>
     <row r="423" spans="5:7">
-      <c r="G423" s="44"/>
+      <c r="G423" s="43"/>
     </row>
     <row r="424" spans="5:7">
-      <c r="G424" s="44"/>
+      <c r="G424" s="43"/>
     </row>
     <row r="425" spans="5:7">
-      <c r="G425" s="44"/>
+      <c r="G425" s="43"/>
     </row>
     <row r="426" spans="5:7">
-      <c r="G426" s="44"/>
+      <c r="G426" s="43"/>
     </row>
     <row r="427" spans="5:7">
-      <c r="G427" s="44"/>
+      <c r="G427" s="43"/>
     </row>
     <row r="428" spans="5:7">
-      <c r="G428" s="44"/>
+      <c r="G428" s="43"/>
     </row>
     <row r="429" spans="5:7">
-      <c r="G429" s="44"/>
+      <c r="G429" s="43"/>
     </row>
     <row r="430" spans="5:7">
-      <c r="G430" s="44"/>
+      <c r="G430" s="43"/>
     </row>
     <row r="431" spans="5:7">
-      <c r="E431" s="44"/>
-      <c r="G431" s="44"/>
+      <c r="E431" s="43"/>
+      <c r="G431" s="43"/>
     </row>
     <row r="433" spans="5:7">
-      <c r="G433" s="44"/>
+      <c r="G433" s="43"/>
     </row>
     <row r="434" spans="5:7">
-      <c r="G434" s="44"/>
+      <c r="G434" s="43"/>
     </row>
     <row r="435" spans="5:7">
-      <c r="G435" s="44"/>
+      <c r="G435" s="43"/>
     </row>
     <row r="436" spans="5:7">
-      <c r="G436" s="44"/>
+      <c r="G436" s="43"/>
     </row>
     <row r="437" spans="5:7">
-      <c r="G437" s="44"/>
+      <c r="G437" s="43"/>
     </row>
     <row r="438" spans="5:7">
-      <c r="G438" s="44"/>
+      <c r="G438" s="43"/>
     </row>
     <row r="439" spans="5:7">
-      <c r="G439" s="44"/>
+      <c r="G439" s="43"/>
     </row>
     <row r="440" spans="5:7">
-      <c r="E440" s="44"/>
-      <c r="G440" s="44"/>
+      <c r="E440" s="43"/>
+      <c r="G440" s="43"/>
     </row>
     <row r="441" spans="5:7">
-      <c r="G441" s="44"/>
+      <c r="G441" s="43"/>
     </row>
     <row r="442" spans="5:7">
-      <c r="G442" s="44"/>
+      <c r="G442" s="43"/>
     </row>
     <row r="443" spans="5:7">
-      <c r="G443" s="44"/>
+      <c r="G443" s="43"/>
     </row>
     <row r="444" spans="5:7">
-      <c r="G444" s="44"/>
+      <c r="G444" s="43"/>
     </row>
     <row r="445" spans="5:7">
-      <c r="G445" s="44"/>
+      <c r="G445" s="43"/>
     </row>
     <row r="446" spans="5:7">
-      <c r="G446" s="44"/>
+      <c r="G446" s="43"/>
     </row>
     <row r="447" spans="5:7">
-      <c r="G447" s="44"/>
+      <c r="G447" s="43"/>
     </row>
     <row r="448" spans="5:7">
-      <c r="E448" s="44"/>
-      <c r="G448" s="44"/>
+      <c r="E448" s="43"/>
+      <c r="G448" s="43"/>
     </row>
     <row r="450" spans="5:7">
-      <c r="G450" s="44"/>
+      <c r="G450" s="43"/>
     </row>
     <row r="451" spans="5:7">
-      <c r="G451" s="44"/>
+      <c r="G451" s="43"/>
     </row>
     <row r="452" spans="5:7">
-      <c r="G452" s="44"/>
+      <c r="G452" s="43"/>
     </row>
     <row r="453" spans="5:7">
-      <c r="G453" s="44"/>
+      <c r="G453" s="43"/>
     </row>
     <row r="454" spans="5:7">
-      <c r="G454" s="44"/>
+      <c r="G454" s="43"/>
     </row>
     <row r="455" spans="5:7">
-      <c r="G455" s="44"/>
+      <c r="G455" s="43"/>
     </row>
     <row r="456" spans="5:7">
-      <c r="G456" s="44"/>
+      <c r="G456" s="43"/>
     </row>
     <row r="457" spans="5:7">
-      <c r="E457" s="44"/>
-      <c r="G457" s="44"/>
+      <c r="E457" s="43"/>
+      <c r="G457" s="43"/>
     </row>
     <row r="458" spans="5:7">
-      <c r="G458" s="44"/>
+      <c r="G458" s="43"/>
     </row>
     <row r="459" spans="5:7">
-      <c r="G459" s="44"/>
+      <c r="G459" s="43"/>
     </row>
     <row r="460" spans="5:7">
-      <c r="G460" s="44"/>
+      <c r="G460" s="43"/>
     </row>
     <row r="461" spans="5:7">
-      <c r="G461" s="44"/>
+      <c r="G461" s="43"/>
     </row>
     <row r="462" spans="5:7">
-      <c r="G462" s="44"/>
+      <c r="G462" s="43"/>
     </row>
     <row r="463" spans="5:7">
-      <c r="G463" s="44"/>
+      <c r="G463" s="43"/>
     </row>
     <row r="464" spans="5:7">
-      <c r="G464" s="44"/>
+      <c r="G464" s="43"/>
     </row>
     <row r="465" spans="5:7">
-      <c r="E465" s="44"/>
-      <c r="G465" s="44"/>
+      <c r="E465" s="43"/>
+      <c r="G465" s="43"/>
     </row>
     <row r="473" spans="5:7">
-      <c r="E473" s="44"/>
+      <c r="E473" s="43"/>
     </row>
     <row r="480" spans="5:7">
-      <c r="E480" s="44"/>
+      <c r="E480" s="43"/>
     </row>
     <row r="496" spans="5:5">
-      <c r="E496" s="45"/>
+      <c r="E496" s="44"/>
     </row>
     <row r="497" spans="5:5">
-      <c r="E497" s="45"/>
+      <c r="E497" s="44"/>
     </row>
     <row r="500" spans="5:5">
-      <c r="E500" s="45"/>
+      <c r="E500" s="44"/>
     </row>
     <row r="501" spans="5:5">
-      <c r="E501" s="44"/>
+      <c r="E501" s="43"/>
     </row>
     <row r="514" spans="5:5">
-      <c r="E514" s="44"/>
+      <c r="E514" s="43"/>
     </row>
     <row r="526" spans="5:5">
-      <c r="E526" s="44"/>
+      <c r="E526" s="43"/>
     </row>
     <row r="530" spans="5:5">
-      <c r="E530" s="44"/>
+      <c r="E530" s="43"/>
     </row>
     <row r="531" spans="5:5">
-      <c r="E531" s="44"/>
+      <c r="E531" s="43"/>
     </row>
     <row r="532" spans="5:5">
-      <c r="E532" s="44"/>
+      <c r="E532" s="43"/>
     </row>
     <row r="533" spans="5:5">
-      <c r="E533" s="44"/>
+      <c r="E533" s="43"/>
     </row>
     <row r="534" spans="5:5">
-      <c r="E534" s="44"/>
+      <c r="E534" s="43"/>
     </row>
     <row r="535" spans="5:5">
-      <c r="E535" s="44"/>
+      <c r="E535" s="43"/>
     </row>
     <row r="536" spans="5:5">
-      <c r="E536" s="44"/>
+      <c r="E536" s="43"/>
     </row>
     <row r="537" spans="5:5">
-      <c r="E537" s="44"/>
+      <c r="E537" s="43"/>
     </row>
     <row r="538" spans="5:5">
-      <c r="E538" s="44"/>
+      <c r="E538" s="43"/>
     </row>
     <row r="539" spans="5:5">
-      <c r="E539" s="44"/>
+      <c r="E539" s="43"/>
     </row>
     <row r="540" spans="5:5">
-      <c r="E540" s="44"/>
+      <c r="E540" s="43"/>
     </row>
     <row r="541" spans="5:5">
-      <c r="E541" s="44"/>
+      <c r="E541" s="43"/>
     </row>
     <row r="542" spans="5:5">
-      <c r="E542" s="44"/>
+      <c r="E542" s="43"/>
     </row>
     <row r="543" spans="5:5">
-      <c r="E543" s="44"/>
+      <c r="E543" s="43"/>
     </row>
     <row r="544" spans="5:5">
-      <c r="E544" s="44"/>
+      <c r="E544" s="43"/>
     </row>
     <row r="545" spans="5:7">
-      <c r="E545" s="44"/>
+      <c r="E545" s="43"/>
     </row>
     <row r="546" spans="5:7">
-      <c r="E546" s="44"/>
+      <c r="E546" s="43"/>
     </row>
     <row r="547" spans="5:7">
-      <c r="E547" s="44"/>
+      <c r="E547" s="43"/>
     </row>
     <row r="548" spans="5:7">
-      <c r="E548" s="44"/>
+      <c r="E548" s="43"/>
     </row>
     <row r="549" spans="5:7">
-      <c r="E549" s="44"/>
+      <c r="E549" s="43"/>
     </row>
     <row r="550" spans="5:7">
-      <c r="E550" s="44"/>
+      <c r="E550" s="43"/>
     </row>
     <row r="551" spans="5:7">
-      <c r="E551" s="44"/>
+      <c r="E551" s="43"/>
     </row>
     <row r="552" spans="5:7">
-      <c r="E552" s="44"/>
+      <c r="E552" s="43"/>
     </row>
     <row r="553" spans="5:7">
-      <c r="E553" s="44"/>
+      <c r="E553" s="43"/>
     </row>
     <row r="555" spans="5:7">
-      <c r="G555" s="44"/>
+      <c r="G555" s="43"/>
     </row>
     <row r="556" spans="5:7">
-      <c r="G556" s="44"/>
+      <c r="G556" s="43"/>
     </row>
     <row r="557" spans="5:7">
-      <c r="G557" s="44"/>
+      <c r="G557" s="43"/>
     </row>
     <row r="558" spans="5:7">
-      <c r="G558" s="44"/>
+      <c r="G558" s="43"/>
     </row>
     <row r="559" spans="5:7">
-      <c r="G559" s="44"/>
+      <c r="G559" s="43"/>
     </row>
     <row r="560" spans="5:7">
-      <c r="G560" s="44"/>
+      <c r="G560" s="43"/>
     </row>
     <row r="561" spans="5:7">
-      <c r="G561" s="44"/>
+      <c r="G561" s="43"/>
     </row>
     <row r="562" spans="5:7">
-      <c r="G562" s="44"/>
+      <c r="G562" s="43"/>
     </row>
     <row r="563" spans="5:7">
-      <c r="G563" s="44"/>
+      <c r="G563" s="43"/>
     </row>
     <row r="564" spans="5:7">
-      <c r="G564" s="44"/>
+      <c r="G564" s="43"/>
     </row>
     <row r="565" spans="5:7">
-      <c r="G565" s="44"/>
+      <c r="G565" s="43"/>
     </row>
     <row r="566" spans="5:7">
-      <c r="G566" s="44"/>
+      <c r="G566" s="43"/>
     </row>
     <row r="567" spans="5:7">
-      <c r="G567" s="44"/>
+      <c r="G567" s="43"/>
     </row>
     <row r="568" spans="5:7">
-      <c r="E568" s="44"/>
-      <c r="G568" s="44"/>
+      <c r="E568" s="43"/>
+      <c r="G568" s="43"/>
     </row>
     <row r="570" spans="5:7">
-      <c r="E570" s="44"/>
+      <c r="E570" s="43"/>
     </row>
     <row r="571" spans="5:7">
-      <c r="E571" s="44"/>
+      <c r="E571" s="43"/>
     </row>
     <row r="572" spans="5:7">
-      <c r="E572" s="44"/>
+      <c r="E572" s="43"/>
     </row>
     <row r="573" spans="5:7">
-      <c r="E573" s="44"/>
+      <c r="E573" s="43"/>
     </row>
     <row r="574" spans="5:7">
-      <c r="E574" s="44"/>
+      <c r="E574" s="43"/>
     </row>
     <row r="575" spans="5:7">
-      <c r="E575" s="44"/>
+      <c r="E575" s="43"/>
     </row>
     <row r="576" spans="5:7">
-      <c r="E576" s="44"/>
+      <c r="E576" s="43"/>
     </row>
     <row r="577" spans="5:5">
-      <c r="E577" s="44"/>
+      <c r="E577" s="43"/>
     </row>
     <row r="578" spans="5:5">
-      <c r="E578" s="44"/>
+      <c r="E578" s="43"/>
     </row>
     <row r="579" spans="5:5">
-      <c r="E579" s="44"/>
+      <c r="E579" s="43"/>
     </row>
     <row r="580" spans="5:5">
-      <c r="E580" s="44"/>
+      <c r="E580" s="43"/>
     </row>
     <row r="581" spans="5:5">
-      <c r="E581" s="44"/>
+      <c r="E581" s="43"/>
     </row>
     <row r="582" spans="5:5">
-      <c r="E582" s="44"/>
+      <c r="E582" s="43"/>
     </row>
     <row r="583" spans="5:5">
-      <c r="E583" s="44"/>
+      <c r="E583" s="43"/>
     </row>
     <row r="584" spans="5:5">
-      <c r="E584" s="44"/>
+      <c r="E584" s="43"/>
     </row>
     <row r="585" spans="5:5">
-      <c r="E585" s="44"/>
+      <c r="E585" s="43"/>
     </row>
     <row r="586" spans="5:5">
-      <c r="E586" s="44"/>
+      <c r="E586" s="43"/>
     </row>
     <row r="587" spans="5:5">
-      <c r="E587" s="44"/>
+      <c r="E587" s="43"/>
     </row>
     <row r="588" spans="5:5">
-      <c r="E588" s="44"/>
+      <c r="E588" s="43"/>
     </row>
     <row r="589" spans="5:5">
-      <c r="E589" s="44"/>
+      <c r="E589" s="43"/>
     </row>
     <row r="590" spans="5:5">
-      <c r="E590" s="44"/>
+      <c r="E590" s="43"/>
     </row>
     <row r="591" spans="5:5">
-      <c r="E591" s="44"/>
+      <c r="E591" s="43"/>
     </row>
     <row r="592" spans="5:5">
-      <c r="E592" s="44"/>
+      <c r="E592" s="43"/>
     </row>
     <row r="593" spans="5:5">
-      <c r="E593" s="44"/>
+      <c r="E593" s="43"/>
     </row>
     <row r="594" spans="5:5">
-      <c r="E594" s="44"/>
+      <c r="E594" s="43"/>
     </row>
     <row r="595" spans="5:5">
-      <c r="E595" s="44"/>
+      <c r="E595" s="43"/>
     </row>
     <row r="596" spans="5:5">
-      <c r="E596" s="44"/>
+      <c r="E596" s="43"/>
     </row>
     <row r="597" spans="5:5">
-      <c r="E597" s="44"/>
+      <c r="E597" s="43"/>
     </row>
     <row r="598" spans="5:5">
-      <c r="E598" s="44"/>
+      <c r="E598" s="43"/>
     </row>
     <row r="599" spans="5:5">
-      <c r="E599" s="44"/>
+      <c r="E599" s="43"/>
     </row>
     <row r="600" spans="5:5">
-      <c r="E600" s="44"/>
+      <c r="E600" s="43"/>
     </row>
     <row r="601" spans="5:5">
-      <c r="E601" s="44"/>
+      <c r="E601" s="43"/>
     </row>
     <row r="602" spans="5:5">
-      <c r="E602" s="44"/>
+      <c r="E602" s="43"/>
     </row>
     <row r="603" spans="5:5">
-      <c r="E603" s="44"/>
+      <c r="E603" s="43"/>
     </row>
     <row r="604" spans="5:5">
-      <c r="E604" s="44"/>
+      <c r="E604" s="43"/>
     </row>
     <row r="605" spans="5:5">
-      <c r="E605" s="44"/>
+      <c r="E605" s="43"/>
     </row>
     <row r="606" spans="5:5">
-      <c r="E606" s="44"/>
+      <c r="E606" s="43"/>
     </row>
     <row r="607" spans="5:5">
-      <c r="E607" s="44"/>
+      <c r="E607" s="43"/>
     </row>
     <row r="608" spans="5:5">
-      <c r="E608" s="44"/>
+      <c r="E608" s="43"/>
     </row>
     <row r="609" spans="5:7">
-      <c r="E609" s="44"/>
+      <c r="E609" s="43"/>
     </row>
     <row r="610" spans="5:7">
-      <c r="E610" s="44"/>
+      <c r="E610" s="43"/>
     </row>
     <row r="611" spans="5:7">
-      <c r="E611" s="44"/>
+      <c r="E611" s="43"/>
     </row>
     <row r="612" spans="5:7">
-      <c r="E612" s="44"/>
+      <c r="E612" s="43"/>
     </row>
     <row r="613" spans="5:7">
-      <c r="E613" s="44"/>
+      <c r="E613" s="43"/>
     </row>
     <row r="614" spans="5:7">
-      <c r="E614" s="44"/>
+      <c r="E614" s="43"/>
     </row>
     <row r="615" spans="5:7">
-      <c r="E615" s="44"/>
+      <c r="E615" s="43"/>
     </row>
     <row r="616" spans="5:7">
-      <c r="E616" s="44"/>
+      <c r="E616" s="43"/>
     </row>
     <row r="617" spans="5:7">
-      <c r="E617" s="44"/>
+      <c r="E617" s="43"/>
     </row>
     <row r="619" spans="5:7">
-      <c r="E619" s="44"/>
-      <c r="G619" s="44"/>
+      <c r="E619" s="43"/>
+      <c r="G619" s="43"/>
     </row>
     <row r="620" spans="5:7">
-      <c r="E620" s="44"/>
-      <c r="G620" s="44"/>
+      <c r="E620" s="43"/>
+      <c r="G620" s="43"/>
     </row>
     <row r="621" spans="5:7">
-      <c r="E621" s="44"/>
-      <c r="G621" s="44"/>
+      <c r="E621" s="43"/>
+      <c r="G621" s="43"/>
     </row>
     <row r="622" spans="5:7">
-      <c r="E622" s="44"/>
-      <c r="G622" s="44"/>
+      <c r="E622" s="43"/>
+      <c r="G622" s="43"/>
     </row>
     <row r="623" spans="5:7">
-      <c r="E623" s="44"/>
-      <c r="G623" s="44"/>
+      <c r="E623" s="43"/>
+      <c r="G623" s="43"/>
     </row>
     <row r="624" spans="5:7">
-      <c r="E624" s="44"/>
-      <c r="G624" s="44"/>
+      <c r="E624" s="43"/>
+      <c r="G624" s="43"/>
     </row>
     <row r="625" spans="5:7">
-      <c r="E625" s="44"/>
-      <c r="G625" s="44"/>
+      <c r="E625" s="43"/>
+      <c r="G625" s="43"/>
     </row>
     <row r="626" spans="5:7">
-      <c r="E626" s="44"/>
-      <c r="G626" s="44"/>
+      <c r="E626" s="43"/>
+      <c r="G626" s="43"/>
     </row>
     <row r="627" spans="5:7">
-      <c r="E627" s="44"/>
-      <c r="G627" s="44"/>
+      <c r="E627" s="43"/>
+      <c r="G627" s="43"/>
     </row>
     <row r="628" spans="5:7">
-      <c r="E628" s="44"/>
-      <c r="G628" s="44"/>
+      <c r="E628" s="43"/>
+      <c r="G628" s="43"/>
     </row>
     <row r="629" spans="5:7">
-      <c r="E629" s="44"/>
-      <c r="G629" s="44"/>
+      <c r="E629" s="43"/>
+      <c r="G629" s="43"/>
     </row>
     <row r="630" spans="5:7">
-      <c r="E630" s="44"/>
-      <c r="G630" s="44"/>
+      <c r="E630" s="43"/>
+      <c r="G630" s="43"/>
     </row>
     <row r="631" spans="5:7">
-      <c r="E631" s="44"/>
-      <c r="G631" s="44"/>
+      <c r="E631" s="43"/>
+      <c r="G631" s="43"/>
     </row>
     <row r="632" spans="5:7">
-      <c r="E632" s="44"/>
-      <c r="G632" s="44"/>
+      <c r="E632" s="43"/>
+      <c r="G632" s="43"/>
     </row>
     <row r="633" spans="5:7">
-      <c r="E633" s="44"/>
-      <c r="G633" s="44"/>
+      <c r="E633" s="43"/>
+      <c r="G633" s="43"/>
     </row>
     <row r="634" spans="5:7">
-      <c r="E634" s="44"/>
-      <c r="G634" s="44"/>
+      <c r="E634" s="43"/>
+      <c r="G634" s="43"/>
     </row>
     <row r="635" spans="5:7">
-      <c r="E635" s="44"/>
-      <c r="G635" s="44"/>
+      <c r="E635" s="43"/>
+      <c r="G635" s="43"/>
     </row>
     <row r="636" spans="5:7">
-      <c r="E636" s="44"/>
-      <c r="G636" s="44"/>
+      <c r="E636" s="43"/>
+      <c r="G636" s="43"/>
     </row>
     <row r="637" spans="5:7">
-      <c r="E637" s="44"/>
-      <c r="G637" s="44"/>
+      <c r="E637" s="43"/>
+      <c r="G637" s="43"/>
     </row>
     <row r="638" spans="5:7">
-      <c r="E638" s="44"/>
-      <c r="G638" s="44"/>
+      <c r="E638" s="43"/>
+      <c r="G638" s="43"/>
     </row>
     <row r="639" spans="5:7">
-      <c r="E639" s="44"/>
-      <c r="G639" s="44"/>
+      <c r="E639" s="43"/>
+      <c r="G639" s="43"/>
     </row>
     <row r="640" spans="5:7">
-      <c r="E640" s="44"/>
-      <c r="G640" s="44"/>
+      <c r="E640" s="43"/>
+      <c r="G640" s="43"/>
     </row>
     <row r="641" spans="5:7">
-      <c r="E641" s="44"/>
-      <c r="G641" s="44"/>
+      <c r="E641" s="43"/>
+      <c r="G641" s="43"/>
     </row>
     <row r="642" spans="5:7">
-      <c r="E642" s="44"/>
-      <c r="G642" s="44"/>
+      <c r="E642" s="43"/>
+      <c r="G642" s="43"/>
     </row>
     <row r="643" spans="5:7">
-      <c r="E643" s="44"/>
-      <c r="G643" s="44"/>
+      <c r="E643" s="43"/>
+      <c r="G643" s="43"/>
     </row>
     <row r="644" spans="5:7">
-      <c r="E644" s="44"/>
-      <c r="G644" s="44"/>
+      <c r="E644" s="43"/>
+      <c r="G644" s="43"/>
     </row>
     <row r="645" spans="5:7">
-      <c r="E645" s="44"/>
-      <c r="G645" s="44"/>
+      <c r="E645" s="43"/>
+      <c r="G645" s="43"/>
     </row>
     <row r="646" spans="5:7">
-      <c r="E646" s="44"/>
-      <c r="G646" s="44"/>
+      <c r="E646" s="43"/>
+      <c r="G646" s="43"/>
     </row>
     <row r="647" spans="5:7">
-      <c r="E647" s="44"/>
-      <c r="G647" s="44"/>
+      <c r="E647" s="43"/>
+      <c r="G647" s="43"/>
     </row>
     <row r="648" spans="5:7">
-      <c r="E648" s="44"/>
-      <c r="G648" s="44"/>
+      <c r="E648" s="43"/>
+      <c r="G648" s="43"/>
     </row>
     <row r="649" spans="5:7">
-      <c r="E649" s="44"/>
-      <c r="G649" s="44"/>
+      <c r="E649" s="43"/>
+      <c r="G649" s="43"/>
     </row>
     <row r="650" spans="5:7">
-      <c r="E650" s="44"/>
-      <c r="G650" s="44"/>
+      <c r="E650" s="43"/>
+      <c r="G650" s="43"/>
     </row>
     <row r="651" spans="5:7">
-      <c r="E651" s="44"/>
-      <c r="G651" s="44"/>
+      <c r="E651" s="43"/>
+      <c r="G651" s="43"/>
     </row>
     <row r="652" spans="5:7">
-      <c r="E652" s="44"/>
-      <c r="G652" s="44"/>
+      <c r="E652" s="43"/>
+      <c r="G652" s="43"/>
     </row>
     <row r="653" spans="5:7">
-      <c r="E653" s="44"/>
-      <c r="G653" s="44"/>
+      <c r="E653" s="43"/>
+      <c r="G653" s="43"/>
     </row>
     <row r="654" spans="5:7">
-      <c r="E654" s="44"/>
-      <c r="G654" s="44"/>
+      <c r="E654" s="43"/>
+      <c r="G654" s="43"/>
     </row>
     <row r="655" spans="5:7">
-      <c r="E655" s="44"/>
-      <c r="G655" s="44"/>
+      <c r="E655" s="43"/>
+      <c r="G655" s="43"/>
     </row>
     <row r="656" spans="5:7">
-      <c r="E656" s="44"/>
-      <c r="G656" s="44"/>
+      <c r="E656" s="43"/>
+      <c r="G656" s="43"/>
     </row>
     <row r="657" spans="5:7">
-      <c r="E657" s="44"/>
-      <c r="G657" s="44"/>
+      <c r="E657" s="43"/>
+      <c r="G657" s="43"/>
     </row>
     <row r="658" spans="5:7">
-      <c r="E658" s="44"/>
-      <c r="G658" s="44"/>
+      <c r="E658" s="43"/>
+      <c r="G658" s="43"/>
     </row>
     <row r="659" spans="5:7">
-      <c r="E659" s="44"/>
-      <c r="G659" s="44"/>
+      <c r="E659" s="43"/>
+      <c r="G659" s="43"/>
     </row>
     <row r="660" spans="5:7">
-      <c r="E660" s="44"/>
-      <c r="G660" s="44"/>
+      <c r="E660" s="43"/>
+      <c r="G660" s="43"/>
     </row>
     <row r="661" spans="5:7">
-      <c r="E661" s="44"/>
-      <c r="G661" s="44"/>
+      <c r="E661" s="43"/>
+      <c r="G661" s="43"/>
     </row>
     <row r="662" spans="5:7">
-      <c r="E662" s="44"/>
-      <c r="G662" s="44"/>
+      <c r="E662" s="43"/>
+      <c r="G662" s="43"/>
     </row>
     <row r="663" spans="5:7">
-      <c r="E663" s="44"/>
-      <c r="G663" s="44"/>
+      <c r="E663" s="43"/>
+      <c r="G663" s="43"/>
     </row>
     <row r="664" spans="5:7">
-      <c r="E664" s="44"/>
-      <c r="G664" s="44"/>
+      <c r="E664" s="43"/>
+      <c r="G664" s="43"/>
     </row>
     <row r="665" spans="5:7">
-      <c r="E665" s="44"/>
-      <c r="G665" s="44"/>
+      <c r="E665" s="43"/>
+      <c r="G665" s="43"/>
     </row>
     <row r="666" spans="5:7">
-      <c r="E666" s="44"/>
-      <c r="G666" s="44"/>
+      <c r="E666" s="43"/>
+      <c r="G666" s="43"/>
     </row>
     <row r="676" spans="5:7">
-      <c r="E676" s="44"/>
+      <c r="E676" s="43"/>
     </row>
     <row r="687" spans="5:7">
-      <c r="G687" s="44"/>
+      <c r="G687" s="43"/>
     </row>
     <row r="688" spans="5:7">
-      <c r="G688" s="44"/>
+      <c r="G688" s="43"/>
     </row>
     <row r="689" spans="7:7">
-      <c r="G689" s="44"/>
+      <c r="G689" s="43"/>
     </row>
     <row r="690" spans="7:7">
-      <c r="G690" s="44"/>
+      <c r="G690" s="43"/>
     </row>
     <row r="691" spans="7:7">
-      <c r="G691" s="44"/>
+      <c r="G691" s="43"/>
     </row>
     <row r="692" spans="7:7">
-      <c r="G692" s="44"/>
+      <c r="G692" s="43"/>
     </row>
     <row r="693" spans="7:7">
-      <c r="G693" s="44"/>
+      <c r="G693" s="43"/>
     </row>
     <row r="694" spans="7:7">
-      <c r="G694" s="44"/>
+      <c r="G694" s="43"/>
     </row>
     <row r="695" spans="7:7">
-      <c r="G695" s="44"/>
+      <c r="G695" s="43"/>
     </row>
     <row r="696" spans="7:7">
-      <c r="G696" s="44"/>
+      <c r="G696" s="43"/>
     </row>
     <row r="697" spans="7:7">
-      <c r="G697" s="44"/>
+      <c r="G697" s="43"/>
     </row>
     <row r="698" spans="7:7">
-      <c r="G698" s="44"/>
+      <c r="G698" s="43"/>
     </row>
     <row r="699" spans="7:7">
-      <c r="G699" s="44"/>
+      <c r="G699" s="43"/>
     </row>
     <row r="700" spans="7:7">
-      <c r="G700" s="44"/>
+      <c r="G700" s="43"/>
     </row>
     <row r="701" spans="7:7">
-      <c r="G701" s="44"/>
+      <c r="G701" s="43"/>
     </row>
     <row r="702" spans="7:7">
-      <c r="G702" s="44"/>
+      <c r="G702" s="43"/>
     </row>
     <row r="703" spans="7:7">
-      <c r="G703" s="44"/>
+      <c r="G703" s="43"/>
     </row>
     <row r="704" spans="7:7">
-      <c r="G704" s="44"/>
+      <c r="G704" s="43"/>
     </row>
     <row r="705" spans="5:7">
-      <c r="G705" s="44"/>
+      <c r="G705" s="43"/>
     </row>
     <row r="706" spans="5:7">
-      <c r="E706" s="44"/>
-      <c r="G706" s="44"/>
+      <c r="E706" s="43"/>
+      <c r="G706" s="43"/>
     </row>
     <row r="716" spans="5:7">
-      <c r="E716" s="44"/>
+      <c r="E716" s="43"/>
     </row>
     <row r="727" spans="5:7">
-      <c r="E727" s="44"/>
-      <c r="G727" s="44"/>
+      <c r="E727" s="43"/>
+      <c r="G727" s="43"/>
     </row>
     <row r="728" spans="5:7">
-      <c r="E728" s="44"/>
-      <c r="G728" s="44"/>
+      <c r="E728" s="43"/>
+      <c r="G728" s="43"/>
     </row>
     <row r="729" spans="5:7">
-      <c r="E729" s="44"/>
-      <c r="G729" s="44"/>
+      <c r="E729" s="43"/>
+      <c r="G729" s="43"/>
     </row>
     <row r="730" spans="5:7">
-      <c r="E730" s="44"/>
-      <c r="G730" s="44"/>
+      <c r="E730" s="43"/>
+      <c r="G730" s="43"/>
     </row>
     <row r="731" spans="5:7">
-      <c r="E731" s="44"/>
-      <c r="G731" s="44"/>
+      <c r="E731" s="43"/>
+      <c r="G731" s="43"/>
     </row>
     <row r="732" spans="5:7">
-      <c r="E732" s="44"/>
-      <c r="G732" s="44"/>
+      <c r="E732" s="43"/>
+      <c r="G732" s="43"/>
     </row>
     <row r="733" spans="5:7">
-      <c r="E733" s="44"/>
-      <c r="G733" s="44"/>
+      <c r="E733" s="43"/>
+      <c r="G733" s="43"/>
     </row>
     <row r="734" spans="5:7">
-      <c r="E734" s="44"/>
-      <c r="G734" s="44"/>
+      <c r="E734" s="43"/>
+      <c r="G734" s="43"/>
     </row>
     <row r="735" spans="5:7">
-      <c r="E735" s="44"/>
-      <c r="G735" s="44"/>
+      <c r="E735" s="43"/>
+      <c r="G735" s="43"/>
     </row>
     <row r="736" spans="5:7">
-      <c r="E736" s="44"/>
-      <c r="G736" s="44"/>
+      <c r="E736" s="43"/>
+      <c r="G736" s="43"/>
     </row>
     <row r="737" spans="5:7">
-      <c r="E737" s="44"/>
-      <c r="G737" s="44"/>
+      <c r="E737" s="43"/>
+      <c r="G737" s="43"/>
     </row>
     <row r="738" spans="5:7">
-      <c r="E738" s="44"/>
-      <c r="G738" s="44"/>
+      <c r="E738" s="43"/>
+      <c r="G738" s="43"/>
     </row>
     <row r="739" spans="5:7">
-      <c r="E739" s="44"/>
-      <c r="G739" s="44"/>
+      <c r="E739" s="43"/>
+      <c r="G739" s="43"/>
     </row>
     <row r="740" spans="5:7">
-      <c r="E740" s="44"/>
-      <c r="G740" s="44"/>
+      <c r="E740" s="43"/>
+      <c r="G740" s="43"/>
     </row>
     <row r="741" spans="5:7">
-      <c r="E741" s="44"/>
-      <c r="G741" s="44"/>
+      <c r="E741" s="43"/>
+      <c r="G741" s="43"/>
     </row>
     <row r="742" spans="5:7">
-      <c r="E742" s="44"/>
-      <c r="G742" s="44"/>
+      <c r="E742" s="43"/>
+      <c r="G742" s="43"/>
     </row>
     <row r="744" spans="5:7">
-      <c r="E744" s="44"/>
-      <c r="G744" s="44"/>
+      <c r="E744" s="43"/>
+      <c r="G744" s="43"/>
     </row>
     <row r="745" spans="5:7">
-      <c r="E745" s="44"/>
-      <c r="G745" s="44"/>
+      <c r="E745" s="43"/>
+      <c r="G745" s="43"/>
     </row>
     <row r="746" spans="5:7">
-      <c r="E746" s="44"/>
-      <c r="G746" s="44"/>
+      <c r="E746" s="43"/>
+      <c r="G746" s="43"/>
     </row>
     <row r="747" spans="5:7">
-      <c r="E747" s="44"/>
-      <c r="G747" s="44"/>
+      <c r="E747" s="43"/>
+      <c r="G747" s="43"/>
     </row>
     <row r="748" spans="5:7">
-      <c r="E748" s="44"/>
-      <c r="G748" s="44"/>
+      <c r="E748" s="43"/>
+      <c r="G748" s="43"/>
     </row>
     <row r="749" spans="5:7">
-      <c r="E749" s="44"/>
-      <c r="G749" s="44"/>
+      <c r="E749" s="43"/>
+      <c r="G749" s="43"/>
     </row>
     <row r="750" spans="5:7">
-      <c r="E750" s="44"/>
-      <c r="G750" s="44"/>
+      <c r="E750" s="43"/>
+      <c r="G750" s="43"/>
     </row>
     <row r="751" spans="5:7">
-      <c r="E751" s="44"/>
-      <c r="G751" s="44"/>
+      <c r="E751" s="43"/>
+      <c r="G751" s="43"/>
     </row>
     <row r="752" spans="5:7">
-      <c r="E752" s="44"/>
-      <c r="G752" s="44"/>
+      <c r="E752" s="43"/>
+      <c r="G752" s="43"/>
     </row>
     <row r="753" spans="5:7">
-      <c r="E753" s="44"/>
-      <c r="G753" s="44"/>
+      <c r="E753" s="43"/>
+      <c r="G753" s="43"/>
     </row>
     <row r="754" spans="5:7">
-      <c r="E754" s="44"/>
-      <c r="G754" s="44"/>
+      <c r="E754" s="43"/>
+      <c r="G754" s="43"/>
     </row>
     <row r="755" spans="5:7">
-      <c r="E755" s="44"/>
-      <c r="G755" s="44"/>
+      <c r="E755" s="43"/>
+      <c r="G755" s="43"/>
     </row>
     <row r="756" spans="5:7">
-      <c r="E756" s="44"/>
-      <c r="G756" s="44"/>
+      <c r="E756" s="43"/>
+      <c r="G756" s="43"/>
     </row>
     <row r="757" spans="5:7">
-      <c r="E757" s="44"/>
-      <c r="G757" s="44"/>
+      <c r="E757" s="43"/>
+      <c r="G757" s="43"/>
     </row>
     <row r="760" spans="5:7">
-      <c r="E760" s="44"/>
+      <c r="E760" s="43"/>
     </row>
     <row r="764" spans="5:7">
-      <c r="E764" s="44"/>
+      <c r="E764" s="43"/>
     </row>
     <row r="765" spans="5:7">
-      <c r="E765" s="44"/>
+      <c r="E765" s="43"/>
     </row>
     <row r="766" spans="5:7">
-      <c r="E766" s="44"/>
+      <c r="E766" s="43"/>
     </row>
     <row r="767" spans="5:7">
-      <c r="E767" s="44"/>
+      <c r="E767" s="43"/>
     </row>
     <row r="770" spans="5:5">
-      <c r="E770" s="44"/>
+      <c r="E770" s="43"/>
     </row>
     <row r="771" spans="5:5">
-      <c r="E771" s="44"/>
+      <c r="E771" s="43"/>
     </row>
     <row r="772" spans="5:5">
-      <c r="E772" s="44"/>
+      <c r="E772" s="43"/>
     </row>
     <row r="773" spans="5:5">
-      <c r="E773" s="44"/>
+      <c r="E773" s="43"/>
     </row>
     <row r="776" spans="5:5">
-      <c r="E776" s="44"/>
+      <c r="E776" s="43"/>
     </row>
     <row r="777" spans="5:5">
-      <c r="E777" s="44"/>
+      <c r="E777" s="43"/>
     </row>
     <row r="778" spans="5:5">
-      <c r="E778" s="44"/>
+      <c r="E778" s="43"/>
     </row>
     <row r="779" spans="5:5">
-      <c r="E779" s="44"/>
+      <c r="E779" s="43"/>
     </row>
     <row r="780" spans="5:5">
-      <c r="E780" s="44"/>
+      <c r="E780" s="43"/>
     </row>
     <row r="781" spans="5:5">
-      <c r="E781" s="44"/>
+      <c r="E781" s="43"/>
     </row>
     <row r="782" spans="5:5">
-      <c r="E782" s="44"/>
+      <c r="E782" s="43"/>
     </row>
     <row r="783" spans="5:5">
-      <c r="E783" s="44"/>
+      <c r="E783" s="43"/>
     </row>
     <row r="784" spans="5:5">
-      <c r="E784" s="44"/>
+      <c r="E784" s="43"/>
     </row>
     <row r="785" spans="5:5">
-      <c r="E785" s="44"/>
+      <c r="E785" s="43"/>
     </row>
     <row r="786" spans="5:5">
-      <c r="E786" s="44"/>
+      <c r="E786" s="43"/>
     </row>
     <row r="787" spans="5:5">
-      <c r="E787" s="44"/>
+      <c r="E787" s="43"/>
     </row>
     <row r="788" spans="5:5">
-      <c r="E788" s="44"/>
+      <c r="E788" s="43"/>
     </row>
     <row r="789" spans="5:5">
-      <c r="E789" s="44"/>
+      <c r="E789" s="43"/>
     </row>
     <row r="791" spans="5:5">
-      <c r="E791" s="44"/>
+      <c r="E791" s="43"/>
     </row>
     <row r="792" spans="5:5">
-      <c r="E792" s="44"/>
+      <c r="E792" s="43"/>
     </row>
     <row r="793" spans="5:5">
-      <c r="E793" s="44"/>
+      <c r="E793" s="43"/>
     </row>
     <row r="794" spans="5:5">
-      <c r="E794" s="44"/>
+      <c r="E794" s="43"/>
     </row>
     <row r="795" spans="5:5">
-      <c r="E795" s="44"/>
+      <c r="E795" s="43"/>
     </row>
     <row r="796" spans="5:5">
-      <c r="E796" s="44"/>
+      <c r="E796" s="43"/>
     </row>
     <row r="797" spans="5:5">
-      <c r="E797" s="44"/>
+      <c r="E797" s="43"/>
     </row>
     <row r="798" spans="5:5">
-      <c r="E798" s="44"/>
+      <c r="E798" s="43"/>
     </row>
     <row r="799" spans="5:5">
-      <c r="E799" s="44"/>
+      <c r="E799" s="43"/>
     </row>
     <row r="800" spans="5:5">
-      <c r="E800" s="44"/>
+      <c r="E800" s="43"/>
     </row>
     <row r="801" spans="5:5">
-      <c r="E801" s="44"/>
+      <c r="E801" s="43"/>
     </row>
     <row r="802" spans="5:5">
-      <c r="E802" s="44"/>
+      <c r="E802" s="43"/>
     </row>
     <row r="803" spans="5:5">
-      <c r="E803" s="44"/>
+      <c r="E803" s="43"/>
     </row>
     <row r="804" spans="5:5">
-      <c r="E804" s="44"/>
+      <c r="E804" s="43"/>
     </row>
     <row r="806" spans="5:5">
-      <c r="E806" s="44"/>
+      <c r="E806" s="43"/>
     </row>
     <row r="807" spans="5:5">
-      <c r="E807" s="44"/>
+      <c r="E807" s="43"/>
     </row>
     <row r="808" spans="5:5">
-      <c r="E808" s="44"/>
+      <c r="E808" s="43"/>
     </row>
     <row r="809" spans="5:5">
-      <c r="E809" s="44"/>
+      <c r="E809" s="43"/>
     </row>
     <row r="810" spans="5:5">
-      <c r="E810" s="44"/>
+      <c r="E810" s="43"/>
     </row>
     <row r="811" spans="5:5">
-      <c r="E811" s="44"/>
+      <c r="E811" s="43"/>
     </row>
     <row r="812" spans="5:5">
-      <c r="E812" s="44"/>
+      <c r="E812" s="43"/>
     </row>
     <row r="813" spans="5:5">
-      <c r="E813" s="44"/>
+      <c r="E813" s="43"/>
     </row>
     <row r="814" spans="5:5">
-      <c r="E814" s="44"/>
+      <c r="E814" s="43"/>
     </row>
     <row r="815" spans="5:5">
-      <c r="E815" s="44"/>
+      <c r="E815" s="43"/>
     </row>
     <row r="816" spans="5:5">
-      <c r="E816" s="44"/>
+      <c r="E816" s="43"/>
     </row>
     <row r="817" spans="5:5">
-      <c r="E817" s="44"/>
+      <c r="E817" s="43"/>
     </row>
     <row r="818" spans="5:5">
-      <c r="E818" s="44"/>
+      <c r="E818" s="43"/>
     </row>
     <row r="819" spans="5:5">
-      <c r="E819" s="44"/>
+      <c r="E819" s="43"/>
     </row>
     <row r="821" spans="5:5">
-      <c r="E821" s="44"/>
+      <c r="E821" s="43"/>
     </row>
     <row r="822" spans="5:5">
-      <c r="E822" s="44"/>
+      <c r="E822" s="43"/>
     </row>
     <row r="823" spans="5:5">
-      <c r="E823" s="44"/>
+      <c r="E823" s="43"/>
     </row>
     <row r="824" spans="5:5">
-      <c r="E824" s="44"/>
+      <c r="E824" s="43"/>
     </row>
     <row r="825" spans="5:5">
-      <c r="E825" s="44"/>
+      <c r="E825" s="43"/>
     </row>
     <row r="826" spans="5:5">
-      <c r="E826" s="44"/>
+      <c r="E826" s="43"/>
     </row>
     <row r="827" spans="5:5">
-      <c r="E827" s="44"/>
+      <c r="E827" s="43"/>
     </row>
     <row r="828" spans="5:5">
-      <c r="E828" s="44"/>
+      <c r="E828" s="43"/>
     </row>
     <row r="829" spans="5:5">
-      <c r="E829" s="44"/>
+      <c r="E829" s="43"/>
     </row>
     <row r="830" spans="5:5">
-      <c r="E830" s="44"/>
+      <c r="E830" s="43"/>
     </row>
     <row r="831" spans="5:5">
-      <c r="E831" s="44"/>
+      <c r="E831" s="43"/>
     </row>
     <row r="832" spans="5:5">
-      <c r="E832" s="44"/>
+      <c r="E832" s="43"/>
     </row>
     <row r="833" spans="5:5">
-      <c r="E833" s="44"/>
+      <c r="E833" s="43"/>
     </row>
     <row r="834" spans="5:5">
-      <c r="E834" s="44"/>
+      <c r="E834" s="43"/>
     </row>
     <row r="835" spans="5:5">
-      <c r="E835" s="44"/>
+      <c r="E835" s="43"/>
     </row>
     <row r="836" spans="5:5">
-      <c r="E836" s="44"/>
+      <c r="E836" s="43"/>
     </row>
     <row r="837" spans="5:5">
-      <c r="E837" s="44"/>
+      <c r="E837" s="43"/>
     </row>
     <row r="838" spans="5:5">
-      <c r="E838" s="44"/>
+      <c r="E838" s="43"/>
     </row>
     <row r="839" spans="5:5">
-      <c r="E839" s="44"/>
+      <c r="E839" s="43"/>
     </row>
     <row r="840" spans="5:5">
-      <c r="E840" s="44"/>
+      <c r="E840" s="43"/>
     </row>
     <row r="841" spans="5:5">
-      <c r="E841" s="44"/>
+      <c r="E841" s="43"/>
     </row>
     <row r="842" spans="5:5">
-      <c r="E842" s="44"/>
+      <c r="E842" s="43"/>
     </row>
     <row r="843" spans="5:5">
-      <c r="E843" s="44"/>
+      <c r="E843" s="43"/>
     </row>
     <row r="844" spans="5:5">
-      <c r="E844" s="44"/>
+      <c r="E844" s="43"/>
     </row>
     <row r="845" spans="5:5">
-      <c r="E845" s="44"/>
+      <c r="E845" s="43"/>
     </row>
     <row r="846" spans="5:5">
-      <c r="E846" s="44"/>
+      <c r="E846" s="43"/>
     </row>
     <row r="847" spans="5:5">
-      <c r="E847" s="44"/>
+      <c r="E847" s="43"/>
     </row>
     <row r="848" spans="5:5">
-      <c r="E848" s="44"/>
+      <c r="E848" s="43"/>
     </row>
     <row r="850" spans="5:5">
-      <c r="E850" s="44"/>
+      <c r="E850" s="43"/>
     </row>
     <row r="863" spans="5:5">
-      <c r="E863" s="44"/>
+      <c r="E863" s="43"/>
     </row>
     <row r="877" spans="5:5">
-      <c r="E877" s="44"/>
+      <c r="E877" s="43"/>
     </row>
     <row r="879" spans="5:5">
-      <c r="E879" s="44"/>
+      <c r="E879" s="43"/>
     </row>
     <row r="892" spans="5:5">
-      <c r="E892" s="44"/>
+      <c r="E892" s="43"/>
     </row>
     <row r="906" spans="5:5">
-      <c r="E906" s="44"/>
+      <c r="E906" s="43"/>
     </row>
     <row r="908" spans="5:5">
-      <c r="E908" s="44"/>
+      <c r="E908" s="43"/>
     </row>
     <row r="921" spans="5:5">
-      <c r="E921" s="44"/>
+      <c r="E921" s="43"/>
     </row>
     <row r="935" spans="5:5">
-      <c r="E935" s="44"/>
+      <c r="E935" s="43"/>
     </row>
     <row r="938" spans="5:5">
-      <c r="E938" s="44"/>
+      <c r="E938" s="43"/>
     </row>
     <row r="939" spans="5:5">
-      <c r="E939" s="44"/>
+      <c r="E939" s="43"/>
     </row>
     <row r="940" spans="5:5">
-      <c r="E940" s="44"/>
+      <c r="E940" s="43"/>
     </row>
     <row r="941" spans="5:5">
-      <c r="E941" s="44"/>
+      <c r="E941" s="43"/>
     </row>
     <row r="942" spans="5:5">
-      <c r="E942" s="44"/>
+      <c r="E942" s="43"/>
     </row>
     <row r="943" spans="5:5">
-      <c r="E943" s="44"/>
+      <c r="E943" s="43"/>
     </row>
     <row r="944" spans="5:5">
-      <c r="E944" s="44"/>
+      <c r="E944" s="43"/>
     </row>
     <row r="945" spans="5:5">
-      <c r="E945" s="44"/>
+      <c r="E945" s="43"/>
     </row>
     <row r="946" spans="5:5">
-      <c r="E946" s="44"/>
+      <c r="E946" s="43"/>
     </row>
     <row r="947" spans="5:5">
-      <c r="E947" s="44"/>
+      <c r="E947" s="43"/>
     </row>
     <row r="948" spans="5:5">
-      <c r="E948" s="44"/>
+      <c r="E948" s="43"/>
     </row>
     <row r="949" spans="5:5">
-      <c r="E949" s="44"/>
+      <c r="E949" s="43"/>
     </row>
     <row r="950" spans="5:5">
-      <c r="E950" s="44"/>
+      <c r="E950" s="43"/>
     </row>
     <row r="951" spans="5:5">
-      <c r="E951" s="44"/>
+      <c r="E951" s="43"/>
     </row>
     <row r="960" spans="5:5">
-      <c r="E960" s="44"/>
+      <c r="E960" s="43"/>
     </row>
     <row r="977" spans="5:5">
-      <c r="E977" s="44"/>
+      <c r="E977" s="43"/>
     </row>
     <row r="994" spans="5:5">
-      <c r="E994" s="44"/>
+      <c r="E994" s="43"/>
     </row>
     <row r="1011" spans="5:5">
-      <c r="E1011" s="44"/>
+      <c r="E1011" s="43"/>
     </row>
     <row r="1028" spans="5:5">
-      <c r="E1028" s="44"/>
+      <c r="E1028" s="43"/>
     </row>
     <row r="1045" spans="5:5">
-      <c r="E1045" s="44"/>
+      <c r="E1045" s="43"/>
     </row>
     <row r="1062" spans="5:5">
-      <c r="E1062" s="44"/>
+      <c r="E1062" s="43"/>
     </row>
     <row r="1079" spans="5:5">
-      <c r="E1079" s="44"/>
+      <c r="E1079" s="43"/>
     </row>
     <row r="1096" spans="5:5">
-      <c r="E1096" s="44"/>
+      <c r="E1096" s="43"/>
     </row>
     <row r="1113" spans="5:5">
-      <c r="E1113" s="44"/>
+      <c r="E1113" s="43"/>
     </row>
     <row r="1130" spans="5:5">
-      <c r="E1130" s="44"/>
+      <c r="E1130" s="43"/>
     </row>
     <row r="1147" spans="5:5">
-      <c r="E1147" s="44"/>
+      <c r="E1147" s="43"/>
     </row>
     <row r="1164" spans="5:5">
-      <c r="E1164" s="44"/>
+      <c r="E1164" s="43"/>
     </row>
     <row r="1181" spans="5:5">
-      <c r="E1181" s="44"/>
+      <c r="E1181" s="43"/>
     </row>
     <row r="1198" spans="5:5">
-      <c r="E1198" s="44"/>
+      <c r="E1198" s="43"/>
     </row>
     <row r="1215" spans="5:5">
-      <c r="E1215" s="44"/>
+      <c r="E1215" s="43"/>
     </row>
     <row r="1225" spans="7:7">
-      <c r="G1225" s="44"/>
+      <c r="G1225" s="43"/>
     </row>
     <row r="1226" spans="7:7">
-      <c r="G1226" s="44"/>
+      <c r="G1226" s="43"/>
     </row>
     <row r="1227" spans="7:7">
-      <c r="G1227" s="44"/>
+      <c r="G1227" s="43"/>
     </row>
     <row r="1228" spans="7:7">
-      <c r="G1228" s="44"/>
+      <c r="G1228" s="43"/>
     </row>
     <row r="1229" spans="7:7">
-      <c r="G1229" s="44"/>
+      <c r="G1229" s="43"/>
     </row>
     <row r="1230" spans="7:7">
-      <c r="G1230" s="44"/>
+      <c r="G1230" s="43"/>
     </row>
     <row r="1231" spans="7:7">
-      <c r="G1231" s="44"/>
+      <c r="G1231" s="43"/>
     </row>
     <row r="1232" spans="7:7">
-      <c r="G1232" s="44"/>
+      <c r="G1232" s="43"/>
     </row>
     <row r="1233" spans="5:7">
-      <c r="G1233" s="44"/>
+      <c r="G1233" s="43"/>
     </row>
     <row r="1234" spans="5:7">
-      <c r="G1234" s="44"/>
+      <c r="G1234" s="43"/>
     </row>
     <row r="1235" spans="5:7">
-      <c r="G1235" s="44"/>
+      <c r="G1235" s="43"/>
     </row>
     <row r="1236" spans="5:7">
-      <c r="G1236" s="44"/>
+      <c r="G1236" s="43"/>
     </row>
     <row r="1237" spans="5:7">
-      <c r="G1237" s="44"/>
+      <c r="G1237" s="43"/>
     </row>
     <row r="1238" spans="5:7">
-      <c r="E1238" s="44"/>
-      <c r="G1238" s="44"/>
+      <c r="E1238" s="43"/>
+      <c r="G1238" s="43"/>
     </row>
     <row r="1259" spans="5:5">
-      <c r="E1259" s="44"/>
+      <c r="E1259" s="43"/>
     </row>
     <row r="1274" spans="5:5">
-      <c r="E1274" s="44"/>
+      <c r="E1274" s="43"/>
     </row>
     <row r="1289" spans="5:5">
-      <c r="E1289" s="44"/>
+      <c r="E1289" s="43"/>
     </row>
     <row r="1304" spans="5:5">
-      <c r="E1304" s="44"/>
+      <c r="E1304" s="43"/>
     </row>
     <row r="1320" spans="5:5">
-      <c r="E1320" s="44"/>
+      <c r="E1320" s="43"/>
     </row>
     <row r="1328" spans="5:5">
-      <c r="E1328" s="44"/>
+      <c r="E1328" s="43"/>
     </row>
     <row r="1337" spans="7:7">
-      <c r="G1337" s="44"/>
+      <c r="G1337" s="43"/>
     </row>
     <row r="1338" spans="7:7">
-      <c r="G1338" s="44"/>
+      <c r="G1338" s="43"/>
     </row>
     <row r="1339" spans="7:7">
-      <c r="G1339" s="44"/>
+      <c r="G1339" s="43"/>
     </row>
     <row r="1340" spans="7:7">
-      <c r="G1340" s="44"/>
+      <c r="G1340" s="43"/>
     </row>
     <row r="1341" spans="7:7">
-      <c r="G1341" s="44"/>
+      <c r="G1341" s="43"/>
     </row>
     <row r="1342" spans="7:7">
-      <c r="G1342" s="44"/>
+      <c r="G1342" s="43"/>
     </row>
     <row r="1343" spans="7:7">
-      <c r="G1343" s="44"/>
+      <c r="G1343" s="43"/>
     </row>
     <row r="1344" spans="7:7">
-      <c r="G1344" s="44"/>
+      <c r="G1344" s="43"/>
     </row>
     <row r="1345" spans="5:7">
-      <c r="G1345" s="44"/>
+      <c r="G1345" s="43"/>
     </row>
     <row r="1346" spans="5:7">
-      <c r="G1346" s="44"/>
+      <c r="G1346" s="43"/>
     </row>
     <row r="1347" spans="5:7">
-      <c r="G1347" s="44"/>
+      <c r="G1347" s="43"/>
     </row>
     <row r="1348" spans="5:7">
-      <c r="G1348" s="44"/>
+      <c r="G1348" s="43"/>
     </row>
     <row r="1349" spans="5:7">
-      <c r="G1349" s="44"/>
+      <c r="G1349" s="43"/>
     </row>
     <row r="1350" spans="5:7">
-      <c r="G1350" s="44"/>
+      <c r="G1350" s="43"/>
     </row>
     <row r="1351" spans="5:7">
-      <c r="G1351" s="44"/>
+      <c r="G1351" s="43"/>
     </row>
     <row r="1352" spans="5:7">
-      <c r="G1352" s="44"/>
+      <c r="G1352" s="43"/>
     </row>
     <row r="1353" spans="5:7">
-      <c r="G1353" s="44"/>
+      <c r="G1353" s="43"/>
     </row>
     <row r="1354" spans="5:7">
-      <c r="G1354" s="44"/>
+      <c r="G1354" s="43"/>
     </row>
     <row r="1355" spans="5:7">
-      <c r="G1355" s="44"/>
+      <c r="G1355" s="43"/>
     </row>
     <row r="1356" spans="5:7">
-      <c r="E1356" s="44"/>
-      <c r="G1356" s="44"/>
+      <c r="E1356" s="43"/>
+      <c r="G1356" s="43"/>
     </row>
     <row r="1364" spans="5:5">
-      <c r="E1364" s="44"/>
+      <c r="E1364" s="43"/>
     </row>
     <row r="1371" spans="5:5">
-      <c r="E1371" s="44"/>
+      <c r="E1371" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAEFF50-7C8A-4BDF-8FC2-771F78B5DF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29F2B6-241B-4AD2-9C13-F5B5B59E8FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="375">
   <si>
     <t>Name</t>
   </si>
@@ -504,9 +504,6 @@
     <t>906114-01</t>
   </si>
   <si>
-    <t>Dual timer</t>
-  </si>
-  <si>
     <t>Logic AND gate</t>
   </si>
   <si>
@@ -535,11 +532,6 @@
   </si>
   <si>
     <t>HEX inverter buffer</t>
-  </si>
-  <si>
-    <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
-Compatible part-number:
-82S100</t>
   </si>
   <si>
     <t>8-bit 3-state latch</t>
@@ -794,26 +786,12 @@
   </si>
   <si>
     <t>Memory location:
-$D000-$DFFF</t>
-  </si>
-  <si>
-    <t>Memory location:
 $D800-$DBFF</t>
   </si>
   <si>
-    <t>Memory location:
-$D400-$D7FF</t>
-  </si>
-  <si>
     <t>PET/VIC-20/C64 Port Pinouts</t>
   </si>
   <si>
-    <t>4096 x 8-bit</t>
-  </si>
-  <si>
-    <t>8192 x 8-bit</t>
-  </si>
-  <si>
     <t>Dynamic RAM</t>
   </si>
   <si>
@@ -907,9 +885,6 @@
     <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/mos_6510_mpu_nov_1982.pdf</t>
-  </si>
-  <si>
     <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
   </si>
   <si>
@@ -947,14 +922,6 @@
   </si>
   <si>
     <t>Data/Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
-  </si>
-  <si>
-    <t>PAL = 17.73447 MHz
-NTSC = 14.31818 MHz
-Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle). Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
-  </si>
-  <si>
-    <t>FreqGen</t>
   </si>
   <si>
     <t>Region</t>
@@ -1075,105 +1042,168 @@
     <t>Compatible part-number: 8500 (HMOS version)</t>
   </si>
   <si>
-    <t>Also used in:
+    <t>Data/Commodore shared files/Component images/556.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7800-series.jpg</t>
+  </si>
+  <si>
+    <t>Board schematic images</t>
+  </si>
+  <si>
+    <t>Thumbnail image highlight color</t>
+  </si>
+  <si>
+    <t>Thumbnail highlight opacity</t>
+  </si>
+  <si>
+    <t>Highlights in Main or Thumbnail</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Power C64.jpg</t>
+  </si>
+  <si>
+    <t>Board credits</t>
+  </si>
+  <si>
+    <t>Sub-category</t>
+  </si>
+  <si>
+    <t>Name or handle</t>
+  </si>
+  <si>
+    <t>Contact (email or web page)</t>
+  </si>
+  <si>
+    <t>Board labelling</t>
+  </si>
+  <si>
+    <t>Dennis Helligsø</t>
+  </si>
+  <si>
+    <t>dennis@commodore-repair-toolbox.dk</t>
+  </si>
+  <si>
+    <t>Excel data</t>
+  </si>
+  <si>
+    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also do the NTSC measurements</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-board-local-files</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-credits</t>
+  </si>
+  <si>
+    <t>PAL</t>
+  </si>
+  <si>
+    <t>NTSC</t>
+  </si>
+  <si>
+    <t>Expected oscilloscope reading</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Video chip (PAL)</t>
+  </si>
+  <si>
+    <t>Video chip (NTSC)</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D000-$D3FF</t>
+  </si>
+  <si>
+    <t>The CIA (Complex Interface Adapter) is an I/O chip with parallel and serial port as well a time of day clock (TOD) and timers.
+Compatible part-number: 8521
+Also used in:
 Commodore 64 + 128 computers
 Commodore 1570 + 1571 + 1581 diskdrives
-Compatible part-number: 8521
 Memory location:
 $DC00-$DCFF</t>
   </si>
   <si>
-    <t>Also used in:
+    <t>The CIA (Complex Interface Adapter) is an I/O chip with parallel and serial port as well a time of day clock (TOD) and timers.
+Compatible part-number: 8521
+Also used in:
 Commodore 64 + 128 computers
 Commodore 1570 + 1571 + 1581 diskdrives
-Compatible part-number: 8521
 Memory location:
 $DD00-$DDFF</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/556.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7800-series.jpg</t>
-  </si>
-  <si>
-    <t>Board schematic images</t>
-  </si>
-  <si>
-    <t>Thumbnail image highlight color</t>
-  </si>
-  <si>
-    <t>Thumbnail highlight opacity</t>
-  </si>
-  <si>
-    <t>Highlights in Main or Thumbnail</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Power C64.jpg</t>
-  </si>
-  <si>
-    <t>Board credits</t>
-  </si>
-  <si>
-    <t>Sub-category</t>
-  </si>
-  <si>
-    <t>Name or handle</t>
-  </si>
-  <si>
-    <t>Contact (email or web page)</t>
-  </si>
-  <si>
-    <t>Board labelling</t>
-  </si>
-  <si>
-    <t>Dennis Helligsø</t>
-  </si>
-  <si>
-    <t>dennis@commodore-repair-toolbox.dk</t>
-  </si>
-  <si>
-    <t>Excel data</t>
-  </si>
-  <si>
-    <t>Oscilloscope imaging</t>
-  </si>
-  <si>
-    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also do the NTSC measurements</t>
-  </si>
-  <si>
-    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-board-local-files</t>
-  </si>
-  <si>
-    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-credits</t>
-  </si>
-  <si>
-    <t>PAL</t>
-  </si>
-  <si>
-    <t>NTSC</t>
-  </si>
-  <si>
-    <t>Expected oscilloscope reading</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Video chip (PAL)</t>
-  </si>
-  <si>
-    <t>Video chip (NTSC)</t>
-  </si>
-  <si>
-    <t>Memory location:
-$D000-$D3FF</t>
+    <t>2364; 8192 x 8-bit</t>
+  </si>
+  <si>
+    <t>2332; 4096 x 8-bit</t>
+  </si>
+  <si>
+    <t>901226-01</t>
+  </si>
+  <si>
+    <t>901227-03</t>
+  </si>
+  <si>
+    <t>901225-01</t>
+  </si>
+  <si>
+    <t>If you burn your own 2732 EPROM, you need to create an adapter, as they are not directly pin compatible.
+Memory location:
+$D000-$DFFF</t>
+  </si>
+  <si>
+    <t>Also known as "MPU"</t>
+  </si>
+  <si>
+    <t>Sound chip</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7707</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7708</t>
+  </si>
+  <si>
+    <t>Compatible number: MOS 7709</t>
+  </si>
+  <si>
+    <t>Compatible number: MOS 7711</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7712</t>
+  </si>
+  <si>
+    <t>17.73447 MHz (PAL)</t>
+  </si>
+  <si>
+    <t>14.31818 MHz (NTSC)</t>
+  </si>
+  <si>
+    <t>Compatible part-number: MOS 7701</t>
+  </si>
+  <si>
+    <t>Do note that you maybe will not be able to measure directly on the crystal, as the signal may be too fragile for that, and the system may stall (harmless, but requires a power-recycle).
+Try measuring with a 10X or even 100X attenuation oscilloscope probe.</t>
+  </si>
+  <si>
+    <t>The SID (Sound Interface Device) is a mono sound chip that has 3 voices. It is also used to read the paddles X and Y axies.
+Memory location:
+$D400-$D7FF</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
+Compatible part-number: Signetics 82S100
+Compatible part-number: Philips PLS100</t>
   </si>
   <si>
     <r>
@@ -1188,8 +1218,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-11</t>
+      <t>2025-July-22</t>
     </r>
+  </si>
+  <si>
+    <t>Oscilloscope baseline measurement</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Datasheet for 6581</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6581_sid.pdf</t>
   </si>
 </sst>
 </file>
@@ -1778,9 +1820,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1795,17 +1837,17 @@
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1817,7 +1859,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1827,7 +1869,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1844,11 +1886,11 @@
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="50" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -1868,10 +1910,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1879,7 +1921,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1899,7 +1941,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1917,10 +1959,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -2025,8 +2067,8 @@
   <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2041,12 +2083,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2054,12 +2096,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2089,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>21</v>
@@ -2100,10 +2142,10 @@
         <v>120</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>87</v>
@@ -2114,10 +2156,10 @@
         <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>87</v>
@@ -2128,10 +2170,10 @@
         <v>108</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>87</v>
@@ -2142,10 +2184,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>87</v>
@@ -2156,10 +2198,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>87</v>
@@ -2170,10 +2212,10 @@
         <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>87</v>
@@ -2184,10 +2226,10 @@
         <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>87</v>
@@ -2198,10 +2240,10 @@
         <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>87</v>
@@ -2212,10 +2254,10 @@
         <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>87</v>
@@ -2226,10 +2268,10 @@
         <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>87</v>
@@ -2240,10 +2282,10 @@
         <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>87</v>
@@ -2254,10 +2296,10 @@
         <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>87</v>
@@ -2268,10 +2310,10 @@
         <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>87</v>
@@ -2285,7 +2327,7 @@
         <v>132</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>87</v>
@@ -2296,10 +2338,10 @@
         <v>141</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>87</v>
@@ -2310,10 +2352,10 @@
         <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>87</v>
@@ -2327,7 +2369,7 @@
         <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>87</v>
@@ -2341,7 +2383,7 @@
         <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>87</v>
@@ -2352,10 +2394,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>87</v>
@@ -2366,10 +2408,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>87</v>
@@ -2380,10 +2422,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>87</v>
@@ -2394,10 +2436,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>87</v>
@@ -2408,10 +2450,10 @@
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>87</v>
@@ -2422,10 +2464,10 @@
         <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>87</v>
@@ -2436,10 +2478,10 @@
         <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>87</v>
@@ -2450,10 +2492,10 @@
         <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>87</v>
@@ -2464,10 +2506,10 @@
         <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>87</v>
@@ -2478,10 +2520,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>87</v>
@@ -2489,13 +2531,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>87</v>
@@ -2506,10 +2548,10 @@
         <v>106</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>87</v>
@@ -2520,10 +2562,10 @@
         <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>87</v>
@@ -2534,10 +2576,10 @@
         <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>87</v>
@@ -2548,10 +2590,10 @@
         <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>87</v>
@@ -2562,10 +2604,10 @@
         <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>87</v>
@@ -2576,10 +2618,10 @@
         <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>87</v>
@@ -2590,10 +2632,10 @@
         <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>87</v>
@@ -2607,7 +2649,7 @@
         <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>87</v>
@@ -2618,10 +2660,10 @@
         <v>123</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>87</v>
@@ -2635,7 +2677,7 @@
         <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>87</v>
@@ -2649,7 +2691,7 @@
         <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>87</v>
@@ -2660,10 +2702,10 @@
         <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>87</v>
@@ -2674,10 +2716,10 @@
         <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>87</v>
@@ -2688,10 +2730,10 @@
         <v>79</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>87</v>
@@ -2702,10 +2744,10 @@
         <v>109</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>87</v>
@@ -2716,10 +2758,10 @@
         <v>119</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>87</v>
@@ -2730,10 +2772,10 @@
         <v>118</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>87</v>
@@ -2744,10 +2786,10 @@
         <v>114</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>87</v>
@@ -2758,10 +2800,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>87</v>
@@ -2769,13 +2811,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>87</v>
@@ -2783,13 +2825,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>87</v>
@@ -2800,10 +2842,10 @@
         <v>36</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>87</v>
@@ -2814,10 +2856,10 @@
         <v>74</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>87</v>
@@ -2828,10 +2870,10 @@
         <v>133</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>87</v>
@@ -2842,10 +2884,10 @@
         <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>87</v>
@@ -2853,13 +2895,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>87</v>
@@ -2870,7 +2912,7 @@
         <v>97</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>98</v>
@@ -2884,7 +2926,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>100</v>
@@ -2898,7 +2940,7 @@
         <v>116</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>117</v>
@@ -2912,7 +2954,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>92</v>
@@ -2926,10 +2968,10 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>88</v>
@@ -2940,7 +2982,7 @@
         <v>43</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>44</v>
@@ -2954,10 +2996,10 @@
         <v>145</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>88</v>
@@ -2968,7 +3010,7 @@
         <v>93</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>94</v>
@@ -2982,7 +3024,7 @@
         <v>95</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>96</v>
@@ -2996,7 +3038,7 @@
         <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>143</v>
@@ -3037,8 +3079,8 @@
       <c r="A76" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="1">
-        <v>2364</v>
+      <c r="B76" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>83</v>
@@ -3047,15 +3089,15 @@
         <v>89</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="1">
-        <v>2364</v>
+      <c r="B77" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>82</v>
@@ -3064,15 +3106,15 @@
         <v>89</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="1">
-        <v>2332</v>
+      <c r="B78" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>81</v>
@@ -3081,7 +3123,7 @@
         <v>89</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3098,7 +3140,7 @@
         <v>89</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3114,6 +3156,9 @@
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="F80" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="16" t="s">
@@ -3123,7 +3168,7 @@
         <v>7406</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>89</v>
@@ -3137,13 +3182,13 @@
         <v>41464</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3154,13 +3199,13 @@
         <v>41464</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3246,6 +3291,9 @@
       <c r="D89" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="F89" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="16" t="s">
@@ -3261,10 +3309,10 @@
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3281,10 +3329,10 @@
         <v>89</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3295,7 +3343,7 @@
         <v>556</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>153</v>
+        <v>368</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>89</v>
@@ -3323,7 +3371,7 @@
         <v>51</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>89</v>
@@ -3337,7 +3385,7 @@
         <v>38</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>89</v>
@@ -3357,7 +3405,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:6">
       <c r="A97" s="16" t="s">
         <v>70</v>
       </c>
@@ -3365,38 +3413,38 @@
         <v>8701</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:6">
       <c r="A98" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:6">
       <c r="A99" s="16" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:6">
       <c r="A100" s="16" t="s">
         <v>139</v>
       </c>
@@ -3407,7 +3455,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:6">
       <c r="A101" s="16" t="s">
         <v>121</v>
       </c>
@@ -3415,13 +3463,13 @@
         <v>7812</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:6">
       <c r="A102" s="16" t="s">
         <v>122</v>
       </c>
@@ -3429,51 +3477,68 @@
         <v>7805</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:6">
       <c r="A103" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="16"/>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E103" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="26"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:6">
       <c r="A106" s="26"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:6">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:6">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:6">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:6">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:6">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:6">
       <c r="A112"/>
     </row>
     <row r="113" spans="1:1">
@@ -4318,8 +4383,10 @@
   <dimension ref="A1:I1371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4336,14 +4403,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21">
       <c r="A1" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="31"/>
@@ -4357,7 +4424,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="33"/>
@@ -4367,7 +4434,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="34"/>
@@ -4398,22 +4465,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8">
@@ -4423,11 +4490,11 @@
       <c r="B9" s="16"/>
       <c r="C9" s="32"/>
       <c r="D9" s="14" t="s">
-        <v>357</v>
+        <v>161</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4437,10 +4504,10 @@
       <c r="B10" s="16"/>
       <c r="C10" s="32"/>
       <c r="D10" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4450,10 +4517,10 @@
       <c r="B11" s="18"/>
       <c r="C11" s="36"/>
       <c r="D11" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4463,10 +4530,10 @@
       <c r="B12" s="18"/>
       <c r="C12" s="36"/>
       <c r="D12" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4476,10 +4543,10 @@
       <c r="B13" s="16"/>
       <c r="C13" s="32"/>
       <c r="D13" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4489,10 +4556,10 @@
       <c r="B14" s="18"/>
       <c r="C14" s="36"/>
       <c r="D14" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I14" s="14"/>
     </row>
@@ -4503,10 +4570,10 @@
       <c r="B15" s="18"/>
       <c r="C15" s="36"/>
       <c r="D15" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4516,10 +4583,10 @@
       <c r="B16" s="18"/>
       <c r="C16" s="36"/>
       <c r="D16" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4529,42 +4596,42 @@
       <c r="B17" s="18"/>
       <c r="C17" s="36"/>
       <c r="D17" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="115.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="158.4">
       <c r="A18" s="47" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="36"/>
       <c r="D18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="115.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="158.4">
       <c r="A19" s="47" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="36"/>
       <c r="D19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="I19" s="14"/>
     </row>
@@ -4575,13 +4642,13 @@
       <c r="B20" s="14"/>
       <c r="C20" s="37"/>
       <c r="D20" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.8">
@@ -4591,29 +4658,29 @@
       <c r="B21" s="18"/>
       <c r="C21" s="36"/>
       <c r="D21" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="28.8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="72">
       <c r="A22" s="47" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="36"/>
       <c r="D22" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>243</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.8">
@@ -4623,13 +4690,13 @@
       <c r="B23" s="18"/>
       <c r="C23" s="36"/>
       <c r="D23" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4639,13 +4706,13 @@
       <c r="B24" s="16"/>
       <c r="C24" s="32"/>
       <c r="D24" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4655,10 +4722,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="32"/>
       <c r="D25" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="43.2">
@@ -4668,13 +4738,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="32"/>
       <c r="D26" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="43.2">
@@ -4684,13 +4754,13 @@
       <c r="B27" s="16"/>
       <c r="C27" s="32"/>
       <c r="D27" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4700,10 +4770,13 @@
       <c r="B28" s="14"/>
       <c r="C28" s="37"/>
       <c r="D28" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4713,10 +4786,13 @@
       <c r="B29" s="14"/>
       <c r="C29" s="37"/>
       <c r="D29" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4726,10 +4802,13 @@
       <c r="B30" s="14"/>
       <c r="C30" s="37"/>
       <c r="D30" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4739,10 +4818,10 @@
       <c r="B31" s="14"/>
       <c r="C31" s="37"/>
       <c r="D31" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="72">
@@ -4752,29 +4831,29 @@
       <c r="B32" s="14"/>
       <c r="C32" s="37"/>
       <c r="D32" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="72">
       <c r="A33" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="37"/>
       <c r="D33" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8">
@@ -4784,13 +4863,13 @@
       <c r="B34" s="14"/>
       <c r="C34" s="37"/>
       <c r="D34" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4800,10 +4879,10 @@
       <c r="B35" s="14"/>
       <c r="C35" s="37"/>
       <c r="D35" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4813,10 +4892,13 @@
       <c r="B36" s="14"/>
       <c r="C36" s="37"/>
       <c r="D36" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4826,10 +4908,10 @@
       <c r="B37" s="14"/>
       <c r="C37" s="37"/>
       <c r="D37" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4839,10 +4921,13 @@
       <c r="B38" s="14"/>
       <c r="C38" s="37"/>
       <c r="D38" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>274</v>
+        <v>268</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4852,10 +4937,10 @@
       <c r="B39" s="14"/>
       <c r="C39" s="37"/>
       <c r="D39" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4865,10 +4950,13 @@
       <c r="B40" s="14"/>
       <c r="C40" s="37"/>
       <c r="D40" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>322</v>
+        <v>313</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4878,11 +4966,11 @@
       <c r="B41" s="14"/>
       <c r="C41" s="37"/>
       <c r="D41" s="14" t="s">
-        <v>357</v>
+        <v>161</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4892,10 +4980,10 @@
       <c r="B42" s="14"/>
       <c r="C42" s="37"/>
       <c r="D42" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4905,23 +4993,23 @@
       <c r="B43" s="14"/>
       <c r="C43" s="37"/>
       <c r="D43" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="100.8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="72">
       <c r="A44" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="37"/>
       <c r="D44" s="1" t="s">
-        <v>357</v>
+        <v>161</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>294</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6842,12 +6930,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6862,7 +6950,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -6874,7 +6962,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -7513,7 +7601,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C38" s="18">
         <v>3356</v>
@@ -7533,7 +7621,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C39" s="18">
         <v>3177</v>
@@ -8453,7 +8541,7 @@
         <v>25</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C85" s="18">
         <v>1668</v>
@@ -8473,7 +8561,7 @@
         <v>25</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C86" s="18">
         <v>1825</v>
@@ -8713,7 +8801,7 @@
         <v>25</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C98" s="18">
         <v>2516</v>
@@ -9030,7 +9118,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>120</v>
@@ -9050,7 +9138,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>111</v>
@@ -9070,7 +9158,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>108</v>
@@ -9090,7 +9178,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>40</v>
@@ -9110,7 +9198,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>41</v>
@@ -9130,7 +9218,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>48</v>
@@ -9150,7 +9238,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>63</v>
@@ -9170,7 +9258,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>115</v>
@@ -9190,7 +9278,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>66</v>
@@ -9210,7 +9298,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>67</v>
@@ -9230,7 +9318,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>72</v>
@@ -9250,7 +9338,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>73</v>
@@ -9270,7 +9358,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>59</v>
@@ -9290,7 +9378,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>131</v>
@@ -9310,7 +9398,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>141</v>
@@ -9330,7 +9418,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>102</v>
@@ -9350,7 +9438,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>134</v>
@@ -9370,7 +9458,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>29</v>
@@ -9390,7 +9478,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>28</v>
@@ -9410,10 +9498,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C133" s="18">
         <v>1238</v>
@@ -9430,7 +9518,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>27</v>
@@ -9450,7 +9538,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>55</v>
@@ -9470,7 +9558,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>47</v>
@@ -9490,7 +9578,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>85</v>
@@ -9510,7 +9598,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>136</v>
@@ -9530,7 +9618,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>75</v>
@@ -9550,7 +9638,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>104</v>
@@ -9570,7 +9658,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>144</v>
@@ -9590,7 +9678,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>32</v>
@@ -9610,7 +9698,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>32</v>
@@ -9630,10 +9718,10 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C144" s="18">
         <v>2017</v>
@@ -9650,7 +9738,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>106</v>
@@ -9670,7 +9758,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>65</v>
@@ -9690,7 +9778,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>77</v>
@@ -9710,7 +9798,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>78</v>
@@ -9730,7 +9818,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>58</v>
@@ -9750,7 +9838,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>71</v>
@@ -9770,7 +9858,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>128</v>
@@ -9790,7 +9878,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>124</v>
@@ -9810,7 +9898,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>123</v>
@@ -9830,7 +9918,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>126</v>
@@ -9850,7 +9938,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>137</v>
@@ -9870,7 +9958,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>64</v>
@@ -9890,7 +9978,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>130</v>
@@ -9910,7 +9998,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>79</v>
@@ -9930,7 +10018,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" s="18" t="s">
         <v>109</v>
@@ -9950,7 +10038,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>119</v>
@@ -9970,7 +10058,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>118</v>
@@ -9990,7 +10078,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="18" t="s">
         <v>114</v>
@@ -10010,7 +10098,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>52</v>
@@ -10030,10 +10118,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C164" s="18">
         <v>1088</v>
@@ -10050,10 +10138,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C165" s="18">
         <v>1437</v>
@@ -10070,7 +10158,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>36</v>
@@ -10090,7 +10178,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>74</v>
@@ -10110,7 +10198,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>133</v>
@@ -10130,7 +10218,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>129</v>
@@ -10150,7 +10238,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>97</v>
@@ -10170,7 +10258,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>99</v>
@@ -10190,7 +10278,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>116</v>
@@ -10210,7 +10298,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>91</v>
@@ -10230,7 +10318,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>76</v>
@@ -10250,7 +10338,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>43</v>
@@ -10270,7 +10358,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>145</v>
@@ -10290,7 +10378,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>93</v>
@@ -10310,7 +10398,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>95</v>
@@ -10330,7 +10418,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B179" s="18" t="s">
         <v>142</v>
@@ -10350,10 +10438,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C180" s="18">
         <v>4433</v>
@@ -10370,10 +10458,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C181" s="18">
         <v>4862</v>
@@ -10390,10 +10478,10 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C182" s="18">
         <v>3401</v>
@@ -10410,7 +10498,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B183" s="18" t="s">
         <v>139</v>
@@ -10430,7 +10518,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>110</v>
@@ -10450,7 +10538,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>107</v>
@@ -10470,7 +10558,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>39</v>
@@ -10490,7 +10578,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>49</v>
@@ -10510,7 +10598,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B188" s="18" t="s">
         <v>80</v>
@@ -10530,7 +10618,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B189" s="18" t="s">
         <v>68</v>
@@ -10550,7 +10638,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B190" s="18" t="s">
         <v>112</v>
@@ -10570,7 +10658,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B191" s="18" t="s">
         <v>26</v>
@@ -10590,7 +10678,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B192" s="18" t="s">
         <v>34</v>
@@ -10610,7 +10698,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B193" s="18" t="s">
         <v>35</v>
@@ -10630,10 +10718,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C194" s="18">
         <v>1285</v>
@@ -10650,7 +10738,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B195" s="18" t="s">
         <v>30</v>
@@ -10670,7 +10758,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B196" s="18" t="s">
         <v>53</v>
@@ -10690,7 +10778,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B197" s="18" t="s">
         <v>45</v>
@@ -10710,7 +10798,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B198" s="18" t="s">
         <v>60</v>
@@ -10730,7 +10818,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B199" s="18" t="s">
         <v>42</v>
@@ -10750,7 +10838,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B200" s="18" t="s">
         <v>61</v>
@@ -10770,7 +10858,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B201" s="18" t="s">
         <v>56</v>
@@ -10790,7 +10878,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B202" s="18" t="s">
         <v>101</v>
@@ -10810,7 +10898,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>33</v>
@@ -10830,7 +10918,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B204" s="18" t="s">
         <v>50</v>
@@ -10850,7 +10938,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B205" s="18" t="s">
         <v>37</v>
@@ -10870,7 +10958,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B206" s="18" t="s">
         <v>90</v>
@@ -10890,7 +10978,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B207" s="18" t="s">
         <v>70</v>
@@ -10910,7 +10998,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B208" s="18" t="s">
         <v>121</v>
@@ -10930,7 +11018,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B209" s="18" t="s">
         <v>122</v>
@@ -10950,7 +11038,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B210" s="18" t="s">
         <v>84</v>
@@ -12810,11 +12898,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12826,12 +12914,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12841,14 +12929,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12881,10 +12969,10 @@
         <v>99</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -12892,10 +12980,10 @@
         <v>116</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -12903,10 +12991,10 @@
         <v>91</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -12914,10 +13002,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -12925,10 +13013,10 @@
         <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -12936,10 +13024,10 @@
         <v>93</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -12947,10 +13035,10 @@
         <v>95</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -12958,10 +13046,10 @@
         <v>110</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -12969,10 +13057,10 @@
         <v>107</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -12980,10 +13068,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -12991,10 +13079,10 @@
         <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13002,10 +13090,10 @@
         <v>80</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13013,10 +13101,10 @@
         <v>68</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13024,10 +13112,10 @@
         <v>112</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13035,10 +13123,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13046,10 +13134,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13057,10 +13145,10 @@
         <v>53</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13068,10 +13156,10 @@
         <v>45</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13079,10 +13167,10 @@
         <v>60</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13090,123 +13178,131 @@
         <v>42</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
+      <c r="C31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
       <c r="B32" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" t="s">
-        <v>289</v>
+        <v>170</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>180</v>
+        <v>50</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>285</v>
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C35" t="s">
-        <v>324</v>
+        <v>173</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
       <c r="C36" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="26"/>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="29"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:3">
+      <c r="A41" s="29"/>
       <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:3">
@@ -13216,26 +13312,29 @@
       <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="27"/>
       <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:3">
+      <c r="A45" s="27"/>
       <c r="B45" s="6"/>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="27"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="28"/>
+    <row r="46" spans="1:3">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="27"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="14"/>
+      <c r="A52" s="28"/>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="14"/>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="14"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13262,12 +13361,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13275,12 +13374,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13309,10 +13408,10 @@
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13320,10 +13419,10 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13369,12 +13468,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13383,14 +13482,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13419,24 +13518,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13488,24 +13587,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13530,112 +13629,112 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
         <v>189</v>
-      </c>
-      <c r="B15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
         <v>192</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13672,12 +13771,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="4" max="4" width="48.21875" customWidth="1"/>
@@ -13685,7 +13784,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="10"/>
@@ -13693,7 +13792,7 @@
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="11"/>
@@ -13701,7 +13800,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="6"/>
@@ -13709,7 +13808,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="6"/>
@@ -13717,7 +13816,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -13728,43 +13827,43 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C11" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D11" s="42"/>
     </row>
@@ -13774,5 +13873,6 @@
     <hyperlink ref="D9" r:id="rId2" xr:uid="{641E2B0C-50D8-43ED-A8B6-B47536BE1F0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E29F2B6-241B-4AD2-9C13-F5B5B59E8FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B289E0-F7E1-4223-96D5-E265BDBA0006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1090,9 +1090,6 @@
     <t>Excel data</t>
   </si>
   <si>
-    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also do the NTSC measurements</t>
-  </si>
-  <si>
     <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-board-local-files</t>
   </si>
   <si>
@@ -1204,6 +1201,21 @@
     <t>PLA (Programmable Logic Array) is responsible for bank switching and dealing with chip select signals.
 Compatible part-number: Signetics 82S100
 Compatible part-number: Philips PLS100</t>
+  </si>
+  <si>
+    <t>Oscilloscope baseline measurement</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Datasheet for 6581</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also help with the NTSC measurements</t>
   </si>
   <si>
     <r>
@@ -1218,20 +1230,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-22</t>
+      <t>2025-August-1</t>
     </r>
-  </si>
-  <si>
-    <t>Oscilloscope baseline measurement</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Datasheet for 6581</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6581_sid.pdf</t>
   </si>
 </sst>
 </file>
@@ -1820,9 +1820,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2067,8 +2067,8 @@
   <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3080,7 +3080,7 @@
         <v>39</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>83</v>
@@ -3089,7 +3089,7 @@
         <v>89</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3097,7 +3097,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>82</v>
@@ -3106,7 +3106,7 @@
         <v>89</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>81</v>
@@ -3123,7 +3123,7 @@
         <v>89</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3157,7 +3157,7 @@
         <v>89</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3292,7 +3292,7 @@
         <v>89</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3309,10 +3309,10 @@
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3329,10 +3329,10 @@
         <v>89</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3343,7 +3343,7 @@
         <v>556</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>89</v>
@@ -3494,10 +3494,10 @@
         <v>86</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3511,10 +3511,10 @@
         <v>86</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4383,10 +4383,10 @@
   <dimension ref="A1:I1371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4474,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8">
@@ -4615,7 +4615,7 @@
         <v>253</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="158.4">
@@ -4631,7 +4631,7 @@
         <v>253</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I19" s="14"/>
     </row>
@@ -4680,7 +4680,7 @@
         <v>255</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.8">
@@ -4728,7 +4728,7 @@
         <v>258</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="43.2">
@@ -4776,7 +4776,7 @@
         <v>260</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4792,7 +4792,7 @@
         <v>261</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4808,7 +4808,7 @@
         <v>262</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4837,7 +4837,7 @@
         <v>264</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="72">
@@ -4853,7 +4853,7 @@
         <v>265</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8">
@@ -4869,7 +4869,7 @@
         <v>266</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4898,7 +4898,7 @@
         <v>260</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4927,7 +4927,7 @@
         <v>268</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4956,7 +4956,7 @@
         <v>313</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5009,7 +5009,7 @@
         <v>161</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -12900,9 +12900,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13115,7 +13115,7 @@
         <v>168</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13189,10 +13189,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13489,7 +13489,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13771,7 +13771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13808,7 +13808,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="6"/>
@@ -13860,10 +13860,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="D11" s="42"/>
     </row>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64\250466\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B289E0-F7E1-4223-96D5-E265BDBA0006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D03A24B-5BDB-4CEE-9C5A-2DE705887506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -801,129 +801,6 @@
     <t>5VDC voltage regulator</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/User port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Cassette port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Serial bus.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Video-audio port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Expansion port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Joystick port 2.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Joystick port 1.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6526.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2364.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2332.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2114.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6510.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7406.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/4464.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS257.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS258.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS139.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/4066.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/906114-01-PLA.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6581.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6569.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS373.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/NE556.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/MC7800.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -949,15 +826,6 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Commodore_64</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250466/252278_1of2.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250466/252278_2of2.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore 64/250466/Board-Layout-250466 (NTSC).jpg</t>
   </si>
   <si>
     <r>
@@ -1015,15 +883,9 @@
     <t>65536 x 4-bit, 200ns</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/8701.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 8701</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/MOS8701.pdf</t>
-  </si>
-  <si>
     <t>1024 x 4-bit, 150ns</t>
   </si>
   <si>
@@ -1042,12 +904,6 @@
     <t>Compatible part-number: 8500 (HMOS version)</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/556.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7800-series.jpg</t>
-  </si>
-  <si>
     <t>Board schematic images</t>
   </si>
   <si>
@@ -1061,9 +917,6 @@
   </si>
   <si>
     <t>Resources</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Power C64.jpg</t>
   </si>
   <si>
     <t>Board credits</t>
@@ -1206,16 +1059,19 @@
     <t>Oscilloscope baseline measurement</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
-  </si>
-  <si>
     <t>Datasheet for 6581</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component local files/mos_6581_sid.pdf</t>
-  </si>
-  <si>
     <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also help with the NTSC measurements</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/252278_1of2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/252278_2of2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Board-Layout-250466 (NTSC).jpg</t>
   </si>
   <si>
     <r>
@@ -1230,8 +1086,152 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-August-1</t>
+      <t>2025-September-13</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/User port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Cassette port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Serial bus.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Video-audio port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Expansion port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power C64.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 1.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6526.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2364.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6510.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4464.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS257.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS258.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS139.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/906114-01-PLA.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6581.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6569.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/556.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS373.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8701.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7800-series.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/NE556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MOS8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MC7800.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1837,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="21">
@@ -1847,7 +1847,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1886,11 +1886,11 @@
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="50" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
@@ -1910,10 +1910,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1921,7 +1921,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1941,7 +1941,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1962,7 +1962,7 @@
         <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -2083,7 +2083,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
@@ -2131,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>21</v>
@@ -2912,7 +2912,7 @@
         <v>97</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>98</v>
@@ -2926,7 +2926,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>100</v>
@@ -2940,7 +2940,7 @@
         <v>116</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>117</v>
@@ -2954,7 +2954,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>92</v>
@@ -2968,10 +2968,10 @@
         <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>88</v>
@@ -2982,7 +2982,7 @@
         <v>43</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>44</v>
@@ -2996,10 +2996,10 @@
         <v>145</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>88</v>
@@ -3010,7 +3010,7 @@
         <v>93</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>94</v>
@@ -3024,7 +3024,7 @@
         <v>95</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>96</v>
@@ -3038,7 +3038,7 @@
         <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>143</v>
@@ -3080,7 +3080,7 @@
         <v>39</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>83</v>
@@ -3089,7 +3089,7 @@
         <v>89</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3097,7 +3097,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>82</v>
@@ -3106,7 +3106,7 @@
         <v>89</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>81</v>
@@ -3123,7 +3123,7 @@
         <v>89</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3140,7 +3140,7 @@
         <v>89</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3157,7 +3157,7 @@
         <v>89</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3188,7 +3188,7 @@
         <v>89</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3205,7 +3205,7 @@
         <v>89</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3292,7 +3292,7 @@
         <v>89</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3309,10 +3309,10 @@
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3329,10 +3329,10 @@
         <v>89</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3343,7 +3343,7 @@
         <v>556</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>89</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="16" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>86</v>
@@ -3494,10 +3494,10 @@
         <v>86</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3511,10 +3511,10 @@
         <v>86</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4403,7 +4403,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="31"/>
@@ -4465,22 +4465,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8">
@@ -4507,7 +4507,7 @@
         <v>161</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4520,7 +4520,7 @@
         <v>161</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4533,7 +4533,7 @@
         <v>161</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4546,7 +4546,7 @@
         <v>161</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4559,7 +4559,7 @@
         <v>161</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="I14" s="14"/>
     </row>
@@ -4573,7 +4573,7 @@
         <v>161</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4586,7 +4586,7 @@
         <v>161</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4599,7 +4599,7 @@
         <v>161</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="158.4">
@@ -4612,10 +4612,10 @@
         <v>161</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="158.4">
@@ -4628,10 +4628,10 @@
         <v>161</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="I19" s="14"/>
     </row>
@@ -4645,7 +4645,7 @@
         <v>161</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>239</v>
@@ -4661,7 +4661,7 @@
         <v>161</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>240</v>
@@ -4677,10 +4677,10 @@
         <v>161</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.8">
@@ -4693,7 +4693,7 @@
         <v>161</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>241</v>
@@ -4709,10 +4709,10 @@
         <v>161</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4725,10 +4725,10 @@
         <v>161</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="43.2">
@@ -4741,7 +4741,7 @@
         <v>161</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>194</v>
@@ -4757,7 +4757,7 @@
         <v>161</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>195</v>
@@ -4773,10 +4773,10 @@
         <v>161</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4789,10 +4789,10 @@
         <v>161</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4805,10 +4805,10 @@
         <v>161</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4821,7 +4821,7 @@
         <v>161</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="72">
@@ -4834,10 +4834,10 @@
         <v>161</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>264</v>
+        <v>346</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="72">
@@ -4850,10 +4850,10 @@
         <v>161</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8">
@@ -4866,10 +4866,10 @@
         <v>161</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4882,7 +4882,7 @@
         <v>161</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4895,10 +4895,10 @@
         <v>161</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4911,7 +4911,7 @@
         <v>161</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4924,10 +4924,10 @@
         <v>161</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4940,7 +4940,7 @@
         <v>161</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4953,10 +4953,10 @@
         <v>161</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="1" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4983,7 +4983,7 @@
         <v>161</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4996,7 +4996,7 @@
         <v>161</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="72">
@@ -5009,7 +5009,7 @@
         <v>161</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6930,7 +6930,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
@@ -7621,7 +7621,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C39" s="18">
         <v>3177</v>
@@ -10481,7 +10481,7 @@
         <v>160</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C182" s="18">
         <v>3401</v>
@@ -12914,7 +12914,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
@@ -12972,7 +12972,7 @@
         <v>242</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -12983,7 +12983,7 @@
         <v>242</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -12994,7 +12994,7 @@
         <v>242</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13005,7 +13005,7 @@
         <v>242</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13016,7 +13016,7 @@
         <v>242</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13027,7 +13027,7 @@
         <v>242</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13038,7 +13038,7 @@
         <v>242</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13049,7 +13049,7 @@
         <v>164</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13060,7 +13060,7 @@
         <v>164</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13071,7 +13071,7 @@
         <v>165</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13082,7 +13082,7 @@
         <v>165</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13093,7 +13093,7 @@
         <v>166</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13104,7 +13104,7 @@
         <v>167</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13115,7 +13115,7 @@
         <v>168</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13126,7 +13126,7 @@
         <v>169</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13137,7 +13137,7 @@
         <v>170</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13148,7 +13148,7 @@
         <v>171</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13159,7 +13159,7 @@
         <v>172</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13170,7 +13170,7 @@
         <v>173</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13181,7 +13181,7 @@
         <v>174</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13189,10 +13189,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13203,7 +13203,7 @@
         <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13214,7 +13214,7 @@
         <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -13225,7 +13225,7 @@
         <v>170</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -13236,7 +13236,7 @@
         <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -13247,7 +13247,7 @@
         <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>283</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -13258,7 +13258,7 @@
         <v>173</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -13266,10 +13266,10 @@
         <v>70</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -13280,7 +13280,7 @@
         <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -13291,7 +13291,7 @@
         <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -13361,7 +13361,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
@@ -13419,10 +13419,10 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13468,7 +13468,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
@@ -13489,7 +13489,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="30" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13518,13 +13518,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13535,7 +13535,7 @@
         <v>183</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13587,7 +13587,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
@@ -13629,21 +13629,21 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
         <v>193</v>
@@ -13651,7 +13651,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
         <v>232</v>
@@ -13662,18 +13662,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
         <v>184</v>
@@ -13731,10 +13731,10 @@
         <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13784,7 +13784,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="13" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="10"/>
@@ -13808,7 +13808,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="6"/>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -13827,43 +13827,43 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="D11" s="42"/>
     </row>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D03A24B-5BDB-4CEE-9C5A-2DE705887506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1933739-F2E7-460E-A3F5-53EEAD5579F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="378">
   <si>
     <t>Name</t>
   </si>
@@ -1074,6 +1074,150 @@
     <t>Commodore 64/250466/Board-Layout-250466 (NTSC).jpg</t>
   </si>
   <si>
+    <t>Commodore shared files/Component images/User port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Cassette port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Serial bus.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Video-audio port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Expansion port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power C64.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 2.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Joystick port 1.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6526.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2364.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6510.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4464.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS257.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS258.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS139.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/906114-01-PLA.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6581.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6569.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/556.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS373.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/8701.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7800-series.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/NE556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MOS8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/MC7800.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1086,152 +1230,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-September-13</t>
+      <t>2025-October-15</t>
     </r>
   </si>
   <si>
-    <t>Commodore shared files/Component images/User port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Cassette port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Serial bus.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Video-audio port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Expansion port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Power C64.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Joystick port 2.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Joystick port 1.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6526.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2364.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2332.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2114.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6510.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7406.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/4464.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS257.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS258.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS139.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/4066.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/906114-01-PLA.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6581.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6569.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/556.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS373.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/8701.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7800-series.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS257A_Fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/hd74ls258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/hd74ls139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/hd14066b_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/c64_pla_dissected_a4ds.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6581_sid.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/NE556.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/dm74ls373_national_semiconductor.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/sn74ls08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/MOS8701.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/MC7800.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/C64C_Service_Manual_1992.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
+    <t>Best-practises</t>
+  </si>
+  <si>
+    <t>Commodore 64/128 Best-Practises</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/Commodore 64-128 Best-Practises.txt</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1856,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4507,7 +4516,7 @@
         <v>161</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4520,7 +4529,7 @@
         <v>161</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4533,7 +4542,7 @@
         <v>161</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4546,7 +4555,7 @@
         <v>161</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4559,7 +4568,7 @@
         <v>161</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I14" s="14"/>
     </row>
@@ -4573,7 +4582,7 @@
         <v>161</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4586,7 +4595,7 @@
         <v>161</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4599,7 +4608,7 @@
         <v>161</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="158.4">
@@ -4612,7 +4621,7 @@
         <v>161</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>298</v>
@@ -4628,7 +4637,7 @@
         <v>161</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>299</v>
@@ -4645,7 +4654,7 @@
         <v>161</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>239</v>
@@ -4661,7 +4670,7 @@
         <v>161</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>240</v>
@@ -4677,7 +4686,7 @@
         <v>161</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>305</v>
@@ -4693,7 +4702,7 @@
         <v>161</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>241</v>
@@ -4709,7 +4718,7 @@
         <v>161</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>275</v>
@@ -4725,7 +4734,7 @@
         <v>161</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>308</v>
@@ -4741,7 +4750,7 @@
         <v>161</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>194</v>
@@ -4757,7 +4766,7 @@
         <v>161</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>195</v>
@@ -4773,7 +4782,7 @@
         <v>161</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>309</v>
@@ -4789,7 +4798,7 @@
         <v>161</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>310</v>
@@ -4805,7 +4814,7 @@
         <v>161</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>311</v>
@@ -4821,7 +4830,7 @@
         <v>161</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="72">
@@ -4834,7 +4843,7 @@
         <v>161</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>319</v>
@@ -4850,7 +4859,7 @@
         <v>161</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>317</v>
@@ -4866,7 +4875,7 @@
         <v>161</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>297</v>
@@ -4882,7 +4891,7 @@
         <v>161</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4895,7 +4904,7 @@
         <v>161</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>309</v>
@@ -4911,7 +4920,7 @@
         <v>161</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4924,7 +4933,7 @@
         <v>161</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>312</v>
@@ -4940,7 +4949,7 @@
         <v>161</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4953,7 +4962,7 @@
         <v>161</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>315</v>
@@ -4983,7 +4992,7 @@
         <v>161</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4996,7 +5005,7 @@
         <v>161</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="72">
@@ -12972,7 +12981,7 @@
         <v>242</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -12983,7 +12992,7 @@
         <v>242</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -12994,7 +13003,7 @@
         <v>242</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13005,7 +13014,7 @@
         <v>242</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13016,7 +13025,7 @@
         <v>242</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13027,7 +13036,7 @@
         <v>242</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13038,7 +13047,7 @@
         <v>242</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13049,7 +13058,7 @@
         <v>164</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13060,7 +13069,7 @@
         <v>164</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13071,7 +13080,7 @@
         <v>165</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13082,7 +13091,7 @@
         <v>165</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13093,7 +13102,7 @@
         <v>166</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13104,7 +13113,7 @@
         <v>167</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13115,7 +13124,7 @@
         <v>168</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13126,7 +13135,7 @@
         <v>169</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13137,7 +13146,7 @@
         <v>170</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13148,7 +13157,7 @@
         <v>171</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13159,7 +13168,7 @@
         <v>172</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -13170,7 +13179,7 @@
         <v>173</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -13181,7 +13190,7 @@
         <v>174</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -13192,7 +13201,7 @@
         <v>321</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -13203,7 +13212,7 @@
         <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -13214,7 +13223,7 @@
         <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -13225,7 +13234,7 @@
         <v>170</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -13236,7 +13245,7 @@
         <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -13247,7 +13256,7 @@
         <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -13258,7 +13267,7 @@
         <v>173</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -13269,7 +13278,7 @@
         <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -13280,7 +13289,7 @@
         <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -13291,7 +13300,7 @@
         <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -13524,7 +13533,7 @@
         <v>181</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13535,7 +13544,18 @@
         <v>183</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1933739-F2E7-460E-A3F5-53EEAD5579F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1363BBEF-B792-45A9-97BC-CAED57B19D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView minimized="1" xWindow="-23148" yWindow="0" windowWidth="17280" windowHeight="10044" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="464">
   <si>
     <t>Name</t>
   </si>
@@ -1241,6 +1241,264 @@
   </si>
   <si>
     <t>Commodore shared files/Board local files/Commodore 64-128 Best-Practises.txt</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>0V (GND)</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>Pulsing</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>/PC</t>
+  </si>
+  <si>
+    <t>TOD</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>5.1V (+5VDC power rail)</t>
+  </si>
+  <si>
+    <t>/IRQ</t>
+  </si>
+  <si>
+    <t>R//W</t>
+  </si>
+  <si>
+    <t>/CS</t>
+  </si>
+  <si>
+    <t>/FLAG</t>
+  </si>
+  <si>
+    <t>PHI2</t>
+  </si>
+  <si>
+    <t>985.252 kHz</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>/RES</t>
+  </si>
+  <si>
+    <t>RS3</t>
+  </si>
+  <si>
+    <t>RS2</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>RS0</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_25_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_26_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_27_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_28_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_29_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_30_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_31_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_32_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_33_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_34_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_35_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_36_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_37_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_38_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_39_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_40_PAL.png</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +2087,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -4389,13 +4647,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I1371"/>
+  <dimension ref="A1:I1411"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4598,7 +4856,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:7">
       <c r="A17" s="47" t="s">
         <v>95</v>
       </c>
@@ -4611,7 +4869,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="158.4">
+    <row r="18" spans="1:7" ht="158.4">
       <c r="A18" s="47" t="s">
         <v>110</v>
       </c>
@@ -4627,843 +4885,1483 @@
         <v>298</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="158.4">
+    <row r="19" spans="1:7">
       <c r="A19" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="32">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="32">
+        <v>3</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="32">
+        <v>4</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="32">
+        <v>5</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="32">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="32">
+        <v>7</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="32">
+        <v>8</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="32">
+        <v>9</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" s="32">
+        <v>10</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="32">
+        <v>11</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="32">
+        <v>12</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="32">
+        <v>13</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="32">
+        <v>14</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="32">
+        <v>15</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="32">
+        <v>16</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="32">
+        <v>17</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="32">
+        <v>18</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="32">
+        <v>19</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="32">
+        <v>20</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="32">
+        <v>21</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="32">
+        <v>22</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="32">
+        <v>23</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="32">
+        <v>24</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="32">
+        <v>25</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="32">
+        <v>26</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" s="32">
+        <v>27</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="32">
+        <v>28</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="32">
+        <v>29</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48" s="32">
+        <v>30</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="32">
+        <v>31</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="32">
+        <v>32</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="32">
+        <v>33</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="32">
+        <v>34</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="32">
+        <v>35</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C54" s="32">
+        <v>36</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C55" s="32">
+        <v>37</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="32">
+        <v>38</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="32">
+        <v>39</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="32">
+        <v>40</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="158.4">
+      <c r="A59" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="1" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.8">
-      <c r="A20" s="14" t="s">
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.8">
+      <c r="A60" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.8">
-      <c r="A21" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="72">
-      <c r="A22" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="28.8">
-      <c r="A23" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="43.2">
-      <c r="A26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="43.2">
-      <c r="A27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="72">
-      <c r="A32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="72">
-      <c r="A33" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.8">
-      <c r="A34" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="72">
-      <c r="A44" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="33"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="48"/>
-      <c r="B46"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="49"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="38"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="48"/>
-      <c r="B48"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="37"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="37"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="39"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="37"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="37"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="37"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="39"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="37"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="37"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="37"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="37"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="37"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="37"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="37"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="37"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="37"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="37"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="37"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="37"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="14"/>
+      <c r="D60" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8">
+      <c r="A61" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="72">
+      <c r="A62" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="28.8">
+      <c r="A63" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="43.2">
+      <c r="A66" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="43.2">
+      <c r="A67" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B68" s="14"/>
       <c r="C68" s="37"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="14"/>
+      <c r="D68" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="B69" s="14"/>
       <c r="C69" s="37"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="14"/>
+      <c r="D69" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="B70" s="14"/>
       <c r="C70" s="37"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="14"/>
+      <c r="D70" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="B71" s="14"/>
       <c r="C71" s="37"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="14"/>
+      <c r="D71" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="72">
+      <c r="A72" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="B72" s="14"/>
       <c r="C72" s="37"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="14"/>
+      <c r="D72" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="72">
+      <c r="A73" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="B73" s="14"/>
       <c r="C73" s="37"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="14"/>
+      <c r="D73" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="28.8">
+      <c r="A74" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="B74" s="14"/>
       <c r="C74" s="37"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="14"/>
+      <c r="D74" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="B75" s="14"/>
       <c r="C75" s="37"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="14"/>
+      <c r="D75" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="B76" s="14"/>
       <c r="C76" s="37"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="14"/>
+      <c r="D76" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="B77" s="14"/>
       <c r="C77" s="37"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="14"/>
+      <c r="D77" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="B78" s="14"/>
       <c r="C78" s="37"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="14"/>
+      <c r="D78" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="B79" s="14"/>
       <c r="C79" s="37"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="14"/>
+      <c r="D79" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="B80" s="14"/>
       <c r="C80" s="37"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="14"/>
+      <c r="D80" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="B81" s="14"/>
       <c r="C81" s="37"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="14"/>
+      <c r="D81" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="B82" s="14"/>
       <c r="C82" s="37"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="14"/>
+      <c r="D82" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="B83" s="14"/>
       <c r="C83" s="37"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="14"/>
+      <c r="D83" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="72">
+      <c r="A84" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="B84" s="14"/>
       <c r="C84" s="37"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="37"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="37"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="37"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="37"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="33"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="48"/>
+      <c r="B86"/>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="49"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="38"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="48"/>
+      <c r="B88"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="37"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:7">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="37"/>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="37"/>
-    </row>
-    <row r="92" spans="1:3">
+    <row r="91" spans="1:7">
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="39"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="37"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:7">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="37"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:7">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="37"/>
     </row>
-    <row r="204" spans="5:5">
-      <c r="E204" s="43"/>
-    </row>
-    <row r="205" spans="5:5">
-      <c r="E205" s="43"/>
-    </row>
-    <row r="206" spans="5:5">
-      <c r="E206" s="43"/>
-    </row>
-    <row r="207" spans="5:5">
-      <c r="E207" s="43"/>
-    </row>
-    <row r="208" spans="5:5">
-      <c r="E208" s="43"/>
-    </row>
-    <row r="209" spans="5:7">
-      <c r="E209" s="43"/>
-    </row>
-    <row r="210" spans="5:7">
-      <c r="E210" s="43"/>
-    </row>
-    <row r="220" spans="5:7">
-      <c r="E220" s="43"/>
-    </row>
-    <row r="222" spans="5:7">
-      <c r="E222" s="43"/>
-      <c r="G222" s="43"/>
-    </row>
-    <row r="223" spans="5:7">
-      <c r="G223" s="43"/>
-    </row>
-    <row r="224" spans="5:7">
-      <c r="E224" s="44"/>
-      <c r="G224" s="43"/>
-    </row>
-    <row r="225" spans="5:7">
-      <c r="E225" s="43"/>
-      <c r="G225" s="43"/>
-    </row>
-    <row r="226" spans="5:7">
-      <c r="E226" s="43"/>
-      <c r="G226" s="43"/>
-    </row>
-    <row r="227" spans="5:7">
-      <c r="E227" s="43"/>
-      <c r="G227" s="43"/>
-    </row>
-    <row r="228" spans="5:7">
-      <c r="E228" s="43"/>
-      <c r="G228" s="43"/>
-    </row>
-    <row r="229" spans="5:7">
-      <c r="E229" s="43"/>
-      <c r="G229" s="43"/>
-    </row>
-    <row r="230" spans="5:7">
-      <c r="E230" s="45"/>
-      <c r="G230" s="43"/>
-    </row>
-    <row r="231" spans="5:7">
-      <c r="E231" s="43"/>
-      <c r="G231" s="43"/>
-    </row>
-    <row r="232" spans="5:7">
-      <c r="E232" s="43"/>
-      <c r="G232" s="43"/>
-    </row>
-    <row r="233" spans="5:7">
-      <c r="E233" s="43"/>
-      <c r="G233" s="43"/>
-    </row>
-    <row r="234" spans="5:7">
-      <c r="E234" s="43"/>
-      <c r="G234" s="43"/>
-    </row>
-    <row r="235" spans="5:7">
-      <c r="E235" s="43"/>
-      <c r="G235" s="43"/>
-    </row>
-    <row r="236" spans="5:7">
-      <c r="E236" s="43"/>
-      <c r="G236" s="43"/>
-    </row>
-    <row r="237" spans="5:7">
-      <c r="E237" s="43"/>
-      <c r="G237" s="43"/>
-    </row>
-    <row r="238" spans="5:7">
-      <c r="E238" s="43"/>
-      <c r="G238" s="43"/>
-    </row>
-    <row r="239" spans="5:7">
-      <c r="E239" s="43"/>
-      <c r="G239" s="43"/>
-    </row>
-    <row r="240" spans="5:7">
-      <c r="E240" s="43"/>
-      <c r="G240" s="43"/>
-    </row>
-    <row r="241" spans="5:7">
-      <c r="E241" s="43"/>
-      <c r="G241" s="43"/>
-    </row>
-    <row r="242" spans="5:7">
-      <c r="E242" s="43"/>
-      <c r="G242" s="43"/>
-    </row>
-    <row r="243" spans="5:7">
-      <c r="E243" s="43"/>
-      <c r="G243" s="43"/>
-    </row>
-    <row r="244" spans="5:7">
+    <row r="95" spans="1:7">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="39"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="37"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="37"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="37"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="37"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="37"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="37"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="37"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="37"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="37"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="37"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="37"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="37"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="37"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="37"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="37"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="37"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="37"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="37"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="37"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="37"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="37"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="37"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="37"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="37"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="37"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="37"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="37"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="37"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="37"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="37"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="37"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="37"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="37"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="37"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="37"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="37"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="37"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="37"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="37"/>
+    </row>
+    <row r="244" spans="5:5">
       <c r="E244" s="43"/>
-      <c r="G244" s="43"/>
-    </row>
-    <row r="245" spans="5:7">
+    </row>
+    <row r="245" spans="5:5">
       <c r="E245" s="43"/>
-      <c r="G245" s="43"/>
-    </row>
-    <row r="246" spans="5:7">
+    </row>
+    <row r="246" spans="5:5">
       <c r="E246" s="43"/>
-      <c r="G246" s="43"/>
-    </row>
-    <row r="247" spans="5:7">
+    </row>
+    <row r="247" spans="5:5">
       <c r="E247" s="43"/>
-      <c r="G247" s="43"/>
-    </row>
-    <row r="248" spans="5:7">
+    </row>
+    <row r="248" spans="5:5">
       <c r="E248" s="43"/>
-      <c r="G248" s="43"/>
-    </row>
-    <row r="249" spans="5:7">
+    </row>
+    <row r="249" spans="5:5">
       <c r="E249" s="43"/>
-      <c r="G249" s="43"/>
-    </row>
-    <row r="250" spans="5:7">
+    </row>
+    <row r="250" spans="5:5">
       <c r="E250" s="43"/>
-      <c r="G250" s="43"/>
-    </row>
-    <row r="251" spans="5:7">
-      <c r="E251" s="43"/>
-      <c r="G251" s="43"/>
-    </row>
-    <row r="252" spans="5:7">
-      <c r="E252" s="43"/>
-      <c r="G252" s="43"/>
-    </row>
-    <row r="253" spans="5:7">
-      <c r="E253" s="43"/>
-      <c r="G253" s="43"/>
-    </row>
-    <row r="254" spans="5:7">
-      <c r="E254" s="43"/>
-      <c r="G254" s="43"/>
-    </row>
-    <row r="255" spans="5:7">
-      <c r="E255" s="43"/>
-      <c r="G255" s="43"/>
-    </row>
-    <row r="256" spans="5:7">
-      <c r="E256" s="43"/>
-      <c r="G256" s="43"/>
-    </row>
-    <row r="257" spans="5:7">
-      <c r="E257" s="43"/>
-      <c r="G257" s="43"/>
-    </row>
-    <row r="258" spans="5:7">
-      <c r="E258" s="43"/>
-      <c r="G258" s="43"/>
-    </row>
-    <row r="259" spans="5:7">
-      <c r="E259" s="43"/>
-      <c r="G259" s="43"/>
     </row>
     <row r="260" spans="5:7">
       <c r="E260" s="43"/>
-      <c r="G260" s="43"/>
-    </row>
-    <row r="261" spans="5:7">
-      <c r="E261" s="43"/>
-      <c r="G261" s="43"/>
     </row>
     <row r="262" spans="5:7">
       <c r="E262" s="43"/>
       <c r="G262" s="43"/>
     </row>
     <row r="263" spans="5:7">
-      <c r="E263" s="43"/>
       <c r="G263" s="43"/>
     </row>
     <row r="264" spans="5:7">
-      <c r="E264" s="43"/>
+      <c r="E264" s="44"/>
       <c r="G264" s="43"/>
     </row>
     <row r="265" spans="5:7">
@@ -5486,242 +6384,285 @@
       <c r="E269" s="43"/>
       <c r="G269" s="43"/>
     </row>
+    <row r="270" spans="5:7">
+      <c r="E270" s="45"/>
+      <c r="G270" s="43"/>
+    </row>
+    <row r="271" spans="5:7">
+      <c r="E271" s="43"/>
+      <c r="G271" s="43"/>
+    </row>
+    <row r="272" spans="5:7">
+      <c r="E272" s="43"/>
+      <c r="G272" s="43"/>
+    </row>
+    <row r="273" spans="5:7">
+      <c r="E273" s="43"/>
+      <c r="G273" s="43"/>
+    </row>
+    <row r="274" spans="5:7">
+      <c r="E274" s="43"/>
+      <c r="G274" s="43"/>
+    </row>
+    <row r="275" spans="5:7">
+      <c r="E275" s="43"/>
+      <c r="G275" s="43"/>
+    </row>
+    <row r="276" spans="5:7">
+      <c r="E276" s="43"/>
+      <c r="G276" s="43"/>
+    </row>
     <row r="277" spans="5:7">
       <c r="E277" s="43"/>
+      <c r="G277" s="43"/>
+    </row>
+    <row r="278" spans="5:7">
+      <c r="E278" s="43"/>
+      <c r="G278" s="43"/>
+    </row>
+    <row r="279" spans="5:7">
+      <c r="E279" s="43"/>
+      <c r="G279" s="43"/>
+    </row>
+    <row r="280" spans="5:7">
+      <c r="E280" s="43"/>
+      <c r="G280" s="43"/>
+    </row>
+    <row r="281" spans="5:7">
+      <c r="E281" s="43"/>
+      <c r="G281" s="43"/>
+    </row>
+    <row r="282" spans="5:7">
+      <c r="E282" s="43"/>
+      <c r="G282" s="43"/>
+    </row>
+    <row r="283" spans="5:7">
+      <c r="E283" s="43"/>
+      <c r="G283" s="43"/>
+    </row>
+    <row r="284" spans="5:7">
+      <c r="E284" s="43"/>
+      <c r="G284" s="43"/>
+    </row>
+    <row r="285" spans="5:7">
+      <c r="E285" s="43"/>
+      <c r="G285" s="43"/>
     </row>
     <row r="286" spans="5:7">
+      <c r="E286" s="43"/>
       <c r="G286" s="43"/>
     </row>
     <row r="287" spans="5:7">
+      <c r="E287" s="43"/>
       <c r="G287" s="43"/>
     </row>
     <row r="288" spans="5:7">
+      <c r="E288" s="43"/>
       <c r="G288" s="43"/>
     </row>
-    <row r="289" spans="7:7">
+    <row r="289" spans="5:7">
+      <c r="E289" s="43"/>
       <c r="G289" s="43"/>
     </row>
-    <row r="290" spans="7:7">
+    <row r="290" spans="5:7">
+      <c r="E290" s="43"/>
       <c r="G290" s="43"/>
     </row>
-    <row r="291" spans="7:7">
+    <row r="291" spans="5:7">
+      <c r="E291" s="43"/>
       <c r="G291" s="43"/>
     </row>
-    <row r="292" spans="7:7">
+    <row r="292" spans="5:7">
+      <c r="E292" s="43"/>
       <c r="G292" s="43"/>
     </row>
-    <row r="293" spans="7:7">
+    <row r="293" spans="5:7">
+      <c r="E293" s="43"/>
       <c r="G293" s="43"/>
     </row>
-    <row r="294" spans="7:7">
+    <row r="294" spans="5:7">
+      <c r="E294" s="43"/>
       <c r="G294" s="43"/>
     </row>
-    <row r="295" spans="7:7">
+    <row r="295" spans="5:7">
+      <c r="E295" s="43"/>
       <c r="G295" s="43"/>
     </row>
-    <row r="296" spans="7:7">
+    <row r="296" spans="5:7">
+      <c r="E296" s="43"/>
       <c r="G296" s="43"/>
     </row>
-    <row r="297" spans="7:7">
+    <row r="297" spans="5:7">
+      <c r="E297" s="43"/>
       <c r="G297" s="43"/>
     </row>
-    <row r="298" spans="7:7">
+    <row r="298" spans="5:7">
+      <c r="E298" s="43"/>
       <c r="G298" s="43"/>
     </row>
-    <row r="299" spans="7:7">
+    <row r="299" spans="5:7">
+      <c r="E299" s="43"/>
       <c r="G299" s="43"/>
     </row>
-    <row r="329" spans="5:5">
-      <c r="E329" s="43"/>
-    </row>
-    <row r="348" spans="5:5">
-      <c r="E348" s="43"/>
-    </row>
-    <row r="349" spans="5:5">
-      <c r="E349" s="43"/>
-    </row>
-    <row r="352" spans="5:5">
-      <c r="E352" s="43"/>
-    </row>
-    <row r="353" spans="5:5">
-      <c r="E353" s="43"/>
-    </row>
-    <row r="354" spans="5:5">
-      <c r="E354" s="43"/>
-    </row>
-    <row r="355" spans="5:5">
-      <c r="E355" s="43"/>
-    </row>
-    <row r="356" spans="5:5">
-      <c r="E356" s="43"/>
-    </row>
-    <row r="357" spans="5:5">
-      <c r="E357" s="43"/>
-    </row>
-    <row r="363" spans="5:5">
-      <c r="E363" s="43"/>
-    </row>
-    <row r="364" spans="5:5">
-      <c r="E364" s="43"/>
-    </row>
-    <row r="365" spans="5:5">
-      <c r="E365" s="43"/>
-    </row>
-    <row r="366" spans="5:5">
-      <c r="E366" s="43"/>
-    </row>
-    <row r="367" spans="5:5">
-      <c r="E367" s="43"/>
-    </row>
-    <row r="368" spans="5:5">
-      <c r="E368" s="43"/>
+    <row r="300" spans="5:7">
+      <c r="E300" s="43"/>
+      <c r="G300" s="43"/>
+    </row>
+    <row r="301" spans="5:7">
+      <c r="E301" s="43"/>
+      <c r="G301" s="43"/>
+    </row>
+    <row r="302" spans="5:7">
+      <c r="E302" s="43"/>
+      <c r="G302" s="43"/>
+    </row>
+    <row r="303" spans="5:7">
+      <c r="E303" s="43"/>
+      <c r="G303" s="43"/>
+    </row>
+    <row r="304" spans="5:7">
+      <c r="E304" s="43"/>
+      <c r="G304" s="43"/>
+    </row>
+    <row r="305" spans="5:7">
+      <c r="E305" s="43"/>
+      <c r="G305" s="43"/>
+    </row>
+    <row r="306" spans="5:7">
+      <c r="E306" s="43"/>
+      <c r="G306" s="43"/>
+    </row>
+    <row r="307" spans="5:7">
+      <c r="E307" s="43"/>
+      <c r="G307" s="43"/>
+    </row>
+    <row r="308" spans="5:7">
+      <c r="E308" s="43"/>
+      <c r="G308" s="43"/>
+    </row>
+    <row r="309" spans="5:7">
+      <c r="E309" s="43"/>
+      <c r="G309" s="43"/>
+    </row>
+    <row r="317" spans="5:7">
+      <c r="E317" s="43"/>
+    </row>
+    <row r="326" spans="7:7">
+      <c r="G326" s="43"/>
+    </row>
+    <row r="327" spans="7:7">
+      <c r="G327" s="43"/>
+    </row>
+    <row r="328" spans="7:7">
+      <c r="G328" s="43"/>
+    </row>
+    <row r="329" spans="7:7">
+      <c r="G329" s="43"/>
+    </row>
+    <row r="330" spans="7:7">
+      <c r="G330" s="43"/>
+    </row>
+    <row r="331" spans="7:7">
+      <c r="G331" s="43"/>
+    </row>
+    <row r="332" spans="7:7">
+      <c r="G332" s="43"/>
+    </row>
+    <row r="333" spans="7:7">
+      <c r="G333" s="43"/>
+    </row>
+    <row r="334" spans="7:7">
+      <c r="G334" s="43"/>
+    </row>
+    <row r="335" spans="7:7">
+      <c r="G335" s="43"/>
+    </row>
+    <row r="336" spans="7:7">
+      <c r="G336" s="43"/>
+    </row>
+    <row r="337" spans="7:7">
+      <c r="G337" s="43"/>
+    </row>
+    <row r="338" spans="7:7">
+      <c r="G338" s="43"/>
+    </row>
+    <row r="339" spans="7:7">
+      <c r="G339" s="43"/>
     </row>
     <row r="369" spans="5:5">
       <c r="E369" s="43"/>
     </row>
-    <row r="371" spans="5:5">
-      <c r="E371" s="43"/>
-    </row>
-    <row r="372" spans="5:5">
-      <c r="E372" s="43"/>
-    </row>
-    <row r="373" spans="5:5">
-      <c r="E373" s="43"/>
-    </row>
-    <row r="374" spans="5:5">
-      <c r="E374" s="43"/>
-    </row>
-    <row r="378" spans="5:5">
-      <c r="E378" s="43"/>
-    </row>
-    <row r="385" spans="5:5">
-      <c r="E385" s="43"/>
+    <row r="388" spans="5:5">
+      <c r="E388" s="43"/>
     </row>
     <row r="389" spans="5:5">
       <c r="E389" s="43"/>
     </row>
-    <row r="400" spans="5:5">
-      <c r="E400" s="43"/>
-    </row>
-    <row r="410" spans="5:7">
-      <c r="E410" s="43"/>
-    </row>
-    <row r="412" spans="5:7">
-      <c r="G412" s="43"/>
-    </row>
-    <row r="413" spans="5:7">
-      <c r="G413" s="43"/>
-    </row>
-    <row r="414" spans="5:7">
-      <c r="G414" s="43"/>
-    </row>
-    <row r="415" spans="5:7">
-      <c r="G415" s="43"/>
-    </row>
-    <row r="416" spans="5:7">
-      <c r="G416" s="43"/>
-    </row>
-    <row r="417" spans="5:7">
-      <c r="G417" s="43"/>
-    </row>
-    <row r="418" spans="5:7">
-      <c r="G418" s="43"/>
-    </row>
-    <row r="419" spans="5:7">
-      <c r="G419" s="43"/>
-    </row>
-    <row r="420" spans="5:7">
-      <c r="G420" s="43"/>
-    </row>
-    <row r="421" spans="5:7">
-      <c r="G421" s="43"/>
-    </row>
-    <row r="422" spans="5:7">
-      <c r="G422" s="43"/>
-    </row>
-    <row r="423" spans="5:7">
-      <c r="G423" s="43"/>
-    </row>
-    <row r="424" spans="5:7">
-      <c r="G424" s="43"/>
-    </row>
-    <row r="425" spans="5:7">
-      <c r="G425" s="43"/>
-    </row>
-    <row r="426" spans="5:7">
-      <c r="G426" s="43"/>
-    </row>
-    <row r="427" spans="5:7">
-      <c r="G427" s="43"/>
-    </row>
-    <row r="428" spans="5:7">
-      <c r="G428" s="43"/>
-    </row>
-    <row r="429" spans="5:7">
-      <c r="G429" s="43"/>
-    </row>
-    <row r="430" spans="5:7">
-      <c r="G430" s="43"/>
-    </row>
-    <row r="431" spans="5:7">
-      <c r="E431" s="43"/>
-      <c r="G431" s="43"/>
-    </row>
-    <row r="433" spans="5:7">
-      <c r="G433" s="43"/>
-    </row>
-    <row r="434" spans="5:7">
-      <c r="G434" s="43"/>
-    </row>
-    <row r="435" spans="5:7">
-      <c r="G435" s="43"/>
-    </row>
-    <row r="436" spans="5:7">
-      <c r="G436" s="43"/>
-    </row>
-    <row r="437" spans="5:7">
-      <c r="G437" s="43"/>
-    </row>
-    <row r="438" spans="5:7">
-      <c r="G438" s="43"/>
-    </row>
-    <row r="439" spans="5:7">
-      <c r="G439" s="43"/>
-    </row>
-    <row r="440" spans="5:7">
+    <row r="392" spans="5:5">
+      <c r="E392" s="43"/>
+    </row>
+    <row r="393" spans="5:5">
+      <c r="E393" s="43"/>
+    </row>
+    <row r="394" spans="5:5">
+      <c r="E394" s="43"/>
+    </row>
+    <row r="395" spans="5:5">
+      <c r="E395" s="43"/>
+    </row>
+    <row r="396" spans="5:5">
+      <c r="E396" s="43"/>
+    </row>
+    <row r="397" spans="5:5">
+      <c r="E397" s="43"/>
+    </row>
+    <row r="403" spans="5:5">
+      <c r="E403" s="43"/>
+    </row>
+    <row r="404" spans="5:5">
+      <c r="E404" s="43"/>
+    </row>
+    <row r="405" spans="5:5">
+      <c r="E405" s="43"/>
+    </row>
+    <row r="406" spans="5:5">
+      <c r="E406" s="43"/>
+    </row>
+    <row r="407" spans="5:5">
+      <c r="E407" s="43"/>
+    </row>
+    <row r="408" spans="5:5">
+      <c r="E408" s="43"/>
+    </row>
+    <row r="409" spans="5:5">
+      <c r="E409" s="43"/>
+    </row>
+    <row r="411" spans="5:5">
+      <c r="E411" s="43"/>
+    </row>
+    <row r="412" spans="5:5">
+      <c r="E412" s="43"/>
+    </row>
+    <row r="413" spans="5:5">
+      <c r="E413" s="43"/>
+    </row>
+    <row r="414" spans="5:5">
+      <c r="E414" s="43"/>
+    </row>
+    <row r="418" spans="5:5">
+      <c r="E418" s="43"/>
+    </row>
+    <row r="425" spans="5:5">
+      <c r="E425" s="43"/>
+    </row>
+    <row r="429" spans="5:5">
+      <c r="E429" s="43"/>
+    </row>
+    <row r="440" spans="5:5">
       <c r="E440" s="43"/>
-      <c r="G440" s="43"/>
-    </row>
-    <row r="441" spans="5:7">
-      <c r="G441" s="43"/>
-    </row>
-    <row r="442" spans="5:7">
-      <c r="G442" s="43"/>
-    </row>
-    <row r="443" spans="5:7">
-      <c r="G443" s="43"/>
-    </row>
-    <row r="444" spans="5:7">
-      <c r="G444" s="43"/>
-    </row>
-    <row r="445" spans="5:7">
-      <c r="G445" s="43"/>
-    </row>
-    <row r="446" spans="5:7">
-      <c r="G446" s="43"/>
-    </row>
-    <row r="447" spans="5:7">
-      <c r="G447" s="43"/>
-    </row>
-    <row r="448" spans="5:7">
-      <c r="E448" s="43"/>
-      <c r="G448" s="43"/>
     </row>
     <row r="450" spans="5:7">
-      <c r="G450" s="43"/>
-    </row>
-    <row r="451" spans="5:7">
-      <c r="G451" s="43"/>
+      <c r="E450" s="43"/>
     </row>
     <row r="452" spans="5:7">
       <c r="G452" s="43"/>
@@ -5739,7 +6680,6 @@
       <c r="G456" s="43"/>
     </row>
     <row r="457" spans="5:7">
-      <c r="E457" s="43"/>
       <c r="G457" s="43"/>
     </row>
     <row r="458" spans="5:7">
@@ -5764,167 +6704,170 @@
       <c r="G464" s="43"/>
     </row>
     <row r="465" spans="5:7">
-      <c r="E465" s="43"/>
       <c r="G465" s="43"/>
     </row>
+    <row r="466" spans="5:7">
+      <c r="G466" s="43"/>
+    </row>
+    <row r="467" spans="5:7">
+      <c r="G467" s="43"/>
+    </row>
+    <row r="468" spans="5:7">
+      <c r="G468" s="43"/>
+    </row>
+    <row r="469" spans="5:7">
+      <c r="G469" s="43"/>
+    </row>
+    <row r="470" spans="5:7">
+      <c r="G470" s="43"/>
+    </row>
+    <row r="471" spans="5:7">
+      <c r="E471" s="43"/>
+      <c r="G471" s="43"/>
+    </row>
     <row r="473" spans="5:7">
-      <c r="E473" s="43"/>
+      <c r="G473" s="43"/>
+    </row>
+    <row r="474" spans="5:7">
+      <c r="G474" s="43"/>
+    </row>
+    <row r="475" spans="5:7">
+      <c r="G475" s="43"/>
+    </row>
+    <row r="476" spans="5:7">
+      <c r="G476" s="43"/>
+    </row>
+    <row r="477" spans="5:7">
+      <c r="G477" s="43"/>
+    </row>
+    <row r="478" spans="5:7">
+      <c r="G478" s="43"/>
+    </row>
+    <row r="479" spans="5:7">
+      <c r="G479" s="43"/>
     </row>
     <row r="480" spans="5:7">
       <c r="E480" s="43"/>
-    </row>
-    <row r="496" spans="5:5">
-      <c r="E496" s="44"/>
-    </row>
-    <row r="497" spans="5:5">
-      <c r="E497" s="44"/>
-    </row>
-    <row r="500" spans="5:5">
-      <c r="E500" s="44"/>
-    </row>
-    <row r="501" spans="5:5">
-      <c r="E501" s="43"/>
-    </row>
-    <row r="514" spans="5:5">
-      <c r="E514" s="43"/>
-    </row>
-    <row r="526" spans="5:5">
-      <c r="E526" s="43"/>
-    </row>
-    <row r="530" spans="5:5">
-      <c r="E530" s="43"/>
-    </row>
-    <row r="531" spans="5:5">
-      <c r="E531" s="43"/>
-    </row>
-    <row r="532" spans="5:5">
-      <c r="E532" s="43"/>
-    </row>
-    <row r="533" spans="5:5">
-      <c r="E533" s="43"/>
-    </row>
-    <row r="534" spans="5:5">
-      <c r="E534" s="43"/>
-    </row>
-    <row r="535" spans="5:5">
-      <c r="E535" s="43"/>
+      <c r="G480" s="43"/>
+    </row>
+    <row r="481" spans="5:7">
+      <c r="G481" s="43"/>
+    </row>
+    <row r="482" spans="5:7">
+      <c r="G482" s="43"/>
+    </row>
+    <row r="483" spans="5:7">
+      <c r="G483" s="43"/>
+    </row>
+    <row r="484" spans="5:7">
+      <c r="G484" s="43"/>
+    </row>
+    <row r="485" spans="5:7">
+      <c r="G485" s="43"/>
+    </row>
+    <row r="486" spans="5:7">
+      <c r="G486" s="43"/>
+    </row>
+    <row r="487" spans="5:7">
+      <c r="G487" s="43"/>
+    </row>
+    <row r="488" spans="5:7">
+      <c r="E488" s="43"/>
+      <c r="G488" s="43"/>
+    </row>
+    <row r="490" spans="5:7">
+      <c r="G490" s="43"/>
+    </row>
+    <row r="491" spans="5:7">
+      <c r="G491" s="43"/>
+    </row>
+    <row r="492" spans="5:7">
+      <c r="G492" s="43"/>
+    </row>
+    <row r="493" spans="5:7">
+      <c r="G493" s="43"/>
+    </row>
+    <row r="494" spans="5:7">
+      <c r="G494" s="43"/>
+    </row>
+    <row r="495" spans="5:7">
+      <c r="G495" s="43"/>
+    </row>
+    <row r="496" spans="5:7">
+      <c r="G496" s="43"/>
+    </row>
+    <row r="497" spans="5:7">
+      <c r="E497" s="43"/>
+      <c r="G497" s="43"/>
+    </row>
+    <row r="498" spans="5:7">
+      <c r="G498" s="43"/>
+    </row>
+    <row r="499" spans="5:7">
+      <c r="G499" s="43"/>
+    </row>
+    <row r="500" spans="5:7">
+      <c r="G500" s="43"/>
+    </row>
+    <row r="501" spans="5:7">
+      <c r="G501" s="43"/>
+    </row>
+    <row r="502" spans="5:7">
+      <c r="G502" s="43"/>
+    </row>
+    <row r="503" spans="5:7">
+      <c r="G503" s="43"/>
+    </row>
+    <row r="504" spans="5:7">
+      <c r="G504" s="43"/>
+    </row>
+    <row r="505" spans="5:7">
+      <c r="E505" s="43"/>
+      <c r="G505" s="43"/>
+    </row>
+    <row r="513" spans="5:5">
+      <c r="E513" s="43"/>
+    </row>
+    <row r="520" spans="5:5">
+      <c r="E520" s="43"/>
     </row>
     <row r="536" spans="5:5">
-      <c r="E536" s="43"/>
+      <c r="E536" s="44"/>
     </row>
     <row r="537" spans="5:5">
-      <c r="E537" s="43"/>
-    </row>
-    <row r="538" spans="5:5">
-      <c r="E538" s="43"/>
-    </row>
-    <row r="539" spans="5:5">
-      <c r="E539" s="43"/>
+      <c r="E537" s="44"/>
     </row>
     <row r="540" spans="5:5">
-      <c r="E540" s="43"/>
+      <c r="E540" s="44"/>
     </row>
     <row r="541" spans="5:5">
       <c r="E541" s="43"/>
     </row>
-    <row r="542" spans="5:5">
-      <c r="E542" s="43"/>
-    </row>
-    <row r="543" spans="5:5">
-      <c r="E543" s="43"/>
-    </row>
-    <row r="544" spans="5:5">
-      <c r="E544" s="43"/>
-    </row>
-    <row r="545" spans="5:7">
-      <c r="E545" s="43"/>
-    </row>
-    <row r="546" spans="5:7">
-      <c r="E546" s="43"/>
-    </row>
-    <row r="547" spans="5:7">
-      <c r="E547" s="43"/>
-    </row>
-    <row r="548" spans="5:7">
-      <c r="E548" s="43"/>
-    </row>
-    <row r="549" spans="5:7">
-      <c r="E549" s="43"/>
-    </row>
-    <row r="550" spans="5:7">
-      <c r="E550" s="43"/>
-    </row>
-    <row r="551" spans="5:7">
-      <c r="E551" s="43"/>
-    </row>
-    <row r="552" spans="5:7">
-      <c r="E552" s="43"/>
-    </row>
-    <row r="553" spans="5:7">
-      <c r="E553" s="43"/>
-    </row>
-    <row r="555" spans="5:7">
-      <c r="G555" s="43"/>
-    </row>
-    <row r="556" spans="5:7">
-      <c r="G556" s="43"/>
-    </row>
-    <row r="557" spans="5:7">
-      <c r="G557" s="43"/>
-    </row>
-    <row r="558" spans="5:7">
-      <c r="G558" s="43"/>
-    </row>
-    <row r="559" spans="5:7">
-      <c r="G559" s="43"/>
-    </row>
-    <row r="560" spans="5:7">
-      <c r="G560" s="43"/>
-    </row>
-    <row r="561" spans="5:7">
-      <c r="G561" s="43"/>
-    </row>
-    <row r="562" spans="5:7">
-      <c r="G562" s="43"/>
-    </row>
-    <row r="563" spans="5:7">
-      <c r="G563" s="43"/>
-    </row>
-    <row r="564" spans="5:7">
-      <c r="G564" s="43"/>
-    </row>
-    <row r="565" spans="5:7">
-      <c r="G565" s="43"/>
-    </row>
-    <row r="566" spans="5:7">
-      <c r="G566" s="43"/>
-    </row>
-    <row r="567" spans="5:7">
-      <c r="G567" s="43"/>
-    </row>
-    <row r="568" spans="5:7">
-      <c r="E568" s="43"/>
-      <c r="G568" s="43"/>
-    </row>
-    <row r="570" spans="5:7">
+    <row r="554" spans="5:5">
+      <c r="E554" s="43"/>
+    </row>
+    <row r="566" spans="5:5">
+      <c r="E566" s="43"/>
+    </row>
+    <row r="570" spans="5:5">
       <c r="E570" s="43"/>
     </row>
-    <row r="571" spans="5:7">
+    <row r="571" spans="5:5">
       <c r="E571" s="43"/>
     </row>
-    <row r="572" spans="5:7">
+    <row r="572" spans="5:5">
       <c r="E572" s="43"/>
     </row>
-    <row r="573" spans="5:7">
+    <row r="573" spans="5:5">
       <c r="E573" s="43"/>
     </row>
-    <row r="574" spans="5:7">
+    <row r="574" spans="5:5">
       <c r="E574" s="43"/>
     </row>
-    <row r="575" spans="5:7">
+    <row r="575" spans="5:5">
       <c r="E575" s="43"/>
     </row>
-    <row r="576" spans="5:7">
+    <row r="576" spans="5:5">
       <c r="E576" s="43"/>
     </row>
     <row r="577" spans="5:5">
@@ -5975,240 +6918,195 @@
     <row r="592" spans="5:5">
       <c r="E592" s="43"/>
     </row>
-    <row r="593" spans="5:5">
+    <row r="593" spans="5:7">
       <c r="E593" s="43"/>
     </row>
-    <row r="594" spans="5:5">
-      <c r="E594" s="43"/>
-    </row>
-    <row r="595" spans="5:5">
-      <c r="E595" s="43"/>
-    </row>
-    <row r="596" spans="5:5">
-      <c r="E596" s="43"/>
-    </row>
-    <row r="597" spans="5:5">
-      <c r="E597" s="43"/>
-    </row>
-    <row r="598" spans="5:5">
-      <c r="E598" s="43"/>
-    </row>
-    <row r="599" spans="5:5">
-      <c r="E599" s="43"/>
-    </row>
-    <row r="600" spans="5:5">
-      <c r="E600" s="43"/>
-    </row>
-    <row r="601" spans="5:5">
-      <c r="E601" s="43"/>
-    </row>
-    <row r="602" spans="5:5">
-      <c r="E602" s="43"/>
-    </row>
-    <row r="603" spans="5:5">
-      <c r="E603" s="43"/>
-    </row>
-    <row r="604" spans="5:5">
-      <c r="E604" s="43"/>
-    </row>
-    <row r="605" spans="5:5">
-      <c r="E605" s="43"/>
-    </row>
-    <row r="606" spans="5:5">
-      <c r="E606" s="43"/>
-    </row>
-    <row r="607" spans="5:5">
-      <c r="E607" s="43"/>
-    </row>
-    <row r="608" spans="5:5">
+    <row r="595" spans="5:7">
+      <c r="G595" s="43"/>
+    </row>
+    <row r="596" spans="5:7">
+      <c r="G596" s="43"/>
+    </row>
+    <row r="597" spans="5:7">
+      <c r="G597" s="43"/>
+    </row>
+    <row r="598" spans="5:7">
+      <c r="G598" s="43"/>
+    </row>
+    <row r="599" spans="5:7">
+      <c r="G599" s="43"/>
+    </row>
+    <row r="600" spans="5:7">
+      <c r="G600" s="43"/>
+    </row>
+    <row r="601" spans="5:7">
+      <c r="G601" s="43"/>
+    </row>
+    <row r="602" spans="5:7">
+      <c r="G602" s="43"/>
+    </row>
+    <row r="603" spans="5:7">
+      <c r="G603" s="43"/>
+    </row>
+    <row r="604" spans="5:7">
+      <c r="G604" s="43"/>
+    </row>
+    <row r="605" spans="5:7">
+      <c r="G605" s="43"/>
+    </row>
+    <row r="606" spans="5:7">
+      <c r="G606" s="43"/>
+    </row>
+    <row r="607" spans="5:7">
+      <c r="G607" s="43"/>
+    </row>
+    <row r="608" spans="5:7">
       <c r="E608" s="43"/>
-    </row>
-    <row r="609" spans="5:7">
-      <c r="E609" s="43"/>
-    </row>
-    <row r="610" spans="5:7">
+      <c r="G608" s="43"/>
+    </row>
+    <row r="610" spans="5:5">
       <c r="E610" s="43"/>
     </row>
-    <row r="611" spans="5:7">
+    <row r="611" spans="5:5">
       <c r="E611" s="43"/>
     </row>
-    <row r="612" spans="5:7">
+    <row r="612" spans="5:5">
       <c r="E612" s="43"/>
     </row>
-    <row r="613" spans="5:7">
+    <row r="613" spans="5:5">
       <c r="E613" s="43"/>
     </row>
-    <row r="614" spans="5:7">
+    <row r="614" spans="5:5">
       <c r="E614" s="43"/>
     </row>
-    <row r="615" spans="5:7">
+    <row r="615" spans="5:5">
       <c r="E615" s="43"/>
     </row>
-    <row r="616" spans="5:7">
+    <row r="616" spans="5:5">
       <c r="E616" s="43"/>
     </row>
-    <row r="617" spans="5:7">
+    <row r="617" spans="5:5">
       <c r="E617" s="43"/>
     </row>
-    <row r="619" spans="5:7">
+    <row r="618" spans="5:5">
+      <c r="E618" s="43"/>
+    </row>
+    <row r="619" spans="5:5">
       <c r="E619" s="43"/>
-      <c r="G619" s="43"/>
-    </row>
-    <row r="620" spans="5:7">
+    </row>
+    <row r="620" spans="5:5">
       <c r="E620" s="43"/>
-      <c r="G620" s="43"/>
-    </row>
-    <row r="621" spans="5:7">
+    </row>
+    <row r="621" spans="5:5">
       <c r="E621" s="43"/>
-      <c r="G621" s="43"/>
-    </row>
-    <row r="622" spans="5:7">
+    </row>
+    <row r="622" spans="5:5">
       <c r="E622" s="43"/>
-      <c r="G622" s="43"/>
-    </row>
-    <row r="623" spans="5:7">
+    </row>
+    <row r="623" spans="5:5">
       <c r="E623" s="43"/>
-      <c r="G623" s="43"/>
-    </row>
-    <row r="624" spans="5:7">
+    </row>
+    <row r="624" spans="5:5">
       <c r="E624" s="43"/>
-      <c r="G624" s="43"/>
-    </row>
-    <row r="625" spans="5:7">
+    </row>
+    <row r="625" spans="5:5">
       <c r="E625" s="43"/>
-      <c r="G625" s="43"/>
-    </row>
-    <row r="626" spans="5:7">
+    </row>
+    <row r="626" spans="5:5">
       <c r="E626" s="43"/>
-      <c r="G626" s="43"/>
-    </row>
-    <row r="627" spans="5:7">
+    </row>
+    <row r="627" spans="5:5">
       <c r="E627" s="43"/>
-      <c r="G627" s="43"/>
-    </row>
-    <row r="628" spans="5:7">
+    </row>
+    <row r="628" spans="5:5">
       <c r="E628" s="43"/>
-      <c r="G628" s="43"/>
-    </row>
-    <row r="629" spans="5:7">
+    </row>
+    <row r="629" spans="5:5">
       <c r="E629" s="43"/>
-      <c r="G629" s="43"/>
-    </row>
-    <row r="630" spans="5:7">
+    </row>
+    <row r="630" spans="5:5">
       <c r="E630" s="43"/>
-      <c r="G630" s="43"/>
-    </row>
-    <row r="631" spans="5:7">
+    </row>
+    <row r="631" spans="5:5">
       <c r="E631" s="43"/>
-      <c r="G631" s="43"/>
-    </row>
-    <row r="632" spans="5:7">
+    </row>
+    <row r="632" spans="5:5">
       <c r="E632" s="43"/>
-      <c r="G632" s="43"/>
-    </row>
-    <row r="633" spans="5:7">
+    </row>
+    <row r="633" spans="5:5">
       <c r="E633" s="43"/>
-      <c r="G633" s="43"/>
-    </row>
-    <row r="634" spans="5:7">
+    </row>
+    <row r="634" spans="5:5">
       <c r="E634" s="43"/>
-      <c r="G634" s="43"/>
-    </row>
-    <row r="635" spans="5:7">
+    </row>
+    <row r="635" spans="5:5">
       <c r="E635" s="43"/>
-      <c r="G635" s="43"/>
-    </row>
-    <row r="636" spans="5:7">
+    </row>
+    <row r="636" spans="5:5">
       <c r="E636" s="43"/>
-      <c r="G636" s="43"/>
-    </row>
-    <row r="637" spans="5:7">
+    </row>
+    <row r="637" spans="5:5">
       <c r="E637" s="43"/>
-      <c r="G637" s="43"/>
-    </row>
-    <row r="638" spans="5:7">
+    </row>
+    <row r="638" spans="5:5">
       <c r="E638" s="43"/>
-      <c r="G638" s="43"/>
-    </row>
-    <row r="639" spans="5:7">
+    </row>
+    <row r="639" spans="5:5">
       <c r="E639" s="43"/>
-      <c r="G639" s="43"/>
-    </row>
-    <row r="640" spans="5:7">
+    </row>
+    <row r="640" spans="5:5">
       <c r="E640" s="43"/>
-      <c r="G640" s="43"/>
-    </row>
-    <row r="641" spans="5:7">
+    </row>
+    <row r="641" spans="5:5">
       <c r="E641" s="43"/>
-      <c r="G641" s="43"/>
-    </row>
-    <row r="642" spans="5:7">
+    </row>
+    <row r="642" spans="5:5">
       <c r="E642" s="43"/>
-      <c r="G642" s="43"/>
-    </row>
-    <row r="643" spans="5:7">
+    </row>
+    <row r="643" spans="5:5">
       <c r="E643" s="43"/>
-      <c r="G643" s="43"/>
-    </row>
-    <row r="644" spans="5:7">
+    </row>
+    <row r="644" spans="5:5">
       <c r="E644" s="43"/>
-      <c r="G644" s="43"/>
-    </row>
-    <row r="645" spans="5:7">
+    </row>
+    <row r="645" spans="5:5">
       <c r="E645" s="43"/>
-      <c r="G645" s="43"/>
-    </row>
-    <row r="646" spans="5:7">
+    </row>
+    <row r="646" spans="5:5">
       <c r="E646" s="43"/>
-      <c r="G646" s="43"/>
-    </row>
-    <row r="647" spans="5:7">
+    </row>
+    <row r="647" spans="5:5">
       <c r="E647" s="43"/>
-      <c r="G647" s="43"/>
-    </row>
-    <row r="648" spans="5:7">
+    </row>
+    <row r="648" spans="5:5">
       <c r="E648" s="43"/>
-      <c r="G648" s="43"/>
-    </row>
-    <row r="649" spans="5:7">
+    </row>
+    <row r="649" spans="5:5">
       <c r="E649" s="43"/>
-      <c r="G649" s="43"/>
-    </row>
-    <row r="650" spans="5:7">
+    </row>
+    <row r="650" spans="5:5">
       <c r="E650" s="43"/>
-      <c r="G650" s="43"/>
-    </row>
-    <row r="651" spans="5:7">
+    </row>
+    <row r="651" spans="5:5">
       <c r="E651" s="43"/>
-      <c r="G651" s="43"/>
-    </row>
-    <row r="652" spans="5:7">
+    </row>
+    <row r="652" spans="5:5">
       <c r="E652" s="43"/>
-      <c r="G652" s="43"/>
-    </row>
-    <row r="653" spans="5:7">
+    </row>
+    <row r="653" spans="5:5">
       <c r="E653" s="43"/>
-      <c r="G653" s="43"/>
-    </row>
-    <row r="654" spans="5:7">
+    </row>
+    <row r="654" spans="5:5">
       <c r="E654" s="43"/>
-      <c r="G654" s="43"/>
-    </row>
-    <row r="655" spans="5:7">
+    </row>
+    <row r="655" spans="5:5">
       <c r="E655" s="43"/>
-      <c r="G655" s="43"/>
-    </row>
-    <row r="656" spans="5:7">
+    </row>
+    <row r="656" spans="5:5">
       <c r="E656" s="43"/>
-      <c r="G656" s="43"/>
     </row>
     <row r="657" spans="5:7">
       <c r="E657" s="43"/>
-      <c r="G657" s="43"/>
-    </row>
-    <row r="658" spans="5:7">
-      <c r="E658" s="43"/>
-      <c r="G658" s="43"/>
     </row>
     <row r="659" spans="5:7">
       <c r="E659" s="43"/>
@@ -6242,64 +7140,160 @@
       <c r="E666" s="43"/>
       <c r="G666" s="43"/>
     </row>
+    <row r="667" spans="5:7">
+      <c r="E667" s="43"/>
+      <c r="G667" s="43"/>
+    </row>
+    <row r="668" spans="5:7">
+      <c r="E668" s="43"/>
+      <c r="G668" s="43"/>
+    </row>
+    <row r="669" spans="5:7">
+      <c r="E669" s="43"/>
+      <c r="G669" s="43"/>
+    </row>
+    <row r="670" spans="5:7">
+      <c r="E670" s="43"/>
+      <c r="G670" s="43"/>
+    </row>
+    <row r="671" spans="5:7">
+      <c r="E671" s="43"/>
+      <c r="G671" s="43"/>
+    </row>
+    <row r="672" spans="5:7">
+      <c r="E672" s="43"/>
+      <c r="G672" s="43"/>
+    </row>
+    <row r="673" spans="5:7">
+      <c r="E673" s="43"/>
+      <c r="G673" s="43"/>
+    </row>
+    <row r="674" spans="5:7">
+      <c r="E674" s="43"/>
+      <c r="G674" s="43"/>
+    </row>
+    <row r="675" spans="5:7">
+      <c r="E675" s="43"/>
+      <c r="G675" s="43"/>
+    </row>
     <row r="676" spans="5:7">
       <c r="E676" s="43"/>
+      <c r="G676" s="43"/>
+    </row>
+    <row r="677" spans="5:7">
+      <c r="E677" s="43"/>
+      <c r="G677" s="43"/>
+    </row>
+    <row r="678" spans="5:7">
+      <c r="E678" s="43"/>
+      <c r="G678" s="43"/>
+    </row>
+    <row r="679" spans="5:7">
+      <c r="E679" s="43"/>
+      <c r="G679" s="43"/>
+    </row>
+    <row r="680" spans="5:7">
+      <c r="E680" s="43"/>
+      <c r="G680" s="43"/>
+    </row>
+    <row r="681" spans="5:7">
+      <c r="E681" s="43"/>
+      <c r="G681" s="43"/>
+    </row>
+    <row r="682" spans="5:7">
+      <c r="E682" s="43"/>
+      <c r="G682" s="43"/>
+    </row>
+    <row r="683" spans="5:7">
+      <c r="E683" s="43"/>
+      <c r="G683" s="43"/>
+    </row>
+    <row r="684" spans="5:7">
+      <c r="E684" s="43"/>
+      <c r="G684" s="43"/>
+    </row>
+    <row r="685" spans="5:7">
+      <c r="E685" s="43"/>
+      <c r="G685" s="43"/>
+    </row>
+    <row r="686" spans="5:7">
+      <c r="E686" s="43"/>
+      <c r="G686" s="43"/>
     </row>
     <row r="687" spans="5:7">
+      <c r="E687" s="43"/>
       <c r="G687" s="43"/>
     </row>
     <row r="688" spans="5:7">
+      <c r="E688" s="43"/>
       <c r="G688" s="43"/>
     </row>
-    <row r="689" spans="7:7">
+    <row r="689" spans="5:7">
+      <c r="E689" s="43"/>
       <c r="G689" s="43"/>
     </row>
-    <row r="690" spans="7:7">
+    <row r="690" spans="5:7">
+      <c r="E690" s="43"/>
       <c r="G690" s="43"/>
     </row>
-    <row r="691" spans="7:7">
+    <row r="691" spans="5:7">
+      <c r="E691" s="43"/>
       <c r="G691" s="43"/>
     </row>
-    <row r="692" spans="7:7">
+    <row r="692" spans="5:7">
+      <c r="E692" s="43"/>
       <c r="G692" s="43"/>
     </row>
-    <row r="693" spans="7:7">
+    <row r="693" spans="5:7">
+      <c r="E693" s="43"/>
       <c r="G693" s="43"/>
     </row>
-    <row r="694" spans="7:7">
+    <row r="694" spans="5:7">
+      <c r="E694" s="43"/>
       <c r="G694" s="43"/>
     </row>
-    <row r="695" spans="7:7">
+    <row r="695" spans="5:7">
+      <c r="E695" s="43"/>
       <c r="G695" s="43"/>
     </row>
-    <row r="696" spans="7:7">
+    <row r="696" spans="5:7">
+      <c r="E696" s="43"/>
       <c r="G696" s="43"/>
     </row>
-    <row r="697" spans="7:7">
+    <row r="697" spans="5:7">
+      <c r="E697" s="43"/>
       <c r="G697" s="43"/>
     </row>
-    <row r="698" spans="7:7">
+    <row r="698" spans="5:7">
+      <c r="E698" s="43"/>
       <c r="G698" s="43"/>
     </row>
-    <row r="699" spans="7:7">
+    <row r="699" spans="5:7">
+      <c r="E699" s="43"/>
       <c r="G699" s="43"/>
     </row>
-    <row r="700" spans="7:7">
+    <row r="700" spans="5:7">
+      <c r="E700" s="43"/>
       <c r="G700" s="43"/>
     </row>
-    <row r="701" spans="7:7">
+    <row r="701" spans="5:7">
+      <c r="E701" s="43"/>
       <c r="G701" s="43"/>
     </row>
-    <row r="702" spans="7:7">
+    <row r="702" spans="5:7">
+      <c r="E702" s="43"/>
       <c r="G702" s="43"/>
     </row>
-    <row r="703" spans="7:7">
+    <row r="703" spans="5:7">
+      <c r="E703" s="43"/>
       <c r="G703" s="43"/>
     </row>
-    <row r="704" spans="7:7">
+    <row r="704" spans="5:7">
+      <c r="E704" s="43"/>
       <c r="G704" s="43"/>
     </row>
     <row r="705" spans="5:7">
+      <c r="E705" s="43"/>
       <c r="G705" s="43"/>
     </row>
     <row r="706" spans="5:7">
@@ -6309,249 +7303,205 @@
     <row r="716" spans="5:7">
       <c r="E716" s="43"/>
     </row>
-    <row r="727" spans="5:7">
-      <c r="E727" s="43"/>
+    <row r="727" spans="7:7">
       <c r="G727" s="43"/>
     </row>
-    <row r="728" spans="5:7">
-      <c r="E728" s="43"/>
+    <row r="728" spans="7:7">
       <c r="G728" s="43"/>
     </row>
-    <row r="729" spans="5:7">
-      <c r="E729" s="43"/>
+    <row r="729" spans="7:7">
       <c r="G729" s="43"/>
     </row>
-    <row r="730" spans="5:7">
-      <c r="E730" s="43"/>
+    <row r="730" spans="7:7">
       <c r="G730" s="43"/>
     </row>
-    <row r="731" spans="5:7">
-      <c r="E731" s="43"/>
+    <row r="731" spans="7:7">
       <c r="G731" s="43"/>
     </row>
-    <row r="732" spans="5:7">
-      <c r="E732" s="43"/>
+    <row r="732" spans="7:7">
       <c r="G732" s="43"/>
     </row>
-    <row r="733" spans="5:7">
-      <c r="E733" s="43"/>
+    <row r="733" spans="7:7">
       <c r="G733" s="43"/>
     </row>
-    <row r="734" spans="5:7">
-      <c r="E734" s="43"/>
+    <row r="734" spans="7:7">
       <c r="G734" s="43"/>
     </row>
-    <row r="735" spans="5:7">
-      <c r="E735" s="43"/>
+    <row r="735" spans="7:7">
       <c r="G735" s="43"/>
     </row>
-    <row r="736" spans="5:7">
-      <c r="E736" s="43"/>
+    <row r="736" spans="7:7">
       <c r="G736" s="43"/>
     </row>
     <row r="737" spans="5:7">
-      <c r="E737" s="43"/>
       <c r="G737" s="43"/>
     </row>
     <row r="738" spans="5:7">
-      <c r="E738" s="43"/>
       <c r="G738" s="43"/>
     </row>
     <row r="739" spans="5:7">
-      <c r="E739" s="43"/>
       <c r="G739" s="43"/>
     </row>
     <row r="740" spans="5:7">
-      <c r="E740" s="43"/>
       <c r="G740" s="43"/>
     </row>
     <row r="741" spans="5:7">
-      <c r="E741" s="43"/>
       <c r="G741" s="43"/>
     </row>
     <row r="742" spans="5:7">
-      <c r="E742" s="43"/>
       <c r="G742" s="43"/>
     </row>
+    <row r="743" spans="5:7">
+      <c r="G743" s="43"/>
+    </row>
     <row r="744" spans="5:7">
-      <c r="E744" s="43"/>
       <c r="G744" s="43"/>
     </row>
     <row r="745" spans="5:7">
-      <c r="E745" s="43"/>
       <c r="G745" s="43"/>
     </row>
     <row r="746" spans="5:7">
       <c r="E746" s="43"/>
       <c r="G746" s="43"/>
     </row>
-    <row r="747" spans="5:7">
-      <c r="E747" s="43"/>
-      <c r="G747" s="43"/>
-    </row>
-    <row r="748" spans="5:7">
-      <c r="E748" s="43"/>
-      <c r="G748" s="43"/>
-    </row>
-    <row r="749" spans="5:7">
-      <c r="E749" s="43"/>
-      <c r="G749" s="43"/>
-    </row>
-    <row r="750" spans="5:7">
-      <c r="E750" s="43"/>
-      <c r="G750" s="43"/>
-    </row>
-    <row r="751" spans="5:7">
-      <c r="E751" s="43"/>
-      <c r="G751" s="43"/>
-    </row>
-    <row r="752" spans="5:7">
-      <c r="E752" s="43"/>
-      <c r="G752" s="43"/>
-    </row>
-    <row r="753" spans="5:7">
-      <c r="E753" s="43"/>
-      <c r="G753" s="43"/>
-    </row>
-    <row r="754" spans="5:7">
-      <c r="E754" s="43"/>
-      <c r="G754" s="43"/>
-    </row>
-    <row r="755" spans="5:7">
-      <c r="E755" s="43"/>
-      <c r="G755" s="43"/>
-    </row>
     <row r="756" spans="5:7">
       <c r="E756" s="43"/>
-      <c r="G756" s="43"/>
-    </row>
-    <row r="757" spans="5:7">
-      <c r="E757" s="43"/>
-      <c r="G757" s="43"/>
-    </row>
-    <row r="760" spans="5:7">
-      <c r="E760" s="43"/>
-    </row>
-    <row r="764" spans="5:7">
-      <c r="E764" s="43"/>
-    </row>
-    <row r="765" spans="5:7">
-      <c r="E765" s="43"/>
-    </row>
-    <row r="766" spans="5:7">
-      <c r="E766" s="43"/>
     </row>
     <row r="767" spans="5:7">
       <c r="E767" s="43"/>
-    </row>
-    <row r="770" spans="5:5">
+      <c r="G767" s="43"/>
+    </row>
+    <row r="768" spans="5:7">
+      <c r="E768" s="43"/>
+      <c r="G768" s="43"/>
+    </row>
+    <row r="769" spans="5:7">
+      <c r="E769" s="43"/>
+      <c r="G769" s="43"/>
+    </row>
+    <row r="770" spans="5:7">
       <c r="E770" s="43"/>
-    </row>
-    <row r="771" spans="5:5">
+      <c r="G770" s="43"/>
+    </row>
+    <row r="771" spans="5:7">
       <c r="E771" s="43"/>
-    </row>
-    <row r="772" spans="5:5">
+      <c r="G771" s="43"/>
+    </row>
+    <row r="772" spans="5:7">
       <c r="E772" s="43"/>
-    </row>
-    <row r="773" spans="5:5">
+      <c r="G772" s="43"/>
+    </row>
+    <row r="773" spans="5:7">
       <c r="E773" s="43"/>
-    </row>
-    <row r="776" spans="5:5">
+      <c r="G773" s="43"/>
+    </row>
+    <row r="774" spans="5:7">
+      <c r="E774" s="43"/>
+      <c r="G774" s="43"/>
+    </row>
+    <row r="775" spans="5:7">
+      <c r="E775" s="43"/>
+      <c r="G775" s="43"/>
+    </row>
+    <row r="776" spans="5:7">
       <c r="E776" s="43"/>
-    </row>
-    <row r="777" spans="5:5">
+      <c r="G776" s="43"/>
+    </row>
+    <row r="777" spans="5:7">
       <c r="E777" s="43"/>
-    </row>
-    <row r="778" spans="5:5">
+      <c r="G777" s="43"/>
+    </row>
+    <row r="778" spans="5:7">
       <c r="E778" s="43"/>
-    </row>
-    <row r="779" spans="5:5">
+      <c r="G778" s="43"/>
+    </row>
+    <row r="779" spans="5:7">
       <c r="E779" s="43"/>
-    </row>
-    <row r="780" spans="5:5">
+      <c r="G779" s="43"/>
+    </row>
+    <row r="780" spans="5:7">
       <c r="E780" s="43"/>
-    </row>
-    <row r="781" spans="5:5">
+      <c r="G780" s="43"/>
+    </row>
+    <row r="781" spans="5:7">
       <c r="E781" s="43"/>
-    </row>
-    <row r="782" spans="5:5">
+      <c r="G781" s="43"/>
+    </row>
+    <row r="782" spans="5:7">
       <c r="E782" s="43"/>
-    </row>
-    <row r="783" spans="5:5">
-      <c r="E783" s="43"/>
-    </row>
-    <row r="784" spans="5:5">
+      <c r="G782" s="43"/>
+    </row>
+    <row r="784" spans="5:7">
       <c r="E784" s="43"/>
-    </row>
-    <row r="785" spans="5:5">
+      <c r="G784" s="43"/>
+    </row>
+    <row r="785" spans="5:7">
       <c r="E785" s="43"/>
-    </row>
-    <row r="786" spans="5:5">
+      <c r="G785" s="43"/>
+    </row>
+    <row r="786" spans="5:7">
       <c r="E786" s="43"/>
-    </row>
-    <row r="787" spans="5:5">
+      <c r="G786" s="43"/>
+    </row>
+    <row r="787" spans="5:7">
       <c r="E787" s="43"/>
-    </row>
-    <row r="788" spans="5:5">
+      <c r="G787" s="43"/>
+    </row>
+    <row r="788" spans="5:7">
       <c r="E788" s="43"/>
-    </row>
-    <row r="789" spans="5:5">
+      <c r="G788" s="43"/>
+    </row>
+    <row r="789" spans="5:7">
       <c r="E789" s="43"/>
-    </row>
-    <row r="791" spans="5:5">
+      <c r="G789" s="43"/>
+    </row>
+    <row r="790" spans="5:7">
+      <c r="E790" s="43"/>
+      <c r="G790" s="43"/>
+    </row>
+    <row r="791" spans="5:7">
       <c r="E791" s="43"/>
-    </row>
-    <row r="792" spans="5:5">
+      <c r="G791" s="43"/>
+    </row>
+    <row r="792" spans="5:7">
       <c r="E792" s="43"/>
-    </row>
-    <row r="793" spans="5:5">
+      <c r="G792" s="43"/>
+    </row>
+    <row r="793" spans="5:7">
       <c r="E793" s="43"/>
-    </row>
-    <row r="794" spans="5:5">
+      <c r="G793" s="43"/>
+    </row>
+    <row r="794" spans="5:7">
       <c r="E794" s="43"/>
-    </row>
-    <row r="795" spans="5:5">
+      <c r="G794" s="43"/>
+    </row>
+    <row r="795" spans="5:7">
       <c r="E795" s="43"/>
-    </row>
-    <row r="796" spans="5:5">
+      <c r="G795" s="43"/>
+    </row>
+    <row r="796" spans="5:7">
       <c r="E796" s="43"/>
-    </row>
-    <row r="797" spans="5:5">
+      <c r="G796" s="43"/>
+    </row>
+    <row r="797" spans="5:7">
       <c r="E797" s="43"/>
-    </row>
-    <row r="798" spans="5:5">
-      <c r="E798" s="43"/>
-    </row>
-    <row r="799" spans="5:5">
-      <c r="E799" s="43"/>
-    </row>
-    <row r="800" spans="5:5">
+      <c r="G797" s="43"/>
+    </row>
+    <row r="800" spans="5:7">
       <c r="E800" s="43"/>
-    </row>
-    <row r="801" spans="5:5">
-      <c r="E801" s="43"/>
-    </row>
-    <row r="802" spans="5:5">
-      <c r="E802" s="43"/>
-    </row>
-    <row r="803" spans="5:5">
-      <c r="E803" s="43"/>
     </row>
     <row r="804" spans="5:5">
       <c r="E804" s="43"/>
     </row>
+    <row r="805" spans="5:5">
+      <c r="E805" s="43"/>
+    </row>
     <row r="806" spans="5:5">
       <c r="E806" s="43"/>
     </row>
     <row r="807" spans="5:5">
       <c r="E807" s="43"/>
     </row>
-    <row r="808" spans="5:5">
-      <c r="E808" s="43"/>
-    </row>
-    <row r="809" spans="5:5">
-      <c r="E809" s="43"/>
-    </row>
     <row r="810" spans="5:5">
       <c r="E810" s="43"/>
     </row>
@@ -6564,12 +7514,6 @@
     <row r="813" spans="5:5">
       <c r="E813" s="43"/>
     </row>
-    <row r="814" spans="5:5">
-      <c r="E814" s="43"/>
-    </row>
-    <row r="815" spans="5:5">
-      <c r="E815" s="43"/>
-    </row>
     <row r="816" spans="5:5">
       <c r="E816" s="43"/>
     </row>
@@ -6582,6 +7526,9 @@
     <row r="819" spans="5:5">
       <c r="E819" s="43"/>
     </row>
+    <row r="820" spans="5:5">
+      <c r="E820" s="43"/>
+    </row>
     <row r="821" spans="5:5">
       <c r="E821" s="43"/>
     </row>
@@ -6609,9 +7556,6 @@
     <row r="829" spans="5:5">
       <c r="E829" s="43"/>
     </row>
-    <row r="830" spans="5:5">
-      <c r="E830" s="43"/>
-    </row>
     <row r="831" spans="5:5">
       <c r="E831" s="43"/>
     </row>
@@ -6654,9 +7598,6 @@
     <row r="844" spans="5:5">
       <c r="E844" s="43"/>
     </row>
-    <row r="845" spans="5:5">
-      <c r="E845" s="43"/>
-    </row>
     <row r="846" spans="5:5">
       <c r="E846" s="43"/>
     </row>
@@ -6666,250 +7607,367 @@
     <row r="848" spans="5:5">
       <c r="E848" s="43"/>
     </row>
+    <row r="849" spans="5:5">
+      <c r="E849" s="43"/>
+    </row>
     <row r="850" spans="5:5">
       <c r="E850" s="43"/>
     </row>
+    <row r="851" spans="5:5">
+      <c r="E851" s="43"/>
+    </row>
+    <row r="852" spans="5:5">
+      <c r="E852" s="43"/>
+    </row>
+    <row r="853" spans="5:5">
+      <c r="E853" s="43"/>
+    </row>
+    <row r="854" spans="5:5">
+      <c r="E854" s="43"/>
+    </row>
+    <row r="855" spans="5:5">
+      <c r="E855" s="43"/>
+    </row>
+    <row r="856" spans="5:5">
+      <c r="E856" s="43"/>
+    </row>
+    <row r="857" spans="5:5">
+      <c r="E857" s="43"/>
+    </row>
+    <row r="858" spans="5:5">
+      <c r="E858" s="43"/>
+    </row>
+    <row r="859" spans="5:5">
+      <c r="E859" s="43"/>
+    </row>
+    <row r="861" spans="5:5">
+      <c r="E861" s="43"/>
+    </row>
+    <row r="862" spans="5:5">
+      <c r="E862" s="43"/>
+    </row>
     <row r="863" spans="5:5">
       <c r="E863" s="43"/>
     </row>
+    <row r="864" spans="5:5">
+      <c r="E864" s="43"/>
+    </row>
+    <row r="865" spans="5:5">
+      <c r="E865" s="43"/>
+    </row>
+    <row r="866" spans="5:5">
+      <c r="E866" s="43"/>
+    </row>
+    <row r="867" spans="5:5">
+      <c r="E867" s="43"/>
+    </row>
+    <row r="868" spans="5:5">
+      <c r="E868" s="43"/>
+    </row>
+    <row r="869" spans="5:5">
+      <c r="E869" s="43"/>
+    </row>
+    <row r="870" spans="5:5">
+      <c r="E870" s="43"/>
+    </row>
+    <row r="871" spans="5:5">
+      <c r="E871" s="43"/>
+    </row>
+    <row r="872" spans="5:5">
+      <c r="E872" s="43"/>
+    </row>
+    <row r="873" spans="5:5">
+      <c r="E873" s="43"/>
+    </row>
+    <row r="874" spans="5:5">
+      <c r="E874" s="43"/>
+    </row>
+    <row r="875" spans="5:5">
+      <c r="E875" s="43"/>
+    </row>
+    <row r="876" spans="5:5">
+      <c r="E876" s="43"/>
+    </row>
     <row r="877" spans="5:5">
       <c r="E877" s="43"/>
     </row>
+    <row r="878" spans="5:5">
+      <c r="E878" s="43"/>
+    </row>
     <row r="879" spans="5:5">
       <c r="E879" s="43"/>
     </row>
-    <row r="892" spans="5:5">
-      <c r="E892" s="43"/>
-    </row>
-    <row r="906" spans="5:5">
-      <c r="E906" s="43"/>
-    </row>
-    <row r="908" spans="5:5">
-      <c r="E908" s="43"/>
-    </row>
-    <row r="921" spans="5:5">
-      <c r="E921" s="43"/>
-    </row>
-    <row r="935" spans="5:5">
-      <c r="E935" s="43"/>
-    </row>
-    <row r="938" spans="5:5">
-      <c r="E938" s="43"/>
-    </row>
-    <row r="939" spans="5:5">
-      <c r="E939" s="43"/>
-    </row>
-    <row r="940" spans="5:5">
-      <c r="E940" s="43"/>
-    </row>
-    <row r="941" spans="5:5">
-      <c r="E941" s="43"/>
-    </row>
-    <row r="942" spans="5:5">
-      <c r="E942" s="43"/>
-    </row>
-    <row r="943" spans="5:5">
-      <c r="E943" s="43"/>
-    </row>
-    <row r="944" spans="5:5">
-      <c r="E944" s="43"/>
-    </row>
-    <row r="945" spans="5:5">
-      <c r="E945" s="43"/>
+    <row r="880" spans="5:5">
+      <c r="E880" s="43"/>
+    </row>
+    <row r="881" spans="5:5">
+      <c r="E881" s="43"/>
+    </row>
+    <row r="882" spans="5:5">
+      <c r="E882" s="43"/>
+    </row>
+    <row r="883" spans="5:5">
+      <c r="E883" s="43"/>
+    </row>
+    <row r="884" spans="5:5">
+      <c r="E884" s="43"/>
+    </row>
+    <row r="885" spans="5:5">
+      <c r="E885" s="43"/>
+    </row>
+    <row r="886" spans="5:5">
+      <c r="E886" s="43"/>
+    </row>
+    <row r="887" spans="5:5">
+      <c r="E887" s="43"/>
+    </row>
+    <row r="888" spans="5:5">
+      <c r="E888" s="43"/>
+    </row>
+    <row r="890" spans="5:5">
+      <c r="E890" s="43"/>
+    </row>
+    <row r="903" spans="5:5">
+      <c r="E903" s="43"/>
+    </row>
+    <row r="917" spans="5:5">
+      <c r="E917" s="43"/>
+    </row>
+    <row r="919" spans="5:5">
+      <c r="E919" s="43"/>
+    </row>
+    <row r="932" spans="5:5">
+      <c r="E932" s="43"/>
     </row>
     <row r="946" spans="5:5">
       <c r="E946" s="43"/>
     </row>
-    <row r="947" spans="5:5">
-      <c r="E947" s="43"/>
-    </row>
     <row r="948" spans="5:5">
       <c r="E948" s="43"/>
     </row>
-    <row r="949" spans="5:5">
-      <c r="E949" s="43"/>
-    </row>
-    <row r="950" spans="5:5">
-      <c r="E950" s="43"/>
-    </row>
-    <row r="951" spans="5:5">
-      <c r="E951" s="43"/>
-    </row>
-    <row r="960" spans="5:5">
-      <c r="E960" s="43"/>
-    </row>
-    <row r="977" spans="5:5">
-      <c r="E977" s="43"/>
-    </row>
-    <row r="994" spans="5:5">
-      <c r="E994" s="43"/>
-    </row>
-    <row r="1011" spans="5:5">
-      <c r="E1011" s="43"/>
-    </row>
-    <row r="1028" spans="5:5">
-      <c r="E1028" s="43"/>
-    </row>
-    <row r="1045" spans="5:5">
-      <c r="E1045" s="43"/>
-    </row>
-    <row r="1062" spans="5:5">
-      <c r="E1062" s="43"/>
-    </row>
-    <row r="1079" spans="5:5">
-      <c r="E1079" s="43"/>
-    </row>
-    <row r="1096" spans="5:5">
-      <c r="E1096" s="43"/>
-    </row>
-    <row r="1113" spans="5:5">
-      <c r="E1113" s="43"/>
-    </row>
-    <row r="1130" spans="5:5">
-      <c r="E1130" s="43"/>
-    </row>
-    <row r="1147" spans="5:5">
-      <c r="E1147" s="43"/>
-    </row>
-    <row r="1164" spans="5:5">
-      <c r="E1164" s="43"/>
-    </row>
-    <row r="1181" spans="5:5">
-      <c r="E1181" s="43"/>
-    </row>
-    <row r="1198" spans="5:5">
-      <c r="E1198" s="43"/>
-    </row>
-    <row r="1215" spans="5:5">
-      <c r="E1215" s="43"/>
-    </row>
-    <row r="1225" spans="7:7">
-      <c r="G1225" s="43"/>
-    </row>
-    <row r="1226" spans="7:7">
-      <c r="G1226" s="43"/>
-    </row>
-    <row r="1227" spans="7:7">
-      <c r="G1227" s="43"/>
-    </row>
-    <row r="1228" spans="7:7">
-      <c r="G1228" s="43"/>
-    </row>
-    <row r="1229" spans="7:7">
-      <c r="G1229" s="43"/>
-    </row>
-    <row r="1230" spans="7:7">
-      <c r="G1230" s="43"/>
-    </row>
-    <row r="1231" spans="7:7">
-      <c r="G1231" s="43"/>
-    </row>
-    <row r="1232" spans="7:7">
-      <c r="G1232" s="43"/>
-    </row>
-    <row r="1233" spans="5:7">
-      <c r="G1233" s="43"/>
-    </row>
-    <row r="1234" spans="5:7">
-      <c r="G1234" s="43"/>
-    </row>
-    <row r="1235" spans="5:7">
-      <c r="G1235" s="43"/>
-    </row>
-    <row r="1236" spans="5:7">
-      <c r="G1236" s="43"/>
-    </row>
-    <row r="1237" spans="5:7">
-      <c r="G1237" s="43"/>
-    </row>
-    <row r="1238" spans="5:7">
+    <row r="961" spans="5:5">
+      <c r="E961" s="43"/>
+    </row>
+    <row r="975" spans="5:5">
+      <c r="E975" s="43"/>
+    </row>
+    <row r="978" spans="5:5">
+      <c r="E978" s="43"/>
+    </row>
+    <row r="979" spans="5:5">
+      <c r="E979" s="43"/>
+    </row>
+    <row r="980" spans="5:5">
+      <c r="E980" s="43"/>
+    </row>
+    <row r="981" spans="5:5">
+      <c r="E981" s="43"/>
+    </row>
+    <row r="982" spans="5:5">
+      <c r="E982" s="43"/>
+    </row>
+    <row r="983" spans="5:5">
+      <c r="E983" s="43"/>
+    </row>
+    <row r="984" spans="5:5">
+      <c r="E984" s="43"/>
+    </row>
+    <row r="985" spans="5:5">
+      <c r="E985" s="43"/>
+    </row>
+    <row r="986" spans="5:5">
+      <c r="E986" s="43"/>
+    </row>
+    <row r="987" spans="5:5">
+      <c r="E987" s="43"/>
+    </row>
+    <row r="988" spans="5:5">
+      <c r="E988" s="43"/>
+    </row>
+    <row r="989" spans="5:5">
+      <c r="E989" s="43"/>
+    </row>
+    <row r="990" spans="5:5">
+      <c r="E990" s="43"/>
+    </row>
+    <row r="991" spans="5:5">
+      <c r="E991" s="43"/>
+    </row>
+    <row r="1000" spans="5:5">
+      <c r="E1000" s="43"/>
+    </row>
+    <row r="1017" spans="5:5">
+      <c r="E1017" s="43"/>
+    </row>
+    <row r="1034" spans="5:5">
+      <c r="E1034" s="43"/>
+    </row>
+    <row r="1051" spans="5:5">
+      <c r="E1051" s="43"/>
+    </row>
+    <row r="1068" spans="5:5">
+      <c r="E1068" s="43"/>
+    </row>
+    <row r="1085" spans="5:5">
+      <c r="E1085" s="43"/>
+    </row>
+    <row r="1102" spans="5:5">
+      <c r="E1102" s="43"/>
+    </row>
+    <row r="1119" spans="5:5">
+      <c r="E1119" s="43"/>
+    </row>
+    <row r="1136" spans="5:5">
+      <c r="E1136" s="43"/>
+    </row>
+    <row r="1153" spans="5:5">
+      <c r="E1153" s="43"/>
+    </row>
+    <row r="1170" spans="5:5">
+      <c r="E1170" s="43"/>
+    </row>
+    <row r="1187" spans="5:5">
+      <c r="E1187" s="43"/>
+    </row>
+    <row r="1204" spans="5:5">
+      <c r="E1204" s="43"/>
+    </row>
+    <row r="1221" spans="5:5">
+      <c r="E1221" s="43"/>
+    </row>
+    <row r="1238" spans="5:5">
       <c r="E1238" s="43"/>
-      <c r="G1238" s="43"/>
-    </row>
-    <row r="1259" spans="5:5">
-      <c r="E1259" s="43"/>
-    </row>
-    <row r="1274" spans="5:5">
-      <c r="E1274" s="43"/>
-    </row>
-    <row r="1289" spans="5:5">
-      <c r="E1289" s="43"/>
-    </row>
-    <row r="1304" spans="5:5">
-      <c r="E1304" s="43"/>
-    </row>
-    <row r="1320" spans="5:5">
-      <c r="E1320" s="43"/>
-    </row>
-    <row r="1328" spans="5:5">
-      <c r="E1328" s="43"/>
-    </row>
-    <row r="1337" spans="7:7">
-      <c r="G1337" s="43"/>
-    </row>
-    <row r="1338" spans="7:7">
-      <c r="G1338" s="43"/>
-    </row>
-    <row r="1339" spans="7:7">
-      <c r="G1339" s="43"/>
-    </row>
-    <row r="1340" spans="7:7">
-      <c r="G1340" s="43"/>
-    </row>
-    <row r="1341" spans="7:7">
-      <c r="G1341" s="43"/>
-    </row>
-    <row r="1342" spans="7:7">
-      <c r="G1342" s="43"/>
-    </row>
-    <row r="1343" spans="7:7">
-      <c r="G1343" s="43"/>
-    </row>
-    <row r="1344" spans="7:7">
-      <c r="G1344" s="43"/>
-    </row>
-    <row r="1345" spans="5:7">
-      <c r="G1345" s="43"/>
-    </row>
-    <row r="1346" spans="5:7">
-      <c r="G1346" s="43"/>
-    </row>
-    <row r="1347" spans="5:7">
-      <c r="G1347" s="43"/>
-    </row>
-    <row r="1348" spans="5:7">
-      <c r="G1348" s="43"/>
-    </row>
-    <row r="1349" spans="5:7">
-      <c r="G1349" s="43"/>
-    </row>
-    <row r="1350" spans="5:7">
-      <c r="G1350" s="43"/>
-    </row>
-    <row r="1351" spans="5:7">
-      <c r="G1351" s="43"/>
-    </row>
-    <row r="1352" spans="5:7">
-      <c r="G1352" s="43"/>
-    </row>
-    <row r="1353" spans="5:7">
-      <c r="G1353" s="43"/>
-    </row>
-    <row r="1354" spans="5:7">
-      <c r="G1354" s="43"/>
-    </row>
-    <row r="1355" spans="5:7">
-      <c r="G1355" s="43"/>
-    </row>
-    <row r="1356" spans="5:7">
-      <c r="E1356" s="43"/>
-      <c r="G1356" s="43"/>
-    </row>
-    <row r="1364" spans="5:5">
-      <c r="E1364" s="43"/>
-    </row>
-    <row r="1371" spans="5:5">
-      <c r="E1371" s="43"/>
+    </row>
+    <row r="1255" spans="5:5">
+      <c r="E1255" s="43"/>
+    </row>
+    <row r="1265" spans="5:7">
+      <c r="G1265" s="43"/>
+    </row>
+    <row r="1266" spans="5:7">
+      <c r="G1266" s="43"/>
+    </row>
+    <row r="1267" spans="5:7">
+      <c r="G1267" s="43"/>
+    </row>
+    <row r="1268" spans="5:7">
+      <c r="G1268" s="43"/>
+    </row>
+    <row r="1269" spans="5:7">
+      <c r="G1269" s="43"/>
+    </row>
+    <row r="1270" spans="5:7">
+      <c r="G1270" s="43"/>
+    </row>
+    <row r="1271" spans="5:7">
+      <c r="G1271" s="43"/>
+    </row>
+    <row r="1272" spans="5:7">
+      <c r="G1272" s="43"/>
+    </row>
+    <row r="1273" spans="5:7">
+      <c r="G1273" s="43"/>
+    </row>
+    <row r="1274" spans="5:7">
+      <c r="G1274" s="43"/>
+    </row>
+    <row r="1275" spans="5:7">
+      <c r="G1275" s="43"/>
+    </row>
+    <row r="1276" spans="5:7">
+      <c r="G1276" s="43"/>
+    </row>
+    <row r="1277" spans="5:7">
+      <c r="G1277" s="43"/>
+    </row>
+    <row r="1278" spans="5:7">
+      <c r="E1278" s="43"/>
+      <c r="G1278" s="43"/>
+    </row>
+    <row r="1299" spans="5:5">
+      <c r="E1299" s="43"/>
+    </row>
+    <row r="1314" spans="5:5">
+      <c r="E1314" s="43"/>
+    </row>
+    <row r="1329" spans="5:5">
+      <c r="E1329" s="43"/>
+    </row>
+    <row r="1344" spans="5:5">
+      <c r="E1344" s="43"/>
+    </row>
+    <row r="1360" spans="5:5">
+      <c r="E1360" s="43"/>
+    </row>
+    <row r="1368" spans="5:5">
+      <c r="E1368" s="43"/>
+    </row>
+    <row r="1377" spans="7:7">
+      <c r="G1377" s="43"/>
+    </row>
+    <row r="1378" spans="7:7">
+      <c r="G1378" s="43"/>
+    </row>
+    <row r="1379" spans="7:7">
+      <c r="G1379" s="43"/>
+    </row>
+    <row r="1380" spans="7:7">
+      <c r="G1380" s="43"/>
+    </row>
+    <row r="1381" spans="7:7">
+      <c r="G1381" s="43"/>
+    </row>
+    <row r="1382" spans="7:7">
+      <c r="G1382" s="43"/>
+    </row>
+    <row r="1383" spans="7:7">
+      <c r="G1383" s="43"/>
+    </row>
+    <row r="1384" spans="7:7">
+      <c r="G1384" s="43"/>
+    </row>
+    <row r="1385" spans="7:7">
+      <c r="G1385" s="43"/>
+    </row>
+    <row r="1386" spans="7:7">
+      <c r="G1386" s="43"/>
+    </row>
+    <row r="1387" spans="7:7">
+      <c r="G1387" s="43"/>
+    </row>
+    <row r="1388" spans="7:7">
+      <c r="G1388" s="43"/>
+    </row>
+    <row r="1389" spans="7:7">
+      <c r="G1389" s="43"/>
+    </row>
+    <row r="1390" spans="7:7">
+      <c r="G1390" s="43"/>
+    </row>
+    <row r="1391" spans="7:7">
+      <c r="G1391" s="43"/>
+    </row>
+    <row r="1392" spans="7:7">
+      <c r="G1392" s="43"/>
+    </row>
+    <row r="1393" spans="5:7">
+      <c r="G1393" s="43"/>
+    </row>
+    <row r="1394" spans="5:7">
+      <c r="G1394" s="43"/>
+    </row>
+    <row r="1395" spans="5:7">
+      <c r="G1395" s="43"/>
+    </row>
+    <row r="1396" spans="5:7">
+      <c r="E1396" s="43"/>
+      <c r="G1396" s="43"/>
+    </row>
+    <row r="1404" spans="5:7">
+      <c r="E1404" s="43"/>
+    </row>
+    <row r="1411" spans="5:5">
+      <c r="E1411" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1363BBEF-B792-45A9-97BC-CAED57B19D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6850B4-82CC-4247-9DDE-1F39C6F259DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23148" yWindow="0" windowWidth="17280" windowHeight="10044" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="544">
   <si>
     <t>Name</t>
   </si>
@@ -1218,6 +1218,513 @@
     <t>Commodore shared files/Board local files/C64_Diagnostic_Instruction_and_Troubleshooting_Manual_(326070-01).pdf</t>
   </si>
   <si>
+    <t>Best-practises</t>
+  </si>
+  <si>
+    <t>Commodore 64/128 Best-Practises</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/Commodore 64-128 Best-Practises.txt</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>0V (GND)</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>Pulsing</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>/PC</t>
+  </si>
+  <si>
+    <t>TOD</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>5.1V (+5VDC power rail)</t>
+  </si>
+  <si>
+    <t>/IRQ</t>
+  </si>
+  <si>
+    <t>R//W</t>
+  </si>
+  <si>
+    <t>/CS</t>
+  </si>
+  <si>
+    <t>/FLAG</t>
+  </si>
+  <si>
+    <t>PHI2</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>/RES</t>
+  </si>
+  <si>
+    <t>RS3</t>
+  </si>
+  <si>
+    <t>RS2</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>RS0</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_25_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_26_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_27_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_28_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_29_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_30_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_31_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_32_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_33_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_34_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_35_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_36_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_37_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_38_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_39_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U1_40_PAL.png</t>
+  </si>
+  <si>
+    <t>5.0V (+5VDC power rail)</t>
+  </si>
+  <si>
+    <t>985.238 kHz</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_25_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_26_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_27_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_28_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_29_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_30_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_31_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_32_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_33_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_34_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_35_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_36_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_37_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_38_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_39_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U2_40_PAL.png</t>
+  </si>
+  <si>
+    <t>985.239 kHz</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>/CE</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U3_24_PAL.png</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1230,275 +1737,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-October-15</t>
+      <t>2025-October-26</t>
     </r>
-  </si>
-  <si>
-    <t>Best-practises</t>
-  </si>
-  <si>
-    <t>Commodore 64/128 Best-Practises</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/Commodore 64-128 Best-Practises.txt</t>
-  </si>
-  <si>
-    <t>VSS</t>
-  </si>
-  <si>
-    <t>0V (GND)</t>
-  </si>
-  <si>
-    <t>PA0</t>
-  </si>
-  <si>
-    <t>Pulsing</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>PA2</t>
-  </si>
-  <si>
-    <t>PA3</t>
-  </si>
-  <si>
-    <t>PA4</t>
-  </si>
-  <si>
-    <t>PA5</t>
-  </si>
-  <si>
-    <t>PA6</t>
-  </si>
-  <si>
-    <t>PA7</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>PB0</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>/PC</t>
-  </si>
-  <si>
-    <t>TOD</t>
-  </si>
-  <si>
-    <t>VCC</t>
-  </si>
-  <si>
-    <t>5.1V (+5VDC power rail)</t>
-  </si>
-  <si>
-    <t>/IRQ</t>
-  </si>
-  <si>
-    <t>R//W</t>
-  </si>
-  <si>
-    <t>/CS</t>
-  </si>
-  <si>
-    <t>/FLAG</t>
-  </si>
-  <si>
-    <t>PHI2</t>
-  </si>
-  <si>
-    <t>985.252 kHz</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>/RES</t>
-  </si>
-  <si>
-    <t>RS3</t>
-  </si>
-  <si>
-    <t>RS2</t>
-  </si>
-  <si>
-    <t>RS1</t>
-  </si>
-  <si>
-    <t>RS0</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>CNT</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_1_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_2_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_3_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_4_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_5_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_6_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_7_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_8_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_9_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_10_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_11_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_12_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_13_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_14_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_15_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_16_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_17_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_18_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_19_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_20_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_21_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_22_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_23_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_24_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_25_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_26_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_27_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_28_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_29_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_30_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_31_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_32_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_33_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_34_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_35_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_36_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_37_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_38_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_39_PAL.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/U1_40_PAL.png</t>
   </si>
 </sst>
 </file>
@@ -2087,7 +2327,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -2114,7 +2354,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>374</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4647,13 +4887,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I1411"/>
+  <dimension ref="A1:I1475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4896,13 +5136,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="F19" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4916,13 +5156,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="F20" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4936,13 +5176,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4956,13 +5196,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4976,13 +5216,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4996,13 +5236,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5016,13 +5256,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5036,13 +5276,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5056,13 +5296,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="F27" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5076,13 +5316,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="F28" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5096,13 +5336,13 @@
         <v>11</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5116,13 +5356,13 @@
         <v>12</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5136,13 +5376,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5156,13 +5396,13 @@
         <v>14</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5176,13 +5416,13 @@
         <v>15</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5196,13 +5436,13 @@
         <v>16</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5216,13 +5456,13 @@
         <v>17</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5236,13 +5476,13 @@
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5256,13 +5496,13 @@
         <v>19</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5276,13 +5516,13 @@
         <v>20</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5296,13 +5536,13 @@
         <v>21</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5316,13 +5556,13 @@
         <v>22</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5336,13 +5576,13 @@
         <v>23</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5356,13 +5596,13 @@
         <v>24</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5376,13 +5616,13 @@
         <v>25</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5396,13 +5636,13 @@
         <v>26</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5416,13 +5656,13 @@
         <v>27</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5436,13 +5676,13 @@
         <v>28</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5456,13 +5696,13 @@
         <v>29</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5476,13 +5716,13 @@
         <v>30</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5496,13 +5736,13 @@
         <v>31</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5516,13 +5756,13 @@
         <v>32</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5536,13 +5776,13 @@
         <v>33</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5556,13 +5796,13 @@
         <v>34</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5576,13 +5816,13 @@
         <v>35</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5596,13 +5836,13 @@
         <v>36</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5616,13 +5856,13 @@
         <v>37</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5636,13 +5876,13 @@
         <v>38</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5656,13 +5896,13 @@
         <v>39</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5676,13 +5916,13 @@
         <v>40</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="158.4">
@@ -5702,1340 +5942,2433 @@
       </c>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" spans="1:9" ht="28.8">
-      <c r="A60" s="14" t="s">
+    <row r="60" spans="1:9">
+      <c r="A60" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="32">
+        <v>1</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="32">
+        <v>2</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C62" s="32">
+        <v>3</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="32">
+        <v>4</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="32">
+        <v>5</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="32">
+        <v>6</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="32">
+        <v>7</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="32">
+        <v>8</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="32">
+        <v>9</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" s="32">
+        <v>10</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="32">
+        <v>11</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="32">
+        <v>12</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C72" s="32">
+        <v>13</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" s="32">
+        <v>14</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="32">
+        <v>15</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" s="32">
+        <v>16</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="32">
+        <v>17</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" s="32">
+        <v>18</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C78" s="32">
+        <v>19</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="32">
+        <v>20</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" s="32">
+        <v>21</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" s="32">
+        <v>22</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C82" s="32">
+        <v>23</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C83" s="32">
+        <v>24</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" s="32">
+        <v>25</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="32">
+        <v>26</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C86" s="32">
+        <v>27</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="32">
+        <v>28</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="32">
+        <v>29</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" s="32">
+        <v>30</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="32">
+        <v>31</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="32">
+        <v>32</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="32">
+        <v>33</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C93" s="32">
+        <v>34</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="32">
+        <v>35</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" s="32">
+        <v>36</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" s="32">
+        <v>37</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" s="32">
+        <v>38</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="32">
         <v>39</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="28.8">
-      <c r="A61" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="72">
-      <c r="A62" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="28.8">
-      <c r="A63" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="43.2">
-      <c r="A66" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="43.2">
-      <c r="A67" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="72">
-      <c r="A72" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="72">
-      <c r="A73" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="28.8">
-      <c r="A74" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="72">
-      <c r="A84" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="33"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="48"/>
-      <c r="B86"/>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="49"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="38"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="48"/>
-      <c r="B88"/>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="37"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="37"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="39"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="37"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="37"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="37"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="39"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="37"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="37"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="37"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="37"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="14"/>
+      <c r="D98" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="32">
+        <v>40</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="28.8">
+      <c r="A100" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B100" s="14"/>
       <c r="C100" s="37"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="37"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="37"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="37"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="37"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="37"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="37"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="37"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="37"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="37"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="37"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="37"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="37"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="37"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="37"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="37"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="37"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="37"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="37"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="37"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="37"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="37"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="37"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="37"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="37"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="37"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="37"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="37"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="37"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="37"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="37"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="37"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="14"/>
+      <c r="D100" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" s="32">
+        <v>1</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" s="32">
+        <v>2</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="32">
+        <v>3</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" s="32">
+        <v>4</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C105" s="32">
+        <v>5</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="32">
+        <v>6</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107" s="32">
+        <v>7</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" s="32">
+        <v>8</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="32">
+        <v>9</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" s="32">
+        <v>10</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" s="32">
+        <v>11</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="32">
+        <v>12</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C113" s="32">
+        <v>13</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" s="32">
+        <v>14</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C115" s="32">
+        <v>15</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C116" s="32">
+        <v>16</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" s="32">
+        <v>17</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C118" s="32">
+        <v>18</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C119" s="32">
+        <v>19</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" s="32">
+        <v>20</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" s="32">
+        <v>21</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" s="32">
+        <v>22</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="32">
+        <v>23</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="32">
+        <v>24</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="28.8">
+      <c r="A125" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="18"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="72">
+      <c r="A126" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="28.8">
+      <c r="A127" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" s="18"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" s="16"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" s="16"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="43.2">
+      <c r="A130" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="16"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="43.2">
+      <c r="A131" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="16"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B132" s="14"/>
       <c r="C132" s="37"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="14"/>
+      <c r="D132" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="B133" s="14"/>
       <c r="C133" s="37"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="14"/>
+      <c r="D133" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="B134" s="14"/>
       <c r="C134" s="37"/>
-    </row>
-    <row r="244" spans="5:5">
-      <c r="E244" s="43"/>
-    </row>
-    <row r="245" spans="5:5">
-      <c r="E245" s="43"/>
-    </row>
-    <row r="246" spans="5:5">
-      <c r="E246" s="43"/>
-    </row>
-    <row r="247" spans="5:5">
-      <c r="E247" s="43"/>
-    </row>
-    <row r="248" spans="5:5">
-      <c r="E248" s="43"/>
-    </row>
-    <row r="249" spans="5:5">
-      <c r="E249" s="43"/>
-    </row>
-    <row r="250" spans="5:5">
-      <c r="E250" s="43"/>
-    </row>
-    <row r="260" spans="5:7">
-      <c r="E260" s="43"/>
-    </row>
-    <row r="262" spans="5:7">
-      <c r="E262" s="43"/>
-      <c r="G262" s="43"/>
-    </row>
-    <row r="263" spans="5:7">
-      <c r="G263" s="43"/>
-    </row>
-    <row r="264" spans="5:7">
-      <c r="E264" s="44"/>
-      <c r="G264" s="43"/>
-    </row>
-    <row r="265" spans="5:7">
-      <c r="E265" s="43"/>
-      <c r="G265" s="43"/>
-    </row>
-    <row r="266" spans="5:7">
-      <c r="E266" s="43"/>
-      <c r="G266" s="43"/>
-    </row>
-    <row r="267" spans="5:7">
-      <c r="E267" s="43"/>
-      <c r="G267" s="43"/>
-    </row>
-    <row r="268" spans="5:7">
-      <c r="E268" s="43"/>
-      <c r="G268" s="43"/>
-    </row>
-    <row r="269" spans="5:7">
-      <c r="E269" s="43"/>
-      <c r="G269" s="43"/>
-    </row>
-    <row r="270" spans="5:7">
-      <c r="E270" s="45"/>
-      <c r="G270" s="43"/>
-    </row>
-    <row r="271" spans="5:7">
-      <c r="E271" s="43"/>
-      <c r="G271" s="43"/>
-    </row>
-    <row r="272" spans="5:7">
-      <c r="E272" s="43"/>
-      <c r="G272" s="43"/>
-    </row>
-    <row r="273" spans="5:7">
-      <c r="E273" s="43"/>
-      <c r="G273" s="43"/>
-    </row>
-    <row r="274" spans="5:7">
-      <c r="E274" s="43"/>
-      <c r="G274" s="43"/>
-    </row>
-    <row r="275" spans="5:7">
-      <c r="E275" s="43"/>
-      <c r="G275" s="43"/>
-    </row>
-    <row r="276" spans="5:7">
-      <c r="E276" s="43"/>
-      <c r="G276" s="43"/>
-    </row>
-    <row r="277" spans="5:7">
-      <c r="E277" s="43"/>
-      <c r="G277" s="43"/>
-    </row>
-    <row r="278" spans="5:7">
-      <c r="E278" s="43"/>
-      <c r="G278" s="43"/>
-    </row>
-    <row r="279" spans="5:7">
-      <c r="E279" s="43"/>
-      <c r="G279" s="43"/>
-    </row>
-    <row r="280" spans="5:7">
-      <c r="E280" s="43"/>
-      <c r="G280" s="43"/>
-    </row>
-    <row r="281" spans="5:7">
-      <c r="E281" s="43"/>
-      <c r="G281" s="43"/>
-    </row>
-    <row r="282" spans="5:7">
-      <c r="E282" s="43"/>
-      <c r="G282" s="43"/>
-    </row>
-    <row r="283" spans="5:7">
-      <c r="E283" s="43"/>
-      <c r="G283" s="43"/>
-    </row>
-    <row r="284" spans="5:7">
-      <c r="E284" s="43"/>
-      <c r="G284" s="43"/>
-    </row>
-    <row r="285" spans="5:7">
-      <c r="E285" s="43"/>
-      <c r="G285" s="43"/>
-    </row>
-    <row r="286" spans="5:7">
-      <c r="E286" s="43"/>
-      <c r="G286" s="43"/>
-    </row>
-    <row r="287" spans="5:7">
-      <c r="E287" s="43"/>
-      <c r="G287" s="43"/>
-    </row>
-    <row r="288" spans="5:7">
-      <c r="E288" s="43"/>
-      <c r="G288" s="43"/>
-    </row>
-    <row r="289" spans="5:7">
-      <c r="E289" s="43"/>
-      <c r="G289" s="43"/>
-    </row>
-    <row r="290" spans="5:7">
-      <c r="E290" s="43"/>
-      <c r="G290" s="43"/>
-    </row>
-    <row r="291" spans="5:7">
-      <c r="E291" s="43"/>
-      <c r="G291" s="43"/>
-    </row>
-    <row r="292" spans="5:7">
-      <c r="E292" s="43"/>
-      <c r="G292" s="43"/>
-    </row>
-    <row r="293" spans="5:7">
-      <c r="E293" s="43"/>
-      <c r="G293" s="43"/>
-    </row>
-    <row r="294" spans="5:7">
-      <c r="E294" s="43"/>
-      <c r="G294" s="43"/>
-    </row>
-    <row r="295" spans="5:7">
-      <c r="E295" s="43"/>
-      <c r="G295" s="43"/>
-    </row>
-    <row r="296" spans="5:7">
-      <c r="E296" s="43"/>
-      <c r="G296" s="43"/>
-    </row>
-    <row r="297" spans="5:7">
-      <c r="E297" s="43"/>
-      <c r="G297" s="43"/>
-    </row>
-    <row r="298" spans="5:7">
-      <c r="E298" s="43"/>
-      <c r="G298" s="43"/>
-    </row>
-    <row r="299" spans="5:7">
-      <c r="E299" s="43"/>
-      <c r="G299" s="43"/>
-    </row>
-    <row r="300" spans="5:7">
-      <c r="E300" s="43"/>
-      <c r="G300" s="43"/>
-    </row>
-    <row r="301" spans="5:7">
-      <c r="E301" s="43"/>
-      <c r="G301" s="43"/>
-    </row>
-    <row r="302" spans="5:7">
-      <c r="E302" s="43"/>
-      <c r="G302" s="43"/>
-    </row>
-    <row r="303" spans="5:7">
-      <c r="E303" s="43"/>
-      <c r="G303" s="43"/>
-    </row>
-    <row r="304" spans="5:7">
-      <c r="E304" s="43"/>
-      <c r="G304" s="43"/>
-    </row>
-    <row r="305" spans="5:7">
-      <c r="E305" s="43"/>
-      <c r="G305" s="43"/>
-    </row>
-    <row r="306" spans="5:7">
-      <c r="E306" s="43"/>
-      <c r="G306" s="43"/>
-    </row>
-    <row r="307" spans="5:7">
-      <c r="E307" s="43"/>
-      <c r="G307" s="43"/>
-    </row>
-    <row r="308" spans="5:7">
+      <c r="D134" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="72">
+      <c r="A136" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="72">
+      <c r="A137" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="28.8">
+      <c r="A138" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F145" s="14"/>
+      <c r="G145" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B147" s="14"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="72">
+      <c r="A148" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="33"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="48"/>
+      <c r="B150"/>
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="49"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="38"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="48"/>
+      <c r="B152"/>
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="37"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="37"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="28"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="39"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="14"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="37"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="14"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="37"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="14"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="37"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="28"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="39"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="37"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="37"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="14"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="37"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="37"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="37"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="37"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="14"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="37"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="37"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="37"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="14"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="37"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="14"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="37"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="14"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="37"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="14"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="37"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="14"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="37"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="37"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="37"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="37"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="37"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="37"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="37"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="14"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="37"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="37"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="37"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="37"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="37"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="37"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="37"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="37"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="37"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="37"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="37"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="37"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="37"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="14"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="37"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="37"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="37"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="37"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="37"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="37"/>
+    </row>
+    <row r="308" spans="5:5">
       <c r="E308" s="43"/>
-      <c r="G308" s="43"/>
-    </row>
-    <row r="309" spans="5:7">
+    </row>
+    <row r="309" spans="5:5">
       <c r="E309" s="43"/>
-      <c r="G309" s="43"/>
-    </row>
-    <row r="317" spans="5:7">
-      <c r="E317" s="43"/>
-    </row>
-    <row r="326" spans="7:7">
+    </row>
+    <row r="310" spans="5:5">
+      <c r="E310" s="43"/>
+    </row>
+    <row r="311" spans="5:5">
+      <c r="E311" s="43"/>
+    </row>
+    <row r="312" spans="5:5">
+      <c r="E312" s="43"/>
+    </row>
+    <row r="313" spans="5:5">
+      <c r="E313" s="43"/>
+    </row>
+    <row r="314" spans="5:5">
+      <c r="E314" s="43"/>
+    </row>
+    <row r="324" spans="5:7">
+      <c r="E324" s="43"/>
+    </row>
+    <row r="326" spans="5:7">
+      <c r="E326" s="43"/>
       <c r="G326" s="43"/>
     </row>
-    <row r="327" spans="7:7">
+    <row r="327" spans="5:7">
       <c r="G327" s="43"/>
     </row>
-    <row r="328" spans="7:7">
+    <row r="328" spans="5:7">
+      <c r="E328" s="44"/>
       <c r="G328" s="43"/>
     </row>
-    <row r="329" spans="7:7">
+    <row r="329" spans="5:7">
+      <c r="E329" s="43"/>
       <c r="G329" s="43"/>
     </row>
-    <row r="330" spans="7:7">
+    <row r="330" spans="5:7">
+      <c r="E330" s="43"/>
       <c r="G330" s="43"/>
     </row>
-    <row r="331" spans="7:7">
+    <row r="331" spans="5:7">
+      <c r="E331" s="43"/>
       <c r="G331" s="43"/>
     </row>
-    <row r="332" spans="7:7">
+    <row r="332" spans="5:7">
+      <c r="E332" s="43"/>
       <c r="G332" s="43"/>
     </row>
-    <row r="333" spans="7:7">
+    <row r="333" spans="5:7">
+      <c r="E333" s="43"/>
       <c r="G333" s="43"/>
     </row>
-    <row r="334" spans="7:7">
+    <row r="334" spans="5:7">
+      <c r="E334" s="45"/>
       <c r="G334" s="43"/>
     </row>
-    <row r="335" spans="7:7">
+    <row r="335" spans="5:7">
+      <c r="E335" s="43"/>
       <c r="G335" s="43"/>
     </row>
-    <row r="336" spans="7:7">
+    <row r="336" spans="5:7">
+      <c r="E336" s="43"/>
       <c r="G336" s="43"/>
     </row>
-    <row r="337" spans="7:7">
+    <row r="337" spans="5:7">
+      <c r="E337" s="43"/>
       <c r="G337" s="43"/>
     </row>
-    <row r="338" spans="7:7">
+    <row r="338" spans="5:7">
+      <c r="E338" s="43"/>
       <c r="G338" s="43"/>
     </row>
-    <row r="339" spans="7:7">
+    <row r="339" spans="5:7">
+      <c r="E339" s="43"/>
       <c r="G339" s="43"/>
     </row>
-    <row r="369" spans="5:5">
+    <row r="340" spans="5:7">
+      <c r="E340" s="43"/>
+      <c r="G340" s="43"/>
+    </row>
+    <row r="341" spans="5:7">
+      <c r="E341" s="43"/>
+      <c r="G341" s="43"/>
+    </row>
+    <row r="342" spans="5:7">
+      <c r="E342" s="43"/>
+      <c r="G342" s="43"/>
+    </row>
+    <row r="343" spans="5:7">
+      <c r="E343" s="43"/>
+      <c r="G343" s="43"/>
+    </row>
+    <row r="344" spans="5:7">
+      <c r="E344" s="43"/>
+      <c r="G344" s="43"/>
+    </row>
+    <row r="345" spans="5:7">
+      <c r="E345" s="43"/>
+      <c r="G345" s="43"/>
+    </row>
+    <row r="346" spans="5:7">
+      <c r="E346" s="43"/>
+      <c r="G346" s="43"/>
+    </row>
+    <row r="347" spans="5:7">
+      <c r="E347" s="43"/>
+      <c r="G347" s="43"/>
+    </row>
+    <row r="348" spans="5:7">
+      <c r="E348" s="43"/>
+      <c r="G348" s="43"/>
+    </row>
+    <row r="349" spans="5:7">
+      <c r="E349" s="43"/>
+      <c r="G349" s="43"/>
+    </row>
+    <row r="350" spans="5:7">
+      <c r="E350" s="43"/>
+      <c r="G350" s="43"/>
+    </row>
+    <row r="351" spans="5:7">
+      <c r="E351" s="43"/>
+      <c r="G351" s="43"/>
+    </row>
+    <row r="352" spans="5:7">
+      <c r="E352" s="43"/>
+      <c r="G352" s="43"/>
+    </row>
+    <row r="353" spans="5:7">
+      <c r="E353" s="43"/>
+      <c r="G353" s="43"/>
+    </row>
+    <row r="354" spans="5:7">
+      <c r="E354" s="43"/>
+      <c r="G354" s="43"/>
+    </row>
+    <row r="355" spans="5:7">
+      <c r="E355" s="43"/>
+      <c r="G355" s="43"/>
+    </row>
+    <row r="356" spans="5:7">
+      <c r="E356" s="43"/>
+      <c r="G356" s="43"/>
+    </row>
+    <row r="357" spans="5:7">
+      <c r="E357" s="43"/>
+      <c r="G357" s="43"/>
+    </row>
+    <row r="358" spans="5:7">
+      <c r="E358" s="43"/>
+      <c r="G358" s="43"/>
+    </row>
+    <row r="359" spans="5:7">
+      <c r="E359" s="43"/>
+      <c r="G359" s="43"/>
+    </row>
+    <row r="360" spans="5:7">
+      <c r="E360" s="43"/>
+      <c r="G360" s="43"/>
+    </row>
+    <row r="361" spans="5:7">
+      <c r="E361" s="43"/>
+      <c r="G361" s="43"/>
+    </row>
+    <row r="362" spans="5:7">
+      <c r="E362" s="43"/>
+      <c r="G362" s="43"/>
+    </row>
+    <row r="363" spans="5:7">
+      <c r="E363" s="43"/>
+      <c r="G363" s="43"/>
+    </row>
+    <row r="364" spans="5:7">
+      <c r="E364" s="43"/>
+      <c r="G364" s="43"/>
+    </row>
+    <row r="365" spans="5:7">
+      <c r="E365" s="43"/>
+      <c r="G365" s="43"/>
+    </row>
+    <row r="366" spans="5:7">
+      <c r="E366" s="43"/>
+      <c r="G366" s="43"/>
+    </row>
+    <row r="367" spans="5:7">
+      <c r="E367" s="43"/>
+      <c r="G367" s="43"/>
+    </row>
+    <row r="368" spans="5:7">
+      <c r="E368" s="43"/>
+      <c r="G368" s="43"/>
+    </row>
+    <row r="369" spans="5:7">
       <c r="E369" s="43"/>
-    </row>
-    <row r="388" spans="5:5">
-      <c r="E388" s="43"/>
-    </row>
-    <row r="389" spans="5:5">
-      <c r="E389" s="43"/>
-    </row>
-    <row r="392" spans="5:5">
-      <c r="E392" s="43"/>
-    </row>
-    <row r="393" spans="5:5">
-      <c r="E393" s="43"/>
-    </row>
-    <row r="394" spans="5:5">
-      <c r="E394" s="43"/>
-    </row>
-    <row r="395" spans="5:5">
-      <c r="E395" s="43"/>
-    </row>
-    <row r="396" spans="5:5">
-      <c r="E396" s="43"/>
-    </row>
-    <row r="397" spans="5:5">
-      <c r="E397" s="43"/>
-    </row>
-    <row r="403" spans="5:5">
-      <c r="E403" s="43"/>
-    </row>
-    <row r="404" spans="5:5">
-      <c r="E404" s="43"/>
-    </row>
-    <row r="405" spans="5:5">
-      <c r="E405" s="43"/>
-    </row>
-    <row r="406" spans="5:5">
-      <c r="E406" s="43"/>
-    </row>
-    <row r="407" spans="5:5">
-      <c r="E407" s="43"/>
-    </row>
-    <row r="408" spans="5:5">
-      <c r="E408" s="43"/>
-    </row>
-    <row r="409" spans="5:5">
-      <c r="E409" s="43"/>
-    </row>
-    <row r="411" spans="5:5">
-      <c r="E411" s="43"/>
-    </row>
-    <row r="412" spans="5:5">
-      <c r="E412" s="43"/>
-    </row>
-    <row r="413" spans="5:5">
-      <c r="E413" s="43"/>
-    </row>
-    <row r="414" spans="5:5">
-      <c r="E414" s="43"/>
-    </row>
-    <row r="418" spans="5:5">
-      <c r="E418" s="43"/>
-    </row>
-    <row r="425" spans="5:5">
-      <c r="E425" s="43"/>
-    </row>
-    <row r="429" spans="5:5">
-      <c r="E429" s="43"/>
-    </row>
-    <row r="440" spans="5:5">
-      <c r="E440" s="43"/>
-    </row>
-    <row r="450" spans="5:7">
-      <c r="E450" s="43"/>
-    </row>
-    <row r="452" spans="5:7">
-      <c r="G452" s="43"/>
-    </row>
-    <row r="453" spans="5:7">
-      <c r="G453" s="43"/>
-    </row>
-    <row r="454" spans="5:7">
-      <c r="G454" s="43"/>
-    </row>
-    <row r="455" spans="5:7">
-      <c r="G455" s="43"/>
-    </row>
-    <row r="456" spans="5:7">
-      <c r="G456" s="43"/>
-    </row>
-    <row r="457" spans="5:7">
-      <c r="G457" s="43"/>
-    </row>
-    <row r="458" spans="5:7">
-      <c r="G458" s="43"/>
-    </row>
-    <row r="459" spans="5:7">
-      <c r="G459" s="43"/>
-    </row>
-    <row r="460" spans="5:7">
-      <c r="G460" s="43"/>
-    </row>
-    <row r="461" spans="5:7">
-      <c r="G461" s="43"/>
-    </row>
-    <row r="462" spans="5:7">
-      <c r="G462" s="43"/>
-    </row>
-    <row r="463" spans="5:7">
-      <c r="G463" s="43"/>
-    </row>
-    <row r="464" spans="5:7">
-      <c r="G464" s="43"/>
-    </row>
-    <row r="465" spans="5:7">
-      <c r="G465" s="43"/>
-    </row>
-    <row r="466" spans="5:7">
-      <c r="G466" s="43"/>
-    </row>
-    <row r="467" spans="5:7">
-      <c r="G467" s="43"/>
-    </row>
-    <row r="468" spans="5:7">
-      <c r="G468" s="43"/>
-    </row>
-    <row r="469" spans="5:7">
-      <c r="G469" s="43"/>
-    </row>
-    <row r="470" spans="5:7">
-      <c r="G470" s="43"/>
-    </row>
-    <row r="471" spans="5:7">
+      <c r="G369" s="43"/>
+    </row>
+    <row r="370" spans="5:7">
+      <c r="E370" s="43"/>
+      <c r="G370" s="43"/>
+    </row>
+    <row r="371" spans="5:7">
+      <c r="E371" s="43"/>
+      <c r="G371" s="43"/>
+    </row>
+    <row r="372" spans="5:7">
+      <c r="E372" s="43"/>
+      <c r="G372" s="43"/>
+    </row>
+    <row r="373" spans="5:7">
+      <c r="E373" s="43"/>
+      <c r="G373" s="43"/>
+    </row>
+    <row r="381" spans="5:7">
+      <c r="E381" s="43"/>
+    </row>
+    <row r="390" spans="7:7">
+      <c r="G390" s="43"/>
+    </row>
+    <row r="391" spans="7:7">
+      <c r="G391" s="43"/>
+    </row>
+    <row r="392" spans="7:7">
+      <c r="G392" s="43"/>
+    </row>
+    <row r="393" spans="7:7">
+      <c r="G393" s="43"/>
+    </row>
+    <row r="394" spans="7:7">
+      <c r="G394" s="43"/>
+    </row>
+    <row r="395" spans="7:7">
+      <c r="G395" s="43"/>
+    </row>
+    <row r="396" spans="7:7">
+      <c r="G396" s="43"/>
+    </row>
+    <row r="397" spans="7:7">
+      <c r="G397" s="43"/>
+    </row>
+    <row r="398" spans="7:7">
+      <c r="G398" s="43"/>
+    </row>
+    <row r="399" spans="7:7">
+      <c r="G399" s="43"/>
+    </row>
+    <row r="400" spans="7:7">
+      <c r="G400" s="43"/>
+    </row>
+    <row r="401" spans="7:7">
+      <c r="G401" s="43"/>
+    </row>
+    <row r="402" spans="7:7">
+      <c r="G402" s="43"/>
+    </row>
+    <row r="403" spans="7:7">
+      <c r="G403" s="43"/>
+    </row>
+    <row r="433" spans="5:5">
+      <c r="E433" s="43"/>
+    </row>
+    <row r="452" spans="5:5">
+      <c r="E452" s="43"/>
+    </row>
+    <row r="453" spans="5:5">
+      <c r="E453" s="43"/>
+    </row>
+    <row r="456" spans="5:5">
+      <c r="E456" s="43"/>
+    </row>
+    <row r="457" spans="5:5">
+      <c r="E457" s="43"/>
+    </row>
+    <row r="458" spans="5:5">
+      <c r="E458" s="43"/>
+    </row>
+    <row r="459" spans="5:5">
+      <c r="E459" s="43"/>
+    </row>
+    <row r="460" spans="5:5">
+      <c r="E460" s="43"/>
+    </row>
+    <row r="461" spans="5:5">
+      <c r="E461" s="43"/>
+    </row>
+    <row r="467" spans="5:5">
+      <c r="E467" s="43"/>
+    </row>
+    <row r="468" spans="5:5">
+      <c r="E468" s="43"/>
+    </row>
+    <row r="469" spans="5:5">
+      <c r="E469" s="43"/>
+    </row>
+    <row r="470" spans="5:5">
+      <c r="E470" s="43"/>
+    </row>
+    <row r="471" spans="5:5">
       <c r="E471" s="43"/>
-      <c r="G471" s="43"/>
-    </row>
-    <row r="473" spans="5:7">
-      <c r="G473" s="43"/>
-    </row>
-    <row r="474" spans="5:7">
-      <c r="G474" s="43"/>
-    </row>
-    <row r="475" spans="5:7">
-      <c r="G475" s="43"/>
-    </row>
-    <row r="476" spans="5:7">
-      <c r="G476" s="43"/>
-    </row>
-    <row r="477" spans="5:7">
-      <c r="G477" s="43"/>
-    </row>
-    <row r="478" spans="5:7">
-      <c r="G478" s="43"/>
-    </row>
-    <row r="479" spans="5:7">
-      <c r="G479" s="43"/>
-    </row>
-    <row r="480" spans="5:7">
-      <c r="E480" s="43"/>
-      <c r="G480" s="43"/>
-    </row>
-    <row r="481" spans="5:7">
-      <c r="G481" s="43"/>
-    </row>
-    <row r="482" spans="5:7">
-      <c r="G482" s="43"/>
-    </row>
-    <row r="483" spans="5:7">
-      <c r="G483" s="43"/>
-    </row>
-    <row r="484" spans="5:7">
-      <c r="G484" s="43"/>
-    </row>
-    <row r="485" spans="5:7">
-      <c r="G485" s="43"/>
-    </row>
-    <row r="486" spans="5:7">
-      <c r="G486" s="43"/>
-    </row>
-    <row r="487" spans="5:7">
-      <c r="G487" s="43"/>
-    </row>
-    <row r="488" spans="5:7">
-      <c r="E488" s="43"/>
-      <c r="G488" s="43"/>
-    </row>
-    <row r="490" spans="5:7">
-      <c r="G490" s="43"/>
-    </row>
-    <row r="491" spans="5:7">
-      <c r="G491" s="43"/>
-    </row>
-    <row r="492" spans="5:7">
-      <c r="G492" s="43"/>
-    </row>
-    <row r="493" spans="5:7">
-      <c r="G493" s="43"/>
-    </row>
-    <row r="494" spans="5:7">
-      <c r="G494" s="43"/>
-    </row>
-    <row r="495" spans="5:7">
-      <c r="G495" s="43"/>
-    </row>
-    <row r="496" spans="5:7">
-      <c r="G496" s="43"/>
-    </row>
-    <row r="497" spans="5:7">
-      <c r="E497" s="43"/>
-      <c r="G497" s="43"/>
-    </row>
-    <row r="498" spans="5:7">
-      <c r="G498" s="43"/>
-    </row>
-    <row r="499" spans="5:7">
-      <c r="G499" s="43"/>
-    </row>
-    <row r="500" spans="5:7">
-      <c r="G500" s="43"/>
-    </row>
-    <row r="501" spans="5:7">
-      <c r="G501" s="43"/>
-    </row>
-    <row r="502" spans="5:7">
-      <c r="G502" s="43"/>
-    </row>
-    <row r="503" spans="5:7">
-      <c r="G503" s="43"/>
-    </row>
-    <row r="504" spans="5:7">
-      <c r="G504" s="43"/>
-    </row>
-    <row r="505" spans="5:7">
-      <c r="E505" s="43"/>
-      <c r="G505" s="43"/>
-    </row>
-    <row r="513" spans="5:5">
-      <c r="E513" s="43"/>
-    </row>
-    <row r="520" spans="5:5">
-      <c r="E520" s="43"/>
-    </row>
-    <row r="536" spans="5:5">
-      <c r="E536" s="44"/>
-    </row>
-    <row r="537" spans="5:5">
-      <c r="E537" s="44"/>
-    </row>
-    <row r="540" spans="5:5">
-      <c r="E540" s="44"/>
-    </row>
-    <row r="541" spans="5:5">
-      <c r="E541" s="43"/>
-    </row>
-    <row r="554" spans="5:5">
-      <c r="E554" s="43"/>
-    </row>
-    <row r="566" spans="5:5">
-      <c r="E566" s="43"/>
-    </row>
-    <row r="570" spans="5:5">
-      <c r="E570" s="43"/>
-    </row>
-    <row r="571" spans="5:5">
-      <c r="E571" s="43"/>
-    </row>
-    <row r="572" spans="5:5">
-      <c r="E572" s="43"/>
-    </row>
-    <row r="573" spans="5:5">
-      <c r="E573" s="43"/>
-    </row>
-    <row r="574" spans="5:5">
-      <c r="E574" s="43"/>
-    </row>
-    <row r="575" spans="5:5">
-      <c r="E575" s="43"/>
-    </row>
-    <row r="576" spans="5:5">
-      <c r="E576" s="43"/>
+    </row>
+    <row r="472" spans="5:5">
+      <c r="E472" s="43"/>
+    </row>
+    <row r="473" spans="5:5">
+      <c r="E473" s="43"/>
+    </row>
+    <row r="475" spans="5:5">
+      <c r="E475" s="43"/>
+    </row>
+    <row r="476" spans="5:5">
+      <c r="E476" s="43"/>
+    </row>
+    <row r="477" spans="5:5">
+      <c r="E477" s="43"/>
+    </row>
+    <row r="478" spans="5:5">
+      <c r="E478" s="43"/>
+    </row>
+    <row r="482" spans="5:5">
+      <c r="E482" s="43"/>
+    </row>
+    <row r="489" spans="5:5">
+      <c r="E489" s="43"/>
+    </row>
+    <row r="493" spans="5:5">
+      <c r="E493" s="43"/>
+    </row>
+    <row r="504" spans="5:5">
+      <c r="E504" s="43"/>
+    </row>
+    <row r="514" spans="5:7">
+      <c r="E514" s="43"/>
+    </row>
+    <row r="516" spans="5:7">
+      <c r="G516" s="43"/>
+    </row>
+    <row r="517" spans="5:7">
+      <c r="G517" s="43"/>
+    </row>
+    <row r="518" spans="5:7">
+      <c r="G518" s="43"/>
+    </row>
+    <row r="519" spans="5:7">
+      <c r="G519" s="43"/>
+    </row>
+    <row r="520" spans="5:7">
+      <c r="G520" s="43"/>
+    </row>
+    <row r="521" spans="5:7">
+      <c r="G521" s="43"/>
+    </row>
+    <row r="522" spans="5:7">
+      <c r="G522" s="43"/>
+    </row>
+    <row r="523" spans="5:7">
+      <c r="G523" s="43"/>
+    </row>
+    <row r="524" spans="5:7">
+      <c r="G524" s="43"/>
+    </row>
+    <row r="525" spans="5:7">
+      <c r="G525" s="43"/>
+    </row>
+    <row r="526" spans="5:7">
+      <c r="G526" s="43"/>
+    </row>
+    <row r="527" spans="5:7">
+      <c r="G527" s="43"/>
+    </row>
+    <row r="528" spans="5:7">
+      <c r="G528" s="43"/>
+    </row>
+    <row r="529" spans="5:7">
+      <c r="G529" s="43"/>
+    </row>
+    <row r="530" spans="5:7">
+      <c r="G530" s="43"/>
+    </row>
+    <row r="531" spans="5:7">
+      <c r="G531" s="43"/>
+    </row>
+    <row r="532" spans="5:7">
+      <c r="G532" s="43"/>
+    </row>
+    <row r="533" spans="5:7">
+      <c r="G533" s="43"/>
+    </row>
+    <row r="534" spans="5:7">
+      <c r="G534" s="43"/>
+    </row>
+    <row r="535" spans="5:7">
+      <c r="E535" s="43"/>
+      <c r="G535" s="43"/>
+    </row>
+    <row r="537" spans="5:7">
+      <c r="G537" s="43"/>
+    </row>
+    <row r="538" spans="5:7">
+      <c r="G538" s="43"/>
+    </row>
+    <row r="539" spans="5:7">
+      <c r="G539" s="43"/>
+    </row>
+    <row r="540" spans="5:7">
+      <c r="G540" s="43"/>
+    </row>
+    <row r="541" spans="5:7">
+      <c r="G541" s="43"/>
+    </row>
+    <row r="542" spans="5:7">
+      <c r="G542" s="43"/>
+    </row>
+    <row r="543" spans="5:7">
+      <c r="G543" s="43"/>
+    </row>
+    <row r="544" spans="5:7">
+      <c r="E544" s="43"/>
+      <c r="G544" s="43"/>
+    </row>
+    <row r="545" spans="5:7">
+      <c r="G545" s="43"/>
+    </row>
+    <row r="546" spans="5:7">
+      <c r="G546" s="43"/>
+    </row>
+    <row r="547" spans="5:7">
+      <c r="G547" s="43"/>
+    </row>
+    <row r="548" spans="5:7">
+      <c r="G548" s="43"/>
+    </row>
+    <row r="549" spans="5:7">
+      <c r="G549" s="43"/>
+    </row>
+    <row r="550" spans="5:7">
+      <c r="G550" s="43"/>
+    </row>
+    <row r="551" spans="5:7">
+      <c r="G551" s="43"/>
+    </row>
+    <row r="552" spans="5:7">
+      <c r="E552" s="43"/>
+      <c r="G552" s="43"/>
+    </row>
+    <row r="554" spans="5:7">
+      <c r="G554" s="43"/>
+    </row>
+    <row r="555" spans="5:7">
+      <c r="G555" s="43"/>
+    </row>
+    <row r="556" spans="5:7">
+      <c r="G556" s="43"/>
+    </row>
+    <row r="557" spans="5:7">
+      <c r="G557" s="43"/>
+    </row>
+    <row r="558" spans="5:7">
+      <c r="G558" s="43"/>
+    </row>
+    <row r="559" spans="5:7">
+      <c r="G559" s="43"/>
+    </row>
+    <row r="560" spans="5:7">
+      <c r="G560" s="43"/>
+    </row>
+    <row r="561" spans="5:7">
+      <c r="E561" s="43"/>
+      <c r="G561" s="43"/>
+    </row>
+    <row r="562" spans="5:7">
+      <c r="G562" s="43"/>
+    </row>
+    <row r="563" spans="5:7">
+      <c r="G563" s="43"/>
+    </row>
+    <row r="564" spans="5:7">
+      <c r="G564" s="43"/>
+    </row>
+    <row r="565" spans="5:7">
+      <c r="G565" s="43"/>
+    </row>
+    <row r="566" spans="5:7">
+      <c r="G566" s="43"/>
+    </row>
+    <row r="567" spans="5:7">
+      <c r="G567" s="43"/>
+    </row>
+    <row r="568" spans="5:7">
+      <c r="G568" s="43"/>
+    </row>
+    <row r="569" spans="5:7">
+      <c r="E569" s="43"/>
+      <c r="G569" s="43"/>
     </row>
     <row r="577" spans="5:5">
       <c r="E577" s="43"/>
     </row>
-    <row r="578" spans="5:5">
-      <c r="E578" s="43"/>
-    </row>
-    <row r="579" spans="5:5">
-      <c r="E579" s="43"/>
-    </row>
-    <row r="580" spans="5:5">
-      <c r="E580" s="43"/>
-    </row>
-    <row r="581" spans="5:5">
-      <c r="E581" s="43"/>
-    </row>
-    <row r="582" spans="5:5">
-      <c r="E582" s="43"/>
-    </row>
-    <row r="583" spans="5:5">
-      <c r="E583" s="43"/>
-    </row>
     <row r="584" spans="5:5">
       <c r="E584" s="43"/>
     </row>
-    <row r="585" spans="5:5">
-      <c r="E585" s="43"/>
-    </row>
-    <row r="586" spans="5:5">
-      <c r="E586" s="43"/>
-    </row>
-    <row r="587" spans="5:5">
-      <c r="E587" s="43"/>
-    </row>
-    <row r="588" spans="5:5">
-      <c r="E588" s="43"/>
-    </row>
-    <row r="589" spans="5:5">
-      <c r="E589" s="43"/>
-    </row>
-    <row r="590" spans="5:5">
-      <c r="E590" s="43"/>
-    </row>
-    <row r="591" spans="5:5">
-      <c r="E591" s="43"/>
-    </row>
-    <row r="592" spans="5:5">
-      <c r="E592" s="43"/>
-    </row>
-    <row r="593" spans="5:7">
-      <c r="E593" s="43"/>
-    </row>
-    <row r="595" spans="5:7">
-      <c r="G595" s="43"/>
-    </row>
-    <row r="596" spans="5:7">
-      <c r="G596" s="43"/>
-    </row>
-    <row r="597" spans="5:7">
-      <c r="G597" s="43"/>
-    </row>
-    <row r="598" spans="5:7">
-      <c r="G598" s="43"/>
-    </row>
-    <row r="599" spans="5:7">
-      <c r="G599" s="43"/>
-    </row>
-    <row r="600" spans="5:7">
-      <c r="G600" s="43"/>
-    </row>
-    <row r="601" spans="5:7">
-      <c r="G601" s="43"/>
-    </row>
-    <row r="602" spans="5:7">
-      <c r="G602" s="43"/>
-    </row>
-    <row r="603" spans="5:7">
-      <c r="G603" s="43"/>
-    </row>
-    <row r="604" spans="5:7">
-      <c r="G604" s="43"/>
-    </row>
-    <row r="605" spans="5:7">
-      <c r="G605" s="43"/>
-    </row>
-    <row r="606" spans="5:7">
-      <c r="G606" s="43"/>
-    </row>
-    <row r="607" spans="5:7">
-      <c r="G607" s="43"/>
-    </row>
-    <row r="608" spans="5:7">
-      <c r="E608" s="43"/>
-      <c r="G608" s="43"/>
-    </row>
-    <row r="610" spans="5:5">
-      <c r="E610" s="43"/>
-    </row>
-    <row r="611" spans="5:5">
-      <c r="E611" s="43"/>
-    </row>
-    <row r="612" spans="5:5">
-      <c r="E612" s="43"/>
-    </row>
-    <row r="613" spans="5:5">
-      <c r="E613" s="43"/>
-    </row>
-    <row r="614" spans="5:5">
-      <c r="E614" s="43"/>
-    </row>
-    <row r="615" spans="5:5">
-      <c r="E615" s="43"/>
-    </row>
-    <row r="616" spans="5:5">
-      <c r="E616" s="43"/>
-    </row>
-    <row r="617" spans="5:5">
-      <c r="E617" s="43"/>
+    <row r="600" spans="5:5">
+      <c r="E600" s="44"/>
+    </row>
+    <row r="601" spans="5:5">
+      <c r="E601" s="44"/>
+    </row>
+    <row r="604" spans="5:5">
+      <c r="E604" s="44"/>
+    </row>
+    <row r="605" spans="5:5">
+      <c r="E605" s="43"/>
     </row>
     <row r="618" spans="5:5">
       <c r="E618" s="43"/>
     </row>
-    <row r="619" spans="5:5">
-      <c r="E619" s="43"/>
-    </row>
-    <row r="620" spans="5:5">
-      <c r="E620" s="43"/>
-    </row>
-    <row r="621" spans="5:5">
-      <c r="E621" s="43"/>
-    </row>
-    <row r="622" spans="5:5">
-      <c r="E622" s="43"/>
-    </row>
-    <row r="623" spans="5:5">
-      <c r="E623" s="43"/>
-    </row>
-    <row r="624" spans="5:5">
-      <c r="E624" s="43"/>
-    </row>
-    <row r="625" spans="5:5">
-      <c r="E625" s="43"/>
-    </row>
-    <row r="626" spans="5:5">
-      <c r="E626" s="43"/>
-    </row>
-    <row r="627" spans="5:5">
-      <c r="E627" s="43"/>
-    </row>
-    <row r="628" spans="5:5">
-      <c r="E628" s="43"/>
-    </row>
-    <row r="629" spans="5:5">
-      <c r="E629" s="43"/>
-    </row>
     <row r="630" spans="5:5">
       <c r="E630" s="43"/>
     </row>
-    <row r="631" spans="5:5">
-      <c r="E631" s="43"/>
-    </row>
-    <row r="632" spans="5:5">
-      <c r="E632" s="43"/>
-    </row>
-    <row r="633" spans="5:5">
-      <c r="E633" s="43"/>
-    </row>
     <row r="634" spans="5:5">
       <c r="E634" s="43"/>
     </row>
@@ -7109,263 +8442,367 @@
       <c r="E657" s="43"/>
     </row>
     <row r="659" spans="5:7">
-      <c r="E659" s="43"/>
       <c r="G659" s="43"/>
     </row>
     <row r="660" spans="5:7">
-      <c r="E660" s="43"/>
       <c r="G660" s="43"/>
     </row>
     <row r="661" spans="5:7">
-      <c r="E661" s="43"/>
       <c r="G661" s="43"/>
     </row>
     <row r="662" spans="5:7">
-      <c r="E662" s="43"/>
       <c r="G662" s="43"/>
     </row>
     <row r="663" spans="5:7">
-      <c r="E663" s="43"/>
       <c r="G663" s="43"/>
     </row>
     <row r="664" spans="5:7">
-      <c r="E664" s="43"/>
       <c r="G664" s="43"/>
     </row>
     <row r="665" spans="5:7">
-      <c r="E665" s="43"/>
       <c r="G665" s="43"/>
     </row>
     <row r="666" spans="5:7">
-      <c r="E666" s="43"/>
       <c r="G666" s="43"/>
     </row>
     <row r="667" spans="5:7">
-      <c r="E667" s="43"/>
       <c r="G667" s="43"/>
     </row>
     <row r="668" spans="5:7">
-      <c r="E668" s="43"/>
       <c r="G668" s="43"/>
     </row>
     <row r="669" spans="5:7">
-      <c r="E669" s="43"/>
       <c r="G669" s="43"/>
     </row>
     <row r="670" spans="5:7">
-      <c r="E670" s="43"/>
       <c r="G670" s="43"/>
     </row>
     <row r="671" spans="5:7">
-      <c r="E671" s="43"/>
       <c r="G671" s="43"/>
     </row>
     <row r="672" spans="5:7">
       <c r="E672" s="43"/>
       <c r="G672" s="43"/>
     </row>
-    <row r="673" spans="5:7">
-      <c r="E673" s="43"/>
-      <c r="G673" s="43"/>
-    </row>
-    <row r="674" spans="5:7">
+    <row r="674" spans="5:5">
       <c r="E674" s="43"/>
-      <c r="G674" s="43"/>
-    </row>
-    <row r="675" spans="5:7">
+    </row>
+    <row r="675" spans="5:5">
       <c r="E675" s="43"/>
-      <c r="G675" s="43"/>
-    </row>
-    <row r="676" spans="5:7">
+    </row>
+    <row r="676" spans="5:5">
       <c r="E676" s="43"/>
-      <c r="G676" s="43"/>
-    </row>
-    <row r="677" spans="5:7">
+    </row>
+    <row r="677" spans="5:5">
       <c r="E677" s="43"/>
-      <c r="G677" s="43"/>
-    </row>
-    <row r="678" spans="5:7">
+    </row>
+    <row r="678" spans="5:5">
       <c r="E678" s="43"/>
-      <c r="G678" s="43"/>
-    </row>
-    <row r="679" spans="5:7">
+    </row>
+    <row r="679" spans="5:5">
       <c r="E679" s="43"/>
-      <c r="G679" s="43"/>
-    </row>
-    <row r="680" spans="5:7">
+    </row>
+    <row r="680" spans="5:5">
       <c r="E680" s="43"/>
-      <c r="G680" s="43"/>
-    </row>
-    <row r="681" spans="5:7">
+    </row>
+    <row r="681" spans="5:5">
       <c r="E681" s="43"/>
-      <c r="G681" s="43"/>
-    </row>
-    <row r="682" spans="5:7">
+    </row>
+    <row r="682" spans="5:5">
       <c r="E682" s="43"/>
-      <c r="G682" s="43"/>
-    </row>
-    <row r="683" spans="5:7">
+    </row>
+    <row r="683" spans="5:5">
       <c r="E683" s="43"/>
-      <c r="G683" s="43"/>
-    </row>
-    <row r="684" spans="5:7">
+    </row>
+    <row r="684" spans="5:5">
       <c r="E684" s="43"/>
-      <c r="G684" s="43"/>
-    </row>
-    <row r="685" spans="5:7">
+    </row>
+    <row r="685" spans="5:5">
       <c r="E685" s="43"/>
-      <c r="G685" s="43"/>
-    </row>
-    <row r="686" spans="5:7">
+    </row>
+    <row r="686" spans="5:5">
       <c r="E686" s="43"/>
-      <c r="G686" s="43"/>
-    </row>
-    <row r="687" spans="5:7">
+    </row>
+    <row r="687" spans="5:5">
       <c r="E687" s="43"/>
-      <c r="G687" s="43"/>
-    </row>
-    <row r="688" spans="5:7">
+    </row>
+    <row r="688" spans="5:5">
       <c r="E688" s="43"/>
-      <c r="G688" s="43"/>
-    </row>
-    <row r="689" spans="5:7">
+    </row>
+    <row r="689" spans="5:5">
       <c r="E689" s="43"/>
-      <c r="G689" s="43"/>
-    </row>
-    <row r="690" spans="5:7">
+    </row>
+    <row r="690" spans="5:5">
       <c r="E690" s="43"/>
-      <c r="G690" s="43"/>
-    </row>
-    <row r="691" spans="5:7">
+    </row>
+    <row r="691" spans="5:5">
       <c r="E691" s="43"/>
-      <c r="G691" s="43"/>
-    </row>
-    <row r="692" spans="5:7">
+    </row>
+    <row r="692" spans="5:5">
       <c r="E692" s="43"/>
-      <c r="G692" s="43"/>
-    </row>
-    <row r="693" spans="5:7">
+    </row>
+    <row r="693" spans="5:5">
       <c r="E693" s="43"/>
-      <c r="G693" s="43"/>
-    </row>
-    <row r="694" spans="5:7">
+    </row>
+    <row r="694" spans="5:5">
       <c r="E694" s="43"/>
-      <c r="G694" s="43"/>
-    </row>
-    <row r="695" spans="5:7">
+    </row>
+    <row r="695" spans="5:5">
       <c r="E695" s="43"/>
-      <c r="G695" s="43"/>
-    </row>
-    <row r="696" spans="5:7">
+    </row>
+    <row r="696" spans="5:5">
       <c r="E696" s="43"/>
-      <c r="G696" s="43"/>
-    </row>
-    <row r="697" spans="5:7">
+    </row>
+    <row r="697" spans="5:5">
       <c r="E697" s="43"/>
-      <c r="G697" s="43"/>
-    </row>
-    <row r="698" spans="5:7">
+    </row>
+    <row r="698" spans="5:5">
       <c r="E698" s="43"/>
-      <c r="G698" s="43"/>
-    </row>
-    <row r="699" spans="5:7">
+    </row>
+    <row r="699" spans="5:5">
       <c r="E699" s="43"/>
-      <c r="G699" s="43"/>
-    </row>
-    <row r="700" spans="5:7">
+    </row>
+    <row r="700" spans="5:5">
       <c r="E700" s="43"/>
-      <c r="G700" s="43"/>
-    </row>
-    <row r="701" spans="5:7">
+    </row>
+    <row r="701" spans="5:5">
       <c r="E701" s="43"/>
-      <c r="G701" s="43"/>
-    </row>
-    <row r="702" spans="5:7">
+    </row>
+    <row r="702" spans="5:5">
       <c r="E702" s="43"/>
-      <c r="G702" s="43"/>
-    </row>
-    <row r="703" spans="5:7">
+    </row>
+    <row r="703" spans="5:5">
       <c r="E703" s="43"/>
-      <c r="G703" s="43"/>
-    </row>
-    <row r="704" spans="5:7">
+    </row>
+    <row r="704" spans="5:5">
       <c r="E704" s="43"/>
-      <c r="G704" s="43"/>
-    </row>
-    <row r="705" spans="5:7">
+    </row>
+    <row r="705" spans="5:5">
       <c r="E705" s="43"/>
-      <c r="G705" s="43"/>
-    </row>
-    <row r="706" spans="5:7">
+    </row>
+    <row r="706" spans="5:5">
       <c r="E706" s="43"/>
-      <c r="G706" s="43"/>
-    </row>
-    <row r="716" spans="5:7">
+    </row>
+    <row r="707" spans="5:5">
+      <c r="E707" s="43"/>
+    </row>
+    <row r="708" spans="5:5">
+      <c r="E708" s="43"/>
+    </row>
+    <row r="709" spans="5:5">
+      <c r="E709" s="43"/>
+    </row>
+    <row r="710" spans="5:5">
+      <c r="E710" s="43"/>
+    </row>
+    <row r="711" spans="5:5">
+      <c r="E711" s="43"/>
+    </row>
+    <row r="712" spans="5:5">
+      <c r="E712" s="43"/>
+    </row>
+    <row r="713" spans="5:5">
+      <c r="E713" s="43"/>
+    </row>
+    <row r="714" spans="5:5">
+      <c r="E714" s="43"/>
+    </row>
+    <row r="715" spans="5:5">
+      <c r="E715" s="43"/>
+    </row>
+    <row r="716" spans="5:5">
       <c r="E716" s="43"/>
     </row>
-    <row r="727" spans="7:7">
+    <row r="717" spans="5:5">
+      <c r="E717" s="43"/>
+    </row>
+    <row r="718" spans="5:5">
+      <c r="E718" s="43"/>
+    </row>
+    <row r="719" spans="5:5">
+      <c r="E719" s="43"/>
+    </row>
+    <row r="720" spans="5:5">
+      <c r="E720" s="43"/>
+    </row>
+    <row r="721" spans="5:7">
+      <c r="E721" s="43"/>
+    </row>
+    <row r="723" spans="5:7">
+      <c r="E723" s="43"/>
+      <c r="G723" s="43"/>
+    </row>
+    <row r="724" spans="5:7">
+      <c r="E724" s="43"/>
+      <c r="G724" s="43"/>
+    </row>
+    <row r="725" spans="5:7">
+      <c r="E725" s="43"/>
+      <c r="G725" s="43"/>
+    </row>
+    <row r="726" spans="5:7">
+      <c r="E726" s="43"/>
+      <c r="G726" s="43"/>
+    </row>
+    <row r="727" spans="5:7">
+      <c r="E727" s="43"/>
       <c r="G727" s="43"/>
     </row>
-    <row r="728" spans="7:7">
+    <row r="728" spans="5:7">
+      <c r="E728" s="43"/>
       <c r="G728" s="43"/>
     </row>
-    <row r="729" spans="7:7">
+    <row r="729" spans="5:7">
+      <c r="E729" s="43"/>
       <c r="G729" s="43"/>
     </row>
-    <row r="730" spans="7:7">
+    <row r="730" spans="5:7">
+      <c r="E730" s="43"/>
       <c r="G730" s="43"/>
     </row>
-    <row r="731" spans="7:7">
+    <row r="731" spans="5:7">
+      <c r="E731" s="43"/>
       <c r="G731" s="43"/>
     </row>
-    <row r="732" spans="7:7">
+    <row r="732" spans="5:7">
+      <c r="E732" s="43"/>
       <c r="G732" s="43"/>
     </row>
-    <row r="733" spans="7:7">
+    <row r="733" spans="5:7">
+      <c r="E733" s="43"/>
       <c r="G733" s="43"/>
     </row>
-    <row r="734" spans="7:7">
+    <row r="734" spans="5:7">
+      <c r="E734" s="43"/>
       <c r="G734" s="43"/>
     </row>
-    <row r="735" spans="7:7">
+    <row r="735" spans="5:7">
+      <c r="E735" s="43"/>
       <c r="G735" s="43"/>
     </row>
-    <row r="736" spans="7:7">
+    <row r="736" spans="5:7">
+      <c r="E736" s="43"/>
       <c r="G736" s="43"/>
     </row>
     <row r="737" spans="5:7">
+      <c r="E737" s="43"/>
       <c r="G737" s="43"/>
     </row>
     <row r="738" spans="5:7">
+      <c r="E738" s="43"/>
       <c r="G738" s="43"/>
     </row>
     <row r="739" spans="5:7">
+      <c r="E739" s="43"/>
       <c r="G739" s="43"/>
     </row>
     <row r="740" spans="5:7">
+      <c r="E740" s="43"/>
       <c r="G740" s="43"/>
     </row>
     <row r="741" spans="5:7">
+      <c r="E741" s="43"/>
       <c r="G741" s="43"/>
     </row>
     <row r="742" spans="5:7">
+      <c r="E742" s="43"/>
       <c r="G742" s="43"/>
     </row>
     <row r="743" spans="5:7">
+      <c r="E743" s="43"/>
       <c r="G743" s="43"/>
     </row>
     <row r="744" spans="5:7">
+      <c r="E744" s="43"/>
       <c r="G744" s="43"/>
     </row>
     <row r="745" spans="5:7">
+      <c r="E745" s="43"/>
       <c r="G745" s="43"/>
     </row>
     <row r="746" spans="5:7">
       <c r="E746" s="43"/>
       <c r="G746" s="43"/>
     </row>
+    <row r="747" spans="5:7">
+      <c r="E747" s="43"/>
+      <c r="G747" s="43"/>
+    </row>
+    <row r="748" spans="5:7">
+      <c r="E748" s="43"/>
+      <c r="G748" s="43"/>
+    </row>
+    <row r="749" spans="5:7">
+      <c r="E749" s="43"/>
+      <c r="G749" s="43"/>
+    </row>
+    <row r="750" spans="5:7">
+      <c r="E750" s="43"/>
+      <c r="G750" s="43"/>
+    </row>
+    <row r="751" spans="5:7">
+      <c r="E751" s="43"/>
+      <c r="G751" s="43"/>
+    </row>
+    <row r="752" spans="5:7">
+      <c r="E752" s="43"/>
+      <c r="G752" s="43"/>
+    </row>
+    <row r="753" spans="5:7">
+      <c r="E753" s="43"/>
+      <c r="G753" s="43"/>
+    </row>
+    <row r="754" spans="5:7">
+      <c r="E754" s="43"/>
+      <c r="G754" s="43"/>
+    </row>
+    <row r="755" spans="5:7">
+      <c r="E755" s="43"/>
+      <c r="G755" s="43"/>
+    </row>
     <row r="756" spans="5:7">
       <c r="E756" s="43"/>
+      <c r="G756" s="43"/>
+    </row>
+    <row r="757" spans="5:7">
+      <c r="E757" s="43"/>
+      <c r="G757" s="43"/>
+    </row>
+    <row r="758" spans="5:7">
+      <c r="E758" s="43"/>
+      <c r="G758" s="43"/>
+    </row>
+    <row r="759" spans="5:7">
+      <c r="E759" s="43"/>
+      <c r="G759" s="43"/>
+    </row>
+    <row r="760" spans="5:7">
+      <c r="E760" s="43"/>
+      <c r="G760" s="43"/>
+    </row>
+    <row r="761" spans="5:7">
+      <c r="E761" s="43"/>
+      <c r="G761" s="43"/>
+    </row>
+    <row r="762" spans="5:7">
+      <c r="E762" s="43"/>
+      <c r="G762" s="43"/>
+    </row>
+    <row r="763" spans="5:7">
+      <c r="E763" s="43"/>
+      <c r="G763" s="43"/>
+    </row>
+    <row r="764" spans="5:7">
+      <c r="E764" s="43"/>
+      <c r="G764" s="43"/>
+    </row>
+    <row r="765" spans="5:7">
+      <c r="E765" s="43"/>
+      <c r="G765" s="43"/>
+    </row>
+    <row r="766" spans="5:7">
+      <c r="E766" s="43"/>
+      <c r="G766" s="43"/>
     </row>
     <row r="767" spans="5:7">
       <c r="E767" s="43"/>
@@ -7383,283 +8820,195 @@
       <c r="E770" s="43"/>
       <c r="G770" s="43"/>
     </row>
-    <row r="771" spans="5:7">
-      <c r="E771" s="43"/>
-      <c r="G771" s="43"/>
-    </row>
-    <row r="772" spans="5:7">
-      <c r="E772" s="43"/>
-      <c r="G772" s="43"/>
-    </row>
-    <row r="773" spans="5:7">
-      <c r="E773" s="43"/>
-      <c r="G773" s="43"/>
-    </row>
-    <row r="774" spans="5:7">
-      <c r="E774" s="43"/>
-      <c r="G774" s="43"/>
-    </row>
-    <row r="775" spans="5:7">
-      <c r="E775" s="43"/>
-      <c r="G775" s="43"/>
-    </row>
-    <row r="776" spans="5:7">
-      <c r="E776" s="43"/>
-      <c r="G776" s="43"/>
-    </row>
-    <row r="777" spans="5:7">
-      <c r="E777" s="43"/>
-      <c r="G777" s="43"/>
-    </row>
-    <row r="778" spans="5:7">
-      <c r="E778" s="43"/>
-      <c r="G778" s="43"/>
-    </row>
-    <row r="779" spans="5:7">
-      <c r="E779" s="43"/>
-      <c r="G779" s="43"/>
-    </row>
     <row r="780" spans="5:7">
       <c r="E780" s="43"/>
-      <c r="G780" s="43"/>
-    </row>
-    <row r="781" spans="5:7">
-      <c r="E781" s="43"/>
-      <c r="G781" s="43"/>
-    </row>
-    <row r="782" spans="5:7">
-      <c r="E782" s="43"/>
-      <c r="G782" s="43"/>
-    </row>
-    <row r="784" spans="5:7">
-      <c r="E784" s="43"/>
-      <c r="G784" s="43"/>
-    </row>
-    <row r="785" spans="5:7">
-      <c r="E785" s="43"/>
-      <c r="G785" s="43"/>
-    </row>
-    <row r="786" spans="5:7">
-      <c r="E786" s="43"/>
-      <c r="G786" s="43"/>
-    </row>
-    <row r="787" spans="5:7">
-      <c r="E787" s="43"/>
-      <c r="G787" s="43"/>
-    </row>
-    <row r="788" spans="5:7">
-      <c r="E788" s="43"/>
-      <c r="G788" s="43"/>
-    </row>
-    <row r="789" spans="5:7">
-      <c r="E789" s="43"/>
-      <c r="G789" s="43"/>
-    </row>
-    <row r="790" spans="5:7">
-      <c r="E790" s="43"/>
-      <c r="G790" s="43"/>
-    </row>
-    <row r="791" spans="5:7">
-      <c r="E791" s="43"/>
+    </row>
+    <row r="791" spans="7:7">
       <c r="G791" s="43"/>
     </row>
-    <row r="792" spans="5:7">
-      <c r="E792" s="43"/>
+    <row r="792" spans="7:7">
       <c r="G792" s="43"/>
     </row>
-    <row r="793" spans="5:7">
-      <c r="E793" s="43"/>
+    <row r="793" spans="7:7">
       <c r="G793" s="43"/>
     </row>
-    <row r="794" spans="5:7">
-      <c r="E794" s="43"/>
+    <row r="794" spans="7:7">
       <c r="G794" s="43"/>
     </row>
-    <row r="795" spans="5:7">
-      <c r="E795" s="43"/>
+    <row r="795" spans="7:7">
       <c r="G795" s="43"/>
     </row>
-    <row r="796" spans="5:7">
-      <c r="E796" s="43"/>
+    <row r="796" spans="7:7">
       <c r="G796" s="43"/>
     </row>
-    <row r="797" spans="5:7">
-      <c r="E797" s="43"/>
+    <row r="797" spans="7:7">
       <c r="G797" s="43"/>
     </row>
-    <row r="800" spans="5:7">
-      <c r="E800" s="43"/>
-    </row>
-    <row r="804" spans="5:5">
-      <c r="E804" s="43"/>
-    </row>
-    <row r="805" spans="5:5">
-      <c r="E805" s="43"/>
-    </row>
-    <row r="806" spans="5:5">
-      <c r="E806" s="43"/>
-    </row>
-    <row r="807" spans="5:5">
-      <c r="E807" s="43"/>
-    </row>
-    <row r="810" spans="5:5">
+    <row r="798" spans="7:7">
+      <c r="G798" s="43"/>
+    </row>
+    <row r="799" spans="7:7">
+      <c r="G799" s="43"/>
+    </row>
+    <row r="800" spans="7:7">
+      <c r="G800" s="43"/>
+    </row>
+    <row r="801" spans="5:7">
+      <c r="G801" s="43"/>
+    </row>
+    <row r="802" spans="5:7">
+      <c r="G802" s="43"/>
+    </row>
+    <row r="803" spans="5:7">
+      <c r="G803" s="43"/>
+    </row>
+    <row r="804" spans="5:7">
+      <c r="G804" s="43"/>
+    </row>
+    <row r="805" spans="5:7">
+      <c r="G805" s="43"/>
+    </row>
+    <row r="806" spans="5:7">
+      <c r="G806" s="43"/>
+    </row>
+    <row r="807" spans="5:7">
+      <c r="G807" s="43"/>
+    </row>
+    <row r="808" spans="5:7">
+      <c r="G808" s="43"/>
+    </row>
+    <row r="809" spans="5:7">
+      <c r="G809" s="43"/>
+    </row>
+    <row r="810" spans="5:7">
       <c r="E810" s="43"/>
-    </row>
-    <row r="811" spans="5:5">
-      <c r="E811" s="43"/>
-    </row>
-    <row r="812" spans="5:5">
-      <c r="E812" s="43"/>
-    </row>
-    <row r="813" spans="5:5">
-      <c r="E813" s="43"/>
-    </row>
-    <row r="816" spans="5:5">
-      <c r="E816" s="43"/>
-    </row>
-    <row r="817" spans="5:5">
-      <c r="E817" s="43"/>
-    </row>
-    <row r="818" spans="5:5">
-      <c r="E818" s="43"/>
-    </row>
-    <row r="819" spans="5:5">
-      <c r="E819" s="43"/>
-    </row>
-    <row r="820" spans="5:5">
+      <c r="G810" s="43"/>
+    </row>
+    <row r="820" spans="5:7">
       <c r="E820" s="43"/>
     </row>
-    <row r="821" spans="5:5">
-      <c r="E821" s="43"/>
-    </row>
-    <row r="822" spans="5:5">
-      <c r="E822" s="43"/>
-    </row>
-    <row r="823" spans="5:5">
-      <c r="E823" s="43"/>
-    </row>
-    <row r="824" spans="5:5">
-      <c r="E824" s="43"/>
-    </row>
-    <row r="825" spans="5:5">
-      <c r="E825" s="43"/>
-    </row>
-    <row r="826" spans="5:5">
-      <c r="E826" s="43"/>
-    </row>
-    <row r="827" spans="5:5">
-      <c r="E827" s="43"/>
-    </row>
-    <row r="828" spans="5:5">
-      <c r="E828" s="43"/>
-    </row>
-    <row r="829" spans="5:5">
-      <c r="E829" s="43"/>
-    </row>
-    <row r="831" spans="5:5">
+    <row r="831" spans="5:7">
       <c r="E831" s="43"/>
-    </row>
-    <row r="832" spans="5:5">
+      <c r="G831" s="43"/>
+    </row>
+    <row r="832" spans="5:7">
       <c r="E832" s="43"/>
-    </row>
-    <row r="833" spans="5:5">
+      <c r="G832" s="43"/>
+    </row>
+    <row r="833" spans="5:7">
       <c r="E833" s="43"/>
-    </row>
-    <row r="834" spans="5:5">
+      <c r="G833" s="43"/>
+    </row>
+    <row r="834" spans="5:7">
       <c r="E834" s="43"/>
-    </row>
-    <row r="835" spans="5:5">
+      <c r="G834" s="43"/>
+    </row>
+    <row r="835" spans="5:7">
       <c r="E835" s="43"/>
-    </row>
-    <row r="836" spans="5:5">
+      <c r="G835" s="43"/>
+    </row>
+    <row r="836" spans="5:7">
       <c r="E836" s="43"/>
-    </row>
-    <row r="837" spans="5:5">
+      <c r="G836" s="43"/>
+    </row>
+    <row r="837" spans="5:7">
       <c r="E837" s="43"/>
-    </row>
-    <row r="838" spans="5:5">
+      <c r="G837" s="43"/>
+    </row>
+    <row r="838" spans="5:7">
       <c r="E838" s="43"/>
-    </row>
-    <row r="839" spans="5:5">
+      <c r="G838" s="43"/>
+    </row>
+    <row r="839" spans="5:7">
       <c r="E839" s="43"/>
-    </row>
-    <row r="840" spans="5:5">
+      <c r="G839" s="43"/>
+    </row>
+    <row r="840" spans="5:7">
       <c r="E840" s="43"/>
-    </row>
-    <row r="841" spans="5:5">
+      <c r="G840" s="43"/>
+    </row>
+    <row r="841" spans="5:7">
       <c r="E841" s="43"/>
-    </row>
-    <row r="842" spans="5:5">
+      <c r="G841" s="43"/>
+    </row>
+    <row r="842" spans="5:7">
       <c r="E842" s="43"/>
-    </row>
-    <row r="843" spans="5:5">
+      <c r="G842" s="43"/>
+    </row>
+    <row r="843" spans="5:7">
       <c r="E843" s="43"/>
-    </row>
-    <row r="844" spans="5:5">
+      <c r="G843" s="43"/>
+    </row>
+    <row r="844" spans="5:7">
       <c r="E844" s="43"/>
-    </row>
-    <row r="846" spans="5:5">
+      <c r="G844" s="43"/>
+    </row>
+    <row r="845" spans="5:7">
+      <c r="E845" s="43"/>
+      <c r="G845" s="43"/>
+    </row>
+    <row r="846" spans="5:7">
       <c r="E846" s="43"/>
-    </row>
-    <row r="847" spans="5:5">
-      <c r="E847" s="43"/>
-    </row>
-    <row r="848" spans="5:5">
+      <c r="G846" s="43"/>
+    </row>
+    <row r="848" spans="5:7">
       <c r="E848" s="43"/>
-    </row>
-    <row r="849" spans="5:5">
+      <c r="G848" s="43"/>
+    </row>
+    <row r="849" spans="5:7">
       <c r="E849" s="43"/>
-    </row>
-    <row r="850" spans="5:5">
+      <c r="G849" s="43"/>
+    </row>
+    <row r="850" spans="5:7">
       <c r="E850" s="43"/>
-    </row>
-    <row r="851" spans="5:5">
+      <c r="G850" s="43"/>
+    </row>
+    <row r="851" spans="5:7">
       <c r="E851" s="43"/>
-    </row>
-    <row r="852" spans="5:5">
+      <c r="G851" s="43"/>
+    </row>
+    <row r="852" spans="5:7">
       <c r="E852" s="43"/>
-    </row>
-    <row r="853" spans="5:5">
+      <c r="G852" s="43"/>
+    </row>
+    <row r="853" spans="5:7">
       <c r="E853" s="43"/>
-    </row>
-    <row r="854" spans="5:5">
+      <c r="G853" s="43"/>
+    </row>
+    <row r="854" spans="5:7">
       <c r="E854" s="43"/>
-    </row>
-    <row r="855" spans="5:5">
+      <c r="G854" s="43"/>
+    </row>
+    <row r="855" spans="5:7">
       <c r="E855" s="43"/>
-    </row>
-    <row r="856" spans="5:5">
+      <c r="G855" s="43"/>
+    </row>
+    <row r="856" spans="5:7">
       <c r="E856" s="43"/>
-    </row>
-    <row r="857" spans="5:5">
+      <c r="G856" s="43"/>
+    </row>
+    <row r="857" spans="5:7">
       <c r="E857" s="43"/>
-    </row>
-    <row r="858" spans="5:5">
+      <c r="G857" s="43"/>
+    </row>
+    <row r="858" spans="5:7">
       <c r="E858" s="43"/>
-    </row>
-    <row r="859" spans="5:5">
+      <c r="G858" s="43"/>
+    </row>
+    <row r="859" spans="5:7">
       <c r="E859" s="43"/>
-    </row>
-    <row r="861" spans="5:5">
+      <c r="G859" s="43"/>
+    </row>
+    <row r="860" spans="5:7">
+      <c r="E860" s="43"/>
+      <c r="G860" s="43"/>
+    </row>
+    <row r="861" spans="5:7">
       <c r="E861" s="43"/>
-    </row>
-    <row r="862" spans="5:5">
-      <c r="E862" s="43"/>
-    </row>
-    <row r="863" spans="5:5">
-      <c r="E863" s="43"/>
-    </row>
-    <row r="864" spans="5:5">
+      <c r="G861" s="43"/>
+    </row>
+    <row r="864" spans="5:7">
       <c r="E864" s="43"/>
-    </row>
-    <row r="865" spans="5:5">
-      <c r="E865" s="43"/>
-    </row>
-    <row r="866" spans="5:5">
-      <c r="E866" s="43"/>
-    </row>
-    <row r="867" spans="5:5">
-      <c r="E867" s="43"/>
     </row>
     <row r="868" spans="5:5">
       <c r="E868" s="43"/>
@@ -7673,12 +9022,6 @@
     <row r="871" spans="5:5">
       <c r="E871" s="43"/>
     </row>
-    <row r="872" spans="5:5">
-      <c r="E872" s="43"/>
-    </row>
-    <row r="873" spans="5:5">
-      <c r="E873" s="43"/>
-    </row>
     <row r="874" spans="5:5">
       <c r="E874" s="43"/>
     </row>
@@ -7691,12 +9034,6 @@
     <row r="877" spans="5:5">
       <c r="E877" s="43"/>
     </row>
-    <row r="878" spans="5:5">
-      <c r="E878" s="43"/>
-    </row>
-    <row r="879" spans="5:5">
-      <c r="E879" s="43"/>
-    </row>
     <row r="880" spans="5:5">
       <c r="E880" s="43"/>
     </row>
@@ -7724,250 +9061,433 @@
     <row r="888" spans="5:5">
       <c r="E888" s="43"/>
     </row>
+    <row r="889" spans="5:5">
+      <c r="E889" s="43"/>
+    </row>
     <row r="890" spans="5:5">
       <c r="E890" s="43"/>
     </row>
+    <row r="891" spans="5:5">
+      <c r="E891" s="43"/>
+    </row>
+    <row r="892" spans="5:5">
+      <c r="E892" s="43"/>
+    </row>
+    <row r="893" spans="5:5">
+      <c r="E893" s="43"/>
+    </row>
+    <row r="895" spans="5:5">
+      <c r="E895" s="43"/>
+    </row>
+    <row r="896" spans="5:5">
+      <c r="E896" s="43"/>
+    </row>
+    <row r="897" spans="5:5">
+      <c r="E897" s="43"/>
+    </row>
+    <row r="898" spans="5:5">
+      <c r="E898" s="43"/>
+    </row>
+    <row r="899" spans="5:5">
+      <c r="E899" s="43"/>
+    </row>
+    <row r="900" spans="5:5">
+      <c r="E900" s="43"/>
+    </row>
+    <row r="901" spans="5:5">
+      <c r="E901" s="43"/>
+    </row>
+    <row r="902" spans="5:5">
+      <c r="E902" s="43"/>
+    </row>
     <row r="903" spans="5:5">
       <c r="E903" s="43"/>
     </row>
+    <row r="904" spans="5:5">
+      <c r="E904" s="43"/>
+    </row>
+    <row r="905" spans="5:5">
+      <c r="E905" s="43"/>
+    </row>
+    <row r="906" spans="5:5">
+      <c r="E906" s="43"/>
+    </row>
+    <row r="907" spans="5:5">
+      <c r="E907" s="43"/>
+    </row>
+    <row r="908" spans="5:5">
+      <c r="E908" s="43"/>
+    </row>
+    <row r="910" spans="5:5">
+      <c r="E910" s="43"/>
+    </row>
+    <row r="911" spans="5:5">
+      <c r="E911" s="43"/>
+    </row>
+    <row r="912" spans="5:5">
+      <c r="E912" s="43"/>
+    </row>
+    <row r="913" spans="5:5">
+      <c r="E913" s="43"/>
+    </row>
+    <row r="914" spans="5:5">
+      <c r="E914" s="43"/>
+    </row>
+    <row r="915" spans="5:5">
+      <c r="E915" s="43"/>
+    </row>
+    <row r="916" spans="5:5">
+      <c r="E916" s="43"/>
+    </row>
     <row r="917" spans="5:5">
       <c r="E917" s="43"/>
     </row>
+    <row r="918" spans="5:5">
+      <c r="E918" s="43"/>
+    </row>
     <row r="919" spans="5:5">
       <c r="E919" s="43"/>
     </row>
+    <row r="920" spans="5:5">
+      <c r="E920" s="43"/>
+    </row>
+    <row r="921" spans="5:5">
+      <c r="E921" s="43"/>
+    </row>
+    <row r="922" spans="5:5">
+      <c r="E922" s="43"/>
+    </row>
+    <row r="923" spans="5:5">
+      <c r="E923" s="43"/>
+    </row>
+    <row r="925" spans="5:5">
+      <c r="E925" s="43"/>
+    </row>
+    <row r="926" spans="5:5">
+      <c r="E926" s="43"/>
+    </row>
+    <row r="927" spans="5:5">
+      <c r="E927" s="43"/>
+    </row>
+    <row r="928" spans="5:5">
+      <c r="E928" s="43"/>
+    </row>
+    <row r="929" spans="5:5">
+      <c r="E929" s="43"/>
+    </row>
+    <row r="930" spans="5:5">
+      <c r="E930" s="43"/>
+    </row>
+    <row r="931" spans="5:5">
+      <c r="E931" s="43"/>
+    </row>
     <row r="932" spans="5:5">
       <c r="E932" s="43"/>
     </row>
+    <row r="933" spans="5:5">
+      <c r="E933" s="43"/>
+    </row>
+    <row r="934" spans="5:5">
+      <c r="E934" s="43"/>
+    </row>
+    <row r="935" spans="5:5">
+      <c r="E935" s="43"/>
+    </row>
+    <row r="936" spans="5:5">
+      <c r="E936" s="43"/>
+    </row>
+    <row r="937" spans="5:5">
+      <c r="E937" s="43"/>
+    </row>
+    <row r="938" spans="5:5">
+      <c r="E938" s="43"/>
+    </row>
+    <row r="939" spans="5:5">
+      <c r="E939" s="43"/>
+    </row>
+    <row r="940" spans="5:5">
+      <c r="E940" s="43"/>
+    </row>
+    <row r="941" spans="5:5">
+      <c r="E941" s="43"/>
+    </row>
+    <row r="942" spans="5:5">
+      <c r="E942" s="43"/>
+    </row>
+    <row r="943" spans="5:5">
+      <c r="E943" s="43"/>
+    </row>
+    <row r="944" spans="5:5">
+      <c r="E944" s="43"/>
+    </row>
+    <row r="945" spans="5:5">
+      <c r="E945" s="43"/>
+    </row>
     <row r="946" spans="5:5">
       <c r="E946" s="43"/>
     </row>
+    <row r="947" spans="5:5">
+      <c r="E947" s="43"/>
+    </row>
     <row r="948" spans="5:5">
       <c r="E948" s="43"/>
     </row>
-    <row r="961" spans="5:5">
-      <c r="E961" s="43"/>
-    </row>
-    <row r="975" spans="5:5">
-      <c r="E975" s="43"/>
-    </row>
-    <row r="978" spans="5:5">
-      <c r="E978" s="43"/>
-    </row>
-    <row r="979" spans="5:5">
-      <c r="E979" s="43"/>
-    </row>
-    <row r="980" spans="5:5">
-      <c r="E980" s="43"/>
+    <row r="949" spans="5:5">
+      <c r="E949" s="43"/>
+    </row>
+    <row r="950" spans="5:5">
+      <c r="E950" s="43"/>
+    </row>
+    <row r="951" spans="5:5">
+      <c r="E951" s="43"/>
+    </row>
+    <row r="952" spans="5:5">
+      <c r="E952" s="43"/>
+    </row>
+    <row r="954" spans="5:5">
+      <c r="E954" s="43"/>
+    </row>
+    <row r="967" spans="5:5">
+      <c r="E967" s="43"/>
     </row>
     <row r="981" spans="5:5">
       <c r="E981" s="43"/>
     </row>
-    <row r="982" spans="5:5">
-      <c r="E982" s="43"/>
-    </row>
     <row r="983" spans="5:5">
       <c r="E983" s="43"/>
     </row>
-    <row r="984" spans="5:5">
-      <c r="E984" s="43"/>
-    </row>
-    <row r="985" spans="5:5">
-      <c r="E985" s="43"/>
-    </row>
-    <row r="986" spans="5:5">
-      <c r="E986" s="43"/>
-    </row>
-    <row r="987" spans="5:5">
-      <c r="E987" s="43"/>
-    </row>
-    <row r="988" spans="5:5">
-      <c r="E988" s="43"/>
-    </row>
-    <row r="989" spans="5:5">
-      <c r="E989" s="43"/>
-    </row>
-    <row r="990" spans="5:5">
-      <c r="E990" s="43"/>
-    </row>
-    <row r="991" spans="5:5">
-      <c r="E991" s="43"/>
-    </row>
-    <row r="1000" spans="5:5">
-      <c r="E1000" s="43"/>
-    </row>
-    <row r="1017" spans="5:5">
-      <c r="E1017" s="43"/>
-    </row>
-    <row r="1034" spans="5:5">
-      <c r="E1034" s="43"/>
+    <row r="996" spans="5:5">
+      <c r="E996" s="43"/>
+    </row>
+    <row r="1010" spans="5:5">
+      <c r="E1010" s="43"/>
+    </row>
+    <row r="1012" spans="5:5">
+      <c r="E1012" s="43"/>
+    </row>
+    <row r="1025" spans="5:5">
+      <c r="E1025" s="43"/>
+    </row>
+    <row r="1039" spans="5:5">
+      <c r="E1039" s="43"/>
+    </row>
+    <row r="1042" spans="5:5">
+      <c r="E1042" s="43"/>
+    </row>
+    <row r="1043" spans="5:5">
+      <c r="E1043" s="43"/>
+    </row>
+    <row r="1044" spans="5:5">
+      <c r="E1044" s="43"/>
+    </row>
+    <row r="1045" spans="5:5">
+      <c r="E1045" s="43"/>
+    </row>
+    <row r="1046" spans="5:5">
+      <c r="E1046" s="43"/>
+    </row>
+    <row r="1047" spans="5:5">
+      <c r="E1047" s="43"/>
+    </row>
+    <row r="1048" spans="5:5">
+      <c r="E1048" s="43"/>
+    </row>
+    <row r="1049" spans="5:5">
+      <c r="E1049" s="43"/>
+    </row>
+    <row r="1050" spans="5:5">
+      <c r="E1050" s="43"/>
     </row>
     <row r="1051" spans="5:5">
       <c r="E1051" s="43"/>
     </row>
-    <row r="1068" spans="5:5">
-      <c r="E1068" s="43"/>
-    </row>
-    <row r="1085" spans="5:5">
-      <c r="E1085" s="43"/>
-    </row>
-    <row r="1102" spans="5:5">
-      <c r="E1102" s="43"/>
-    </row>
-    <row r="1119" spans="5:5">
-      <c r="E1119" s="43"/>
-    </row>
-    <row r="1136" spans="5:5">
-      <c r="E1136" s="43"/>
-    </row>
-    <row r="1153" spans="5:5">
-      <c r="E1153" s="43"/>
-    </row>
-    <row r="1170" spans="5:5">
-      <c r="E1170" s="43"/>
-    </row>
-    <row r="1187" spans="5:5">
-      <c r="E1187" s="43"/>
-    </row>
-    <row r="1204" spans="5:5">
-      <c r="E1204" s="43"/>
-    </row>
-    <row r="1221" spans="5:5">
-      <c r="E1221" s="43"/>
-    </row>
-    <row r="1238" spans="5:5">
-      <c r="E1238" s="43"/>
-    </row>
-    <row r="1255" spans="5:5">
-      <c r="E1255" s="43"/>
-    </row>
-    <row r="1265" spans="5:7">
-      <c r="G1265" s="43"/>
-    </row>
-    <row r="1266" spans="5:7">
-      <c r="G1266" s="43"/>
-    </row>
-    <row r="1267" spans="5:7">
-      <c r="G1267" s="43"/>
-    </row>
-    <row r="1268" spans="5:7">
-      <c r="G1268" s="43"/>
-    </row>
-    <row r="1269" spans="5:7">
-      <c r="G1269" s="43"/>
-    </row>
-    <row r="1270" spans="5:7">
-      <c r="G1270" s="43"/>
-    </row>
-    <row r="1271" spans="5:7">
-      <c r="G1271" s="43"/>
-    </row>
-    <row r="1272" spans="5:7">
-      <c r="G1272" s="43"/>
-    </row>
-    <row r="1273" spans="5:7">
-      <c r="G1273" s="43"/>
-    </row>
-    <row r="1274" spans="5:7">
-      <c r="G1274" s="43"/>
-    </row>
-    <row r="1275" spans="5:7">
-      <c r="G1275" s="43"/>
-    </row>
-    <row r="1276" spans="5:7">
-      <c r="G1276" s="43"/>
-    </row>
-    <row r="1277" spans="5:7">
-      <c r="G1277" s="43"/>
-    </row>
-    <row r="1278" spans="5:7">
-      <c r="E1278" s="43"/>
-      <c r="G1278" s="43"/>
-    </row>
-    <row r="1299" spans="5:5">
-      <c r="E1299" s="43"/>
-    </row>
-    <row r="1314" spans="5:5">
-      <c r="E1314" s="43"/>
-    </row>
-    <row r="1329" spans="5:5">
-      <c r="E1329" s="43"/>
-    </row>
-    <row r="1344" spans="5:5">
-      <c r="E1344" s="43"/>
-    </row>
-    <row r="1360" spans="5:5">
-      <c r="E1360" s="43"/>
-    </row>
-    <row r="1368" spans="5:5">
-      <c r="E1368" s="43"/>
-    </row>
-    <row r="1377" spans="7:7">
-      <c r="G1377" s="43"/>
-    </row>
-    <row r="1378" spans="7:7">
-      <c r="G1378" s="43"/>
-    </row>
-    <row r="1379" spans="7:7">
-      <c r="G1379" s="43"/>
-    </row>
-    <row r="1380" spans="7:7">
-      <c r="G1380" s="43"/>
-    </row>
-    <row r="1381" spans="7:7">
-      <c r="G1381" s="43"/>
-    </row>
-    <row r="1382" spans="7:7">
-      <c r="G1382" s="43"/>
-    </row>
-    <row r="1383" spans="7:7">
-      <c r="G1383" s="43"/>
-    </row>
-    <row r="1384" spans="7:7">
-      <c r="G1384" s="43"/>
-    </row>
-    <row r="1385" spans="7:7">
-      <c r="G1385" s="43"/>
-    </row>
-    <row r="1386" spans="7:7">
-      <c r="G1386" s="43"/>
-    </row>
-    <row r="1387" spans="7:7">
-      <c r="G1387" s="43"/>
-    </row>
-    <row r="1388" spans="7:7">
-      <c r="G1388" s="43"/>
-    </row>
-    <row r="1389" spans="7:7">
-      <c r="G1389" s="43"/>
-    </row>
-    <row r="1390" spans="7:7">
-      <c r="G1390" s="43"/>
-    </row>
-    <row r="1391" spans="7:7">
-      <c r="G1391" s="43"/>
-    </row>
-    <row r="1392" spans="7:7">
-      <c r="G1392" s="43"/>
-    </row>
-    <row r="1393" spans="5:7">
-      <c r="G1393" s="43"/>
-    </row>
-    <row r="1394" spans="5:7">
-      <c r="G1394" s="43"/>
-    </row>
-    <row r="1395" spans="5:7">
-      <c r="G1395" s="43"/>
-    </row>
-    <row r="1396" spans="5:7">
-      <c r="E1396" s="43"/>
-      <c r="G1396" s="43"/>
-    </row>
-    <row r="1404" spans="5:7">
-      <c r="E1404" s="43"/>
-    </row>
-    <row r="1411" spans="5:5">
-      <c r="E1411" s="43"/>
+    <row r="1052" spans="5:5">
+      <c r="E1052" s="43"/>
+    </row>
+    <row r="1053" spans="5:5">
+      <c r="E1053" s="43"/>
+    </row>
+    <row r="1054" spans="5:5">
+      <c r="E1054" s="43"/>
+    </row>
+    <row r="1055" spans="5:5">
+      <c r="E1055" s="43"/>
+    </row>
+    <row r="1064" spans="5:5">
+      <c r="E1064" s="43"/>
+    </row>
+    <row r="1081" spans="5:5">
+      <c r="E1081" s="43"/>
+    </row>
+    <row r="1098" spans="5:5">
+      <c r="E1098" s="43"/>
+    </row>
+    <row r="1115" spans="5:5">
+      <c r="E1115" s="43"/>
+    </row>
+    <row r="1132" spans="5:5">
+      <c r="E1132" s="43"/>
+    </row>
+    <row r="1149" spans="5:5">
+      <c r="E1149" s="43"/>
+    </row>
+    <row r="1166" spans="5:5">
+      <c r="E1166" s="43"/>
+    </row>
+    <row r="1183" spans="5:5">
+      <c r="E1183" s="43"/>
+    </row>
+    <row r="1200" spans="5:5">
+      <c r="E1200" s="43"/>
+    </row>
+    <row r="1217" spans="5:5">
+      <c r="E1217" s="43"/>
+    </row>
+    <row r="1234" spans="5:5">
+      <c r="E1234" s="43"/>
+    </row>
+    <row r="1251" spans="5:5">
+      <c r="E1251" s="43"/>
+    </row>
+    <row r="1268" spans="5:5">
+      <c r="E1268" s="43"/>
+    </row>
+    <row r="1285" spans="5:5">
+      <c r="E1285" s="43"/>
+    </row>
+    <row r="1302" spans="5:5">
+      <c r="E1302" s="43"/>
+    </row>
+    <row r="1319" spans="5:5">
+      <c r="E1319" s="43"/>
+    </row>
+    <row r="1329" spans="5:7">
+      <c r="G1329" s="43"/>
+    </row>
+    <row r="1330" spans="5:7">
+      <c r="G1330" s="43"/>
+    </row>
+    <row r="1331" spans="5:7">
+      <c r="G1331" s="43"/>
+    </row>
+    <row r="1332" spans="5:7">
+      <c r="G1332" s="43"/>
+    </row>
+    <row r="1333" spans="5:7">
+      <c r="G1333" s="43"/>
+    </row>
+    <row r="1334" spans="5:7">
+      <c r="G1334" s="43"/>
+    </row>
+    <row r="1335" spans="5:7">
+      <c r="G1335" s="43"/>
+    </row>
+    <row r="1336" spans="5:7">
+      <c r="G1336" s="43"/>
+    </row>
+    <row r="1337" spans="5:7">
+      <c r="G1337" s="43"/>
+    </row>
+    <row r="1338" spans="5:7">
+      <c r="G1338" s="43"/>
+    </row>
+    <row r="1339" spans="5:7">
+      <c r="G1339" s="43"/>
+    </row>
+    <row r="1340" spans="5:7">
+      <c r="G1340" s="43"/>
+    </row>
+    <row r="1341" spans="5:7">
+      <c r="G1341" s="43"/>
+    </row>
+    <row r="1342" spans="5:7">
+      <c r="E1342" s="43"/>
+      <c r="G1342" s="43"/>
+    </row>
+    <row r="1363" spans="5:5">
+      <c r="E1363" s="43"/>
+    </row>
+    <row r="1378" spans="5:5">
+      <c r="E1378" s="43"/>
+    </row>
+    <row r="1393" spans="5:5">
+      <c r="E1393" s="43"/>
+    </row>
+    <row r="1408" spans="5:5">
+      <c r="E1408" s="43"/>
+    </row>
+    <row r="1424" spans="5:5">
+      <c r="E1424" s="43"/>
+    </row>
+    <row r="1432" spans="5:5">
+      <c r="E1432" s="43"/>
+    </row>
+    <row r="1441" spans="7:7">
+      <c r="G1441" s="43"/>
+    </row>
+    <row r="1442" spans="7:7">
+      <c r="G1442" s="43"/>
+    </row>
+    <row r="1443" spans="7:7">
+      <c r="G1443" s="43"/>
+    </row>
+    <row r="1444" spans="7:7">
+      <c r="G1444" s="43"/>
+    </row>
+    <row r="1445" spans="7:7">
+      <c r="G1445" s="43"/>
+    </row>
+    <row r="1446" spans="7:7">
+      <c r="G1446" s="43"/>
+    </row>
+    <row r="1447" spans="7:7">
+      <c r="G1447" s="43"/>
+    </row>
+    <row r="1448" spans="7:7">
+      <c r="G1448" s="43"/>
+    </row>
+    <row r="1449" spans="7:7">
+      <c r="G1449" s="43"/>
+    </row>
+    <row r="1450" spans="7:7">
+      <c r="G1450" s="43"/>
+    </row>
+    <row r="1451" spans="7:7">
+      <c r="G1451" s="43"/>
+    </row>
+    <row r="1452" spans="7:7">
+      <c r="G1452" s="43"/>
+    </row>
+    <row r="1453" spans="7:7">
+      <c r="G1453" s="43"/>
+    </row>
+    <row r="1454" spans="7:7">
+      <c r="G1454" s="43"/>
+    </row>
+    <row r="1455" spans="7:7">
+      <c r="G1455" s="43"/>
+    </row>
+    <row r="1456" spans="7:7">
+      <c r="G1456" s="43"/>
+    </row>
+    <row r="1457" spans="5:7">
+      <c r="G1457" s="43"/>
+    </row>
+    <row r="1458" spans="5:7">
+      <c r="G1458" s="43"/>
+    </row>
+    <row r="1459" spans="5:7">
+      <c r="G1459" s="43"/>
+    </row>
+    <row r="1460" spans="5:7">
+      <c r="E1460" s="43"/>
+      <c r="G1460" s="43"/>
+    </row>
+    <row r="1468" spans="5:7">
+      <c r="E1468" s="43"/>
+    </row>
+    <row r="1475" spans="5:5">
+      <c r="E1475" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14607,13 +16127,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" t="s">
         <v>375</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6850B4-82CC-4247-9DDE-1F39C6F259DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6CF5A-229C-4202-88C3-C5001D3F4BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="673">
   <si>
     <t>Name</t>
   </si>
@@ -1739,6 +1739,393 @@
       </rPr>
       <t>2025-October-26</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U4_24_PAL.png</t>
+  </si>
+  <si>
+    <t>PHI0</t>
+  </si>
+  <si>
+    <t>This is a clock INPUT (CPU recieves this signal from U32?)</t>
+  </si>
+  <si>
+    <t>RDY</t>
+  </si>
+  <si>
+    <t>/NMI</t>
+  </si>
+  <si>
+    <t>AEC</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>This is a clock OUTPUT (CPU generates this signal)</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U5_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_19_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_20_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_21_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_22_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_23_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_24_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_25_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_26_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_27_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_28_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_29_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_30_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_31_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_32_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_33_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_34_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_35_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_36_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_37_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_38_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_39_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U7_40_PAL.png</t>
+  </si>
+  <si>
+    <t>985.237 kHz</t>
+  </si>
+  <si>
+    <t>985.240 kHz</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>/WE</t>
+  </si>
+  <si>
+    <t>DQ4</t>
+  </si>
+  <si>
+    <t>DQ3</t>
+  </si>
+  <si>
+    <t>DQ2</t>
+  </si>
+  <si>
+    <t>DQ1</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U6_18_PAL.png</t>
   </si>
 </sst>
 </file>
@@ -2327,7 +2714,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -4887,13 +5274,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I1475"/>
+  <dimension ref="A1:I1581"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
+      <selection pane="bottomRight" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7254,1195 +7641,3172 @@
         <v>240</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="72">
+    <row r="126" spans="1:7">
       <c r="A126" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C126" s="32">
+        <v>1</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C127" s="32">
+        <v>2</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C128" s="32">
+        <v>3</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="32">
+        <v>4</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" s="32">
+        <v>5</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" s="32">
+        <v>6</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="32">
+        <v>7</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="32">
+        <v>8</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C134" s="32">
+        <v>9</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="32">
+        <v>10</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="32">
+        <v>11</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" s="32">
+        <v>12</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="32">
+        <v>13</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" s="32">
+        <v>14</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="32">
+        <v>15</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="32">
+        <v>16</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="32">
+        <v>17</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="32">
+        <v>18</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" s="32">
+        <v>19</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="32">
+        <v>20</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" s="32">
+        <v>21</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" s="32">
+        <v>22</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" s="32">
+        <v>23</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="32">
+        <v>24</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="72">
+      <c r="A150" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="14" t="s">
+      <c r="B150" s="18"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F126" s="14" t="s">
+      <c r="F150" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="28.8">
-      <c r="A127" s="47" t="s">
+    <row r="151" spans="1:7">
+      <c r="A151" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" s="32">
+        <v>1</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C152" s="32">
+        <v>2</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C153" s="32">
+        <v>3</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C154" s="32">
+        <v>4</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C155" s="32">
+        <v>5</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C156" s="32">
+        <v>6</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C157" s="32">
+        <v>7</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C158" s="32">
+        <v>8</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C159" s="32">
+        <v>9</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" s="32">
+        <v>10</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C161" s="32">
+        <v>11</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C162" s="32">
+        <v>12</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C163" s="32">
+        <v>13</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C164" s="32">
+        <v>14</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C165" s="32">
+        <v>15</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C166" s="32">
+        <v>16</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C167" s="32">
+        <v>17</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C168" s="32">
+        <v>18</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C169" s="32">
+        <v>19</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C170" s="32">
+        <v>20</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C171" s="32">
+        <v>21</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C172" s="32">
+        <v>22</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C173" s="32">
+        <v>23</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C174" s="32">
+        <v>24</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="28.8">
+      <c r="A175" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B127" s="18"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="14" t="s">
+      <c r="B175" s="18"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F127" s="14" t="s">
+      <c r="F175" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="16" t="s">
+    <row r="176" spans="1:7">
+      <c r="A176" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B176" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C176" s="32">
+        <v>1</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C177" s="32">
+        <v>2</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C178" s="32">
+        <v>3</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C179" s="32">
+        <v>4</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C180" s="32">
+        <v>5</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C181" s="32">
+        <v>6</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C182" s="32">
+        <v>7</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C183" s="32">
+        <v>8</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C184" s="32">
+        <v>9</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C185" s="32">
+        <v>10</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C186" s="32">
+        <v>11</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C187" s="32">
+        <v>12</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C188" s="32">
+        <v>13</v>
+      </c>
+      <c r="D188" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C189" s="32">
+        <v>14</v>
+      </c>
+      <c r="D189" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C190" s="32">
+        <v>15</v>
+      </c>
+      <c r="D190" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C191" s="32">
+        <v>16</v>
+      </c>
+      <c r="D191" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C192" s="32">
+        <v>17</v>
+      </c>
+      <c r="D192" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C193" s="32">
+        <v>18</v>
+      </c>
+      <c r="D193" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="14" t="s">
+      <c r="B194" s="16"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="F194" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="16" t="s">
+    <row r="195" spans="1:7">
+      <c r="A195" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C195" s="32">
+        <v>1</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C196" s="32">
+        <v>2</v>
+      </c>
+      <c r="D196" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B197" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C197" s="32">
+        <v>3</v>
+      </c>
+      <c r="D197" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C198" s="32">
+        <v>4</v>
+      </c>
+      <c r="D198" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C199" s="32">
+        <v>5</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C200" s="32">
+        <v>6</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C201" s="32">
+        <v>7</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C202" s="32">
+        <v>8</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C203" s="32">
+        <v>9</v>
+      </c>
+      <c r="D203" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C204" s="32">
+        <v>10</v>
+      </c>
+      <c r="D204" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B205" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C205" s="32">
+        <v>11</v>
+      </c>
+      <c r="D205" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F205" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C206" s="32">
+        <v>12</v>
+      </c>
+      <c r="D206" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B207" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C207" s="32">
+        <v>13</v>
+      </c>
+      <c r="D207" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C208" s="32">
+        <v>14</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C209" s="32">
+        <v>15</v>
+      </c>
+      <c r="D209" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C210" s="32">
+        <v>16</v>
+      </c>
+      <c r="D210" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B211" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C211" s="32">
+        <v>17</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C212" s="32">
+        <v>18</v>
+      </c>
+      <c r="D212" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C213" s="32">
+        <v>19</v>
+      </c>
+      <c r="D213" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C214" s="32">
+        <v>20</v>
+      </c>
+      <c r="D214" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F214" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C215" s="32">
+        <v>21</v>
+      </c>
+      <c r="D215" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C216" s="32">
+        <v>22</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C217" s="32">
+        <v>23</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C218" s="32">
+        <v>24</v>
+      </c>
+      <c r="D218" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C219" s="32">
+        <v>25</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B220" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C220" s="32">
         <v>26</v>
       </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="14" t="s">
+      <c r="D220" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C221" s="32">
+        <v>27</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B222" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C222" s="32">
+        <v>28</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C223" s="32">
+        <v>29</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F223" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C224" s="32">
+        <v>30</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F224" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C225" s="32">
+        <v>31</v>
+      </c>
+      <c r="D225" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C226" s="32">
+        <v>32</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C227" s="32">
+        <v>33</v>
+      </c>
+      <c r="D227" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F227" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C228" s="32">
+        <v>34</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F228" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C229" s="32">
+        <v>35</v>
+      </c>
+      <c r="D229" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F229" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C230" s="32">
+        <v>36</v>
+      </c>
+      <c r="D230" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F230" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C231" s="32">
+        <v>37</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F231" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C232" s="32">
+        <v>38</v>
+      </c>
+      <c r="D232" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F232" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C233" s="32">
+        <v>39</v>
+      </c>
+      <c r="D233" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F233" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C234" s="32">
+        <v>40</v>
+      </c>
+      <c r="D234" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B235" s="16"/>
+      <c r="C235" s="32"/>
+      <c r="D235" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F129" s="14" t="s">
+      <c r="F235" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G235" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="43.2">
-      <c r="A130" s="16" t="s">
+    <row r="236" spans="1:7" ht="43.2">
+      <c r="A236" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="14" t="s">
+      <c r="B236" s="16"/>
+      <c r="C236" s="32"/>
+      <c r="D236" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F236" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G236" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="43.2">
-      <c r="A131" s="16" t="s">
+    <row r="237" spans="1:7" ht="43.2">
+      <c r="A237" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="14" t="s">
+      <c r="B237" s="16"/>
+      <c r="C237" s="32"/>
+      <c r="D237" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F237" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G237" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="14" t="s">
+    <row r="238" spans="1:7">
+      <c r="A238" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="14" t="s">
+      <c r="B238" s="14"/>
+      <c r="C238" s="37"/>
+      <c r="D238" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F132" s="14" t="s">
+      <c r="F238" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G238" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="14" t="s">
+    <row r="239" spans="1:7">
+      <c r="A239" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="14" t="s">
+      <c r="B239" s="14"/>
+      <c r="C239" s="37"/>
+      <c r="D239" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="F239" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G239" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="14" t="s">
+    <row r="240" spans="1:7">
+      <c r="A240" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="37"/>
-      <c r="D134" s="14" t="s">
+      <c r="B240" s="14"/>
+      <c r="C240" s="37"/>
+      <c r="D240" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F134" s="14" t="s">
+      <c r="F240" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G240" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="14" t="s">
+    <row r="241" spans="1:7">
+      <c r="A241" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="14" t="s">
+      <c r="B241" s="14"/>
+      <c r="C241" s="37"/>
+      <c r="D241" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F135" s="14" t="s">
+      <c r="F241" s="14" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="72">
-      <c r="A136" s="14" t="s">
+    <row r="242" spans="1:7" ht="72">
+      <c r="A242" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="37"/>
-      <c r="D136" s="14" t="s">
+      <c r="B242" s="14"/>
+      <c r="C242" s="37"/>
+      <c r="D242" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F136" s="14" t="s">
+      <c r="F242" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="72">
-      <c r="A137" s="14" t="s">
+    <row r="243" spans="1:7" ht="72">
+      <c r="A243" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="14" t="s">
+      <c r="B243" s="14"/>
+      <c r="C243" s="37"/>
+      <c r="D243" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F137" s="14" t="s">
+      <c r="F243" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G243" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="28.8">
-      <c r="A138" s="14" t="s">
+    <row r="244" spans="1:7" ht="28.8">
+      <c r="A244" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="14" t="s">
+      <c r="B244" s="14"/>
+      <c r="C244" s="37"/>
+      <c r="D244" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F138" s="14" t="s">
+      <c r="F244" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G244" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="14" t="s">
+    <row r="245" spans="1:7">
+      <c r="A245" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="37"/>
-      <c r="D139" s="14" t="s">
+      <c r="B245" s="14"/>
+      <c r="C245" s="37"/>
+      <c r="D245" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F139" s="14" t="s">
+      <c r="F245" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="14" t="s">
+    <row r="246" spans="1:7">
+      <c r="A246" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="14" t="s">
+      <c r="B246" s="14"/>
+      <c r="C246" s="37"/>
+      <c r="D246" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F140" s="14" t="s">
+      <c r="F246" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G246" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="14" t="s">
+    <row r="247" spans="1:7">
+      <c r="A247" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="37"/>
-      <c r="D141" s="14" t="s">
+      <c r="B247" s="14"/>
+      <c r="C247" s="37"/>
+      <c r="D247" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F141" s="14" t="s">
+      <c r="F247" s="14" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="14" t="s">
+    <row r="248" spans="1:7">
+      <c r="A248" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="14" t="s">
+      <c r="B248" s="14"/>
+      <c r="C248" s="37"/>
+      <c r="D248" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F142" s="14" t="s">
+      <c r="F248" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G248" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="14" t="s">
+    <row r="249" spans="1:7">
+      <c r="A249" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="14" t="s">
+      <c r="B249" s="14"/>
+      <c r="C249" s="37"/>
+      <c r="D249" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F143" s="14" t="s">
+      <c r="F249" s="14" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="14" t="s">
+    <row r="250" spans="1:7">
+      <c r="A250" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="37"/>
-      <c r="D144" s="14" t="s">
+      <c r="B250" s="14"/>
+      <c r="C250" s="37"/>
+      <c r="D250" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F144" s="14" t="s">
+      <c r="F250" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G250" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="14" t="s">
+    <row r="251" spans="1:7">
+      <c r="A251" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="14" t="s">
+      <c r="B251" s="14"/>
+      <c r="C251" s="37"/>
+      <c r="D251" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F145" s="14"/>
-      <c r="G145" s="1" t="s">
+      <c r="F251" s="14"/>
+      <c r="G251" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="14" t="s">
+    <row r="252" spans="1:7">
+      <c r="A252" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="37"/>
-      <c r="D146" s="14" t="s">
+      <c r="B252" s="14"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F146" s="14" t="s">
+      <c r="F252" s="14" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="14" t="s">
+    <row r="253" spans="1:7">
+      <c r="A253" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="37"/>
-      <c r="D147" s="14" t="s">
+      <c r="B253" s="14"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F147" s="14" t="s">
+      <c r="F253" s="14" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="72">
-      <c r="A148" s="14" t="s">
+    <row r="254" spans="1:7" ht="72">
+      <c r="A254" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="1" t="s">
+      <c r="B254" s="14"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G254" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="33"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="48"/>
-      <c r="B150"/>
-      <c r="C150" s="4"/>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="49"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="38"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="48"/>
-      <c r="B152"/>
-      <c r="C152" s="4"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="37"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="14"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="37"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="28"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="39"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="14"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="37"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="14"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="37"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="14"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="37"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="28"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="39"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="37"/>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="14"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="37"/>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="14"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="37"/>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="37"/>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="37"/>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="37"/>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="37"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="37"/>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="37"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="14"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="37"/>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="37"/>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="37"/>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="14"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="37"/>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="14"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="37"/>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="37"/>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="37"/>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="14"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="37"/>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="14"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="37"/>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="14"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="37"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="37"/>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="14"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="37"/>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="14"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="37"/>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="37"/>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="14"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="37"/>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="14"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="37"/>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="14"/>
-      <c r="B185" s="14"/>
-      <c r="C185" s="37"/>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="14"/>
-      <c r="B186" s="14"/>
-      <c r="C186" s="37"/>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="14"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="37"/>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="14"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="37"/>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="14"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="37"/>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="14"/>
-      <c r="B190" s="14"/>
-      <c r="C190" s="37"/>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="14"/>
-      <c r="B191" s="14"/>
-      <c r="C191" s="37"/>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="14"/>
-      <c r="B192" s="14"/>
-      <c r="C192" s="37"/>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="14"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="37"/>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="37"/>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
-      <c r="C195" s="37"/>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
-      <c r="C196" s="37"/>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
-      <c r="C197" s="37"/>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
-      <c r="C198" s="37"/>
-    </row>
-    <row r="308" spans="5:5">
-      <c r="E308" s="43"/>
-    </row>
-    <row r="309" spans="5:5">
-      <c r="E309" s="43"/>
-    </row>
-    <row r="310" spans="5:5">
-      <c r="E310" s="43"/>
-    </row>
-    <row r="311" spans="5:5">
-      <c r="E311" s="43"/>
-    </row>
-    <row r="312" spans="5:5">
-      <c r="E312" s="43"/>
-    </row>
-    <row r="313" spans="5:5">
-      <c r="E313" s="43"/>
-    </row>
-    <row r="314" spans="5:5">
-      <c r="E314" s="43"/>
-    </row>
-    <row r="324" spans="5:7">
-      <c r="E324" s="43"/>
-    </row>
-    <row r="326" spans="5:7">
-      <c r="E326" s="43"/>
-      <c r="G326" s="43"/>
-    </row>
-    <row r="327" spans="5:7">
-      <c r="G327" s="43"/>
-    </row>
-    <row r="328" spans="5:7">
-      <c r="E328" s="44"/>
-      <c r="G328" s="43"/>
-    </row>
-    <row r="329" spans="5:7">
-      <c r="E329" s="43"/>
-      <c r="G329" s="43"/>
-    </row>
-    <row r="330" spans="5:7">
-      <c r="E330" s="43"/>
-      <c r="G330" s="43"/>
-    </row>
-    <row r="331" spans="5:7">
-      <c r="E331" s="43"/>
-      <c r="G331" s="43"/>
-    </row>
-    <row r="332" spans="5:7">
-      <c r="E332" s="43"/>
-      <c r="G332" s="43"/>
-    </row>
-    <row r="333" spans="5:7">
-      <c r="E333" s="43"/>
-      <c r="G333" s="43"/>
-    </row>
-    <row r="334" spans="5:7">
-      <c r="E334" s="45"/>
-      <c r="G334" s="43"/>
-    </row>
-    <row r="335" spans="5:7">
-      <c r="E335" s="43"/>
-      <c r="G335" s="43"/>
-    </row>
-    <row r="336" spans="5:7">
-      <c r="E336" s="43"/>
-      <c r="G336" s="43"/>
-    </row>
-    <row r="337" spans="5:7">
-      <c r="E337" s="43"/>
-      <c r="G337" s="43"/>
-    </row>
-    <row r="338" spans="5:7">
-      <c r="E338" s="43"/>
-      <c r="G338" s="43"/>
-    </row>
-    <row r="339" spans="5:7">
-      <c r="E339" s="43"/>
-      <c r="G339" s="43"/>
-    </row>
-    <row r="340" spans="5:7">
-      <c r="E340" s="43"/>
-      <c r="G340" s="43"/>
-    </row>
-    <row r="341" spans="5:7">
-      <c r="E341" s="43"/>
-      <c r="G341" s="43"/>
-    </row>
-    <row r="342" spans="5:7">
-      <c r="E342" s="43"/>
-      <c r="G342" s="43"/>
-    </row>
-    <row r="343" spans="5:7">
-      <c r="E343" s="43"/>
-      <c r="G343" s="43"/>
-    </row>
-    <row r="344" spans="5:7">
-      <c r="E344" s="43"/>
-      <c r="G344" s="43"/>
-    </row>
-    <row r="345" spans="5:7">
-      <c r="E345" s="43"/>
-      <c r="G345" s="43"/>
-    </row>
-    <row r="346" spans="5:7">
-      <c r="E346" s="43"/>
-      <c r="G346" s="43"/>
-    </row>
-    <row r="347" spans="5:7">
-      <c r="E347" s="43"/>
-      <c r="G347" s="43"/>
-    </row>
-    <row r="348" spans="5:7">
-      <c r="E348" s="43"/>
-      <c r="G348" s="43"/>
-    </row>
-    <row r="349" spans="5:7">
-      <c r="E349" s="43"/>
-      <c r="G349" s="43"/>
-    </row>
-    <row r="350" spans="5:7">
-      <c r="E350" s="43"/>
-      <c r="G350" s="43"/>
-    </row>
-    <row r="351" spans="5:7">
-      <c r="E351" s="43"/>
-      <c r="G351" s="43"/>
-    </row>
-    <row r="352" spans="5:7">
-      <c r="E352" s="43"/>
-      <c r="G352" s="43"/>
-    </row>
-    <row r="353" spans="5:7">
-      <c r="E353" s="43"/>
-      <c r="G353" s="43"/>
-    </row>
-    <row r="354" spans="5:7">
-      <c r="E354" s="43"/>
-      <c r="G354" s="43"/>
-    </row>
-    <row r="355" spans="5:7">
-      <c r="E355" s="43"/>
-      <c r="G355" s="43"/>
-    </row>
-    <row r="356" spans="5:7">
-      <c r="E356" s="43"/>
-      <c r="G356" s="43"/>
-    </row>
-    <row r="357" spans="5:7">
-      <c r="E357" s="43"/>
-      <c r="G357" s="43"/>
-    </row>
-    <row r="358" spans="5:7">
-      <c r="E358" s="43"/>
-      <c r="G358" s="43"/>
-    </row>
-    <row r="359" spans="5:7">
-      <c r="E359" s="43"/>
-      <c r="G359" s="43"/>
-    </row>
-    <row r="360" spans="5:7">
-      <c r="E360" s="43"/>
-      <c r="G360" s="43"/>
-    </row>
-    <row r="361" spans="5:7">
-      <c r="E361" s="43"/>
-      <c r="G361" s="43"/>
-    </row>
-    <row r="362" spans="5:7">
-      <c r="E362" s="43"/>
-      <c r="G362" s="43"/>
-    </row>
-    <row r="363" spans="5:7">
-      <c r="E363" s="43"/>
-      <c r="G363" s="43"/>
-    </row>
-    <row r="364" spans="5:7">
-      <c r="E364" s="43"/>
-      <c r="G364" s="43"/>
-    </row>
-    <row r="365" spans="5:7">
-      <c r="E365" s="43"/>
-      <c r="G365" s="43"/>
-    </row>
-    <row r="366" spans="5:7">
-      <c r="E366" s="43"/>
-      <c r="G366" s="43"/>
-    </row>
-    <row r="367" spans="5:7">
-      <c r="E367" s="43"/>
-      <c r="G367" s="43"/>
-    </row>
-    <row r="368" spans="5:7">
-      <c r="E368" s="43"/>
-      <c r="G368" s="43"/>
-    </row>
-    <row r="369" spans="5:7">
-      <c r="E369" s="43"/>
-      <c r="G369" s="43"/>
-    </row>
-    <row r="370" spans="5:7">
-      <c r="E370" s="43"/>
-      <c r="G370" s="43"/>
-    </row>
-    <row r="371" spans="5:7">
-      <c r="E371" s="43"/>
-      <c r="G371" s="43"/>
-    </row>
-    <row r="372" spans="5:7">
-      <c r="E372" s="43"/>
-      <c r="G372" s="43"/>
-    </row>
-    <row r="373" spans="5:7">
-      <c r="E373" s="43"/>
-      <c r="G373" s="43"/>
-    </row>
-    <row r="381" spans="5:7">
-      <c r="E381" s="43"/>
-    </row>
-    <row r="390" spans="7:7">
-      <c r="G390" s="43"/>
-    </row>
-    <row r="391" spans="7:7">
-      <c r="G391" s="43"/>
-    </row>
-    <row r="392" spans="7:7">
-      <c r="G392" s="43"/>
-    </row>
-    <row r="393" spans="7:7">
-      <c r="G393" s="43"/>
-    </row>
-    <row r="394" spans="7:7">
-      <c r="G394" s="43"/>
-    </row>
-    <row r="395" spans="7:7">
-      <c r="G395" s="43"/>
-    </row>
-    <row r="396" spans="7:7">
-      <c r="G396" s="43"/>
-    </row>
-    <row r="397" spans="7:7">
-      <c r="G397" s="43"/>
-    </row>
-    <row r="398" spans="7:7">
-      <c r="G398" s="43"/>
-    </row>
-    <row r="399" spans="7:7">
-      <c r="G399" s="43"/>
-    </row>
-    <row r="400" spans="7:7">
-      <c r="G400" s="43"/>
-    </row>
-    <row r="401" spans="7:7">
-      <c r="G401" s="43"/>
-    </row>
-    <row r="402" spans="7:7">
-      <c r="G402" s="43"/>
-    </row>
-    <row r="403" spans="7:7">
-      <c r="G403" s="43"/>
-    </row>
-    <row r="433" spans="5:5">
-      <c r="E433" s="43"/>
-    </row>
-    <row r="452" spans="5:5">
+    <row r="255" spans="1:7">
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="33"/>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="48"/>
+      <c r="B256"/>
+      <c r="C256" s="4"/>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="49"/>
+      <c r="B257" s="27"/>
+      <c r="C257" s="38"/>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="48"/>
+      <c r="B258"/>
+      <c r="C258" s="4"/>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="14"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="37"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="14"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="37"/>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="28"/>
+      <c r="B261" s="28"/>
+      <c r="C261" s="39"/>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="14"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="37"/>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="37"/>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="14"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="37"/>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="28"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="39"/>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="14"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="37"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="14"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="37"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="14"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="37"/>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="14"/>
+      <c r="B269" s="14"/>
+      <c r="C269" s="37"/>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="14"/>
+      <c r="B270" s="14"/>
+      <c r="C270" s="37"/>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="14"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="37"/>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="14"/>
+      <c r="B272" s="14"/>
+      <c r="C272" s="37"/>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="14"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="37"/>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="14"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="37"/>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="14"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="37"/>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="14"/>
+      <c r="B276" s="14"/>
+      <c r="C276" s="37"/>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="14"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="37"/>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="14"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="37"/>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="37"/>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="37"/>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="14"/>
+      <c r="B281" s="14"/>
+      <c r="C281" s="37"/>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="14"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="37"/>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="14"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="37"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="37"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="14"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="37"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="14"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="37"/>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="14"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="37"/>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="14"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="37"/>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="37"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="37"/>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="14"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="37"/>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="14"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="37"/>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="14"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="37"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="14"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="37"/>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="14"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="37"/>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="14"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="37"/>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="14"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="37"/>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="37"/>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="14"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="37"/>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="37"/>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="14"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="37"/>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="14"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="37"/>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="14"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="37"/>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="14"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="37"/>
+    </row>
+    <row r="414" spans="5:5">
+      <c r="E414" s="43"/>
+    </row>
+    <row r="415" spans="5:5">
+      <c r="E415" s="43"/>
+    </row>
+    <row r="416" spans="5:5">
+      <c r="E416" s="43"/>
+    </row>
+    <row r="417" spans="5:7">
+      <c r="E417" s="43"/>
+    </row>
+    <row r="418" spans="5:7">
+      <c r="E418" s="43"/>
+    </row>
+    <row r="419" spans="5:7">
+      <c r="E419" s="43"/>
+    </row>
+    <row r="420" spans="5:7">
+      <c r="E420" s="43"/>
+    </row>
+    <row r="430" spans="5:7">
+      <c r="E430" s="43"/>
+    </row>
+    <row r="432" spans="5:7">
+      <c r="E432" s="43"/>
+      <c r="G432" s="43"/>
+    </row>
+    <row r="433" spans="5:7">
+      <c r="G433" s="43"/>
+    </row>
+    <row r="434" spans="5:7">
+      <c r="E434" s="44"/>
+      <c r="G434" s="43"/>
+    </row>
+    <row r="435" spans="5:7">
+      <c r="E435" s="43"/>
+      <c r="G435" s="43"/>
+    </row>
+    <row r="436" spans="5:7">
+      <c r="E436" s="43"/>
+      <c r="G436" s="43"/>
+    </row>
+    <row r="437" spans="5:7">
+      <c r="E437" s="43"/>
+      <c r="G437" s="43"/>
+    </row>
+    <row r="438" spans="5:7">
+      <c r="E438" s="43"/>
+      <c r="G438" s="43"/>
+    </row>
+    <row r="439" spans="5:7">
+      <c r="E439" s="43"/>
+      <c r="G439" s="43"/>
+    </row>
+    <row r="440" spans="5:7">
+      <c r="E440" s="45"/>
+      <c r="G440" s="43"/>
+    </row>
+    <row r="441" spans="5:7">
+      <c r="E441" s="43"/>
+      <c r="G441" s="43"/>
+    </row>
+    <row r="442" spans="5:7">
+      <c r="E442" s="43"/>
+      <c r="G442" s="43"/>
+    </row>
+    <row r="443" spans="5:7">
+      <c r="E443" s="43"/>
+      <c r="G443" s="43"/>
+    </row>
+    <row r="444" spans="5:7">
+      <c r="E444" s="43"/>
+      <c r="G444" s="43"/>
+    </row>
+    <row r="445" spans="5:7">
+      <c r="E445" s="43"/>
+      <c r="G445" s="43"/>
+    </row>
+    <row r="446" spans="5:7">
+      <c r="E446" s="43"/>
+      <c r="G446" s="43"/>
+    </row>
+    <row r="447" spans="5:7">
+      <c r="E447" s="43"/>
+      <c r="G447" s="43"/>
+    </row>
+    <row r="448" spans="5:7">
+      <c r="E448" s="43"/>
+      <c r="G448" s="43"/>
+    </row>
+    <row r="449" spans="5:7">
+      <c r="E449" s="43"/>
+      <c r="G449" s="43"/>
+    </row>
+    <row r="450" spans="5:7">
+      <c r="E450" s="43"/>
+      <c r="G450" s="43"/>
+    </row>
+    <row r="451" spans="5:7">
+      <c r="E451" s="43"/>
+      <c r="G451" s="43"/>
+    </row>
+    <row r="452" spans="5:7">
       <c r="E452" s="43"/>
-    </row>
-    <row r="453" spans="5:5">
+      <c r="G452" s="43"/>
+    </row>
+    <row r="453" spans="5:7">
       <c r="E453" s="43"/>
-    </row>
-    <row r="456" spans="5:5">
+      <c r="G453" s="43"/>
+    </row>
+    <row r="454" spans="5:7">
+      <c r="E454" s="43"/>
+      <c r="G454" s="43"/>
+    </row>
+    <row r="455" spans="5:7">
+      <c r="E455" s="43"/>
+      <c r="G455" s="43"/>
+    </row>
+    <row r="456" spans="5:7">
       <c r="E456" s="43"/>
-    </row>
-    <row r="457" spans="5:5">
+      <c r="G456" s="43"/>
+    </row>
+    <row r="457" spans="5:7">
       <c r="E457" s="43"/>
-    </row>
-    <row r="458" spans="5:5">
+      <c r="G457" s="43"/>
+    </row>
+    <row r="458" spans="5:7">
       <c r="E458" s="43"/>
-    </row>
-    <row r="459" spans="5:5">
+      <c r="G458" s="43"/>
+    </row>
+    <row r="459" spans="5:7">
       <c r="E459" s="43"/>
-    </row>
-    <row r="460" spans="5:5">
+      <c r="G459" s="43"/>
+    </row>
+    <row r="460" spans="5:7">
       <c r="E460" s="43"/>
-    </row>
-    <row r="461" spans="5:5">
+      <c r="G460" s="43"/>
+    </row>
+    <row r="461" spans="5:7">
       <c r="E461" s="43"/>
-    </row>
-    <row r="467" spans="5:5">
+      <c r="G461" s="43"/>
+    </row>
+    <row r="462" spans="5:7">
+      <c r="E462" s="43"/>
+      <c r="G462" s="43"/>
+    </row>
+    <row r="463" spans="5:7">
+      <c r="E463" s="43"/>
+      <c r="G463" s="43"/>
+    </row>
+    <row r="464" spans="5:7">
+      <c r="E464" s="43"/>
+      <c r="G464" s="43"/>
+    </row>
+    <row r="465" spans="5:7">
+      <c r="E465" s="43"/>
+      <c r="G465" s="43"/>
+    </row>
+    <row r="466" spans="5:7">
+      <c r="E466" s="43"/>
+      <c r="G466" s="43"/>
+    </row>
+    <row r="467" spans="5:7">
       <c r="E467" s="43"/>
-    </row>
-    <row r="468" spans="5:5">
+      <c r="G467" s="43"/>
+    </row>
+    <row r="468" spans="5:7">
       <c r="E468" s="43"/>
-    </row>
-    <row r="469" spans="5:5">
+      <c r="G468" s="43"/>
+    </row>
+    <row r="469" spans="5:7">
       <c r="E469" s="43"/>
-    </row>
-    <row r="470" spans="5:5">
+      <c r="G469" s="43"/>
+    </row>
+    <row r="470" spans="5:7">
       <c r="E470" s="43"/>
-    </row>
-    <row r="471" spans="5:5">
+      <c r="G470" s="43"/>
+    </row>
+    <row r="471" spans="5:7">
       <c r="E471" s="43"/>
-    </row>
-    <row r="472" spans="5:5">
+      <c r="G471" s="43"/>
+    </row>
+    <row r="472" spans="5:7">
       <c r="E472" s="43"/>
-    </row>
-    <row r="473" spans="5:5">
+      <c r="G472" s="43"/>
+    </row>
+    <row r="473" spans="5:7">
       <c r="E473" s="43"/>
-    </row>
-    <row r="475" spans="5:5">
+      <c r="G473" s="43"/>
+    </row>
+    <row r="474" spans="5:7">
+      <c r="E474" s="43"/>
+      <c r="G474" s="43"/>
+    </row>
+    <row r="475" spans="5:7">
       <c r="E475" s="43"/>
-    </row>
-    <row r="476" spans="5:5">
+      <c r="G475" s="43"/>
+    </row>
+    <row r="476" spans="5:7">
       <c r="E476" s="43"/>
-    </row>
-    <row r="477" spans="5:5">
+      <c r="G476" s="43"/>
+    </row>
+    <row r="477" spans="5:7">
       <c r="E477" s="43"/>
-    </row>
-    <row r="478" spans="5:5">
+      <c r="G477" s="43"/>
+    </row>
+    <row r="478" spans="5:7">
       <c r="E478" s="43"/>
-    </row>
-    <row r="482" spans="5:5">
-      <c r="E482" s="43"/>
-    </row>
-    <row r="489" spans="5:5">
-      <c r="E489" s="43"/>
-    </row>
-    <row r="493" spans="5:5">
-      <c r="E493" s="43"/>
-    </row>
-    <row r="504" spans="5:5">
-      <c r="E504" s="43"/>
-    </row>
-    <row r="514" spans="5:7">
-      <c r="E514" s="43"/>
-    </row>
-    <row r="516" spans="5:7">
-      <c r="G516" s="43"/>
-    </row>
-    <row r="517" spans="5:7">
-      <c r="G517" s="43"/>
-    </row>
-    <row r="518" spans="5:7">
-      <c r="G518" s="43"/>
-    </row>
-    <row r="519" spans="5:7">
-      <c r="G519" s="43"/>
-    </row>
-    <row r="520" spans="5:7">
-      <c r="G520" s="43"/>
-    </row>
-    <row r="521" spans="5:7">
-      <c r="G521" s="43"/>
-    </row>
-    <row r="522" spans="5:7">
-      <c r="G522" s="43"/>
-    </row>
-    <row r="523" spans="5:7">
-      <c r="G523" s="43"/>
-    </row>
-    <row r="524" spans="5:7">
-      <c r="G524" s="43"/>
-    </row>
-    <row r="525" spans="5:7">
-      <c r="G525" s="43"/>
-    </row>
-    <row r="526" spans="5:7">
-      <c r="G526" s="43"/>
-    </row>
-    <row r="527" spans="5:7">
-      <c r="G527" s="43"/>
-    </row>
-    <row r="528" spans="5:7">
-      <c r="G528" s="43"/>
-    </row>
-    <row r="529" spans="5:7">
-      <c r="G529" s="43"/>
-    </row>
-    <row r="530" spans="5:7">
-      <c r="G530" s="43"/>
-    </row>
-    <row r="531" spans="5:7">
-      <c r="G531" s="43"/>
-    </row>
-    <row r="532" spans="5:7">
-      <c r="G532" s="43"/>
-    </row>
-    <row r="533" spans="5:7">
-      <c r="G533" s="43"/>
-    </row>
-    <row r="534" spans="5:7">
-      <c r="G534" s="43"/>
-    </row>
-    <row r="535" spans="5:7">
-      <c r="E535" s="43"/>
-      <c r="G535" s="43"/>
-    </row>
-    <row r="537" spans="5:7">
-      <c r="G537" s="43"/>
-    </row>
-    <row r="538" spans="5:7">
-      <c r="G538" s="43"/>
-    </row>
-    <row r="539" spans="5:7">
-      <c r="G539" s="43"/>
-    </row>
-    <row r="540" spans="5:7">
-      <c r="G540" s="43"/>
-    </row>
-    <row r="541" spans="5:7">
-      <c r="G541" s="43"/>
-    </row>
-    <row r="542" spans="5:7">
-      <c r="G542" s="43"/>
-    </row>
-    <row r="543" spans="5:7">
-      <c r="G543" s="43"/>
-    </row>
-    <row r="544" spans="5:7">
-      <c r="E544" s="43"/>
-      <c r="G544" s="43"/>
-    </row>
-    <row r="545" spans="5:7">
-      <c r="G545" s="43"/>
-    </row>
-    <row r="546" spans="5:7">
-      <c r="G546" s="43"/>
-    </row>
-    <row r="547" spans="5:7">
-      <c r="G547" s="43"/>
-    </row>
-    <row r="548" spans="5:7">
-      <c r="G548" s="43"/>
-    </row>
-    <row r="549" spans="5:7">
-      <c r="G549" s="43"/>
-    </row>
-    <row r="550" spans="5:7">
-      <c r="G550" s="43"/>
-    </row>
-    <row r="551" spans="5:7">
-      <c r="G551" s="43"/>
-    </row>
-    <row r="552" spans="5:7">
-      <c r="E552" s="43"/>
-      <c r="G552" s="43"/>
-    </row>
-    <row r="554" spans="5:7">
-      <c r="G554" s="43"/>
-    </row>
-    <row r="555" spans="5:7">
-      <c r="G555" s="43"/>
-    </row>
-    <row r="556" spans="5:7">
-      <c r="G556" s="43"/>
-    </row>
-    <row r="557" spans="5:7">
-      <c r="G557" s="43"/>
-    </row>
-    <row r="558" spans="5:7">
-      <c r="G558" s="43"/>
-    </row>
-    <row r="559" spans="5:7">
-      <c r="G559" s="43"/>
-    </row>
-    <row r="560" spans="5:7">
-      <c r="G560" s="43"/>
-    </row>
-    <row r="561" spans="5:7">
-      <c r="E561" s="43"/>
-      <c r="G561" s="43"/>
-    </row>
-    <row r="562" spans="5:7">
-      <c r="G562" s="43"/>
-    </row>
-    <row r="563" spans="5:7">
-      <c r="G563" s="43"/>
-    </row>
-    <row r="564" spans="5:7">
-      <c r="G564" s="43"/>
-    </row>
-    <row r="565" spans="5:7">
-      <c r="G565" s="43"/>
-    </row>
-    <row r="566" spans="5:7">
-      <c r="G566" s="43"/>
-    </row>
-    <row r="567" spans="5:7">
-      <c r="G567" s="43"/>
-    </row>
-    <row r="568" spans="5:7">
-      <c r="G568" s="43"/>
-    </row>
-    <row r="569" spans="5:7">
-      <c r="E569" s="43"/>
-      <c r="G569" s="43"/>
+      <c r="G478" s="43"/>
+    </row>
+    <row r="479" spans="5:7">
+      <c r="E479" s="43"/>
+      <c r="G479" s="43"/>
+    </row>
+    <row r="487" spans="5:7">
+      <c r="E487" s="43"/>
+    </row>
+    <row r="496" spans="5:7">
+      <c r="G496" s="43"/>
+    </row>
+    <row r="497" spans="7:7">
+      <c r="G497" s="43"/>
+    </row>
+    <row r="498" spans="7:7">
+      <c r="G498" s="43"/>
+    </row>
+    <row r="499" spans="7:7">
+      <c r="G499" s="43"/>
+    </row>
+    <row r="500" spans="7:7">
+      <c r="G500" s="43"/>
+    </row>
+    <row r="501" spans="7:7">
+      <c r="G501" s="43"/>
+    </row>
+    <row r="502" spans="7:7">
+      <c r="G502" s="43"/>
+    </row>
+    <row r="503" spans="7:7">
+      <c r="G503" s="43"/>
+    </row>
+    <row r="504" spans="7:7">
+      <c r="G504" s="43"/>
+    </row>
+    <row r="505" spans="7:7">
+      <c r="G505" s="43"/>
+    </row>
+    <row r="506" spans="7:7">
+      <c r="G506" s="43"/>
+    </row>
+    <row r="507" spans="7:7">
+      <c r="G507" s="43"/>
+    </row>
+    <row r="508" spans="7:7">
+      <c r="G508" s="43"/>
+    </row>
+    <row r="509" spans="7:7">
+      <c r="G509" s="43"/>
+    </row>
+    <row r="539" spans="5:5">
+      <c r="E539" s="43"/>
+    </row>
+    <row r="558" spans="5:5">
+      <c r="E558" s="43"/>
+    </row>
+    <row r="559" spans="5:5">
+      <c r="E559" s="43"/>
+    </row>
+    <row r="562" spans="5:5">
+      <c r="E562" s="43"/>
+    </row>
+    <row r="563" spans="5:5">
+      <c r="E563" s="43"/>
+    </row>
+    <row r="564" spans="5:5">
+      <c r="E564" s="43"/>
+    </row>
+    <row r="565" spans="5:5">
+      <c r="E565" s="43"/>
+    </row>
+    <row r="566" spans="5:5">
+      <c r="E566" s="43"/>
+    </row>
+    <row r="567" spans="5:5">
+      <c r="E567" s="43"/>
+    </row>
+    <row r="573" spans="5:5">
+      <c r="E573" s="43"/>
+    </row>
+    <row r="574" spans="5:5">
+      <c r="E574" s="43"/>
+    </row>
+    <row r="575" spans="5:5">
+      <c r="E575" s="43"/>
+    </row>
+    <row r="576" spans="5:5">
+      <c r="E576" s="43"/>
     </row>
     <row r="577" spans="5:5">
       <c r="E577" s="43"/>
     </row>
+    <row r="578" spans="5:5">
+      <c r="E578" s="43"/>
+    </row>
+    <row r="579" spans="5:5">
+      <c r="E579" s="43"/>
+    </row>
+    <row r="581" spans="5:5">
+      <c r="E581" s="43"/>
+    </row>
+    <row r="582" spans="5:5">
+      <c r="E582" s="43"/>
+    </row>
+    <row r="583" spans="5:5">
+      <c r="E583" s="43"/>
+    </row>
     <row r="584" spans="5:5">
       <c r="E584" s="43"/>
     </row>
-    <row r="600" spans="5:5">
-      <c r="E600" s="44"/>
-    </row>
-    <row r="601" spans="5:5">
-      <c r="E601" s="44"/>
-    </row>
-    <row r="604" spans="5:5">
-      <c r="E604" s="44"/>
-    </row>
-    <row r="605" spans="5:5">
-      <c r="E605" s="43"/>
-    </row>
-    <row r="618" spans="5:5">
-      <c r="E618" s="43"/>
-    </row>
-    <row r="630" spans="5:5">
-      <c r="E630" s="43"/>
-    </row>
-    <row r="634" spans="5:5">
-      <c r="E634" s="43"/>
-    </row>
-    <row r="635" spans="5:5">
-      <c r="E635" s="43"/>
-    </row>
-    <row r="636" spans="5:5">
-      <c r="E636" s="43"/>
-    </row>
-    <row r="637" spans="5:5">
-      <c r="E637" s="43"/>
-    </row>
-    <row r="638" spans="5:5">
-      <c r="E638" s="43"/>
-    </row>
-    <row r="639" spans="5:5">
-      <c r="E639" s="43"/>
-    </row>
-    <row r="640" spans="5:5">
-      <c r="E640" s="43"/>
-    </row>
-    <row r="641" spans="5:5">
+    <row r="588" spans="5:5">
+      <c r="E588" s="43"/>
+    </row>
+    <row r="595" spans="5:5">
+      <c r="E595" s="43"/>
+    </row>
+    <row r="599" spans="5:5">
+      <c r="E599" s="43"/>
+    </row>
+    <row r="610" spans="5:7">
+      <c r="E610" s="43"/>
+    </row>
+    <row r="620" spans="5:7">
+      <c r="E620" s="43"/>
+    </row>
+    <row r="622" spans="5:7">
+      <c r="G622" s="43"/>
+    </row>
+    <row r="623" spans="5:7">
+      <c r="G623" s="43"/>
+    </row>
+    <row r="624" spans="5:7">
+      <c r="G624" s="43"/>
+    </row>
+    <row r="625" spans="7:7">
+      <c r="G625" s="43"/>
+    </row>
+    <row r="626" spans="7:7">
+      <c r="G626" s="43"/>
+    </row>
+    <row r="627" spans="7:7">
+      <c r="G627" s="43"/>
+    </row>
+    <row r="628" spans="7:7">
+      <c r="G628" s="43"/>
+    </row>
+    <row r="629" spans="7:7">
+      <c r="G629" s="43"/>
+    </row>
+    <row r="630" spans="7:7">
+      <c r="G630" s="43"/>
+    </row>
+    <row r="631" spans="7:7">
+      <c r="G631" s="43"/>
+    </row>
+    <row r="632" spans="7:7">
+      <c r="G632" s="43"/>
+    </row>
+    <row r="633" spans="7:7">
+      <c r="G633" s="43"/>
+    </row>
+    <row r="634" spans="7:7">
+      <c r="G634" s="43"/>
+    </row>
+    <row r="635" spans="7:7">
+      <c r="G635" s="43"/>
+    </row>
+    <row r="636" spans="7:7">
+      <c r="G636" s="43"/>
+    </row>
+    <row r="637" spans="7:7">
+      <c r="G637" s="43"/>
+    </row>
+    <row r="638" spans="7:7">
+      <c r="G638" s="43"/>
+    </row>
+    <row r="639" spans="7:7">
+      <c r="G639" s="43"/>
+    </row>
+    <row r="640" spans="7:7">
+      <c r="G640" s="43"/>
+    </row>
+    <row r="641" spans="5:7">
       <c r="E641" s="43"/>
-    </row>
-    <row r="642" spans="5:5">
-      <c r="E642" s="43"/>
-    </row>
-    <row r="643" spans="5:5">
-      <c r="E643" s="43"/>
-    </row>
-    <row r="644" spans="5:5">
-      <c r="E644" s="43"/>
-    </row>
-    <row r="645" spans="5:5">
-      <c r="E645" s="43"/>
-    </row>
-    <row r="646" spans="5:5">
-      <c r="E646" s="43"/>
-    </row>
-    <row r="647" spans="5:5">
-      <c r="E647" s="43"/>
-    </row>
-    <row r="648" spans="5:5">
-      <c r="E648" s="43"/>
-    </row>
-    <row r="649" spans="5:5">
-      <c r="E649" s="43"/>
-    </row>
-    <row r="650" spans="5:5">
+      <c r="G641" s="43"/>
+    </row>
+    <row r="643" spans="5:7">
+      <c r="G643" s="43"/>
+    </row>
+    <row r="644" spans="5:7">
+      <c r="G644" s="43"/>
+    </row>
+    <row r="645" spans="5:7">
+      <c r="G645" s="43"/>
+    </row>
+    <row r="646" spans="5:7">
+      <c r="G646" s="43"/>
+    </row>
+    <row r="647" spans="5:7">
+      <c r="G647" s="43"/>
+    </row>
+    <row r="648" spans="5:7">
+      <c r="G648" s="43"/>
+    </row>
+    <row r="649" spans="5:7">
+      <c r="G649" s="43"/>
+    </row>
+    <row r="650" spans="5:7">
       <c r="E650" s="43"/>
-    </row>
-    <row r="651" spans="5:5">
-      <c r="E651" s="43"/>
-    </row>
-    <row r="652" spans="5:5">
-      <c r="E652" s="43"/>
-    </row>
-    <row r="653" spans="5:5">
-      <c r="E653" s="43"/>
-    </row>
-    <row r="654" spans="5:5">
-      <c r="E654" s="43"/>
-    </row>
-    <row r="655" spans="5:5">
-      <c r="E655" s="43"/>
-    </row>
-    <row r="656" spans="5:5">
-      <c r="E656" s="43"/>
+      <c r="G650" s="43"/>
+    </row>
+    <row r="651" spans="5:7">
+      <c r="G651" s="43"/>
+    </row>
+    <row r="652" spans="5:7">
+      <c r="G652" s="43"/>
+    </row>
+    <row r="653" spans="5:7">
+      <c r="G653" s="43"/>
+    </row>
+    <row r="654" spans="5:7">
+      <c r="G654" s="43"/>
+    </row>
+    <row r="655" spans="5:7">
+      <c r="G655" s="43"/>
+    </row>
+    <row r="656" spans="5:7">
+      <c r="G656" s="43"/>
     </row>
     <row r="657" spans="5:7">
-      <c r="E657" s="43"/>
-    </row>
-    <row r="659" spans="5:7">
-      <c r="G659" s="43"/>
+      <c r="G657" s="43"/>
+    </row>
+    <row r="658" spans="5:7">
+      <c r="E658" s="43"/>
+      <c r="G658" s="43"/>
     </row>
     <row r="660" spans="5:7">
       <c r="G660" s="43"/>
@@ -8466,6 +10830,7 @@
       <c r="G666" s="43"/>
     </row>
     <row r="667" spans="5:7">
+      <c r="E667" s="43"/>
       <c r="G667" s="43"/>
     </row>
     <row r="668" spans="5:7">
@@ -8481,411 +10846,308 @@
       <c r="G671" s="43"/>
     </row>
     <row r="672" spans="5:7">
-      <c r="E672" s="43"/>
       <c r="G672" s="43"/>
     </row>
-    <row r="674" spans="5:5">
-      <c r="E674" s="43"/>
-    </row>
-    <row r="675" spans="5:5">
+    <row r="673" spans="5:7">
+      <c r="G673" s="43"/>
+    </row>
+    <row r="674" spans="5:7">
+      <c r="G674" s="43"/>
+    </row>
+    <row r="675" spans="5:7">
       <c r="E675" s="43"/>
-    </row>
-    <row r="676" spans="5:5">
-      <c r="E676" s="43"/>
-    </row>
-    <row r="677" spans="5:5">
-      <c r="E677" s="43"/>
-    </row>
-    <row r="678" spans="5:5">
-      <c r="E678" s="43"/>
-    </row>
-    <row r="679" spans="5:5">
-      <c r="E679" s="43"/>
-    </row>
-    <row r="680" spans="5:5">
-      <c r="E680" s="43"/>
-    </row>
-    <row r="681" spans="5:5">
-      <c r="E681" s="43"/>
-    </row>
-    <row r="682" spans="5:5">
-      <c r="E682" s="43"/>
-    </row>
-    <row r="683" spans="5:5">
+      <c r="G675" s="43"/>
+    </row>
+    <row r="683" spans="5:7">
       <c r="E683" s="43"/>
-    </row>
-    <row r="684" spans="5:5">
-      <c r="E684" s="43"/>
-    </row>
-    <row r="685" spans="5:5">
-      <c r="E685" s="43"/>
-    </row>
-    <row r="686" spans="5:5">
-      <c r="E686" s="43"/>
-    </row>
-    <row r="687" spans="5:5">
-      <c r="E687" s="43"/>
-    </row>
-    <row r="688" spans="5:5">
-      <c r="E688" s="43"/>
-    </row>
-    <row r="689" spans="5:5">
-      <c r="E689" s="43"/>
     </row>
     <row r="690" spans="5:5">
       <c r="E690" s="43"/>
     </row>
-    <row r="691" spans="5:5">
-      <c r="E691" s="43"/>
-    </row>
-    <row r="692" spans="5:5">
-      <c r="E692" s="43"/>
-    </row>
-    <row r="693" spans="5:5">
-      <c r="E693" s="43"/>
-    </row>
-    <row r="694" spans="5:5">
-      <c r="E694" s="43"/>
-    </row>
-    <row r="695" spans="5:5">
-      <c r="E695" s="43"/>
-    </row>
-    <row r="696" spans="5:5">
-      <c r="E696" s="43"/>
-    </row>
-    <row r="697" spans="5:5">
-      <c r="E697" s="43"/>
-    </row>
-    <row r="698" spans="5:5">
-      <c r="E698" s="43"/>
-    </row>
-    <row r="699" spans="5:5">
-      <c r="E699" s="43"/>
-    </row>
-    <row r="700" spans="5:5">
-      <c r="E700" s="43"/>
-    </row>
-    <row r="701" spans="5:5">
-      <c r="E701" s="43"/>
-    </row>
-    <row r="702" spans="5:5">
-      <c r="E702" s="43"/>
-    </row>
-    <row r="703" spans="5:5">
-      <c r="E703" s="43"/>
-    </row>
-    <row r="704" spans="5:5">
-      <c r="E704" s="43"/>
-    </row>
-    <row r="705" spans="5:5">
-      <c r="E705" s="43"/>
-    </row>
     <row r="706" spans="5:5">
-      <c r="E706" s="43"/>
+      <c r="E706" s="44"/>
     </row>
     <row r="707" spans="5:5">
-      <c r="E707" s="43"/>
-    </row>
-    <row r="708" spans="5:5">
-      <c r="E708" s="43"/>
-    </row>
-    <row r="709" spans="5:5">
-      <c r="E709" s="43"/>
+      <c r="E707" s="44"/>
     </row>
     <row r="710" spans="5:5">
-      <c r="E710" s="43"/>
+      <c r="E710" s="44"/>
     </row>
     <row r="711" spans="5:5">
       <c r="E711" s="43"/>
     </row>
-    <row r="712" spans="5:5">
-      <c r="E712" s="43"/>
-    </row>
-    <row r="713" spans="5:5">
-      <c r="E713" s="43"/>
-    </row>
-    <row r="714" spans="5:5">
-      <c r="E714" s="43"/>
-    </row>
-    <row r="715" spans="5:5">
-      <c r="E715" s="43"/>
-    </row>
-    <row r="716" spans="5:5">
-      <c r="E716" s="43"/>
-    </row>
-    <row r="717" spans="5:5">
-      <c r="E717" s="43"/>
-    </row>
-    <row r="718" spans="5:5">
-      <c r="E718" s="43"/>
-    </row>
-    <row r="719" spans="5:5">
-      <c r="E719" s="43"/>
-    </row>
-    <row r="720" spans="5:5">
-      <c r="E720" s="43"/>
-    </row>
-    <row r="721" spans="5:7">
-      <c r="E721" s="43"/>
-    </row>
-    <row r="723" spans="5:7">
-      <c r="E723" s="43"/>
-      <c r="G723" s="43"/>
-    </row>
-    <row r="724" spans="5:7">
+    <row r="724" spans="5:5">
       <c r="E724" s="43"/>
-      <c r="G724" s="43"/>
-    </row>
-    <row r="725" spans="5:7">
-      <c r="E725" s="43"/>
-      <c r="G725" s="43"/>
-    </row>
-    <row r="726" spans="5:7">
-      <c r="E726" s="43"/>
-      <c r="G726" s="43"/>
-    </row>
-    <row r="727" spans="5:7">
-      <c r="E727" s="43"/>
-      <c r="G727" s="43"/>
-    </row>
-    <row r="728" spans="5:7">
-      <c r="E728" s="43"/>
-      <c r="G728" s="43"/>
-    </row>
-    <row r="729" spans="5:7">
-      <c r="E729" s="43"/>
-      <c r="G729" s="43"/>
-    </row>
-    <row r="730" spans="5:7">
-      <c r="E730" s="43"/>
-      <c r="G730" s="43"/>
-    </row>
-    <row r="731" spans="5:7">
-      <c r="E731" s="43"/>
-      <c r="G731" s="43"/>
-    </row>
-    <row r="732" spans="5:7">
-      <c r="E732" s="43"/>
-      <c r="G732" s="43"/>
-    </row>
-    <row r="733" spans="5:7">
-      <c r="E733" s="43"/>
-      <c r="G733" s="43"/>
-    </row>
-    <row r="734" spans="5:7">
-      <c r="E734" s="43"/>
-      <c r="G734" s="43"/>
-    </row>
-    <row r="735" spans="5:7">
-      <c r="E735" s="43"/>
-      <c r="G735" s="43"/>
-    </row>
-    <row r="736" spans="5:7">
+    </row>
+    <row r="736" spans="5:5">
       <c r="E736" s="43"/>
-      <c r="G736" s="43"/>
-    </row>
-    <row r="737" spans="5:7">
-      <c r="E737" s="43"/>
-      <c r="G737" s="43"/>
-    </row>
-    <row r="738" spans="5:7">
-      <c r="E738" s="43"/>
-      <c r="G738" s="43"/>
-    </row>
-    <row r="739" spans="5:7">
-      <c r="E739" s="43"/>
-      <c r="G739" s="43"/>
-    </row>
-    <row r="740" spans="5:7">
+    </row>
+    <row r="740" spans="5:5">
       <c r="E740" s="43"/>
-      <c r="G740" s="43"/>
-    </row>
-    <row r="741" spans="5:7">
+    </row>
+    <row r="741" spans="5:5">
       <c r="E741" s="43"/>
-      <c r="G741" s="43"/>
-    </row>
-    <row r="742" spans="5:7">
+    </row>
+    <row r="742" spans="5:5">
       <c r="E742" s="43"/>
-      <c r="G742" s="43"/>
-    </row>
-    <row r="743" spans="5:7">
+    </row>
+    <row r="743" spans="5:5">
       <c r="E743" s="43"/>
-      <c r="G743" s="43"/>
-    </row>
-    <row r="744" spans="5:7">
+    </row>
+    <row r="744" spans="5:5">
       <c r="E744" s="43"/>
-      <c r="G744" s="43"/>
-    </row>
-    <row r="745" spans="5:7">
+    </row>
+    <row r="745" spans="5:5">
       <c r="E745" s="43"/>
-      <c r="G745" s="43"/>
-    </row>
-    <row r="746" spans="5:7">
+    </row>
+    <row r="746" spans="5:5">
       <c r="E746" s="43"/>
-      <c r="G746" s="43"/>
-    </row>
-    <row r="747" spans="5:7">
+    </row>
+    <row r="747" spans="5:5">
       <c r="E747" s="43"/>
-      <c r="G747" s="43"/>
-    </row>
-    <row r="748" spans="5:7">
+    </row>
+    <row r="748" spans="5:5">
       <c r="E748" s="43"/>
-      <c r="G748" s="43"/>
-    </row>
-    <row r="749" spans="5:7">
+    </row>
+    <row r="749" spans="5:5">
       <c r="E749" s="43"/>
-      <c r="G749" s="43"/>
-    </row>
-    <row r="750" spans="5:7">
+    </row>
+    <row r="750" spans="5:5">
       <c r="E750" s="43"/>
-      <c r="G750" s="43"/>
-    </row>
-    <row r="751" spans="5:7">
+    </row>
+    <row r="751" spans="5:5">
       <c r="E751" s="43"/>
-      <c r="G751" s="43"/>
-    </row>
-    <row r="752" spans="5:7">
+    </row>
+    <row r="752" spans="5:5">
       <c r="E752" s="43"/>
-      <c r="G752" s="43"/>
     </row>
     <row r="753" spans="5:7">
       <c r="E753" s="43"/>
-      <c r="G753" s="43"/>
     </row>
     <row r="754" spans="5:7">
       <c r="E754" s="43"/>
-      <c r="G754" s="43"/>
     </row>
     <row r="755" spans="5:7">
       <c r="E755" s="43"/>
-      <c r="G755" s="43"/>
     </row>
     <row r="756" spans="5:7">
       <c r="E756" s="43"/>
-      <c r="G756" s="43"/>
     </row>
     <row r="757" spans="5:7">
       <c r="E757" s="43"/>
-      <c r="G757" s="43"/>
     </row>
     <row r="758" spans="5:7">
       <c r="E758" s="43"/>
-      <c r="G758" s="43"/>
     </row>
     <row r="759" spans="5:7">
       <c r="E759" s="43"/>
-      <c r="G759" s="43"/>
     </row>
     <row r="760" spans="5:7">
       <c r="E760" s="43"/>
-      <c r="G760" s="43"/>
     </row>
     <row r="761" spans="5:7">
       <c r="E761" s="43"/>
-      <c r="G761" s="43"/>
     </row>
     <row r="762" spans="5:7">
       <c r="E762" s="43"/>
-      <c r="G762" s="43"/>
     </row>
     <row r="763" spans="5:7">
       <c r="E763" s="43"/>
-      <c r="G763" s="43"/>
-    </row>
-    <row r="764" spans="5:7">
-      <c r="E764" s="43"/>
-      <c r="G764" s="43"/>
     </row>
     <row r="765" spans="5:7">
-      <c r="E765" s="43"/>
       <c r="G765" s="43"/>
     </row>
     <row r="766" spans="5:7">
-      <c r="E766" s="43"/>
       <c r="G766" s="43"/>
     </row>
     <row r="767" spans="5:7">
-      <c r="E767" s="43"/>
       <c r="G767" s="43"/>
     </row>
     <row r="768" spans="5:7">
-      <c r="E768" s="43"/>
       <c r="G768" s="43"/>
     </row>
     <row r="769" spans="5:7">
-      <c r="E769" s="43"/>
       <c r="G769" s="43"/>
     </row>
     <row r="770" spans="5:7">
-      <c r="E770" s="43"/>
       <c r="G770" s="43"/>
+    </row>
+    <row r="771" spans="5:7">
+      <c r="G771" s="43"/>
+    </row>
+    <row r="772" spans="5:7">
+      <c r="G772" s="43"/>
+    </row>
+    <row r="773" spans="5:7">
+      <c r="G773" s="43"/>
+    </row>
+    <row r="774" spans="5:7">
+      <c r="G774" s="43"/>
+    </row>
+    <row r="775" spans="5:7">
+      <c r="G775" s="43"/>
+    </row>
+    <row r="776" spans="5:7">
+      <c r="G776" s="43"/>
+    </row>
+    <row r="777" spans="5:7">
+      <c r="G777" s="43"/>
+    </row>
+    <row r="778" spans="5:7">
+      <c r="E778" s="43"/>
+      <c r="G778" s="43"/>
     </row>
     <row r="780" spans="5:7">
       <c r="E780" s="43"/>
     </row>
-    <row r="791" spans="7:7">
-      <c r="G791" s="43"/>
-    </row>
-    <row r="792" spans="7:7">
-      <c r="G792" s="43"/>
-    </row>
-    <row r="793" spans="7:7">
-      <c r="G793" s="43"/>
-    </row>
-    <row r="794" spans="7:7">
-      <c r="G794" s="43"/>
-    </row>
-    <row r="795" spans="7:7">
-      <c r="G795" s="43"/>
-    </row>
-    <row r="796" spans="7:7">
-      <c r="G796" s="43"/>
-    </row>
-    <row r="797" spans="7:7">
-      <c r="G797" s="43"/>
-    </row>
-    <row r="798" spans="7:7">
-      <c r="G798" s="43"/>
-    </row>
-    <row r="799" spans="7:7">
-      <c r="G799" s="43"/>
-    </row>
-    <row r="800" spans="7:7">
-      <c r="G800" s="43"/>
-    </row>
-    <row r="801" spans="5:7">
-      <c r="G801" s="43"/>
-    </row>
-    <row r="802" spans="5:7">
-      <c r="G802" s="43"/>
-    </row>
-    <row r="803" spans="5:7">
-      <c r="G803" s="43"/>
-    </row>
-    <row r="804" spans="5:7">
-      <c r="G804" s="43"/>
-    </row>
-    <row r="805" spans="5:7">
-      <c r="G805" s="43"/>
-    </row>
-    <row r="806" spans="5:7">
-      <c r="G806" s="43"/>
-    </row>
-    <row r="807" spans="5:7">
-      <c r="G807" s="43"/>
-    </row>
-    <row r="808" spans="5:7">
-      <c r="G808" s="43"/>
-    </row>
-    <row r="809" spans="5:7">
-      <c r="G809" s="43"/>
-    </row>
-    <row r="810" spans="5:7">
+    <row r="781" spans="5:7">
+      <c r="E781" s="43"/>
+    </row>
+    <row r="782" spans="5:7">
+      <c r="E782" s="43"/>
+    </row>
+    <row r="783" spans="5:7">
+      <c r="E783" s="43"/>
+    </row>
+    <row r="784" spans="5:7">
+      <c r="E784" s="43"/>
+    </row>
+    <row r="785" spans="5:5">
+      <c r="E785" s="43"/>
+    </row>
+    <row r="786" spans="5:5">
+      <c r="E786" s="43"/>
+    </row>
+    <row r="787" spans="5:5">
+      <c r="E787" s="43"/>
+    </row>
+    <row r="788" spans="5:5">
+      <c r="E788" s="43"/>
+    </row>
+    <row r="789" spans="5:5">
+      <c r="E789" s="43"/>
+    </row>
+    <row r="790" spans="5:5">
+      <c r="E790" s="43"/>
+    </row>
+    <row r="791" spans="5:5">
+      <c r="E791" s="43"/>
+    </row>
+    <row r="792" spans="5:5">
+      <c r="E792" s="43"/>
+    </row>
+    <row r="793" spans="5:5">
+      <c r="E793" s="43"/>
+    </row>
+    <row r="794" spans="5:5">
+      <c r="E794" s="43"/>
+    </row>
+    <row r="795" spans="5:5">
+      <c r="E795" s="43"/>
+    </row>
+    <row r="796" spans="5:5">
+      <c r="E796" s="43"/>
+    </row>
+    <row r="797" spans="5:5">
+      <c r="E797" s="43"/>
+    </row>
+    <row r="798" spans="5:5">
+      <c r="E798" s="43"/>
+    </row>
+    <row r="799" spans="5:5">
+      <c r="E799" s="43"/>
+    </row>
+    <row r="800" spans="5:5">
+      <c r="E800" s="43"/>
+    </row>
+    <row r="801" spans="5:5">
+      <c r="E801" s="43"/>
+    </row>
+    <row r="802" spans="5:5">
+      <c r="E802" s="43"/>
+    </row>
+    <row r="803" spans="5:5">
+      <c r="E803" s="43"/>
+    </row>
+    <row r="804" spans="5:5">
+      <c r="E804" s="43"/>
+    </row>
+    <row r="805" spans="5:5">
+      <c r="E805" s="43"/>
+    </row>
+    <row r="806" spans="5:5">
+      <c r="E806" s="43"/>
+    </row>
+    <row r="807" spans="5:5">
+      <c r="E807" s="43"/>
+    </row>
+    <row r="808" spans="5:5">
+      <c r="E808" s="43"/>
+    </row>
+    <row r="809" spans="5:5">
+      <c r="E809" s="43"/>
+    </row>
+    <row r="810" spans="5:5">
       <c r="E810" s="43"/>
-      <c r="G810" s="43"/>
+    </row>
+    <row r="811" spans="5:5">
+      <c r="E811" s="43"/>
+    </row>
+    <row r="812" spans="5:5">
+      <c r="E812" s="43"/>
+    </row>
+    <row r="813" spans="5:5">
+      <c r="E813" s="43"/>
+    </row>
+    <row r="814" spans="5:5">
+      <c r="E814" s="43"/>
+    </row>
+    <row r="815" spans="5:5">
+      <c r="E815" s="43"/>
+    </row>
+    <row r="816" spans="5:5">
+      <c r="E816" s="43"/>
+    </row>
+    <row r="817" spans="5:7">
+      <c r="E817" s="43"/>
+    </row>
+    <row r="818" spans="5:7">
+      <c r="E818" s="43"/>
+    </row>
+    <row r="819" spans="5:7">
+      <c r="E819" s="43"/>
     </row>
     <row r="820" spans="5:7">
       <c r="E820" s="43"/>
+    </row>
+    <row r="821" spans="5:7">
+      <c r="E821" s="43"/>
+    </row>
+    <row r="822" spans="5:7">
+      <c r="E822" s="43"/>
+    </row>
+    <row r="823" spans="5:7">
+      <c r="E823" s="43"/>
+    </row>
+    <row r="824" spans="5:7">
+      <c r="E824" s="43"/>
+    </row>
+    <row r="825" spans="5:7">
+      <c r="E825" s="43"/>
+    </row>
+    <row r="826" spans="5:7">
+      <c r="E826" s="43"/>
+    </row>
+    <row r="827" spans="5:7">
+      <c r="E827" s="43"/>
+    </row>
+    <row r="829" spans="5:7">
+      <c r="E829" s="43"/>
+      <c r="G829" s="43"/>
+    </row>
+    <row r="830" spans="5:7">
+      <c r="E830" s="43"/>
+      <c r="G830" s="43"/>
     </row>
     <row r="831" spans="5:7">
       <c r="E831" s="43"/>
@@ -8951,6 +11213,10 @@
       <c r="E846" s="43"/>
       <c r="G846" s="43"/>
     </row>
+    <row r="847" spans="5:7">
+      <c r="E847" s="43"/>
+      <c r="G847" s="43"/>
+    </row>
     <row r="848" spans="5:7">
       <c r="E848" s="43"/>
       <c r="G848" s="43"/>
@@ -9007,270 +11273,439 @@
       <c r="E861" s="43"/>
       <c r="G861" s="43"/>
     </row>
+    <row r="862" spans="5:7">
+      <c r="E862" s="43"/>
+      <c r="G862" s="43"/>
+    </row>
+    <row r="863" spans="5:7">
+      <c r="E863" s="43"/>
+      <c r="G863" s="43"/>
+    </row>
     <row r="864" spans="5:7">
       <c r="E864" s="43"/>
-    </row>
-    <row r="868" spans="5:5">
+      <c r="G864" s="43"/>
+    </row>
+    <row r="865" spans="5:7">
+      <c r="E865" s="43"/>
+      <c r="G865" s="43"/>
+    </row>
+    <row r="866" spans="5:7">
+      <c r="E866" s="43"/>
+      <c r="G866" s="43"/>
+    </row>
+    <row r="867" spans="5:7">
+      <c r="E867" s="43"/>
+      <c r="G867" s="43"/>
+    </row>
+    <row r="868" spans="5:7">
       <c r="E868" s="43"/>
-    </row>
-    <row r="869" spans="5:5">
+      <c r="G868" s="43"/>
+    </row>
+    <row r="869" spans="5:7">
       <c r="E869" s="43"/>
-    </row>
-    <row r="870" spans="5:5">
+      <c r="G869" s="43"/>
+    </row>
+    <row r="870" spans="5:7">
       <c r="E870" s="43"/>
-    </row>
-    <row r="871" spans="5:5">
+      <c r="G870" s="43"/>
+    </row>
+    <row r="871" spans="5:7">
       <c r="E871" s="43"/>
-    </row>
-    <row r="874" spans="5:5">
+      <c r="G871" s="43"/>
+    </row>
+    <row r="872" spans="5:7">
+      <c r="E872" s="43"/>
+      <c r="G872" s="43"/>
+    </row>
+    <row r="873" spans="5:7">
+      <c r="E873" s="43"/>
+      <c r="G873" s="43"/>
+    </row>
+    <row r="874" spans="5:7">
       <c r="E874" s="43"/>
-    </row>
-    <row r="875" spans="5:5">
+      <c r="G874" s="43"/>
+    </row>
+    <row r="875" spans="5:7">
       <c r="E875" s="43"/>
-    </row>
-    <row r="876" spans="5:5">
+      <c r="G875" s="43"/>
+    </row>
+    <row r="876" spans="5:7">
       <c r="E876" s="43"/>
-    </row>
-    <row r="877" spans="5:5">
-      <c r="E877" s="43"/>
-    </row>
-    <row r="880" spans="5:5">
-      <c r="E880" s="43"/>
-    </row>
-    <row r="881" spans="5:5">
-      <c r="E881" s="43"/>
-    </row>
-    <row r="882" spans="5:5">
-      <c r="E882" s="43"/>
-    </row>
-    <row r="883" spans="5:5">
-      <c r="E883" s="43"/>
-    </row>
-    <row r="884" spans="5:5">
-      <c r="E884" s="43"/>
-    </row>
-    <row r="885" spans="5:5">
-      <c r="E885" s="43"/>
+      <c r="G876" s="43"/>
     </row>
     <row r="886" spans="5:5">
       <c r="E886" s="43"/>
     </row>
-    <row r="887" spans="5:5">
-      <c r="E887" s="43"/>
-    </row>
-    <row r="888" spans="5:5">
-      <c r="E888" s="43"/>
-    </row>
-    <row r="889" spans="5:5">
-      <c r="E889" s="43"/>
-    </row>
-    <row r="890" spans="5:5">
-      <c r="E890" s="43"/>
-    </row>
-    <row r="891" spans="5:5">
-      <c r="E891" s="43"/>
-    </row>
-    <row r="892" spans="5:5">
-      <c r="E892" s="43"/>
-    </row>
-    <row r="893" spans="5:5">
-      <c r="E893" s="43"/>
-    </row>
-    <row r="895" spans="5:5">
-      <c r="E895" s="43"/>
-    </row>
-    <row r="896" spans="5:5">
-      <c r="E896" s="43"/>
-    </row>
-    <row r="897" spans="5:5">
-      <c r="E897" s="43"/>
-    </row>
-    <row r="898" spans="5:5">
-      <c r="E898" s="43"/>
-    </row>
-    <row r="899" spans="5:5">
-      <c r="E899" s="43"/>
-    </row>
-    <row r="900" spans="5:5">
-      <c r="E900" s="43"/>
-    </row>
-    <row r="901" spans="5:5">
-      <c r="E901" s="43"/>
-    </row>
-    <row r="902" spans="5:5">
-      <c r="E902" s="43"/>
-    </row>
-    <row r="903" spans="5:5">
-      <c r="E903" s="43"/>
-    </row>
-    <row r="904" spans="5:5">
-      <c r="E904" s="43"/>
-    </row>
-    <row r="905" spans="5:5">
-      <c r="E905" s="43"/>
-    </row>
-    <row r="906" spans="5:5">
-      <c r="E906" s="43"/>
-    </row>
-    <row r="907" spans="5:5">
-      <c r="E907" s="43"/>
-    </row>
-    <row r="908" spans="5:5">
-      <c r="E908" s="43"/>
-    </row>
-    <row r="910" spans="5:5">
-      <c r="E910" s="43"/>
-    </row>
-    <row r="911" spans="5:5">
-      <c r="E911" s="43"/>
-    </row>
-    <row r="912" spans="5:5">
-      <c r="E912" s="43"/>
-    </row>
-    <row r="913" spans="5:5">
-      <c r="E913" s="43"/>
-    </row>
-    <row r="914" spans="5:5">
-      <c r="E914" s="43"/>
-    </row>
-    <row r="915" spans="5:5">
-      <c r="E915" s="43"/>
-    </row>
-    <row r="916" spans="5:5">
+    <row r="897" spans="7:7">
+      <c r="G897" s="43"/>
+    </row>
+    <row r="898" spans="7:7">
+      <c r="G898" s="43"/>
+    </row>
+    <row r="899" spans="7:7">
+      <c r="G899" s="43"/>
+    </row>
+    <row r="900" spans="7:7">
+      <c r="G900" s="43"/>
+    </row>
+    <row r="901" spans="7:7">
+      <c r="G901" s="43"/>
+    </row>
+    <row r="902" spans="7:7">
+      <c r="G902" s="43"/>
+    </row>
+    <row r="903" spans="7:7">
+      <c r="G903" s="43"/>
+    </row>
+    <row r="904" spans="7:7">
+      <c r="G904" s="43"/>
+    </row>
+    <row r="905" spans="7:7">
+      <c r="G905" s="43"/>
+    </row>
+    <row r="906" spans="7:7">
+      <c r="G906" s="43"/>
+    </row>
+    <row r="907" spans="7:7">
+      <c r="G907" s="43"/>
+    </row>
+    <row r="908" spans="7:7">
+      <c r="G908" s="43"/>
+    </row>
+    <row r="909" spans="7:7">
+      <c r="G909" s="43"/>
+    </row>
+    <row r="910" spans="7:7">
+      <c r="G910" s="43"/>
+    </row>
+    <row r="911" spans="7:7">
+      <c r="G911" s="43"/>
+    </row>
+    <row r="912" spans="7:7">
+      <c r="G912" s="43"/>
+    </row>
+    <row r="913" spans="5:7">
+      <c r="G913" s="43"/>
+    </row>
+    <row r="914" spans="5:7">
+      <c r="G914" s="43"/>
+    </row>
+    <row r="915" spans="5:7">
+      <c r="G915" s="43"/>
+    </row>
+    <row r="916" spans="5:7">
       <c r="E916" s="43"/>
-    </row>
-    <row r="917" spans="5:5">
-      <c r="E917" s="43"/>
-    </row>
-    <row r="918" spans="5:5">
-      <c r="E918" s="43"/>
-    </row>
-    <row r="919" spans="5:5">
-      <c r="E919" s="43"/>
-    </row>
-    <row r="920" spans="5:5">
-      <c r="E920" s="43"/>
-    </row>
-    <row r="921" spans="5:5">
-      <c r="E921" s="43"/>
-    </row>
-    <row r="922" spans="5:5">
-      <c r="E922" s="43"/>
-    </row>
-    <row r="923" spans="5:5">
-      <c r="E923" s="43"/>
-    </row>
-    <row r="925" spans="5:5">
-      <c r="E925" s="43"/>
-    </row>
-    <row r="926" spans="5:5">
+      <c r="G916" s="43"/>
+    </row>
+    <row r="926" spans="5:7">
       <c r="E926" s="43"/>
     </row>
-    <row r="927" spans="5:5">
-      <c r="E927" s="43"/>
-    </row>
-    <row r="928" spans="5:5">
-      <c r="E928" s="43"/>
-    </row>
-    <row r="929" spans="5:5">
-      <c r="E929" s="43"/>
-    </row>
-    <row r="930" spans="5:5">
-      <c r="E930" s="43"/>
-    </row>
-    <row r="931" spans="5:5">
-      <c r="E931" s="43"/>
-    </row>
-    <row r="932" spans="5:5">
-      <c r="E932" s="43"/>
-    </row>
-    <row r="933" spans="5:5">
-      <c r="E933" s="43"/>
-    </row>
-    <row r="934" spans="5:5">
-      <c r="E934" s="43"/>
-    </row>
-    <row r="935" spans="5:5">
-      <c r="E935" s="43"/>
-    </row>
-    <row r="936" spans="5:5">
-      <c r="E936" s="43"/>
-    </row>
-    <row r="937" spans="5:5">
+    <row r="937" spans="5:7">
       <c r="E937" s="43"/>
-    </row>
-    <row r="938" spans="5:5">
+      <c r="G937" s="43"/>
+    </row>
+    <row r="938" spans="5:7">
       <c r="E938" s="43"/>
-    </row>
-    <row r="939" spans="5:5">
+      <c r="G938" s="43"/>
+    </row>
+    <row r="939" spans="5:7">
       <c r="E939" s="43"/>
-    </row>
-    <row r="940" spans="5:5">
+      <c r="G939" s="43"/>
+    </row>
+    <row r="940" spans="5:7">
       <c r="E940" s="43"/>
-    </row>
-    <row r="941" spans="5:5">
+      <c r="G940" s="43"/>
+    </row>
+    <row r="941" spans="5:7">
       <c r="E941" s="43"/>
-    </row>
-    <row r="942" spans="5:5">
+      <c r="G941" s="43"/>
+    </row>
+    <row r="942" spans="5:7">
       <c r="E942" s="43"/>
-    </row>
-    <row r="943" spans="5:5">
+      <c r="G942" s="43"/>
+    </row>
+    <row r="943" spans="5:7">
       <c r="E943" s="43"/>
-    </row>
-    <row r="944" spans="5:5">
+      <c r="G943" s="43"/>
+    </row>
+    <row r="944" spans="5:7">
       <c r="E944" s="43"/>
-    </row>
-    <row r="945" spans="5:5">
+      <c r="G944" s="43"/>
+    </row>
+    <row r="945" spans="5:7">
       <c r="E945" s="43"/>
-    </row>
-    <row r="946" spans="5:5">
+      <c r="G945" s="43"/>
+    </row>
+    <row r="946" spans="5:7">
       <c r="E946" s="43"/>
-    </row>
-    <row r="947" spans="5:5">
+      <c r="G946" s="43"/>
+    </row>
+    <row r="947" spans="5:7">
       <c r="E947" s="43"/>
-    </row>
-    <row r="948" spans="5:5">
+      <c r="G947" s="43"/>
+    </row>
+    <row r="948" spans="5:7">
       <c r="E948" s="43"/>
-    </row>
-    <row r="949" spans="5:5">
+      <c r="G948" s="43"/>
+    </row>
+    <row r="949" spans="5:7">
       <c r="E949" s="43"/>
-    </row>
-    <row r="950" spans="5:5">
+      <c r="G949" s="43"/>
+    </row>
+    <row r="950" spans="5:7">
       <c r="E950" s="43"/>
-    </row>
-    <row r="951" spans="5:5">
+      <c r="G950" s="43"/>
+    </row>
+    <row r="951" spans="5:7">
       <c r="E951" s="43"/>
-    </row>
-    <row r="952" spans="5:5">
+      <c r="G951" s="43"/>
+    </row>
+    <row r="952" spans="5:7">
       <c r="E952" s="43"/>
-    </row>
-    <row r="954" spans="5:5">
+      <c r="G952" s="43"/>
+    </row>
+    <row r="954" spans="5:7">
       <c r="E954" s="43"/>
-    </row>
-    <row r="967" spans="5:5">
+      <c r="G954" s="43"/>
+    </row>
+    <row r="955" spans="5:7">
+      <c r="E955" s="43"/>
+      <c r="G955" s="43"/>
+    </row>
+    <row r="956" spans="5:7">
+      <c r="E956" s="43"/>
+      <c r="G956" s="43"/>
+    </row>
+    <row r="957" spans="5:7">
+      <c r="E957" s="43"/>
+      <c r="G957" s="43"/>
+    </row>
+    <row r="958" spans="5:7">
+      <c r="E958" s="43"/>
+      <c r="G958" s="43"/>
+    </row>
+    <row r="959" spans="5:7">
+      <c r="E959" s="43"/>
+      <c r="G959" s="43"/>
+    </row>
+    <row r="960" spans="5:7">
+      <c r="E960" s="43"/>
+      <c r="G960" s="43"/>
+    </row>
+    <row r="961" spans="5:7">
+      <c r="E961" s="43"/>
+      <c r="G961" s="43"/>
+    </row>
+    <row r="962" spans="5:7">
+      <c r="E962" s="43"/>
+      <c r="G962" s="43"/>
+    </row>
+    <row r="963" spans="5:7">
+      <c r="E963" s="43"/>
+      <c r="G963" s="43"/>
+    </row>
+    <row r="964" spans="5:7">
+      <c r="E964" s="43"/>
+      <c r="G964" s="43"/>
+    </row>
+    <row r="965" spans="5:7">
+      <c r="E965" s="43"/>
+      <c r="G965" s="43"/>
+    </row>
+    <row r="966" spans="5:7">
+      <c r="E966" s="43"/>
+      <c r="G966" s="43"/>
+    </row>
+    <row r="967" spans="5:7">
       <c r="E967" s="43"/>
+      <c r="G967" s="43"/>
+    </row>
+    <row r="970" spans="5:7">
+      <c r="E970" s="43"/>
+    </row>
+    <row r="974" spans="5:7">
+      <c r="E974" s="43"/>
+    </row>
+    <row r="975" spans="5:7">
+      <c r="E975" s="43"/>
+    </row>
+    <row r="976" spans="5:7">
+      <c r="E976" s="43"/>
+    </row>
+    <row r="977" spans="5:5">
+      <c r="E977" s="43"/>
+    </row>
+    <row r="980" spans="5:5">
+      <c r="E980" s="43"/>
     </row>
     <row r="981" spans="5:5">
       <c r="E981" s="43"/>
     </row>
+    <row r="982" spans="5:5">
+      <c r="E982" s="43"/>
+    </row>
     <row r="983" spans="5:5">
       <c r="E983" s="43"/>
     </row>
+    <row r="986" spans="5:5">
+      <c r="E986" s="43"/>
+    </row>
+    <row r="987" spans="5:5">
+      <c r="E987" s="43"/>
+    </row>
+    <row r="988" spans="5:5">
+      <c r="E988" s="43"/>
+    </row>
+    <row r="989" spans="5:5">
+      <c r="E989" s="43"/>
+    </row>
+    <row r="990" spans="5:5">
+      <c r="E990" s="43"/>
+    </row>
+    <row r="991" spans="5:5">
+      <c r="E991" s="43"/>
+    </row>
+    <row r="992" spans="5:5">
+      <c r="E992" s="43"/>
+    </row>
+    <row r="993" spans="5:5">
+      <c r="E993" s="43"/>
+    </row>
+    <row r="994" spans="5:5">
+      <c r="E994" s="43"/>
+    </row>
+    <row r="995" spans="5:5">
+      <c r="E995" s="43"/>
+    </row>
     <row r="996" spans="5:5">
       <c r="E996" s="43"/>
     </row>
+    <row r="997" spans="5:5">
+      <c r="E997" s="43"/>
+    </row>
+    <row r="998" spans="5:5">
+      <c r="E998" s="43"/>
+    </row>
+    <row r="999" spans="5:5">
+      <c r="E999" s="43"/>
+    </row>
+    <row r="1001" spans="5:5">
+      <c r="E1001" s="43"/>
+    </row>
+    <row r="1002" spans="5:5">
+      <c r="E1002" s="43"/>
+    </row>
+    <row r="1003" spans="5:5">
+      <c r="E1003" s="43"/>
+    </row>
+    <row r="1004" spans="5:5">
+      <c r="E1004" s="43"/>
+    </row>
+    <row r="1005" spans="5:5">
+      <c r="E1005" s="43"/>
+    </row>
+    <row r="1006" spans="5:5">
+      <c r="E1006" s="43"/>
+    </row>
+    <row r="1007" spans="5:5">
+      <c r="E1007" s="43"/>
+    </row>
+    <row r="1008" spans="5:5">
+      <c r="E1008" s="43"/>
+    </row>
+    <row r="1009" spans="5:5">
+      <c r="E1009" s="43"/>
+    </row>
     <row r="1010" spans="5:5">
       <c r="E1010" s="43"/>
     </row>
+    <row r="1011" spans="5:5">
+      <c r="E1011" s="43"/>
+    </row>
     <row r="1012" spans="5:5">
       <c r="E1012" s="43"/>
     </row>
+    <row r="1013" spans="5:5">
+      <c r="E1013" s="43"/>
+    </row>
+    <row r="1014" spans="5:5">
+      <c r="E1014" s="43"/>
+    </row>
+    <row r="1016" spans="5:5">
+      <c r="E1016" s="43"/>
+    </row>
+    <row r="1017" spans="5:5">
+      <c r="E1017" s="43"/>
+    </row>
+    <row r="1018" spans="5:5">
+      <c r="E1018" s="43"/>
+    </row>
+    <row r="1019" spans="5:5">
+      <c r="E1019" s="43"/>
+    </row>
+    <row r="1020" spans="5:5">
+      <c r="E1020" s="43"/>
+    </row>
+    <row r="1021" spans="5:5">
+      <c r="E1021" s="43"/>
+    </row>
+    <row r="1022" spans="5:5">
+      <c r="E1022" s="43"/>
+    </row>
+    <row r="1023" spans="5:5">
+      <c r="E1023" s="43"/>
+    </row>
+    <row r="1024" spans="5:5">
+      <c r="E1024" s="43"/>
+    </row>
     <row r="1025" spans="5:5">
       <c r="E1025" s="43"/>
     </row>
+    <row r="1026" spans="5:5">
+      <c r="E1026" s="43"/>
+    </row>
+    <row r="1027" spans="5:5">
+      <c r="E1027" s="43"/>
+    </row>
+    <row r="1028" spans="5:5">
+      <c r="E1028" s="43"/>
+    </row>
+    <row r="1029" spans="5:5">
+      <c r="E1029" s="43"/>
+    </row>
+    <row r="1031" spans="5:5">
+      <c r="E1031" s="43"/>
+    </row>
+    <row r="1032" spans="5:5">
+      <c r="E1032" s="43"/>
+    </row>
+    <row r="1033" spans="5:5">
+      <c r="E1033" s="43"/>
+    </row>
+    <row r="1034" spans="5:5">
+      <c r="E1034" s="43"/>
+    </row>
+    <row r="1035" spans="5:5">
+      <c r="E1035" s="43"/>
+    </row>
+    <row r="1036" spans="5:5">
+      <c r="E1036" s="43"/>
+    </row>
+    <row r="1037" spans="5:5">
+      <c r="E1037" s="43"/>
+    </row>
+    <row r="1038" spans="5:5">
+      <c r="E1038" s="43"/>
+    </row>
     <row r="1039" spans="5:5">
       <c r="E1039" s="43"/>
     </row>
+    <row r="1040" spans="5:5">
+      <c r="E1040" s="43"/>
+    </row>
+    <row r="1041" spans="5:5">
+      <c r="E1041" s="43"/>
+    </row>
     <row r="1042" spans="5:5">
       <c r="E1042" s="43"/>
     </row>
@@ -9313,181 +11748,259 @@
     <row r="1055" spans="5:5">
       <c r="E1055" s="43"/>
     </row>
-    <row r="1064" spans="5:5">
-      <c r="E1064" s="43"/>
-    </row>
-    <row r="1081" spans="5:5">
-      <c r="E1081" s="43"/>
-    </row>
-    <row r="1098" spans="5:5">
-      <c r="E1098" s="43"/>
-    </row>
-    <row r="1115" spans="5:5">
-      <c r="E1115" s="43"/>
-    </row>
-    <row r="1132" spans="5:5">
-      <c r="E1132" s="43"/>
+    <row r="1056" spans="5:5">
+      <c r="E1056" s="43"/>
+    </row>
+    <row r="1057" spans="5:5">
+      <c r="E1057" s="43"/>
+    </row>
+    <row r="1058" spans="5:5">
+      <c r="E1058" s="43"/>
+    </row>
+    <row r="1060" spans="5:5">
+      <c r="E1060" s="43"/>
+    </row>
+    <row r="1073" spans="5:5">
+      <c r="E1073" s="43"/>
+    </row>
+    <row r="1087" spans="5:5">
+      <c r="E1087" s="43"/>
+    </row>
+    <row r="1089" spans="5:5">
+      <c r="E1089" s="43"/>
+    </row>
+    <row r="1102" spans="5:5">
+      <c r="E1102" s="43"/>
+    </row>
+    <row r="1116" spans="5:5">
+      <c r="E1116" s="43"/>
+    </row>
+    <row r="1118" spans="5:5">
+      <c r="E1118" s="43"/>
+    </row>
+    <row r="1131" spans="5:5">
+      <c r="E1131" s="43"/>
+    </row>
+    <row r="1145" spans="5:5">
+      <c r="E1145" s="43"/>
+    </row>
+    <row r="1148" spans="5:5">
+      <c r="E1148" s="43"/>
     </row>
     <row r="1149" spans="5:5">
       <c r="E1149" s="43"/>
     </row>
-    <row r="1166" spans="5:5">
-      <c r="E1166" s="43"/>
-    </row>
-    <row r="1183" spans="5:5">
-      <c r="E1183" s="43"/>
-    </row>
-    <row r="1200" spans="5:5">
-      <c r="E1200" s="43"/>
-    </row>
-    <row r="1217" spans="5:5">
-      <c r="E1217" s="43"/>
-    </row>
-    <row r="1234" spans="5:5">
-      <c r="E1234" s="43"/>
-    </row>
-    <row r="1251" spans="5:5">
-      <c r="E1251" s="43"/>
-    </row>
-    <row r="1268" spans="5:5">
-      <c r="E1268" s="43"/>
-    </row>
-    <row r="1285" spans="5:5">
-      <c r="E1285" s="43"/>
-    </row>
-    <row r="1302" spans="5:5">
-      <c r="E1302" s="43"/>
-    </row>
-    <row r="1319" spans="5:5">
-      <c r="E1319" s="43"/>
-    </row>
-    <row r="1329" spans="5:7">
-      <c r="G1329" s="43"/>
-    </row>
-    <row r="1330" spans="5:7">
-      <c r="G1330" s="43"/>
-    </row>
-    <row r="1331" spans="5:7">
-      <c r="G1331" s="43"/>
-    </row>
-    <row r="1332" spans="5:7">
-      <c r="G1332" s="43"/>
-    </row>
-    <row r="1333" spans="5:7">
-      <c r="G1333" s="43"/>
-    </row>
-    <row r="1334" spans="5:7">
-      <c r="G1334" s="43"/>
-    </row>
-    <row r="1335" spans="5:7">
-      <c r="G1335" s="43"/>
-    </row>
-    <row r="1336" spans="5:7">
-      <c r="G1336" s="43"/>
-    </row>
-    <row r="1337" spans="5:7">
-      <c r="G1337" s="43"/>
-    </row>
-    <row r="1338" spans="5:7">
-      <c r="G1338" s="43"/>
-    </row>
-    <row r="1339" spans="5:7">
-      <c r="G1339" s="43"/>
-    </row>
-    <row r="1340" spans="5:7">
-      <c r="G1340" s="43"/>
-    </row>
-    <row r="1341" spans="5:7">
-      <c r="G1341" s="43"/>
-    </row>
-    <row r="1342" spans="5:7">
-      <c r="E1342" s="43"/>
-      <c r="G1342" s="43"/>
-    </row>
-    <row r="1363" spans="5:5">
-      <c r="E1363" s="43"/>
-    </row>
-    <row r="1378" spans="5:5">
-      <c r="E1378" s="43"/>
-    </row>
-    <row r="1393" spans="5:5">
-      <c r="E1393" s="43"/>
+    <row r="1150" spans="5:5">
+      <c r="E1150" s="43"/>
+    </row>
+    <row r="1151" spans="5:5">
+      <c r="E1151" s="43"/>
+    </row>
+    <row r="1152" spans="5:5">
+      <c r="E1152" s="43"/>
+    </row>
+    <row r="1153" spans="5:5">
+      <c r="E1153" s="43"/>
+    </row>
+    <row r="1154" spans="5:5">
+      <c r="E1154" s="43"/>
+    </row>
+    <row r="1155" spans="5:5">
+      <c r="E1155" s="43"/>
+    </row>
+    <row r="1156" spans="5:5">
+      <c r="E1156" s="43"/>
+    </row>
+    <row r="1157" spans="5:5">
+      <c r="E1157" s="43"/>
+    </row>
+    <row r="1158" spans="5:5">
+      <c r="E1158" s="43"/>
+    </row>
+    <row r="1159" spans="5:5">
+      <c r="E1159" s="43"/>
+    </row>
+    <row r="1160" spans="5:5">
+      <c r="E1160" s="43"/>
+    </row>
+    <row r="1161" spans="5:5">
+      <c r="E1161" s="43"/>
+    </row>
+    <row r="1170" spans="5:5">
+      <c r="E1170" s="43"/>
+    </row>
+    <row r="1187" spans="5:5">
+      <c r="E1187" s="43"/>
+    </row>
+    <row r="1204" spans="5:5">
+      <c r="E1204" s="43"/>
+    </row>
+    <row r="1221" spans="5:5">
+      <c r="E1221" s="43"/>
+    </row>
+    <row r="1238" spans="5:5">
+      <c r="E1238" s="43"/>
+    </row>
+    <row r="1255" spans="5:5">
+      <c r="E1255" s="43"/>
+    </row>
+    <row r="1272" spans="5:5">
+      <c r="E1272" s="43"/>
+    </row>
+    <row r="1289" spans="5:5">
+      <c r="E1289" s="43"/>
+    </row>
+    <row r="1306" spans="5:5">
+      <c r="E1306" s="43"/>
+    </row>
+    <row r="1323" spans="5:5">
+      <c r="E1323" s="43"/>
+    </row>
+    <row r="1340" spans="5:5">
+      <c r="E1340" s="43"/>
+    </row>
+    <row r="1357" spans="5:5">
+      <c r="E1357" s="43"/>
+    </row>
+    <row r="1374" spans="5:5">
+      <c r="E1374" s="43"/>
+    </row>
+    <row r="1391" spans="5:5">
+      <c r="E1391" s="43"/>
     </row>
     <row r="1408" spans="5:5">
       <c r="E1408" s="43"/>
     </row>
-    <row r="1424" spans="5:5">
-      <c r="E1424" s="43"/>
-    </row>
-    <row r="1432" spans="5:5">
-      <c r="E1432" s="43"/>
-    </row>
-    <row r="1441" spans="7:7">
+    <row r="1425" spans="5:7">
+      <c r="E1425" s="43"/>
+    </row>
+    <row r="1435" spans="5:7">
+      <c r="G1435" s="43"/>
+    </row>
+    <row r="1436" spans="5:7">
+      <c r="G1436" s="43"/>
+    </row>
+    <row r="1437" spans="5:7">
+      <c r="G1437" s="43"/>
+    </row>
+    <row r="1438" spans="5:7">
+      <c r="G1438" s="43"/>
+    </row>
+    <row r="1439" spans="5:7">
+      <c r="G1439" s="43"/>
+    </row>
+    <row r="1440" spans="5:7">
+      <c r="G1440" s="43"/>
+    </row>
+    <row r="1441" spans="5:7">
       <c r="G1441" s="43"/>
     </row>
-    <row r="1442" spans="7:7">
+    <row r="1442" spans="5:7">
       <c r="G1442" s="43"/>
     </row>
-    <row r="1443" spans="7:7">
+    <row r="1443" spans="5:7">
       <c r="G1443" s="43"/>
     </row>
-    <row r="1444" spans="7:7">
+    <row r="1444" spans="5:7">
       <c r="G1444" s="43"/>
     </row>
-    <row r="1445" spans="7:7">
+    <row r="1445" spans="5:7">
       <c r="G1445" s="43"/>
     </row>
-    <row r="1446" spans="7:7">
+    <row r="1446" spans="5:7">
       <c r="G1446" s="43"/>
     </row>
-    <row r="1447" spans="7:7">
+    <row r="1447" spans="5:7">
       <c r="G1447" s="43"/>
     </row>
-    <row r="1448" spans="7:7">
+    <row r="1448" spans="5:7">
+      <c r="E1448" s="43"/>
       <c r="G1448" s="43"/>
     </row>
-    <row r="1449" spans="7:7">
-      <c r="G1449" s="43"/>
-    </row>
-    <row r="1450" spans="7:7">
-      <c r="G1450" s="43"/>
-    </row>
-    <row r="1451" spans="7:7">
-      <c r="G1451" s="43"/>
-    </row>
-    <row r="1452" spans="7:7">
-      <c r="G1452" s="43"/>
-    </row>
-    <row r="1453" spans="7:7">
-      <c r="G1453" s="43"/>
-    </row>
-    <row r="1454" spans="7:7">
-      <c r="G1454" s="43"/>
-    </row>
-    <row r="1455" spans="7:7">
-      <c r="G1455" s="43"/>
-    </row>
-    <row r="1456" spans="7:7">
-      <c r="G1456" s="43"/>
-    </row>
-    <row r="1457" spans="5:7">
-      <c r="G1457" s="43"/>
-    </row>
-    <row r="1458" spans="5:7">
-      <c r="G1458" s="43"/>
-    </row>
-    <row r="1459" spans="5:7">
-      <c r="G1459" s="43"/>
-    </row>
-    <row r="1460" spans="5:7">
-      <c r="E1460" s="43"/>
-      <c r="G1460" s="43"/>
-    </row>
-    <row r="1468" spans="5:7">
-      <c r="E1468" s="43"/>
-    </row>
-    <row r="1475" spans="5:5">
-      <c r="E1475" s="43"/>
+    <row r="1469" spans="5:5">
+      <c r="E1469" s="43"/>
+    </row>
+    <row r="1484" spans="5:5">
+      <c r="E1484" s="43"/>
+    </row>
+    <row r="1499" spans="5:5">
+      <c r="E1499" s="43"/>
+    </row>
+    <row r="1514" spans="5:5">
+      <c r="E1514" s="43"/>
+    </row>
+    <row r="1530" spans="5:5">
+      <c r="E1530" s="43"/>
+    </row>
+    <row r="1538" spans="5:7">
+      <c r="E1538" s="43"/>
+    </row>
+    <row r="1547" spans="5:7">
+      <c r="G1547" s="43"/>
+    </row>
+    <row r="1548" spans="5:7">
+      <c r="G1548" s="43"/>
+    </row>
+    <row r="1549" spans="5:7">
+      <c r="G1549" s="43"/>
+    </row>
+    <row r="1550" spans="5:7">
+      <c r="G1550" s="43"/>
+    </row>
+    <row r="1551" spans="5:7">
+      <c r="G1551" s="43"/>
+    </row>
+    <row r="1552" spans="5:7">
+      <c r="G1552" s="43"/>
+    </row>
+    <row r="1553" spans="5:7">
+      <c r="G1553" s="43"/>
+    </row>
+    <row r="1554" spans="5:7">
+      <c r="G1554" s="43"/>
+    </row>
+    <row r="1555" spans="5:7">
+      <c r="G1555" s="43"/>
+    </row>
+    <row r="1556" spans="5:7">
+      <c r="G1556" s="43"/>
+    </row>
+    <row r="1557" spans="5:7">
+      <c r="G1557" s="43"/>
+    </row>
+    <row r="1558" spans="5:7">
+      <c r="G1558" s="43"/>
+    </row>
+    <row r="1559" spans="5:7">
+      <c r="G1559" s="43"/>
+    </row>
+    <row r="1560" spans="5:7">
+      <c r="G1560" s="43"/>
+    </row>
+    <row r="1561" spans="5:7">
+      <c r="G1561" s="43"/>
+    </row>
+    <row r="1562" spans="5:7">
+      <c r="G1562" s="43"/>
+    </row>
+    <row r="1563" spans="5:7">
+      <c r="G1563" s="43"/>
+    </row>
+    <row r="1564" spans="5:7">
+      <c r="G1564" s="43"/>
+    </row>
+    <row r="1565" spans="5:7">
+      <c r="G1565" s="43"/>
+    </row>
+    <row r="1566" spans="5:7">
+      <c r="E1566" s="43"/>
+      <c r="G1566" s="43"/>
+    </row>
+    <row r="1574" spans="5:5">
+      <c r="E1574" s="43"/>
+    </row>
+    <row r="1581" spans="5:5">
+      <c r="E1581" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C6CF5A-229C-4202-88C3-C5001D3F4BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7078CEF-8E0D-4032-A247-78801FA6A7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="760">
   <si>
     <t>Name</t>
   </si>
@@ -2126,6 +2126,267 @@
   </si>
   <si>
     <t>Commodore 64/250466/Scope baseline/Images/U6_18_PAL.png</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1Y</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2Y</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3Y</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>6Y</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U8_14_PAL.png</t>
+  </si>
+  <si>
+    <t>/G</t>
+  </si>
+  <si>
+    <t>/W</t>
+  </si>
+  <si>
+    <t>/RAS</t>
+  </si>
+  <si>
+    <t>/CAS</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_18_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U9_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_16_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_17_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U10_18_PAL.png</t>
+  </si>
+  <si>
+    <t>//A/B</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_8_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_9_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_10_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_11_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_12_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_13_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_14_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_15_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/U13_16_PAL.png</t>
   </si>
 </sst>
 </file>
@@ -5274,13 +5535,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I1581"/>
+  <dimension ref="A1:I1647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E176" sqref="E176"/>
+      <selection pane="bottomRight" activeCell="F288" sqref="F288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9831,1250 +10092,2377 @@
         <v>308</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="43.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C236" s="32">
+        <v>1</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C237" s="32">
+        <v>2</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F237" s="14" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B238" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C238" s="32">
+        <v>3</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B239" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C239" s="32">
+        <v>4</v>
+      </c>
+      <c r="D239" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B240" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C240" s="32">
+        <v>5</v>
+      </c>
+      <c r="D240" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F240" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C241" s="32">
+        <v>6</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F241" s="14" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B242" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C242" s="32">
+        <v>7</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F242" s="14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B243" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C243" s="32">
+        <v>8</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C244" s="32">
+        <v>9</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C245" s="32">
+        <v>10</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C246" s="32">
+        <v>11</v>
+      </c>
+      <c r="D246" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F246" s="14" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C247" s="32">
+        <v>12</v>
+      </c>
+      <c r="D247" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C248" s="32">
+        <v>13</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C249" s="32">
+        <v>14</v>
+      </c>
+      <c r="D249" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="43.2">
+      <c r="A250" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B236" s="16"/>
-      <c r="C236" s="32"/>
-      <c r="D236" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F236" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="43.2">
-      <c r="A237" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B237" s="16"/>
-      <c r="C237" s="32"/>
-      <c r="D237" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F237" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B238" s="14"/>
-      <c r="C238" s="37"/>
-      <c r="D238" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F238" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B239" s="14"/>
-      <c r="C239" s="37"/>
-      <c r="D239" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F239" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B240" s="14"/>
-      <c r="C240" s="37"/>
-      <c r="D240" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F240" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B241" s="14"/>
-      <c r="C241" s="37"/>
-      <c r="D241" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F241" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="72">
-      <c r="A242" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B242" s="14"/>
-      <c r="C242" s="37"/>
-      <c r="D242" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F242" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="72">
-      <c r="A243" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B243" s="14"/>
-      <c r="C243" s="37"/>
-      <c r="D243" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F243" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="28.8">
-      <c r="A244" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B244" s="14"/>
-      <c r="C244" s="37"/>
-      <c r="D244" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F244" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B245" s="14"/>
-      <c r="C245" s="37"/>
-      <c r="D245" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F245" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B246" s="14"/>
-      <c r="C246" s="37"/>
-      <c r="D246" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F246" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B247" s="14"/>
-      <c r="C247" s="37"/>
-      <c r="D247" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F247" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B248" s="14"/>
-      <c r="C248" s="37"/>
-      <c r="D248" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F248" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B249" s="14"/>
-      <c r="C249" s="37"/>
-      <c r="D249" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F249" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B250" s="14"/>
-      <c r="C250" s="37"/>
+      <c r="B250" s="16"/>
+      <c r="C250" s="32"/>
       <c r="D250" s="14" t="s">
         <v>161</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B251" s="14"/>
-      <c r="C251" s="37"/>
+      <c r="A251" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C251" s="32">
+        <v>1</v>
+      </c>
       <c r="D251" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B252" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C252" s="32">
+        <v>2</v>
+      </c>
+      <c r="D252" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C253" s="32">
+        <v>3</v>
+      </c>
+      <c r="D253" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C254" s="32">
+        <v>4</v>
+      </c>
+      <c r="D254" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B255" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C255" s="32">
+        <v>5</v>
+      </c>
+      <c r="D255" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F255" s="14" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B256" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C256" s="32">
+        <v>6</v>
+      </c>
+      <c r="D256" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B257" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C257" s="32">
+        <v>7</v>
+      </c>
+      <c r="D257" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C258" s="32">
+        <v>8</v>
+      </c>
+      <c r="D258" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C259" s="32">
+        <v>9</v>
+      </c>
+      <c r="D259" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F259" s="14" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C260" s="32">
+        <v>10</v>
+      </c>
+      <c r="D260" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F260" s="14" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C261" s="32">
+        <v>11</v>
+      </c>
+      <c r="D261" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F261" s="14" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C262" s="32">
+        <v>12</v>
+      </c>
+      <c r="D262" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F262" s="14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C263" s="32">
+        <v>13</v>
+      </c>
+      <c r="D263" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B264" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C264" s="32">
+        <v>14</v>
+      </c>
+      <c r="D264" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F264" s="14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C265" s="32">
+        <v>15</v>
+      </c>
+      <c r="D265" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F265" s="14" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B266" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C266" s="32">
+        <v>16</v>
+      </c>
+      <c r="D266" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F266" s="14" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B267" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C267" s="32">
+        <v>17</v>
+      </c>
+      <c r="D267" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F267" s="14" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B268" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C268" s="32">
+        <v>18</v>
+      </c>
+      <c r="D268" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F268" s="14" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="43.2">
+      <c r="A269" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B269" s="16"/>
+      <c r="C269" s="32"/>
+      <c r="D269" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F251" s="14"/>
-      <c r="G251" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B252" s="14"/>
-      <c r="C252" s="37"/>
-      <c r="D252" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F252" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B253" s="14"/>
-      <c r="C253" s="37"/>
-      <c r="D253" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F253" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="72">
-      <c r="A254" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B254" s="14"/>
-      <c r="C254" s="37"/>
-      <c r="D254" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="33"/>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="48"/>
-      <c r="B256"/>
-      <c r="C256" s="4"/>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="49"/>
-      <c r="B257" s="27"/>
-      <c r="C257" s="38"/>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="48"/>
-      <c r="B258"/>
-      <c r="C258" s="4"/>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="14"/>
-      <c r="B259" s="14"/>
-      <c r="C259" s="37"/>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="14"/>
-      <c r="B260" s="14"/>
-      <c r="C260" s="37"/>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="28"/>
-      <c r="B261" s="28"/>
-      <c r="C261" s="39"/>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="14"/>
-      <c r="B262" s="14"/>
-      <c r="C262" s="37"/>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="14"/>
-      <c r="B263" s="14"/>
-      <c r="C263" s="37"/>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="14"/>
-      <c r="B264" s="14"/>
-      <c r="C264" s="37"/>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="28"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="39"/>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="14"/>
-      <c r="B266" s="14"/>
-      <c r="C266" s="37"/>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="14"/>
-      <c r="B267" s="14"/>
-      <c r="C267" s="37"/>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="14"/>
-      <c r="B268" s="14"/>
-      <c r="C268" s="37"/>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="14"/>
-      <c r="B269" s="14"/>
-      <c r="C269" s="37"/>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="14"/>
-      <c r="B270" s="14"/>
-      <c r="C270" s="37"/>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="14"/>
-      <c r="B271" s="14"/>
-      <c r="C271" s="37"/>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="14"/>
-      <c r="B272" s="14"/>
-      <c r="C272" s="37"/>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="14"/>
-      <c r="B273" s="14"/>
-      <c r="C273" s="37"/>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="14"/>
-      <c r="B274" s="14"/>
-      <c r="C274" s="37"/>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="14"/>
-      <c r="B275" s="14"/>
-      <c r="C275" s="37"/>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="14"/>
-      <c r="B276" s="14"/>
-      <c r="C276" s="37"/>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="14"/>
-      <c r="B277" s="14"/>
-      <c r="C277" s="37"/>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="14"/>
-      <c r="B278" s="14"/>
-      <c r="C278" s="37"/>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="14"/>
-      <c r="B279" s="14"/>
-      <c r="C279" s="37"/>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="14"/>
-      <c r="B280" s="14"/>
-      <c r="C280" s="37"/>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="14"/>
-      <c r="B281" s="14"/>
-      <c r="C281" s="37"/>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="14"/>
-      <c r="B282" s="14"/>
-      <c r="C282" s="37"/>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="14"/>
-      <c r="B283" s="14"/>
-      <c r="C283" s="37"/>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="14"/>
-      <c r="B284" s="14"/>
-      <c r="C284" s="37"/>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="14"/>
-      <c r="B285" s="14"/>
-      <c r="C285" s="37"/>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="14"/>
-      <c r="B286" s="14"/>
-      <c r="C286" s="37"/>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="14"/>
-      <c r="B287" s="14"/>
-      <c r="C287" s="37"/>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="14"/>
+      <c r="F269" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B270" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C270" s="32">
+        <v>1</v>
+      </c>
+      <c r="D270" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F270" s="14" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B271" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C271" s="32">
+        <v>2</v>
+      </c>
+      <c r="D271" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F271" s="14" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B272" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C272" s="32">
+        <v>3</v>
+      </c>
+      <c r="D272" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F272" s="14" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B273" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C273" s="32">
+        <v>4</v>
+      </c>
+      <c r="D273" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F273" s="14" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B274" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C274" s="32">
+        <v>5</v>
+      </c>
+      <c r="D274" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F274" s="14" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B275" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C275" s="32">
+        <v>6</v>
+      </c>
+      <c r="D275" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F275" s="14" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B276" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C276" s="32">
+        <v>7</v>
+      </c>
+      <c r="D276" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F276" s="14" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B277" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C277" s="32">
+        <v>8</v>
+      </c>
+      <c r="D277" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F277" s="14" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B278" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C278" s="32">
+        <v>9</v>
+      </c>
+      <c r="D278" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F278" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B279" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C279" s="32">
+        <v>10</v>
+      </c>
+      <c r="D279" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F279" s="14" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B280" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C280" s="32">
+        <v>11</v>
+      </c>
+      <c r="D280" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F280" s="14" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B281" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C281" s="32">
+        <v>12</v>
+      </c>
+      <c r="D281" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F281" s="14" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B282" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C282" s="32">
+        <v>13</v>
+      </c>
+      <c r="D282" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F282" s="14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B283" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C283" s="32">
+        <v>14</v>
+      </c>
+      <c r="D283" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F283" s="14" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B284" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C284" s="32">
+        <v>15</v>
+      </c>
+      <c r="D284" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F284" s="14" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C285" s="32">
+        <v>16</v>
+      </c>
+      <c r="D285" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F285" s="14" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B286" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C286" s="32">
+        <v>17</v>
+      </c>
+      <c r="D286" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F286" s="14" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B287" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C287" s="32">
+        <v>18</v>
+      </c>
+      <c r="D287" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F287" s="14" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B288" s="14"/>
       <c r="C288" s="37"/>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="14"/>
-      <c r="B289" s="14"/>
-      <c r="C289" s="37"/>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="14"/>
-      <c r="B290" s="14"/>
-      <c r="C290" s="37"/>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="14"/>
-      <c r="B291" s="14"/>
-      <c r="C291" s="37"/>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="14"/>
-      <c r="B292" s="14"/>
-      <c r="C292" s="37"/>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="14"/>
-      <c r="B293" s="14"/>
-      <c r="C293" s="37"/>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="14"/>
-      <c r="B294" s="14"/>
-      <c r="C294" s="37"/>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="14"/>
-      <c r="B295" s="14"/>
-      <c r="C295" s="37"/>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="14"/>
-      <c r="B296" s="14"/>
-      <c r="C296" s="37"/>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="14"/>
-      <c r="B297" s="14"/>
-      <c r="C297" s="37"/>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="14"/>
-      <c r="B298" s="14"/>
-      <c r="C298" s="37"/>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="14"/>
-      <c r="B299" s="14"/>
-      <c r="C299" s="37"/>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="14"/>
-      <c r="B300" s="14"/>
-      <c r="C300" s="37"/>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="14"/>
-      <c r="B301" s="14"/>
-      <c r="C301" s="37"/>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="14"/>
-      <c r="B302" s="14"/>
-      <c r="C302" s="37"/>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="14"/>
-      <c r="B303" s="14"/>
-      <c r="C303" s="37"/>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="14"/>
-      <c r="B304" s="14"/>
-      <c r="C304" s="37"/>
-    </row>
-    <row r="414" spans="5:5">
-      <c r="E414" s="43"/>
-    </row>
-    <row r="415" spans="5:5">
-      <c r="E415" s="43"/>
-    </row>
-    <row r="416" spans="5:5">
-      <c r="E416" s="43"/>
-    </row>
-    <row r="417" spans="5:7">
-      <c r="E417" s="43"/>
-    </row>
-    <row r="418" spans="5:7">
-      <c r="E418" s="43"/>
-    </row>
-    <row r="419" spans="5:7">
-      <c r="E419" s="43"/>
-    </row>
-    <row r="420" spans="5:7">
-      <c r="E420" s="43"/>
-    </row>
-    <row r="430" spans="5:7">
-      <c r="E430" s="43"/>
-    </row>
-    <row r="432" spans="5:7">
-      <c r="E432" s="43"/>
-      <c r="G432" s="43"/>
-    </row>
-    <row r="433" spans="5:7">
-      <c r="G433" s="43"/>
-    </row>
-    <row r="434" spans="5:7">
-      <c r="E434" s="44"/>
-      <c r="G434" s="43"/>
-    </row>
-    <row r="435" spans="5:7">
-      <c r="E435" s="43"/>
-      <c r="G435" s="43"/>
-    </row>
-    <row r="436" spans="5:7">
-      <c r="E436" s="43"/>
-      <c r="G436" s="43"/>
-    </row>
-    <row r="437" spans="5:7">
-      <c r="E437" s="43"/>
-      <c r="G437" s="43"/>
-    </row>
-    <row r="438" spans="5:7">
-      <c r="E438" s="43"/>
-      <c r="G438" s="43"/>
-    </row>
-    <row r="439" spans="5:7">
-      <c r="E439" s="43"/>
-      <c r="G439" s="43"/>
-    </row>
-    <row r="440" spans="5:7">
-      <c r="E440" s="45"/>
-      <c r="G440" s="43"/>
-    </row>
-    <row r="441" spans="5:7">
-      <c r="E441" s="43"/>
-      <c r="G441" s="43"/>
-    </row>
-    <row r="442" spans="5:7">
-      <c r="E442" s="43"/>
-      <c r="G442" s="43"/>
-    </row>
-    <row r="443" spans="5:7">
-      <c r="E443" s="43"/>
-      <c r="G443" s="43"/>
-    </row>
-    <row r="444" spans="5:7">
-      <c r="E444" s="43"/>
-      <c r="G444" s="43"/>
-    </row>
-    <row r="445" spans="5:7">
-      <c r="E445" s="43"/>
-      <c r="G445" s="43"/>
-    </row>
-    <row r="446" spans="5:7">
-      <c r="E446" s="43"/>
-      <c r="G446" s="43"/>
-    </row>
-    <row r="447" spans="5:7">
-      <c r="E447" s="43"/>
-      <c r="G447" s="43"/>
-    </row>
-    <row r="448" spans="5:7">
-      <c r="E448" s="43"/>
-      <c r="G448" s="43"/>
-    </row>
-    <row r="449" spans="5:7">
-      <c r="E449" s="43"/>
-      <c r="G449" s="43"/>
-    </row>
-    <row r="450" spans="5:7">
-      <c r="E450" s="43"/>
-      <c r="G450" s="43"/>
-    </row>
-    <row r="451" spans="5:7">
-      <c r="E451" s="43"/>
-      <c r="G451" s="43"/>
-    </row>
-    <row r="452" spans="5:7">
-      <c r="E452" s="43"/>
-      <c r="G452" s="43"/>
-    </row>
-    <row r="453" spans="5:7">
-      <c r="E453" s="43"/>
-      <c r="G453" s="43"/>
-    </row>
-    <row r="454" spans="5:7">
-      <c r="E454" s="43"/>
-      <c r="G454" s="43"/>
-    </row>
-    <row r="455" spans="5:7">
-      <c r="E455" s="43"/>
-      <c r="G455" s="43"/>
-    </row>
-    <row r="456" spans="5:7">
-      <c r="E456" s="43"/>
-      <c r="G456" s="43"/>
-    </row>
-    <row r="457" spans="5:7">
-      <c r="E457" s="43"/>
-      <c r="G457" s="43"/>
-    </row>
-    <row r="458" spans="5:7">
-      <c r="E458" s="43"/>
-      <c r="G458" s="43"/>
-    </row>
-    <row r="459" spans="5:7">
-      <c r="E459" s="43"/>
-      <c r="G459" s="43"/>
-    </row>
-    <row r="460" spans="5:7">
-      <c r="E460" s="43"/>
-      <c r="G460" s="43"/>
-    </row>
-    <row r="461" spans="5:7">
-      <c r="E461" s="43"/>
-      <c r="G461" s="43"/>
-    </row>
-    <row r="462" spans="5:7">
-      <c r="E462" s="43"/>
-      <c r="G462" s="43"/>
-    </row>
-    <row r="463" spans="5:7">
-      <c r="E463" s="43"/>
-      <c r="G463" s="43"/>
-    </row>
-    <row r="464" spans="5:7">
-      <c r="E464" s="43"/>
-      <c r="G464" s="43"/>
-    </row>
-    <row r="465" spans="5:7">
-      <c r="E465" s="43"/>
-      <c r="G465" s="43"/>
-    </row>
-    <row r="466" spans="5:7">
-      <c r="E466" s="43"/>
-      <c r="G466" s="43"/>
-    </row>
-    <row r="467" spans="5:7">
-      <c r="E467" s="43"/>
-      <c r="G467" s="43"/>
-    </row>
-    <row r="468" spans="5:7">
-      <c r="E468" s="43"/>
-      <c r="G468" s="43"/>
-    </row>
-    <row r="469" spans="5:7">
-      <c r="E469" s="43"/>
-      <c r="G469" s="43"/>
-    </row>
-    <row r="470" spans="5:7">
-      <c r="E470" s="43"/>
-      <c r="G470" s="43"/>
-    </row>
-    <row r="471" spans="5:7">
-      <c r="E471" s="43"/>
-      <c r="G471" s="43"/>
-    </row>
-    <row r="472" spans="5:7">
-      <c r="E472" s="43"/>
-      <c r="G472" s="43"/>
-    </row>
-    <row r="473" spans="5:7">
-      <c r="E473" s="43"/>
-      <c r="G473" s="43"/>
-    </row>
-    <row r="474" spans="5:7">
-      <c r="E474" s="43"/>
-      <c r="G474" s="43"/>
-    </row>
-    <row r="475" spans="5:7">
-      <c r="E475" s="43"/>
-      <c r="G475" s="43"/>
-    </row>
-    <row r="476" spans="5:7">
-      <c r="E476" s="43"/>
-      <c r="G476" s="43"/>
-    </row>
-    <row r="477" spans="5:7">
-      <c r="E477" s="43"/>
-      <c r="G477" s="43"/>
-    </row>
-    <row r="478" spans="5:7">
-      <c r="E478" s="43"/>
-      <c r="G478" s="43"/>
-    </row>
-    <row r="479" spans="5:7">
-      <c r="E479" s="43"/>
-      <c r="G479" s="43"/>
-    </row>
-    <row r="487" spans="5:7">
-      <c r="E487" s="43"/>
-    </row>
-    <row r="496" spans="5:7">
-      <c r="G496" s="43"/>
-    </row>
-    <row r="497" spans="7:7">
-      <c r="G497" s="43"/>
-    </row>
-    <row r="498" spans="7:7">
+      <c r="D288" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F288" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C289" s="32">
+        <v>1</v>
+      </c>
+      <c r="D289" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F289" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B290" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C290" s="32">
+        <v>2</v>
+      </c>
+      <c r="D290" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F290" s="14" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C291" s="32">
+        <v>3</v>
+      </c>
+      <c r="D291" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F291" s="14" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C292" s="32">
+        <v>4</v>
+      </c>
+      <c r="D292" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F292" s="14" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C293" s="32">
+        <v>5</v>
+      </c>
+      <c r="D293" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F293" s="14" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B294" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C294" s="32">
+        <v>6</v>
+      </c>
+      <c r="D294" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F294" s="14" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B295" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C295" s="32">
+        <v>7</v>
+      </c>
+      <c r="D295" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F295" s="14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B296" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C296" s="32">
+        <v>8</v>
+      </c>
+      <c r="D296" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F296" s="14" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C297" s="32">
+        <v>9</v>
+      </c>
+      <c r="D297" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F297" s="14" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B298" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C298" s="32">
+        <v>10</v>
+      </c>
+      <c r="D298" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F298" s="14" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C299" s="32">
+        <v>11</v>
+      </c>
+      <c r="D299" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F299" s="14" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B300" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C300" s="32">
+        <v>12</v>
+      </c>
+      <c r="D300" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F300" s="14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C301" s="32">
+        <v>13</v>
+      </c>
+      <c r="D301" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F301" s="14" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C302" s="32">
+        <v>14</v>
+      </c>
+      <c r="D302" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F302" s="14" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B303" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C303" s="32">
+        <v>15</v>
+      </c>
+      <c r="D303" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F303" s="14" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C304" s="32">
+        <v>16</v>
+      </c>
+      <c r="D304" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F304" s="14" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B305" s="14"/>
+      <c r="C305" s="37"/>
+      <c r="D305" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F305" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B306" s="14"/>
+      <c r="C306" s="37"/>
+      <c r="D306" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F306" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B307" s="14"/>
+      <c r="C307" s="37"/>
+      <c r="D307" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F307" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="72">
+      <c r="A308" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B308" s="14"/>
+      <c r="C308" s="37"/>
+      <c r="D308" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="72">
+      <c r="A309" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B309" s="14"/>
+      <c r="C309" s="37"/>
+      <c r="D309" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="28.8">
+      <c r="A310" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B310" s="14"/>
+      <c r="C310" s="37"/>
+      <c r="D310" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F310" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B311" s="14"/>
+      <c r="C311" s="37"/>
+      <c r="D311" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F311" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B312" s="14"/>
+      <c r="C312" s="37"/>
+      <c r="D312" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F312" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B313" s="14"/>
+      <c r="C313" s="37"/>
+      <c r="D313" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F313" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B314" s="14"/>
+      <c r="C314" s="37"/>
+      <c r="D314" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F314" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B315" s="14"/>
+      <c r="C315" s="37"/>
+      <c r="D315" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F315" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B316" s="14"/>
+      <c r="C316" s="37"/>
+      <c r="D316" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F316" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B317" s="14"/>
+      <c r="C317" s="37"/>
+      <c r="D317" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F317" s="14"/>
+      <c r="G317" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B318" s="14"/>
+      <c r="C318" s="37"/>
+      <c r="D318" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F318" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B319" s="14"/>
+      <c r="C319" s="37"/>
+      <c r="D319" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F319" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="72">
+      <c r="A320" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B320" s="14"/>
+      <c r="C320" s="37"/>
+      <c r="D320" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="26"/>
+      <c r="B321" s="26"/>
+      <c r="C321" s="33"/>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="48"/>
+      <c r="B322"/>
+      <c r="C322" s="4"/>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="49"/>
+      <c r="B323" s="27"/>
+      <c r="C323" s="38"/>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="48"/>
+      <c r="B324"/>
+      <c r="C324" s="4"/>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="14"/>
+      <c r="B325" s="14"/>
+      <c r="C325" s="37"/>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="14"/>
+      <c r="B326" s="14"/>
+      <c r="C326" s="37"/>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="28"/>
+      <c r="B327" s="28"/>
+      <c r="C327" s="39"/>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="14"/>
+      <c r="B328" s="14"/>
+      <c r="C328" s="37"/>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="14"/>
+      <c r="B329" s="14"/>
+      <c r="C329" s="37"/>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="14"/>
+      <c r="B330" s="14"/>
+      <c r="C330" s="37"/>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="28"/>
+      <c r="B331" s="28"/>
+      <c r="C331" s="39"/>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="14"/>
+      <c r="B332" s="14"/>
+      <c r="C332" s="37"/>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="14"/>
+      <c r="B333" s="14"/>
+      <c r="C333" s="37"/>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="14"/>
+      <c r="B334" s="14"/>
+      <c r="C334" s="37"/>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="14"/>
+      <c r="B335" s="14"/>
+      <c r="C335" s="37"/>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="14"/>
+      <c r="B336" s="14"/>
+      <c r="C336" s="37"/>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="14"/>
+      <c r="B337" s="14"/>
+      <c r="C337" s="37"/>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="14"/>
+      <c r="B338" s="14"/>
+      <c r="C338" s="37"/>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="14"/>
+      <c r="B339" s="14"/>
+      <c r="C339" s="37"/>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="14"/>
+      <c r="B340" s="14"/>
+      <c r="C340" s="37"/>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="14"/>
+      <c r="B341" s="14"/>
+      <c r="C341" s="37"/>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="14"/>
+      <c r="B342" s="14"/>
+      <c r="C342" s="37"/>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="14"/>
+      <c r="B343" s="14"/>
+      <c r="C343" s="37"/>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="14"/>
+      <c r="B344" s="14"/>
+      <c r="C344" s="37"/>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="14"/>
+      <c r="B345" s="14"/>
+      <c r="C345" s="37"/>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="14"/>
+      <c r="B346" s="14"/>
+      <c r="C346" s="37"/>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="14"/>
+      <c r="B347" s="14"/>
+      <c r="C347" s="37"/>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="14"/>
+      <c r="B348" s="14"/>
+      <c r="C348" s="37"/>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="14"/>
+      <c r="B349" s="14"/>
+      <c r="C349" s="37"/>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="14"/>
+      <c r="B350" s="14"/>
+      <c r="C350" s="37"/>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="14"/>
+      <c r="B351" s="14"/>
+      <c r="C351" s="37"/>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="14"/>
+      <c r="B352" s="14"/>
+      <c r="C352" s="37"/>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="14"/>
+      <c r="B353" s="14"/>
+      <c r="C353" s="37"/>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="14"/>
+      <c r="B354" s="14"/>
+      <c r="C354" s="37"/>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="14"/>
+      <c r="B355" s="14"/>
+      <c r="C355" s="37"/>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="14"/>
+      <c r="B356" s="14"/>
+      <c r="C356" s="37"/>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="14"/>
+      <c r="B357" s="14"/>
+      <c r="C357" s="37"/>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="14"/>
+      <c r="B358" s="14"/>
+      <c r="C358" s="37"/>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="14"/>
+      <c r="B359" s="14"/>
+      <c r="C359" s="37"/>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="14"/>
+      <c r="B360" s="14"/>
+      <c r="C360" s="37"/>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="14"/>
+      <c r="B361" s="14"/>
+      <c r="C361" s="37"/>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="14"/>
+      <c r="B362" s="14"/>
+      <c r="C362" s="37"/>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="14"/>
+      <c r="B363" s="14"/>
+      <c r="C363" s="37"/>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="14"/>
+      <c r="B364" s="14"/>
+      <c r="C364" s="37"/>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="14"/>
+      <c r="B365" s="14"/>
+      <c r="C365" s="37"/>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="14"/>
+      <c r="B366" s="14"/>
+      <c r="C366" s="37"/>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="14"/>
+      <c r="B367" s="14"/>
+      <c r="C367" s="37"/>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="14"/>
+      <c r="B368" s="14"/>
+      <c r="C368" s="37"/>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="14"/>
+      <c r="B369" s="14"/>
+      <c r="C369" s="37"/>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="14"/>
+      <c r="B370" s="14"/>
+      <c r="C370" s="37"/>
+    </row>
+    <row r="480" spans="5:5">
+      <c r="E480" s="43"/>
+    </row>
+    <row r="481" spans="5:5">
+      <c r="E481" s="43"/>
+    </row>
+    <row r="482" spans="5:5">
+      <c r="E482" s="43"/>
+    </row>
+    <row r="483" spans="5:5">
+      <c r="E483" s="43"/>
+    </row>
+    <row r="484" spans="5:5">
+      <c r="E484" s="43"/>
+    </row>
+    <row r="485" spans="5:5">
+      <c r="E485" s="43"/>
+    </row>
+    <row r="486" spans="5:5">
+      <c r="E486" s="43"/>
+    </row>
+    <row r="496" spans="5:5">
+      <c r="E496" s="43"/>
+    </row>
+    <row r="498" spans="5:7">
+      <c r="E498" s="43"/>
       <c r="G498" s="43"/>
     </row>
-    <row r="499" spans="7:7">
+    <row r="499" spans="5:7">
       <c r="G499" s="43"/>
     </row>
-    <row r="500" spans="7:7">
+    <row r="500" spans="5:7">
+      <c r="E500" s="44"/>
       <c r="G500" s="43"/>
     </row>
-    <row r="501" spans="7:7">
+    <row r="501" spans="5:7">
+      <c r="E501" s="43"/>
       <c r="G501" s="43"/>
     </row>
-    <row r="502" spans="7:7">
+    <row r="502" spans="5:7">
+      <c r="E502" s="43"/>
       <c r="G502" s="43"/>
     </row>
-    <row r="503" spans="7:7">
+    <row r="503" spans="5:7">
+      <c r="E503" s="43"/>
       <c r="G503" s="43"/>
     </row>
-    <row r="504" spans="7:7">
+    <row r="504" spans="5:7">
+      <c r="E504" s="43"/>
       <c r="G504" s="43"/>
     </row>
-    <row r="505" spans="7:7">
+    <row r="505" spans="5:7">
+      <c r="E505" s="43"/>
       <c r="G505" s="43"/>
     </row>
-    <row r="506" spans="7:7">
+    <row r="506" spans="5:7">
+      <c r="E506" s="45"/>
       <c r="G506" s="43"/>
     </row>
-    <row r="507" spans="7:7">
+    <row r="507" spans="5:7">
+      <c r="E507" s="43"/>
       <c r="G507" s="43"/>
     </row>
-    <row r="508" spans="7:7">
+    <row r="508" spans="5:7">
+      <c r="E508" s="43"/>
       <c r="G508" s="43"/>
     </row>
-    <row r="509" spans="7:7">
+    <row r="509" spans="5:7">
+      <c r="E509" s="43"/>
       <c r="G509" s="43"/>
     </row>
-    <row r="539" spans="5:5">
+    <row r="510" spans="5:7">
+      <c r="E510" s="43"/>
+      <c r="G510" s="43"/>
+    </row>
+    <row r="511" spans="5:7">
+      <c r="E511" s="43"/>
+      <c r="G511" s="43"/>
+    </row>
+    <row r="512" spans="5:7">
+      <c r="E512" s="43"/>
+      <c r="G512" s="43"/>
+    </row>
+    <row r="513" spans="5:7">
+      <c r="E513" s="43"/>
+      <c r="G513" s="43"/>
+    </row>
+    <row r="514" spans="5:7">
+      <c r="E514" s="43"/>
+      <c r="G514" s="43"/>
+    </row>
+    <row r="515" spans="5:7">
+      <c r="E515" s="43"/>
+      <c r="G515" s="43"/>
+    </row>
+    <row r="516" spans="5:7">
+      <c r="E516" s="43"/>
+      <c r="G516" s="43"/>
+    </row>
+    <row r="517" spans="5:7">
+      <c r="E517" s="43"/>
+      <c r="G517" s="43"/>
+    </row>
+    <row r="518" spans="5:7">
+      <c r="E518" s="43"/>
+      <c r="G518" s="43"/>
+    </row>
+    <row r="519" spans="5:7">
+      <c r="E519" s="43"/>
+      <c r="G519" s="43"/>
+    </row>
+    <row r="520" spans="5:7">
+      <c r="E520" s="43"/>
+      <c r="G520" s="43"/>
+    </row>
+    <row r="521" spans="5:7">
+      <c r="E521" s="43"/>
+      <c r="G521" s="43"/>
+    </row>
+    <row r="522" spans="5:7">
+      <c r="E522" s="43"/>
+      <c r="G522" s="43"/>
+    </row>
+    <row r="523" spans="5:7">
+      <c r="E523" s="43"/>
+      <c r="G523" s="43"/>
+    </row>
+    <row r="524" spans="5:7">
+      <c r="E524" s="43"/>
+      <c r="G524" s="43"/>
+    </row>
+    <row r="525" spans="5:7">
+      <c r="E525" s="43"/>
+      <c r="G525" s="43"/>
+    </row>
+    <row r="526" spans="5:7">
+      <c r="E526" s="43"/>
+      <c r="G526" s="43"/>
+    </row>
+    <row r="527" spans="5:7">
+      <c r="E527" s="43"/>
+      <c r="G527" s="43"/>
+    </row>
+    <row r="528" spans="5:7">
+      <c r="E528" s="43"/>
+      <c r="G528" s="43"/>
+    </row>
+    <row r="529" spans="5:7">
+      <c r="E529" s="43"/>
+      <c r="G529" s="43"/>
+    </row>
+    <row r="530" spans="5:7">
+      <c r="E530" s="43"/>
+      <c r="G530" s="43"/>
+    </row>
+    <row r="531" spans="5:7">
+      <c r="E531" s="43"/>
+      <c r="G531" s="43"/>
+    </row>
+    <row r="532" spans="5:7">
+      <c r="E532" s="43"/>
+      <c r="G532" s="43"/>
+    </row>
+    <row r="533" spans="5:7">
+      <c r="E533" s="43"/>
+      <c r="G533" s="43"/>
+    </row>
+    <row r="534" spans="5:7">
+      <c r="E534" s="43"/>
+      <c r="G534" s="43"/>
+    </row>
+    <row r="535" spans="5:7">
+      <c r="E535" s="43"/>
+      <c r="G535" s="43"/>
+    </row>
+    <row r="536" spans="5:7">
+      <c r="E536" s="43"/>
+      <c r="G536" s="43"/>
+    </row>
+    <row r="537" spans="5:7">
+      <c r="E537" s="43"/>
+      <c r="G537" s="43"/>
+    </row>
+    <row r="538" spans="5:7">
+      <c r="E538" s="43"/>
+      <c r="G538" s="43"/>
+    </row>
+    <row r="539" spans="5:7">
       <c r="E539" s="43"/>
-    </row>
-    <row r="558" spans="5:5">
-      <c r="E558" s="43"/>
-    </row>
-    <row r="559" spans="5:5">
-      <c r="E559" s="43"/>
-    </row>
-    <row r="562" spans="5:5">
-      <c r="E562" s="43"/>
-    </row>
-    <row r="563" spans="5:5">
-      <c r="E563" s="43"/>
-    </row>
-    <row r="564" spans="5:5">
-      <c r="E564" s="43"/>
-    </row>
-    <row r="565" spans="5:5">
-      <c r="E565" s="43"/>
-    </row>
-    <row r="566" spans="5:5">
-      <c r="E566" s="43"/>
-    </row>
-    <row r="567" spans="5:5">
-      <c r="E567" s="43"/>
-    </row>
-    <row r="573" spans="5:5">
-      <c r="E573" s="43"/>
-    </row>
-    <row r="574" spans="5:5">
-      <c r="E574" s="43"/>
-    </row>
-    <row r="575" spans="5:5">
-      <c r="E575" s="43"/>
-    </row>
-    <row r="576" spans="5:5">
-      <c r="E576" s="43"/>
-    </row>
-    <row r="577" spans="5:5">
-      <c r="E577" s="43"/>
-    </row>
-    <row r="578" spans="5:5">
-      <c r="E578" s="43"/>
-    </row>
-    <row r="579" spans="5:5">
-      <c r="E579" s="43"/>
-    </row>
-    <row r="581" spans="5:5">
-      <c r="E581" s="43"/>
-    </row>
-    <row r="582" spans="5:5">
-      <c r="E582" s="43"/>
-    </row>
-    <row r="583" spans="5:5">
-      <c r="E583" s="43"/>
-    </row>
-    <row r="584" spans="5:5">
-      <c r="E584" s="43"/>
-    </row>
-    <row r="588" spans="5:5">
-      <c r="E588" s="43"/>
-    </row>
-    <row r="595" spans="5:5">
-      <c r="E595" s="43"/>
-    </row>
-    <row r="599" spans="5:5">
-      <c r="E599" s="43"/>
-    </row>
-    <row r="610" spans="5:7">
-      <c r="E610" s="43"/>
-    </row>
-    <row r="620" spans="5:7">
-      <c r="E620" s="43"/>
-    </row>
-    <row r="622" spans="5:7">
-      <c r="G622" s="43"/>
-    </row>
-    <row r="623" spans="5:7">
-      <c r="G623" s="43"/>
-    </row>
-    <row r="624" spans="5:7">
-      <c r="G624" s="43"/>
-    </row>
-    <row r="625" spans="7:7">
-      <c r="G625" s="43"/>
-    </row>
-    <row r="626" spans="7:7">
-      <c r="G626" s="43"/>
-    </row>
-    <row r="627" spans="7:7">
-      <c r="G627" s="43"/>
-    </row>
-    <row r="628" spans="7:7">
-      <c r="G628" s="43"/>
-    </row>
-    <row r="629" spans="7:7">
-      <c r="G629" s="43"/>
-    </row>
-    <row r="630" spans="7:7">
-      <c r="G630" s="43"/>
-    </row>
-    <row r="631" spans="7:7">
-      <c r="G631" s="43"/>
-    </row>
-    <row r="632" spans="7:7">
-      <c r="G632" s="43"/>
-    </row>
-    <row r="633" spans="7:7">
-      <c r="G633" s="43"/>
-    </row>
-    <row r="634" spans="7:7">
-      <c r="G634" s="43"/>
-    </row>
-    <row r="635" spans="7:7">
-      <c r="G635" s="43"/>
-    </row>
-    <row r="636" spans="7:7">
-      <c r="G636" s="43"/>
-    </row>
-    <row r="637" spans="7:7">
-      <c r="G637" s="43"/>
-    </row>
-    <row r="638" spans="7:7">
-      <c r="G638" s="43"/>
-    </row>
-    <row r="639" spans="7:7">
-      <c r="G639" s="43"/>
-    </row>
-    <row r="640" spans="7:7">
-      <c r="G640" s="43"/>
-    </row>
-    <row r="641" spans="5:7">
+      <c r="G539" s="43"/>
+    </row>
+    <row r="540" spans="5:7">
+      <c r="E540" s="43"/>
+      <c r="G540" s="43"/>
+    </row>
+    <row r="541" spans="5:7">
+      <c r="E541" s="43"/>
+      <c r="G541" s="43"/>
+    </row>
+    <row r="542" spans="5:7">
+      <c r="E542" s="43"/>
+      <c r="G542" s="43"/>
+    </row>
+    <row r="543" spans="5:7">
+      <c r="E543" s="43"/>
+      <c r="G543" s="43"/>
+    </row>
+    <row r="544" spans="5:7">
+      <c r="E544" s="43"/>
+      <c r="G544" s="43"/>
+    </row>
+    <row r="545" spans="5:7">
+      <c r="E545" s="43"/>
+      <c r="G545" s="43"/>
+    </row>
+    <row r="553" spans="5:7">
+      <c r="E553" s="43"/>
+    </row>
+    <row r="562" spans="7:7">
+      <c r="G562" s="43"/>
+    </row>
+    <row r="563" spans="7:7">
+      <c r="G563" s="43"/>
+    </row>
+    <row r="564" spans="7:7">
+      <c r="G564" s="43"/>
+    </row>
+    <row r="565" spans="7:7">
+      <c r="G565" s="43"/>
+    </row>
+    <row r="566" spans="7:7">
+      <c r="G566" s="43"/>
+    </row>
+    <row r="567" spans="7:7">
+      <c r="G567" s="43"/>
+    </row>
+    <row r="568" spans="7:7">
+      <c r="G568" s="43"/>
+    </row>
+    <row r="569" spans="7:7">
+      <c r="G569" s="43"/>
+    </row>
+    <row r="570" spans="7:7">
+      <c r="G570" s="43"/>
+    </row>
+    <row r="571" spans="7:7">
+      <c r="G571" s="43"/>
+    </row>
+    <row r="572" spans="7:7">
+      <c r="G572" s="43"/>
+    </row>
+    <row r="573" spans="7:7">
+      <c r="G573" s="43"/>
+    </row>
+    <row r="574" spans="7:7">
+      <c r="G574" s="43"/>
+    </row>
+    <row r="575" spans="7:7">
+      <c r="G575" s="43"/>
+    </row>
+    <row r="605" spans="5:5">
+      <c r="E605" s="43"/>
+    </row>
+    <row r="624" spans="5:5">
+      <c r="E624" s="43"/>
+    </row>
+    <row r="625" spans="5:5">
+      <c r="E625" s="43"/>
+    </row>
+    <row r="628" spans="5:5">
+      <c r="E628" s="43"/>
+    </row>
+    <row r="629" spans="5:5">
+      <c r="E629" s="43"/>
+    </row>
+    <row r="630" spans="5:5">
+      <c r="E630" s="43"/>
+    </row>
+    <row r="631" spans="5:5">
+      <c r="E631" s="43"/>
+    </row>
+    <row r="632" spans="5:5">
+      <c r="E632" s="43"/>
+    </row>
+    <row r="633" spans="5:5">
+      <c r="E633" s="43"/>
+    </row>
+    <row r="639" spans="5:5">
+      <c r="E639" s="43"/>
+    </row>
+    <row r="640" spans="5:5">
+      <c r="E640" s="43"/>
+    </row>
+    <row r="641" spans="5:5">
       <c r="E641" s="43"/>
-      <c r="G641" s="43"/>
-    </row>
-    <row r="643" spans="5:7">
-      <c r="G643" s="43"/>
-    </row>
-    <row r="644" spans="5:7">
-      <c r="G644" s="43"/>
-    </row>
-    <row r="645" spans="5:7">
-      <c r="G645" s="43"/>
-    </row>
-    <row r="646" spans="5:7">
-      <c r="G646" s="43"/>
-    </row>
-    <row r="647" spans="5:7">
-      <c r="G647" s="43"/>
-    </row>
-    <row r="648" spans="5:7">
-      <c r="G648" s="43"/>
-    </row>
-    <row r="649" spans="5:7">
-      <c r="G649" s="43"/>
-    </row>
-    <row r="650" spans="5:7">
+    </row>
+    <row r="642" spans="5:5">
+      <c r="E642" s="43"/>
+    </row>
+    <row r="643" spans="5:5">
+      <c r="E643" s="43"/>
+    </row>
+    <row r="644" spans="5:5">
+      <c r="E644" s="43"/>
+    </row>
+    <row r="645" spans="5:5">
+      <c r="E645" s="43"/>
+    </row>
+    <row r="647" spans="5:5">
+      <c r="E647" s="43"/>
+    </row>
+    <row r="648" spans="5:5">
+      <c r="E648" s="43"/>
+    </row>
+    <row r="649" spans="5:5">
+      <c r="E649" s="43"/>
+    </row>
+    <row r="650" spans="5:5">
       <c r="E650" s="43"/>
-      <c r="G650" s="43"/>
-    </row>
-    <row r="651" spans="5:7">
-      <c r="G651" s="43"/>
-    </row>
-    <row r="652" spans="5:7">
-      <c r="G652" s="43"/>
-    </row>
-    <row r="653" spans="5:7">
-      <c r="G653" s="43"/>
-    </row>
-    <row r="654" spans="5:7">
-      <c r="G654" s="43"/>
-    </row>
-    <row r="655" spans="5:7">
-      <c r="G655" s="43"/>
-    </row>
-    <row r="656" spans="5:7">
-      <c r="G656" s="43"/>
-    </row>
-    <row r="657" spans="5:7">
-      <c r="G657" s="43"/>
-    </row>
-    <row r="658" spans="5:7">
-      <c r="E658" s="43"/>
-      <c r="G658" s="43"/>
-    </row>
-    <row r="660" spans="5:7">
-      <c r="G660" s="43"/>
-    </row>
-    <row r="661" spans="5:7">
-      <c r="G661" s="43"/>
-    </row>
-    <row r="662" spans="5:7">
-      <c r="G662" s="43"/>
-    </row>
-    <row r="663" spans="5:7">
-      <c r="G663" s="43"/>
-    </row>
-    <row r="664" spans="5:7">
-      <c r="G664" s="43"/>
-    </row>
-    <row r="665" spans="5:7">
-      <c r="G665" s="43"/>
-    </row>
-    <row r="666" spans="5:7">
-      <c r="G666" s="43"/>
-    </row>
-    <row r="667" spans="5:7">
-      <c r="E667" s="43"/>
-      <c r="G667" s="43"/>
-    </row>
-    <row r="668" spans="5:7">
-      <c r="G668" s="43"/>
-    </row>
-    <row r="669" spans="5:7">
-      <c r="G669" s="43"/>
-    </row>
-    <row r="670" spans="5:7">
-      <c r="G670" s="43"/>
-    </row>
-    <row r="671" spans="5:7">
-      <c r="G671" s="43"/>
-    </row>
-    <row r="672" spans="5:7">
-      <c r="G672" s="43"/>
-    </row>
-    <row r="673" spans="5:7">
-      <c r="G673" s="43"/>
-    </row>
-    <row r="674" spans="5:7">
-      <c r="G674" s="43"/>
-    </row>
-    <row r="675" spans="5:7">
-      <c r="E675" s="43"/>
-      <c r="G675" s="43"/>
-    </row>
-    <row r="683" spans="5:7">
-      <c r="E683" s="43"/>
-    </row>
-    <row r="690" spans="5:5">
-      <c r="E690" s="43"/>
-    </row>
-    <row r="706" spans="5:5">
-      <c r="E706" s="44"/>
-    </row>
-    <row r="707" spans="5:5">
-      <c r="E707" s="44"/>
-    </row>
-    <row r="710" spans="5:5">
-      <c r="E710" s="44"/>
-    </row>
-    <row r="711" spans="5:5">
-      <c r="E711" s="43"/>
-    </row>
-    <row r="724" spans="5:5">
+    </row>
+    <row r="654" spans="5:5">
+      <c r="E654" s="43"/>
+    </row>
+    <row r="661" spans="5:5">
+      <c r="E661" s="43"/>
+    </row>
+    <row r="665" spans="5:5">
+      <c r="E665" s="43"/>
+    </row>
+    <row r="676" spans="5:7">
+      <c r="E676" s="43"/>
+    </row>
+    <row r="686" spans="5:7">
+      <c r="E686" s="43"/>
+    </row>
+    <row r="688" spans="5:7">
+      <c r="G688" s="43"/>
+    </row>
+    <row r="689" spans="7:7">
+      <c r="G689" s="43"/>
+    </row>
+    <row r="690" spans="7:7">
+      <c r="G690" s="43"/>
+    </row>
+    <row r="691" spans="7:7">
+      <c r="G691" s="43"/>
+    </row>
+    <row r="692" spans="7:7">
+      <c r="G692" s="43"/>
+    </row>
+    <row r="693" spans="7:7">
+      <c r="G693" s="43"/>
+    </row>
+    <row r="694" spans="7:7">
+      <c r="G694" s="43"/>
+    </row>
+    <row r="695" spans="7:7">
+      <c r="G695" s="43"/>
+    </row>
+    <row r="696" spans="7:7">
+      <c r="G696" s="43"/>
+    </row>
+    <row r="697" spans="7:7">
+      <c r="G697" s="43"/>
+    </row>
+    <row r="698" spans="7:7">
+      <c r="G698" s="43"/>
+    </row>
+    <row r="699" spans="7:7">
+      <c r="G699" s="43"/>
+    </row>
+    <row r="700" spans="7:7">
+      <c r="G700" s="43"/>
+    </row>
+    <row r="701" spans="7:7">
+      <c r="G701" s="43"/>
+    </row>
+    <row r="702" spans="7:7">
+      <c r="G702" s="43"/>
+    </row>
+    <row r="703" spans="7:7">
+      <c r="G703" s="43"/>
+    </row>
+    <row r="704" spans="7:7">
+      <c r="G704" s="43"/>
+    </row>
+    <row r="705" spans="5:7">
+      <c r="G705" s="43"/>
+    </row>
+    <row r="706" spans="5:7">
+      <c r="G706" s="43"/>
+    </row>
+    <row r="707" spans="5:7">
+      <c r="E707" s="43"/>
+      <c r="G707" s="43"/>
+    </row>
+    <row r="709" spans="5:7">
+      <c r="G709" s="43"/>
+    </row>
+    <row r="710" spans="5:7">
+      <c r="G710" s="43"/>
+    </row>
+    <row r="711" spans="5:7">
+      <c r="G711" s="43"/>
+    </row>
+    <row r="712" spans="5:7">
+      <c r="G712" s="43"/>
+    </row>
+    <row r="713" spans="5:7">
+      <c r="G713" s="43"/>
+    </row>
+    <row r="714" spans="5:7">
+      <c r="G714" s="43"/>
+    </row>
+    <row r="715" spans="5:7">
+      <c r="G715" s="43"/>
+    </row>
+    <row r="716" spans="5:7">
+      <c r="E716" s="43"/>
+      <c r="G716" s="43"/>
+    </row>
+    <row r="717" spans="5:7">
+      <c r="G717" s="43"/>
+    </row>
+    <row r="718" spans="5:7">
+      <c r="G718" s="43"/>
+    </row>
+    <row r="719" spans="5:7">
+      <c r="G719" s="43"/>
+    </row>
+    <row r="720" spans="5:7">
+      <c r="G720" s="43"/>
+    </row>
+    <row r="721" spans="5:7">
+      <c r="G721" s="43"/>
+    </row>
+    <row r="722" spans="5:7">
+      <c r="G722" s="43"/>
+    </row>
+    <row r="723" spans="5:7">
+      <c r="G723" s="43"/>
+    </row>
+    <row r="724" spans="5:7">
       <c r="E724" s="43"/>
-    </row>
-    <row r="736" spans="5:5">
-      <c r="E736" s="43"/>
-    </row>
-    <row r="740" spans="5:5">
-      <c r="E740" s="43"/>
-    </row>
-    <row r="741" spans="5:5">
+      <c r="G724" s="43"/>
+    </row>
+    <row r="726" spans="5:7">
+      <c r="G726" s="43"/>
+    </row>
+    <row r="727" spans="5:7">
+      <c r="G727" s="43"/>
+    </row>
+    <row r="728" spans="5:7">
+      <c r="G728" s="43"/>
+    </row>
+    <row r="729" spans="5:7">
+      <c r="G729" s="43"/>
+    </row>
+    <row r="730" spans="5:7">
+      <c r="G730" s="43"/>
+    </row>
+    <row r="731" spans="5:7">
+      <c r="G731" s="43"/>
+    </row>
+    <row r="732" spans="5:7">
+      <c r="G732" s="43"/>
+    </row>
+    <row r="733" spans="5:7">
+      <c r="E733" s="43"/>
+      <c r="G733" s="43"/>
+    </row>
+    <row r="734" spans="5:7">
+      <c r="G734" s="43"/>
+    </row>
+    <row r="735" spans="5:7">
+      <c r="G735" s="43"/>
+    </row>
+    <row r="736" spans="5:7">
+      <c r="G736" s="43"/>
+    </row>
+    <row r="737" spans="5:7">
+      <c r="G737" s="43"/>
+    </row>
+    <row r="738" spans="5:7">
+      <c r="G738" s="43"/>
+    </row>
+    <row r="739" spans="5:7">
+      <c r="G739" s="43"/>
+    </row>
+    <row r="740" spans="5:7">
+      <c r="G740" s="43"/>
+    </row>
+    <row r="741" spans="5:7">
       <c r="E741" s="43"/>
-    </row>
-    <row r="742" spans="5:5">
-      <c r="E742" s="43"/>
-    </row>
-    <row r="743" spans="5:5">
-      <c r="E743" s="43"/>
-    </row>
-    <row r="744" spans="5:5">
-      <c r="E744" s="43"/>
-    </row>
-    <row r="745" spans="5:5">
-      <c r="E745" s="43"/>
-    </row>
-    <row r="746" spans="5:5">
-      <c r="E746" s="43"/>
-    </row>
-    <row r="747" spans="5:5">
-      <c r="E747" s="43"/>
-    </row>
-    <row r="748" spans="5:5">
-      <c r="E748" s="43"/>
-    </row>
-    <row r="749" spans="5:5">
+      <c r="G741" s="43"/>
+    </row>
+    <row r="749" spans="5:7">
       <c r="E749" s="43"/>
     </row>
-    <row r="750" spans="5:5">
-      <c r="E750" s="43"/>
-    </row>
-    <row r="751" spans="5:5">
-      <c r="E751" s="43"/>
-    </row>
-    <row r="752" spans="5:5">
-      <c r="E752" s="43"/>
-    </row>
-    <row r="753" spans="5:7">
-      <c r="E753" s="43"/>
-    </row>
-    <row r="754" spans="5:7">
-      <c r="E754" s="43"/>
-    </row>
-    <row r="755" spans="5:7">
-      <c r="E755" s="43"/>
-    </row>
-    <row r="756" spans="5:7">
+    <row r="756" spans="5:5">
       <c r="E756" s="43"/>
     </row>
-    <row r="757" spans="5:7">
-      <c r="E757" s="43"/>
-    </row>
-    <row r="758" spans="5:7">
-      <c r="E758" s="43"/>
-    </row>
-    <row r="759" spans="5:7">
-      <c r="E759" s="43"/>
-    </row>
-    <row r="760" spans="5:7">
-      <c r="E760" s="43"/>
-    </row>
-    <row r="761" spans="5:7">
-      <c r="E761" s="43"/>
-    </row>
-    <row r="762" spans="5:7">
-      <c r="E762" s="43"/>
-    </row>
-    <row r="763" spans="5:7">
-      <c r="E763" s="43"/>
-    </row>
-    <row r="765" spans="5:7">
-      <c r="G765" s="43"/>
-    </row>
-    <row r="766" spans="5:7">
-      <c r="G766" s="43"/>
-    </row>
-    <row r="767" spans="5:7">
-      <c r="G767" s="43"/>
-    </row>
-    <row r="768" spans="5:7">
-      <c r="G768" s="43"/>
-    </row>
-    <row r="769" spans="5:7">
-      <c r="G769" s="43"/>
-    </row>
-    <row r="770" spans="5:7">
-      <c r="G770" s="43"/>
-    </row>
-    <row r="771" spans="5:7">
-      <c r="G771" s="43"/>
-    </row>
-    <row r="772" spans="5:7">
-      <c r="G772" s="43"/>
-    </row>
-    <row r="773" spans="5:7">
-      <c r="G773" s="43"/>
-    </row>
-    <row r="774" spans="5:7">
-      <c r="G774" s="43"/>
-    </row>
-    <row r="775" spans="5:7">
-      <c r="G775" s="43"/>
-    </row>
-    <row r="776" spans="5:7">
-      <c r="G776" s="43"/>
-    </row>
-    <row r="777" spans="5:7">
-      <c r="G777" s="43"/>
-    </row>
-    <row r="778" spans="5:7">
-      <c r="E778" s="43"/>
-      <c r="G778" s="43"/>
-    </row>
-    <row r="780" spans="5:7">
-      <c r="E780" s="43"/>
-    </row>
-    <row r="781" spans="5:7">
-      <c r="E781" s="43"/>
-    </row>
-    <row r="782" spans="5:7">
-      <c r="E782" s="43"/>
-    </row>
-    <row r="783" spans="5:7">
-      <c r="E783" s="43"/>
-    </row>
-    <row r="784" spans="5:7">
-      <c r="E784" s="43"/>
-    </row>
-    <row r="785" spans="5:5">
-      <c r="E785" s="43"/>
-    </row>
-    <row r="786" spans="5:5">
-      <c r="E786" s="43"/>
-    </row>
-    <row r="787" spans="5:5">
-      <c r="E787" s="43"/>
-    </row>
-    <row r="788" spans="5:5">
-      <c r="E788" s="43"/>
-    </row>
-    <row r="789" spans="5:5">
-      <c r="E789" s="43"/>
+    <row r="772" spans="5:5">
+      <c r="E772" s="44"/>
+    </row>
+    <row r="773" spans="5:5">
+      <c r="E773" s="44"/>
+    </row>
+    <row r="776" spans="5:5">
+      <c r="E776" s="44"/>
+    </row>
+    <row r="777" spans="5:5">
+      <c r="E777" s="43"/>
     </row>
     <row r="790" spans="5:5">
       <c r="E790" s="43"/>
     </row>
-    <row r="791" spans="5:5">
-      <c r="E791" s="43"/>
-    </row>
-    <row r="792" spans="5:5">
-      <c r="E792" s="43"/>
-    </row>
-    <row r="793" spans="5:5">
-      <c r="E793" s="43"/>
-    </row>
-    <row r="794" spans="5:5">
-      <c r="E794" s="43"/>
-    </row>
-    <row r="795" spans="5:5">
-      <c r="E795" s="43"/>
-    </row>
-    <row r="796" spans="5:5">
-      <c r="E796" s="43"/>
-    </row>
-    <row r="797" spans="5:5">
-      <c r="E797" s="43"/>
-    </row>
-    <row r="798" spans="5:5">
-      <c r="E798" s="43"/>
-    </row>
-    <row r="799" spans="5:5">
-      <c r="E799" s="43"/>
-    </row>
-    <row r="800" spans="5:5">
-      <c r="E800" s="43"/>
-    </row>
-    <row r="801" spans="5:5">
-      <c r="E801" s="43"/>
-    </row>
     <row r="802" spans="5:5">
       <c r="E802" s="43"/>
     </row>
-    <row r="803" spans="5:5">
-      <c r="E803" s="43"/>
-    </row>
-    <row r="804" spans="5:5">
-      <c r="E804" s="43"/>
-    </row>
-    <row r="805" spans="5:5">
-      <c r="E805" s="43"/>
-    </row>
     <row r="806" spans="5:5">
       <c r="E806" s="43"/>
     </row>
@@ -11141,264 +12529,366 @@
     <row r="827" spans="5:7">
       <c r="E827" s="43"/>
     </row>
+    <row r="828" spans="5:7">
+      <c r="E828" s="43"/>
+    </row>
     <row r="829" spans="5:7">
       <c r="E829" s="43"/>
-      <c r="G829" s="43"/>
-    </row>
-    <row r="830" spans="5:7">
-      <c r="E830" s="43"/>
-      <c r="G830" s="43"/>
     </row>
     <row r="831" spans="5:7">
-      <c r="E831" s="43"/>
       <c r="G831" s="43"/>
     </row>
     <row r="832" spans="5:7">
-      <c r="E832" s="43"/>
       <c r="G832" s="43"/>
     </row>
     <row r="833" spans="5:7">
-      <c r="E833" s="43"/>
       <c r="G833" s="43"/>
     </row>
     <row r="834" spans="5:7">
-      <c r="E834" s="43"/>
       <c r="G834" s="43"/>
     </row>
     <row r="835" spans="5:7">
-      <c r="E835" s="43"/>
       <c r="G835" s="43"/>
     </row>
     <row r="836" spans="5:7">
-      <c r="E836" s="43"/>
       <c r="G836" s="43"/>
     </row>
     <row r="837" spans="5:7">
-      <c r="E837" s="43"/>
       <c r="G837" s="43"/>
     </row>
     <row r="838" spans="5:7">
-      <c r="E838" s="43"/>
       <c r="G838" s="43"/>
     </row>
     <row r="839" spans="5:7">
-      <c r="E839" s="43"/>
       <c r="G839" s="43"/>
     </row>
     <row r="840" spans="5:7">
-      <c r="E840" s="43"/>
       <c r="G840" s="43"/>
     </row>
     <row r="841" spans="5:7">
-      <c r="E841" s="43"/>
       <c r="G841" s="43"/>
     </row>
     <row r="842" spans="5:7">
-      <c r="E842" s="43"/>
       <c r="G842" s="43"/>
     </row>
     <row r="843" spans="5:7">
-      <c r="E843" s="43"/>
       <c r="G843" s="43"/>
     </row>
     <row r="844" spans="5:7">
       <c r="E844" s="43"/>
       <c r="G844" s="43"/>
     </row>
-    <row r="845" spans="5:7">
-      <c r="E845" s="43"/>
-      <c r="G845" s="43"/>
-    </row>
     <row r="846" spans="5:7">
       <c r="E846" s="43"/>
-      <c r="G846" s="43"/>
     </row>
     <row r="847" spans="5:7">
       <c r="E847" s="43"/>
-      <c r="G847" s="43"/>
     </row>
     <row r="848" spans="5:7">
       <c r="E848" s="43"/>
-      <c r="G848" s="43"/>
-    </row>
-    <row r="849" spans="5:7">
+    </row>
+    <row r="849" spans="5:5">
       <c r="E849" s="43"/>
-      <c r="G849" s="43"/>
-    </row>
-    <row r="850" spans="5:7">
+    </row>
+    <row r="850" spans="5:5">
       <c r="E850" s="43"/>
-      <c r="G850" s="43"/>
-    </row>
-    <row r="851" spans="5:7">
+    </row>
+    <row r="851" spans="5:5">
       <c r="E851" s="43"/>
-      <c r="G851" s="43"/>
-    </row>
-    <row r="852" spans="5:7">
+    </row>
+    <row r="852" spans="5:5">
       <c r="E852" s="43"/>
-      <c r="G852" s="43"/>
-    </row>
-    <row r="853" spans="5:7">
+    </row>
+    <row r="853" spans="5:5">
       <c r="E853" s="43"/>
-      <c r="G853" s="43"/>
-    </row>
-    <row r="854" spans="5:7">
+    </row>
+    <row r="854" spans="5:5">
       <c r="E854" s="43"/>
-      <c r="G854" s="43"/>
-    </row>
-    <row r="855" spans="5:7">
+    </row>
+    <row r="855" spans="5:5">
       <c r="E855" s="43"/>
-      <c r="G855" s="43"/>
-    </row>
-    <row r="856" spans="5:7">
+    </row>
+    <row r="856" spans="5:5">
       <c r="E856" s="43"/>
-      <c r="G856" s="43"/>
-    </row>
-    <row r="857" spans="5:7">
+    </row>
+    <row r="857" spans="5:5">
       <c r="E857" s="43"/>
-      <c r="G857" s="43"/>
-    </row>
-    <row r="858" spans="5:7">
+    </row>
+    <row r="858" spans="5:5">
       <c r="E858" s="43"/>
-      <c r="G858" s="43"/>
-    </row>
-    <row r="859" spans="5:7">
+    </row>
+    <row r="859" spans="5:5">
       <c r="E859" s="43"/>
-      <c r="G859" s="43"/>
-    </row>
-    <row r="860" spans="5:7">
+    </row>
+    <row r="860" spans="5:5">
       <c r="E860" s="43"/>
-      <c r="G860" s="43"/>
-    </row>
-    <row r="861" spans="5:7">
+    </row>
+    <row r="861" spans="5:5">
       <c r="E861" s="43"/>
-      <c r="G861" s="43"/>
-    </row>
-    <row r="862" spans="5:7">
+    </row>
+    <row r="862" spans="5:5">
       <c r="E862" s="43"/>
-      <c r="G862" s="43"/>
-    </row>
-    <row r="863" spans="5:7">
+    </row>
+    <row r="863" spans="5:5">
       <c r="E863" s="43"/>
-      <c r="G863" s="43"/>
-    </row>
-    <row r="864" spans="5:7">
+    </row>
+    <row r="864" spans="5:5">
       <c r="E864" s="43"/>
-      <c r="G864" s="43"/>
-    </row>
-    <row r="865" spans="5:7">
+    </row>
+    <row r="865" spans="5:5">
       <c r="E865" s="43"/>
-      <c r="G865" s="43"/>
-    </row>
-    <row r="866" spans="5:7">
+    </row>
+    <row r="866" spans="5:5">
       <c r="E866" s="43"/>
-      <c r="G866" s="43"/>
-    </row>
-    <row r="867" spans="5:7">
+    </row>
+    <row r="867" spans="5:5">
       <c r="E867" s="43"/>
-      <c r="G867" s="43"/>
-    </row>
-    <row r="868" spans="5:7">
+    </row>
+    <row r="868" spans="5:5">
       <c r="E868" s="43"/>
-      <c r="G868" s="43"/>
-    </row>
-    <row r="869" spans="5:7">
+    </row>
+    <row r="869" spans="5:5">
       <c r="E869" s="43"/>
-      <c r="G869" s="43"/>
-    </row>
-    <row r="870" spans="5:7">
+    </row>
+    <row r="870" spans="5:5">
       <c r="E870" s="43"/>
-      <c r="G870" s="43"/>
-    </row>
-    <row r="871" spans="5:7">
+    </row>
+    <row r="871" spans="5:5">
       <c r="E871" s="43"/>
-      <c r="G871" s="43"/>
-    </row>
-    <row r="872" spans="5:7">
+    </row>
+    <row r="872" spans="5:5">
       <c r="E872" s="43"/>
-      <c r="G872" s="43"/>
-    </row>
-    <row r="873" spans="5:7">
+    </row>
+    <row r="873" spans="5:5">
       <c r="E873" s="43"/>
-      <c r="G873" s="43"/>
-    </row>
-    <row r="874" spans="5:7">
+    </row>
+    <row r="874" spans="5:5">
       <c r="E874" s="43"/>
-      <c r="G874" s="43"/>
-    </row>
-    <row r="875" spans="5:7">
+    </row>
+    <row r="875" spans="5:5">
       <c r="E875" s="43"/>
-      <c r="G875" s="43"/>
-    </row>
-    <row r="876" spans="5:7">
+    </row>
+    <row r="876" spans="5:5">
       <c r="E876" s="43"/>
-      <c r="G876" s="43"/>
-    </row>
-    <row r="886" spans="5:5">
+    </row>
+    <row r="877" spans="5:5">
+      <c r="E877" s="43"/>
+    </row>
+    <row r="878" spans="5:5">
+      <c r="E878" s="43"/>
+    </row>
+    <row r="879" spans="5:5">
+      <c r="E879" s="43"/>
+    </row>
+    <row r="880" spans="5:5">
+      <c r="E880" s="43"/>
+    </row>
+    <row r="881" spans="5:7">
+      <c r="E881" s="43"/>
+    </row>
+    <row r="882" spans="5:7">
+      <c r="E882" s="43"/>
+    </row>
+    <row r="883" spans="5:7">
+      <c r="E883" s="43"/>
+    </row>
+    <row r="884" spans="5:7">
+      <c r="E884" s="43"/>
+    </row>
+    <row r="885" spans="5:7">
+      <c r="E885" s="43"/>
+    </row>
+    <row r="886" spans="5:7">
       <c r="E886" s="43"/>
     </row>
-    <row r="897" spans="7:7">
+    <row r="887" spans="5:7">
+      <c r="E887" s="43"/>
+    </row>
+    <row r="888" spans="5:7">
+      <c r="E888" s="43"/>
+    </row>
+    <row r="889" spans="5:7">
+      <c r="E889" s="43"/>
+    </row>
+    <row r="890" spans="5:7">
+      <c r="E890" s="43"/>
+    </row>
+    <row r="891" spans="5:7">
+      <c r="E891" s="43"/>
+    </row>
+    <row r="892" spans="5:7">
+      <c r="E892" s="43"/>
+    </row>
+    <row r="893" spans="5:7">
+      <c r="E893" s="43"/>
+    </row>
+    <row r="895" spans="5:7">
+      <c r="E895" s="43"/>
+      <c r="G895" s="43"/>
+    </row>
+    <row r="896" spans="5:7">
+      <c r="E896" s="43"/>
+      <c r="G896" s="43"/>
+    </row>
+    <row r="897" spans="5:7">
+      <c r="E897" s="43"/>
       <c r="G897" s="43"/>
     </row>
-    <row r="898" spans="7:7">
+    <row r="898" spans="5:7">
+      <c r="E898" s="43"/>
       <c r="G898" s="43"/>
     </row>
-    <row r="899" spans="7:7">
+    <row r="899" spans="5:7">
+      <c r="E899" s="43"/>
       <c r="G899" s="43"/>
     </row>
-    <row r="900" spans="7:7">
+    <row r="900" spans="5:7">
+      <c r="E900" s="43"/>
       <c r="G900" s="43"/>
     </row>
-    <row r="901" spans="7:7">
+    <row r="901" spans="5:7">
+      <c r="E901" s="43"/>
       <c r="G901" s="43"/>
     </row>
-    <row r="902" spans="7:7">
+    <row r="902" spans="5:7">
+      <c r="E902" s="43"/>
       <c r="G902" s="43"/>
     </row>
-    <row r="903" spans="7:7">
+    <row r="903" spans="5:7">
+      <c r="E903" s="43"/>
       <c r="G903" s="43"/>
     </row>
-    <row r="904" spans="7:7">
+    <row r="904" spans="5:7">
+      <c r="E904" s="43"/>
       <c r="G904" s="43"/>
     </row>
-    <row r="905" spans="7:7">
+    <row r="905" spans="5:7">
+      <c r="E905" s="43"/>
       <c r="G905" s="43"/>
     </row>
-    <row r="906" spans="7:7">
+    <row r="906" spans="5:7">
+      <c r="E906" s="43"/>
       <c r="G906" s="43"/>
     </row>
-    <row r="907" spans="7:7">
+    <row r="907" spans="5:7">
+      <c r="E907" s="43"/>
       <c r="G907" s="43"/>
     </row>
-    <row r="908" spans="7:7">
+    <row r="908" spans="5:7">
+      <c r="E908" s="43"/>
       <c r="G908" s="43"/>
     </row>
-    <row r="909" spans="7:7">
+    <row r="909" spans="5:7">
+      <c r="E909" s="43"/>
       <c r="G909" s="43"/>
     </row>
-    <row r="910" spans="7:7">
+    <row r="910" spans="5:7">
+      <c r="E910" s="43"/>
       <c r="G910" s="43"/>
     </row>
-    <row r="911" spans="7:7">
+    <row r="911" spans="5:7">
+      <c r="E911" s="43"/>
       <c r="G911" s="43"/>
     </row>
-    <row r="912" spans="7:7">
+    <row r="912" spans="5:7">
+      <c r="E912" s="43"/>
       <c r="G912" s="43"/>
     </row>
     <row r="913" spans="5:7">
+      <c r="E913" s="43"/>
       <c r="G913" s="43"/>
     </row>
     <row r="914" spans="5:7">
+      <c r="E914" s="43"/>
       <c r="G914" s="43"/>
     </row>
     <row r="915" spans="5:7">
+      <c r="E915" s="43"/>
       <c r="G915" s="43"/>
     </row>
     <row r="916" spans="5:7">
       <c r="E916" s="43"/>
       <c r="G916" s="43"/>
     </row>
+    <row r="917" spans="5:7">
+      <c r="E917" s="43"/>
+      <c r="G917" s="43"/>
+    </row>
+    <row r="918" spans="5:7">
+      <c r="E918" s="43"/>
+      <c r="G918" s="43"/>
+    </row>
+    <row r="919" spans="5:7">
+      <c r="E919" s="43"/>
+      <c r="G919" s="43"/>
+    </row>
+    <row r="920" spans="5:7">
+      <c r="E920" s="43"/>
+      <c r="G920" s="43"/>
+    </row>
+    <row r="921" spans="5:7">
+      <c r="E921" s="43"/>
+      <c r="G921" s="43"/>
+    </row>
+    <row r="922" spans="5:7">
+      <c r="E922" s="43"/>
+      <c r="G922" s="43"/>
+    </row>
+    <row r="923" spans="5:7">
+      <c r="E923" s="43"/>
+      <c r="G923" s="43"/>
+    </row>
+    <row r="924" spans="5:7">
+      <c r="E924" s="43"/>
+      <c r="G924" s="43"/>
+    </row>
+    <row r="925" spans="5:7">
+      <c r="E925" s="43"/>
+      <c r="G925" s="43"/>
+    </row>
     <row r="926" spans="5:7">
       <c r="E926" s="43"/>
+      <c r="G926" s="43"/>
+    </row>
+    <row r="927" spans="5:7">
+      <c r="E927" s="43"/>
+      <c r="G927" s="43"/>
+    </row>
+    <row r="928" spans="5:7">
+      <c r="E928" s="43"/>
+      <c r="G928" s="43"/>
+    </row>
+    <row r="929" spans="5:7">
+      <c r="E929" s="43"/>
+      <c r="G929" s="43"/>
+    </row>
+    <row r="930" spans="5:7">
+      <c r="E930" s="43"/>
+      <c r="G930" s="43"/>
+    </row>
+    <row r="931" spans="5:7">
+      <c r="E931" s="43"/>
+      <c r="G931" s="43"/>
+    </row>
+    <row r="932" spans="5:7">
+      <c r="E932" s="43"/>
+      <c r="G932" s="43"/>
+    </row>
+    <row r="933" spans="5:7">
+      <c r="E933" s="43"/>
+      <c r="G933" s="43"/>
+    </row>
+    <row r="934" spans="5:7">
+      <c r="E934" s="43"/>
+      <c r="G934" s="43"/>
+    </row>
+    <row r="935" spans="5:7">
+      <c r="E935" s="43"/>
+      <c r="G935" s="43"/>
+    </row>
+    <row r="936" spans="5:7">
+      <c r="E936" s="43"/>
+      <c r="G936" s="43"/>
     </row>
     <row r="937" spans="5:7">
       <c r="E937" s="43"/>
@@ -11424,283 +12914,197 @@
       <c r="E942" s="43"/>
       <c r="G942" s="43"/>
     </row>
-    <row r="943" spans="5:7">
-      <c r="E943" s="43"/>
-      <c r="G943" s="43"/>
-    </row>
-    <row r="944" spans="5:7">
-      <c r="E944" s="43"/>
-      <c r="G944" s="43"/>
-    </row>
-    <row r="945" spans="5:7">
-      <c r="E945" s="43"/>
-      <c r="G945" s="43"/>
-    </row>
-    <row r="946" spans="5:7">
-      <c r="E946" s="43"/>
-      <c r="G946" s="43"/>
-    </row>
-    <row r="947" spans="5:7">
-      <c r="E947" s="43"/>
-      <c r="G947" s="43"/>
-    </row>
-    <row r="948" spans="5:7">
-      <c r="E948" s="43"/>
-      <c r="G948" s="43"/>
-    </row>
-    <row r="949" spans="5:7">
-      <c r="E949" s="43"/>
-      <c r="G949" s="43"/>
-    </row>
-    <row r="950" spans="5:7">
-      <c r="E950" s="43"/>
-      <c r="G950" s="43"/>
-    </row>
-    <row r="951" spans="5:7">
-      <c r="E951" s="43"/>
-      <c r="G951" s="43"/>
-    </row>
-    <row r="952" spans="5:7">
+    <row r="952" spans="5:5">
       <c r="E952" s="43"/>
-      <c r="G952" s="43"/>
-    </row>
-    <row r="954" spans="5:7">
-      <c r="E954" s="43"/>
-      <c r="G954" s="43"/>
-    </row>
-    <row r="955" spans="5:7">
-      <c r="E955" s="43"/>
-      <c r="G955" s="43"/>
-    </row>
-    <row r="956" spans="5:7">
-      <c r="E956" s="43"/>
-      <c r="G956" s="43"/>
-    </row>
-    <row r="957" spans="5:7">
-      <c r="E957" s="43"/>
-      <c r="G957" s="43"/>
-    </row>
-    <row r="958" spans="5:7">
-      <c r="E958" s="43"/>
-      <c r="G958" s="43"/>
-    </row>
-    <row r="959" spans="5:7">
-      <c r="E959" s="43"/>
-      <c r="G959" s="43"/>
-    </row>
-    <row r="960" spans="5:7">
-      <c r="E960" s="43"/>
-      <c r="G960" s="43"/>
-    </row>
-    <row r="961" spans="5:7">
-      <c r="E961" s="43"/>
-      <c r="G961" s="43"/>
-    </row>
-    <row r="962" spans="5:7">
-      <c r="E962" s="43"/>
-      <c r="G962" s="43"/>
-    </row>
-    <row r="963" spans="5:7">
-      <c r="E963" s="43"/>
+    </row>
+    <row r="963" spans="7:7">
       <c r="G963" s="43"/>
     </row>
-    <row r="964" spans="5:7">
-      <c r="E964" s="43"/>
+    <row r="964" spans="7:7">
       <c r="G964" s="43"/>
     </row>
-    <row r="965" spans="5:7">
-      <c r="E965" s="43"/>
+    <row r="965" spans="7:7">
       <c r="G965" s="43"/>
     </row>
-    <row r="966" spans="5:7">
-      <c r="E966" s="43"/>
+    <row r="966" spans="7:7">
       <c r="G966" s="43"/>
     </row>
-    <row r="967" spans="5:7">
-      <c r="E967" s="43"/>
+    <row r="967" spans="7:7">
       <c r="G967" s="43"/>
     </row>
-    <row r="970" spans="5:7">
-      <c r="E970" s="43"/>
-    </row>
-    <row r="974" spans="5:7">
-      <c r="E974" s="43"/>
-    </row>
-    <row r="975" spans="5:7">
-      <c r="E975" s="43"/>
-    </row>
-    <row r="976" spans="5:7">
-      <c r="E976" s="43"/>
-    </row>
-    <row r="977" spans="5:5">
-      <c r="E977" s="43"/>
-    </row>
-    <row r="980" spans="5:5">
-      <c r="E980" s="43"/>
-    </row>
-    <row r="981" spans="5:5">
-      <c r="E981" s="43"/>
-    </row>
-    <row r="982" spans="5:5">
+    <row r="968" spans="7:7">
+      <c r="G968" s="43"/>
+    </row>
+    <row r="969" spans="7:7">
+      <c r="G969" s="43"/>
+    </row>
+    <row r="970" spans="7:7">
+      <c r="G970" s="43"/>
+    </row>
+    <row r="971" spans="7:7">
+      <c r="G971" s="43"/>
+    </row>
+    <row r="972" spans="7:7">
+      <c r="G972" s="43"/>
+    </row>
+    <row r="973" spans="7:7">
+      <c r="G973" s="43"/>
+    </row>
+    <row r="974" spans="7:7">
+      <c r="G974" s="43"/>
+    </row>
+    <row r="975" spans="7:7">
+      <c r="G975" s="43"/>
+    </row>
+    <row r="976" spans="7:7">
+      <c r="G976" s="43"/>
+    </row>
+    <row r="977" spans="5:7">
+      <c r="G977" s="43"/>
+    </row>
+    <row r="978" spans="5:7">
+      <c r="G978" s="43"/>
+    </row>
+    <row r="979" spans="5:7">
+      <c r="G979" s="43"/>
+    </row>
+    <row r="980" spans="5:7">
+      <c r="G980" s="43"/>
+    </row>
+    <row r="981" spans="5:7">
+      <c r="G981" s="43"/>
+    </row>
+    <row r="982" spans="5:7">
       <c r="E982" s="43"/>
-    </row>
-    <row r="983" spans="5:5">
-      <c r="E983" s="43"/>
-    </row>
-    <row r="986" spans="5:5">
-      <c r="E986" s="43"/>
-    </row>
-    <row r="987" spans="5:5">
-      <c r="E987" s="43"/>
-    </row>
-    <row r="988" spans="5:5">
-      <c r="E988" s="43"/>
-    </row>
-    <row r="989" spans="5:5">
-      <c r="E989" s="43"/>
-    </row>
-    <row r="990" spans="5:5">
-      <c r="E990" s="43"/>
-    </row>
-    <row r="991" spans="5:5">
-      <c r="E991" s="43"/>
-    </row>
-    <row r="992" spans="5:5">
+      <c r="G982" s="43"/>
+    </row>
+    <row r="992" spans="5:7">
       <c r="E992" s="43"/>
     </row>
-    <row r="993" spans="5:5">
-      <c r="E993" s="43"/>
-    </row>
-    <row r="994" spans="5:5">
-      <c r="E994" s="43"/>
-    </row>
-    <row r="995" spans="5:5">
-      <c r="E995" s="43"/>
-    </row>
-    <row r="996" spans="5:5">
-      <c r="E996" s="43"/>
-    </row>
-    <row r="997" spans="5:5">
-      <c r="E997" s="43"/>
-    </row>
-    <row r="998" spans="5:5">
-      <c r="E998" s="43"/>
-    </row>
-    <row r="999" spans="5:5">
-      <c r="E999" s="43"/>
-    </row>
-    <row r="1001" spans="5:5">
-      <c r="E1001" s="43"/>
-    </row>
-    <row r="1002" spans="5:5">
-      <c r="E1002" s="43"/>
-    </row>
-    <row r="1003" spans="5:5">
+    <row r="1003" spans="5:7">
       <c r="E1003" s="43"/>
-    </row>
-    <row r="1004" spans="5:5">
+      <c r="G1003" s="43"/>
+    </row>
+    <row r="1004" spans="5:7">
       <c r="E1004" s="43"/>
-    </row>
-    <row r="1005" spans="5:5">
+      <c r="G1004" s="43"/>
+    </row>
+    <row r="1005" spans="5:7">
       <c r="E1005" s="43"/>
-    </row>
-    <row r="1006" spans="5:5">
+      <c r="G1005" s="43"/>
+    </row>
+    <row r="1006" spans="5:7">
       <c r="E1006" s="43"/>
-    </row>
-    <row r="1007" spans="5:5">
+      <c r="G1006" s="43"/>
+    </row>
+    <row r="1007" spans="5:7">
       <c r="E1007" s="43"/>
-    </row>
-    <row r="1008" spans="5:5">
+      <c r="G1007" s="43"/>
+    </row>
+    <row r="1008" spans="5:7">
       <c r="E1008" s="43"/>
-    </row>
-    <row r="1009" spans="5:5">
+      <c r="G1008" s="43"/>
+    </row>
+    <row r="1009" spans="5:7">
       <c r="E1009" s="43"/>
-    </row>
-    <row r="1010" spans="5:5">
+      <c r="G1009" s="43"/>
+    </row>
+    <row r="1010" spans="5:7">
       <c r="E1010" s="43"/>
-    </row>
-    <row r="1011" spans="5:5">
+      <c r="G1010" s="43"/>
+    </row>
+    <row r="1011" spans="5:7">
       <c r="E1011" s="43"/>
-    </row>
-    <row r="1012" spans="5:5">
+      <c r="G1011" s="43"/>
+    </row>
+    <row r="1012" spans="5:7">
       <c r="E1012" s="43"/>
-    </row>
-    <row r="1013" spans="5:5">
+      <c r="G1012" s="43"/>
+    </row>
+    <row r="1013" spans="5:7">
       <c r="E1013" s="43"/>
-    </row>
-    <row r="1014" spans="5:5">
+      <c r="G1013" s="43"/>
+    </row>
+    <row r="1014" spans="5:7">
       <c r="E1014" s="43"/>
-    </row>
-    <row r="1016" spans="5:5">
+      <c r="G1014" s="43"/>
+    </row>
+    <row r="1015" spans="5:7">
+      <c r="E1015" s="43"/>
+      <c r="G1015" s="43"/>
+    </row>
+    <row r="1016" spans="5:7">
       <c r="E1016" s="43"/>
-    </row>
-    <row r="1017" spans="5:5">
+      <c r="G1016" s="43"/>
+    </row>
+    <row r="1017" spans="5:7">
       <c r="E1017" s="43"/>
-    </row>
-    <row r="1018" spans="5:5">
+      <c r="G1017" s="43"/>
+    </row>
+    <row r="1018" spans="5:7">
       <c r="E1018" s="43"/>
-    </row>
-    <row r="1019" spans="5:5">
-      <c r="E1019" s="43"/>
-    </row>
-    <row r="1020" spans="5:5">
+      <c r="G1018" s="43"/>
+    </row>
+    <row r="1020" spans="5:7">
       <c r="E1020" s="43"/>
-    </row>
-    <row r="1021" spans="5:5">
+      <c r="G1020" s="43"/>
+    </row>
+    <row r="1021" spans="5:7">
       <c r="E1021" s="43"/>
-    </row>
-    <row r="1022" spans="5:5">
+      <c r="G1021" s="43"/>
+    </row>
+    <row r="1022" spans="5:7">
       <c r="E1022" s="43"/>
-    </row>
-    <row r="1023" spans="5:5">
+      <c r="G1022" s="43"/>
+    </row>
+    <row r="1023" spans="5:7">
       <c r="E1023" s="43"/>
-    </row>
-    <row r="1024" spans="5:5">
+      <c r="G1023" s="43"/>
+    </row>
+    <row r="1024" spans="5:7">
       <c r="E1024" s="43"/>
-    </row>
-    <row r="1025" spans="5:5">
+      <c r="G1024" s="43"/>
+    </row>
+    <row r="1025" spans="5:7">
       <c r="E1025" s="43"/>
-    </row>
-    <row r="1026" spans="5:5">
+      <c r="G1025" s="43"/>
+    </row>
+    <row r="1026" spans="5:7">
       <c r="E1026" s="43"/>
-    </row>
-    <row r="1027" spans="5:5">
+      <c r="G1026" s="43"/>
+    </row>
+    <row r="1027" spans="5:7">
       <c r="E1027" s="43"/>
-    </row>
-    <row r="1028" spans="5:5">
+      <c r="G1027" s="43"/>
+    </row>
+    <row r="1028" spans="5:7">
       <c r="E1028" s="43"/>
-    </row>
-    <row r="1029" spans="5:5">
+      <c r="G1028" s="43"/>
+    </row>
+    <row r="1029" spans="5:7">
       <c r="E1029" s="43"/>
-    </row>
-    <row r="1031" spans="5:5">
+      <c r="G1029" s="43"/>
+    </row>
+    <row r="1030" spans="5:7">
+      <c r="E1030" s="43"/>
+      <c r="G1030" s="43"/>
+    </row>
+    <row r="1031" spans="5:7">
       <c r="E1031" s="43"/>
-    </row>
-    <row r="1032" spans="5:5">
+      <c r="G1031" s="43"/>
+    </row>
+    <row r="1032" spans="5:7">
       <c r="E1032" s="43"/>
-    </row>
-    <row r="1033" spans="5:5">
+      <c r="G1032" s="43"/>
+    </row>
+    <row r="1033" spans="5:7">
       <c r="E1033" s="43"/>
-    </row>
-    <row r="1034" spans="5:5">
-      <c r="E1034" s="43"/>
-    </row>
-    <row r="1035" spans="5:5">
-      <c r="E1035" s="43"/>
-    </row>
-    <row r="1036" spans="5:5">
+      <c r="G1033" s="43"/>
+    </row>
+    <row r="1036" spans="5:7">
       <c r="E1036" s="43"/>
     </row>
-    <row r="1037" spans="5:5">
-      <c r="E1037" s="43"/>
-    </row>
-    <row r="1038" spans="5:5">
-      <c r="E1038" s="43"/>
-    </row>
-    <row r="1039" spans="5:5">
-      <c r="E1039" s="43"/>
-    </row>
-    <row r="1040" spans="5:5">
+    <row r="1040" spans="5:7">
       <c r="E1040" s="43"/>
     </row>
     <row r="1041" spans="5:5">
@@ -11712,12 +13116,6 @@
     <row r="1043" spans="5:5">
       <c r="E1043" s="43"/>
     </row>
-    <row r="1044" spans="5:5">
-      <c r="E1044" s="43"/>
-    </row>
-    <row r="1045" spans="5:5">
-      <c r="E1045" s="43"/>
-    </row>
     <row r="1046" spans="5:5">
       <c r="E1046" s="43"/>
     </row>
@@ -11730,12 +13128,6 @@
     <row r="1049" spans="5:5">
       <c r="E1049" s="43"/>
     </row>
-    <row r="1050" spans="5:5">
-      <c r="E1050" s="43"/>
-    </row>
-    <row r="1051" spans="5:5">
-      <c r="E1051" s="43"/>
-    </row>
     <row r="1052" spans="5:5">
       <c r="E1052" s="43"/>
     </row>
@@ -11757,250 +13149,439 @@
     <row r="1058" spans="5:5">
       <c r="E1058" s="43"/>
     </row>
+    <row r="1059" spans="5:5">
+      <c r="E1059" s="43"/>
+    </row>
     <row r="1060" spans="5:5">
       <c r="E1060" s="43"/>
     </row>
+    <row r="1061" spans="5:5">
+      <c r="E1061" s="43"/>
+    </row>
+    <row r="1062" spans="5:5">
+      <c r="E1062" s="43"/>
+    </row>
+    <row r="1063" spans="5:5">
+      <c r="E1063" s="43"/>
+    </row>
+    <row r="1064" spans="5:5">
+      <c r="E1064" s="43"/>
+    </row>
+    <row r="1065" spans="5:5">
+      <c r="E1065" s="43"/>
+    </row>
+    <row r="1067" spans="5:5">
+      <c r="E1067" s="43"/>
+    </row>
+    <row r="1068" spans="5:5">
+      <c r="E1068" s="43"/>
+    </row>
+    <row r="1069" spans="5:5">
+      <c r="E1069" s="43"/>
+    </row>
+    <row r="1070" spans="5:5">
+      <c r="E1070" s="43"/>
+    </row>
+    <row r="1071" spans="5:5">
+      <c r="E1071" s="43"/>
+    </row>
+    <row r="1072" spans="5:5">
+      <c r="E1072" s="43"/>
+    </row>
     <row r="1073" spans="5:5">
       <c r="E1073" s="43"/>
     </row>
+    <row r="1074" spans="5:5">
+      <c r="E1074" s="43"/>
+    </row>
+    <row r="1075" spans="5:5">
+      <c r="E1075" s="43"/>
+    </row>
+    <row r="1076" spans="5:5">
+      <c r="E1076" s="43"/>
+    </row>
+    <row r="1077" spans="5:5">
+      <c r="E1077" s="43"/>
+    </row>
+    <row r="1078" spans="5:5">
+      <c r="E1078" s="43"/>
+    </row>
+    <row r="1079" spans="5:5">
+      <c r="E1079" s="43"/>
+    </row>
+    <row r="1080" spans="5:5">
+      <c r="E1080" s="43"/>
+    </row>
+    <row r="1082" spans="5:5">
+      <c r="E1082" s="43"/>
+    </row>
+    <row r="1083" spans="5:5">
+      <c r="E1083" s="43"/>
+    </row>
+    <row r="1084" spans="5:5">
+      <c r="E1084" s="43"/>
+    </row>
+    <row r="1085" spans="5:5">
+      <c r="E1085" s="43"/>
+    </row>
+    <row r="1086" spans="5:5">
+      <c r="E1086" s="43"/>
+    </row>
     <row r="1087" spans="5:5">
       <c r="E1087" s="43"/>
     </row>
+    <row r="1088" spans="5:5">
+      <c r="E1088" s="43"/>
+    </row>
     <row r="1089" spans="5:5">
       <c r="E1089" s="43"/>
     </row>
+    <row r="1090" spans="5:5">
+      <c r="E1090" s="43"/>
+    </row>
+    <row r="1091" spans="5:5">
+      <c r="E1091" s="43"/>
+    </row>
+    <row r="1092" spans="5:5">
+      <c r="E1092" s="43"/>
+    </row>
+    <row r="1093" spans="5:5">
+      <c r="E1093" s="43"/>
+    </row>
+    <row r="1094" spans="5:5">
+      <c r="E1094" s="43"/>
+    </row>
+    <row r="1095" spans="5:5">
+      <c r="E1095" s="43"/>
+    </row>
+    <row r="1097" spans="5:5">
+      <c r="E1097" s="43"/>
+    </row>
+    <row r="1098" spans="5:5">
+      <c r="E1098" s="43"/>
+    </row>
+    <row r="1099" spans="5:5">
+      <c r="E1099" s="43"/>
+    </row>
+    <row r="1100" spans="5:5">
+      <c r="E1100" s="43"/>
+    </row>
+    <row r="1101" spans="5:5">
+      <c r="E1101" s="43"/>
+    </row>
     <row r="1102" spans="5:5">
       <c r="E1102" s="43"/>
     </row>
+    <row r="1103" spans="5:5">
+      <c r="E1103" s="43"/>
+    </row>
+    <row r="1104" spans="5:5">
+      <c r="E1104" s="43"/>
+    </row>
+    <row r="1105" spans="5:5">
+      <c r="E1105" s="43"/>
+    </row>
+    <row r="1106" spans="5:5">
+      <c r="E1106" s="43"/>
+    </row>
+    <row r="1107" spans="5:5">
+      <c r="E1107" s="43"/>
+    </row>
+    <row r="1108" spans="5:5">
+      <c r="E1108" s="43"/>
+    </row>
+    <row r="1109" spans="5:5">
+      <c r="E1109" s="43"/>
+    </row>
+    <row r="1110" spans="5:5">
+      <c r="E1110" s="43"/>
+    </row>
+    <row r="1111" spans="5:5">
+      <c r="E1111" s="43"/>
+    </row>
+    <row r="1112" spans="5:5">
+      <c r="E1112" s="43"/>
+    </row>
+    <row r="1113" spans="5:5">
+      <c r="E1113" s="43"/>
+    </row>
+    <row r="1114" spans="5:5">
+      <c r="E1114" s="43"/>
+    </row>
+    <row r="1115" spans="5:5">
+      <c r="E1115" s="43"/>
+    </row>
     <row r="1116" spans="5:5">
       <c r="E1116" s="43"/>
     </row>
+    <row r="1117" spans="5:5">
+      <c r="E1117" s="43"/>
+    </row>
     <row r="1118" spans="5:5">
       <c r="E1118" s="43"/>
     </row>
-    <row r="1131" spans="5:5">
-      <c r="E1131" s="43"/>
-    </row>
-    <row r="1145" spans="5:5">
-      <c r="E1145" s="43"/>
-    </row>
-    <row r="1148" spans="5:5">
-      <c r="E1148" s="43"/>
-    </row>
-    <row r="1149" spans="5:5">
-      <c r="E1149" s="43"/>
-    </row>
-    <row r="1150" spans="5:5">
-      <c r="E1150" s="43"/>
-    </row>
-    <row r="1151" spans="5:5">
-      <c r="E1151" s="43"/>
-    </row>
-    <row r="1152" spans="5:5">
-      <c r="E1152" s="43"/>
+    <row r="1119" spans="5:5">
+      <c r="E1119" s="43"/>
+    </row>
+    <row r="1120" spans="5:5">
+      <c r="E1120" s="43"/>
+    </row>
+    <row r="1121" spans="5:5">
+      <c r="E1121" s="43"/>
+    </row>
+    <row r="1122" spans="5:5">
+      <c r="E1122" s="43"/>
+    </row>
+    <row r="1123" spans="5:5">
+      <c r="E1123" s="43"/>
+    </row>
+    <row r="1124" spans="5:5">
+      <c r="E1124" s="43"/>
+    </row>
+    <row r="1126" spans="5:5">
+      <c r="E1126" s="43"/>
+    </row>
+    <row r="1139" spans="5:5">
+      <c r="E1139" s="43"/>
     </row>
     <row r="1153" spans="5:5">
       <c r="E1153" s="43"/>
     </row>
-    <row r="1154" spans="5:5">
-      <c r="E1154" s="43"/>
-    </row>
     <row r="1155" spans="5:5">
       <c r="E1155" s="43"/>
     </row>
-    <row r="1156" spans="5:5">
-      <c r="E1156" s="43"/>
-    </row>
-    <row r="1157" spans="5:5">
-      <c r="E1157" s="43"/>
-    </row>
-    <row r="1158" spans="5:5">
-      <c r="E1158" s="43"/>
-    </row>
-    <row r="1159" spans="5:5">
-      <c r="E1159" s="43"/>
-    </row>
-    <row r="1160" spans="5:5">
-      <c r="E1160" s="43"/>
-    </row>
-    <row r="1161" spans="5:5">
-      <c r="E1161" s="43"/>
-    </row>
-    <row r="1170" spans="5:5">
-      <c r="E1170" s="43"/>
-    </row>
-    <row r="1187" spans="5:5">
-      <c r="E1187" s="43"/>
-    </row>
-    <row r="1204" spans="5:5">
-      <c r="E1204" s="43"/>
+    <row r="1168" spans="5:5">
+      <c r="E1168" s="43"/>
+    </row>
+    <row r="1182" spans="5:5">
+      <c r="E1182" s="43"/>
+    </row>
+    <row r="1184" spans="5:5">
+      <c r="E1184" s="43"/>
+    </row>
+    <row r="1197" spans="5:5">
+      <c r="E1197" s="43"/>
+    </row>
+    <row r="1211" spans="5:5">
+      <c r="E1211" s="43"/>
+    </row>
+    <row r="1214" spans="5:5">
+      <c r="E1214" s="43"/>
+    </row>
+    <row r="1215" spans="5:5">
+      <c r="E1215" s="43"/>
+    </row>
+    <row r="1216" spans="5:5">
+      <c r="E1216" s="43"/>
+    </row>
+    <row r="1217" spans="5:5">
+      <c r="E1217" s="43"/>
+    </row>
+    <row r="1218" spans="5:5">
+      <c r="E1218" s="43"/>
+    </row>
+    <row r="1219" spans="5:5">
+      <c r="E1219" s="43"/>
+    </row>
+    <row r="1220" spans="5:5">
+      <c r="E1220" s="43"/>
     </row>
     <row r="1221" spans="5:5">
       <c r="E1221" s="43"/>
     </row>
-    <row r="1238" spans="5:5">
-      <c r="E1238" s="43"/>
-    </row>
-    <row r="1255" spans="5:5">
-      <c r="E1255" s="43"/>
-    </row>
-    <row r="1272" spans="5:5">
-      <c r="E1272" s="43"/>
-    </row>
-    <row r="1289" spans="5:5">
-      <c r="E1289" s="43"/>
-    </row>
-    <row r="1306" spans="5:5">
-      <c r="E1306" s="43"/>
-    </row>
-    <row r="1323" spans="5:5">
-      <c r="E1323" s="43"/>
-    </row>
-    <row r="1340" spans="5:5">
-      <c r="E1340" s="43"/>
-    </row>
-    <row r="1357" spans="5:5">
-      <c r="E1357" s="43"/>
-    </row>
-    <row r="1374" spans="5:5">
-      <c r="E1374" s="43"/>
-    </row>
-    <row r="1391" spans="5:5">
-      <c r="E1391" s="43"/>
-    </row>
-    <row r="1408" spans="5:5">
-      <c r="E1408" s="43"/>
-    </row>
-    <row r="1425" spans="5:7">
-      <c r="E1425" s="43"/>
-    </row>
-    <row r="1435" spans="5:7">
-      <c r="G1435" s="43"/>
-    </row>
-    <row r="1436" spans="5:7">
-      <c r="G1436" s="43"/>
-    </row>
-    <row r="1437" spans="5:7">
-      <c r="G1437" s="43"/>
-    </row>
-    <row r="1438" spans="5:7">
-      <c r="G1438" s="43"/>
-    </row>
-    <row r="1439" spans="5:7">
-      <c r="G1439" s="43"/>
-    </row>
-    <row r="1440" spans="5:7">
-      <c r="G1440" s="43"/>
-    </row>
-    <row r="1441" spans="5:7">
-      <c r="G1441" s="43"/>
-    </row>
-    <row r="1442" spans="5:7">
-      <c r="G1442" s="43"/>
-    </row>
-    <row r="1443" spans="5:7">
-      <c r="G1443" s="43"/>
-    </row>
-    <row r="1444" spans="5:7">
-      <c r="G1444" s="43"/>
-    </row>
-    <row r="1445" spans="5:7">
-      <c r="G1445" s="43"/>
-    </row>
-    <row r="1446" spans="5:7">
-      <c r="G1446" s="43"/>
-    </row>
-    <row r="1447" spans="5:7">
-      <c r="G1447" s="43"/>
-    </row>
-    <row r="1448" spans="5:7">
-      <c r="E1448" s="43"/>
-      <c r="G1448" s="43"/>
-    </row>
-    <row r="1469" spans="5:5">
-      <c r="E1469" s="43"/>
-    </row>
-    <row r="1484" spans="5:5">
-      <c r="E1484" s="43"/>
-    </row>
-    <row r="1499" spans="5:5">
-      <c r="E1499" s="43"/>
-    </row>
-    <row r="1514" spans="5:5">
+    <row r="1222" spans="5:5">
+      <c r="E1222" s="43"/>
+    </row>
+    <row r="1223" spans="5:5">
+      <c r="E1223" s="43"/>
+    </row>
+    <row r="1224" spans="5:5">
+      <c r="E1224" s="43"/>
+    </row>
+    <row r="1225" spans="5:5">
+      <c r="E1225" s="43"/>
+    </row>
+    <row r="1226" spans="5:5">
+      <c r="E1226" s="43"/>
+    </row>
+    <row r="1227" spans="5:5">
+      <c r="E1227" s="43"/>
+    </row>
+    <row r="1236" spans="5:5">
+      <c r="E1236" s="43"/>
+    </row>
+    <row r="1253" spans="5:5">
+      <c r="E1253" s="43"/>
+    </row>
+    <row r="1270" spans="5:5">
+      <c r="E1270" s="43"/>
+    </row>
+    <row r="1287" spans="5:5">
+      <c r="E1287" s="43"/>
+    </row>
+    <row r="1304" spans="5:5">
+      <c r="E1304" s="43"/>
+    </row>
+    <row r="1321" spans="5:5">
+      <c r="E1321" s="43"/>
+    </row>
+    <row r="1338" spans="5:5">
+      <c r="E1338" s="43"/>
+    </row>
+    <row r="1355" spans="5:5">
+      <c r="E1355" s="43"/>
+    </row>
+    <row r="1372" spans="5:5">
+      <c r="E1372" s="43"/>
+    </row>
+    <row r="1389" spans="5:5">
+      <c r="E1389" s="43"/>
+    </row>
+    <row r="1406" spans="5:5">
+      <c r="E1406" s="43"/>
+    </row>
+    <row r="1423" spans="5:5">
+      <c r="E1423" s="43"/>
+    </row>
+    <row r="1440" spans="5:5">
+      <c r="E1440" s="43"/>
+    </row>
+    <row r="1457" spans="5:5">
+      <c r="E1457" s="43"/>
+    </row>
+    <row r="1474" spans="5:5">
+      <c r="E1474" s="43"/>
+    </row>
+    <row r="1491" spans="5:7">
+      <c r="E1491" s="43"/>
+    </row>
+    <row r="1501" spans="5:7">
+      <c r="G1501" s="43"/>
+    </row>
+    <row r="1502" spans="5:7">
+      <c r="G1502" s="43"/>
+    </row>
+    <row r="1503" spans="5:7">
+      <c r="G1503" s="43"/>
+    </row>
+    <row r="1504" spans="5:7">
+      <c r="G1504" s="43"/>
+    </row>
+    <row r="1505" spans="5:7">
+      <c r="G1505" s="43"/>
+    </row>
+    <row r="1506" spans="5:7">
+      <c r="G1506" s="43"/>
+    </row>
+    <row r="1507" spans="5:7">
+      <c r="G1507" s="43"/>
+    </row>
+    <row r="1508" spans="5:7">
+      <c r="G1508" s="43"/>
+    </row>
+    <row r="1509" spans="5:7">
+      <c r="G1509" s="43"/>
+    </row>
+    <row r="1510" spans="5:7">
+      <c r="G1510" s="43"/>
+    </row>
+    <row r="1511" spans="5:7">
+      <c r="G1511" s="43"/>
+    </row>
+    <row r="1512" spans="5:7">
+      <c r="G1512" s="43"/>
+    </row>
+    <row r="1513" spans="5:7">
+      <c r="G1513" s="43"/>
+    </row>
+    <row r="1514" spans="5:7">
       <c r="E1514" s="43"/>
-    </row>
-    <row r="1530" spans="5:5">
-      <c r="E1530" s="43"/>
-    </row>
-    <row r="1538" spans="5:7">
-      <c r="E1538" s="43"/>
-    </row>
-    <row r="1547" spans="5:7">
-      <c r="G1547" s="43"/>
-    </row>
-    <row r="1548" spans="5:7">
-      <c r="G1548" s="43"/>
-    </row>
-    <row r="1549" spans="5:7">
-      <c r="G1549" s="43"/>
-    </row>
-    <row r="1550" spans="5:7">
-      <c r="G1550" s="43"/>
-    </row>
-    <row r="1551" spans="5:7">
-      <c r="G1551" s="43"/>
-    </row>
-    <row r="1552" spans="5:7">
-      <c r="G1552" s="43"/>
-    </row>
-    <row r="1553" spans="5:7">
-      <c r="G1553" s="43"/>
-    </row>
-    <row r="1554" spans="5:7">
-      <c r="G1554" s="43"/>
-    </row>
-    <row r="1555" spans="5:7">
-      <c r="G1555" s="43"/>
-    </row>
-    <row r="1556" spans="5:7">
-      <c r="G1556" s="43"/>
-    </row>
-    <row r="1557" spans="5:7">
-      <c r="G1557" s="43"/>
-    </row>
-    <row r="1558" spans="5:7">
-      <c r="G1558" s="43"/>
-    </row>
-    <row r="1559" spans="5:7">
-      <c r="G1559" s="43"/>
-    </row>
-    <row r="1560" spans="5:7">
-      <c r="G1560" s="43"/>
-    </row>
-    <row r="1561" spans="5:7">
-      <c r="G1561" s="43"/>
-    </row>
-    <row r="1562" spans="5:7">
-      <c r="G1562" s="43"/>
-    </row>
-    <row r="1563" spans="5:7">
-      <c r="G1563" s="43"/>
-    </row>
-    <row r="1564" spans="5:7">
-      <c r="G1564" s="43"/>
-    </row>
-    <row r="1565" spans="5:7">
-      <c r="G1565" s="43"/>
-    </row>
-    <row r="1566" spans="5:7">
-      <c r="E1566" s="43"/>
-      <c r="G1566" s="43"/>
-    </row>
-    <row r="1574" spans="5:5">
-      <c r="E1574" s="43"/>
-    </row>
-    <row r="1581" spans="5:5">
-      <c r="E1581" s="43"/>
+      <c r="G1514" s="43"/>
+    </row>
+    <row r="1535" spans="5:5">
+      <c r="E1535" s="43"/>
+    </row>
+    <row r="1550" spans="5:5">
+      <c r="E1550" s="43"/>
+    </row>
+    <row r="1565" spans="5:5">
+      <c r="E1565" s="43"/>
+    </row>
+    <row r="1580" spans="5:5">
+      <c r="E1580" s="43"/>
+    </row>
+    <row r="1596" spans="5:5">
+      <c r="E1596" s="43"/>
+    </row>
+    <row r="1604" spans="5:7">
+      <c r="E1604" s="43"/>
+    </row>
+    <row r="1613" spans="5:7">
+      <c r="G1613" s="43"/>
+    </row>
+    <row r="1614" spans="5:7">
+      <c r="G1614" s="43"/>
+    </row>
+    <row r="1615" spans="5:7">
+      <c r="G1615" s="43"/>
+    </row>
+    <row r="1616" spans="5:7">
+      <c r="G1616" s="43"/>
+    </row>
+    <row r="1617" spans="5:7">
+      <c r="G1617" s="43"/>
+    </row>
+    <row r="1618" spans="5:7">
+      <c r="G1618" s="43"/>
+    </row>
+    <row r="1619" spans="5:7">
+      <c r="G1619" s="43"/>
+    </row>
+    <row r="1620" spans="5:7">
+      <c r="G1620" s="43"/>
+    </row>
+    <row r="1621" spans="5:7">
+      <c r="G1621" s="43"/>
+    </row>
+    <row r="1622" spans="5:7">
+      <c r="G1622" s="43"/>
+    </row>
+    <row r="1623" spans="5:7">
+      <c r="G1623" s="43"/>
+    </row>
+    <row r="1624" spans="5:7">
+      <c r="G1624" s="43"/>
+    </row>
+    <row r="1625" spans="5:7">
+      <c r="G1625" s="43"/>
+    </row>
+    <row r="1626" spans="5:7">
+      <c r="G1626" s="43"/>
+    </row>
+    <row r="1627" spans="5:7">
+      <c r="G1627" s="43"/>
+    </row>
+    <row r="1628" spans="5:7">
+      <c r="G1628" s="43"/>
+    </row>
+    <row r="1629" spans="5:7">
+      <c r="G1629" s="43"/>
+    </row>
+    <row r="1630" spans="5:7">
+      <c r="G1630" s="43"/>
+    </row>
+    <row r="1631" spans="5:7">
+      <c r="G1631" s="43"/>
+    </row>
+    <row r="1632" spans="5:7">
+      <c r="E1632" s="43"/>
+      <c r="G1632" s="43"/>
+    </row>
+    <row r="1640" spans="5:5">
+      <c r="E1640" s="43"/>
+    </row>
+    <row r="1647" spans="5:5">
+      <c r="E1647" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAF8ACA-4F69-40BC-B1F2-28DE6AFE9013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E91579-094B-4333-93BA-C75C7FA0990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -1021,9 +1021,6 @@
     <t>Compatible part-number: MOS 7708</t>
   </si>
   <si>
-    <t>Compatible number: MOS 7709</t>
-  </si>
-  <si>
     <t>Compatible number: MOS 7711</t>
   </si>
   <si>
@@ -3431,6 +3428,10 @@
 Compatible part-number: Signetics 82S100
 Compatible part-number: Philips PLS100
 Compatible part-number: MOS 251064-01</t>
+  </si>
+  <si>
+    <t>This is the same as the 74LS257 but with inverted outputs.
+Compatible part-number: MOS 7709</t>
   </si>
   <si>
     <r>
@@ -3445,7 +3446,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-November-11</t>
+      <t>2025-November-22</t>
     </r>
   </si>
 </sst>
@@ -4139,7 +4140,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -4159,7 +4160,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -4180,7 +4181,7 @@
         <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -5561,7 +5562,7 @@
         <v>556</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>89</v>
@@ -5715,7 +5716,7 @@
         <v>291</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5732,7 +5733,7 @@
         <v>292</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6725,7 +6726,7 @@
         <v>161</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6738,7 +6739,7 @@
         <v>161</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6751,7 +6752,7 @@
         <v>161</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6764,7 +6765,7 @@
         <v>161</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6777,7 +6778,7 @@
         <v>161</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I14" s="14"/>
     </row>
@@ -6791,7 +6792,7 @@
         <v>161</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6804,7 +6805,7 @@
         <v>161</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6817,7 +6818,7 @@
         <v>161</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="158.4">
@@ -6830,7 +6831,7 @@
         <v>161</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>298</v>
@@ -6847,13 +6848,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F19" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6867,13 +6868,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6887,13 +6888,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6907,13 +6908,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6927,13 +6928,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6947,13 +6948,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6967,13 +6968,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6987,13 +6988,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7007,13 +7008,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F27" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7027,13 +7028,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="F28" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -7047,13 +7048,13 @@
         <v>11</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7067,13 +7068,13 @@
         <v>12</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -7087,13 +7088,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7107,13 +7108,13 @@
         <v>14</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7127,13 +7128,13 @@
         <v>15</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7147,13 +7148,13 @@
         <v>16</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7167,13 +7168,13 @@
         <v>17</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7187,13 +7188,13 @@
         <v>18</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7207,13 +7208,13 @@
         <v>19</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7227,13 +7228,13 @@
         <v>20</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7247,13 +7248,13 @@
         <v>21</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7267,13 +7268,13 @@
         <v>22</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7287,13 +7288,13 @@
         <v>23</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7307,13 +7308,13 @@
         <v>24</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7327,13 +7328,13 @@
         <v>25</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7347,13 +7348,13 @@
         <v>26</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7367,13 +7368,13 @@
         <v>27</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7387,13 +7388,13 @@
         <v>28</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7407,13 +7408,13 @@
         <v>29</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7427,13 +7428,13 @@
         <v>30</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7447,13 +7448,13 @@
         <v>31</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7467,13 +7468,13 @@
         <v>32</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7487,13 +7488,13 @@
         <v>33</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7507,13 +7508,13 @@
         <v>34</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7527,13 +7528,13 @@
         <v>35</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7547,13 +7548,13 @@
         <v>36</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7567,13 +7568,13 @@
         <v>37</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7587,13 +7588,13 @@
         <v>38</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -7607,13 +7608,13 @@
         <v>39</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7627,13 +7628,13 @@
         <v>40</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="158.4">
@@ -7646,7 +7647,7 @@
         <v>161</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>299</v>
@@ -7664,13 +7665,13 @@
         <v>1</v>
       </c>
       <c r="D60" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F60" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7684,13 +7685,13 @@
         <v>2</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7704,13 +7705,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -7724,13 +7725,13 @@
         <v>4</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -7744,13 +7745,13 @@
         <v>5</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7764,13 +7765,13 @@
         <v>6</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7784,13 +7785,13 @@
         <v>7</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7804,13 +7805,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7824,13 +7825,13 @@
         <v>9</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7844,13 +7845,13 @@
         <v>10</v>
       </c>
       <c r="D69" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="F69" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7864,13 +7865,13 @@
         <v>11</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7884,13 +7885,13 @@
         <v>12</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7904,13 +7905,13 @@
         <v>13</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7924,13 +7925,13 @@
         <v>14</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7944,13 +7945,13 @@
         <v>15</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7964,13 +7965,13 @@
         <v>16</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7984,13 +7985,13 @@
         <v>17</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8004,13 +8005,13 @@
         <v>18</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8024,13 +8025,13 @@
         <v>19</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8044,13 +8045,13 @@
         <v>20</v>
       </c>
       <c r="D79" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F79" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8064,13 +8065,13 @@
         <v>21</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8084,13 +8085,13 @@
         <v>22</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8104,13 +8105,13 @@
         <v>23</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8124,13 +8125,13 @@
         <v>24</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8144,13 +8145,13 @@
         <v>25</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8164,13 +8165,13 @@
         <v>26</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8184,13 +8185,13 @@
         <v>27</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8204,13 +8205,13 @@
         <v>28</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8224,13 +8225,13 @@
         <v>29</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8244,13 +8245,13 @@
         <v>30</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8264,13 +8265,13 @@
         <v>31</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8284,13 +8285,13 @@
         <v>32</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8304,13 +8305,13 @@
         <v>33</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8324,13 +8325,13 @@
         <v>34</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8344,13 +8345,13 @@
         <v>35</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8364,13 +8365,13 @@
         <v>36</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8384,13 +8385,13 @@
         <v>37</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -8404,13 +8405,13 @@
         <v>38</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -8424,13 +8425,13 @@
         <v>39</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -8444,13 +8445,13 @@
         <v>40</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="28.8">
@@ -8463,7 +8464,7 @@
         <v>161</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>239</v>
@@ -8480,13 +8481,13 @@
         <v>1</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -8500,13 +8501,13 @@
         <v>2</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -8520,13 +8521,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -8540,13 +8541,13 @@
         <v>4</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -8560,13 +8561,13 @@
         <v>5</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -8580,13 +8581,13 @@
         <v>6</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -8600,13 +8601,13 @@
         <v>7</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8620,13 +8621,13 @@
         <v>8</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8640,13 +8641,13 @@
         <v>9</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8660,13 +8661,13 @@
         <v>10</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8680,13 +8681,13 @@
         <v>11</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -8700,13 +8701,13 @@
         <v>12</v>
       </c>
       <c r="D112" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F112" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -8720,13 +8721,13 @@
         <v>13</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8740,13 +8741,13 @@
         <v>14</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8760,13 +8761,13 @@
         <v>15</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -8780,13 +8781,13 @@
         <v>16</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8800,13 +8801,13 @@
         <v>17</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -8820,13 +8821,13 @@
         <v>18</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -8840,13 +8841,13 @@
         <v>19</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8860,13 +8861,13 @@
         <v>20</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -8880,13 +8881,13 @@
         <v>21</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -8900,13 +8901,13 @@
         <v>22</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8920,13 +8921,13 @@
         <v>23</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8940,13 +8941,13 @@
         <v>24</v>
       </c>
       <c r="D124" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F124" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="28.8">
@@ -8959,7 +8960,7 @@
         <v>161</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>240</v>
@@ -8976,13 +8977,13 @@
         <v>1</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8996,13 +8997,13 @@
         <v>2</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -9016,13 +9017,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9036,13 +9037,13 @@
         <v>4</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9056,13 +9057,13 @@
         <v>5</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9076,13 +9077,13 @@
         <v>6</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9096,13 +9097,13 @@
         <v>7</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9116,13 +9117,13 @@
         <v>8</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -9136,13 +9137,13 @@
         <v>9</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -9156,13 +9157,13 @@
         <v>10</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -9176,13 +9177,13 @@
         <v>11</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9196,13 +9197,13 @@
         <v>12</v>
       </c>
       <c r="D137" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F137" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -9216,13 +9217,13 @@
         <v>13</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -9236,13 +9237,13 @@
         <v>14</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -9256,13 +9257,13 @@
         <v>15</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -9276,13 +9277,13 @@
         <v>16</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -9296,13 +9297,13 @@
         <v>17</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -9316,13 +9317,13 @@
         <v>18</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -9336,13 +9337,13 @@
         <v>19</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -9356,13 +9357,13 @@
         <v>20</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -9376,13 +9377,13 @@
         <v>21</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -9396,13 +9397,13 @@
         <v>22</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -9416,13 +9417,13 @@
         <v>23</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -9436,13 +9437,13 @@
         <v>24</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="72">
@@ -9455,7 +9456,7 @@
         <v>161</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>305</v>
@@ -9472,13 +9473,13 @@
         <v>1</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -9492,13 +9493,13 @@
         <v>2</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -9512,13 +9513,13 @@
         <v>3</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -9532,13 +9533,13 @@
         <v>4</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -9552,13 +9553,13 @@
         <v>5</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9572,13 +9573,13 @@
         <v>6</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -9592,13 +9593,13 @@
         <v>7</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -9612,13 +9613,13 @@
         <v>8</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -9632,13 +9633,13 @@
         <v>9</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9652,13 +9653,13 @@
         <v>10</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9672,13 +9673,13 @@
         <v>11</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -9692,13 +9693,13 @@
         <v>12</v>
       </c>
       <c r="D162" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F162" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9712,13 +9713,13 @@
         <v>13</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -9732,13 +9733,13 @@
         <v>14</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -9752,13 +9753,13 @@
         <v>15</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9772,13 +9773,13 @@
         <v>16</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9792,13 +9793,13 @@
         <v>17</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9812,13 +9813,13 @@
         <v>18</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9832,13 +9833,13 @@
         <v>19</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9852,13 +9853,13 @@
         <v>20</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9872,13 +9873,13 @@
         <v>21</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9892,13 +9893,13 @@
         <v>22</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9912,13 +9913,13 @@
         <v>23</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9932,13 +9933,13 @@
         <v>24</v>
       </c>
       <c r="D174" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F174" s="14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="28.8">
@@ -9951,7 +9952,7 @@
         <v>161</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>241</v>
@@ -9968,13 +9969,13 @@
         <v>1</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -9988,13 +9989,13 @@
         <v>2</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -10008,13 +10009,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -10028,13 +10029,13 @@
         <v>4</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -10048,13 +10049,13 @@
         <v>5</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -10068,13 +10069,13 @@
         <v>6</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -10088,13 +10089,13 @@
         <v>7</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -10108,13 +10109,13 @@
         <v>8</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -10128,13 +10129,13 @@
         <v>9</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -10148,13 +10149,13 @@
         <v>10</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F185" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -10168,13 +10169,13 @@
         <v>11</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -10188,13 +10189,13 @@
         <v>12</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -10208,13 +10209,13 @@
         <v>13</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -10228,13 +10229,13 @@
         <v>14</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -10248,13 +10249,13 @@
         <v>15</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -10268,13 +10269,13 @@
         <v>16</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -10288,13 +10289,13 @@
         <v>17</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -10308,13 +10309,13 @@
         <v>18</v>
       </c>
       <c r="D193" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F193" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -10327,7 +10328,7 @@
         <v>161</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>275</v>
@@ -10344,16 +10345,16 @@
         <v>1</v>
       </c>
       <c r="D195" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F195" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -10367,13 +10368,13 @@
         <v>2</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F196" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -10387,13 +10388,13 @@
         <v>3</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F197" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -10407,13 +10408,13 @@
         <v>4</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -10427,13 +10428,13 @@
         <v>5</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -10447,13 +10448,13 @@
         <v>6</v>
       </c>
       <c r="D200" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F200" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -10467,13 +10468,13 @@
         <v>7</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -10487,13 +10488,13 @@
         <v>8</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -10507,13 +10508,13 @@
         <v>9</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -10527,13 +10528,13 @@
         <v>10</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -10547,13 +10548,13 @@
         <v>11</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -10567,13 +10568,13 @@
         <v>12</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -10587,13 +10588,13 @@
         <v>13</v>
       </c>
       <c r="D207" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -10607,13 +10608,13 @@
         <v>14</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -10627,13 +10628,13 @@
         <v>15</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -10647,13 +10648,13 @@
         <v>16</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -10667,13 +10668,13 @@
         <v>17</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -10687,13 +10688,13 @@
         <v>18</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -10707,13 +10708,13 @@
         <v>19</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -10727,13 +10728,13 @@
         <v>20</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -10747,13 +10748,13 @@
         <v>21</v>
       </c>
       <c r="D215" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F215" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -10767,13 +10768,13 @@
         <v>22</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -10787,13 +10788,13 @@
         <v>23</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -10807,13 +10808,13 @@
         <v>24</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -10827,13 +10828,13 @@
         <v>25</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -10847,13 +10848,13 @@
         <v>26</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -10867,13 +10868,13 @@
         <v>27</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -10887,13 +10888,13 @@
         <v>28</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -10907,13 +10908,13 @@
         <v>29</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -10927,13 +10928,13 @@
         <v>30</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -10947,13 +10948,13 @@
         <v>31</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -10967,13 +10968,13 @@
         <v>32</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -10987,13 +10988,13 @@
         <v>33</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -11007,13 +11008,13 @@
         <v>34</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -11027,13 +11028,13 @@
         <v>35</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F229" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -11047,13 +11048,13 @@
         <v>36</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -11067,13 +11068,13 @@
         <v>37</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F231" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -11087,13 +11088,13 @@
         <v>38</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F232" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -11107,16 +11108,16 @@
         <v>39</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -11130,13 +11131,13 @@
         <v>40</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -11149,7 +11150,7 @@
         <v>161</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>308</v>
@@ -11166,13 +11167,13 @@
         <v>1</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -11186,13 +11187,13 @@
         <v>2</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -11206,13 +11207,13 @@
         <v>3</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -11226,13 +11227,13 @@
         <v>4</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -11246,13 +11247,13 @@
         <v>5</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -11266,13 +11267,13 @@
         <v>6</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -11286,13 +11287,13 @@
         <v>7</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -11306,13 +11307,13 @@
         <v>8</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -11326,13 +11327,13 @@
         <v>9</v>
       </c>
       <c r="D244" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -11346,13 +11347,13 @@
         <v>10</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -11366,13 +11367,13 @@
         <v>11</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -11386,13 +11387,13 @@
         <v>12</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -11406,13 +11407,13 @@
         <v>13</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -11426,13 +11427,13 @@
         <v>14</v>
       </c>
       <c r="D249" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E249" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F249" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="43.2">
@@ -11445,7 +11446,7 @@
         <v>161</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>194</v>
@@ -11462,13 +11463,13 @@
         <v>1</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -11482,13 +11483,13 @@
         <v>2</v>
       </c>
       <c r="D252" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -11502,13 +11503,13 @@
         <v>3</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -11522,13 +11523,13 @@
         <v>4</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -11542,13 +11543,13 @@
         <v>5</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -11562,13 +11563,13 @@
         <v>6</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -11582,13 +11583,13 @@
         <v>7</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -11602,13 +11603,13 @@
         <v>8</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -11622,13 +11623,13 @@
         <v>9</v>
       </c>
       <c r="D259" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F259" s="14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -11642,13 +11643,13 @@
         <v>10</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -11662,13 +11663,13 @@
         <v>11</v>
       </c>
       <c r="D261" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -11682,13 +11683,13 @@
         <v>12</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -11702,13 +11703,13 @@
         <v>13</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -11722,13 +11723,13 @@
         <v>14</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -11742,13 +11743,13 @@
         <v>15</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -11762,13 +11763,13 @@
         <v>16</v>
       </c>
       <c r="D266" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -11782,13 +11783,13 @@
         <v>17</v>
       </c>
       <c r="D267" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F267" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -11802,13 +11803,13 @@
         <v>18</v>
       </c>
       <c r="D268" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E268" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F268" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="43.2">
@@ -11821,7 +11822,7 @@
         <v>161</v>
       </c>
       <c r="F269" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>195</v>
@@ -11838,13 +11839,13 @@
         <v>1</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F270" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -11858,13 +11859,13 @@
         <v>2</v>
       </c>
       <c r="D271" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -11878,13 +11879,13 @@
         <v>3</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -11898,13 +11899,13 @@
         <v>4</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -11918,13 +11919,13 @@
         <v>5</v>
       </c>
       <c r="D274" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F274" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -11938,13 +11939,13 @@
         <v>6</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -11958,13 +11959,13 @@
         <v>7</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -11978,13 +11979,13 @@
         <v>8</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -11998,13 +11999,13 @@
         <v>9</v>
       </c>
       <c r="D278" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E278" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F278" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -12018,13 +12019,13 @@
         <v>10</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -12038,13 +12039,13 @@
         <v>11</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -12058,13 +12059,13 @@
         <v>12</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -12078,13 +12079,13 @@
         <v>13</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -12098,13 +12099,13 @@
         <v>14</v>
       </c>
       <c r="D283" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -12118,13 +12119,13 @@
         <v>15</v>
       </c>
       <c r="D284" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -12138,13 +12139,13 @@
         <v>16</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -12158,13 +12159,13 @@
         <v>17</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -12178,13 +12179,13 @@
         <v>18</v>
       </c>
       <c r="D287" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E287" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F287" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -12197,7 +12198,7 @@
         <v>161</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>309</v>
@@ -12214,13 +12215,13 @@
         <v>1</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -12234,13 +12235,13 @@
         <v>2</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -12254,13 +12255,13 @@
         <v>3</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -12274,13 +12275,13 @@
         <v>4</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -12294,13 +12295,13 @@
         <v>5</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -12314,13 +12315,13 @@
         <v>6</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -12334,13 +12335,13 @@
         <v>7</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -12354,13 +12355,13 @@
         <v>8</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F296" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -12374,13 +12375,13 @@
         <v>9</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F297" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -12394,13 +12395,13 @@
         <v>10</v>
       </c>
       <c r="D298" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F298" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -12414,13 +12415,13 @@
         <v>11</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F299" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -12434,13 +12435,13 @@
         <v>12</v>
       </c>
       <c r="D300" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F300" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -12454,13 +12455,13 @@
         <v>13</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F301" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -12474,13 +12475,13 @@
         <v>14</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F302" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -12494,13 +12495,13 @@
         <v>15</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F303" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -12514,16 +12515,16 @@
         <v>16</v>
       </c>
       <c r="D304" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E304" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F304" s="14" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="43.2">
       <c r="A305" s="14" t="s">
         <v>53</v>
       </c>
@@ -12533,10 +12534,10 @@
         <v>161</v>
       </c>
       <c r="F305" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>310</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -12550,13 +12551,13 @@
         <v>1</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -12570,13 +12571,13 @@
         <v>2</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -12590,13 +12591,13 @@
         <v>3</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -12610,13 +12611,13 @@
         <v>4</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F309" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -12630,13 +12631,13 @@
         <v>5</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -12650,13 +12651,13 @@
         <v>6</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -12670,13 +12671,13 @@
         <v>7</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -12690,13 +12691,13 @@
         <v>8</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F313" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -12710,13 +12711,13 @@
         <v>9</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -12730,13 +12731,13 @@
         <v>10</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F315" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -12750,13 +12751,13 @@
         <v>11</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -12770,13 +12771,13 @@
         <v>12</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F317" s="14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -12790,13 +12791,13 @@
         <v>13</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F318" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -12810,13 +12811,13 @@
         <v>14</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F319" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -12830,13 +12831,13 @@
         <v>15</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -12850,13 +12851,13 @@
         <v>16</v>
       </c>
       <c r="D321" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E321" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E321" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F321" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12869,10 +12870,10 @@
         <v>161</v>
       </c>
       <c r="F322" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12886,13 +12887,13 @@
         <v>1</v>
       </c>
       <c r="D323" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F323" s="14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12906,13 +12907,13 @@
         <v>2</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12926,13 +12927,13 @@
         <v>3</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F325" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12946,13 +12947,13 @@
         <v>4</v>
       </c>
       <c r="D326" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12966,13 +12967,13 @@
         <v>5</v>
       </c>
       <c r="D327" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F327" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -12986,13 +12987,13 @@
         <v>6</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F328" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -13006,13 +13007,13 @@
         <v>7</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F329" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -13026,13 +13027,13 @@
         <v>8</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F330" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="331" spans="1:7" s="24" customFormat="1">
@@ -13046,13 +13047,13 @@
         <v>9</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G331" s="1"/>
     </row>
@@ -13067,13 +13068,13 @@
         <v>10</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F332" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -13087,13 +13088,13 @@
         <v>11</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F333" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -13107,13 +13108,13 @@
         <v>12</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F334" s="14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -13127,13 +13128,13 @@
         <v>13</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13147,13 +13148,13 @@
         <v>14</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F336" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -13167,13 +13168,13 @@
         <v>15</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -13187,13 +13188,13 @@
         <v>16</v>
       </c>
       <c r="D338" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E338" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E338" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F338" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -13206,7 +13207,7 @@
         <v>161</v>
       </c>
       <c r="F339" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -13220,13 +13221,13 @@
         <v>1</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -13240,13 +13241,13 @@
         <v>2</v>
       </c>
       <c r="D341" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -13260,13 +13261,13 @@
         <v>3</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F342" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -13280,13 +13281,13 @@
         <v>4</v>
       </c>
       <c r="D343" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -13300,13 +13301,13 @@
         <v>5</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F344" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -13320,13 +13321,13 @@
         <v>6</v>
       </c>
       <c r="D345" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F345" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -13340,13 +13341,13 @@
         <v>7</v>
       </c>
       <c r="D346" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E346" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E346" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F346" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -13360,13 +13361,13 @@
         <v>8</v>
       </c>
       <c r="D347" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -13380,13 +13381,13 @@
         <v>9</v>
       </c>
       <c r="D348" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F348" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -13400,13 +13401,13 @@
         <v>10</v>
       </c>
       <c r="D349" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F349" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -13420,13 +13421,13 @@
         <v>11</v>
       </c>
       <c r="D350" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F350" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -13440,13 +13441,13 @@
         <v>12</v>
       </c>
       <c r="D351" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F351" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -13460,13 +13461,13 @@
         <v>13</v>
       </c>
       <c r="D352" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F352" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -13480,13 +13481,13 @@
         <v>14</v>
       </c>
       <c r="D353" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="86.4">
@@ -13499,10 +13500,10 @@
         <v>161</v>
       </c>
       <c r="F354" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -13516,13 +13517,13 @@
         <v>1</v>
       </c>
       <c r="D355" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E355" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>829</v>
-      </c>
       <c r="F355" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -13536,13 +13537,13 @@
         <v>2</v>
       </c>
       <c r="D356" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F356" s="14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -13556,13 +13557,13 @@
         <v>3</v>
       </c>
       <c r="D357" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -13576,13 +13577,13 @@
         <v>4</v>
       </c>
       <c r="D358" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F358" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -13596,13 +13597,13 @@
         <v>5</v>
       </c>
       <c r="D359" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -13616,13 +13617,13 @@
         <v>6</v>
       </c>
       <c r="D360" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F360" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -13636,13 +13637,13 @@
         <v>7</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -13656,13 +13657,13 @@
         <v>8</v>
       </c>
       <c r="D362" s="14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F362" s="14" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -13676,13 +13677,13 @@
         <v>9</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -13696,13 +13697,13 @@
         <v>10</v>
       </c>
       <c r="D364" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F364" s="14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -13716,13 +13717,13 @@
         <v>11</v>
       </c>
       <c r="D365" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -13736,13 +13737,13 @@
         <v>12</v>
       </c>
       <c r="D366" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F366" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -13756,13 +13757,13 @@
         <v>13</v>
       </c>
       <c r="D367" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F367" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -13776,13 +13777,13 @@
         <v>14</v>
       </c>
       <c r="D368" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E368" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E368" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F368" s="14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -13796,13 +13797,13 @@
         <v>15</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F369" s="14" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -13816,13 +13817,13 @@
         <v>16</v>
       </c>
       <c r="D370" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F370" s="14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -13836,13 +13837,13 @@
         <v>17</v>
       </c>
       <c r="D371" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F371" s="14" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -13856,13 +13857,13 @@
         <v>18</v>
       </c>
       <c r="D372" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F372" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -13876,13 +13877,13 @@
         <v>19</v>
       </c>
       <c r="D373" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F373" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -13896,13 +13897,13 @@
         <v>20</v>
       </c>
       <c r="D374" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F374" s="14" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -13916,13 +13917,13 @@
         <v>21</v>
       </c>
       <c r="D375" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F375" s="14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -13936,13 +13937,13 @@
         <v>22</v>
       </c>
       <c r="D376" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F376" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -13956,13 +13957,13 @@
         <v>23</v>
       </c>
       <c r="D377" s="14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F377" s="14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -13976,13 +13977,13 @@
         <v>24</v>
       </c>
       <c r="D378" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F378" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -13996,13 +13997,13 @@
         <v>25</v>
       </c>
       <c r="D379" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F379" s="14" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -14016,13 +14017,13 @@
         <v>26</v>
       </c>
       <c r="D380" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F380" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -14036,13 +14037,13 @@
         <v>27</v>
       </c>
       <c r="D381" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F381" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -14056,13 +14057,13 @@
         <v>28</v>
       </c>
       <c r="D382" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E382" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E382" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F382" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="72">
@@ -14075,10 +14076,10 @@
         <v>161</v>
       </c>
       <c r="F383" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -14092,13 +14093,13 @@
         <v>1</v>
       </c>
       <c r="D384" s="14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -14112,13 +14113,13 @@
         <v>2</v>
       </c>
       <c r="D385" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F385" s="14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -14132,13 +14133,13 @@
         <v>3</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -14152,13 +14153,13 @@
         <v>4</v>
       </c>
       <c r="D387" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F387" s="14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -14172,13 +14173,13 @@
         <v>5</v>
       </c>
       <c r="D388" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -14192,13 +14193,13 @@
         <v>6</v>
       </c>
       <c r="D389" s="14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F389" s="14" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -14212,13 +14213,13 @@
         <v>7</v>
       </c>
       <c r="D390" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -14232,13 +14233,13 @@
         <v>8</v>
       </c>
       <c r="D391" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F391" s="14" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -14252,13 +14253,13 @@
         <v>9</v>
       </c>
       <c r="D392" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -14272,13 +14273,13 @@
         <v>10</v>
       </c>
       <c r="D393" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F393" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -14292,13 +14293,13 @@
         <v>11</v>
       </c>
       <c r="D394" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F394" s="14" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -14312,13 +14313,13 @@
         <v>12</v>
       </c>
       <c r="D395" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F395" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -14332,13 +14333,13 @@
         <v>13</v>
       </c>
       <c r="D396" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -14352,13 +14353,13 @@
         <v>14</v>
       </c>
       <c r="D397" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E397" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E397" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F397" s="14" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -14372,13 +14373,13 @@
         <v>15</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -14392,13 +14393,13 @@
         <v>16</v>
       </c>
       <c r="D399" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F399" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -14412,13 +14413,13 @@
         <v>17</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -14432,13 +14433,13 @@
         <v>18</v>
       </c>
       <c r="D401" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F401" s="14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -14452,13 +14453,13 @@
         <v>19</v>
       </c>
       <c r="D402" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -14472,13 +14473,13 @@
         <v>20</v>
       </c>
       <c r="D403" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F403" s="14" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -14492,13 +14493,13 @@
         <v>21</v>
       </c>
       <c r="D404" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -14512,13 +14513,13 @@
         <v>22</v>
       </c>
       <c r="D405" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F405" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -14532,13 +14533,13 @@
         <v>23</v>
       </c>
       <c r="D406" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="E406" s="50" t="s">
         <v>854</v>
       </c>
-      <c r="E406" s="50" t="s">
-        <v>855</v>
-      </c>
       <c r="F406" s="14" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -14552,13 +14553,13 @@
         <v>24</v>
       </c>
       <c r="D407" s="14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E407" s="50" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F407" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -14572,13 +14573,13 @@
         <v>25</v>
       </c>
       <c r="D408" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E408" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E408" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F408" s="14" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -14592,13 +14593,13 @@
         <v>26</v>
       </c>
       <c r="D409" s="14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F409" s="14" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -14612,13 +14613,13 @@
         <v>27</v>
       </c>
       <c r="D410" s="14" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F410" s="14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -14632,13 +14633,13 @@
         <v>28</v>
       </c>
       <c r="D411" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F411" s="14" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="28.8">
@@ -14651,7 +14652,7 @@
         <v>161</v>
       </c>
       <c r="F412" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G412" s="1" t="s">
         <v>297</v>
@@ -14668,13 +14669,13 @@
         <v>1</v>
       </c>
       <c r="D413" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F413" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -14688,13 +14689,13 @@
         <v>2</v>
       </c>
       <c r="D414" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F414" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -14708,13 +14709,13 @@
         <v>3</v>
       </c>
       <c r="D415" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F415" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -14728,13 +14729,13 @@
         <v>4</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F416" s="14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -14748,13 +14749,13 @@
         <v>5</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F417" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -14768,13 +14769,13 @@
         <v>6</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -14788,13 +14789,13 @@
         <v>7</v>
       </c>
       <c r="D419" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F419" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -14808,13 +14809,13 @@
         <v>8</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F420" s="14" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -14828,13 +14829,13 @@
         <v>9</v>
       </c>
       <c r="D421" s="14" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F421" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -14848,13 +14849,13 @@
         <v>10</v>
       </c>
       <c r="D422" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F422" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -14868,13 +14869,13 @@
         <v>11</v>
       </c>
       <c r="D423" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F423" s="14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -14888,13 +14889,13 @@
         <v>12</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F424" s="14" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -14908,13 +14909,13 @@
         <v>13</v>
       </c>
       <c r="D425" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F425" s="14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="28.8">
@@ -14928,13 +14929,13 @@
         <v>14</v>
       </c>
       <c r="D426" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="E426" s="24" t="s">
         <v>860</v>
       </c>
-      <c r="E426" s="24" t="s">
-        <v>861</v>
-      </c>
       <c r="F426" s="14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -14948,13 +14949,13 @@
         <v>15</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -14968,13 +14969,13 @@
         <v>16</v>
       </c>
       <c r="D428" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -14988,16 +14989,16 @@
         <v>17</v>
       </c>
       <c r="D429" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F429" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="G429" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="E429" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="F429" s="14" t="s">
-        <v>987</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -15011,13 +15012,13 @@
         <v>18</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -15031,13 +15032,13 @@
         <v>19</v>
       </c>
       <c r="D431" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -15051,13 +15052,13 @@
         <v>20</v>
       </c>
       <c r="D432" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E432" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E432" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F432" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15071,16 +15072,16 @@
         <v>21</v>
       </c>
       <c r="D433" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F433" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="G433" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F433" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="G433" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -15094,16 +15095,16 @@
         <v>22</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F434" s="14" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -15117,13 +15118,13 @@
         <v>23</v>
       </c>
       <c r="D435" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F435" s="14" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -15137,13 +15138,13 @@
         <v>24</v>
       </c>
       <c r="D436" s="14" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F436" s="14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -15157,13 +15158,13 @@
         <v>25</v>
       </c>
       <c r="D437" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F437" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -15177,13 +15178,13 @@
         <v>26</v>
       </c>
       <c r="D438" s="14" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F438" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -15197,13 +15198,13 @@
         <v>27</v>
       </c>
       <c r="D439" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -15217,13 +15218,13 @@
         <v>28</v>
       </c>
       <c r="D440" s="14" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -15237,13 +15238,13 @@
         <v>29</v>
       </c>
       <c r="D441" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F441" s="14" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -15257,13 +15258,13 @@
         <v>30</v>
       </c>
       <c r="D442" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F442" s="14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -15277,13 +15278,13 @@
         <v>31</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F443" s="14" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -15297,13 +15298,13 @@
         <v>32</v>
       </c>
       <c r="D444" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F444" s="14" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -15317,13 +15318,13 @@
         <v>33</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F445" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -15337,13 +15338,13 @@
         <v>34</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F446" s="14" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -15357,13 +15358,13 @@
         <v>35</v>
       </c>
       <c r="D447" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F447" s="14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -15377,13 +15378,13 @@
         <v>36</v>
       </c>
       <c r="D448" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F448" s="14" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -15397,13 +15398,13 @@
         <v>37</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F449" s="14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -15417,13 +15418,13 @@
         <v>38</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F450" s="14" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -15437,13 +15438,13 @@
         <v>39</v>
       </c>
       <c r="D451" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F451" s="14" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -15457,13 +15458,13 @@
         <v>40</v>
       </c>
       <c r="D452" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E452" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E452" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F452" s="14" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -15476,7 +15477,7 @@
         <v>161</v>
       </c>
       <c r="F453" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -15490,13 +15491,13 @@
         <v>1</v>
       </c>
       <c r="D454" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F454" s="14" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -15510,13 +15511,13 @@
         <v>2</v>
       </c>
       <c r="D455" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F455" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -15530,13 +15531,13 @@
         <v>3</v>
       </c>
       <c r="D456" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F456" s="14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -15550,13 +15551,13 @@
         <v>4</v>
       </c>
       <c r="D457" s="14" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F457" s="14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -15570,13 +15571,13 @@
         <v>5</v>
       </c>
       <c r="D458" s="14" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F458" s="14" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -15590,13 +15591,13 @@
         <v>6</v>
       </c>
       <c r="D459" s="14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F459" s="14" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -15610,13 +15611,13 @@
         <v>7</v>
       </c>
       <c r="D460" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F460" s="14" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -15630,13 +15631,13 @@
         <v>8</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F461" s="14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -15650,13 +15651,13 @@
         <v>9</v>
       </c>
       <c r="D462" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F462" s="14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -15670,13 +15671,13 @@
         <v>10</v>
       </c>
       <c r="D463" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F463" s="14" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -15690,13 +15691,13 @@
         <v>11</v>
       </c>
       <c r="D464" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F464" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -15710,13 +15711,13 @@
         <v>12</v>
       </c>
       <c r="D465" s="14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F465" s="14" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -15730,13 +15731,13 @@
         <v>13</v>
       </c>
       <c r="D466" s="14" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F466" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -15750,13 +15751,13 @@
         <v>14</v>
       </c>
       <c r="D467" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E467" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E467" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F467" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -15769,7 +15770,7 @@
         <v>161</v>
       </c>
       <c r="F468" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G468" s="1" t="s">
         <v>309</v>
@@ -15786,13 +15787,13 @@
         <v>1</v>
       </c>
       <c r="D469" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F469" s="14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -15806,13 +15807,13 @@
         <v>2</v>
       </c>
       <c r="D470" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F470" s="14" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -15826,13 +15827,13 @@
         <v>3</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F471" s="14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -15846,13 +15847,13 @@
         <v>4</v>
       </c>
       <c r="D472" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F472" s="14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -15866,13 +15867,13 @@
         <v>5</v>
       </c>
       <c r="D473" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F473" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -15886,13 +15887,13 @@
         <v>6</v>
       </c>
       <c r="D474" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F474" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -15906,13 +15907,13 @@
         <v>7</v>
       </c>
       <c r="D475" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F475" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -15926,13 +15927,13 @@
         <v>8</v>
       </c>
       <c r="D476" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F476" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -15946,13 +15947,13 @@
         <v>9</v>
       </c>
       <c r="D477" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F477" s="14" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -15966,13 +15967,13 @@
         <v>10</v>
       </c>
       <c r="D478" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F478" s="14" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -15986,13 +15987,13 @@
         <v>11</v>
       </c>
       <c r="D479" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F479" s="14" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -16006,13 +16007,13 @@
         <v>12</v>
       </c>
       <c r="D480" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F480" s="14" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -16026,13 +16027,13 @@
         <v>13</v>
       </c>
       <c r="D481" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F481" s="14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -16046,13 +16047,13 @@
         <v>14</v>
       </c>
       <c r="D482" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F482" s="14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -16066,13 +16067,13 @@
         <v>15</v>
       </c>
       <c r="D483" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F483" s="14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -16086,13 +16087,13 @@
         <v>16</v>
       </c>
       <c r="D484" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E484" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E484" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F484" s="14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -16105,7 +16106,7 @@
         <v>161</v>
       </c>
       <c r="F485" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -16119,13 +16120,13 @@
         <v>1</v>
       </c>
       <c r="D486" s="14" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F486" s="14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -16139,13 +16140,13 @@
         <v>2</v>
       </c>
       <c r="D487" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F487" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -16159,13 +16160,13 @@
         <v>3</v>
       </c>
       <c r="D488" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F488" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -16179,13 +16180,13 @@
         <v>4</v>
       </c>
       <c r="D489" s="14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F489" s="14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -16199,13 +16200,13 @@
         <v>5</v>
       </c>
       <c r="D490" s="14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F490" s="14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -16219,13 +16220,13 @@
         <v>6</v>
       </c>
       <c r="D491" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F491" s="14" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -16239,13 +16240,13 @@
         <v>7</v>
       </c>
       <c r="D492" s="14" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F492" s="14" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -16259,13 +16260,13 @@
         <v>8</v>
       </c>
       <c r="D493" s="14" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F493" s="14" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -16279,13 +16280,13 @@
         <v>9</v>
       </c>
       <c r="D494" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F494" s="14" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -16299,13 +16300,13 @@
         <v>10</v>
       </c>
       <c r="D495" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F495" s="14" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -16319,13 +16320,13 @@
         <v>11</v>
       </c>
       <c r="D496" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F496" s="14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -16339,13 +16340,13 @@
         <v>12</v>
       </c>
       <c r="D497" s="14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F497" s="14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -16359,13 +16360,13 @@
         <v>13</v>
       </c>
       <c r="D498" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F498" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -16379,13 +16380,13 @@
         <v>14</v>
       </c>
       <c r="D499" s="14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F499" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -16399,13 +16400,13 @@
         <v>15</v>
       </c>
       <c r="D500" s="14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F500" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -16419,13 +16420,13 @@
         <v>16</v>
       </c>
       <c r="D501" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F501" s="14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -16439,13 +16440,13 @@
         <v>17</v>
       </c>
       <c r="D502" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F502" s="14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -16459,13 +16460,13 @@
         <v>18</v>
       </c>
       <c r="D503" s="14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F503" s="14" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -16479,13 +16480,13 @@
         <v>19</v>
       </c>
       <c r="D504" s="14" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F504" s="14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -16499,13 +16500,13 @@
         <v>20</v>
       </c>
       <c r="D505" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E505" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E505" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F505" s="14" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -16518,10 +16519,10 @@
         <v>161</v>
       </c>
       <c r="F506" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -16535,13 +16536,13 @@
         <v>1</v>
       </c>
       <c r="D507" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F507" s="14" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -16555,13 +16556,13 @@
         <v>2</v>
       </c>
       <c r="D508" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F508" s="14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -16575,13 +16576,13 @@
         <v>3</v>
       </c>
       <c r="D509" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F509" s="14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -16595,13 +16596,13 @@
         <v>4</v>
       </c>
       <c r="D510" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F510" s="14" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -16615,13 +16616,13 @@
         <v>5</v>
       </c>
       <c r="D511" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F511" s="14" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -16635,13 +16636,13 @@
         <v>6</v>
       </c>
       <c r="D512" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F512" s="14" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -16655,13 +16656,13 @@
         <v>7</v>
       </c>
       <c r="D513" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F513" s="14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -16675,13 +16676,13 @@
         <v>8</v>
       </c>
       <c r="D514" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F514" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -16695,13 +16696,13 @@
         <v>9</v>
       </c>
       <c r="D515" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F515" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -16715,13 +16716,13 @@
         <v>10</v>
       </c>
       <c r="D516" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F516" s="14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -16735,13 +16736,13 @@
         <v>11</v>
       </c>
       <c r="D517" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F517" s="14" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -16755,13 +16756,13 @@
         <v>12</v>
       </c>
       <c r="D518" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F518" s="14" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -16775,13 +16776,13 @@
         <v>13</v>
       </c>
       <c r="D519" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F519" s="14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -16795,13 +16796,13 @@
         <v>14</v>
       </c>
       <c r="D520" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E520" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E520" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F520" s="14" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -16814,7 +16815,7 @@
         <v>161</v>
       </c>
       <c r="F521" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -16828,13 +16829,13 @@
         <v>1</v>
       </c>
       <c r="D522" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F522" s="14" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -16848,13 +16849,13 @@
         <v>2</v>
       </c>
       <c r="D523" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E523" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F523" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -16868,13 +16869,13 @@
         <v>3</v>
       </c>
       <c r="D524" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E524" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F524" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -16888,13 +16889,13 @@
         <v>4</v>
       </c>
       <c r="D525" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E525" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F525" s="14" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -16908,13 +16909,13 @@
         <v>5</v>
       </c>
       <c r="D526" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F526" s="14" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -16928,13 +16929,13 @@
         <v>6</v>
       </c>
       <c r="D527" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F527" s="14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -16948,13 +16949,13 @@
         <v>7</v>
       </c>
       <c r="D528" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E528" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E528" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F528" s="14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -16968,13 +16969,13 @@
         <v>8</v>
       </c>
       <c r="D529" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E529" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F529" s="14" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -16988,13 +16989,13 @@
         <v>9</v>
       </c>
       <c r="D530" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E530" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F530" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -17008,13 +17009,13 @@
         <v>10</v>
       </c>
       <c r="D531" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E531" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F531" s="14" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -17028,13 +17029,13 @@
         <v>11</v>
       </c>
       <c r="D532" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E532" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F532" s="14" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -17048,13 +17049,13 @@
         <v>12</v>
       </c>
       <c r="D533" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F533" s="14" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -17068,13 +17069,13 @@
         <v>13</v>
       </c>
       <c r="D534" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F534" s="14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -17088,13 +17089,13 @@
         <v>14</v>
       </c>
       <c r="D535" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F535" s="14" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -17107,10 +17108,10 @@
         <v>161</v>
       </c>
       <c r="F536" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -17124,13 +17125,13 @@
         <v>1</v>
       </c>
       <c r="D537" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E537" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E537" s="1" t="s">
-        <v>829</v>
-      </c>
       <c r="F537" s="14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -17144,13 +17145,13 @@
         <v>2</v>
       </c>
       <c r="D538" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E538" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="E538" s="43" t="s">
-        <v>376</v>
-      </c>
       <c r="F538" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -17164,13 +17165,13 @@
         <v>3</v>
       </c>
       <c r="D539" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E539" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E539" s="1" t="s">
-        <v>829</v>
-      </c>
       <c r="F539" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -17184,13 +17185,13 @@
         <v>4</v>
       </c>
       <c r="D540" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E540" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E540" s="1" t="s">
-        <v>829</v>
-      </c>
       <c r="F540" s="14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -17204,16 +17205,16 @@
         <v>5</v>
       </c>
       <c r="D541" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F541" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G541" s="24" t="s">
         <v>908</v>
-      </c>
-      <c r="E541" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F541" s="14" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G541" s="24" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -17227,13 +17228,13 @@
         <v>6</v>
       </c>
       <c r="D542" s="14" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E542" s="43" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F542" s="14" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -17247,13 +17248,13 @@
         <v>7</v>
       </c>
       <c r="D543" s="14" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E543" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F543" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -17267,13 +17268,13 @@
         <v>8</v>
       </c>
       <c r="D544" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E544" s="43" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F544" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -17287,13 +17288,13 @@
         <v>9</v>
       </c>
       <c r="D545" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E545" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="E545" s="43" t="s">
-        <v>376</v>
-      </c>
       <c r="F545" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -17307,13 +17308,13 @@
         <v>10</v>
       </c>
       <c r="D546" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E546" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E546" s="1" t="s">
-        <v>829</v>
-      </c>
       <c r="F546" s="14" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -17327,13 +17328,13 @@
         <v>11</v>
       </c>
       <c r="D547" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E547" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E547" s="1" t="s">
-        <v>829</v>
-      </c>
       <c r="F547" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -17347,13 +17348,13 @@
         <v>12</v>
       </c>
       <c r="D548" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E548" s="43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F548" s="14" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -17367,13 +17368,13 @@
         <v>13</v>
       </c>
       <c r="D549" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E549" s="43" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F549" s="14" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -17387,13 +17388,13 @@
         <v>14</v>
       </c>
       <c r="D550" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E550" s="43" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F550" s="14" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -17407,13 +17408,13 @@
         <v>15</v>
       </c>
       <c r="D551" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E551" s="43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F551" s="14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -17427,13 +17428,13 @@
         <v>16</v>
       </c>
       <c r="D552" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="E552" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E552" s="1" t="s">
-        <v>829</v>
-      </c>
       <c r="F552" s="14" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -17460,7 +17461,7 @@
         <v>161</v>
       </c>
       <c r="F554" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -17473,7 +17474,7 @@
         <v>161</v>
       </c>
       <c r="F555" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="556" spans="1:7" ht="72">
@@ -17486,7 +17487,7 @@
         <v>161</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -25449,7 +25450,7 @@
         <v>242</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -25460,7 +25461,7 @@
         <v>242</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -25471,7 +25472,7 @@
         <v>242</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -25482,7 +25483,7 @@
         <v>242</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -25493,7 +25494,7 @@
         <v>242</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -25504,7 +25505,7 @@
         <v>242</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -25515,7 +25516,7 @@
         <v>242</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -25526,7 +25527,7 @@
         <v>164</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -25537,7 +25538,7 @@
         <v>164</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -25548,7 +25549,7 @@
         <v>165</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -25559,7 +25560,7 @@
         <v>165</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -25570,7 +25571,7 @@
         <v>166</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -25581,7 +25582,7 @@
         <v>167</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -25592,7 +25593,7 @@
         <v>168</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -25603,7 +25604,7 @@
         <v>169</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -25614,7 +25615,7 @@
         <v>170</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -25625,7 +25626,7 @@
         <v>171</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -25636,7 +25637,7 @@
         <v>172</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -25647,7 +25648,7 @@
         <v>173</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -25658,7 +25659,7 @@
         <v>174</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -25666,10 +25667,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -25680,7 +25681,7 @@
         <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -25691,7 +25692,7 @@
         <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -25702,7 +25703,7 @@
         <v>170</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -25713,7 +25714,7 @@
         <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -25724,7 +25725,7 @@
         <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -25735,7 +25736,7 @@
         <v>173</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -25746,7 +25747,7 @@
         <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -25757,7 +25758,7 @@
         <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -25768,7 +25769,7 @@
         <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -26001,7 +26002,7 @@
         <v>181</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -26012,18 +26013,18 @@
         <v>183</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" t="s">
         <v>372</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -26348,7 +26349,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
         <v>291</v>
@@ -26362,13 +26363,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
         <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D12" s="42"/>
     </row>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29053B54-CD07-49BD-9EE5-53066707D3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6BE6B-D076-4FAC-B618-CD93AF231D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -6659,10 +6659,10 @@
   <dimension ref="A1:I1884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5787F61C-166D-428C-A3F0-2E593D2F460A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C923A-8306-431F-93E1-ADAC6376782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7076" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="1819">
   <si>
     <t>Name</t>
   </si>
@@ -3630,9 +3630,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025-December-8</t>
-  </si>
-  <si>
     <t>Commodore 64/250466/Scope baseline/Images/U1_1_NTSC.png</t>
   </si>
   <si>
@@ -5211,9 +5208,6 @@
     <t>R31</t>
   </si>
   <si>
-    <t>180Ω</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -5232,9 +5226,6 @@
     <t>R42</t>
   </si>
   <si>
-    <t>82Ω</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
@@ -5244,9 +5235,6 @@
     <t>R51</t>
   </si>
   <si>
-    <t>1.5KΩ</t>
-  </si>
-  <si>
     <t>RP4</t>
   </si>
   <si>
@@ -5274,9 +5262,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>100KΩ</t>
-  </si>
-  <si>
     <t>R38</t>
   </si>
   <si>
@@ -5298,9 +5283,6 @@
     <t>R7</t>
   </si>
   <si>
-    <t>10KΩ</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
@@ -5316,33 +5298,18 @@
     <t>R41</t>
   </si>
   <si>
-    <t>1MΩ</t>
-  </si>
-  <si>
     <t>R35</t>
   </si>
   <si>
-    <t>470KΩ</t>
-  </si>
-  <si>
     <t>R33</t>
   </si>
   <si>
-    <t>47KΩ</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
-    <t>560Ω</t>
-  </si>
-  <si>
     <t>R37</t>
   </si>
   <si>
-    <t>2.7KΩ</t>
-  </si>
-  <si>
     <t>R100</t>
   </si>
   <si>
@@ -5397,9 +5364,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>470Ω</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -5409,21 +5373,12 @@
     <t>CR2</t>
   </si>
   <si>
-    <t>IN754A</t>
-  </si>
-  <si>
-    <t>6.8V Zener</t>
-  </si>
-  <si>
     <t>900927-02</t>
   </si>
   <si>
     <t>R60</t>
   </si>
   <si>
-    <t>100Ω</t>
-  </si>
-  <si>
     <t>CR5</t>
   </si>
   <si>
@@ -5442,9 +5397,6 @@
     <t>R39</t>
   </si>
   <si>
-    <t>390Ω</t>
-  </si>
-  <si>
     <t>L5</t>
   </si>
   <si>
@@ -5485,12 +5437,6 @@
   </si>
   <si>
     <t>CR1</t>
-  </si>
-  <si>
-    <t>IN4371</t>
-  </si>
-  <si>
-    <t>2.7V Zener</t>
   </si>
   <si>
     <t>906103-02</t>
@@ -5558,6 +5504,81 @@
     <t>Resistors are non-polarized, so they have no + (plus) or – (minus) terminal and can be mounted in either direction</t>
   </si>
   <si>
+    <t>Commodore shared files/Component images/C64-Power-LED.png</t>
+  </si>
+  <si>
+    <t>It does not matter how you connect the power LED, as long as all 3 pins are connected.</t>
+  </si>
+  <si>
+    <t>3.3KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>470Ω 1/2W 5%</t>
+  </si>
+  <si>
+    <t>100KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>1KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>560Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>10KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>180Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>47KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>470KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>2.7KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>390Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>1MΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>82Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>1.5KΩ 1/4W 5%</t>
+  </si>
+  <si>
+    <t>100Ω 1/4W 5%</t>
+  </si>
+  <si>
+    <t>Zener</t>
+  </si>
+  <si>
+    <t>IN4371 2.7V</t>
+  </si>
+  <si>
+    <t>IN754A 6.8V</t>
+  </si>
+  <si>
+    <t>NPN Power</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>Jumper for G.PAL or I.PAL</t>
+  </si>
+  <si>
+    <t>PAL/NTSC</t>
+  </si>
+  <si>
+    <t>2025-December-20</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5570,14 +5591,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-15</t>
+      <t>2025-December-18</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/C64-Power-LED.png</t>
-  </si>
-  <si>
-    <t>It does not matter how you connect the power LED, as long as all 3 pins are connected.</t>
   </si>
 </sst>
 </file>
@@ -6187,7 +6202,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -6214,7 +6229,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1811</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6471,7 +6486,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1174</v>
+        <v>1817</v>
       </c>
     </row>
   </sheetData>
@@ -6484,9 +6499,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7681,165 +7696,165 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="47" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1794</v>
+        <v>1810</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1793</v>
+        <v>1811</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>1795</v>
+        <v>1777</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="47" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1768</v>
+        <v>1810</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1767</v>
+        <v>1812</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>1769</v>
+        <v>1755</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="47" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1775</v>
+        <v>1760</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="47" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="47" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="47" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="47" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="47" t="s">
-        <v>1759</v>
+        <v>1748</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="47" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="47" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="47" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -8285,34 +8300,40 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="47" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="D110" s="41"/>
       <c r="E110" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="G110" s="1" t="s">
+        <v>1815</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="47" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="D111" s="41"/>
       <c r="E111" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="G111" s="1" t="s">
+        <v>1816</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="47" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="D112" s="41"/>
       <c r="E112" s="1" t="s">
@@ -8338,16 +8359,16 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="47" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="D114" s="41" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>86</v>
@@ -8355,13 +8376,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="47" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>86</v>
@@ -8369,16 +8390,16 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="47" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="D116" s="41" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>86</v>
@@ -8488,392 +8509,404 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="47" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1714</v>
+        <v>1795</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="47" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1763</v>
+        <v>1796</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="47" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1722</v>
+        <v>1797</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="47" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1724</v>
+        <v>1798</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="47" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1742</v>
+        <v>1799</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="47" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1724</v>
+        <v>1798</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="47" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1730</v>
+        <v>1800</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="47" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1714</v>
+        <v>1795</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="47" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>1700</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="47" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1740</v>
+        <v>1802</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="47" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1740</v>
+        <v>1802</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="47" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1738</v>
+        <v>1803</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="47" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1744</v>
+        <v>1804</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="47" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1724</v>
+        <v>1798</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="47" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1778</v>
+        <v>1805</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="47" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1736</v>
+        <v>1806</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="47" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1708</v>
+        <v>1807</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="47" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1714</v>
+        <v>1795</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="47" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1714</v>
+        <v>1795</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="47" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1714</v>
+        <v>1795</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="47" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1736</v>
+        <v>1806</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="47" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1712</v>
+        <v>1808</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="47" t="s">
-        <v>1770</v>
+        <v>1756</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="47" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1724</v>
+        <v>1798</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="47" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>1703</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="47" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="47" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="47" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="47" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1796</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="47" t="s">
-        <v>1789</v>
+        <v>1773</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1813</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1790</v>
+        <v>1774</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="47" t="s">
-        <v>1725</v>
+        <v>1720</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1814</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="D153" s="41" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="47" t="s">
-        <v>1785</v>
+        <v>1769</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1814</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="D154" s="41" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="47" t="s">
-        <v>1765</v>
+        <v>1753</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1814</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="D155" s="41" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9311,10 +9344,10 @@
   <dimension ref="A1:I2451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72:XFD72"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9416,12 +9449,14 @@
         <v>120</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="41"/>
+      <c r="D9" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8">
@@ -9429,12 +9464,14 @@
         <v>111</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8">
@@ -9442,12 +9479,14 @@
         <v>108</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="41"/>
+      <c r="D11" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8">
@@ -9455,12 +9494,14 @@
         <v>40</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="41"/>
+      <c r="D12" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8">
@@ -9468,12 +9509,14 @@
         <v>41</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="41"/>
+      <c r="D13" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8">
@@ -9481,12 +9524,14 @@
         <v>48</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8">
@@ -9494,12 +9539,14 @@
         <v>63</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="41"/>
+      <c r="D15" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8">
@@ -9507,12 +9554,14 @@
         <v>115</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8">
@@ -9520,12 +9569,14 @@
         <v>66</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="41"/>
+      <c r="D17" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8">
@@ -9533,12 +9584,14 @@
         <v>67</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="41"/>
+      <c r="D18" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8">
@@ -9546,12 +9599,14 @@
         <v>72</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="72">
@@ -9559,12 +9614,14 @@
         <v>73</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>1801</v>
+        <v>1783</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>1802</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72">
@@ -9572,12 +9629,14 @@
         <v>59</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>1807</v>
+        <v>1789</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>1808</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="72">
@@ -9585,12 +9644,14 @@
         <v>131</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>1803</v>
+        <v>1785</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>1804</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8">
@@ -9598,12 +9659,14 @@
         <v>141</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="41"/>
+      <c r="D23" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>1805</v>
+        <v>1787</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>1806</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.8">
@@ -9611,12 +9674,14 @@
         <v>105</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="41"/>
+      <c r="D24" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8">
@@ -9624,12 +9689,14 @@
         <v>102</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="72">
@@ -9637,12 +9704,14 @@
         <v>134</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="41"/>
+      <c r="D26" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>1801</v>
+        <v>1783</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>1802</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8">
@@ -9650,12 +9719,14 @@
         <v>29</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="41"/>
+      <c r="D27" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.8">
@@ -9663,12 +9734,14 @@
         <v>28</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="41"/>
+      <c r="D28" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.8">
@@ -9676,12 +9749,14 @@
         <v>27</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.8">
@@ -9689,12 +9764,14 @@
         <v>55</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="41"/>
+      <c r="D30" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28.8">
@@ -9702,12 +9779,14 @@
         <v>47</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.8">
@@ -9715,12 +9794,14 @@
         <v>85</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="41"/>
+      <c r="D32" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.8">
@@ -9728,12 +9809,14 @@
         <v>136</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="41"/>
+      <c r="D33" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8">
@@ -9741,12 +9824,14 @@
         <v>75</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="41"/>
+      <c r="D34" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="72">
@@ -9754,12 +9839,14 @@
         <v>104</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="41"/>
+      <c r="D35" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1800</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8">
@@ -9767,12 +9854,14 @@
         <v>144</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="41"/>
+      <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8">
@@ -9780,12 +9869,14 @@
         <v>32</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="41"/>
+      <c r="D37" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.8">
@@ -9793,12 +9884,14 @@
         <v>232</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="41"/>
+      <c r="D38" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.8">
@@ -9806,12 +9899,14 @@
         <v>106</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="41"/>
+      <c r="D39" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.8">
@@ -9819,12 +9914,14 @@
         <v>65</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="41"/>
+      <c r="D40" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.8">
@@ -9832,12 +9929,14 @@
         <v>77</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="41"/>
+      <c r="D41" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8">
@@ -9845,12 +9944,14 @@
         <v>78</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="41"/>
+      <c r="D42" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28.8">
@@ -9858,12 +9959,14 @@
         <v>58</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="41"/>
+      <c r="D43" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F43" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="28.8">
@@ -9871,12 +9974,14 @@
         <v>71</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="41"/>
+      <c r="D44" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F44" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28.8">
@@ -9884,12 +9989,14 @@
         <v>128</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="41"/>
+      <c r="D45" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="72">
@@ -9897,12 +10004,14 @@
         <v>124</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="41"/>
+      <c r="D46" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F46" s="1" t="s">
-        <v>1803</v>
+        <v>1785</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>1804</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.8">
@@ -9910,12 +10019,14 @@
         <v>123</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="41"/>
+      <c r="D47" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="72">
@@ -9923,12 +10034,14 @@
         <v>126</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="41"/>
+      <c r="D48" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>1803</v>
+        <v>1785</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>1804</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="72">
@@ -9936,12 +10049,14 @@
         <v>137</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="41"/>
+      <c r="D49" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F49" s="1" t="s">
-        <v>1801</v>
+        <v>1783</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>1802</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.8">
@@ -9949,12 +10064,14 @@
         <v>64</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="41"/>
+      <c r="D50" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="28.8">
@@ -9962,12 +10079,14 @@
         <v>130</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="41"/>
+      <c r="D51" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="28.8">
@@ -9975,12 +10094,14 @@
         <v>79</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="41"/>
+      <c r="D52" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="28.8">
@@ -9988,12 +10109,14 @@
         <v>109</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="41"/>
+      <c r="D53" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F53" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.8">
@@ -10001,12 +10124,14 @@
         <v>119</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="41"/>
+      <c r="D54" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F54" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G54" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.8">
@@ -10014,12 +10139,14 @@
         <v>118</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="41"/>
+      <c r="D55" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.8">
@@ -10027,12 +10154,14 @@
         <v>114</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="41"/>
+      <c r="D56" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G56" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="28.8">
@@ -10040,12 +10169,14 @@
         <v>52</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="41"/>
+      <c r="D57" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F57" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.8">
@@ -10053,12 +10184,14 @@
         <v>196</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="41"/>
+      <c r="D58" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="72">
@@ -10066,12 +10199,14 @@
         <v>210</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="41"/>
+      <c r="D59" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F59" s="1" t="s">
-        <v>1801</v>
+        <v>1783</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>1802</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.8">
@@ -10079,12 +10214,14 @@
         <v>36</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="41"/>
+      <c r="D60" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F60" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.8">
@@ -10092,12 +10229,14 @@
         <v>74</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="41"/>
+      <c r="D61" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="72">
@@ -10105,12 +10244,14 @@
         <v>133</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="41"/>
+      <c r="D62" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F62" s="1" t="s">
-        <v>1801</v>
+        <v>1783</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>1802</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.8">
@@ -10118,12 +10259,14 @@
         <v>129</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="41"/>
+      <c r="D63" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="F63" s="1" t="s">
-        <v>1798</v>
+        <v>1780</v>
       </c>
       <c r="G63" s="41" t="s">
-        <v>1799</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -10240,10 +10383,10 @@
         <v>161</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>1812</v>
+        <v>1793</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1813</v>
+        <v>1794</v>
       </c>
       <c r="I72" s="14"/>
     </row>
@@ -10300,7 +10443,7 @@
         <v>370</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -10340,7 +10483,7 @@
         <v>372</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -10380,7 +10523,7 @@
         <v>372</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -10420,7 +10563,7 @@
         <v>372</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -10460,7 +10603,7 @@
         <v>372</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -10500,7 +10643,7 @@
         <v>372</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -10540,7 +10683,7 @@
         <v>372</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -10580,7 +10723,7 @@
         <v>372</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -10620,7 +10763,7 @@
         <v>380</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -10660,7 +10803,7 @@
         <v>382</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -10700,7 +10843,7 @@
         <v>382</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10740,7 +10883,7 @@
         <v>382</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10780,7 +10923,7 @@
         <v>382</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10820,7 +10963,7 @@
         <v>382</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10860,7 +11003,7 @@
         <v>382</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10900,7 +11043,7 @@
         <v>382</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10940,7 +11083,7 @@
         <v>382</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -10980,7 +11123,7 @@
         <v>372</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -11020,7 +11163,7 @@
         <v>372</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -11060,7 +11203,7 @@
         <v>393</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -11100,7 +11243,7 @@
         <v>372</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -11140,7 +11283,7 @@
         <v>372</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -11180,7 +11323,7 @@
         <v>372</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -11220,7 +11363,7 @@
         <v>382</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -11257,10 +11400,10 @@
         <v>398</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -11300,7 +11443,7 @@
         <v>372</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -11340,7 +11483,7 @@
         <v>372</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -11380,7 +11523,7 @@
         <v>372</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -11420,7 +11563,7 @@
         <v>372</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -11460,7 +11603,7 @@
         <v>372</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -11500,7 +11643,7 @@
         <v>372</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -11540,7 +11683,7 @@
         <v>372</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -11580,7 +11723,7 @@
         <v>372</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -11620,7 +11763,7 @@
         <v>382</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -11660,7 +11803,7 @@
         <v>372</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -11700,7 +11843,7 @@
         <v>372</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -11740,7 +11883,7 @@
         <v>372</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -11780,7 +11923,7 @@
         <v>372</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -11820,7 +11963,7 @@
         <v>382</v>
       </c>
       <c r="F151" s="14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -11860,7 +12003,7 @@
         <v>382</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="360">
@@ -11876,7 +12019,7 @@
         <v>326</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1797</v>
+        <v>1779</v>
       </c>
       <c r="I154" s="14"/>
     </row>
@@ -11917,7 +12060,7 @@
         <v>370</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -11957,7 +12100,7 @@
         <v>382</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -11997,7 +12140,7 @@
         <v>382</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -12037,7 +12180,7 @@
         <v>382</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -12077,7 +12220,7 @@
         <v>380</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -12117,7 +12260,7 @@
         <v>382</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -12157,7 +12300,7 @@
         <v>380</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -12197,7 +12340,7 @@
         <v>380</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -12237,7 +12380,7 @@
         <v>382</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -12277,7 +12420,7 @@
         <v>382</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -12317,7 +12460,7 @@
         <v>382</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -12357,7 +12500,7 @@
         <v>382</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -12397,7 +12540,7 @@
         <v>382</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -12437,7 +12580,7 @@
         <v>382</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -12477,7 +12620,7 @@
         <v>382</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -12517,7 +12660,7 @@
         <v>382</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -12557,7 +12700,7 @@
         <v>382</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -12597,7 +12740,7 @@
         <v>382</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -12637,7 +12780,7 @@
         <v>372</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -12677,7 +12820,7 @@
         <v>393</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -12717,7 +12860,7 @@
         <v>382</v>
       </c>
       <c r="F196" s="14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -12757,7 +12900,7 @@
         <v>372</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -12797,7 +12940,7 @@
         <v>382</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -12837,7 +12980,7 @@
         <v>382</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -12874,10 +13017,10 @@
         <v>398</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -12917,7 +13060,7 @@
         <v>372</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -12957,7 +13100,7 @@
         <v>372</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -12997,7 +13140,7 @@
         <v>372</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -13037,7 +13180,7 @@
         <v>372</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -13077,7 +13220,7 @@
         <v>372</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -13117,7 +13260,7 @@
         <v>372</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -13157,7 +13300,7 @@
         <v>372</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -13197,7 +13340,7 @@
         <v>372</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -13237,7 +13380,7 @@
         <v>382</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -13277,7 +13420,7 @@
         <v>372</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -13317,7 +13460,7 @@
         <v>372</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -13357,7 +13500,7 @@
         <v>372</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -13397,7 +13540,7 @@
         <v>372</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -13437,7 +13580,7 @@
         <v>382</v>
       </c>
       <c r="F232" s="14" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -13477,7 +13620,7 @@
         <v>382</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="28.8">
@@ -13533,7 +13676,7 @@
         <v>372</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -13573,7 +13716,7 @@
         <v>372</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -13613,7 +13756,7 @@
         <v>372</v>
       </c>
       <c r="F241" s="14" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -13653,7 +13796,7 @@
         <v>372</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -13693,7 +13836,7 @@
         <v>372</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -13733,7 +13876,7 @@
         <v>372</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -13773,7 +13916,7 @@
         <v>372</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -13813,7 +13956,7 @@
         <v>372</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -13853,7 +13996,7 @@
         <v>372</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -13893,7 +14036,7 @@
         <v>372</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -13933,7 +14076,7 @@
         <v>372</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -13973,7 +14116,7 @@
         <v>370</v>
       </c>
       <c r="F259" s="14" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -14013,7 +14156,7 @@
         <v>372</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -14053,7 +14196,7 @@
         <v>372</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -14093,7 +14236,7 @@
         <v>372</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -14133,7 +14276,7 @@
         <v>372</v>
       </c>
       <c r="F267" s="14" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -14173,7 +14316,7 @@
         <v>372</v>
       </c>
       <c r="F269" s="14" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -14213,7 +14356,7 @@
         <v>372</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -14253,7 +14396,7 @@
         <v>372</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -14293,7 +14436,7 @@
         <v>382</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -14333,7 +14476,7 @@
         <v>372</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -14373,7 +14516,7 @@
         <v>372</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -14413,7 +14556,7 @@
         <v>372</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -14450,10 +14593,10 @@
         <v>392</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="28.8">
@@ -14509,7 +14652,7 @@
         <v>372</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -14549,7 +14692,7 @@
         <v>372</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -14589,7 +14732,7 @@
         <v>372</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -14629,7 +14772,7 @@
         <v>372</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -14669,7 +14812,7 @@
         <v>372</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -14709,7 +14852,7 @@
         <v>372</v>
       </c>
       <c r="F296" s="14" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -14749,7 +14892,7 @@
         <v>372</v>
       </c>
       <c r="F298" s="14" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -14789,7 +14932,7 @@
         <v>372</v>
       </c>
       <c r="F300" s="14" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -14829,7 +14972,7 @@
         <v>372</v>
       </c>
       <c r="F302" s="14" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -14869,7 +15012,7 @@
         <v>372</v>
       </c>
       <c r="F304" s="14" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -14909,7 +15052,7 @@
         <v>372</v>
       </c>
       <c r="F306" s="14" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -14949,7 +15092,7 @@
         <v>370</v>
       </c>
       <c r="F308" s="14" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -14989,7 +15132,7 @@
         <v>372</v>
       </c>
       <c r="F310" s="14" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -15029,7 +15172,7 @@
         <v>372</v>
       </c>
       <c r="F312" s="14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -15069,7 +15212,7 @@
         <v>372</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -15109,7 +15252,7 @@
         <v>372</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -15149,7 +15292,7 @@
         <v>372</v>
       </c>
       <c r="F318" s="14" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -15189,7 +15332,7 @@
         <v>372</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -15229,7 +15372,7 @@
         <v>372</v>
       </c>
       <c r="F322" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -15269,7 +15412,7 @@
         <v>372</v>
       </c>
       <c r="F324" s="14" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -15309,7 +15452,7 @@
         <v>372</v>
       </c>
       <c r="F326" s="14" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -15349,7 +15492,7 @@
         <v>372</v>
       </c>
       <c r="F328" s="14" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -15389,7 +15532,7 @@
         <v>372</v>
       </c>
       <c r="F330" s="14" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -15426,10 +15569,10 @@
         <v>392</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F332" s="14" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="72">
@@ -15485,7 +15628,7 @@
         <v>372</v>
       </c>
       <c r="F335" s="14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -15525,7 +15668,7 @@
         <v>372</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -15565,7 +15708,7 @@
         <v>372</v>
       </c>
       <c r="F339" s="14" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -15605,7 +15748,7 @@
         <v>372</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -15645,7 +15788,7 @@
         <v>372</v>
       </c>
       <c r="F343" s="14" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -15685,7 +15828,7 @@
         <v>372</v>
       </c>
       <c r="F345" s="14" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -15725,7 +15868,7 @@
         <v>372</v>
       </c>
       <c r="F347" s="14" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -15765,7 +15908,7 @@
         <v>372</v>
       </c>
       <c r="F349" s="14" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -15805,7 +15948,7 @@
         <v>372</v>
       </c>
       <c r="F351" s="14" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -15845,7 +15988,7 @@
         <v>372</v>
       </c>
       <c r="F353" s="14" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -15885,7 +16028,7 @@
         <v>372</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -15925,7 +16068,7 @@
         <v>370</v>
       </c>
       <c r="F357" s="14" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -15965,7 +16108,7 @@
         <v>372</v>
       </c>
       <c r="F359" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -16005,7 +16148,7 @@
         <v>372</v>
       </c>
       <c r="F361" s="14" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -16045,7 +16188,7 @@
         <v>372</v>
       </c>
       <c r="F363" s="14" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -16085,7 +16228,7 @@
         <v>372</v>
       </c>
       <c r="F365" s="14" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -16125,7 +16268,7 @@
         <v>372</v>
       </c>
       <c r="F367" s="14" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -16165,7 +16308,7 @@
         <v>372</v>
       </c>
       <c r="F369" s="14" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -16205,7 +16348,7 @@
         <v>372</v>
       </c>
       <c r="F371" s="14" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -16245,7 +16388,7 @@
         <v>372</v>
       </c>
       <c r="F373" s="14" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -16285,7 +16428,7 @@
         <v>382</v>
       </c>
       <c r="F375" s="14" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -16325,7 +16468,7 @@
         <v>372</v>
       </c>
       <c r="F377" s="14" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -16365,7 +16508,7 @@
         <v>372</v>
       </c>
       <c r="F379" s="14" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -16405,7 +16548,7 @@
         <v>393</v>
       </c>
       <c r="F381" s="14" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="57.6">
@@ -16461,7 +16604,7 @@
         <v>372</v>
       </c>
       <c r="F384" s="14" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -16501,7 +16644,7 @@
         <v>372</v>
       </c>
       <c r="F386" s="14" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -16541,7 +16684,7 @@
         <v>372</v>
       </c>
       <c r="F388" s="14" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -16581,7 +16724,7 @@
         <v>372</v>
       </c>
       <c r="F390" s="14" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -16621,7 +16764,7 @@
         <v>372</v>
       </c>
       <c r="F392" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -16661,7 +16804,7 @@
         <v>372</v>
       </c>
       <c r="F394" s="14" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -16701,7 +16844,7 @@
         <v>372</v>
       </c>
       <c r="F396" s="14" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -16741,7 +16884,7 @@
         <v>372</v>
       </c>
       <c r="F398" s="14" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -16781,7 +16924,7 @@
         <v>370</v>
       </c>
       <c r="F400" s="14" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -16821,7 +16964,7 @@
         <v>372</v>
       </c>
       <c r="F402" s="14" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -16861,7 +17004,7 @@
         <v>372</v>
       </c>
       <c r="F404" s="14" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -16901,7 +17044,7 @@
         <v>372</v>
       </c>
       <c r="F406" s="14" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -16941,7 +17084,7 @@
         <v>372</v>
       </c>
       <c r="F408" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -16981,7 +17124,7 @@
         <v>372</v>
       </c>
       <c r="F410" s="14" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -17021,7 +17164,7 @@
         <v>372</v>
       </c>
       <c r="F412" s="14" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -17061,7 +17204,7 @@
         <v>372</v>
       </c>
       <c r="F414" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -17101,7 +17244,7 @@
         <v>372</v>
       </c>
       <c r="F416" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -17138,10 +17281,10 @@
         <v>392</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F418" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -17197,10 +17340,10 @@
         <v>559</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F421" s="14" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G421" s="1" t="s">
         <v>560</v>
@@ -17243,7 +17386,7 @@
         <v>372</v>
       </c>
       <c r="F423" s="14" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -17283,7 +17426,7 @@
         <v>372</v>
       </c>
       <c r="F425" s="14" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -17323,7 +17466,7 @@
         <v>382</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -17363,7 +17506,7 @@
         <v>372</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -17400,10 +17543,10 @@
         <v>392</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F431" s="14" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -17443,7 +17586,7 @@
         <v>372</v>
       </c>
       <c r="F433" s="14" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -17483,7 +17626,7 @@
         <v>372</v>
       </c>
       <c r="F435" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -17523,7 +17666,7 @@
         <v>372</v>
       </c>
       <c r="F437" s="14" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -17563,7 +17706,7 @@
         <v>372</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -17603,7 +17746,7 @@
         <v>372</v>
       </c>
       <c r="F441" s="14" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -17643,7 +17786,7 @@
         <v>372</v>
       </c>
       <c r="F443" s="14" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -17683,7 +17826,7 @@
         <v>372</v>
       </c>
       <c r="F445" s="14" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -17723,7 +17866,7 @@
         <v>372</v>
       </c>
       <c r="F447" s="14" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -17763,7 +17906,7 @@
         <v>372</v>
       </c>
       <c r="F449" s="14" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -17803,7 +17946,7 @@
         <v>372</v>
       </c>
       <c r="F451" s="14" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -17843,7 +17986,7 @@
         <v>372</v>
       </c>
       <c r="F453" s="14" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -17883,7 +18026,7 @@
         <v>372</v>
       </c>
       <c r="F455" s="14" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -17923,7 +18066,7 @@
         <v>372</v>
       </c>
       <c r="F457" s="14" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -17963,7 +18106,7 @@
         <v>372</v>
       </c>
       <c r="F459" s="14" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -18003,7 +18146,7 @@
         <v>370</v>
       </c>
       <c r="F461" s="14" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -18043,7 +18186,7 @@
         <v>372</v>
       </c>
       <c r="F463" s="14" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -18083,7 +18226,7 @@
         <v>372</v>
       </c>
       <c r="F465" s="14" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -18123,7 +18266,7 @@
         <v>382</v>
       </c>
       <c r="F467" s="14" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -18163,7 +18306,7 @@
         <v>382</v>
       </c>
       <c r="F469" s="14" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -18203,7 +18346,7 @@
         <v>380</v>
       </c>
       <c r="F471" s="14" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -18243,7 +18386,7 @@
         <v>382</v>
       </c>
       <c r="F473" s="14" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -18283,7 +18426,7 @@
         <v>382</v>
       </c>
       <c r="F475" s="14" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -18323,7 +18466,7 @@
         <v>382</v>
       </c>
       <c r="F477" s="14" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -18363,7 +18506,7 @@
         <v>372</v>
       </c>
       <c r="F479" s="14" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -18403,7 +18546,7 @@
         <v>372</v>
       </c>
       <c r="F481" s="14" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -18443,7 +18586,7 @@
         <v>372</v>
       </c>
       <c r="F483" s="14" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -18483,7 +18626,7 @@
         <v>372</v>
       </c>
       <c r="F485" s="14" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -18523,7 +18666,7 @@
         <v>372</v>
       </c>
       <c r="F487" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -18563,7 +18706,7 @@
         <v>372</v>
       </c>
       <c r="F489" s="14" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -18603,7 +18746,7 @@
         <v>372</v>
       </c>
       <c r="F491" s="14" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -18643,7 +18786,7 @@
         <v>372</v>
       </c>
       <c r="F493" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -18683,7 +18826,7 @@
         <v>372</v>
       </c>
       <c r="F495" s="14" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -18723,10 +18866,10 @@
         <v>398</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F497" s="14" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G497" s="1" t="s">
         <v>573</v>
@@ -18769,7 +18912,7 @@
         <v>382</v>
       </c>
       <c r="F499" s="14" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -18825,7 +18968,7 @@
         <v>380</v>
       </c>
       <c r="F502" s="14" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -18865,7 +19008,7 @@
         <v>382</v>
       </c>
       <c r="F504" s="14" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -18905,7 +19048,7 @@
         <v>372</v>
       </c>
       <c r="F506" s="14" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -18945,7 +19088,7 @@
         <v>372</v>
       </c>
       <c r="F508" s="14" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -18985,7 +19128,7 @@
         <v>380</v>
       </c>
       <c r="F510" s="14" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -19025,7 +19168,7 @@
         <v>382</v>
       </c>
       <c r="F512" s="14" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -19065,7 +19208,7 @@
         <v>370</v>
       </c>
       <c r="F514" s="14" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -19105,7 +19248,7 @@
         <v>382</v>
       </c>
       <c r="F516" s="14" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -19145,7 +19288,7 @@
         <v>380</v>
       </c>
       <c r="F518" s="14" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -19185,7 +19328,7 @@
         <v>380</v>
       </c>
       <c r="F520" s="14" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -19225,7 +19368,7 @@
         <v>382</v>
       </c>
       <c r="F522" s="14" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -19265,7 +19408,7 @@
         <v>382</v>
       </c>
       <c r="F524" s="14" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -19305,7 +19448,7 @@
         <v>380</v>
       </c>
       <c r="F526" s="14" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -19345,7 +19488,7 @@
         <v>393</v>
       </c>
       <c r="F528" s="14" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="529" spans="1:7" ht="43.2">
@@ -19401,7 +19544,7 @@
         <v>380</v>
       </c>
       <c r="F531" s="14" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -19441,7 +19584,7 @@
         <v>372</v>
       </c>
       <c r="F533" s="14" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -19481,7 +19624,7 @@
         <v>372</v>
       </c>
       <c r="F535" s="14" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -19521,7 +19664,7 @@
         <v>372</v>
       </c>
       <c r="F537" s="14" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -19561,7 +19704,7 @@
         <v>372</v>
       </c>
       <c r="F539" s="14" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -19601,7 +19744,7 @@
         <v>372</v>
       </c>
       <c r="F541" s="14" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -19641,7 +19784,7 @@
         <v>372</v>
       </c>
       <c r="F543" s="14" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -19681,7 +19824,7 @@
         <v>372</v>
       </c>
       <c r="F545" s="14" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -19718,10 +19861,10 @@
         <v>392</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F547" s="14" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -19761,7 +19904,7 @@
         <v>372</v>
       </c>
       <c r="F549" s="14" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -19801,7 +19944,7 @@
         <v>372</v>
       </c>
       <c r="F551" s="14" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -19841,7 +19984,7 @@
         <v>372</v>
       </c>
       <c r="F553" s="14" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -19881,7 +20024,7 @@
         <v>372</v>
       </c>
       <c r="F555" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -19921,7 +20064,7 @@
         <v>372</v>
       </c>
       <c r="F557" s="14" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -19961,7 +20104,7 @@
         <v>372</v>
       </c>
       <c r="F559" s="14" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -20001,7 +20144,7 @@
         <v>372</v>
       </c>
       <c r="F561" s="14" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -20041,7 +20184,7 @@
         <v>372</v>
       </c>
       <c r="F563" s="14" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -20081,7 +20224,7 @@
         <v>370</v>
       </c>
       <c r="F565" s="14" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="566" spans="1:7" ht="43.2">
@@ -20137,7 +20280,7 @@
         <v>380</v>
       </c>
       <c r="F568" s="14" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -20177,7 +20320,7 @@
         <v>372</v>
       </c>
       <c r="F570" s="14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -20217,7 +20360,7 @@
         <v>372</v>
       </c>
       <c r="F572" s="14" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -20257,7 +20400,7 @@
         <v>372</v>
       </c>
       <c r="F574" s="14" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -20297,7 +20440,7 @@
         <v>372</v>
       </c>
       <c r="F576" s="14" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -20337,7 +20480,7 @@
         <v>372</v>
       </c>
       <c r="F578" s="14" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -20377,7 +20520,7 @@
         <v>372</v>
       </c>
       <c r="F580" s="14" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -20417,7 +20560,7 @@
         <v>372</v>
       </c>
       <c r="F582" s="14" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -20454,10 +20597,10 @@
         <v>392</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F584" s="14" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -20497,7 +20640,7 @@
         <v>372</v>
       </c>
       <c r="F586" s="14" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -20537,7 +20680,7 @@
         <v>372</v>
       </c>
       <c r="F588" s="14" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -20577,7 +20720,7 @@
         <v>372</v>
       </c>
       <c r="F590" s="14" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -20617,7 +20760,7 @@
         <v>372</v>
       </c>
       <c r="F592" s="14" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -20657,7 +20800,7 @@
         <v>372</v>
       </c>
       <c r="F594" s="14" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -20697,7 +20840,7 @@
         <v>372</v>
       </c>
       <c r="F596" s="14" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -20737,7 +20880,7 @@
         <v>372</v>
       </c>
       <c r="F598" s="14" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -20777,7 +20920,7 @@
         <v>372</v>
       </c>
       <c r="F600" s="14" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -20817,7 +20960,7 @@
         <v>370</v>
       </c>
       <c r="F602" s="14" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -20873,7 +21016,7 @@
         <v>372</v>
       </c>
       <c r="F605" s="14" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -20913,7 +21056,7 @@
         <v>372</v>
       </c>
       <c r="F607" s="14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -20953,7 +21096,7 @@
         <v>372</v>
       </c>
       <c r="F609" s="14" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -20993,7 +21136,7 @@
         <v>372</v>
       </c>
       <c r="F611" s="14" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -21033,7 +21176,7 @@
         <v>372</v>
       </c>
       <c r="F613" s="14" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -21073,7 +21216,7 @@
         <v>372</v>
       </c>
       <c r="F615" s="14" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -21113,7 +21256,7 @@
         <v>372</v>
       </c>
       <c r="F617" s="14" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -21153,7 +21296,7 @@
         <v>370</v>
       </c>
       <c r="F619" s="14" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -21193,7 +21336,7 @@
         <v>372</v>
       </c>
       <c r="F621" s="14" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -21233,7 +21376,7 @@
         <v>372</v>
       </c>
       <c r="F623" s="14" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -21273,7 +21416,7 @@
         <v>372</v>
       </c>
       <c r="F625" s="14" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -21313,7 +21456,7 @@
         <v>372</v>
       </c>
       <c r="F627" s="14" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -21353,7 +21496,7 @@
         <v>372</v>
       </c>
       <c r="F629" s="14" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -21393,7 +21536,7 @@
         <v>372</v>
       </c>
       <c r="F631" s="14" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -21433,7 +21576,7 @@
         <v>372</v>
       </c>
       <c r="F633" s="14" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -21470,10 +21613,10 @@
         <v>392</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F635" s="14" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="636" spans="1:7" ht="43.2">
@@ -21529,7 +21672,7 @@
         <v>372</v>
       </c>
       <c r="F638" s="14" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -21569,7 +21712,7 @@
         <v>382</v>
       </c>
       <c r="F640" s="14" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -21609,7 +21752,7 @@
         <v>372</v>
       </c>
       <c r="F642" s="14" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -21649,7 +21792,7 @@
         <v>372</v>
       </c>
       <c r="F644" s="14" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -21689,7 +21832,7 @@
         <v>382</v>
       </c>
       <c r="F646" s="14" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -21729,7 +21872,7 @@
         <v>372</v>
       </c>
       <c r="F648" s="14" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -21769,7 +21912,7 @@
         <v>372</v>
       </c>
       <c r="F650" s="14" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -21809,7 +21952,7 @@
         <v>370</v>
       </c>
       <c r="F652" s="14" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -21849,7 +21992,7 @@
         <v>372</v>
       </c>
       <c r="F654" s="14" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -21889,7 +22032,7 @@
         <v>372</v>
       </c>
       <c r="F656" s="14" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -21929,7 +22072,7 @@
         <v>372</v>
       </c>
       <c r="F658" s="14" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="659" spans="1:7">
@@ -21969,7 +22112,7 @@
         <v>372</v>
       </c>
       <c r="F660" s="14" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -22009,7 +22152,7 @@
         <v>372</v>
       </c>
       <c r="F662" s="14" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -22049,7 +22192,7 @@
         <v>372</v>
       </c>
       <c r="F664" s="14" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -22089,7 +22232,7 @@
         <v>372</v>
       </c>
       <c r="F666" s="14" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -22126,10 +22269,10 @@
         <v>392</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F668" s="14" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -22185,7 +22328,7 @@
         <v>372</v>
       </c>
       <c r="F671" s="14" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -22225,7 +22368,7 @@
         <v>372</v>
       </c>
       <c r="F673" s="14" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -22265,7 +22408,7 @@
         <v>372</v>
       </c>
       <c r="F675" s="14" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -22305,7 +22448,7 @@
         <v>382</v>
       </c>
       <c r="F677" s="14" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -22345,7 +22488,7 @@
         <v>372</v>
       </c>
       <c r="F679" s="14" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -22385,7 +22528,7 @@
         <v>372</v>
       </c>
       <c r="F681" s="14" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="682" spans="1:7">
@@ -22425,7 +22568,7 @@
         <v>372</v>
       </c>
       <c r="F683" s="14" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -22465,7 +22608,7 @@
         <v>370</v>
       </c>
       <c r="F685" s="14" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="686" spans="1:7" s="23" customFormat="1">
@@ -22506,7 +22649,7 @@
         <v>372</v>
       </c>
       <c r="F687" s="14" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G687" s="1"/>
     </row>
@@ -22547,7 +22690,7 @@
         <v>372</v>
       </c>
       <c r="F689" s="14" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -22587,7 +22730,7 @@
         <v>382</v>
       </c>
       <c r="F691" s="14" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -22627,7 +22770,7 @@
         <v>372</v>
       </c>
       <c r="F693" s="14" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -22667,7 +22810,7 @@
         <v>372</v>
       </c>
       <c r="F695" s="14" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -22707,7 +22850,7 @@
         <v>372</v>
       </c>
       <c r="F697" s="14" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -22747,7 +22890,7 @@
         <v>372</v>
       </c>
       <c r="F699" s="14" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -22784,10 +22927,10 @@
         <v>392</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F701" s="14" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -22840,7 +22983,7 @@
         <v>372</v>
       </c>
       <c r="F704" s="14" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -22880,7 +23023,7 @@
         <v>372</v>
       </c>
       <c r="F706" s="14" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -22920,7 +23063,7 @@
         <v>372</v>
       </c>
       <c r="F708" s="14" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -22960,7 +23103,7 @@
         <v>372</v>
       </c>
       <c r="F710" s="14" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -23000,7 +23143,7 @@
         <v>372</v>
       </c>
       <c r="F712" s="14" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -23040,7 +23183,7 @@
         <v>372</v>
       </c>
       <c r="F714" s="14" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -23080,7 +23223,7 @@
         <v>370</v>
       </c>
       <c r="F716" s="14" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -23120,7 +23263,7 @@
         <v>372</v>
       </c>
       <c r="F718" s="14" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -23160,7 +23303,7 @@
         <v>372</v>
       </c>
       <c r="F720" s="14" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="721" spans="1:7">
@@ -23200,7 +23343,7 @@
         <v>372</v>
       </c>
       <c r="F722" s="14" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="723" spans="1:7">
@@ -23240,7 +23383,7 @@
         <v>372</v>
       </c>
       <c r="F724" s="14" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="725" spans="1:7">
@@ -23280,7 +23423,7 @@
         <v>372</v>
       </c>
       <c r="F726" s="14" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="727" spans="1:7">
@@ -23320,7 +23463,7 @@
         <v>372</v>
       </c>
       <c r="F728" s="14" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="729" spans="1:7">
@@ -23357,10 +23500,10 @@
         <v>807</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F730" s="14" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="731" spans="1:7" ht="86.4">
@@ -23416,7 +23559,7 @@
         <v>823</v>
       </c>
       <c r="F733" s="14" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="734" spans="1:7">
@@ -23456,7 +23599,7 @@
         <v>372</v>
       </c>
       <c r="F735" s="14" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="736" spans="1:7">
@@ -23496,7 +23639,7 @@
         <v>372</v>
       </c>
       <c r="F737" s="14" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -23536,7 +23679,7 @@
         <v>372</v>
       </c>
       <c r="F739" s="14" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -23576,7 +23719,7 @@
         <v>382</v>
       </c>
       <c r="F741" s="14" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -23616,7 +23759,7 @@
         <v>382</v>
       </c>
       <c r="F743" s="14" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -23656,7 +23799,7 @@
         <v>382</v>
       </c>
       <c r="F745" s="14" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -23696,7 +23839,7 @@
         <v>382</v>
       </c>
       <c r="F747" s="14" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -23736,7 +23879,7 @@
         <v>372</v>
       </c>
       <c r="F749" s="14" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -23776,7 +23919,7 @@
         <v>382</v>
       </c>
       <c r="F751" s="14" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="752" spans="1:6">
@@ -23816,7 +23959,7 @@
         <v>382</v>
       </c>
       <c r="F753" s="14" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="754" spans="1:6">
@@ -23856,7 +23999,7 @@
         <v>372</v>
       </c>
       <c r="F755" s="14" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="756" spans="1:6">
@@ -23896,7 +24039,7 @@
         <v>372</v>
       </c>
       <c r="F757" s="14" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="758" spans="1:6">
@@ -23936,7 +24079,7 @@
         <v>370</v>
       </c>
       <c r="F759" s="14" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="760" spans="1:6">
@@ -23976,7 +24119,7 @@
         <v>372</v>
       </c>
       <c r="F761" s="14" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="762" spans="1:6">
@@ -24016,7 +24159,7 @@
         <v>372</v>
       </c>
       <c r="F763" s="14" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="764" spans="1:6">
@@ -24056,7 +24199,7 @@
         <v>382</v>
       </c>
       <c r="F765" s="14" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -24096,7 +24239,7 @@
         <v>372</v>
       </c>
       <c r="F767" s="14" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -24136,7 +24279,7 @@
         <v>380</v>
       </c>
       <c r="F769" s="14" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -24176,7 +24319,7 @@
         <v>372</v>
       </c>
       <c r="F771" s="14" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -24216,7 +24359,7 @@
         <v>372</v>
       </c>
       <c r="F773" s="14" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -24256,7 +24399,7 @@
         <v>382</v>
       </c>
       <c r="F775" s="14" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -24296,7 +24439,7 @@
         <v>382</v>
       </c>
       <c r="F777" s="14" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -24336,7 +24479,7 @@
         <v>372</v>
       </c>
       <c r="F779" s="14" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="780" spans="1:6">
@@ -24376,7 +24519,7 @@
         <v>372</v>
       </c>
       <c r="F781" s="14" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -24416,7 +24559,7 @@
         <v>372</v>
       </c>
       <c r="F783" s="14" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="784" spans="1:6">
@@ -24456,7 +24599,7 @@
         <v>372</v>
       </c>
       <c r="F785" s="14" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="786" spans="1:7">
@@ -24493,10 +24636,10 @@
         <v>392</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F787" s="14" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="788" spans="1:7" ht="72">
@@ -24552,7 +24695,7 @@
         <v>382</v>
       </c>
       <c r="F790" s="14" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="791" spans="1:7">
@@ -24592,7 +24735,7 @@
         <v>382</v>
       </c>
       <c r="F792" s="14" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="793" spans="1:7">
@@ -24632,7 +24775,7 @@
         <v>382</v>
       </c>
       <c r="F794" s="14" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="795" spans="1:7">
@@ -24672,7 +24815,7 @@
         <v>382</v>
       </c>
       <c r="F796" s="14" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="797" spans="1:7">
@@ -24712,7 +24855,7 @@
         <v>382</v>
       </c>
       <c r="F798" s="14" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="799" spans="1:7">
@@ -24749,10 +24892,10 @@
         <v>847</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F800" s="14" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="801" spans="1:6">
@@ -24792,7 +24935,7 @@
         <v>372</v>
       </c>
       <c r="F802" s="14" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="803" spans="1:6">
@@ -24832,7 +24975,7 @@
         <v>372</v>
       </c>
       <c r="F804" s="14" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -24872,7 +25015,7 @@
         <v>372</v>
       </c>
       <c r="F806" s="14" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -24912,7 +25055,7 @@
         <v>372</v>
       </c>
       <c r="F808" s="14" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="809" spans="1:6">
@@ -24952,7 +25095,7 @@
         <v>372</v>
       </c>
       <c r="F810" s="14" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="811" spans="1:6">
@@ -24992,7 +25135,7 @@
         <v>372</v>
       </c>
       <c r="F812" s="14" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -25032,7 +25175,7 @@
         <v>372</v>
       </c>
       <c r="F814" s="14" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="815" spans="1:6">
@@ -25072,7 +25215,7 @@
         <v>370</v>
       </c>
       <c r="F816" s="14" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="817" spans="1:6">
@@ -25112,7 +25255,7 @@
         <v>372</v>
       </c>
       <c r="F818" s="14" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="819" spans="1:6">
@@ -25152,7 +25295,7 @@
         <v>372</v>
       </c>
       <c r="F820" s="14" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -25192,7 +25335,7 @@
         <v>372</v>
       </c>
       <c r="F822" s="14" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="823" spans="1:6">
@@ -25232,7 +25375,7 @@
         <v>372</v>
       </c>
       <c r="F824" s="14" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="825" spans="1:6">
@@ -25272,7 +25415,7 @@
         <v>372</v>
       </c>
       <c r="F826" s="14" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="827" spans="1:6">
@@ -25312,7 +25455,7 @@
         <v>372</v>
       </c>
       <c r="F828" s="14" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="829" spans="1:6">
@@ -25352,7 +25495,7 @@
         <v>372</v>
       </c>
       <c r="F830" s="14" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -25392,7 +25535,7 @@
         <v>372</v>
       </c>
       <c r="F832" s="14" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="833" spans="1:7">
@@ -25432,7 +25575,7 @@
         <v>849</v>
       </c>
       <c r="F834" s="14" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="835" spans="1:7">
@@ -25472,7 +25615,7 @@
         <v>849</v>
       </c>
       <c r="F836" s="14" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="837" spans="1:7">
@@ -25509,10 +25652,10 @@
         <v>392</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F838" s="14" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="839" spans="1:7">
@@ -25552,7 +25695,7 @@
         <v>382</v>
       </c>
       <c r="F840" s="14" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="841" spans="1:7">
@@ -25592,7 +25735,7 @@
         <v>382</v>
       </c>
       <c r="F842" s="14" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="843" spans="1:7">
@@ -25629,10 +25772,10 @@
         <v>807</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F844" s="14" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="845" spans="1:7" ht="28.8">
@@ -25688,7 +25831,7 @@
         <v>372</v>
       </c>
       <c r="F847" s="14" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="848" spans="1:7">
@@ -25728,7 +25871,7 @@
         <v>372</v>
       </c>
       <c r="F849" s="14" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="850" spans="1:6">
@@ -25768,7 +25911,7 @@
         <v>372</v>
       </c>
       <c r="F851" s="14" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="852" spans="1:6">
@@ -25808,7 +25951,7 @@
         <v>372</v>
       </c>
       <c r="F853" s="14" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="854" spans="1:6">
@@ -25848,7 +25991,7 @@
         <v>372</v>
       </c>
       <c r="F855" s="14" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="856" spans="1:6">
@@ -25888,7 +26031,7 @@
         <v>372</v>
       </c>
       <c r="F857" s="14" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="858" spans="1:6">
@@ -25928,7 +26071,7 @@
         <v>372</v>
       </c>
       <c r="F859" s="14" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="860" spans="1:6">
@@ -25968,7 +26111,7 @@
         <v>372</v>
       </c>
       <c r="F861" s="14" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -26008,7 +26151,7 @@
         <v>382</v>
       </c>
       <c r="F863" s="14" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="864" spans="1:6">
@@ -26048,7 +26191,7 @@
         <v>382</v>
       </c>
       <c r="F865" s="14" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="866" spans="1:7">
@@ -26088,7 +26231,7 @@
         <v>372</v>
       </c>
       <c r="F867" s="14" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="868" spans="1:7">
@@ -26128,7 +26271,7 @@
         <v>372</v>
       </c>
       <c r="F869" s="14" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="870" spans="1:7">
@@ -26165,10 +26308,10 @@
         <v>807</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F871" s="14" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="872" spans="1:7">
@@ -26185,13 +26328,13 @@
         <v>854</v>
       </c>
       <c r="E872" s="23" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="F872" s="14" t="s">
         <v>977</v>
       </c>
       <c r="G872" s="23" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="873" spans="1:7">
@@ -26208,13 +26351,13 @@
         <v>854</v>
       </c>
       <c r="E873" s="23" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F873" s="14" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G873" s="23" t="s">
         <v>1596</v>
-      </c>
-      <c r="F873" s="14" t="s">
-        <v>1569</v>
-      </c>
-      <c r="G873" s="23" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="874" spans="1:7">
@@ -26254,7 +26397,7 @@
         <v>372</v>
       </c>
       <c r="F875" s="14" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="876" spans="1:7" ht="345.6">
@@ -26315,7 +26458,7 @@
         <v>372</v>
       </c>
       <c r="F878" s="14" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="879" spans="1:7">
@@ -26355,10 +26498,10 @@
         <v>856</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F880" s="14" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G880" s="1" t="s">
         <v>857</v>
@@ -26401,7 +26544,7 @@
         <v>372</v>
       </c>
       <c r="F882" s="14" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="883" spans="1:7">
@@ -26441,7 +26584,7 @@
         <v>372</v>
       </c>
       <c r="F884" s="14" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="885" spans="1:7">
@@ -26481,7 +26624,7 @@
         <v>370</v>
       </c>
       <c r="F886" s="14" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="887" spans="1:7">
@@ -26521,10 +26664,10 @@
         <v>858</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="F888" s="14" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G888" s="1" t="s">
         <v>859</v>
@@ -26567,10 +26710,10 @@
         <v>860</v>
       </c>
       <c r="E890" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F890" s="14" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G890" s="1" t="s">
         <v>859</v>
@@ -26613,7 +26756,7 @@
         <v>372</v>
       </c>
       <c r="F892" s="14" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="893" spans="1:7">
@@ -26653,7 +26796,7 @@
         <v>372</v>
       </c>
       <c r="F894" s="14" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="895" spans="1:7">
@@ -26693,7 +26836,7 @@
         <v>372</v>
       </c>
       <c r="F896" s="14" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -26733,7 +26876,7 @@
         <v>372</v>
       </c>
       <c r="F898" s="14" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -26773,7 +26916,7 @@
         <v>372</v>
       </c>
       <c r="F900" s="14" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -26813,7 +26956,7 @@
         <v>372</v>
       </c>
       <c r="F902" s="14" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="903" spans="1:6">
@@ -26853,7 +26996,7 @@
         <v>372</v>
       </c>
       <c r="F904" s="14" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="905" spans="1:6">
@@ -26893,7 +27036,7 @@
         <v>372</v>
       </c>
       <c r="F906" s="14" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="907" spans="1:6">
@@ -26933,7 +27076,7 @@
         <v>372</v>
       </c>
       <c r="F908" s="14" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="909" spans="1:6">
@@ -26973,7 +27116,7 @@
         <v>372</v>
       </c>
       <c r="F910" s="14" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="911" spans="1:6">
@@ -27013,7 +27156,7 @@
         <v>372</v>
       </c>
       <c r="F912" s="14" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="913" spans="1:6">
@@ -27053,7 +27196,7 @@
         <v>372</v>
       </c>
       <c r="F914" s="14" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="915" spans="1:6">
@@ -27093,7 +27236,7 @@
         <v>372</v>
       </c>
       <c r="F916" s="14" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="917" spans="1:6">
@@ -27133,7 +27276,7 @@
         <v>372</v>
       </c>
       <c r="F918" s="14" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="919" spans="1:6">
@@ -27173,7 +27316,7 @@
         <v>372</v>
       </c>
       <c r="F920" s="14" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="921" spans="1:6">
@@ -27213,7 +27356,7 @@
         <v>372</v>
       </c>
       <c r="F922" s="14" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -27253,7 +27396,7 @@
         <v>372</v>
       </c>
       <c r="F924" s="14" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -27293,7 +27436,7 @@
         <v>393</v>
       </c>
       <c r="F926" s="14" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -27346,7 +27489,7 @@
         <v>380</v>
       </c>
       <c r="F929" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="930" spans="1:6">
@@ -27386,7 +27529,7 @@
         <v>380</v>
       </c>
       <c r="F931" s="14" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="932" spans="1:6">
@@ -27426,7 +27569,7 @@
         <v>382</v>
       </c>
       <c r="F933" s="14" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="934" spans="1:6">
@@ -27466,7 +27609,7 @@
         <v>382</v>
       </c>
       <c r="F935" s="14" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="936" spans="1:6">
@@ -27506,7 +27649,7 @@
         <v>380</v>
       </c>
       <c r="F937" s="14" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="938" spans="1:6">
@@ -27546,7 +27689,7 @@
         <v>382</v>
       </c>
       <c r="F939" s="14" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="940" spans="1:6">
@@ -27586,7 +27729,7 @@
         <v>370</v>
       </c>
       <c r="F941" s="14" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="942" spans="1:6">
@@ -27626,7 +27769,7 @@
         <v>382</v>
       </c>
       <c r="F943" s="14" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="944" spans="1:6">
@@ -27666,7 +27809,7 @@
         <v>380</v>
       </c>
       <c r="F945" s="14" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -27706,7 +27849,7 @@
         <v>382</v>
       </c>
       <c r="F947" s="14" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -27746,7 +27889,7 @@
         <v>382</v>
       </c>
       <c r="F949" s="14" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -27786,7 +27929,7 @@
         <v>380</v>
       </c>
       <c r="F951" s="14" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="952" spans="1:7">
@@ -27826,7 +27969,7 @@
         <v>380</v>
       </c>
       <c r="F953" s="14" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -27863,10 +28006,10 @@
         <v>392</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F955" s="14" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -27922,7 +28065,7 @@
         <v>372</v>
       </c>
       <c r="F958" s="14" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="959" spans="1:7">
@@ -27962,7 +28105,7 @@
         <v>372</v>
       </c>
       <c r="F960" s="14" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="961" spans="1:6">
@@ -28002,7 +28145,7 @@
         <v>372</v>
       </c>
       <c r="F962" s="14" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -28042,7 +28185,7 @@
         <v>372</v>
       </c>
       <c r="F964" s="14" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="965" spans="1:6">
@@ -28082,7 +28225,7 @@
         <v>372</v>
       </c>
       <c r="F966" s="14" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="967" spans="1:6">
@@ -28122,7 +28265,7 @@
         <v>372</v>
       </c>
       <c r="F968" s="14" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="969" spans="1:6">
@@ -28162,7 +28305,7 @@
         <v>372</v>
       </c>
       <c r="F970" s="14" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="971" spans="1:6">
@@ -28202,7 +28345,7 @@
         <v>370</v>
       </c>
       <c r="F972" s="14" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="973" spans="1:6">
@@ -28242,7 +28385,7 @@
         <v>372</v>
       </c>
       <c r="F974" s="14" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="975" spans="1:6">
@@ -28282,7 +28425,7 @@
         <v>372</v>
       </c>
       <c r="F976" s="14" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="977" spans="1:6">
@@ -28322,7 +28465,7 @@
         <v>372</v>
       </c>
       <c r="F978" s="14" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="979" spans="1:6">
@@ -28362,7 +28505,7 @@
         <v>372</v>
       </c>
       <c r="F980" s="14" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="981" spans="1:6">
@@ -28402,7 +28545,7 @@
         <v>372</v>
       </c>
       <c r="F982" s="14" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="983" spans="1:6">
@@ -28442,7 +28585,7 @@
         <v>372</v>
       </c>
       <c r="F984" s="14" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -28482,7 +28625,7 @@
         <v>372</v>
       </c>
       <c r="F986" s="14" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -28519,10 +28662,10 @@
         <v>392</v>
       </c>
       <c r="E988" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F988" s="14" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -28575,7 +28718,7 @@
         <v>372</v>
       </c>
       <c r="F991" s="14" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -28615,7 +28758,7 @@
         <v>372</v>
       </c>
       <c r="F993" s="14" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -28655,7 +28798,7 @@
         <v>372</v>
       </c>
       <c r="F995" s="14" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="996" spans="1:6">
@@ -28695,7 +28838,7 @@
         <v>372</v>
       </c>
       <c r="F997" s="14" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -28735,7 +28878,7 @@
         <v>372</v>
       </c>
       <c r="F999" s="14" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1000" spans="1:6">
@@ -28775,7 +28918,7 @@
         <v>372</v>
       </c>
       <c r="F1001" s="14" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1002" spans="1:6">
@@ -28815,7 +28958,7 @@
         <v>372</v>
       </c>
       <c r="F1003" s="14" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1004" spans="1:6">
@@ -28855,7 +28998,7 @@
         <v>372</v>
       </c>
       <c r="F1005" s="14" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -28895,7 +29038,7 @@
         <v>372</v>
       </c>
       <c r="F1007" s="14" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -28935,7 +29078,7 @@
         <v>370</v>
       </c>
       <c r="F1009" s="14" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1010" spans="1:6">
@@ -28975,7 +29118,7 @@
         <v>372</v>
       </c>
       <c r="F1011" s="14" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -29015,7 +29158,7 @@
         <v>372</v>
       </c>
       <c r="F1013" s="14" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1014" spans="1:6">
@@ -29055,7 +29198,7 @@
         <v>372</v>
       </c>
       <c r="F1015" s="14" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1016" spans="1:6">
@@ -29095,7 +29238,7 @@
         <v>372</v>
       </c>
       <c r="F1017" s="14" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1018" spans="1:6">
@@ -29135,7 +29278,7 @@
         <v>372</v>
       </c>
       <c r="F1019" s="14" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1020" spans="1:6">
@@ -29175,7 +29318,7 @@
         <v>372</v>
       </c>
       <c r="F1021" s="14" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -29215,7 +29358,7 @@
         <v>372</v>
       </c>
       <c r="F1023" s="14" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -29255,7 +29398,7 @@
         <v>372</v>
       </c>
       <c r="F1025" s="14" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -29295,7 +29438,7 @@
         <v>372</v>
       </c>
       <c r="F1027" s="14" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1028" spans="1:7">
@@ -29332,10 +29475,10 @@
         <v>392</v>
       </c>
       <c r="E1029" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F1029" s="14" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -29391,7 +29534,7 @@
         <v>372</v>
       </c>
       <c r="F1032" s="14" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1033" spans="1:7">
@@ -29431,7 +29574,7 @@
         <v>382</v>
       </c>
       <c r="F1034" s="14" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1035" spans="1:7">
@@ -29471,7 +29614,7 @@
         <v>372</v>
       </c>
       <c r="F1036" s="14" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1037" spans="1:7">
@@ -29511,7 +29654,7 @@
         <v>372</v>
       </c>
       <c r="F1038" s="14" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1039" spans="1:7">
@@ -29551,7 +29694,7 @@
         <v>372</v>
       </c>
       <c r="F1040" s="14" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1041" spans="1:6">
@@ -29591,7 +29734,7 @@
         <v>372</v>
       </c>
       <c r="F1042" s="14" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1043" spans="1:6">
@@ -29631,7 +29774,7 @@
         <v>370</v>
       </c>
       <c r="F1044" s="14" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1045" spans="1:6">
@@ -29671,7 +29814,7 @@
         <v>372</v>
       </c>
       <c r="F1046" s="14" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1047" spans="1:6">
@@ -29711,7 +29854,7 @@
         <v>372</v>
       </c>
       <c r="F1048" s="14" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1049" spans="1:6">
@@ -29751,7 +29894,7 @@
         <v>382</v>
       </c>
       <c r="F1050" s="14" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1051" spans="1:6">
@@ -29791,7 +29934,7 @@
         <v>372</v>
       </c>
       <c r="F1052" s="14" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -29831,7 +29974,7 @@
         <v>372</v>
       </c>
       <c r="F1054" s="14" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1055" spans="1:6">
@@ -29871,7 +30014,7 @@
         <v>382</v>
       </c>
       <c r="F1056" s="14" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1057" spans="1:6">
@@ -29908,10 +30051,10 @@
         <v>392</v>
       </c>
       <c r="E1058" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F1058" s="14" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1059" spans="1:6">
@@ -29964,7 +30107,7 @@
         <v>380</v>
       </c>
       <c r="F1061" s="14" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1062" spans="1:6">
@@ -30004,7 +30147,7 @@
         <v>849</v>
       </c>
       <c r="F1063" s="14" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1064" spans="1:6">
@@ -30044,7 +30187,7 @@
         <v>849</v>
       </c>
       <c r="F1065" s="14" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1066" spans="1:6">
@@ -30084,7 +30227,7 @@
         <v>849</v>
       </c>
       <c r="F1067" s="14" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1068" spans="1:6">
@@ -30124,7 +30267,7 @@
         <v>380</v>
       </c>
       <c r="F1069" s="14" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1070" spans="1:6">
@@ -30164,7 +30307,7 @@
         <v>372</v>
       </c>
       <c r="F1071" s="14" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1072" spans="1:6">
@@ -30204,7 +30347,7 @@
         <v>370</v>
       </c>
       <c r="F1073" s="14" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -30244,7 +30387,7 @@
         <v>849</v>
       </c>
       <c r="F1075" s="14" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1076" spans="1:7">
@@ -30284,7 +30427,7 @@
         <v>849</v>
       </c>
       <c r="F1077" s="14" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -30324,7 +30467,7 @@
         <v>849</v>
       </c>
       <c r="F1079" s="14" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1080" spans="1:7">
@@ -30364,7 +30507,7 @@
         <v>849</v>
       </c>
       <c r="F1081" s="14" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
@@ -30404,7 +30547,7 @@
         <v>372</v>
       </c>
       <c r="F1083" s="14" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -30444,7 +30587,7 @@
         <v>380</v>
       </c>
       <c r="F1085" s="14" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -30481,10 +30624,10 @@
         <v>807</v>
       </c>
       <c r="E1087" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F1087" s="14" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1088" spans="1:7">
@@ -30540,7 +30683,7 @@
         <v>823</v>
       </c>
       <c r="F1090" s="14" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1091" spans="1:7">
@@ -30580,7 +30723,7 @@
         <v>370</v>
       </c>
       <c r="F1092" s="14" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1093" spans="1:7">
@@ -30620,7 +30763,7 @@
         <v>823</v>
       </c>
       <c r="F1094" s="14" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1095" spans="1:7">
@@ -30660,7 +30803,7 @@
         <v>823</v>
       </c>
       <c r="F1096" s="14" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1097" spans="1:7">
@@ -30703,7 +30846,7 @@
         <v>382</v>
       </c>
       <c r="F1098" s="14" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G1098" s="23" t="s">
         <v>902</v>
@@ -30743,10 +30886,10 @@
         <v>903</v>
       </c>
       <c r="E1100" s="41" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F1100" s="14" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1101" spans="1:7">
@@ -30789,10 +30932,10 @@
         <v>380</v>
       </c>
       <c r="F1102" s="14" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G1102" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1103" spans="1:7">
@@ -30829,10 +30972,10 @@
         <v>905</v>
       </c>
       <c r="E1104" s="41" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F1104" s="14" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1105" spans="1:6">
@@ -30872,7 +31015,7 @@
         <v>370</v>
       </c>
       <c r="F1106" s="14" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1107" spans="1:6">
@@ -30912,7 +31055,7 @@
         <v>823</v>
       </c>
       <c r="F1108" s="14" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1109" spans="1:6">
@@ -30952,7 +31095,7 @@
         <v>823</v>
       </c>
       <c r="F1110" s="14" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -30992,7 +31135,7 @@
         <v>393</v>
       </c>
       <c r="F1112" s="14" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1113" spans="1:6">
@@ -31029,10 +31172,10 @@
         <v>906</v>
       </c>
       <c r="E1114" s="41" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F1114" s="14" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1115" spans="1:6">
@@ -31069,10 +31212,10 @@
         <v>907</v>
       </c>
       <c r="E1116" s="41" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F1116" s="14" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1117" spans="1:6">
@@ -31112,7 +31255,7 @@
         <v>393</v>
       </c>
       <c r="F1118" s="14" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1119" spans="1:6">
@@ -31152,7 +31295,7 @@
         <v>823</v>
       </c>
       <c r="F1120" s="14" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1121" spans="1:7">
@@ -31210,7 +31353,7 @@
     </row>
     <row r="1125" spans="1:7" ht="28.8">
       <c r="A1125" s="47" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="B1125" s="24"/>
       <c r="C1125" s="31"/>
@@ -31218,15 +31361,15 @@
         <v>161</v>
       </c>
       <c r="F1125" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1125" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1126" spans="1:7" ht="28.8">
       <c r="A1126" s="47" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
       <c r="B1126"/>
       <c r="C1126" s="4"/>
@@ -31234,15 +31377,15 @@
         <v>161</v>
       </c>
       <c r="F1126" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1126" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1127" spans="1:7" ht="28.8">
       <c r="A1127" s="47" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B1127" s="25"/>
       <c r="C1127" s="36"/>
@@ -31250,15 +31393,15 @@
         <v>161</v>
       </c>
       <c r="F1127" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1127" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1128" spans="1:7" ht="28.8">
       <c r="A1128" s="47" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="B1128"/>
       <c r="C1128" s="4"/>
@@ -31266,15 +31409,15 @@
         <v>161</v>
       </c>
       <c r="F1128" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1128" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1129" spans="1:7" ht="28.8">
       <c r="A1129" s="47" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="B1129" s="14"/>
       <c r="C1129" s="35"/>
@@ -31282,15 +31425,15 @@
         <v>161</v>
       </c>
       <c r="F1129" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1129" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1130" spans="1:7" ht="28.8">
       <c r="A1130" s="47" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="B1130" s="14"/>
       <c r="C1130" s="35"/>
@@ -31298,15 +31441,15 @@
         <v>161</v>
       </c>
       <c r="F1130" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1130" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1131" spans="1:7" ht="28.8">
       <c r="A1131" s="47" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="B1131" s="26"/>
       <c r="C1131" s="37"/>
@@ -31314,15 +31457,15 @@
         <v>161</v>
       </c>
       <c r="F1131" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1131" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1132" spans="1:7" ht="28.8">
       <c r="A1132" s="47" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="B1132" s="14"/>
       <c r="C1132" s="35"/>
@@ -31330,15 +31473,15 @@
         <v>161</v>
       </c>
       <c r="F1132" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1132" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1133" spans="1:7" ht="28.8">
       <c r="A1133" s="47" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B1133" s="14"/>
       <c r="C1133" s="35"/>
@@ -31346,15 +31489,15 @@
         <v>161</v>
       </c>
       <c r="F1133" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1133" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1134" spans="1:7" ht="28.8">
       <c r="A1134" s="47" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="B1134" s="14"/>
       <c r="C1134" s="35"/>
@@ -31362,15 +31505,15 @@
         <v>161</v>
       </c>
       <c r="F1134" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1134" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1135" spans="1:7" ht="28.8">
       <c r="A1135" s="47" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="B1135" s="26"/>
       <c r="C1135" s="37"/>
@@ -31378,15 +31521,15 @@
         <v>161</v>
       </c>
       <c r="F1135" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1135" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1136" spans="1:7" ht="28.8">
       <c r="A1136" s="47" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="B1136" s="14"/>
       <c r="C1136" s="35"/>
@@ -31394,15 +31537,15 @@
         <v>161</v>
       </c>
       <c r="F1136" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1136" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1137" spans="1:7" ht="28.8">
       <c r="A1137" s="47" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="B1137" s="14"/>
       <c r="C1137" s="35"/>
@@ -31410,15 +31553,15 @@
         <v>161</v>
       </c>
       <c r="F1137" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1137" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1138" spans="1:7" ht="28.8">
       <c r="A1138" s="47" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="B1138" s="14"/>
       <c r="C1138" s="35"/>
@@ -31426,15 +31569,15 @@
         <v>161</v>
       </c>
       <c r="F1138" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1138" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1139" spans="1:7" ht="28.8">
       <c r="A1139" s="47" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
       <c r="B1139" s="14"/>
       <c r="C1139" s="35"/>
@@ -31442,15 +31585,15 @@
         <v>161</v>
       </c>
       <c r="F1139" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1139" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1140" spans="1:7" ht="28.8">
       <c r="A1140" s="47" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="B1140" s="14"/>
       <c r="C1140" s="35"/>
@@ -31458,15 +31601,15 @@
         <v>161</v>
       </c>
       <c r="F1140" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1140" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1141" spans="1:7" ht="28.8">
       <c r="A1141" s="47" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B1141" s="14"/>
       <c r="C1141" s="35"/>
@@ -31474,15 +31617,15 @@
         <v>161</v>
       </c>
       <c r="F1141" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1141" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1142" spans="1:7" ht="28.8">
       <c r="A1142" s="47" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
       <c r="B1142" s="14"/>
       <c r="C1142" s="35"/>
@@ -31490,15 +31633,15 @@
         <v>161</v>
       </c>
       <c r="F1142" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1142" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1143" spans="1:7" ht="28.8">
       <c r="A1143" s="47" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="B1143" s="14"/>
       <c r="C1143" s="35"/>
@@ -31506,15 +31649,15 @@
         <v>161</v>
       </c>
       <c r="F1143" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1143" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1144" spans="1:7" ht="28.8">
       <c r="A1144" s="47" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="B1144" s="14"/>
       <c r="C1144" s="35"/>
@@ -31522,15 +31665,15 @@
         <v>161</v>
       </c>
       <c r="F1144" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1144" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1145" spans="1:7" ht="28.8">
       <c r="A1145" s="47" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="B1145" s="14"/>
       <c r="C1145" s="35"/>
@@ -31538,15 +31681,15 @@
         <v>161</v>
       </c>
       <c r="F1145" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1145" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1146" spans="1:7" ht="28.8">
       <c r="A1146" s="47" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="B1146" s="14"/>
       <c r="C1146" s="35"/>
@@ -31554,15 +31697,15 @@
         <v>161</v>
       </c>
       <c r="F1146" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1146" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1147" spans="1:7" ht="28.8">
       <c r="A1147" s="47" t="s">
-        <v>1770</v>
+        <v>1756</v>
       </c>
       <c r="B1147" s="14"/>
       <c r="C1147" s="35"/>
@@ -31570,15 +31713,15 @@
         <v>161</v>
       </c>
       <c r="F1147" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1147" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1148" spans="1:7" ht="28.8">
       <c r="A1148" s="47" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="B1148" s="14"/>
       <c r="C1148" s="35"/>
@@ -31586,10 +31729,10 @@
         <v>161</v>
       </c>
       <c r="F1148" s="14" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="G1148" s="41" t="s">
-        <v>1810</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1149" spans="1:7">
@@ -34137,7 +34280,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="C39">
         <v>3471</v>
@@ -34159,7 +34302,7 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="C40">
         <v>2966</v>
@@ -34181,7 +34324,7 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C41">
         <v>709</v>
@@ -34203,7 +34346,7 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="C42">
         <v>3500</v>
@@ -34247,7 +34390,7 @@
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="C44">
         <v>3367</v>
@@ -34269,7 +34412,7 @@
         <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C45">
         <v>3522</v>
@@ -34291,7 +34434,7 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="C46">
         <v>3125</v>
@@ -34313,7 +34456,7 @@
         <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="C47">
         <v>3165</v>
@@ -34335,7 +34478,7 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C48">
         <v>448</v>
@@ -34357,7 +34500,7 @@
         <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="C49">
         <v>3363</v>
@@ -34379,7 +34522,7 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C50">
         <v>666</v>
@@ -34401,7 +34544,7 @@
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C51">
         <v>328</v>
@@ -34423,7 +34566,7 @@
         <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C52">
         <v>669</v>
@@ -34445,7 +34588,7 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C53">
         <v>673</v>
@@ -34467,7 +34610,7 @@
         <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C54">
         <v>317</v>
@@ -34489,7 +34632,7 @@
         <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C55">
         <v>553</v>
@@ -34511,7 +34654,7 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C56">
         <v>1334</v>
@@ -35721,7 +35864,7 @@
         <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="C115">
         <v>1776</v>
@@ -35741,7 +35884,7 @@
         <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="C116">
         <v>2041</v>
@@ -35761,7 +35904,7 @@
         <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
       <c r="C117">
         <v>2492</v>
@@ -35781,7 +35924,7 @@
         <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
       <c r="C118">
         <v>2434</v>
@@ -35801,7 +35944,7 @@
         <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
       <c r="C119">
         <v>2514</v>
@@ -35821,7 +35964,7 @@
         <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="C120">
         <v>936</v>
@@ -35841,7 +35984,7 @@
         <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="C121">
         <v>936</v>
@@ -35861,7 +36004,7 @@
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>1759</v>
+        <v>1748</v>
       </c>
       <c r="C122">
         <v>1013</v>
@@ -35881,7 +36024,7 @@
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C123">
         <v>1087</v>
@@ -35901,7 +36044,7 @@
         <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="C124">
         <v>1011</v>
@@ -35921,7 +36064,7 @@
         <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="C125">
         <v>1085</v>
@@ -35961,7 +36104,7 @@
         <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="C127">
         <v>2508</v>
@@ -35981,7 +36124,7 @@
         <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="C128">
         <v>2665</v>
@@ -36001,7 +36144,7 @@
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="C129">
         <v>2099</v>
@@ -36021,7 +36164,7 @@
         <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>1785</v>
+        <v>1769</v>
       </c>
       <c r="C130">
         <v>2848</v>
@@ -36041,7 +36184,7 @@
         <v>25</v>
       </c>
       <c r="B131" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
       <c r="C131">
         <v>1942</v>
@@ -36061,7 +36204,7 @@
         <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="C132">
         <v>1156</v>
@@ -36081,7 +36224,7 @@
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
       <c r="C133">
         <v>1917</v>
@@ -36101,7 +36244,7 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="C134">
         <v>1827</v>
@@ -36121,7 +36264,7 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="C135">
         <v>1832</v>
@@ -36141,7 +36284,7 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="C136">
         <v>3120</v>
@@ -36161,7 +36304,7 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="C137">
         <v>662</v>
@@ -36181,7 +36324,7 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="C138">
         <v>2814</v>
@@ -36201,7 +36344,7 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="C139">
         <v>604</v>
@@ -36221,7 +36364,7 @@
         <v>25</v>
       </c>
       <c r="B140" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="C140">
         <v>1484</v>
@@ -36241,7 +36384,7 @@
         <v>25</v>
       </c>
       <c r="B141" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
       <c r="C141">
         <v>2252</v>
@@ -36261,7 +36404,7 @@
         <v>25</v>
       </c>
       <c r="B142" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="C142">
         <v>537</v>
@@ -36281,7 +36424,7 @@
         <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
       <c r="C143">
         <v>1678</v>
@@ -36301,7 +36444,7 @@
         <v>25</v>
       </c>
       <c r="B144" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="C144">
         <v>1726</v>
@@ -36321,7 +36464,7 @@
         <v>25</v>
       </c>
       <c r="B145" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="C145">
         <v>1750</v>
@@ -36341,7 +36484,7 @@
         <v>25</v>
       </c>
       <c r="B146" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="C146">
         <v>2885</v>
@@ -36361,7 +36504,7 @@
         <v>25</v>
       </c>
       <c r="B147" t="s">
-        <v>1770</v>
+        <v>1756</v>
       </c>
       <c r="C147">
         <v>1863</v>
@@ -36381,7 +36524,7 @@
         <v>25</v>
       </c>
       <c r="B148" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="C148">
         <v>1742</v>
@@ -36401,7 +36544,7 @@
         <v>25</v>
       </c>
       <c r="B149" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="C149">
         <v>757</v>
@@ -36421,7 +36564,7 @@
         <v>25</v>
       </c>
       <c r="B150" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="C150">
         <v>356</v>
@@ -36441,7 +36584,7 @@
         <v>25</v>
       </c>
       <c r="B151" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="C151">
         <v>1147</v>
@@ -36461,7 +36604,7 @@
         <v>25</v>
       </c>
       <c r="B152" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="C152">
         <v>1092</v>
@@ -36481,7 +36624,7 @@
         <v>25</v>
       </c>
       <c r="B153" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C153">
         <v>1774</v>
@@ -36501,7 +36644,7 @@
         <v>25</v>
       </c>
       <c r="B154" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="C154">
         <v>628</v>
@@ -36521,7 +36664,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="C155">
         <v>2940</v>
@@ -36541,7 +36684,7 @@
         <v>25</v>
       </c>
       <c r="B156" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="C156">
         <v>3309</v>
@@ -38181,7 +38324,7 @@
         <v>160</v>
       </c>
       <c r="B238" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="C238">
         <v>1183</v>
@@ -38201,7 +38344,7 @@
         <v>160</v>
       </c>
       <c r="B239" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="C239">
         <v>1224</v>
@@ -38221,7 +38364,7 @@
         <v>160</v>
       </c>
       <c r="B240" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
       <c r="C240">
         <v>5472</v>
@@ -38241,7 +38384,7 @@
         <v>160</v>
       </c>
       <c r="B241" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
       <c r="C241">
         <v>5586</v>
@@ -38261,7 +38404,7 @@
         <v>160</v>
       </c>
       <c r="B242" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
       <c r="C242">
         <v>5587</v>
@@ -38281,7 +38424,7 @@
         <v>160</v>
       </c>
       <c r="B243" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="C243">
         <v>804</v>
@@ -38301,7 +38444,7 @@
         <v>160</v>
       </c>
       <c r="B244" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="C244">
         <v>804</v>
@@ -38321,7 +38464,7 @@
         <v>160</v>
       </c>
       <c r="B245" t="s">
-        <v>1759</v>
+        <v>1748</v>
       </c>
       <c r="C245">
         <v>257</v>
@@ -38341,7 +38484,7 @@
         <v>160</v>
       </c>
       <c r="B246" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C246">
         <v>257</v>
@@ -38361,7 +38504,7 @@
         <v>160</v>
       </c>
       <c r="B247" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="C247">
         <v>257</v>
@@ -38381,7 +38524,7 @@
         <v>160</v>
       </c>
       <c r="B248" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="C248">
         <v>257</v>
@@ -38441,7 +38584,7 @@
         <v>160</v>
       </c>
       <c r="B251" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="C251">
         <v>3258</v>
@@ -38461,7 +38604,7 @@
         <v>160</v>
       </c>
       <c r="B252" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="C252">
         <v>4594</v>
@@ -38481,7 +38624,7 @@
         <v>160</v>
       </c>
       <c r="B253" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C253">
         <v>1430</v>
@@ -38501,7 +38644,7 @@
         <v>160</v>
       </c>
       <c r="B254" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="C254">
         <v>4661</v>
@@ -38521,7 +38664,7 @@
         <v>160</v>
       </c>
       <c r="B255" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="C255">
         <v>5722</v>
@@ -38541,7 +38684,7 @@
         <v>160</v>
       </c>
       <c r="B256" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="C256">
         <v>5414</v>
@@ -38581,7 +38724,7 @@
         <v>160</v>
       </c>
       <c r="B258" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="C258">
         <v>1772</v>
@@ -38601,7 +38744,7 @@
         <v>160</v>
       </c>
       <c r="B259" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="C259">
         <v>3084</v>
@@ -38621,7 +38764,7 @@
         <v>160</v>
       </c>
       <c r="B260" t="s">
-        <v>1785</v>
+        <v>1769</v>
       </c>
       <c r="C260">
         <v>274</v>
@@ -38641,7 +38784,7 @@
         <v>160</v>
       </c>
       <c r="B261" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
       <c r="C261">
         <v>1219</v>
@@ -38661,7 +38804,7 @@
         <v>160</v>
       </c>
       <c r="B262" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="C262">
         <v>2044</v>
@@ -38681,7 +38824,7 @@
         <v>160</v>
       </c>
       <c r="B263" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
       <c r="C263">
         <v>1493</v>
@@ -38701,7 +38844,7 @@
         <v>160</v>
       </c>
       <c r="B264" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C264">
         <v>3010</v>
@@ -38721,7 +38864,7 @@
         <v>160</v>
       </c>
       <c r="B265" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="C265">
         <v>1224</v>
@@ -38741,7 +38884,7 @@
         <v>160</v>
       </c>
       <c r="B266" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="C266">
         <v>1182</v>
@@ -38761,7 +38904,7 @@
         <v>160</v>
       </c>
       <c r="B267" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="C267">
         <v>2853</v>
@@ -38781,7 +38924,7 @@
         <v>160</v>
       </c>
       <c r="B268" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="C268">
         <v>2851</v>
@@ -38801,7 +38944,7 @@
         <v>160</v>
       </c>
       <c r="B269" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="C269">
         <v>313</v>
@@ -38821,7 +38964,7 @@
         <v>160</v>
       </c>
       <c r="B270" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C270">
         <v>563</v>
@@ -38841,7 +38984,7 @@
         <v>160</v>
       </c>
       <c r="B271" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="C271">
         <v>318</v>
@@ -38861,7 +39004,7 @@
         <v>160</v>
       </c>
       <c r="B272" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="C272">
         <v>316</v>
@@ -38881,7 +39024,7 @@
         <v>160</v>
       </c>
       <c r="B273" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="C273">
         <v>316</v>
@@ -38901,7 +39044,7 @@
         <v>160</v>
       </c>
       <c r="B274" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="C274">
         <v>1496</v>
@@ -38921,7 +39064,7 @@
         <v>160</v>
       </c>
       <c r="B275" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="C275">
         <v>2853</v>
@@ -38941,7 +39084,7 @@
         <v>160</v>
       </c>
       <c r="B276" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
       <c r="C276">
         <v>5761</v>
@@ -38961,7 +39104,7 @@
         <v>160</v>
       </c>
       <c r="B277" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="C277">
         <v>320</v>
@@ -38981,7 +39124,7 @@
         <v>160</v>
       </c>
       <c r="B278" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C278">
         <v>1182</v>
@@ -39001,7 +39144,7 @@
         <v>160</v>
       </c>
       <c r="B279" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
       <c r="C279">
         <v>2484</v>
@@ -39021,7 +39164,7 @@
         <v>160</v>
       </c>
       <c r="B280" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="C280">
         <v>2486</v>
@@ -39041,7 +39184,7 @@
         <v>160</v>
       </c>
       <c r="B281" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="C281">
         <v>2488</v>
@@ -39061,7 +39204,7 @@
         <v>160</v>
       </c>
       <c r="B282" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="C282">
         <v>318</v>
@@ -39081,7 +39224,7 @@
         <v>160</v>
       </c>
       <c r="B283" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C283">
         <v>1185</v>
@@ -39101,7 +39244,7 @@
         <v>160</v>
       </c>
       <c r="B284" t="s">
-        <v>1770</v>
+        <v>1756</v>
       </c>
       <c r="C284">
         <v>1496</v>
@@ -39121,7 +39264,7 @@
         <v>160</v>
       </c>
       <c r="B285" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="C285">
         <v>1182</v>
@@ -39141,7 +39284,7 @@
         <v>160</v>
       </c>
       <c r="B286" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C286">
         <v>1631</v>
@@ -39161,7 +39304,7 @@
         <v>160</v>
       </c>
       <c r="B287" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C287">
         <v>1631</v>
@@ -39181,7 +39324,7 @@
         <v>160</v>
       </c>
       <c r="B288" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="C288">
         <v>860</v>
@@ -39201,7 +39344,7 @@
         <v>160</v>
       </c>
       <c r="B289" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C289">
         <v>4543</v>
@@ -39221,7 +39364,7 @@
         <v>160</v>
       </c>
       <c r="B290" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="C290">
         <v>706</v>
@@ -42322,10 +42465,10 @@
         <v>288</v>
       </c>
       <c r="C12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>1698</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>1699</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7E3E7-D0B3-4AE6-886F-E8919B8B5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED294987-4630-48CC-812A-1DEC6BF6716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="1819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7141" uniqueCount="1822">
   <si>
     <t>Name</t>
   </si>
@@ -5593,6 +5593,15 @@
   </si>
   <si>
     <t>51pF 50V 5%</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power Switch C64-C128 1.png</t>
+  </si>
+  <si>
+    <t>Pinout (secondary)</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power Switch C64-C128 2.png</t>
   </si>
 </sst>
 </file>
@@ -6499,9 +6508,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8432,6 +8441,9 @@
       <c r="E118" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="G118" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="47" t="s">
@@ -9341,13 +9353,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2451"/>
+  <dimension ref="A1:I2452"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D1110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="A1121" sqref="A1121:XFD1122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31307,27 +31319,26 @@
       <c r="D1121" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F1121" s="14"/>
-      <c r="G1121" s="1" t="s">
-        <v>243</v>
+      <c r="F1121" s="14" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="1122" spans="1:7">
       <c r="A1122" s="14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B1122" s="14"/>
       <c r="C1122" s="35"/>
       <c r="D1122" s="14" t="s">
-        <v>153</v>
+        <v>1820</v>
       </c>
       <c r="F1122" s="14" t="s">
-        <v>324</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
       <c r="A1123" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1123" s="14"/>
       <c r="C1123" s="35"/>
@@ -31338,41 +31349,38 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1124" spans="1:7" ht="72">
+    <row r="1124" spans="1:7">
       <c r="A1124" s="14" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B1124" s="14"/>
       <c r="C1124" s="35"/>
-      <c r="D1124" s="1" t="s">
+      <c r="D1124" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G1124" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:7" ht="28.8">
-      <c r="A1125" s="47" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B1125" s="24"/>
-      <c r="C1125" s="31"/>
+      <c r="F1124" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7" ht="72">
+      <c r="A1125" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1125" s="14"/>
+      <c r="C1125" s="35"/>
       <c r="D1125" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F1125" s="14" t="s">
-        <v>1771</v>
-      </c>
-      <c r="G1125" s="41" t="s">
-        <v>1772</v>
+      <c r="G1125" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="1126" spans="1:7" ht="28.8">
       <c r="A1126" s="47" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B1126"/>
-      <c r="C1126" s="4"/>
+        <v>1730</v>
+      </c>
+      <c r="B1126" s="24"/>
+      <c r="C1126" s="31"/>
       <c r="D1126" s="1" t="s">
         <v>153</v>
       </c>
@@ -31385,10 +31393,10 @@
     </row>
     <row r="1127" spans="1:7" ht="28.8">
       <c r="A1127" s="47" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B1127" s="25"/>
-      <c r="C1127" s="36"/>
+        <v>1731</v>
+      </c>
+      <c r="B1127"/>
+      <c r="C1127" s="4"/>
       <c r="D1127" s="1" t="s">
         <v>153</v>
       </c>
@@ -31401,10 +31409,10 @@
     </row>
     <row r="1128" spans="1:7" ht="28.8">
       <c r="A1128" s="47" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B1128"/>
-      <c r="C1128" s="4"/>
+        <v>1697</v>
+      </c>
+      <c r="B1128" s="25"/>
+      <c r="C1128" s="36"/>
       <c r="D1128" s="1" t="s">
         <v>153</v>
       </c>
@@ -31417,10 +31425,10 @@
     </row>
     <row r="1129" spans="1:7" ht="28.8">
       <c r="A1129" s="47" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B1129" s="14"/>
-      <c r="C1129" s="35"/>
+        <v>1732</v>
+      </c>
+      <c r="B1129"/>
+      <c r="C1129" s="4"/>
       <c r="D1129" s="1" t="s">
         <v>153</v>
       </c>
@@ -31433,7 +31441,7 @@
     </row>
     <row r="1130" spans="1:7" ht="28.8">
       <c r="A1130" s="47" t="s">
-        <v>1705</v>
+        <v>1712</v>
       </c>
       <c r="B1130" s="14"/>
       <c r="C1130" s="35"/>
@@ -31449,10 +31457,10 @@
     </row>
     <row r="1131" spans="1:7" ht="28.8">
       <c r="A1131" s="47" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B1131" s="26"/>
-      <c r="C1131" s="37"/>
+        <v>1705</v>
+      </c>
+      <c r="B1131" s="14"/>
+      <c r="C1131" s="35"/>
       <c r="D1131" s="1" t="s">
         <v>153</v>
       </c>
@@ -31465,10 +31473,10 @@
     </row>
     <row r="1132" spans="1:7" ht="28.8">
       <c r="A1132" s="47" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B1132" s="14"/>
-      <c r="C1132" s="35"/>
+        <v>1704</v>
+      </c>
+      <c r="B1132" s="26"/>
+      <c r="C1132" s="37"/>
       <c r="D1132" s="1" t="s">
         <v>153</v>
       </c>
@@ -31481,7 +31489,7 @@
     </row>
     <row r="1133" spans="1:7" ht="28.8">
       <c r="A1133" s="47" t="s">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="B1133" s="14"/>
       <c r="C1133" s="35"/>
@@ -31497,7 +31505,7 @@
     </row>
     <row r="1134" spans="1:7" ht="28.8">
       <c r="A1134" s="47" t="s">
-        <v>1711</v>
+        <v>1679</v>
       </c>
       <c r="B1134" s="14"/>
       <c r="C1134" s="35"/>
@@ -31513,10 +31521,10 @@
     </row>
     <row r="1135" spans="1:7" ht="28.8">
       <c r="A1135" s="47" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B1135" s="26"/>
-      <c r="C1135" s="37"/>
+        <v>1711</v>
+      </c>
+      <c r="B1135" s="14"/>
+      <c r="C1135" s="35"/>
       <c r="D1135" s="1" t="s">
         <v>153</v>
       </c>
@@ -31529,10 +31537,10 @@
     </row>
     <row r="1136" spans="1:7" ht="28.8">
       <c r="A1136" s="47" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B1136" s="14"/>
-      <c r="C1136" s="35"/>
+        <v>1751</v>
+      </c>
+      <c r="B1136" s="26"/>
+      <c r="C1136" s="37"/>
       <c r="D1136" s="1" t="s">
         <v>153</v>
       </c>
@@ -31545,7 +31553,7 @@
     </row>
     <row r="1137" spans="1:7" ht="28.8">
       <c r="A1137" s="47" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="B1137" s="14"/>
       <c r="C1137" s="35"/>
@@ -31561,7 +31569,7 @@
     </row>
     <row r="1138" spans="1:7" ht="28.8">
       <c r="A1138" s="47" t="s">
-        <v>1698</v>
+        <v>1713</v>
       </c>
       <c r="B1138" s="14"/>
       <c r="C1138" s="35"/>
@@ -31577,7 +31585,7 @@
     </row>
     <row r="1139" spans="1:7" ht="28.8">
       <c r="A1139" s="47" t="s">
-        <v>1742</v>
+        <v>1698</v>
       </c>
       <c r="B1139" s="14"/>
       <c r="C1139" s="35"/>
@@ -31593,7 +31601,7 @@
     </row>
     <row r="1140" spans="1:7" ht="28.8">
       <c r="A1140" s="47" t="s">
-        <v>1709</v>
+        <v>1742</v>
       </c>
       <c r="B1140" s="14"/>
       <c r="C1140" s="35"/>
@@ -31609,7 +31617,7 @@
     </row>
     <row r="1141" spans="1:7" ht="28.8">
       <c r="A1141" s="47" t="s">
-        <v>1685</v>
+        <v>1709</v>
       </c>
       <c r="B1141" s="14"/>
       <c r="C1141" s="35"/>
@@ -31625,7 +31633,7 @@
     </row>
     <row r="1142" spans="1:7" ht="28.8">
       <c r="A1142" s="47" t="s">
-        <v>1716</v>
+        <v>1685</v>
       </c>
       <c r="B1142" s="14"/>
       <c r="C1142" s="35"/>
@@ -31641,7 +31649,7 @@
     </row>
     <row r="1143" spans="1:7" ht="28.8">
       <c r="A1143" s="47" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1143" s="14"/>
       <c r="C1143" s="35"/>
@@ -31657,7 +31665,7 @@
     </row>
     <row r="1144" spans="1:7" ht="28.8">
       <c r="A1144" s="47" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B1144" s="14"/>
       <c r="C1144" s="35"/>
@@ -31673,7 +31681,7 @@
     </row>
     <row r="1145" spans="1:7" ht="28.8">
       <c r="A1145" s="47" t="s">
-        <v>1752</v>
+        <v>1717</v>
       </c>
       <c r="B1145" s="14"/>
       <c r="C1145" s="35"/>
@@ -31689,7 +31697,7 @@
     </row>
     <row r="1146" spans="1:7" ht="28.8">
       <c r="A1146" s="47" t="s">
-        <v>1688</v>
+        <v>1752</v>
       </c>
       <c r="B1146" s="14"/>
       <c r="C1146" s="35"/>
@@ -31705,7 +31713,7 @@
     </row>
     <row r="1147" spans="1:7" ht="28.8">
       <c r="A1147" s="47" t="s">
-        <v>1736</v>
+        <v>1688</v>
       </c>
       <c r="B1147" s="14"/>
       <c r="C1147" s="35"/>
@@ -31721,7 +31729,7 @@
     </row>
     <row r="1148" spans="1:7" ht="28.8">
       <c r="A1148" s="47" t="s">
-        <v>1714</v>
+        <v>1736</v>
       </c>
       <c r="B1148" s="14"/>
       <c r="C1148" s="35"/>
@@ -31735,10 +31743,21 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="1149" spans="1:7">
-      <c r="A1149" s="14"/>
+    <row r="1149" spans="1:7" ht="28.8">
+      <c r="A1149" s="47" t="s">
+        <v>1714</v>
+      </c>
       <c r="B1149" s="14"/>
       <c r="C1149" s="35"/>
+      <c r="D1149" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1149" s="14" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G1149" s="41" t="s">
+        <v>1772</v>
+      </c>
     </row>
     <row r="1150" spans="1:7">
       <c r="A1150" s="14"/>
@@ -31865,8 +31884,10 @@
       <c r="B1174" s="14"/>
       <c r="C1174" s="35"/>
     </row>
-    <row r="1284" spans="5:5">
-      <c r="E1284" s="41"/>
+    <row r="1175" spans="1:3">
+      <c r="A1175" s="14"/>
+      <c r="B1175" s="14"/>
+      <c r="C1175" s="35"/>
     </row>
     <row r="1285" spans="5:5">
       <c r="E1285" s="41"/>
@@ -31886,22 +31907,21 @@
     <row r="1290" spans="5:5">
       <c r="E1290" s="41"/>
     </row>
-    <row r="1300" spans="5:7">
-      <c r="E1300" s="41"/>
-    </row>
-    <row r="1302" spans="5:7">
-      <c r="E1302" s="41"/>
-      <c r="G1302" s="41"/>
+    <row r="1291" spans="5:5">
+      <c r="E1291" s="41"/>
+    </row>
+    <row r="1301" spans="5:7">
+      <c r="E1301" s="41"/>
     </row>
     <row r="1303" spans="5:7">
+      <c r="E1303" s="41"/>
       <c r="G1303" s="41"/>
     </row>
     <row r="1304" spans="5:7">
-      <c r="E1304" s="42"/>
       <c r="G1304" s="41"/>
     </row>
     <row r="1305" spans="5:7">
-      <c r="E1305" s="41"/>
+      <c r="E1305" s="42"/>
       <c r="G1305" s="41"/>
     </row>
     <row r="1306" spans="5:7">
@@ -31921,11 +31941,11 @@
       <c r="G1309" s="41"/>
     </row>
     <row r="1310" spans="5:7">
-      <c r="E1310" s="43"/>
+      <c r="E1310" s="41"/>
       <c r="G1310" s="41"/>
     </row>
     <row r="1311" spans="5:7">
-      <c r="E1311" s="41"/>
+      <c r="E1311" s="43"/>
       <c r="G1311" s="41"/>
     </row>
     <row r="1312" spans="5:7">
@@ -32080,11 +32100,12 @@
       <c r="E1349" s="41"/>
       <c r="G1349" s="41"/>
     </row>
-    <row r="1357" spans="5:7">
-      <c r="E1357" s="41"/>
-    </row>
-    <row r="1366" spans="7:7">
-      <c r="G1366" s="41"/>
+    <row r="1350" spans="5:7">
+      <c r="E1350" s="41"/>
+      <c r="G1350" s="41"/>
+    </row>
+    <row r="1358" spans="5:7">
+      <c r="E1358" s="41"/>
     </row>
     <row r="1367" spans="7:7">
       <c r="G1367" s="41"/>
@@ -32125,17 +32146,17 @@
     <row r="1379" spans="7:7">
       <c r="G1379" s="41"/>
     </row>
-    <row r="1409" spans="5:5">
-      <c r="E1409" s="41"/>
-    </row>
-    <row r="1428" spans="5:5">
-      <c r="E1428" s="41"/>
+    <row r="1380" spans="7:7">
+      <c r="G1380" s="41"/>
+    </row>
+    <row r="1410" spans="5:5">
+      <c r="E1410" s="41"/>
     </row>
     <row r="1429" spans="5:5">
       <c r="E1429" s="41"/>
     </row>
-    <row r="1432" spans="5:5">
-      <c r="E1432" s="41"/>
+    <row r="1430" spans="5:5">
+      <c r="E1430" s="41"/>
     </row>
     <row r="1433" spans="5:5">
       <c r="E1433" s="41"/>
@@ -32152,8 +32173,8 @@
     <row r="1437" spans="5:5">
       <c r="E1437" s="41"/>
     </row>
-    <row r="1443" spans="5:5">
-      <c r="E1443" s="41"/>
+    <row r="1438" spans="5:5">
+      <c r="E1438" s="41"/>
     </row>
     <row r="1444" spans="5:5">
       <c r="E1444" s="41"/>
@@ -32173,8 +32194,8 @@
     <row r="1449" spans="5:5">
       <c r="E1449" s="41"/>
     </row>
-    <row r="1451" spans="5:5">
-      <c r="E1451" s="41"/>
+    <row r="1450" spans="5:5">
+      <c r="E1450" s="41"/>
     </row>
     <row r="1452" spans="5:5">
       <c r="E1452" s="41"/>
@@ -32185,23 +32206,23 @@
     <row r="1454" spans="5:5">
       <c r="E1454" s="41"/>
     </row>
-    <row r="1458" spans="5:5">
-      <c r="E1458" s="41"/>
-    </row>
-    <row r="1465" spans="5:5">
-      <c r="E1465" s="41"/>
-    </row>
-    <row r="1469" spans="5:5">
-      <c r="E1469" s="41"/>
-    </row>
-    <row r="1480" spans="5:5">
-      <c r="E1480" s="41"/>
-    </row>
-    <row r="1490" spans="5:7">
-      <c r="E1490" s="41"/>
-    </row>
-    <row r="1492" spans="5:7">
-      <c r="G1492" s="41"/>
+    <row r="1455" spans="5:5">
+      <c r="E1455" s="41"/>
+    </row>
+    <row r="1459" spans="5:5">
+      <c r="E1459" s="41"/>
+    </row>
+    <row r="1466" spans="5:5">
+      <c r="E1466" s="41"/>
+    </row>
+    <row r="1470" spans="5:5">
+      <c r="E1470" s="41"/>
+    </row>
+    <row r="1481" spans="5:5">
+      <c r="E1481" s="41"/>
+    </row>
+    <row r="1491" spans="5:7">
+      <c r="E1491" s="41"/>
     </row>
     <row r="1493" spans="5:7">
       <c r="G1493" s="41"/>
@@ -32258,11 +32279,11 @@
       <c r="G1510" s="41"/>
     </row>
     <row r="1511" spans="5:7">
-      <c r="E1511" s="41"/>
       <c r="G1511" s="41"/>
     </row>
-    <row r="1513" spans="5:7">
-      <c r="G1513" s="41"/>
+    <row r="1512" spans="5:7">
+      <c r="E1512" s="41"/>
+      <c r="G1512" s="41"/>
     </row>
     <row r="1514" spans="5:7">
       <c r="G1514" s="41"/>
@@ -32283,10 +32304,10 @@
       <c r="G1519" s="41"/>
     </row>
     <row r="1520" spans="5:7">
-      <c r="E1520" s="41"/>
       <c r="G1520" s="41"/>
     </row>
     <row r="1521" spans="5:7">
+      <c r="E1521" s="41"/>
       <c r="G1521" s="41"/>
     </row>
     <row r="1522" spans="5:7">
@@ -32308,11 +32329,11 @@
       <c r="G1527" s="41"/>
     </row>
     <row r="1528" spans="5:7">
-      <c r="E1528" s="41"/>
       <c r="G1528" s="41"/>
     </row>
-    <row r="1530" spans="5:7">
-      <c r="G1530" s="41"/>
+    <row r="1529" spans="5:7">
+      <c r="E1529" s="41"/>
+      <c r="G1529" s="41"/>
     </row>
     <row r="1531" spans="5:7">
       <c r="G1531" s="41"/>
@@ -32333,10 +32354,10 @@
       <c r="G1536" s="41"/>
     </row>
     <row r="1537" spans="5:7">
-      <c r="E1537" s="41"/>
       <c r="G1537" s="41"/>
     </row>
     <row r="1538" spans="5:7">
+      <c r="E1538" s="41"/>
       <c r="G1538" s="41"/>
     </row>
     <row r="1539" spans="5:7">
@@ -32358,35 +32379,35 @@
       <c r="G1544" s="41"/>
     </row>
     <row r="1545" spans="5:7">
-      <c r="E1545" s="41"/>
       <c r="G1545" s="41"/>
     </row>
-    <row r="1553" spans="5:5">
-      <c r="E1553" s="41"/>
-    </row>
-    <row r="1560" spans="5:5">
-      <c r="E1560" s="41"/>
-    </row>
-    <row r="1576" spans="5:5">
-      <c r="E1576" s="42"/>
+    <row r="1546" spans="5:7">
+      <c r="E1546" s="41"/>
+      <c r="G1546" s="41"/>
+    </row>
+    <row r="1554" spans="5:5">
+      <c r="E1554" s="41"/>
+    </row>
+    <row r="1561" spans="5:5">
+      <c r="E1561" s="41"/>
     </row>
     <row r="1577" spans="5:5">
       <c r="E1577" s="42"/>
     </row>
-    <row r="1580" spans="5:5">
-      <c r="E1580" s="42"/>
+    <row r="1578" spans="5:5">
+      <c r="E1578" s="42"/>
     </row>
     <row r="1581" spans="5:5">
-      <c r="E1581" s="41"/>
-    </row>
-    <row r="1594" spans="5:5">
-      <c r="E1594" s="41"/>
-    </row>
-    <row r="1606" spans="5:5">
-      <c r="E1606" s="41"/>
-    </row>
-    <row r="1610" spans="5:5">
-      <c r="E1610" s="41"/>
+      <c r="E1581" s="42"/>
+    </row>
+    <row r="1582" spans="5:5">
+      <c r="E1582" s="41"/>
+    </row>
+    <row r="1595" spans="5:5">
+      <c r="E1595" s="41"/>
+    </row>
+    <row r="1607" spans="5:5">
+      <c r="E1607" s="41"/>
     </row>
     <row r="1611" spans="5:5">
       <c r="E1611" s="41"/>
@@ -32457,8 +32478,8 @@
     <row r="1633" spans="5:7">
       <c r="E1633" s="41"/>
     </row>
-    <row r="1635" spans="5:7">
-      <c r="G1635" s="41"/>
+    <row r="1634" spans="5:7">
+      <c r="E1634" s="41"/>
     </row>
     <row r="1636" spans="5:7">
       <c r="G1636" s="41"/>
@@ -32497,52 +32518,52 @@
       <c r="G1647" s="41"/>
     </row>
     <row r="1648" spans="5:7">
-      <c r="E1648" s="41"/>
       <c r="G1648" s="41"/>
     </row>
-    <row r="1650" spans="5:5">
-      <c r="E1650" s="41"/>
-    </row>
-    <row r="1651" spans="5:5">
+    <row r="1649" spans="5:7">
+      <c r="E1649" s="41"/>
+      <c r="G1649" s="41"/>
+    </row>
+    <row r="1651" spans="5:7">
       <c r="E1651" s="41"/>
     </row>
-    <row r="1652" spans="5:5">
+    <row r="1652" spans="5:7">
       <c r="E1652" s="41"/>
     </row>
-    <row r="1653" spans="5:5">
+    <row r="1653" spans="5:7">
       <c r="E1653" s="41"/>
     </row>
-    <row r="1654" spans="5:5">
+    <row r="1654" spans="5:7">
       <c r="E1654" s="41"/>
     </row>
-    <row r="1655" spans="5:5">
+    <row r="1655" spans="5:7">
       <c r="E1655" s="41"/>
     </row>
-    <row r="1656" spans="5:5">
+    <row r="1656" spans="5:7">
       <c r="E1656" s="41"/>
     </row>
-    <row r="1657" spans="5:5">
+    <row r="1657" spans="5:7">
       <c r="E1657" s="41"/>
     </row>
-    <row r="1658" spans="5:5">
+    <row r="1658" spans="5:7">
       <c r="E1658" s="41"/>
     </row>
-    <row r="1659" spans="5:5">
+    <row r="1659" spans="5:7">
       <c r="E1659" s="41"/>
     </row>
-    <row r="1660" spans="5:5">
+    <row r="1660" spans="5:7">
       <c r="E1660" s="41"/>
     </row>
-    <row r="1661" spans="5:5">
+    <row r="1661" spans="5:7">
       <c r="E1661" s="41"/>
     </row>
-    <row r="1662" spans="5:5">
+    <row r="1662" spans="5:7">
       <c r="E1662" s="41"/>
     </row>
-    <row r="1663" spans="5:5">
+    <row r="1663" spans="5:7">
       <c r="E1663" s="41"/>
     </row>
-    <row r="1664" spans="5:5">
+    <row r="1664" spans="5:7">
       <c r="E1664" s="41"/>
     </row>
     <row r="1665" spans="5:5">
@@ -32644,9 +32665,8 @@
     <row r="1697" spans="5:7">
       <c r="E1697" s="41"/>
     </row>
-    <row r="1699" spans="5:7">
-      <c r="E1699" s="41"/>
-      <c r="G1699" s="41"/>
+    <row r="1698" spans="5:7">
+      <c r="E1698" s="41"/>
     </row>
     <row r="1700" spans="5:7">
       <c r="E1700" s="41"/>
@@ -32836,11 +32856,12 @@
       <c r="E1746" s="41"/>
       <c r="G1746" s="41"/>
     </row>
-    <row r="1756" spans="5:7">
-      <c r="E1756" s="41"/>
-    </row>
-    <row r="1767" spans="7:7">
-      <c r="G1767" s="41"/>
+    <row r="1747" spans="5:7">
+      <c r="E1747" s="41"/>
+      <c r="G1747" s="41"/>
+    </row>
+    <row r="1757" spans="5:7">
+      <c r="E1757" s="41"/>
     </row>
     <row r="1768" spans="7:7">
       <c r="G1768" s="41"/>
@@ -32897,15 +32918,14 @@
       <c r="G1785" s="41"/>
     </row>
     <row r="1786" spans="5:7">
-      <c r="E1786" s="41"/>
       <c r="G1786" s="41"/>
     </row>
-    <row r="1796" spans="5:7">
-      <c r="E1796" s="41"/>
-    </row>
-    <row r="1807" spans="5:7">
-      <c r="E1807" s="41"/>
-      <c r="G1807" s="41"/>
+    <row r="1787" spans="5:7">
+      <c r="E1787" s="41"/>
+      <c r="G1787" s="41"/>
+    </row>
+    <row r="1797" spans="5:7">
+      <c r="E1797" s="41"/>
     </row>
     <row r="1808" spans="5:7">
       <c r="E1808" s="41"/>
@@ -32967,9 +32987,9 @@
       <c r="E1822" s="41"/>
       <c r="G1822" s="41"/>
     </row>
-    <row r="1824" spans="5:7">
-      <c r="E1824" s="41"/>
-      <c r="G1824" s="41"/>
+    <row r="1823" spans="5:7">
+      <c r="E1823" s="41"/>
+      <c r="G1823" s="41"/>
     </row>
     <row r="1825" spans="5:7">
       <c r="E1825" s="41"/>
@@ -33023,11 +33043,12 @@
       <c r="E1837" s="41"/>
       <c r="G1837" s="41"/>
     </row>
-    <row r="1840" spans="5:7">
-      <c r="E1840" s="41"/>
-    </row>
-    <row r="1844" spans="5:5">
-      <c r="E1844" s="41"/>
+    <row r="1838" spans="5:7">
+      <c r="E1838" s="41"/>
+      <c r="G1838" s="41"/>
+    </row>
+    <row r="1841" spans="5:5">
+      <c r="E1841" s="41"/>
     </row>
     <row r="1845" spans="5:5">
       <c r="E1845" s="41"/>
@@ -33038,8 +33059,8 @@
     <row r="1847" spans="5:5">
       <c r="E1847" s="41"/>
     </row>
-    <row r="1850" spans="5:5">
-      <c r="E1850" s="41"/>
+    <row r="1848" spans="5:5">
+      <c r="E1848" s="41"/>
     </row>
     <row r="1851" spans="5:5">
       <c r="E1851" s="41"/>
@@ -33050,8 +33071,8 @@
     <row r="1853" spans="5:5">
       <c r="E1853" s="41"/>
     </row>
-    <row r="1856" spans="5:5">
-      <c r="E1856" s="41"/>
+    <row r="1854" spans="5:5">
+      <c r="E1854" s="41"/>
     </row>
     <row r="1857" spans="5:5">
       <c r="E1857" s="41"/>
@@ -33092,8 +33113,8 @@
     <row r="1869" spans="5:5">
       <c r="E1869" s="41"/>
     </row>
-    <row r="1871" spans="5:5">
-      <c r="E1871" s="41"/>
+    <row r="1870" spans="5:5">
+      <c r="E1870" s="41"/>
     </row>
     <row r="1872" spans="5:5">
       <c r="E1872" s="41"/>
@@ -33134,8 +33155,8 @@
     <row r="1884" spans="5:5">
       <c r="E1884" s="41"/>
     </row>
-    <row r="1886" spans="5:5">
-      <c r="E1886" s="41"/>
+    <row r="1885" spans="5:5">
+      <c r="E1885" s="41"/>
     </row>
     <row r="1887" spans="5:5">
       <c r="E1887" s="41"/>
@@ -33176,8 +33197,8 @@
     <row r="1899" spans="5:5">
       <c r="E1899" s="41"/>
     </row>
-    <row r="1901" spans="5:5">
-      <c r="E1901" s="41"/>
+    <row r="1900" spans="5:5">
+      <c r="E1900" s="41"/>
     </row>
     <row r="1902" spans="5:5">
       <c r="E1902" s="41"/>
@@ -33260,35 +33281,35 @@
     <row r="1928" spans="5:5">
       <c r="E1928" s="41"/>
     </row>
-    <row r="1930" spans="5:5">
-      <c r="E1930" s="41"/>
-    </row>
-    <row r="1943" spans="5:5">
-      <c r="E1943" s="41"/>
-    </row>
-    <row r="1957" spans="5:5">
-      <c r="E1957" s="41"/>
-    </row>
-    <row r="1959" spans="5:5">
-      <c r="E1959" s="41"/>
-    </row>
-    <row r="1972" spans="5:5">
-      <c r="E1972" s="41"/>
-    </row>
-    <row r="1986" spans="5:5">
-      <c r="E1986" s="41"/>
-    </row>
-    <row r="1988" spans="5:5">
-      <c r="E1988" s="41"/>
-    </row>
-    <row r="2001" spans="5:5">
-      <c r="E2001" s="41"/>
-    </row>
-    <row r="2015" spans="5:5">
-      <c r="E2015" s="41"/>
-    </row>
-    <row r="2018" spans="5:5">
-      <c r="E2018" s="41"/>
+    <row r="1929" spans="5:5">
+      <c r="E1929" s="41"/>
+    </row>
+    <row r="1931" spans="5:5">
+      <c r="E1931" s="41"/>
+    </row>
+    <row r="1944" spans="5:5">
+      <c r="E1944" s="41"/>
+    </row>
+    <row r="1958" spans="5:5">
+      <c r="E1958" s="41"/>
+    </row>
+    <row r="1960" spans="5:5">
+      <c r="E1960" s="41"/>
+    </row>
+    <row r="1973" spans="5:5">
+      <c r="E1973" s="41"/>
+    </row>
+    <row r="1987" spans="5:5">
+      <c r="E1987" s="41"/>
+    </row>
+    <row r="1989" spans="5:5">
+      <c r="E1989" s="41"/>
+    </row>
+    <row r="2002" spans="5:5">
+      <c r="E2002" s="41"/>
+    </row>
+    <row r="2016" spans="5:5">
+      <c r="E2016" s="41"/>
     </row>
     <row r="2019" spans="5:5">
       <c r="E2019" s="41"/>
@@ -33329,56 +33350,56 @@
     <row r="2031" spans="5:5">
       <c r="E2031" s="41"/>
     </row>
-    <row r="2040" spans="5:5">
-      <c r="E2040" s="41"/>
-    </row>
-    <row r="2057" spans="5:5">
-      <c r="E2057" s="41"/>
-    </row>
-    <row r="2074" spans="5:5">
-      <c r="E2074" s="41"/>
-    </row>
-    <row r="2091" spans="5:5">
-      <c r="E2091" s="41"/>
-    </row>
-    <row r="2108" spans="5:5">
-      <c r="E2108" s="41"/>
-    </row>
-    <row r="2125" spans="5:5">
-      <c r="E2125" s="41"/>
-    </row>
-    <row r="2142" spans="5:5">
-      <c r="E2142" s="41"/>
-    </row>
-    <row r="2159" spans="5:5">
-      <c r="E2159" s="41"/>
-    </row>
-    <row r="2176" spans="5:5">
-      <c r="E2176" s="41"/>
-    </row>
-    <row r="2193" spans="5:5">
-      <c r="E2193" s="41"/>
-    </row>
-    <row r="2210" spans="5:5">
-      <c r="E2210" s="41"/>
-    </row>
-    <row r="2227" spans="5:5">
-      <c r="E2227" s="41"/>
-    </row>
-    <row r="2244" spans="5:5">
-      <c r="E2244" s="41"/>
-    </row>
-    <row r="2261" spans="5:5">
-      <c r="E2261" s="41"/>
-    </row>
-    <row r="2278" spans="5:5">
-      <c r="E2278" s="41"/>
-    </row>
-    <row r="2295" spans="5:5">
-      <c r="E2295" s="41"/>
-    </row>
-    <row r="2305" spans="5:7">
-      <c r="G2305" s="41"/>
+    <row r="2032" spans="5:5">
+      <c r="E2032" s="41"/>
+    </row>
+    <row r="2041" spans="5:5">
+      <c r="E2041" s="41"/>
+    </row>
+    <row r="2058" spans="5:5">
+      <c r="E2058" s="41"/>
+    </row>
+    <row r="2075" spans="5:5">
+      <c r="E2075" s="41"/>
+    </row>
+    <row r="2092" spans="5:5">
+      <c r="E2092" s="41"/>
+    </row>
+    <row r="2109" spans="5:5">
+      <c r="E2109" s="41"/>
+    </row>
+    <row r="2126" spans="5:5">
+      <c r="E2126" s="41"/>
+    </row>
+    <row r="2143" spans="5:5">
+      <c r="E2143" s="41"/>
+    </row>
+    <row r="2160" spans="5:5">
+      <c r="E2160" s="41"/>
+    </row>
+    <row r="2177" spans="5:5">
+      <c r="E2177" s="41"/>
+    </row>
+    <row r="2194" spans="5:5">
+      <c r="E2194" s="41"/>
+    </row>
+    <row r="2211" spans="5:5">
+      <c r="E2211" s="41"/>
+    </row>
+    <row r="2228" spans="5:5">
+      <c r="E2228" s="41"/>
+    </row>
+    <row r="2245" spans="5:5">
+      <c r="E2245" s="41"/>
+    </row>
+    <row r="2262" spans="5:5">
+      <c r="E2262" s="41"/>
+    </row>
+    <row r="2279" spans="5:5">
+      <c r="E2279" s="41"/>
+    </row>
+    <row r="2296" spans="5:5">
+      <c r="E2296" s="41"/>
     </row>
     <row r="2306" spans="5:7">
       <c r="G2306" s="41"/>
@@ -33417,29 +33438,29 @@
       <c r="G2317" s="41"/>
     </row>
     <row r="2318" spans="5:7">
-      <c r="E2318" s="41"/>
       <c r="G2318" s="41"/>
     </row>
-    <row r="2339" spans="5:5">
-      <c r="E2339" s="41"/>
-    </row>
-    <row r="2354" spans="5:5">
-      <c r="E2354" s="41"/>
-    </row>
-    <row r="2369" spans="5:5">
-      <c r="E2369" s="41"/>
-    </row>
-    <row r="2384" spans="5:5">
-      <c r="E2384" s="41"/>
-    </row>
-    <row r="2400" spans="5:5">
-      <c r="E2400" s="41"/>
-    </row>
-    <row r="2408" spans="5:5">
-      <c r="E2408" s="41"/>
-    </row>
-    <row r="2417" spans="7:7">
-      <c r="G2417" s="41"/>
+    <row r="2319" spans="5:7">
+      <c r="E2319" s="41"/>
+      <c r="G2319" s="41"/>
+    </row>
+    <row r="2340" spans="5:5">
+      <c r="E2340" s="41"/>
+    </row>
+    <row r="2355" spans="5:5">
+      <c r="E2355" s="41"/>
+    </row>
+    <row r="2370" spans="5:5">
+      <c r="E2370" s="41"/>
+    </row>
+    <row r="2385" spans="5:5">
+      <c r="E2385" s="41"/>
+    </row>
+    <row r="2401" spans="5:5">
+      <c r="E2401" s="41"/>
+    </row>
+    <row r="2409" spans="5:5">
+      <c r="E2409" s="41"/>
     </row>
     <row r="2418" spans="7:7">
       <c r="G2418" s="41"/>
@@ -33496,14 +33517,17 @@
       <c r="G2435" s="41"/>
     </row>
     <row r="2436" spans="5:7">
-      <c r="E2436" s="41"/>
       <c r="G2436" s="41"/>
     </row>
-    <row r="2444" spans="5:7">
-      <c r="E2444" s="41"/>
-    </row>
-    <row r="2451" spans="5:5">
-      <c r="E2451" s="41"/>
+    <row r="2437" spans="5:7">
+      <c r="E2437" s="41"/>
+      <c r="G2437" s="41"/>
+    </row>
+    <row r="2445" spans="5:7">
+      <c r="E2445" s="41"/>
+    </row>
+    <row r="2452" spans="5:5">
+      <c r="E2452" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA2EB4-08E1-48D2-9F77-C08C2742B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675DC92D-0F78-4117-909B-F70E02E759E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7145" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7192" uniqueCount="1847">
   <si>
     <t>Name</t>
   </si>
@@ -5603,6 +5603,69 @@
     <t>This is Φ2 clock OUTPUT (CPU generates this signal)</t>
   </si>
   <si>
+    <t>Commodore shared files/Component images/C64 RF modulator.png</t>
+  </si>
+  <si>
+    <t>You need to measure this from the backside of motherboard</t>
+  </si>
+  <si>
+    <t>+B</t>
+  </si>
+  <si>
+    <t>Analog?</t>
+  </si>
+  <si>
+    <t>Note 2V/DIV</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (INPUT)</t>
+  </si>
+  <si>
+    <t>Signal originates from VIC-II</t>
+  </si>
+  <si>
+    <t>COLOR (INPUT)</t>
+  </si>
+  <si>
+    <t>AUDIO (INPUT)</t>
+  </si>
+  <si>
+    <t>COMP. (OUTPUT)</t>
+  </si>
+  <si>
+    <t>SYNC+LUM (OUTPUT)</t>
+  </si>
+  <si>
+    <t>COLOR (OUTPUT)</t>
+  </si>
+  <si>
+    <t>INTER CARRIER SELECTOR</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_1_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_2_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_3_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_4_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_5_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_6_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_7_PAL.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_8_PAL.png</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5615,7 +5678,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-20</t>
+      <t>2025-December-21</t>
     </r>
   </si>
 </sst>
@@ -5746,7 +5809,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5906,6 +5969,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6256,7 +6322,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1825</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6298,12 +6364,12 @@
         <v>252</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="28.8">
       <c r="A9" s="21" t="s">
@@ -9371,7 +9437,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2452"/>
+  <dimension ref="A1:I2461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
@@ -31333,7 +31399,7 @@
     </row>
     <row r="1121" spans="1:7">
       <c r="A1121" s="14" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="B1121" s="14"/>
       <c r="C1121" s="35"/>
@@ -31341,211 +31407,252 @@
         <v>153</v>
       </c>
       <c r="F1121" s="14" t="s">
-        <v>1817</v>
+        <v>1825</v>
+      </c>
+      <c r="G1121" s="1" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="1122" spans="1:7">
       <c r="A1122" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1122" s="14"/>
-      <c r="C1122" s="35"/>
-      <c r="D1122" s="14" t="s">
-        <v>1816</v>
+        <v>247</v>
+      </c>
+      <c r="B1122" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1122" s="35">
+        <v>1</v>
+      </c>
+      <c r="D1122" s="58" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E1122" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1122" s="14" t="s">
-        <v>1815</v>
+        <v>1838</v>
+      </c>
+      <c r="G1122" s="1" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
       <c r="A1123" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1123" s="14"/>
-      <c r="C1123" s="35"/>
-      <c r="D1123" s="14" t="s">
-        <v>153</v>
+        <v>247</v>
+      </c>
+      <c r="B1123" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1123" s="35">
+        <v>2</v>
+      </c>
+      <c r="D1123" s="58" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E1123" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1123" s="14" t="s">
-        <v>324</v>
+        <v>1839</v>
+      </c>
+      <c r="G1123" s="1" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="1124" spans="1:7">
       <c r="A1124" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1124" s="14"/>
-      <c r="C1124" s="35"/>
-      <c r="D1124" s="14" t="s">
-        <v>153</v>
+        <v>247</v>
+      </c>
+      <c r="B1124" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1124" s="35">
+        <v>3</v>
+      </c>
+      <c r="D1124" s="58" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E1124" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1124" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:7" ht="72">
+        <v>1840</v>
+      </c>
+      <c r="G1124" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7">
       <c r="A1125" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1125" s="14"/>
-      <c r="C1125" s="35"/>
-      <c r="D1125" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1125" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:7" ht="28.8">
-      <c r="A1126" s="47" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B1126" s="24"/>
-      <c r="C1126" s="31"/>
-      <c r="D1126" s="1" t="s">
-        <v>153</v>
+        <v>247</v>
+      </c>
+      <c r="B1125" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1125" s="35">
+        <v>4</v>
+      </c>
+      <c r="D1125" s="58" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E1125" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1125" s="14" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7">
+      <c r="A1126" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1126" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1126" s="35">
+        <v>5</v>
+      </c>
+      <c r="D1126" s="58" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E1126" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1126" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1126" s="41" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:7" ht="28.8">
-      <c r="A1127" s="47" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B1127"/>
-      <c r="C1127" s="4"/>
-      <c r="D1127" s="1" t="s">
-        <v>153</v>
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7">
+      <c r="A1127" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1127" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1127" s="35">
+        <v>6</v>
+      </c>
+      <c r="D1127" s="58" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E1127" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1127" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1127" s="41" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:7" ht="28.8">
-      <c r="A1128" s="47" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B1128" s="25"/>
-      <c r="C1128" s="36"/>
-      <c r="D1128" s="1" t="s">
-        <v>153</v>
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7">
+      <c r="A1128" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1128" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1128" s="35">
+        <v>7</v>
+      </c>
+      <c r="D1128" s="58" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E1128" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1128" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1128" s="41" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:7" ht="28.8">
-      <c r="A1129" s="47" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B1129"/>
-      <c r="C1129" s="4"/>
-      <c r="D1129" s="1" t="s">
-        <v>153</v>
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7">
+      <c r="A1129" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1129" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1129" s="35">
+        <v>8</v>
+      </c>
+      <c r="D1129" s="58" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E1129" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1129" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1129" s="41" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:7" ht="28.8">
-      <c r="A1130" s="47" t="s">
-        <v>1709</v>
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7">
+      <c r="A1130" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="B1130" s="14"/>
       <c r="C1130" s="35"/>
-      <c r="D1130" s="1" t="s">
+      <c r="D1130" s="14" t="s">
         <v>153</v>
       </c>
       <c r="F1130" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1130" s="41" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:7" ht="28.8">
-      <c r="A1131" s="47" t="s">
-        <v>1702</v>
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7">
+      <c r="A1131" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="B1131" s="14"/>
       <c r="C1131" s="35"/>
-      <c r="D1131" s="1" t="s">
+      <c r="D1131" s="14" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F1131" s="14" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7">
+      <c r="A1132" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1132" s="14"/>
+      <c r="C1132" s="35"/>
+      <c r="D1132" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F1131" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1131" s="41" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:7" ht="28.8">
-      <c r="A1132" s="47" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B1132" s="26"/>
-      <c r="C1132" s="37"/>
-      <c r="D1132" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F1132" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1132" s="41" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:7" ht="28.8">
-      <c r="A1133" s="47" t="s">
-        <v>1747</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7">
+      <c r="A1133" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="B1133" s="14"/>
       <c r="C1133" s="35"/>
-      <c r="D1133" s="1" t="s">
+      <c r="D1133" s="14" t="s">
         <v>153</v>
       </c>
       <c r="F1133" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1133" s="41" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:7" ht="28.8">
-      <c r="A1134" s="47" t="s">
-        <v>1676</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" ht="72">
+      <c r="A1134" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B1134" s="14"/>
       <c r="C1134" s="35"/>
       <c r="D1134" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F1134" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1134" s="41" t="s">
-        <v>1769</v>
+      <c r="G1134" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="1135" spans="1:7" ht="28.8">
       <c r="A1135" s="47" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B1135" s="14"/>
-      <c r="C1135" s="35"/>
+        <v>1727</v>
+      </c>
+      <c r="B1135" s="24"/>
+      <c r="C1135" s="31"/>
       <c r="D1135" s="1" t="s">
         <v>153</v>
       </c>
@@ -31558,10 +31665,10 @@
     </row>
     <row r="1136" spans="1:7" ht="28.8">
       <c r="A1136" s="47" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B1136" s="26"/>
-      <c r="C1136" s="37"/>
+        <v>1728</v>
+      </c>
+      <c r="B1136"/>
+      <c r="C1136" s="4"/>
       <c r="D1136" s="1" t="s">
         <v>153</v>
       </c>
@@ -31574,10 +31681,10 @@
     </row>
     <row r="1137" spans="1:7" ht="28.8">
       <c r="A1137" s="47" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1137" s="14"/>
-      <c r="C1137" s="35"/>
+        <v>1694</v>
+      </c>
+      <c r="B1137" s="25"/>
+      <c r="C1137" s="36"/>
       <c r="D1137" s="1" t="s">
         <v>153</v>
       </c>
@@ -31590,10 +31697,10 @@
     </row>
     <row r="1138" spans="1:7" ht="28.8">
       <c r="A1138" s="47" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B1138" s="14"/>
-      <c r="C1138" s="35"/>
+        <v>1729</v>
+      </c>
+      <c r="B1138"/>
+      <c r="C1138" s="4"/>
       <c r="D1138" s="1" t="s">
         <v>153</v>
       </c>
@@ -31606,7 +31713,7 @@
     </row>
     <row r="1139" spans="1:7" ht="28.8">
       <c r="A1139" s="47" t="s">
-        <v>1695</v>
+        <v>1709</v>
       </c>
       <c r="B1139" s="14"/>
       <c r="C1139" s="35"/>
@@ -31622,7 +31729,7 @@
     </row>
     <row r="1140" spans="1:7" ht="28.8">
       <c r="A1140" s="47" t="s">
-        <v>1739</v>
+        <v>1702</v>
       </c>
       <c r="B1140" s="14"/>
       <c r="C1140" s="35"/>
@@ -31638,10 +31745,10 @@
     </row>
     <row r="1141" spans="1:7" ht="28.8">
       <c r="A1141" s="47" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B1141" s="14"/>
-      <c r="C1141" s="35"/>
+        <v>1701</v>
+      </c>
+      <c r="B1141" s="26"/>
+      <c r="C1141" s="37"/>
       <c r="D1141" s="1" t="s">
         <v>153</v>
       </c>
@@ -31654,7 +31761,7 @@
     </row>
     <row r="1142" spans="1:7" ht="28.8">
       <c r="A1142" s="47" t="s">
-        <v>1682</v>
+        <v>1747</v>
       </c>
       <c r="B1142" s="14"/>
       <c r="C1142" s="35"/>
@@ -31670,7 +31777,7 @@
     </row>
     <row r="1143" spans="1:7" ht="28.8">
       <c r="A1143" s="47" t="s">
-        <v>1713</v>
+        <v>1676</v>
       </c>
       <c r="B1143" s="14"/>
       <c r="C1143" s="35"/>
@@ -31686,7 +31793,7 @@
     </row>
     <row r="1144" spans="1:7" ht="28.8">
       <c r="A1144" s="47" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B1144" s="14"/>
       <c r="C1144" s="35"/>
@@ -31702,10 +31809,10 @@
     </row>
     <row r="1145" spans="1:7" ht="28.8">
       <c r="A1145" s="47" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B1145" s="14"/>
-      <c r="C1145" s="35"/>
+        <v>1748</v>
+      </c>
+      <c r="B1145" s="26"/>
+      <c r="C1145" s="37"/>
       <c r="D1145" s="1" t="s">
         <v>153</v>
       </c>
@@ -31718,7 +31825,7 @@
     </row>
     <row r="1146" spans="1:7" ht="28.8">
       <c r="A1146" s="47" t="s">
-        <v>1749</v>
+        <v>1707</v>
       </c>
       <c r="B1146" s="14"/>
       <c r="C1146" s="35"/>
@@ -31734,7 +31841,7 @@
     </row>
     <row r="1147" spans="1:7" ht="28.8">
       <c r="A1147" s="47" t="s">
-        <v>1685</v>
+        <v>1710</v>
       </c>
       <c r="B1147" s="14"/>
       <c r="C1147" s="35"/>
@@ -31750,7 +31857,7 @@
     </row>
     <row r="1148" spans="1:7" ht="28.8">
       <c r="A1148" s="47" t="s">
-        <v>1733</v>
+        <v>1695</v>
       </c>
       <c r="B1148" s="14"/>
       <c r="C1148" s="35"/>
@@ -31766,7 +31873,7 @@
     </row>
     <row r="1149" spans="1:7" ht="28.8">
       <c r="A1149" s="47" t="s">
-        <v>1711</v>
+        <v>1739</v>
       </c>
       <c r="B1149" s="14"/>
       <c r="C1149" s="35"/>
@@ -31780,97 +31887,196 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="1150" spans="1:7">
-      <c r="A1150" s="14"/>
+    <row r="1150" spans="1:7" ht="28.8">
+      <c r="A1150" s="47" t="s">
+        <v>1706</v>
+      </c>
       <c r="B1150" s="14"/>
       <c r="C1150" s="35"/>
-    </row>
-    <row r="1151" spans="1:7">
-      <c r="A1151" s="14"/>
+      <c r="D1150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1150" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1150" s="41" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" ht="28.8">
+      <c r="A1151" s="47" t="s">
+        <v>1682</v>
+      </c>
       <c r="B1151" s="14"/>
       <c r="C1151" s="35"/>
-    </row>
-    <row r="1152" spans="1:7">
-      <c r="A1152" s="14"/>
+      <c r="D1151" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1151" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1151" s="41" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" ht="28.8">
+      <c r="A1152" s="47" t="s">
+        <v>1713</v>
+      </c>
       <c r="B1152" s="14"/>
       <c r="C1152" s="35"/>
-    </row>
-    <row r="1153" spans="1:3">
-      <c r="A1153" s="14"/>
+      <c r="D1152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1152" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1152" s="41" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7" ht="28.8">
+      <c r="A1153" s="47" t="s">
+        <v>1712</v>
+      </c>
       <c r="B1153" s="14"/>
       <c r="C1153" s="35"/>
-    </row>
-    <row r="1154" spans="1:3">
-      <c r="A1154" s="14"/>
+      <c r="D1153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1153" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1153" s="41" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7" ht="28.8">
+      <c r="A1154" s="47" t="s">
+        <v>1714</v>
+      </c>
       <c r="B1154" s="14"/>
       <c r="C1154" s="35"/>
-    </row>
-    <row r="1155" spans="1:3">
-      <c r="A1155" s="14"/>
+      <c r="D1154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1154" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1154" s="41" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7" ht="28.8">
+      <c r="A1155" s="47" t="s">
+        <v>1749</v>
+      </c>
       <c r="B1155" s="14"/>
       <c r="C1155" s="35"/>
-    </row>
-    <row r="1156" spans="1:3">
-      <c r="A1156" s="14"/>
+      <c r="D1155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1155" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1155" s="41" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7" ht="28.8">
+      <c r="A1156" s="47" t="s">
+        <v>1685</v>
+      </c>
       <c r="B1156" s="14"/>
       <c r="C1156" s="35"/>
-    </row>
-    <row r="1157" spans="1:3">
-      <c r="A1157" s="14"/>
+      <c r="D1156" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1156" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1156" s="41" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:7" ht="28.8">
+      <c r="A1157" s="47" t="s">
+        <v>1733</v>
+      </c>
       <c r="B1157" s="14"/>
       <c r="C1157" s="35"/>
-    </row>
-    <row r="1158" spans="1:3">
-      <c r="A1158" s="14"/>
+      <c r="D1157" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1157" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1157" s="41" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7" ht="28.8">
+      <c r="A1158" s="47" t="s">
+        <v>1711</v>
+      </c>
       <c r="B1158" s="14"/>
       <c r="C1158" s="35"/>
-    </row>
-    <row r="1159" spans="1:3">
+      <c r="D1158" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1158" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1158" s="41" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7">
       <c r="A1159" s="14"/>
       <c r="B1159" s="14"/>
       <c r="C1159" s="35"/>
     </row>
-    <row r="1160" spans="1:3">
+    <row r="1160" spans="1:7">
       <c r="A1160" s="14"/>
       <c r="B1160" s="14"/>
       <c r="C1160" s="35"/>
     </row>
-    <row r="1161" spans="1:3">
+    <row r="1161" spans="1:7">
       <c r="A1161" s="14"/>
       <c r="B1161" s="14"/>
       <c r="C1161" s="35"/>
     </row>
-    <row r="1162" spans="1:3">
+    <row r="1162" spans="1:7">
       <c r="A1162" s="14"/>
       <c r="B1162" s="14"/>
       <c r="C1162" s="35"/>
     </row>
-    <row r="1163" spans="1:3">
+    <row r="1163" spans="1:7">
       <c r="A1163" s="14"/>
       <c r="B1163" s="14"/>
       <c r="C1163" s="35"/>
     </row>
-    <row r="1164" spans="1:3">
+    <row r="1164" spans="1:7">
       <c r="A1164" s="14"/>
       <c r="B1164" s="14"/>
       <c r="C1164" s="35"/>
     </row>
-    <row r="1165" spans="1:3">
+    <row r="1165" spans="1:7">
       <c r="A1165" s="14"/>
       <c r="B1165" s="14"/>
       <c r="C1165" s="35"/>
     </row>
-    <row r="1166" spans="1:3">
+    <row r="1166" spans="1:7">
       <c r="A1166" s="14"/>
       <c r="B1166" s="14"/>
       <c r="C1166" s="35"/>
     </row>
-    <row r="1167" spans="1:3">
+    <row r="1167" spans="1:7">
       <c r="A1167" s="14"/>
       <c r="B1167" s="14"/>
       <c r="C1167" s="35"/>
     </row>
-    <row r="1168" spans="1:3">
+    <row r="1168" spans="1:7">
       <c r="A1168" s="14"/>
       <c r="B1168" s="14"/>
       <c r="C1168" s="35"/>
@@ -31910,75 +32116,84 @@
       <c r="B1175" s="14"/>
       <c r="C1175" s="35"/>
     </row>
-    <row r="1285" spans="5:5">
-      <c r="E1285" s="41"/>
-    </row>
-    <row r="1286" spans="5:5">
-      <c r="E1286" s="41"/>
-    </row>
-    <row r="1287" spans="5:5">
-      <c r="E1287" s="41"/>
-    </row>
-    <row r="1288" spans="5:5">
-      <c r="E1288" s="41"/>
-    </row>
-    <row r="1289" spans="5:5">
-      <c r="E1289" s="41"/>
-    </row>
-    <row r="1290" spans="5:5">
-      <c r="E1290" s="41"/>
-    </row>
-    <row r="1291" spans="5:5">
-      <c r="E1291" s="41"/>
-    </row>
-    <row r="1301" spans="5:7">
-      <c r="E1301" s="41"/>
-    </row>
-    <row r="1303" spans="5:7">
-      <c r="E1303" s="41"/>
-      <c r="G1303" s="41"/>
-    </row>
-    <row r="1304" spans="5:7">
-      <c r="G1304" s="41"/>
-    </row>
-    <row r="1305" spans="5:7">
-      <c r="E1305" s="42"/>
-      <c r="G1305" s="41"/>
-    </row>
-    <row r="1306" spans="5:7">
-      <c r="E1306" s="41"/>
-      <c r="G1306" s="41"/>
-    </row>
-    <row r="1307" spans="5:7">
-      <c r="E1307" s="41"/>
-      <c r="G1307" s="41"/>
-    </row>
-    <row r="1308" spans="5:7">
-      <c r="E1308" s="41"/>
-      <c r="G1308" s="41"/>
-    </row>
-    <row r="1309" spans="5:7">
-      <c r="E1309" s="41"/>
-      <c r="G1309" s="41"/>
+    <row r="1176" spans="1:3">
+      <c r="A1176" s="14"/>
+      <c r="B1176" s="14"/>
+      <c r="C1176" s="35"/>
+    </row>
+    <row r="1177" spans="1:3">
+      <c r="A1177" s="14"/>
+      <c r="B1177" s="14"/>
+      <c r="C1177" s="35"/>
+    </row>
+    <row r="1178" spans="1:3">
+      <c r="A1178" s="14"/>
+      <c r="B1178" s="14"/>
+      <c r="C1178" s="35"/>
+    </row>
+    <row r="1179" spans="1:3">
+      <c r="A1179" s="14"/>
+      <c r="B1179" s="14"/>
+      <c r="C1179" s="35"/>
+    </row>
+    <row r="1180" spans="1:3">
+      <c r="A1180" s="14"/>
+      <c r="B1180" s="14"/>
+      <c r="C1180" s="35"/>
+    </row>
+    <row r="1181" spans="1:3">
+      <c r="A1181" s="14"/>
+      <c r="B1181" s="14"/>
+      <c r="C1181" s="35"/>
+    </row>
+    <row r="1182" spans="1:3">
+      <c r="A1182" s="14"/>
+      <c r="B1182" s="14"/>
+      <c r="C1182" s="35"/>
+    </row>
+    <row r="1183" spans="1:3">
+      <c r="A1183" s="14"/>
+      <c r="B1183" s="14"/>
+      <c r="C1183" s="35"/>
+    </row>
+    <row r="1184" spans="1:3">
+      <c r="A1184" s="14"/>
+      <c r="B1184" s="14"/>
+      <c r="C1184" s="35"/>
+    </row>
+    <row r="1294" spans="5:5">
+      <c r="E1294" s="41"/>
+    </row>
+    <row r="1295" spans="5:5">
+      <c r="E1295" s="41"/>
+    </row>
+    <row r="1296" spans="5:5">
+      <c r="E1296" s="41"/>
+    </row>
+    <row r="1297" spans="5:7">
+      <c r="E1297" s="41"/>
+    </row>
+    <row r="1298" spans="5:7">
+      <c r="E1298" s="41"/>
+    </row>
+    <row r="1299" spans="5:7">
+      <c r="E1299" s="41"/>
+    </row>
+    <row r="1300" spans="5:7">
+      <c r="E1300" s="41"/>
     </row>
     <row r="1310" spans="5:7">
       <c r="E1310" s="41"/>
-      <c r="G1310" s="41"/>
-    </row>
-    <row r="1311" spans="5:7">
-      <c r="E1311" s="43"/>
-      <c r="G1311" s="41"/>
     </row>
     <row r="1312" spans="5:7">
       <c r="E1312" s="41"/>
       <c r="G1312" s="41"/>
     </row>
     <row r="1313" spans="5:7">
-      <c r="E1313" s="41"/>
       <c r="G1313" s="41"/>
     </row>
     <row r="1314" spans="5:7">
-      <c r="E1314" s="41"/>
+      <c r="E1314" s="42"/>
       <c r="G1314" s="41"/>
     </row>
     <row r="1315" spans="5:7">
@@ -32002,7 +32217,7 @@
       <c r="G1319" s="41"/>
     </row>
     <row r="1320" spans="5:7">
-      <c r="E1320" s="41"/>
+      <c r="E1320" s="43"/>
       <c r="G1320" s="41"/>
     </row>
     <row r="1321" spans="5:7">
@@ -32125,37 +32340,46 @@
       <c r="E1350" s="41"/>
       <c r="G1350" s="41"/>
     </row>
+    <row r="1351" spans="5:7">
+      <c r="E1351" s="41"/>
+      <c r="G1351" s="41"/>
+    </row>
+    <row r="1352" spans="5:7">
+      <c r="E1352" s="41"/>
+      <c r="G1352" s="41"/>
+    </row>
+    <row r="1353" spans="5:7">
+      <c r="E1353" s="41"/>
+      <c r="G1353" s="41"/>
+    </row>
+    <row r="1354" spans="5:7">
+      <c r="E1354" s="41"/>
+      <c r="G1354" s="41"/>
+    </row>
+    <row r="1355" spans="5:7">
+      <c r="E1355" s="41"/>
+      <c r="G1355" s="41"/>
+    </row>
+    <row r="1356" spans="5:7">
+      <c r="E1356" s="41"/>
+      <c r="G1356" s="41"/>
+    </row>
+    <row r="1357" spans="5:7">
+      <c r="E1357" s="41"/>
+      <c r="G1357" s="41"/>
+    </row>
     <row r="1358" spans="5:7">
       <c r="E1358" s="41"/>
-    </row>
-    <row r="1367" spans="7:7">
-      <c r="G1367" s="41"/>
-    </row>
-    <row r="1368" spans="7:7">
-      <c r="G1368" s="41"/>
-    </row>
-    <row r="1369" spans="7:7">
-      <c r="G1369" s="41"/>
-    </row>
-    <row r="1370" spans="7:7">
-      <c r="G1370" s="41"/>
-    </row>
-    <row r="1371" spans="7:7">
-      <c r="G1371" s="41"/>
-    </row>
-    <row r="1372" spans="7:7">
-      <c r="G1372" s="41"/>
-    </row>
-    <row r="1373" spans="7:7">
-      <c r="G1373" s="41"/>
-    </row>
-    <row r="1374" spans="7:7">
-      <c r="G1374" s="41"/>
-    </row>
-    <row r="1375" spans="7:7">
-      <c r="G1375" s="41"/>
-    </row>
-    <row r="1376" spans="7:7">
+      <c r="G1358" s="41"/>
+    </row>
+    <row r="1359" spans="5:7">
+      <c r="E1359" s="41"/>
+      <c r="G1359" s="41"/>
+    </row>
+    <row r="1367" spans="5:7">
+      <c r="E1367" s="41"/>
+    </row>
+    <row r="1376" spans="5:7">
       <c r="G1376" s="41"/>
     </row>
     <row r="1377" spans="7:7">
@@ -32170,33 +32394,48 @@
     <row r="1380" spans="7:7">
       <c r="G1380" s="41"/>
     </row>
-    <row r="1410" spans="5:5">
-      <c r="E1410" s="41"/>
-    </row>
-    <row r="1429" spans="5:5">
-      <c r="E1429" s="41"/>
-    </row>
-    <row r="1430" spans="5:5">
-      <c r="E1430" s="41"/>
-    </row>
-    <row r="1433" spans="5:5">
-      <c r="E1433" s="41"/>
-    </row>
-    <row r="1434" spans="5:5">
-      <c r="E1434" s="41"/>
-    </row>
-    <row r="1435" spans="5:5">
-      <c r="E1435" s="41"/>
-    </row>
-    <row r="1436" spans="5:5">
-      <c r="E1436" s="41"/>
-    </row>
-    <row r="1437" spans="5:5">
-      <c r="E1437" s="41"/>
+    <row r="1381" spans="7:7">
+      <c r="G1381" s="41"/>
+    </row>
+    <row r="1382" spans="7:7">
+      <c r="G1382" s="41"/>
+    </row>
+    <row r="1383" spans="7:7">
+      <c r="G1383" s="41"/>
+    </row>
+    <row r="1384" spans="7:7">
+      <c r="G1384" s="41"/>
+    </row>
+    <row r="1385" spans="7:7">
+      <c r="G1385" s="41"/>
+    </row>
+    <row r="1386" spans="7:7">
+      <c r="G1386" s="41"/>
+    </row>
+    <row r="1387" spans="7:7">
+      <c r="G1387" s="41"/>
+    </row>
+    <row r="1388" spans="7:7">
+      <c r="G1388" s="41"/>
+    </row>
+    <row r="1389" spans="7:7">
+      <c r="G1389" s="41"/>
+    </row>
+    <row r="1419" spans="5:5">
+      <c r="E1419" s="41"/>
     </row>
     <row r="1438" spans="5:5">
       <c r="E1438" s="41"/>
     </row>
+    <row r="1439" spans="5:5">
+      <c r="E1439" s="41"/>
+    </row>
+    <row r="1442" spans="5:5">
+      <c r="E1442" s="41"/>
+    </row>
+    <row r="1443" spans="5:5">
+      <c r="E1443" s="41"/>
+    </row>
     <row r="1444" spans="5:5">
       <c r="E1444" s="41"/>
     </row>
@@ -32209,18 +32448,6 @@
     <row r="1447" spans="5:5">
       <c r="E1447" s="41"/>
     </row>
-    <row r="1448" spans="5:5">
-      <c r="E1448" s="41"/>
-    </row>
-    <row r="1449" spans="5:5">
-      <c r="E1449" s="41"/>
-    </row>
-    <row r="1450" spans="5:5">
-      <c r="E1450" s="41"/>
-    </row>
-    <row r="1452" spans="5:5">
-      <c r="E1452" s="41"/>
-    </row>
     <row r="1453" spans="5:5">
       <c r="E1453" s="41"/>
     </row>
@@ -32230,47 +32457,44 @@
     <row r="1455" spans="5:5">
       <c r="E1455" s="41"/>
     </row>
+    <row r="1456" spans="5:5">
+      <c r="E1456" s="41"/>
+    </row>
+    <row r="1457" spans="5:5">
+      <c r="E1457" s="41"/>
+    </row>
+    <row r="1458" spans="5:5">
+      <c r="E1458" s="41"/>
+    </row>
     <row r="1459" spans="5:5">
       <c r="E1459" s="41"/>
     </row>
-    <row r="1466" spans="5:5">
-      <c r="E1466" s="41"/>
-    </row>
-    <row r="1470" spans="5:5">
-      <c r="E1470" s="41"/>
-    </row>
-    <row r="1481" spans="5:5">
-      <c r="E1481" s="41"/>
-    </row>
-    <row r="1491" spans="5:7">
-      <c r="E1491" s="41"/>
-    </row>
-    <row r="1493" spans="5:7">
-      <c r="G1493" s="41"/>
-    </row>
-    <row r="1494" spans="5:7">
-      <c r="G1494" s="41"/>
-    </row>
-    <row r="1495" spans="5:7">
-      <c r="G1495" s="41"/>
-    </row>
-    <row r="1496" spans="5:7">
-      <c r="G1496" s="41"/>
-    </row>
-    <row r="1497" spans="5:7">
-      <c r="G1497" s="41"/>
-    </row>
-    <row r="1498" spans="5:7">
-      <c r="G1498" s="41"/>
-    </row>
-    <row r="1499" spans="5:7">
-      <c r="G1499" s="41"/>
+    <row r="1461" spans="5:5">
+      <c r="E1461" s="41"/>
+    </row>
+    <row r="1462" spans="5:5">
+      <c r="E1462" s="41"/>
+    </row>
+    <row r="1463" spans="5:5">
+      <c r="E1463" s="41"/>
+    </row>
+    <row r="1464" spans="5:5">
+      <c r="E1464" s="41"/>
+    </row>
+    <row r="1468" spans="5:5">
+      <c r="E1468" s="41"/>
+    </row>
+    <row r="1475" spans="5:5">
+      <c r="E1475" s="41"/>
+    </row>
+    <row r="1479" spans="5:5">
+      <c r="E1479" s="41"/>
+    </row>
+    <row r="1490" spans="5:7">
+      <c r="E1490" s="41"/>
     </row>
     <row r="1500" spans="5:7">
-      <c r="G1500" s="41"/>
-    </row>
-    <row r="1501" spans="5:7">
-      <c r="G1501" s="41"/>
+      <c r="E1500" s="41"/>
     </row>
     <row r="1502" spans="5:7">
       <c r="G1502" s="41"/>
@@ -32281,59 +32505,58 @@
     <row r="1504" spans="5:7">
       <c r="G1504" s="41"/>
     </row>
-    <row r="1505" spans="5:7">
+    <row r="1505" spans="7:7">
       <c r="G1505" s="41"/>
     </row>
-    <row r="1506" spans="5:7">
+    <row r="1506" spans="7:7">
       <c r="G1506" s="41"/>
     </row>
-    <row r="1507" spans="5:7">
+    <row r="1507" spans="7:7">
       <c r="G1507" s="41"/>
     </row>
-    <row r="1508" spans="5:7">
+    <row r="1508" spans="7:7">
       <c r="G1508" s="41"/>
     </row>
-    <row r="1509" spans="5:7">
+    <row r="1509" spans="7:7">
       <c r="G1509" s="41"/>
     </row>
-    <row r="1510" spans="5:7">
+    <row r="1510" spans="7:7">
       <c r="G1510" s="41"/>
     </row>
-    <row r="1511" spans="5:7">
+    <row r="1511" spans="7:7">
       <c r="G1511" s="41"/>
     </row>
-    <row r="1512" spans="5:7">
-      <c r="E1512" s="41"/>
+    <row r="1512" spans="7:7">
       <c r="G1512" s="41"/>
     </row>
-    <row r="1514" spans="5:7">
+    <row r="1513" spans="7:7">
+      <c r="G1513" s="41"/>
+    </row>
+    <row r="1514" spans="7:7">
       <c r="G1514" s="41"/>
     </row>
-    <row r="1515" spans="5:7">
+    <row r="1515" spans="7:7">
       <c r="G1515" s="41"/>
     </row>
-    <row r="1516" spans="5:7">
+    <row r="1516" spans="7:7">
       <c r="G1516" s="41"/>
     </row>
-    <row r="1517" spans="5:7">
+    <row r="1517" spans="7:7">
       <c r="G1517" s="41"/>
     </row>
-    <row r="1518" spans="5:7">
+    <row r="1518" spans="7:7">
       <c r="G1518" s="41"/>
     </row>
-    <row r="1519" spans="5:7">
+    <row r="1519" spans="7:7">
       <c r="G1519" s="41"/>
     </row>
-    <row r="1520" spans="5:7">
+    <row r="1520" spans="7:7">
       <c r="G1520" s="41"/>
     </row>
     <row r="1521" spans="5:7">
       <c r="E1521" s="41"/>
       <c r="G1521" s="41"/>
     </row>
-    <row r="1522" spans="5:7">
-      <c r="G1522" s="41"/>
-    </row>
     <row r="1523" spans="5:7">
       <c r="G1523" s="41"/>
     </row>
@@ -32353,8 +32576,11 @@
       <c r="G1528" s="41"/>
     </row>
     <row r="1529" spans="5:7">
-      <c r="E1529" s="41"/>
       <c r="G1529" s="41"/>
+    </row>
+    <row r="1530" spans="5:7">
+      <c r="E1530" s="41"/>
+      <c r="G1530" s="41"/>
     </row>
     <row r="1531" spans="5:7">
       <c r="G1531" s="41"/>
@@ -32381,9 +32607,6 @@
       <c r="E1538" s="41"/>
       <c r="G1538" s="41"/>
     </row>
-    <row r="1539" spans="5:7">
-      <c r="G1539" s="41"/>
-    </row>
     <row r="1540" spans="5:7">
       <c r="G1540" s="41"/>
     </row>
@@ -32403,60 +32626,61 @@
       <c r="G1545" s="41"/>
     </row>
     <row r="1546" spans="5:7">
-      <c r="E1546" s="41"/>
       <c r="G1546" s="41"/>
     </row>
-    <row r="1554" spans="5:5">
-      <c r="E1554" s="41"/>
-    </row>
-    <row r="1561" spans="5:5">
-      <c r="E1561" s="41"/>
-    </row>
-    <row r="1577" spans="5:5">
-      <c r="E1577" s="42"/>
-    </row>
-    <row r="1578" spans="5:5">
-      <c r="E1578" s="42"/>
-    </row>
-    <row r="1581" spans="5:5">
-      <c r="E1581" s="42"/>
-    </row>
-    <row r="1582" spans="5:5">
-      <c r="E1582" s="41"/>
-    </row>
-    <row r="1595" spans="5:5">
-      <c r="E1595" s="41"/>
-    </row>
-    <row r="1607" spans="5:5">
-      <c r="E1607" s="41"/>
-    </row>
-    <row r="1611" spans="5:5">
-      <c r="E1611" s="41"/>
-    </row>
-    <row r="1612" spans="5:5">
-      <c r="E1612" s="41"/>
-    </row>
-    <row r="1613" spans="5:5">
-      <c r="E1613" s="41"/>
-    </row>
-    <row r="1614" spans="5:5">
-      <c r="E1614" s="41"/>
-    </row>
-    <row r="1615" spans="5:5">
-      <c r="E1615" s="41"/>
+    <row r="1547" spans="5:7">
+      <c r="E1547" s="41"/>
+      <c r="G1547" s="41"/>
+    </row>
+    <row r="1548" spans="5:7">
+      <c r="G1548" s="41"/>
+    </row>
+    <row r="1549" spans="5:7">
+      <c r="G1549" s="41"/>
+    </row>
+    <row r="1550" spans="5:7">
+      <c r="G1550" s="41"/>
+    </row>
+    <row r="1551" spans="5:7">
+      <c r="G1551" s="41"/>
+    </row>
+    <row r="1552" spans="5:7">
+      <c r="G1552" s="41"/>
+    </row>
+    <row r="1553" spans="5:7">
+      <c r="G1553" s="41"/>
+    </row>
+    <row r="1554" spans="5:7">
+      <c r="G1554" s="41"/>
+    </row>
+    <row r="1555" spans="5:7">
+      <c r="E1555" s="41"/>
+      <c r="G1555" s="41"/>
+    </row>
+    <row r="1563" spans="5:7">
+      <c r="E1563" s="41"/>
+    </row>
+    <row r="1570" spans="5:5">
+      <c r="E1570" s="41"/>
+    </row>
+    <row r="1586" spans="5:5">
+      <c r="E1586" s="42"/>
+    </row>
+    <row r="1587" spans="5:5">
+      <c r="E1587" s="42"/>
+    </row>
+    <row r="1590" spans="5:5">
+      <c r="E1590" s="42"/>
+    </row>
+    <row r="1591" spans="5:5">
+      <c r="E1591" s="41"/>
+    </row>
+    <row r="1604" spans="5:5">
+      <c r="E1604" s="41"/>
     </row>
     <row r="1616" spans="5:5">
       <c r="E1616" s="41"/>
     </row>
-    <row r="1617" spans="5:5">
-      <c r="E1617" s="41"/>
-    </row>
-    <row r="1618" spans="5:5">
-      <c r="E1618" s="41"/>
-    </row>
-    <row r="1619" spans="5:5">
-      <c r="E1619" s="41"/>
-    </row>
     <row r="1620" spans="5:5">
       <c r="E1620" s="41"/>
     </row>
@@ -32502,32 +32726,32 @@
     <row r="1634" spans="5:7">
       <c r="E1634" s="41"/>
     </row>
+    <row r="1635" spans="5:7">
+      <c r="E1635" s="41"/>
+    </row>
     <row r="1636" spans="5:7">
-      <c r="G1636" s="41"/>
+      <c r="E1636" s="41"/>
     </row>
     <row r="1637" spans="5:7">
-      <c r="G1637" s="41"/>
+      <c r="E1637" s="41"/>
     </row>
     <row r="1638" spans="5:7">
-      <c r="G1638" s="41"/>
+      <c r="E1638" s="41"/>
     </row>
     <row r="1639" spans="5:7">
-      <c r="G1639" s="41"/>
+      <c r="E1639" s="41"/>
     </row>
     <row r="1640" spans="5:7">
-      <c r="G1640" s="41"/>
+      <c r="E1640" s="41"/>
     </row>
     <row r="1641" spans="5:7">
-      <c r="G1641" s="41"/>
+      <c r="E1641" s="41"/>
     </row>
     <row r="1642" spans="5:7">
-      <c r="G1642" s="41"/>
+      <c r="E1642" s="41"/>
     </row>
     <row r="1643" spans="5:7">
-      <c r="G1643" s="41"/>
-    </row>
-    <row r="1644" spans="5:7">
-      <c r="G1644" s="41"/>
+      <c r="E1643" s="41"/>
     </row>
     <row r="1645" spans="5:7">
       <c r="G1645" s="41"/>
@@ -32542,35 +32766,35 @@
       <c r="G1648" s="41"/>
     </row>
     <row r="1649" spans="5:7">
-      <c r="E1649" s="41"/>
       <c r="G1649" s="41"/>
     </row>
+    <row r="1650" spans="5:7">
+      <c r="G1650" s="41"/>
+    </row>
     <row r="1651" spans="5:7">
-      <c r="E1651" s="41"/>
+      <c r="G1651" s="41"/>
     </row>
     <row r="1652" spans="5:7">
-      <c r="E1652" s="41"/>
+      <c r="G1652" s="41"/>
     </row>
     <row r="1653" spans="5:7">
-      <c r="E1653" s="41"/>
+      <c r="G1653" s="41"/>
     </row>
     <row r="1654" spans="5:7">
-      <c r="E1654" s="41"/>
+      <c r="G1654" s="41"/>
     </row>
     <row r="1655" spans="5:7">
-      <c r="E1655" s="41"/>
+      <c r="G1655" s="41"/>
     </row>
     <row r="1656" spans="5:7">
-      <c r="E1656" s="41"/>
+      <c r="G1656" s="41"/>
     </row>
     <row r="1657" spans="5:7">
-      <c r="E1657" s="41"/>
+      <c r="G1657" s="41"/>
     </row>
     <row r="1658" spans="5:7">
       <c r="E1658" s="41"/>
-    </row>
-    <row r="1659" spans="5:7">
-      <c r="E1659" s="41"/>
+      <c r="G1658" s="41"/>
     </row>
     <row r="1660" spans="5:7">
       <c r="E1660" s="41"/>
@@ -32689,41 +32913,32 @@
     <row r="1698" spans="5:7">
       <c r="E1698" s="41"/>
     </row>
+    <row r="1699" spans="5:7">
+      <c r="E1699" s="41"/>
+    </row>
     <row r="1700" spans="5:7">
       <c r="E1700" s="41"/>
-      <c r="G1700" s="41"/>
     </row>
     <row r="1701" spans="5:7">
       <c r="E1701" s="41"/>
-      <c r="G1701" s="41"/>
     </row>
     <row r="1702" spans="5:7">
       <c r="E1702" s="41"/>
-      <c r="G1702" s="41"/>
     </row>
     <row r="1703" spans="5:7">
       <c r="E1703" s="41"/>
-      <c r="G1703" s="41"/>
     </row>
     <row r="1704" spans="5:7">
       <c r="E1704" s="41"/>
-      <c r="G1704" s="41"/>
     </row>
     <row r="1705" spans="5:7">
       <c r="E1705" s="41"/>
-      <c r="G1705" s="41"/>
     </row>
     <row r="1706" spans="5:7">
       <c r="E1706" s="41"/>
-      <c r="G1706" s="41"/>
     </row>
     <row r="1707" spans="5:7">
       <c r="E1707" s="41"/>
-      <c r="G1707" s="41"/>
-    </row>
-    <row r="1708" spans="5:7">
-      <c r="E1708" s="41"/>
-      <c r="G1708" s="41"/>
     </row>
     <row r="1709" spans="5:7">
       <c r="E1709" s="41"/>
@@ -32881,108 +33096,108 @@
       <c r="E1747" s="41"/>
       <c r="G1747" s="41"/>
     </row>
-    <row r="1757" spans="5:7">
-      <c r="E1757" s="41"/>
-    </row>
-    <row r="1768" spans="7:7">
-      <c r="G1768" s="41"/>
-    </row>
-    <row r="1769" spans="7:7">
-      <c r="G1769" s="41"/>
-    </row>
-    <row r="1770" spans="7:7">
-      <c r="G1770" s="41"/>
-    </row>
-    <row r="1771" spans="7:7">
-      <c r="G1771" s="41"/>
-    </row>
-    <row r="1772" spans="7:7">
-      <c r="G1772" s="41"/>
-    </row>
-    <row r="1773" spans="7:7">
-      <c r="G1773" s="41"/>
-    </row>
-    <row r="1774" spans="7:7">
-      <c r="G1774" s="41"/>
-    </row>
-    <row r="1775" spans="7:7">
-      <c r="G1775" s="41"/>
-    </row>
-    <row r="1776" spans="7:7">
-      <c r="G1776" s="41"/>
-    </row>
-    <row r="1777" spans="5:7">
+    <row r="1748" spans="5:7">
+      <c r="E1748" s="41"/>
+      <c r="G1748" s="41"/>
+    </row>
+    <row r="1749" spans="5:7">
+      <c r="E1749" s="41"/>
+      <c r="G1749" s="41"/>
+    </row>
+    <row r="1750" spans="5:7">
+      <c r="E1750" s="41"/>
+      <c r="G1750" s="41"/>
+    </row>
+    <row r="1751" spans="5:7">
+      <c r="E1751" s="41"/>
+      <c r="G1751" s="41"/>
+    </row>
+    <row r="1752" spans="5:7">
+      <c r="E1752" s="41"/>
+      <c r="G1752" s="41"/>
+    </row>
+    <row r="1753" spans="5:7">
+      <c r="E1753" s="41"/>
+      <c r="G1753" s="41"/>
+    </row>
+    <row r="1754" spans="5:7">
+      <c r="E1754" s="41"/>
+      <c r="G1754" s="41"/>
+    </row>
+    <row r="1755" spans="5:7">
+      <c r="E1755" s="41"/>
+      <c r="G1755" s="41"/>
+    </row>
+    <row r="1756" spans="5:7">
+      <c r="E1756" s="41"/>
+      <c r="G1756" s="41"/>
+    </row>
+    <row r="1766" spans="5:5">
+      <c r="E1766" s="41"/>
+    </row>
+    <row r="1777" spans="7:7">
       <c r="G1777" s="41"/>
     </row>
-    <row r="1778" spans="5:7">
+    <row r="1778" spans="7:7">
       <c r="G1778" s="41"/>
     </row>
-    <row r="1779" spans="5:7">
+    <row r="1779" spans="7:7">
       <c r="G1779" s="41"/>
     </row>
-    <row r="1780" spans="5:7">
+    <row r="1780" spans="7:7">
       <c r="G1780" s="41"/>
     </row>
-    <row r="1781" spans="5:7">
+    <row r="1781" spans="7:7">
       <c r="G1781" s="41"/>
     </row>
-    <row r="1782" spans="5:7">
+    <row r="1782" spans="7:7">
       <c r="G1782" s="41"/>
     </row>
-    <row r="1783" spans="5:7">
+    <row r="1783" spans="7:7">
       <c r="G1783" s="41"/>
     </row>
-    <row r="1784" spans="5:7">
+    <row r="1784" spans="7:7">
       <c r="G1784" s="41"/>
     </row>
-    <row r="1785" spans="5:7">
+    <row r="1785" spans="7:7">
       <c r="G1785" s="41"/>
     </row>
-    <row r="1786" spans="5:7">
+    <row r="1786" spans="7:7">
       <c r="G1786" s="41"/>
     </row>
-    <row r="1787" spans="5:7">
-      <c r="E1787" s="41"/>
+    <row r="1787" spans="7:7">
       <c r="G1787" s="41"/>
     </row>
-    <row r="1797" spans="5:7">
-      <c r="E1797" s="41"/>
-    </row>
-    <row r="1808" spans="5:7">
-      <c r="E1808" s="41"/>
-      <c r="G1808" s="41"/>
-    </row>
-    <row r="1809" spans="5:7">
-      <c r="E1809" s="41"/>
-      <c r="G1809" s="41"/>
-    </row>
-    <row r="1810" spans="5:7">
-      <c r="E1810" s="41"/>
-      <c r="G1810" s="41"/>
-    </row>
-    <row r="1811" spans="5:7">
-      <c r="E1811" s="41"/>
-      <c r="G1811" s="41"/>
-    </row>
-    <row r="1812" spans="5:7">
-      <c r="E1812" s="41"/>
-      <c r="G1812" s="41"/>
-    </row>
-    <row r="1813" spans="5:7">
-      <c r="E1813" s="41"/>
-      <c r="G1813" s="41"/>
-    </row>
-    <row r="1814" spans="5:7">
-      <c r="E1814" s="41"/>
-      <c r="G1814" s="41"/>
-    </row>
-    <row r="1815" spans="5:7">
-      <c r="E1815" s="41"/>
-      <c r="G1815" s="41"/>
-    </row>
-    <row r="1816" spans="5:7">
-      <c r="E1816" s="41"/>
-      <c r="G1816" s="41"/>
+    <row r="1788" spans="7:7">
+      <c r="G1788" s="41"/>
+    </row>
+    <row r="1789" spans="7:7">
+      <c r="G1789" s="41"/>
+    </row>
+    <row r="1790" spans="7:7">
+      <c r="G1790" s="41"/>
+    </row>
+    <row r="1791" spans="7:7">
+      <c r="G1791" s="41"/>
+    </row>
+    <row r="1792" spans="7:7">
+      <c r="G1792" s="41"/>
+    </row>
+    <row r="1793" spans="5:7">
+      <c r="G1793" s="41"/>
+    </row>
+    <row r="1794" spans="5:7">
+      <c r="G1794" s="41"/>
+    </row>
+    <row r="1795" spans="5:7">
+      <c r="G1795" s="41"/>
+    </row>
+    <row r="1796" spans="5:7">
+      <c r="E1796" s="41"/>
+      <c r="G1796" s="41"/>
+    </row>
+    <row r="1806" spans="5:7">
+      <c r="E1806" s="41"/>
     </row>
     <row r="1817" spans="5:7">
       <c r="E1817" s="41"/>
@@ -33012,6 +33227,10 @@
       <c r="E1823" s="41"/>
       <c r="G1823" s="41"/>
     </row>
+    <row r="1824" spans="5:7">
+      <c r="E1824" s="41"/>
+      <c r="G1824" s="41"/>
+    </row>
     <row r="1825" spans="5:7">
       <c r="E1825" s="41"/>
       <c r="G1825" s="41"/>
@@ -33044,10 +33263,6 @@
       <c r="E1832" s="41"/>
       <c r="G1832" s="41"/>
     </row>
-    <row r="1833" spans="5:7">
-      <c r="E1833" s="41"/>
-      <c r="G1833" s="41"/>
-    </row>
     <row r="1834" spans="5:7">
       <c r="E1834" s="41"/>
       <c r="G1834" s="41"/>
@@ -33068,42 +33283,57 @@
       <c r="E1838" s="41"/>
       <c r="G1838" s="41"/>
     </row>
-    <row r="1841" spans="5:5">
+    <row r="1839" spans="5:7">
+      <c r="E1839" s="41"/>
+      <c r="G1839" s="41"/>
+    </row>
+    <row r="1840" spans="5:7">
+      <c r="E1840" s="41"/>
+      <c r="G1840" s="41"/>
+    </row>
+    <row r="1841" spans="5:7">
       <c r="E1841" s="41"/>
-    </row>
-    <row r="1845" spans="5:5">
+      <c r="G1841" s="41"/>
+    </row>
+    <row r="1842" spans="5:7">
+      <c r="E1842" s="41"/>
+      <c r="G1842" s="41"/>
+    </row>
+    <row r="1843" spans="5:7">
+      <c r="E1843" s="41"/>
+      <c r="G1843" s="41"/>
+    </row>
+    <row r="1844" spans="5:7">
+      <c r="E1844" s="41"/>
+      <c r="G1844" s="41"/>
+    </row>
+    <row r="1845" spans="5:7">
       <c r="E1845" s="41"/>
-    </row>
-    <row r="1846" spans="5:5">
+      <c r="G1845" s="41"/>
+    </row>
+    <row r="1846" spans="5:7">
       <c r="E1846" s="41"/>
-    </row>
-    <row r="1847" spans="5:5">
+      <c r="G1846" s="41"/>
+    </row>
+    <row r="1847" spans="5:7">
       <c r="E1847" s="41"/>
-    </row>
-    <row r="1848" spans="5:5">
-      <c r="E1848" s="41"/>
-    </row>
-    <row r="1851" spans="5:5">
-      <c r="E1851" s="41"/>
-    </row>
-    <row r="1852" spans="5:5">
-      <c r="E1852" s="41"/>
-    </row>
-    <row r="1853" spans="5:5">
-      <c r="E1853" s="41"/>
-    </row>
-    <row r="1854" spans="5:5">
+      <c r="G1847" s="41"/>
+    </row>
+    <row r="1850" spans="5:7">
+      <c r="E1850" s="41"/>
+    </row>
+    <row r="1854" spans="5:7">
       <c r="E1854" s="41"/>
+    </row>
+    <row r="1855" spans="5:7">
+      <c r="E1855" s="41"/>
+    </row>
+    <row r="1856" spans="5:7">
+      <c r="E1856" s="41"/>
     </row>
     <row r="1857" spans="5:5">
       <c r="E1857" s="41"/>
     </row>
-    <row r="1858" spans="5:5">
-      <c r="E1858" s="41"/>
-    </row>
-    <row r="1859" spans="5:5">
-      <c r="E1859" s="41"/>
-    </row>
     <row r="1860" spans="5:5">
       <c r="E1860" s="41"/>
     </row>
@@ -33116,12 +33346,6 @@
     <row r="1863" spans="5:5">
       <c r="E1863" s="41"/>
     </row>
-    <row r="1864" spans="5:5">
-      <c r="E1864" s="41"/>
-    </row>
-    <row r="1865" spans="5:5">
-      <c r="E1865" s="41"/>
-    </row>
     <row r="1866" spans="5:5">
       <c r="E1866" s="41"/>
     </row>
@@ -33137,6 +33361,9 @@
     <row r="1870" spans="5:5">
       <c r="E1870" s="41"/>
     </row>
+    <row r="1871" spans="5:5">
+      <c r="E1871" s="41"/>
+    </row>
     <row r="1872" spans="5:5">
       <c r="E1872" s="41"/>
     </row>
@@ -33161,9 +33388,6 @@
     <row r="1879" spans="5:5">
       <c r="E1879" s="41"/>
     </row>
-    <row r="1880" spans="5:5">
-      <c r="E1880" s="41"/>
-    </row>
     <row r="1881" spans="5:5">
       <c r="E1881" s="41"/>
     </row>
@@ -33179,6 +33403,9 @@
     <row r="1885" spans="5:5">
       <c r="E1885" s="41"/>
     </row>
+    <row r="1886" spans="5:5">
+      <c r="E1886" s="41"/>
+    </row>
     <row r="1887" spans="5:5">
       <c r="E1887" s="41"/>
     </row>
@@ -33203,9 +33430,6 @@
     <row r="1894" spans="5:5">
       <c r="E1894" s="41"/>
     </row>
-    <row r="1895" spans="5:5">
-      <c r="E1895" s="41"/>
-    </row>
     <row r="1896" spans="5:5">
       <c r="E1896" s="41"/>
     </row>
@@ -33221,6 +33445,9 @@
     <row r="1900" spans="5:5">
       <c r="E1900" s="41"/>
     </row>
+    <row r="1901" spans="5:5">
+      <c r="E1901" s="41"/>
+    </row>
     <row r="1902" spans="5:5">
       <c r="E1902" s="41"/>
     </row>
@@ -33245,9 +33472,6 @@
     <row r="1909" spans="5:5">
       <c r="E1909" s="41"/>
     </row>
-    <row r="1910" spans="5:5">
-      <c r="E1910" s="41"/>
-    </row>
     <row r="1911" spans="5:5">
       <c r="E1911" s="41"/>
     </row>
@@ -33305,60 +33529,60 @@
     <row r="1929" spans="5:5">
       <c r="E1929" s="41"/>
     </row>
+    <row r="1930" spans="5:5">
+      <c r="E1930" s="41"/>
+    </row>
     <row r="1931" spans="5:5">
       <c r="E1931" s="41"/>
     </row>
-    <row r="1944" spans="5:5">
-      <c r="E1944" s="41"/>
-    </row>
-    <row r="1958" spans="5:5">
-      <c r="E1958" s="41"/>
-    </row>
-    <row r="1960" spans="5:5">
-      <c r="E1960" s="41"/>
-    </row>
-    <row r="1973" spans="5:5">
-      <c r="E1973" s="41"/>
-    </row>
-    <row r="1987" spans="5:5">
-      <c r="E1987" s="41"/>
-    </row>
-    <row r="1989" spans="5:5">
-      <c r="E1989" s="41"/>
-    </row>
-    <row r="2002" spans="5:5">
-      <c r="E2002" s="41"/>
-    </row>
-    <row r="2016" spans="5:5">
-      <c r="E2016" s="41"/>
-    </row>
-    <row r="2019" spans="5:5">
-      <c r="E2019" s="41"/>
-    </row>
-    <row r="2020" spans="5:5">
-      <c r="E2020" s="41"/>
-    </row>
-    <row r="2021" spans="5:5">
-      <c r="E2021" s="41"/>
-    </row>
-    <row r="2022" spans="5:5">
-      <c r="E2022" s="41"/>
-    </row>
-    <row r="2023" spans="5:5">
-      <c r="E2023" s="41"/>
-    </row>
-    <row r="2024" spans="5:5">
-      <c r="E2024" s="41"/>
+    <row r="1932" spans="5:5">
+      <c r="E1932" s="41"/>
+    </row>
+    <row r="1933" spans="5:5">
+      <c r="E1933" s="41"/>
+    </row>
+    <row r="1934" spans="5:5">
+      <c r="E1934" s="41"/>
+    </row>
+    <row r="1935" spans="5:5">
+      <c r="E1935" s="41"/>
+    </row>
+    <row r="1936" spans="5:5">
+      <c r="E1936" s="41"/>
+    </row>
+    <row r="1937" spans="5:5">
+      <c r="E1937" s="41"/>
+    </row>
+    <row r="1938" spans="5:5">
+      <c r="E1938" s="41"/>
+    </row>
+    <row r="1940" spans="5:5">
+      <c r="E1940" s="41"/>
+    </row>
+    <row r="1953" spans="5:5">
+      <c r="E1953" s="41"/>
+    </row>
+    <row r="1967" spans="5:5">
+      <c r="E1967" s="41"/>
+    </row>
+    <row r="1969" spans="5:5">
+      <c r="E1969" s="41"/>
+    </row>
+    <row r="1982" spans="5:5">
+      <c r="E1982" s="41"/>
+    </row>
+    <row r="1996" spans="5:5">
+      <c r="E1996" s="41"/>
+    </row>
+    <row r="1998" spans="5:5">
+      <c r="E1998" s="41"/>
+    </row>
+    <row r="2011" spans="5:5">
+      <c r="E2011" s="41"/>
     </row>
     <row r="2025" spans="5:5">
       <c r="E2025" s="41"/>
     </row>
-    <row r="2026" spans="5:5">
-      <c r="E2026" s="41"/>
-    </row>
-    <row r="2027" spans="5:5">
-      <c r="E2027" s="41"/>
-    </row>
     <row r="2028" spans="5:5">
       <c r="E2028" s="41"/>
     </row>
@@ -33374,80 +33598,80 @@
     <row r="2032" spans="5:5">
       <c r="E2032" s="41"/>
     </row>
+    <row r="2033" spans="5:5">
+      <c r="E2033" s="41"/>
+    </row>
+    <row r="2034" spans="5:5">
+      <c r="E2034" s="41"/>
+    </row>
+    <row r="2035" spans="5:5">
+      <c r="E2035" s="41"/>
+    </row>
+    <row r="2036" spans="5:5">
+      <c r="E2036" s="41"/>
+    </row>
+    <row r="2037" spans="5:5">
+      <c r="E2037" s="41"/>
+    </row>
+    <row r="2038" spans="5:5">
+      <c r="E2038" s="41"/>
+    </row>
+    <row r="2039" spans="5:5">
+      <c r="E2039" s="41"/>
+    </row>
+    <row r="2040" spans="5:5">
+      <c r="E2040" s="41"/>
+    </row>
     <row r="2041" spans="5:5">
       <c r="E2041" s="41"/>
     </row>
-    <row r="2058" spans="5:5">
-      <c r="E2058" s="41"/>
-    </row>
-    <row r="2075" spans="5:5">
-      <c r="E2075" s="41"/>
-    </row>
-    <row r="2092" spans="5:5">
-      <c r="E2092" s="41"/>
-    </row>
-    <row r="2109" spans="5:5">
-      <c r="E2109" s="41"/>
-    </row>
-    <row r="2126" spans="5:5">
-      <c r="E2126" s="41"/>
-    </row>
-    <row r="2143" spans="5:5">
-      <c r="E2143" s="41"/>
-    </row>
-    <row r="2160" spans="5:5">
-      <c r="E2160" s="41"/>
-    </row>
-    <row r="2177" spans="5:5">
-      <c r="E2177" s="41"/>
-    </row>
-    <row r="2194" spans="5:5">
-      <c r="E2194" s="41"/>
-    </row>
-    <row r="2211" spans="5:5">
-      <c r="E2211" s="41"/>
-    </row>
-    <row r="2228" spans="5:5">
-      <c r="E2228" s="41"/>
-    </row>
-    <row r="2245" spans="5:5">
-      <c r="E2245" s="41"/>
-    </row>
-    <row r="2262" spans="5:5">
-      <c r="E2262" s="41"/>
-    </row>
-    <row r="2279" spans="5:5">
-      <c r="E2279" s="41"/>
-    </row>
-    <row r="2296" spans="5:5">
-      <c r="E2296" s="41"/>
-    </row>
-    <row r="2306" spans="5:7">
-      <c r="G2306" s="41"/>
-    </row>
-    <row r="2307" spans="5:7">
-      <c r="G2307" s="41"/>
-    </row>
-    <row r="2308" spans="5:7">
-      <c r="G2308" s="41"/>
-    </row>
-    <row r="2309" spans="5:7">
-      <c r="G2309" s="41"/>
-    </row>
-    <row r="2310" spans="5:7">
-      <c r="G2310" s="41"/>
-    </row>
-    <row r="2311" spans="5:7">
-      <c r="G2311" s="41"/>
-    </row>
-    <row r="2312" spans="5:7">
-      <c r="G2312" s="41"/>
-    </row>
-    <row r="2313" spans="5:7">
-      <c r="G2313" s="41"/>
-    </row>
-    <row r="2314" spans="5:7">
-      <c r="G2314" s="41"/>
+    <row r="2050" spans="5:5">
+      <c r="E2050" s="41"/>
+    </row>
+    <row r="2067" spans="5:5">
+      <c r="E2067" s="41"/>
+    </row>
+    <row r="2084" spans="5:5">
+      <c r="E2084" s="41"/>
+    </row>
+    <row r="2101" spans="5:5">
+      <c r="E2101" s="41"/>
+    </row>
+    <row r="2118" spans="5:5">
+      <c r="E2118" s="41"/>
+    </row>
+    <row r="2135" spans="5:5">
+      <c r="E2135" s="41"/>
+    </row>
+    <row r="2152" spans="5:5">
+      <c r="E2152" s="41"/>
+    </row>
+    <row r="2169" spans="5:5">
+      <c r="E2169" s="41"/>
+    </row>
+    <row r="2186" spans="5:5">
+      <c r="E2186" s="41"/>
+    </row>
+    <row r="2203" spans="5:5">
+      <c r="E2203" s="41"/>
+    </row>
+    <row r="2220" spans="5:5">
+      <c r="E2220" s="41"/>
+    </row>
+    <row r="2237" spans="5:5">
+      <c r="E2237" s="41"/>
+    </row>
+    <row r="2254" spans="5:5">
+      <c r="E2254" s="41"/>
+    </row>
+    <row r="2271" spans="5:5">
+      <c r="E2271" s="41"/>
+    </row>
+    <row r="2288" spans="5:5">
+      <c r="E2288" s="41"/>
+    </row>
+    <row r="2305" spans="5:7">
+      <c r="E2305" s="41"/>
     </row>
     <row r="2315" spans="5:7">
       <c r="G2315" s="41"/>
@@ -33462,70 +33686,70 @@
       <c r="G2318" s="41"/>
     </row>
     <row r="2319" spans="5:7">
-      <c r="E2319" s="41"/>
       <c r="G2319" s="41"/>
     </row>
-    <row r="2340" spans="5:5">
-      <c r="E2340" s="41"/>
-    </row>
-    <row r="2355" spans="5:5">
-      <c r="E2355" s="41"/>
-    </row>
-    <row r="2370" spans="5:5">
-      <c r="E2370" s="41"/>
-    </row>
-    <row r="2385" spans="5:5">
-      <c r="E2385" s="41"/>
-    </row>
-    <row r="2401" spans="5:5">
-      <c r="E2401" s="41"/>
-    </row>
-    <row r="2409" spans="5:5">
-      <c r="E2409" s="41"/>
-    </row>
-    <row r="2418" spans="7:7">
-      <c r="G2418" s="41"/>
-    </row>
-    <row r="2419" spans="7:7">
-      <c r="G2419" s="41"/>
-    </row>
-    <row r="2420" spans="7:7">
-      <c r="G2420" s="41"/>
-    </row>
-    <row r="2421" spans="7:7">
-      <c r="G2421" s="41"/>
-    </row>
-    <row r="2422" spans="7:7">
-      <c r="G2422" s="41"/>
-    </row>
-    <row r="2423" spans="7:7">
-      <c r="G2423" s="41"/>
-    </row>
-    <row r="2424" spans="7:7">
-      <c r="G2424" s="41"/>
-    </row>
-    <row r="2425" spans="7:7">
-      <c r="G2425" s="41"/>
-    </row>
-    <row r="2426" spans="7:7">
-      <c r="G2426" s="41"/>
-    </row>
-    <row r="2427" spans="7:7">
+    <row r="2320" spans="5:7">
+      <c r="G2320" s="41"/>
+    </row>
+    <row r="2321" spans="5:7">
+      <c r="G2321" s="41"/>
+    </row>
+    <row r="2322" spans="5:7">
+      <c r="G2322" s="41"/>
+    </row>
+    <row r="2323" spans="5:7">
+      <c r="G2323" s="41"/>
+    </row>
+    <row r="2324" spans="5:7">
+      <c r="G2324" s="41"/>
+    </row>
+    <row r="2325" spans="5:7">
+      <c r="G2325" s="41"/>
+    </row>
+    <row r="2326" spans="5:7">
+      <c r="G2326" s="41"/>
+    </row>
+    <row r="2327" spans="5:7">
+      <c r="G2327" s="41"/>
+    </row>
+    <row r="2328" spans="5:7">
+      <c r="E2328" s="41"/>
+      <c r="G2328" s="41"/>
+    </row>
+    <row r="2349" spans="5:5">
+      <c r="E2349" s="41"/>
+    </row>
+    <row r="2364" spans="5:5">
+      <c r="E2364" s="41"/>
+    </row>
+    <row r="2379" spans="5:5">
+      <c r="E2379" s="41"/>
+    </row>
+    <row r="2394" spans="5:5">
+      <c r="E2394" s="41"/>
+    </row>
+    <row r="2410" spans="5:5">
+      <c r="E2410" s="41"/>
+    </row>
+    <row r="2418" spans="5:7">
+      <c r="E2418" s="41"/>
+    </row>
+    <row r="2427" spans="5:7">
       <c r="G2427" s="41"/>
     </row>
-    <row r="2428" spans="7:7">
+    <row r="2428" spans="5:7">
       <c r="G2428" s="41"/>
     </row>
-    <row r="2429" spans="7:7">
+    <row r="2429" spans="5:7">
       <c r="G2429" s="41"/>
     </row>
-    <row r="2430" spans="7:7">
+    <row r="2430" spans="5:7">
       <c r="G2430" s="41"/>
     </row>
-    <row r="2431" spans="7:7">
+    <row r="2431" spans="5:7">
       <c r="G2431" s="41"/>
     </row>
-    <row r="2432" spans="7:7">
+    <row r="2432" spans="5:7">
       <c r="G2432" s="41"/>
     </row>
     <row r="2433" spans="5:7">
@@ -33541,14 +33765,41 @@
       <c r="G2436" s="41"/>
     </row>
     <row r="2437" spans="5:7">
-      <c r="E2437" s="41"/>
       <c r="G2437" s="41"/>
     </row>
+    <row r="2438" spans="5:7">
+      <c r="G2438" s="41"/>
+    </row>
+    <row r="2439" spans="5:7">
+      <c r="G2439" s="41"/>
+    </row>
+    <row r="2440" spans="5:7">
+      <c r="G2440" s="41"/>
+    </row>
+    <row r="2441" spans="5:7">
+      <c r="G2441" s="41"/>
+    </row>
+    <row r="2442" spans="5:7">
+      <c r="G2442" s="41"/>
+    </row>
+    <row r="2443" spans="5:7">
+      <c r="G2443" s="41"/>
+    </row>
+    <row r="2444" spans="5:7">
+      <c r="G2444" s="41"/>
+    </row>
     <row r="2445" spans="5:7">
-      <c r="E2445" s="41"/>
-    </row>
-    <row r="2452" spans="5:5">
-      <c r="E2452" s="41"/>
+      <c r="G2445" s="41"/>
+    </row>
+    <row r="2446" spans="5:7">
+      <c r="E2446" s="41"/>
+      <c r="G2446" s="41"/>
+    </row>
+    <row r="2454" spans="5:5">
+      <c r="E2454" s="41"/>
+    </row>
+    <row r="2461" spans="5:5">
+      <c r="E2461" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675DC92D-0F78-4117-909B-F70E02E759E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F65246-60A2-46BC-A1F6-F73295EAEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -5678,7 +5678,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-21</t>
+      <t>2025-December-22</t>
     </r>
   </si>
 </sst>
@@ -5915,9 +5915,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5976,6 +5973,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6364,12 +6362,12 @@
         <v>252</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="28.8">
       <c r="A9" s="21" t="s">
@@ -6632,7 +6630,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="15" t="s">
@@ -6669,7 +6667,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6678,7 +6676,7 @@
       <c r="C9" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -6686,7 +6684,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6695,7 +6693,7 @@
       <c r="C10" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -6703,7 +6701,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6712,7 +6710,7 @@
       <c r="C11" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -6720,7 +6718,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6729,7 +6727,7 @@
       <c r="C12" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -6737,7 +6735,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -6746,7 +6744,7 @@
       <c r="C13" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -6754,7 +6752,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -6763,7 +6761,7 @@
       <c r="C14" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -6771,7 +6769,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -6780,7 +6778,7 @@
       <c r="C15" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -6788,7 +6786,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -6797,7 +6795,7 @@
       <c r="C16" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -6805,7 +6803,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -6814,7 +6812,7 @@
       <c r="C17" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>1105</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -6822,7 +6820,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -6831,7 +6829,7 @@
       <c r="C18" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>1105</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -6839,7 +6837,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -6848,7 +6846,7 @@
       <c r="C19" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -6856,7 +6854,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -6865,7 +6863,7 @@
       <c r="C20" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="40" t="s">
         <v>1113</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -6873,7 +6871,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -6882,7 +6880,7 @@
       <c r="C21" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>1112</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -6890,7 +6888,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="46" t="s">
         <v>128</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -6899,7 +6897,7 @@
       <c r="C22" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="40" t="s">
         <v>1118</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -6907,7 +6905,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -6916,7 +6914,7 @@
       <c r="C23" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="40" t="s">
         <v>1110</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -6924,7 +6922,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -6933,7 +6931,7 @@
       <c r="C24" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -6941,7 +6939,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -6950,7 +6948,7 @@
       <c r="C25" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="40" t="s">
         <v>1104</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -6958,7 +6956,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="46" t="s">
         <v>130</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -6967,7 +6965,7 @@
       <c r="C26" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="40" t="s">
         <v>1114</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -6975,7 +6973,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -6984,7 +6982,7 @@
       <c r="C27" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -6992,7 +6990,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -7001,7 +6999,7 @@
       <c r="C28" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -7009,7 +7007,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -7018,7 +7016,7 @@
       <c r="C29" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -7026,7 +7024,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -7035,7 +7033,7 @@
       <c r="C30" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -7043,7 +7041,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -7052,7 +7050,7 @@
       <c r="C31" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -7060,7 +7058,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -7069,7 +7067,7 @@
       <c r="C32" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -7077,7 +7075,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -7086,7 +7084,7 @@
       <c r="C33" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -7094,7 +7092,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -7103,7 +7101,7 @@
       <c r="C34" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>1106</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -7111,7 +7109,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -7120,7 +7118,7 @@
       <c r="C35" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="40" t="s">
         <v>1100</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -7128,7 +7126,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -7137,7 +7135,7 @@
       <c r="C36" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -7145,7 +7143,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -7154,7 +7152,7 @@
       <c r="C37" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -7162,7 +7160,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="46" t="s">
         <v>212</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -7171,7 +7169,7 @@
       <c r="C38" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -7179,7 +7177,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="46" t="s">
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -7188,7 +7186,7 @@
       <c r="C39" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -7196,7 +7194,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="46" t="s">
         <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -7205,7 +7203,7 @@
       <c r="C40" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="40" t="s">
         <v>1107</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -7213,7 +7211,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="46" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -7222,7 +7220,7 @@
       <c r="C41" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -7230,7 +7228,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="46" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -7239,7 +7237,7 @@
       <c r="C42" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -7247,7 +7245,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="46" t="s">
         <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -7256,7 +7254,7 @@
       <c r="C43" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -7264,7 +7262,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="46" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -7273,7 +7271,7 @@
       <c r="C44" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="40" t="s">
         <v>1109</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -7281,7 +7279,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="46" t="s">
         <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -7290,7 +7288,7 @@
       <c r="C45" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -7298,7 +7296,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="46" t="s">
         <v>123</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -7307,7 +7305,7 @@
       <c r="C46" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="40" t="s">
         <v>1117</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -7315,7 +7313,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="46" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -7324,7 +7322,7 @@
       <c r="C47" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -7332,7 +7330,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="46" t="s">
         <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -7341,7 +7339,7 @@
       <c r="C48" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="40" t="s">
         <v>1116</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -7349,7 +7347,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -7358,7 +7356,7 @@
       <c r="C49" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="40" t="s">
         <v>1115</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -7366,7 +7364,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -7375,7 +7373,7 @@
       <c r="C50" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="40" t="s">
         <v>1107</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -7383,7 +7381,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="46" t="s">
         <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -7392,7 +7390,7 @@
       <c r="C51" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -7400,7 +7398,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="46" t="s">
         <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -7409,7 +7407,7 @@
       <c r="C52" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -7417,7 +7415,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="46" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -7426,7 +7424,7 @@
       <c r="C53" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>1108</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -7434,7 +7432,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="46" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -7443,7 +7441,7 @@
       <c r="C54" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="40" t="s">
         <v>1105</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -7451,7 +7449,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="46" t="s">
         <v>117</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -7460,7 +7458,7 @@
       <c r="C55" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="40" t="s">
         <v>1105</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -7468,7 +7466,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="46" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -7477,7 +7475,7 @@
       <c r="C56" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="40" t="s">
         <v>1105</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -7485,7 +7483,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -7494,7 +7492,7 @@
       <c r="C57" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="40" t="s">
         <v>1101</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -7502,7 +7500,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="46" t="s">
         <v>188</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -7511,7 +7509,7 @@
       <c r="C58" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="40" t="s">
         <v>1105</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -7519,7 +7517,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="46" t="s">
         <v>200</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -7528,7 +7526,7 @@
       <c r="C59" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="40" t="s">
         <v>1119</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -7536,7 +7534,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="46" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -7545,7 +7543,7 @@
       <c r="C60" s="1" t="s">
         <v>1811</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="40" t="s">
         <v>1102</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -7553,7 +7551,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="46" t="s">
         <v>74</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -7562,7 +7560,7 @@
       <c r="C61" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="40" t="s">
         <v>1103</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -7570,7 +7568,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="46" t="s">
         <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -7579,7 +7577,7 @@
       <c r="C62" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="40" t="s">
         <v>1113</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -7587,7 +7585,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="46" t="s">
         <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -7596,7 +7594,7 @@
       <c r="C63" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="40" t="s">
         <v>1111</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -7604,7 +7602,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="46" t="s">
         <v>204</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -7613,7 +7611,7 @@
       <c r="C64" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="40" t="s">
         <v>1099</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -7621,7 +7619,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="46" t="s">
         <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -7630,7 +7628,7 @@
       <c r="C65" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="40" t="s">
         <v>1120</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -7638,7 +7636,7 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="46" t="s">
         <v>99</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -7652,7 +7650,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="46" t="s">
         <v>115</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -7669,7 +7667,7 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="46" t="s">
         <v>91</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -7678,7 +7676,7 @@
       <c r="C68" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="40" t="s">
         <v>1121</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -7686,7 +7684,7 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="46" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -7695,7 +7693,7 @@
       <c r="C69" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="40" t="s">
         <v>1122</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -7703,7 +7701,7 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -7712,7 +7710,7 @@
       <c r="C70" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="40" t="s">
         <v>1123</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -7720,7 +7718,7 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="46" t="s">
         <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -7729,7 +7727,7 @@
       <c r="C71" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="40" t="s">
         <v>1124</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -7737,7 +7735,7 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="46" t="s">
         <v>93</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -7746,7 +7744,7 @@
       <c r="C72" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="40" t="s">
         <v>1125</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -7754,7 +7752,7 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="46" t="s">
         <v>95</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -7763,7 +7761,7 @@
       <c r="C73" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="40" t="s">
         <v>1125</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -7771,7 +7769,7 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="46" t="s">
         <v>136</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -7780,7 +7778,7 @@
       <c r="C74" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="40" t="s">
         <v>1126</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -7788,7 +7786,7 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="46" t="s">
         <v>1753</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -7797,7 +7795,7 @@
       <c r="C75" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="40" t="s">
         <v>1754</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -7805,7 +7803,7 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="46" t="s">
         <v>1731</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -7814,7 +7812,7 @@
       <c r="C76" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="40" t="s">
         <v>1732</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -7822,7 +7820,7 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="46" t="s">
         <v>1735</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -7831,7 +7829,7 @@
       <c r="C77" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="40" t="s">
         <v>1738</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -7839,13 +7837,13 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="46" t="s">
         <v>1734</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="40" t="s">
         <v>1717</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -7853,13 +7851,13 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="46" t="s">
         <v>1715</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="40" t="s">
         <v>1717</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -7867,13 +7865,13 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="46" t="s">
         <v>1724</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="40" t="s">
         <v>1720</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="40" t="s">
         <v>1721</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -7881,13 +7879,13 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="46" t="s">
         <v>1719</v>
       </c>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="40" t="s">
         <v>1720</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="40" t="s">
         <v>1721</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -7895,13 +7893,13 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="46" t="s">
         <v>1725</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="40" t="s">
         <v>1720</v>
       </c>
-      <c r="D82" s="41" t="s">
+      <c r="D82" s="40" t="s">
         <v>1721</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -7909,13 +7907,13 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="46" t="s">
         <v>1726</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="40" t="s">
         <v>1720</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="40" t="s">
         <v>1721</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -7923,13 +7921,13 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="46" t="s">
         <v>1722</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="40" t="s">
         <v>1720</v>
       </c>
-      <c r="D84" s="41" t="s">
+      <c r="D84" s="40" t="s">
         <v>1721</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -7937,13 +7935,13 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="46" t="s">
         <v>1723</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="40" t="s">
         <v>1720</v>
       </c>
-      <c r="D85" s="41" t="s">
+      <c r="D85" s="40" t="s">
         <v>1721</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -7951,7 +7949,7 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="46" t="s">
         <v>109</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -7960,7 +7958,7 @@
       <c r="C86" s="1">
         <v>6526</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="40" t="s">
         <v>1127</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -7968,7 +7966,7 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="46" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -7977,7 +7975,7 @@
       <c r="C87" s="1">
         <v>6526</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="40" t="s">
         <v>1127</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -7985,7 +7983,7 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="46" t="s">
         <v>39</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -7994,7 +7992,7 @@
       <c r="C88" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D88" s="41" t="s">
+      <c r="D88" s="40" t="s">
         <v>277</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -8005,7 +8003,7 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="46" t="s">
         <v>49</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -8014,7 +8012,7 @@
       <c r="C89" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D89" s="41" t="s">
+      <c r="D89" s="40" t="s">
         <v>278</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -8025,7 +8023,7 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="46" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -8034,7 +8032,7 @@
       <c r="C90" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D90" s="40" t="s">
         <v>279</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -8045,7 +8043,7 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="46" t="s">
         <v>68</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -8054,7 +8052,7 @@
       <c r="C91" s="1">
         <v>2114</v>
       </c>
-      <c r="D91" s="41" t="s">
+      <c r="D91" s="40" t="s">
         <v>1128</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -8065,7 +8063,7 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="46" t="s">
         <v>111</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -8074,7 +8072,7 @@
       <c r="C92" s="1">
         <v>6510</v>
       </c>
-      <c r="D92" s="41" t="s">
+      <c r="D92" s="40" t="s">
         <v>1129</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -8085,7 +8083,7 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -8094,7 +8092,7 @@
       <c r="C93" s="1">
         <v>7406</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D93" s="40" t="s">
         <v>1130</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -8102,7 +8100,7 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -8111,7 +8109,7 @@
       <c r="C94" s="1">
         <v>41464</v>
       </c>
-      <c r="D94" s="41" t="s">
+      <c r="D94" s="40" t="s">
         <v>1131</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -8122,7 +8120,7 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -8131,7 +8129,7 @@
       <c r="C95" s="1">
         <v>41464</v>
       </c>
-      <c r="D95" s="41" t="s">
+      <c r="D95" s="40" t="s">
         <v>1131</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -8142,7 +8140,7 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -8151,7 +8149,7 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D96" s="40" t="s">
         <v>1132</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -8159,7 +8157,7 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -8168,7 +8166,7 @@
       <c r="C97" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D97" s="40" t="s">
         <v>1133</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -8176,7 +8174,7 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="46" t="s">
         <v>45</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -8185,7 +8183,7 @@
       <c r="C98" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D98" s="41" t="s">
+      <c r="D98" s="40" t="s">
         <v>1134</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -8193,7 +8191,7 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="46" t="s">
         <v>60</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -8202,7 +8200,7 @@
       <c r="C99" s="1">
         <v>4066</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D99" s="40" t="s">
         <v>1135</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -8210,7 +8208,7 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="46" t="s">
         <v>42</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -8219,7 +8217,7 @@
       <c r="C100" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D100" s="40" t="s">
         <v>146</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -8227,7 +8225,7 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="46" t="s">
         <v>61</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -8236,7 +8234,7 @@
       <c r="C101" s="1">
         <v>6581</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D101" s="40" t="s">
         <v>1136</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -8247,7 +8245,7 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="46" t="s">
         <v>56</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -8267,7 +8265,7 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="46" t="s">
         <v>56</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -8276,7 +8274,7 @@
       <c r="C103" s="1">
         <v>6567</v>
       </c>
-      <c r="D103" s="41" t="s">
+      <c r="D103" s="40" t="s">
         <v>1137</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -8290,7 +8288,7 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="46" t="s">
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -8299,7 +8297,7 @@
       <c r="C104" s="1">
         <v>556</v>
       </c>
-      <c r="D104" s="41" t="s">
+      <c r="D104" s="40" t="s">
         <v>1138</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -8307,7 +8305,7 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="47" t="s">
+      <c r="A105" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -8316,7 +8314,7 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="40" t="s">
         <v>1132</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -8324,7 +8322,7 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -8333,7 +8331,7 @@
       <c r="C106" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D106" s="41" t="s">
+      <c r="D106" s="40" t="s">
         <v>1139</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -8341,7 +8339,7 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="46" t="s">
         <v>37</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -8350,7 +8348,7 @@
       <c r="C107" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="41" t="s">
+      <c r="D107" s="40" t="s">
         <v>1140</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -8358,7 +8356,7 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -8367,7 +8365,7 @@
       <c r="C108" s="1">
         <v>4066</v>
       </c>
-      <c r="D108" s="41" t="s">
+      <c r="D108" s="40" t="s">
         <v>1135</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -8375,7 +8373,7 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="46" t="s">
         <v>70</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -8384,7 +8382,7 @@
       <c r="C109" s="1">
         <v>8701</v>
       </c>
-      <c r="D109" s="41" t="s">
+      <c r="D109" s="40" t="s">
         <v>1141</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -8392,13 +8390,13 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="47" t="s">
+      <c r="A110" s="46" t="s">
         <v>1703</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="D110" s="41"/>
+      <c r="D110" s="40"/>
       <c r="E110" s="1" t="s">
         <v>86</v>
       </c>
@@ -8407,13 +8405,13 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="47" t="s">
+      <c r="A111" s="46" t="s">
         <v>1693</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="D111" s="41"/>
+      <c r="D111" s="40"/>
       <c r="E111" s="1" t="s">
         <v>86</v>
       </c>
@@ -8422,19 +8420,19 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="47" t="s">
+      <c r="A112" s="46" t="s">
         <v>1683</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="D112" s="41"/>
+      <c r="D112" s="40"/>
       <c r="E112" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="47" t="s">
+      <c r="A113" s="46" t="s">
         <v>213</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -8443,7 +8441,7 @@
       <c r="C113" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D113" s="41" t="s">
+      <c r="D113" s="40" t="s">
         <v>1142</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -8451,7 +8449,7 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="47" t="s">
+      <c r="A114" s="46" t="s">
         <v>1689</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -8460,7 +8458,7 @@
       <c r="C114" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="D114" s="41" t="s">
+      <c r="D114" s="40" t="s">
         <v>1692</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -8468,13 +8466,13 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="47" t="s">
+      <c r="A115" s="46" t="s">
         <v>1743</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="D115" s="41" t="s">
+      <c r="D115" s="40" t="s">
         <v>1745</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -8482,7 +8480,7 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="46" t="s">
         <v>1740</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -8491,7 +8489,7 @@
       <c r="C116" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="D116" s="41" t="s">
+      <c r="D116" s="40" t="s">
         <v>1742</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -8499,13 +8497,13 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="47" t="s">
+      <c r="A117" s="46" t="s">
         <v>247</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D117" s="41" t="s">
+      <c r="D117" s="40" t="s">
         <v>1143</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -8513,13 +8511,13 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="46" t="s">
         <v>133</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D118" s="41" t="s">
+      <c r="D118" s="40" t="s">
         <v>1144</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -8530,7 +8528,7 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="46" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -8539,7 +8537,7 @@
       <c r="C119" s="1">
         <v>7812</v>
       </c>
-      <c r="D119" s="41" t="s">
+      <c r="D119" s="40" t="s">
         <v>1145</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -8547,7 +8545,7 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="47" t="s">
+      <c r="A120" s="46" t="s">
         <v>121</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -8556,7 +8554,7 @@
       <c r="C120" s="1">
         <v>7805</v>
       </c>
-      <c r="D120" s="41" t="s">
+      <c r="D120" s="40" t="s">
         <v>1146</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -8564,13 +8562,13 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="47" t="s">
+      <c r="A121" s="46" t="s">
         <v>84</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D121" s="41" t="s">
+      <c r="D121" s="40" t="s">
         <v>1148</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -8584,13 +8582,13 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="46" t="s">
         <v>84</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D122" s="41" t="s">
+      <c r="D122" s="40" t="s">
         <v>1147</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -8604,7 +8602,7 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="47" t="s">
+      <c r="A123" s="46" t="s">
         <v>1727</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -8615,7 +8613,7 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="46" t="s">
         <v>1728</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -8626,7 +8624,7 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="47" t="s">
+      <c r="A125" s="46" t="s">
         <v>1694</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -8637,7 +8635,7 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="47" t="s">
+      <c r="A126" s="46" t="s">
         <v>1729</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -8648,7 +8646,7 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="47" t="s">
+      <c r="A127" s="46" t="s">
         <v>1709</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -8659,7 +8657,7 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="47" t="s">
+      <c r="A128" s="46" t="s">
         <v>1702</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -8670,7 +8668,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="47" t="s">
+      <c r="A129" s="46" t="s">
         <v>1701</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -8681,7 +8679,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="47" t="s">
+      <c r="A130" s="46" t="s">
         <v>1747</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -8692,7 +8690,7 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="47" t="s">
+      <c r="A131" s="46" t="s">
         <v>1676</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -8703,7 +8701,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="47" t="s">
+      <c r="A132" s="46" t="s">
         <v>1708</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -8714,7 +8712,7 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="47" t="s">
+      <c r="A133" s="46" t="s">
         <v>1748</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -8725,7 +8723,7 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="47" t="s">
+      <c r="A134" s="46" t="s">
         <v>1707</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -8736,7 +8734,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="46" t="s">
         <v>1710</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -8747,7 +8745,7 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="46" t="s">
         <v>1695</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -8758,7 +8756,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="47" t="s">
+      <c r="A137" s="46" t="s">
         <v>1739</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -8769,7 +8767,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="47" t="s">
+      <c r="A138" s="46" t="s">
         <v>1706</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -8780,7 +8778,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="47" t="s">
+      <c r="A139" s="46" t="s">
         <v>1682</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -8791,7 +8789,7 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="47" t="s">
+      <c r="A140" s="46" t="s">
         <v>1713</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -8802,7 +8800,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="47" t="s">
+      <c r="A141" s="46" t="s">
         <v>1712</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -8813,7 +8811,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="47" t="s">
+      <c r="A142" s="46" t="s">
         <v>1714</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -8824,7 +8822,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="47" t="s">
+      <c r="A143" s="46" t="s">
         <v>1749</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -8835,7 +8833,7 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="47" t="s">
+      <c r="A144" s="46" t="s">
         <v>1685</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -8846,7 +8844,7 @@
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="46" t="s">
         <v>1733</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -8857,7 +8855,7 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="47" t="s">
+      <c r="A146" s="46" t="s">
         <v>1711</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -8868,7 +8866,7 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="47" t="s">
+      <c r="A147" s="46" t="s">
         <v>1678</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -8882,7 +8880,7 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="46" t="s">
         <v>1681</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -8896,7 +8894,7 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="47" t="s">
+      <c r="A149" s="46" t="s">
         <v>1704</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -8910,7 +8908,7 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="47" t="s">
+      <c r="A150" s="46" t="s">
         <v>1686</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -8924,7 +8922,7 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="47" t="s">
+      <c r="A151" s="46" t="s">
         <v>1705</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -8938,7 +8936,7 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="47" t="s">
+      <c r="A152" s="46" t="s">
         <v>1750</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -8955,7 +8953,7 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="46" t="s">
         <v>1697</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -8964,7 +8962,7 @@
       <c r="C153" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="D153" s="41" t="s">
+      <c r="D153" s="40" t="s">
         <v>1699</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -8972,7 +8970,7 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="47" t="s">
+      <c r="A154" s="46" t="s">
         <v>1746</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -8981,7 +8979,7 @@
       <c r="C154" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="D154" s="41" t="s">
+      <c r="D154" s="40" t="s">
         <v>1699</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -8989,7 +8987,7 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="47" t="s">
+      <c r="A155" s="46" t="s">
         <v>1730</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -8998,7 +8996,7 @@
       <c r="C155" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="D155" s="41" t="s">
+      <c r="D155" s="40" t="s">
         <v>1699</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -9006,427 +9004,427 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="48"/>
+      <c r="A156" s="47"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="48"/>
+      <c r="A157" s="47"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="49"/>
+      <c r="A158" s="48"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="41"/>
+      <c r="A159" s="40"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="41"/>
+      <c r="A160" s="40"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="41"/>
+      <c r="A161" s="40"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="49"/>
+      <c r="A162" s="48"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="41"/>
+      <c r="A163" s="40"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="41"/>
+      <c r="A164" s="40"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="41"/>
+      <c r="A165" s="40"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="41"/>
+      <c r="A166" s="40"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="49"/>
+      <c r="A167" s="48"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="41"/>
+      <c r="A171" s="40"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="50"/>
+      <c r="A173" s="49"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="41"/>
+      <c r="A177" s="40"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="50"/>
+      <c r="A179" s="49"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="50"/>
+      <c r="A183" s="49"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="50"/>
+      <c r="A188" s="49"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="51"/>
+      <c r="A193" s="50"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="51"/>
+      <c r="A194" s="50"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="51"/>
+      <c r="A195" s="50"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="51"/>
+      <c r="A196" s="50"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="51"/>
+      <c r="A197" s="50"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="51"/>
+      <c r="A198" s="50"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="51"/>
+      <c r="A199" s="50"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="47"/>
+      <c r="A200" s="46"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="47"/>
+      <c r="A201" s="46"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="47"/>
+      <c r="A202" s="46"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="51"/>
+      <c r="A203" s="50"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="51"/>
+      <c r="A204" s="50"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="51"/>
+      <c r="A205" s="50"/>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="51"/>
+      <c r="A206" s="50"/>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="47"/>
+      <c r="A207" s="46"/>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="47"/>
+      <c r="A208" s="46"/>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="47"/>
+      <c r="A209" s="46"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="47"/>
+      <c r="A210" s="46"/>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="47"/>
+      <c r="A211" s="46"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="47"/>
+      <c r="A212" s="46"/>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="47"/>
+      <c r="A213" s="46"/>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="47"/>
+      <c r="A214" s="46"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="47"/>
+      <c r="A215" s="46"/>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="47"/>
+      <c r="A216" s="46"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="47"/>
+      <c r="A217" s="46"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="47"/>
+      <c r="A218" s="46"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="47"/>
+      <c r="A219" s="46"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="47"/>
+      <c r="A220" s="46"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="47"/>
+      <c r="A221" s="46"/>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="47"/>
+      <c r="A222" s="46"/>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="47"/>
+      <c r="A223" s="46"/>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="47"/>
+      <c r="A224" s="46"/>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="47"/>
+      <c r="A225" s="46"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="47"/>
+      <c r="A226" s="46"/>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="47"/>
+      <c r="A227" s="46"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="47"/>
+      <c r="A228" s="46"/>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="47"/>
+      <c r="A229" s="46"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="47"/>
+      <c r="A230" s="46"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="47"/>
+      <c r="A231" s="46"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="47"/>
+      <c r="A232" s="46"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="47"/>
+      <c r="A233" s="46"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="47"/>
+      <c r="A234" s="46"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="47"/>
+      <c r="A235" s="46"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="47"/>
+      <c r="A236" s="46"/>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="47"/>
+      <c r="A237" s="46"/>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="47"/>
+      <c r="A238" s="46"/>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="47"/>
+      <c r="A239" s="46"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="47"/>
+      <c r="A240" s="46"/>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="47"/>
+      <c r="A241" s="46"/>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="47"/>
+      <c r="A242" s="46"/>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="47"/>
+      <c r="A243" s="46"/>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="47"/>
+      <c r="A244" s="46"/>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="47"/>
+      <c r="A245" s="46"/>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="47"/>
+      <c r="A246" s="46"/>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="47"/>
+      <c r="A247" s="46"/>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="52"/>
+      <c r="A248" s="51"/>
       <c r="B248" s="23"/>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="47"/>
+      <c r="A249" s="46"/>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="47"/>
+      <c r="A250" s="46"/>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="47"/>
+      <c r="A251" s="46"/>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="47"/>
+      <c r="A252" s="46"/>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="47"/>
+      <c r="A253" s="46"/>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="47"/>
+      <c r="A254" s="46"/>
       <c r="B254" s="23"/>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="47"/>
+      <c r="A255" s="46"/>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="47"/>
+      <c r="A256" s="46"/>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="47"/>
+      <c r="A257" s="46"/>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="47"/>
+      <c r="A258" s="46"/>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="47"/>
+      <c r="A259" s="46"/>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="47"/>
+      <c r="A260" s="46"/>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="47"/>
+      <c r="A261" s="46"/>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="47"/>
+      <c r="A262" s="46"/>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="47"/>
+      <c r="A263" s="46"/>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="47"/>
+      <c r="A264" s="46"/>
       <c r="B264" s="23"/>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="47"/>
+      <c r="A265" s="46"/>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="47"/>
+      <c r="A266" s="46"/>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="51"/>
+      <c r="A267" s="50"/>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="51"/>
+      <c r="A268" s="50"/>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="51"/>
+      <c r="A269" s="50"/>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="51"/>
+      <c r="A270" s="50"/>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="51"/>
+      <c r="A271" s="50"/>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="51"/>
+      <c r="A272" s="50"/>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="51"/>
+      <c r="A273" s="50"/>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="47"/>
+      <c r="A274" s="46"/>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="47"/>
+      <c r="A275" s="46"/>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="47"/>
+      <c r="A276" s="46"/>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="47"/>
+      <c r="A277" s="46"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="47"/>
+      <c r="A278" s="46"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="47"/>
+      <c r="A279" s="46"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="47"/>
-      <c r="C280" s="47"/>
-      <c r="D280" s="47"/>
+      <c r="A280" s="46"/>
+      <c r="C280" s="46"/>
+      <c r="D280" s="46"/>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="47"/>
-      <c r="C281" s="47"/>
-      <c r="D281" s="47"/>
+      <c r="A281" s="46"/>
+      <c r="C281" s="46"/>
+      <c r="D281" s="46"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="47"/>
-      <c r="C282" s="47"/>
-      <c r="D282" s="47"/>
+      <c r="A282" s="46"/>
+      <c r="C282" s="46"/>
+      <c r="D282" s="46"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="47"/>
-      <c r="C283" s="47"/>
-      <c r="D283" s="47"/>
+      <c r="A283" s="46"/>
+      <c r="C283" s="46"/>
+      <c r="D283" s="46"/>
     </row>
     <row r="302" spans="3:7">
-      <c r="C302" s="53"/>
-      <c r="D302" s="53"/>
-      <c r="G302" s="53"/>
+      <c r="C302" s="52"/>
+      <c r="D302" s="52"/>
+      <c r="G302" s="52"/>
     </row>
     <row r="321" spans="3:7">
-      <c r="C321" s="53"/>
-      <c r="D321" s="53"/>
-      <c r="G321" s="53"/>
+      <c r="C321" s="52"/>
+      <c r="D321" s="52"/>
+      <c r="G321" s="52"/>
     </row>
     <row r="322" spans="3:7">
-      <c r="C322" s="53"/>
-      <c r="D322" s="53"/>
-      <c r="G322" s="53"/>
+      <c r="C322" s="52"/>
+      <c r="D322" s="52"/>
+      <c r="G322" s="52"/>
     </row>
     <row r="323" spans="3:7">
-      <c r="C323" s="53"/>
-      <c r="D323" s="53"/>
-      <c r="G323" s="53"/>
+      <c r="C323" s="52"/>
+      <c r="D323" s="52"/>
+      <c r="G323" s="52"/>
     </row>
     <row r="324" spans="3:7">
-      <c r="C324" s="53"/>
-      <c r="D324" s="53"/>
-      <c r="G324" s="53"/>
+      <c r="C324" s="52"/>
+      <c r="D324" s="52"/>
+      <c r="G324" s="52"/>
     </row>
     <row r="325" spans="3:7">
-      <c r="C325" s="53"/>
-      <c r="D325" s="53"/>
-      <c r="G325" s="53"/>
+      <c r="C325" s="52"/>
+      <c r="D325" s="52"/>
+      <c r="G325" s="52"/>
     </row>
     <row r="326" spans="3:7">
-      <c r="C326" s="53"/>
-      <c r="D326" s="53"/>
-      <c r="G326" s="53"/>
+      <c r="C326" s="52"/>
+      <c r="D326" s="52"/>
+      <c r="G326" s="52"/>
     </row>
     <row r="327" spans="3:7">
-      <c r="C327" s="53"/>
-      <c r="D327" s="53"/>
-      <c r="G327" s="53"/>
+      <c r="C327" s="52"/>
+      <c r="D327" s="52"/>
+      <c r="G327" s="52"/>
     </row>
     <row r="328" spans="3:7">
-      <c r="C328" s="53"/>
-      <c r="D328" s="53"/>
-      <c r="G328" s="53"/>
+      <c r="C328" s="52"/>
+      <c r="D328" s="52"/>
+      <c r="G328" s="52"/>
     </row>
     <row r="329" spans="3:7">
-      <c r="C329" s="53"/>
-      <c r="D329" s="53"/>
-      <c r="G329" s="53"/>
+      <c r="C329" s="52"/>
+      <c r="D329" s="52"/>
+      <c r="G329" s="52"/>
     </row>
     <row r="330" spans="3:7">
-      <c r="C330" s="53"/>
-      <c r="D330" s="53"/>
-      <c r="G330" s="53"/>
+      <c r="C330" s="52"/>
+      <c r="D330" s="52"/>
+      <c r="G330" s="52"/>
     </row>
     <row r="331" spans="3:7">
-      <c r="C331" s="53"/>
-      <c r="D331" s="53"/>
-      <c r="G331" s="53"/>
+      <c r="C331" s="52"/>
+      <c r="D331" s="52"/>
+      <c r="G331" s="52"/>
     </row>
     <row r="332" spans="3:7">
-      <c r="C332" s="53"/>
-      <c r="D332" s="53"/>
-      <c r="G332" s="53"/>
+      <c r="C332" s="52"/>
+      <c r="D332" s="52"/>
+      <c r="G332" s="52"/>
     </row>
     <row r="333" spans="3:7">
-      <c r="C333" s="53"/>
-      <c r="D333" s="53"/>
-      <c r="G333" s="53"/>
+      <c r="C333" s="52"/>
+      <c r="D333" s="52"/>
+      <c r="G333" s="52"/>
     </row>
     <row r="334" spans="3:7">
-      <c r="C334" s="53"/>
-      <c r="D334" s="53"/>
-      <c r="G334" s="53"/>
+      <c r="C334" s="52"/>
+      <c r="D334" s="52"/>
+      <c r="G334" s="52"/>
     </row>
     <row r="335" spans="3:7">
-      <c r="C335" s="53"/>
-      <c r="D335" s="53"/>
-      <c r="G335" s="53"/>
+      <c r="C335" s="52"/>
+      <c r="D335" s="52"/>
+      <c r="G335" s="52"/>
     </row>
     <row r="336" spans="3:7">
-      <c r="C336" s="53"/>
-      <c r="D336" s="53"/>
-      <c r="G336" s="53"/>
+      <c r="C336" s="52"/>
+      <c r="D336" s="52"/>
+      <c r="G336" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9524,7 +9522,7 @@
       <c r="B8" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>224</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -9541,7 +9539,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="1"/>
@@ -9551,12 +9549,12 @@
       <c r="F9" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="1"/>
@@ -9566,12 +9564,12 @@
       <c r="F10" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>107</v>
       </c>
       <c r="C11" s="1"/>
@@ -9581,12 +9579,12 @@
       <c r="F11" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="1"/>
@@ -9596,12 +9594,12 @@
       <c r="F12" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="1"/>
@@ -9611,12 +9609,12 @@
       <c r="F13" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="1"/>
@@ -9626,12 +9624,12 @@
       <c r="F14" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="1"/>
@@ -9641,12 +9639,12 @@
       <c r="F15" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="1"/>
@@ -9656,12 +9654,12 @@
       <c r="F16" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.8">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="1"/>
@@ -9671,12 +9669,12 @@
       <c r="F17" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="1"/>
@@ -9686,12 +9684,12 @@
       <c r="F18" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="1"/>
@@ -9701,12 +9699,12 @@
       <c r="F19" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="72">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="1"/>
@@ -9716,12 +9714,12 @@
       <c r="F20" s="1" t="s">
         <v>1760</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>1761</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="1"/>
@@ -9731,12 +9729,12 @@
       <c r="F21" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="40" t="s">
         <v>1767</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="72">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="46" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="1"/>
@@ -9746,12 +9744,12 @@
       <c r="F22" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="40" t="s">
         <v>1763</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="1"/>
@@ -9761,12 +9759,12 @@
       <c r="F23" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="40" t="s">
         <v>1765</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.8">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
@@ -9776,12 +9774,12 @@
       <c r="F24" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="1"/>
@@ -9791,12 +9789,12 @@
       <c r="F25" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="72">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="46" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="1"/>
@@ -9806,12 +9804,12 @@
       <c r="F26" s="1" t="s">
         <v>1760</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="40" t="s">
         <v>1761</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.8">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="1"/>
@@ -9821,12 +9819,12 @@
       <c r="F27" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.8">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="1"/>
@@ -9836,12 +9834,12 @@
       <c r="F28" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.8">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1"/>
@@ -9851,12 +9849,12 @@
       <c r="F29" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.8">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="1"/>
@@ -9866,12 +9864,12 @@
       <c r="F30" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28.8">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="46" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="1"/>
@@ -9881,12 +9879,12 @@
       <c r="F31" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.8">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="1"/>
@@ -9896,12 +9894,12 @@
       <c r="F32" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.8">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C33" s="1"/>
@@ -9911,12 +9909,12 @@
       <c r="F33" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.8">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="1"/>
@@ -9926,12 +9924,12 @@
       <c r="F34" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="72">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="1"/>
@@ -9946,7 +9944,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.8">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>138</v>
       </c>
       <c r="C36" s="1"/>
@@ -9956,12 +9954,12 @@
       <c r="F36" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="1"/>
@@ -9971,12 +9969,12 @@
       <c r="F37" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.8">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="46" t="s">
         <v>212</v>
       </c>
       <c r="C38" s="1"/>
@@ -9986,12 +9984,12 @@
       <c r="F38" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G38" s="41" t="s">
+      <c r="G38" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.8">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="46" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="1"/>
@@ -10001,12 +9999,12 @@
       <c r="F39" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.8">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="46" t="s">
         <v>65</v>
       </c>
       <c r="C40" s="1"/>
@@ -10016,12 +10014,12 @@
       <c r="F40" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.8">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="46" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="1"/>
@@ -10031,12 +10029,12 @@
       <c r="F41" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="1"/>
@@ -10046,12 +10044,12 @@
       <c r="F42" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28.8">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="46" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="1"/>
@@ -10061,12 +10059,12 @@
       <c r="F43" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="28.8">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C44" s="1"/>
@@ -10076,12 +10074,12 @@
       <c r="F44" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28.8">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="46" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="1"/>
@@ -10091,12 +10089,12 @@
       <c r="F45" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="72">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="46" t="s">
         <v>123</v>
       </c>
       <c r="C46" s="1"/>
@@ -10106,12 +10104,12 @@
       <c r="F46" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="40" t="s">
         <v>1763</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.8">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="46" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="1"/>
@@ -10121,12 +10119,12 @@
       <c r="F47" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="72">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="46" t="s">
         <v>124</v>
       </c>
       <c r="C48" s="1"/>
@@ -10136,12 +10134,12 @@
       <c r="F48" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="G48" s="40" t="s">
         <v>1763</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="72">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="46" t="s">
         <v>132</v>
       </c>
       <c r="C49" s="1"/>
@@ -10151,12 +10149,12 @@
       <c r="F49" s="1" t="s">
         <v>1760</v>
       </c>
-      <c r="G49" s="41" t="s">
+      <c r="G49" s="40" t="s">
         <v>1761</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.8">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="46" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="1"/>
@@ -10166,12 +10164,12 @@
       <c r="F50" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G50" s="41" t="s">
+      <c r="G50" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="28.8">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="46" t="s">
         <v>127</v>
       </c>
       <c r="C51" s="1"/>
@@ -10181,12 +10179,12 @@
       <c r="F51" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="28.8">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C52" s="1"/>
@@ -10196,12 +10194,12 @@
       <c r="F52" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="28.8">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="46" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="1"/>
@@ -10211,12 +10209,12 @@
       <c r="F53" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.8">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="46" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="1"/>
@@ -10226,12 +10224,12 @@
       <c r="F54" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.8">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="46" t="s">
         <v>117</v>
       </c>
       <c r="C55" s="1"/>
@@ -10241,12 +10239,12 @@
       <c r="F55" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G55" s="41" t="s">
+      <c r="G55" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.8">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="46" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="1"/>
@@ -10256,12 +10254,12 @@
       <c r="F56" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="28.8">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="1"/>
@@ -10271,12 +10269,12 @@
       <c r="F57" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.8">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="46" t="s">
         <v>188</v>
       </c>
       <c r="C58" s="1"/>
@@ -10286,12 +10284,12 @@
       <c r="F58" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G58" s="41" t="s">
+      <c r="G58" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="72">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="46" t="s">
         <v>200</v>
       </c>
       <c r="C59" s="1"/>
@@ -10301,12 +10299,12 @@
       <c r="F59" s="1" t="s">
         <v>1760</v>
       </c>
-      <c r="G59" s="41" t="s">
+      <c r="G59" s="40" t="s">
         <v>1761</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.8">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="46" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="1"/>
@@ -10316,12 +10314,12 @@
       <c r="F60" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G60" s="41" t="s">
+      <c r="G60" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.8">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="1"/>
@@ -10331,12 +10329,12 @@
       <c r="F61" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G61" s="41" t="s">
+      <c r="G61" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="72">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="46" t="s">
         <v>129</v>
       </c>
       <c r="C62" s="1"/>
@@ -10346,12 +10344,12 @@
       <c r="F62" s="1" t="s">
         <v>1760</v>
       </c>
-      <c r="G62" s="41" t="s">
+      <c r="G62" s="40" t="s">
         <v>1761</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.8">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="46" t="s">
         <v>126</v>
       </c>
       <c r="C63" s="1"/>
@@ -10361,16 +10359,16 @@
       <c r="F63" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="40" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="54"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
@@ -10379,11 +10377,11 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="56"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="1" t="s">
         <v>153</v>
       </c>
@@ -10392,11 +10390,11 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="56"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="55"/>
       <c r="D66" s="1" t="s">
         <v>153</v>
       </c>
@@ -10405,11 +10403,11 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="54"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="1" t="s">
         <v>153</v>
       </c>
@@ -10418,11 +10416,11 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="51"/>
-      <c r="C68" s="56"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="55"/>
       <c r="D68" s="1" t="s">
         <v>153</v>
       </c>
@@ -10431,27 +10429,27 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="86.4">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="56"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G69" s="57" t="s">
+      <c r="G69" s="56" t="s">
         <v>1818</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="56"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="55"/>
       <c r="D70" s="1" t="s">
         <v>153</v>
       </c>
@@ -10460,7 +10458,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="45" t="s">
+      <c r="A71" s="44" t="s">
         <v>95</v>
       </c>
       <c r="B71" s="17"/>
@@ -10473,7 +10471,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="28.8">
-      <c r="A72" s="45" t="s">
+      <c r="A72" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B72" s="17"/>
@@ -10490,7 +10488,7 @@
       <c r="I72" s="14"/>
     </row>
     <row r="73" spans="1:9" ht="158.4">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B73" s="17"/>
@@ -10506,7 +10504,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B74" s="17" t="s">
@@ -10526,7 +10524,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B75" s="17" t="s">
@@ -10546,7 +10544,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B76" s="17" t="s">
@@ -10566,7 +10564,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="45" t="s">
+      <c r="A77" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B77" s="17" t="s">
@@ -10586,7 +10584,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B78" s="17" t="s">
@@ -10606,7 +10604,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B79" s="17" t="s">
@@ -10626,7 +10624,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="45" t="s">
+      <c r="A80" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B80" s="17" t="s">
@@ -10646,7 +10644,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B81" s="17" t="s">
@@ -10666,7 +10664,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="17" t="s">
@@ -10686,7 +10684,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B83" s="17" t="s">
@@ -10706,7 +10704,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="45" t="s">
+      <c r="A84" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B84" s="17" t="s">
@@ -10726,7 +10724,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B85" s="17" t="s">
@@ -10746,7 +10744,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B86" s="17" t="s">
@@ -10766,7 +10764,7 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="45" t="s">
+      <c r="A87" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B87" s="17" t="s">
@@ -10786,7 +10784,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B88" s="17" t="s">
@@ -10806,7 +10804,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="45" t="s">
+      <c r="A89" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -10826,7 +10824,7 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="45" t="s">
+      <c r="A90" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B90" s="17" t="s">
@@ -10846,7 +10844,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="45" t="s">
+      <c r="A91" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B91" s="17" t="s">
@@ -10866,7 +10864,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="45" t="s">
+      <c r="A92" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B92" s="17" t="s">
@@ -10886,7 +10884,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B93" s="17" t="s">
@@ -10906,7 +10904,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B94" s="17" t="s">
@@ -10926,7 +10924,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B95" s="17" t="s">
@@ -10946,7 +10944,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="45" t="s">
+      <c r="A96" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B96" s="17" t="s">
@@ -10966,7 +10964,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="45" t="s">
+      <c r="A97" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B97" s="17" t="s">
@@ -10986,7 +10984,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B98" s="17" t="s">
@@ -11006,7 +11004,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="45" t="s">
+      <c r="A99" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B99" s="17" t="s">
@@ -11026,7 +11024,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="45" t="s">
+      <c r="A100" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B100" s="17" t="s">
@@ -11046,7 +11044,7 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="45" t="s">
+      <c r="A101" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="17" t="s">
@@ -11066,7 +11064,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="45" t="s">
+      <c r="A102" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B102" s="17" t="s">
@@ -11086,7 +11084,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="45" t="s">
+      <c r="A103" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -11106,7 +11104,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="45" t="s">
+      <c r="A104" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B104" s="17" t="s">
@@ -11126,7 +11124,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="45" t="s">
+      <c r="A105" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B105" s="17" t="s">
@@ -11146,7 +11144,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="17" t="s">
@@ -11166,7 +11164,7 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="45" t="s">
+      <c r="A107" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B107" s="17" t="s">
@@ -11186,7 +11184,7 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="45" t="s">
+      <c r="A108" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B108" s="17" t="s">
@@ -11206,7 +11204,7 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -11226,7 +11224,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="45" t="s">
+      <c r="A110" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="17" t="s">
@@ -11246,7 +11244,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="45" t="s">
+      <c r="A111" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="17" t="s">
@@ -11266,7 +11264,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="45" t="s">
+      <c r="A112" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B112" s="17" t="s">
@@ -11286,7 +11284,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="45" t="s">
+      <c r="A113" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B113" s="17" t="s">
@@ -11306,7 +11304,7 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="45" t="s">
+      <c r="A114" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B114" s="17" t="s">
@@ -11326,7 +11324,7 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="45" t="s">
+      <c r="A115" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B115" s="17" t="s">
@@ -11346,7 +11344,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="45" t="s">
+      <c r="A116" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B116" s="17" t="s">
@@ -11366,7 +11364,7 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="45" t="s">
+      <c r="A117" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B117" s="17" t="s">
@@ -11386,7 +11384,7 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="45" t="s">
+      <c r="A118" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B118" s="17" t="s">
@@ -11406,7 +11404,7 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="45" t="s">
+      <c r="A119" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B119" s="17" t="s">
@@ -11426,7 +11424,7 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="45" t="s">
+      <c r="A120" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B120" s="17" t="s">
@@ -11446,7 +11444,7 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="45" t="s">
+      <c r="A121" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B121" s="17" t="s">
@@ -11466,7 +11464,7 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="45" t="s">
+      <c r="A122" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B122" s="17" t="s">
@@ -11486,7 +11484,7 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="45" t="s">
+      <c r="A123" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B123" s="17" t="s">
@@ -11506,7 +11504,7 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="45" t="s">
+      <c r="A124" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B124" s="17" t="s">
@@ -11526,7 +11524,7 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="45" t="s">
+      <c r="A125" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B125" s="17" t="s">
@@ -11546,7 +11544,7 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="45" t="s">
+      <c r="A126" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B126" s="17" t="s">
@@ -11566,7 +11564,7 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="45" t="s">
+      <c r="A127" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B127" s="17" t="s">
@@ -11586,7 +11584,7 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="45" t="s">
+      <c r="A128" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B128" s="17" t="s">
@@ -11606,7 +11604,7 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="45" t="s">
+      <c r="A129" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B129" s="17" t="s">
@@ -11626,7 +11624,7 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="45" t="s">
+      <c r="A130" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -11646,7 +11644,7 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="45" t="s">
+      <c r="A131" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B131" s="17" t="s">
@@ -11666,7 +11664,7 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="45" t="s">
+      <c r="A132" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B132" s="17" t="s">
@@ -11686,7 +11684,7 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="45" t="s">
+      <c r="A133" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B133" s="17" t="s">
@@ -11706,7 +11704,7 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="45" t="s">
+      <c r="A134" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B134" s="17" t="s">
@@ -11726,7 +11724,7 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="45" t="s">
+      <c r="A135" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B135" s="17" t="s">
@@ -11746,7 +11744,7 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="45" t="s">
+      <c r="A136" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B136" s="17" t="s">
@@ -11766,7 +11764,7 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="45" t="s">
+      <c r="A137" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B137" s="17" t="s">
@@ -11786,7 +11784,7 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="45" t="s">
+      <c r="A138" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B138" s="17" t="s">
@@ -11806,7 +11804,7 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="45" t="s">
+      <c r="A139" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B139" s="17" t="s">
@@ -11826,7 +11824,7 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="45" t="s">
+      <c r="A140" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B140" s="17" t="s">
@@ -11846,7 +11844,7 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="45" t="s">
+      <c r="A141" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B141" s="17" t="s">
@@ -11866,7 +11864,7 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="45" t="s">
+      <c r="A142" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B142" s="17" t="s">
@@ -11886,7 +11884,7 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="45" t="s">
+      <c r="A143" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B143" s="17" t="s">
@@ -11906,7 +11904,7 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="45" t="s">
+      <c r="A144" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B144" s="17" t="s">
@@ -11926,7 +11924,7 @@
       </c>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="45" t="s">
+      <c r="A145" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B145" s="17" t="s">
@@ -11946,7 +11944,7 @@
       </c>
     </row>
     <row r="146" spans="1:9">
-      <c r="A146" s="45" t="s">
+      <c r="A146" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B146" s="17" t="s">
@@ -11966,7 +11964,7 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="45" t="s">
+      <c r="A147" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B147" s="17" t="s">
@@ -11986,7 +11984,7 @@
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="45" t="s">
+      <c r="A148" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B148" s="17" t="s">
@@ -12006,7 +12004,7 @@
       </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="45" t="s">
+      <c r="A149" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B149" s="17" t="s">
@@ -12026,7 +12024,7 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="45" t="s">
+      <c r="A150" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B150" s="17" t="s">
@@ -12046,7 +12044,7 @@
       </c>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="45" t="s">
+      <c r="A151" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B151" s="17" t="s">
@@ -12066,7 +12064,7 @@
       </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="45" t="s">
+      <c r="A152" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B152" s="17" t="s">
@@ -12086,7 +12084,7 @@
       </c>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="45" t="s">
+      <c r="A153" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B153" s="17" t="s">
@@ -12106,7 +12104,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="360">
-      <c r="A154" s="45" t="s">
+      <c r="A154" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B154" s="17"/>
@@ -12123,7 +12121,7 @@
       <c r="I154" s="14"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="45" t="s">
+      <c r="A155" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B155" s="17" t="s">
@@ -12143,7 +12141,7 @@
       </c>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="45" t="s">
+      <c r="A156" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B156" s="17" t="s">
@@ -12163,7 +12161,7 @@
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="45" t="s">
+      <c r="A157" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B157" s="17" t="s">
@@ -12183,7 +12181,7 @@
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="45" t="s">
+      <c r="A158" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B158" s="17" t="s">
@@ -12203,7 +12201,7 @@
       </c>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="45" t="s">
+      <c r="A159" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B159" s="17" t="s">
@@ -12223,7 +12221,7 @@
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="45" t="s">
+      <c r="A160" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B160" s="17" t="s">
@@ -12243,7 +12241,7 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="45" t="s">
+      <c r="A161" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B161" s="17" t="s">
@@ -12263,7 +12261,7 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="45" t="s">
+      <c r="A162" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B162" s="17" t="s">
@@ -12283,7 +12281,7 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="45" t="s">
+      <c r="A163" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B163" s="17" t="s">
@@ -12303,7 +12301,7 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="45" t="s">
+      <c r="A164" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B164" s="17" t="s">
@@ -12323,7 +12321,7 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="45" t="s">
+      <c r="A165" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B165" s="17" t="s">
@@ -12343,7 +12341,7 @@
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="45" t="s">
+      <c r="A166" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B166" s="17" t="s">
@@ -12363,7 +12361,7 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="45" t="s">
+      <c r="A167" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B167" s="17" t="s">
@@ -12383,7 +12381,7 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="45" t="s">
+      <c r="A168" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B168" s="17" t="s">
@@ -12403,7 +12401,7 @@
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="45" t="s">
+      <c r="A169" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B169" s="17" t="s">
@@ -12423,7 +12421,7 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="45" t="s">
+      <c r="A170" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B170" s="17" t="s">
@@ -12443,7 +12441,7 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="45" t="s">
+      <c r="A171" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B171" s="17" t="s">
@@ -12463,7 +12461,7 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="45" t="s">
+      <c r="A172" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B172" s="17" t="s">
@@ -12483,7 +12481,7 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="45" t="s">
+      <c r="A173" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B173" s="17" t="s">
@@ -12503,7 +12501,7 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="45" t="s">
+      <c r="A174" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B174" s="17" t="s">
@@ -12523,7 +12521,7 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="45" t="s">
+      <c r="A175" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B175" s="17" t="s">
@@ -12543,7 +12541,7 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="45" t="s">
+      <c r="A176" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B176" s="17" t="s">
@@ -12563,7 +12561,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="45" t="s">
+      <c r="A177" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B177" s="17" t="s">
@@ -12583,7 +12581,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="45" t="s">
+      <c r="A178" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B178" s="17" t="s">
@@ -12603,7 +12601,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="45" t="s">
+      <c r="A179" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B179" s="17" t="s">
@@ -12623,7 +12621,7 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="45" t="s">
+      <c r="A180" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B180" s="17" t="s">
@@ -12643,7 +12641,7 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="45" t="s">
+      <c r="A181" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B181" s="17" t="s">
@@ -12663,7 +12661,7 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="45" t="s">
+      <c r="A182" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B182" s="17" t="s">
@@ -12683,7 +12681,7 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="45" t="s">
+      <c r="A183" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B183" s="17" t="s">
@@ -12703,7 +12701,7 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="45" t="s">
+      <c r="A184" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B184" s="17" t="s">
@@ -12723,7 +12721,7 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="45" t="s">
+      <c r="A185" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B185" s="17" t="s">
@@ -12743,7 +12741,7 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="45" t="s">
+      <c r="A186" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B186" s="17" t="s">
@@ -12763,7 +12761,7 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="45" t="s">
+      <c r="A187" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B187" s="17" t="s">
@@ -12783,7 +12781,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="45" t="s">
+      <c r="A188" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B188" s="17" t="s">
@@ -12803,7 +12801,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="45" t="s">
+      <c r="A189" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B189" s="17" t="s">
@@ -12823,7 +12821,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="45" t="s">
+      <c r="A190" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -12843,7 +12841,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="45" t="s">
+      <c r="A191" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B191" s="17" t="s">
@@ -12863,7 +12861,7 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="45" t="s">
+      <c r="A192" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B192" s="17" t="s">
@@ -12883,7 +12881,7 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="45" t="s">
+      <c r="A193" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B193" s="17" t="s">
@@ -12903,7 +12901,7 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="45" t="s">
+      <c r="A194" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B194" s="17" t="s">
@@ -12923,7 +12921,7 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="45" t="s">
+      <c r="A195" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B195" s="17" t="s">
@@ -12943,7 +12941,7 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="45" t="s">
+      <c r="A196" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B196" s="17" t="s">
@@ -12963,7 +12961,7 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="45" t="s">
+      <c r="A197" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B197" s="17" t="s">
@@ -12983,7 +12981,7 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="45" t="s">
+      <c r="A198" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B198" s="17" t="s">
@@ -13003,7 +13001,7 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="45" t="s">
+      <c r="A199" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B199" s="17" t="s">
@@ -13023,7 +13021,7 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="45" t="s">
+      <c r="A200" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B200" s="17" t="s">
@@ -13043,7 +13041,7 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="45" t="s">
+      <c r="A201" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B201" s="17" t="s">
@@ -13063,7 +13061,7 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="45" t="s">
+      <c r="A202" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B202" s="17" t="s">
@@ -13083,7 +13081,7 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="45" t="s">
+      <c r="A203" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B203" s="17" t="s">
@@ -13103,7 +13101,7 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="45" t="s">
+      <c r="A204" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B204" s="17" t="s">
@@ -13123,7 +13121,7 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="45" t="s">
+      <c r="A205" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B205" s="17" t="s">
@@ -13143,7 +13141,7 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="45" t="s">
+      <c r="A206" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B206" s="17" t="s">
@@ -13163,7 +13161,7 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="45" t="s">
+      <c r="A207" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B207" s="17" t="s">
@@ -13183,7 +13181,7 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="45" t="s">
+      <c r="A208" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B208" s="17" t="s">
@@ -13203,7 +13201,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="45" t="s">
+      <c r="A209" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B209" s="17" t="s">
@@ -13223,7 +13221,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="45" t="s">
+      <c r="A210" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B210" s="17" t="s">
@@ -13243,7 +13241,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="45" t="s">
+      <c r="A211" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B211" s="17" t="s">
@@ -13263,7 +13261,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="45" t="s">
+      <c r="A212" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B212" s="17" t="s">
@@ -13283,7 +13281,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="45" t="s">
+      <c r="A213" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B213" s="17" t="s">
@@ -13303,7 +13301,7 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="45" t="s">
+      <c r="A214" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B214" s="17" t="s">
@@ -13323,7 +13321,7 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="45" t="s">
+      <c r="A215" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B215" s="17" t="s">
@@ -13343,7 +13341,7 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="45" t="s">
+      <c r="A216" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B216" s="17" t="s">
@@ -13363,7 +13361,7 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="45" t="s">
+      <c r="A217" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B217" s="17" t="s">
@@ -13383,7 +13381,7 @@
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="45" t="s">
+      <c r="A218" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B218" s="17" t="s">
@@ -13403,7 +13401,7 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="45" t="s">
+      <c r="A219" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B219" s="17" t="s">
@@ -13423,7 +13421,7 @@
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="45" t="s">
+      <c r="A220" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B220" s="17" t="s">
@@ -13443,7 +13441,7 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="45" t="s">
+      <c r="A221" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B221" s="17" t="s">
@@ -13463,7 +13461,7 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="45" t="s">
+      <c r="A222" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B222" s="17" t="s">
@@ -13483,7 +13481,7 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="45" t="s">
+      <c r="A223" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B223" s="17" t="s">
@@ -13503,7 +13501,7 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="45" t="s">
+      <c r="A224" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B224" s="17" t="s">
@@ -13523,7 +13521,7 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="45" t="s">
+      <c r="A225" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B225" s="17" t="s">
@@ -13543,7 +13541,7 @@
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="45" t="s">
+      <c r="A226" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B226" s="17" t="s">
@@ -13563,7 +13561,7 @@
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="45" t="s">
+      <c r="A227" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B227" s="17" t="s">
@@ -13583,7 +13581,7 @@
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="45" t="s">
+      <c r="A228" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B228" s="17" t="s">
@@ -13603,7 +13601,7 @@
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="45" t="s">
+      <c r="A229" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B229" s="17" t="s">
@@ -13623,7 +13621,7 @@
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="45" t="s">
+      <c r="A230" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B230" s="17" t="s">
@@ -13643,7 +13641,7 @@
       </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="45" t="s">
+      <c r="A231" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B231" s="17" t="s">
@@ -13663,7 +13661,7 @@
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="45" t="s">
+      <c r="A232" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B232" s="17" t="s">
@@ -13683,7 +13681,7 @@
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="45" t="s">
+      <c r="A233" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B233" s="17" t="s">
@@ -13703,7 +13701,7 @@
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="45" t="s">
+      <c r="A234" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B234" s="17" t="s">
@@ -14699,7 +14697,7 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="28.8">
-      <c r="A284" s="45" t="s">
+      <c r="A284" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B284" s="17"/>
@@ -14715,7 +14713,7 @@
       </c>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="45" t="s">
+      <c r="A285" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B285" s="17" t="s">
@@ -14735,7 +14733,7 @@
       </c>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="45" t="s">
+      <c r="A286" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B286" s="17" t="s">
@@ -14755,7 +14753,7 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="45" t="s">
+      <c r="A287" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B287" s="17" t="s">
@@ -14775,7 +14773,7 @@
       </c>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="45" t="s">
+      <c r="A288" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B288" s="17" t="s">
@@ -14795,7 +14793,7 @@
       </c>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="45" t="s">
+      <c r="A289" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B289" s="17" t="s">
@@ -14815,7 +14813,7 @@
       </c>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="45" t="s">
+      <c r="A290" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B290" s="17" t="s">
@@ -14835,7 +14833,7 @@
       </c>
     </row>
     <row r="291" spans="1:6">
-      <c r="A291" s="45" t="s">
+      <c r="A291" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B291" s="17" t="s">
@@ -14855,7 +14853,7 @@
       </c>
     </row>
     <row r="292" spans="1:6">
-      <c r="A292" s="45" t="s">
+      <c r="A292" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B292" s="17" t="s">
@@ -14875,7 +14873,7 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="45" t="s">
+      <c r="A293" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B293" s="17" t="s">
@@ -14895,7 +14893,7 @@
       </c>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="45" t="s">
+      <c r="A294" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B294" s="17" t="s">
@@ -14915,7 +14913,7 @@
       </c>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="45" t="s">
+      <c r="A295" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B295" s="17" t="s">
@@ -14935,7 +14933,7 @@
       </c>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296" s="45" t="s">
+      <c r="A296" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B296" s="17" t="s">
@@ -14955,7 +14953,7 @@
       </c>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="45" t="s">
+      <c r="A297" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B297" s="17" t="s">
@@ -14975,7 +14973,7 @@
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="45" t="s">
+      <c r="A298" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B298" s="17" t="s">
@@ -14995,7 +14993,7 @@
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="45" t="s">
+      <c r="A299" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B299" s="17" t="s">
@@ -15015,7 +15013,7 @@
       </c>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="45" t="s">
+      <c r="A300" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B300" s="17" t="s">
@@ -15035,7 +15033,7 @@
       </c>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="45" t="s">
+      <c r="A301" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B301" s="17" t="s">
@@ -15055,7 +15053,7 @@
       </c>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="45" t="s">
+      <c r="A302" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B302" s="17" t="s">
@@ -15075,7 +15073,7 @@
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="45" t="s">
+      <c r="A303" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B303" s="17" t="s">
@@ -15095,7 +15093,7 @@
       </c>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="45" t="s">
+      <c r="A304" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B304" s="17" t="s">
@@ -15115,7 +15113,7 @@
       </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="45" t="s">
+      <c r="A305" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B305" s="17" t="s">
@@ -15135,7 +15133,7 @@
       </c>
     </row>
     <row r="306" spans="1:6">
-      <c r="A306" s="45" t="s">
+      <c r="A306" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B306" s="17" t="s">
@@ -15155,7 +15153,7 @@
       </c>
     </row>
     <row r="307" spans="1:6">
-      <c r="A307" s="45" t="s">
+      <c r="A307" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B307" s="17" t="s">
@@ -15175,7 +15173,7 @@
       </c>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="45" t="s">
+      <c r="A308" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B308" s="17" t="s">
@@ -15195,7 +15193,7 @@
       </c>
     </row>
     <row r="309" spans="1:6">
-      <c r="A309" s="45" t="s">
+      <c r="A309" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B309" s="17" t="s">
@@ -15215,7 +15213,7 @@
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="45" t="s">
+      <c r="A310" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B310" s="17" t="s">
@@ -15235,7 +15233,7 @@
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="45" t="s">
+      <c r="A311" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B311" s="17" t="s">
@@ -15255,7 +15253,7 @@
       </c>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" s="45" t="s">
+      <c r="A312" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B312" s="17" t="s">
@@ -15275,7 +15273,7 @@
       </c>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="45" t="s">
+      <c r="A313" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B313" s="17" t="s">
@@ -15295,7 +15293,7 @@
       </c>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="45" t="s">
+      <c r="A314" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B314" s="17" t="s">
@@ -15315,7 +15313,7 @@
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="45" t="s">
+      <c r="A315" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B315" s="17" t="s">
@@ -15335,7 +15333,7 @@
       </c>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="45" t="s">
+      <c r="A316" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B316" s="17" t="s">
@@ -15355,7 +15353,7 @@
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="45" t="s">
+      <c r="A317" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B317" s="17" t="s">
@@ -15375,7 +15373,7 @@
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="45" t="s">
+      <c r="A318" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B318" s="17" t="s">
@@ -15395,7 +15393,7 @@
       </c>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="45" t="s">
+      <c r="A319" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B319" s="17" t="s">
@@ -15415,7 +15413,7 @@
       </c>
     </row>
     <row r="320" spans="1:6">
-      <c r="A320" s="45" t="s">
+      <c r="A320" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B320" s="17" t="s">
@@ -15435,7 +15433,7 @@
       </c>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="45" t="s">
+      <c r="A321" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B321" s="17" t="s">
@@ -15455,7 +15453,7 @@
       </c>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="45" t="s">
+      <c r="A322" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B322" s="17" t="s">
@@ -15475,7 +15473,7 @@
       </c>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="45" t="s">
+      <c r="A323" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B323" s="17" t="s">
@@ -15495,7 +15493,7 @@
       </c>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="45" t="s">
+      <c r="A324" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B324" s="17" t="s">
@@ -15515,7 +15513,7 @@
       </c>
     </row>
     <row r="325" spans="1:7">
-      <c r="A325" s="45" t="s">
+      <c r="A325" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B325" s="17" t="s">
@@ -15535,7 +15533,7 @@
       </c>
     </row>
     <row r="326" spans="1:7">
-      <c r="A326" s="45" t="s">
+      <c r="A326" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B326" s="17" t="s">
@@ -15555,7 +15553,7 @@
       </c>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="45" t="s">
+      <c r="A327" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B327" s="17" t="s">
@@ -15575,7 +15573,7 @@
       </c>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="45" t="s">
+      <c r="A328" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B328" s="17" t="s">
@@ -15595,7 +15593,7 @@
       </c>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="45" t="s">
+      <c r="A329" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B329" s="17" t="s">
@@ -15615,7 +15613,7 @@
       </c>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="45" t="s">
+      <c r="A330" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B330" s="17" t="s">
@@ -15635,7 +15633,7 @@
       </c>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="45" t="s">
+      <c r="A331" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B331" s="17" t="s">
@@ -15655,7 +15653,7 @@
       </c>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="45" t="s">
+      <c r="A332" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B332" s="17" t="s">
@@ -15675,7 +15673,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="72">
-      <c r="A333" s="45" t="s">
+      <c r="A333" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B333" s="17"/>
@@ -15691,7 +15689,7 @@
       </c>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="45" t="s">
+      <c r="A334" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B334" s="17" t="s">
@@ -15711,7 +15709,7 @@
       </c>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="45" t="s">
+      <c r="A335" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B335" s="17" t="s">
@@ -15731,7 +15729,7 @@
       </c>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="45" t="s">
+      <c r="A336" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B336" s="17" t="s">
@@ -15751,7 +15749,7 @@
       </c>
     </row>
     <row r="337" spans="1:6">
-      <c r="A337" s="45" t="s">
+      <c r="A337" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B337" s="17" t="s">
@@ -15771,7 +15769,7 @@
       </c>
     </row>
     <row r="338" spans="1:6">
-      <c r="A338" s="45" t="s">
+      <c r="A338" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B338" s="17" t="s">
@@ -15791,7 +15789,7 @@
       </c>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" s="45" t="s">
+      <c r="A339" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B339" s="17" t="s">
@@ -15811,7 +15809,7 @@
       </c>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="45" t="s">
+      <c r="A340" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B340" s="17" t="s">
@@ -15831,7 +15829,7 @@
       </c>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="45" t="s">
+      <c r="A341" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B341" s="17" t="s">
@@ -15851,7 +15849,7 @@
       </c>
     </row>
     <row r="342" spans="1:6">
-      <c r="A342" s="45" t="s">
+      <c r="A342" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B342" s="17" t="s">
@@ -15871,7 +15869,7 @@
       </c>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="45" t="s">
+      <c r="A343" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B343" s="17" t="s">
@@ -15891,7 +15889,7 @@
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" s="45" t="s">
+      <c r="A344" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B344" s="17" t="s">
@@ -15911,7 +15909,7 @@
       </c>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="45" t="s">
+      <c r="A345" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B345" s="17" t="s">
@@ -15931,7 +15929,7 @@
       </c>
     </row>
     <row r="346" spans="1:6">
-      <c r="A346" s="45" t="s">
+      <c r="A346" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B346" s="17" t="s">
@@ -15951,7 +15949,7 @@
       </c>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="45" t="s">
+      <c r="A347" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B347" s="17" t="s">
@@ -15971,7 +15969,7 @@
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="45" t="s">
+      <c r="A348" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B348" s="17" t="s">
@@ -15991,7 +15989,7 @@
       </c>
     </row>
     <row r="349" spans="1:6">
-      <c r="A349" s="45" t="s">
+      <c r="A349" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B349" s="17" t="s">
@@ -16011,7 +16009,7 @@
       </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="45" t="s">
+      <c r="A350" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B350" s="17" t="s">
@@ -16031,7 +16029,7 @@
       </c>
     </row>
     <row r="351" spans="1:6">
-      <c r="A351" s="45" t="s">
+      <c r="A351" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B351" s="17" t="s">
@@ -16051,7 +16049,7 @@
       </c>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="45" t="s">
+      <c r="A352" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B352" s="17" t="s">
@@ -16071,7 +16069,7 @@
       </c>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="45" t="s">
+      <c r="A353" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B353" s="17" t="s">
@@ -16091,7 +16089,7 @@
       </c>
     </row>
     <row r="354" spans="1:6">
-      <c r="A354" s="45" t="s">
+      <c r="A354" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B354" s="17" t="s">
@@ -16111,7 +16109,7 @@
       </c>
     </row>
     <row r="355" spans="1:6">
-      <c r="A355" s="45" t="s">
+      <c r="A355" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B355" s="17" t="s">
@@ -16131,7 +16129,7 @@
       </c>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="45" t="s">
+      <c r="A356" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B356" s="17" t="s">
@@ -16151,7 +16149,7 @@
       </c>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="45" t="s">
+      <c r="A357" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B357" s="17" t="s">
@@ -16171,7 +16169,7 @@
       </c>
     </row>
     <row r="358" spans="1:6">
-      <c r="A358" s="45" t="s">
+      <c r="A358" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B358" s="17" t="s">
@@ -16191,7 +16189,7 @@
       </c>
     </row>
     <row r="359" spans="1:6">
-      <c r="A359" s="45" t="s">
+      <c r="A359" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B359" s="17" t="s">
@@ -16211,7 +16209,7 @@
       </c>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="45" t="s">
+      <c r="A360" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B360" s="17" t="s">
@@ -16231,7 +16229,7 @@
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="45" t="s">
+      <c r="A361" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B361" s="17" t="s">
@@ -16251,7 +16249,7 @@
       </c>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" s="45" t="s">
+      <c r="A362" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B362" s="17" t="s">
@@ -16271,7 +16269,7 @@
       </c>
     </row>
     <row r="363" spans="1:6">
-      <c r="A363" s="45" t="s">
+      <c r="A363" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B363" s="17" t="s">
@@ -16291,7 +16289,7 @@
       </c>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" s="45" t="s">
+      <c r="A364" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B364" s="17" t="s">
@@ -16311,7 +16309,7 @@
       </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" s="45" t="s">
+      <c r="A365" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B365" s="17" t="s">
@@ -16331,7 +16329,7 @@
       </c>
     </row>
     <row r="366" spans="1:6">
-      <c r="A366" s="45" t="s">
+      <c r="A366" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B366" s="17" t="s">
@@ -16351,7 +16349,7 @@
       </c>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" s="45" t="s">
+      <c r="A367" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B367" s="17" t="s">
@@ -16371,7 +16369,7 @@
       </c>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" s="45" t="s">
+      <c r="A368" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B368" s="17" t="s">
@@ -16391,7 +16389,7 @@
       </c>
     </row>
     <row r="369" spans="1:7">
-      <c r="A369" s="45" t="s">
+      <c r="A369" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B369" s="17" t="s">
@@ -16411,7 +16409,7 @@
       </c>
     </row>
     <row r="370" spans="1:7">
-      <c r="A370" s="45" t="s">
+      <c r="A370" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B370" s="17" t="s">
@@ -16431,7 +16429,7 @@
       </c>
     </row>
     <row r="371" spans="1:7">
-      <c r="A371" s="45" t="s">
+      <c r="A371" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B371" s="17" t="s">
@@ -16451,7 +16449,7 @@
       </c>
     </row>
     <row r="372" spans="1:7">
-      <c r="A372" s="45" t="s">
+      <c r="A372" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B372" s="17" t="s">
@@ -16471,7 +16469,7 @@
       </c>
     </row>
     <row r="373" spans="1:7">
-      <c r="A373" s="45" t="s">
+      <c r="A373" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B373" s="17" t="s">
@@ -16491,7 +16489,7 @@
       </c>
     </row>
     <row r="374" spans="1:7">
-      <c r="A374" s="45" t="s">
+      <c r="A374" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B374" s="17" t="s">
@@ -16511,7 +16509,7 @@
       </c>
     </row>
     <row r="375" spans="1:7">
-      <c r="A375" s="45" t="s">
+      <c r="A375" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B375" s="17" t="s">
@@ -16531,7 +16529,7 @@
       </c>
     </row>
     <row r="376" spans="1:7">
-      <c r="A376" s="45" t="s">
+      <c r="A376" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B376" s="17" t="s">
@@ -16551,7 +16549,7 @@
       </c>
     </row>
     <row r="377" spans="1:7">
-      <c r="A377" s="45" t="s">
+      <c r="A377" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B377" s="17" t="s">
@@ -16571,7 +16569,7 @@
       </c>
     </row>
     <row r="378" spans="1:7">
-      <c r="A378" s="45" t="s">
+      <c r="A378" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B378" s="17" t="s">
@@ -16591,7 +16589,7 @@
       </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="45" t="s">
+      <c r="A379" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B379" s="17" t="s">
@@ -16611,7 +16609,7 @@
       </c>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="45" t="s">
+      <c r="A380" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B380" s="17" t="s">
@@ -16631,7 +16629,7 @@
       </c>
     </row>
     <row r="381" spans="1:7">
-      <c r="A381" s="45" t="s">
+      <c r="A381" s="44" t="s">
         <v>80</v>
       </c>
       <c r="B381" s="17" t="s">
@@ -16651,7 +16649,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" ht="57.6">
-      <c r="A382" s="45" t="s">
+      <c r="A382" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B382" s="17"/>
@@ -16667,7 +16665,7 @@
       </c>
     </row>
     <row r="383" spans="1:7">
-      <c r="A383" s="45" t="s">
+      <c r="A383" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B383" s="17" t="s">
@@ -16687,7 +16685,7 @@
       </c>
     </row>
     <row r="384" spans="1:7">
-      <c r="A384" s="45" t="s">
+      <c r="A384" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B384" s="17" t="s">
@@ -16707,7 +16705,7 @@
       </c>
     </row>
     <row r="385" spans="1:6">
-      <c r="A385" s="45" t="s">
+      <c r="A385" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B385" s="17" t="s">
@@ -16727,7 +16725,7 @@
       </c>
     </row>
     <row r="386" spans="1:6">
-      <c r="A386" s="45" t="s">
+      <c r="A386" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B386" s="17" t="s">
@@ -16747,7 +16745,7 @@
       </c>
     </row>
     <row r="387" spans="1:6">
-      <c r="A387" s="45" t="s">
+      <c r="A387" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B387" s="17" t="s">
@@ -16767,7 +16765,7 @@
       </c>
     </row>
     <row r="388" spans="1:6">
-      <c r="A388" s="45" t="s">
+      <c r="A388" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B388" s="17" t="s">
@@ -16787,7 +16785,7 @@
       </c>
     </row>
     <row r="389" spans="1:6">
-      <c r="A389" s="45" t="s">
+      <c r="A389" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B389" s="17" t="s">
@@ -16807,7 +16805,7 @@
       </c>
     </row>
     <row r="390" spans="1:6">
-      <c r="A390" s="45" t="s">
+      <c r="A390" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B390" s="17" t="s">
@@ -16827,7 +16825,7 @@
       </c>
     </row>
     <row r="391" spans="1:6">
-      <c r="A391" s="45" t="s">
+      <c r="A391" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B391" s="17" t="s">
@@ -16847,7 +16845,7 @@
       </c>
     </row>
     <row r="392" spans="1:6">
-      <c r="A392" s="45" t="s">
+      <c r="A392" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B392" s="17" t="s">
@@ -16867,7 +16865,7 @@
       </c>
     </row>
     <row r="393" spans="1:6">
-      <c r="A393" s="45" t="s">
+      <c r="A393" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B393" s="17" t="s">
@@ -16887,7 +16885,7 @@
       </c>
     </row>
     <row r="394" spans="1:6">
-      <c r="A394" s="45" t="s">
+      <c r="A394" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B394" s="17" t="s">
@@ -16907,7 +16905,7 @@
       </c>
     </row>
     <row r="395" spans="1:6">
-      <c r="A395" s="45" t="s">
+      <c r="A395" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B395" s="17" t="s">
@@ -16927,7 +16925,7 @@
       </c>
     </row>
     <row r="396" spans="1:6">
-      <c r="A396" s="45" t="s">
+      <c r="A396" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B396" s="17" t="s">
@@ -16947,7 +16945,7 @@
       </c>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="45" t="s">
+      <c r="A397" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B397" s="17" t="s">
@@ -16967,7 +16965,7 @@
       </c>
     </row>
     <row r="398" spans="1:6">
-      <c r="A398" s="45" t="s">
+      <c r="A398" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B398" s="17" t="s">
@@ -16987,7 +16985,7 @@
       </c>
     </row>
     <row r="399" spans="1:6">
-      <c r="A399" s="45" t="s">
+      <c r="A399" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B399" s="17" t="s">
@@ -17007,7 +17005,7 @@
       </c>
     </row>
     <row r="400" spans="1:6">
-      <c r="A400" s="45" t="s">
+      <c r="A400" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B400" s="17" t="s">
@@ -17027,7 +17025,7 @@
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="A401" s="45" t="s">
+      <c r="A401" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B401" s="17" t="s">
@@ -17047,7 +17045,7 @@
       </c>
     </row>
     <row r="402" spans="1:6">
-      <c r="A402" s="45" t="s">
+      <c r="A402" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B402" s="17" t="s">
@@ -17067,7 +17065,7 @@
       </c>
     </row>
     <row r="403" spans="1:6">
-      <c r="A403" s="45" t="s">
+      <c r="A403" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B403" s="17" t="s">
@@ -17087,7 +17085,7 @@
       </c>
     </row>
     <row r="404" spans="1:6">
-      <c r="A404" s="45" t="s">
+      <c r="A404" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B404" s="17" t="s">
@@ -17107,7 +17105,7 @@
       </c>
     </row>
     <row r="405" spans="1:6">
-      <c r="A405" s="45" t="s">
+      <c r="A405" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B405" s="17" t="s">
@@ -17127,7 +17125,7 @@
       </c>
     </row>
     <row r="406" spans="1:6">
-      <c r="A406" s="45" t="s">
+      <c r="A406" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B406" s="17" t="s">
@@ -17147,7 +17145,7 @@
       </c>
     </row>
     <row r="407" spans="1:6">
-      <c r="A407" s="45" t="s">
+      <c r="A407" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B407" s="17" t="s">
@@ -17167,7 +17165,7 @@
       </c>
     </row>
     <row r="408" spans="1:6">
-      <c r="A408" s="45" t="s">
+      <c r="A408" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B408" s="17" t="s">
@@ -17187,7 +17185,7 @@
       </c>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" s="45" t="s">
+      <c r="A409" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B409" s="17" t="s">
@@ -17207,7 +17205,7 @@
       </c>
     </row>
     <row r="410" spans="1:6">
-      <c r="A410" s="45" t="s">
+      <c r="A410" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B410" s="17" t="s">
@@ -17227,7 +17225,7 @@
       </c>
     </row>
     <row r="411" spans="1:6">
-      <c r="A411" s="45" t="s">
+      <c r="A411" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B411" s="17" t="s">
@@ -17247,7 +17245,7 @@
       </c>
     </row>
     <row r="412" spans="1:6">
-      <c r="A412" s="45" t="s">
+      <c r="A412" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B412" s="17" t="s">
@@ -17267,7 +17265,7 @@
       </c>
     </row>
     <row r="413" spans="1:6">
-      <c r="A413" s="45" t="s">
+      <c r="A413" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B413" s="17" t="s">
@@ -17287,7 +17285,7 @@
       </c>
     </row>
     <row r="414" spans="1:6">
-      <c r="A414" s="45" t="s">
+      <c r="A414" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B414" s="17" t="s">
@@ -17307,7 +17305,7 @@
       </c>
     </row>
     <row r="415" spans="1:6">
-      <c r="A415" s="45" t="s">
+      <c r="A415" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B415" s="17" t="s">
@@ -17327,7 +17325,7 @@
       </c>
     </row>
     <row r="416" spans="1:6">
-      <c r="A416" s="45" t="s">
+      <c r="A416" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B416" s="17" t="s">
@@ -17347,7 +17345,7 @@
       </c>
     </row>
     <row r="417" spans="1:7">
-      <c r="A417" s="45" t="s">
+      <c r="A417" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B417" s="17" t="s">
@@ -17367,7 +17365,7 @@
       </c>
     </row>
     <row r="418" spans="1:7">
-      <c r="A418" s="45" t="s">
+      <c r="A418" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B418" s="17" t="s">
@@ -25650,7 +25648,7 @@
       <c r="D833" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="E833" s="46" t="s">
+      <c r="E833" s="45" t="s">
         <v>827</v>
       </c>
       <c r="F833" s="14" t="s">
@@ -25670,7 +25668,7 @@
       <c r="D834" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="E834" s="46" t="s">
+      <c r="E834" s="45" t="s">
         <v>827</v>
       </c>
       <c r="F834" s="14" t="s">
@@ -25690,7 +25688,7 @@
       <c r="D835" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="E835" s="46" t="s">
+      <c r="E835" s="45" t="s">
         <v>827</v>
       </c>
       <c r="F835" s="14" t="s">
@@ -25710,7 +25708,7 @@
       <c r="D836" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="E836" s="46" t="s">
+      <c r="E836" s="45" t="s">
         <v>827</v>
       </c>
       <c r="F836" s="14" t="s">
@@ -30798,7 +30796,7 @@
       <c r="D1091" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E1091" s="41" t="s">
+      <c r="E1091" s="40" t="s">
         <v>350</v>
       </c>
       <c r="F1091" s="14" t="s">
@@ -30818,7 +30816,7 @@
       <c r="D1092" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E1092" s="41" t="s">
+      <c r="E1092" s="40" t="s">
         <v>350</v>
       </c>
       <c r="F1092" s="14" t="s">
@@ -30964,7 +30962,7 @@
       <c r="D1099" s="14" t="s">
         <v>880</v>
       </c>
-      <c r="E1099" s="41" t="s">
+      <c r="E1099" s="40" t="s">
         <v>1077</v>
       </c>
       <c r="F1099" s="14" t="s">
@@ -30984,7 +30982,7 @@
       <c r="D1100" s="14" t="s">
         <v>880</v>
       </c>
-      <c r="E1100" s="41" t="s">
+      <c r="E1100" s="40" t="s">
         <v>1670</v>
       </c>
       <c r="F1100" s="14" t="s">
@@ -31004,7 +31002,7 @@
       <c r="D1101" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="E1101" s="41" t="s">
+      <c r="E1101" s="40" t="s">
         <v>360</v>
       </c>
       <c r="F1101" s="14" t="s">
@@ -31027,7 +31025,7 @@
       <c r="D1102" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="E1102" s="41" t="s">
+      <c r="E1102" s="40" t="s">
         <v>360</v>
       </c>
       <c r="F1102" s="14" t="s">
@@ -31050,7 +31048,7 @@
       <c r="D1103" s="14" t="s">
         <v>882</v>
       </c>
-      <c r="E1103" s="41" t="s">
+      <c r="E1103" s="40" t="s">
         <v>1076</v>
       </c>
       <c r="F1103" s="14" t="s">
@@ -31070,7 +31068,7 @@
       <c r="D1104" s="14" t="s">
         <v>882</v>
       </c>
-      <c r="E1104" s="41" t="s">
+      <c r="E1104" s="40" t="s">
         <v>1672</v>
       </c>
       <c r="F1104" s="14" t="s">
@@ -31090,7 +31088,7 @@
       <c r="D1105" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E1105" s="41" t="s">
+      <c r="E1105" s="40" t="s">
         <v>350</v>
       </c>
       <c r="F1105" s="14" t="s">
@@ -31110,7 +31108,7 @@
       <c r="D1106" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E1106" s="41" t="s">
+      <c r="E1106" s="40" t="s">
         <v>350</v>
       </c>
       <c r="F1106" s="14" t="s">
@@ -31210,7 +31208,7 @@
       <c r="D1111" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="E1111" s="41" t="s">
+      <c r="E1111" s="40" t="s">
         <v>373</v>
       </c>
       <c r="F1111" s="14" t="s">
@@ -31230,7 +31228,7 @@
       <c r="D1112" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="E1112" s="41" t="s">
+      <c r="E1112" s="40" t="s">
         <v>373</v>
       </c>
       <c r="F1112" s="14" t="s">
@@ -31250,7 +31248,7 @@
       <c r="D1113" s="14" t="s">
         <v>883</v>
       </c>
-      <c r="E1113" s="41" t="s">
+      <c r="E1113" s="40" t="s">
         <v>1078</v>
       </c>
       <c r="F1113" s="14" t="s">
@@ -31270,7 +31268,7 @@
       <c r="D1114" s="14" t="s">
         <v>883</v>
       </c>
-      <c r="E1114" s="41" t="s">
+      <c r="E1114" s="40" t="s">
         <v>1673</v>
       </c>
       <c r="F1114" s="14" t="s">
@@ -31290,7 +31288,7 @@
       <c r="D1115" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="E1115" s="41" t="s">
+      <c r="E1115" s="40" t="s">
         <v>1079</v>
       </c>
       <c r="F1115" s="14" t="s">
@@ -31310,7 +31308,7 @@
       <c r="D1116" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="E1116" s="41" t="s">
+      <c r="E1116" s="40" t="s">
         <v>1673</v>
       </c>
       <c r="F1116" s="14" t="s">
@@ -31330,7 +31328,7 @@
       <c r="D1117" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="E1117" s="41" t="s">
+      <c r="E1117" s="40" t="s">
         <v>373</v>
       </c>
       <c r="F1117" s="14" t="s">
@@ -31350,7 +31348,7 @@
       <c r="D1118" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="E1118" s="41" t="s">
+      <c r="E1118" s="40" t="s">
         <v>373</v>
       </c>
       <c r="F1118" s="14" t="s">
@@ -31423,7 +31421,7 @@
       <c r="C1122" s="35">
         <v>1</v>
       </c>
-      <c r="D1122" s="58" t="s">
+      <c r="D1122" s="57" t="s">
         <v>1827</v>
       </c>
       <c r="E1122" s="1" t="s">
@@ -31446,7 +31444,7 @@
       <c r="C1123" s="35">
         <v>2</v>
       </c>
-      <c r="D1123" s="58" t="s">
+      <c r="D1123" s="57" t="s">
         <v>1830</v>
       </c>
       <c r="E1123" s="1" t="s">
@@ -31469,7 +31467,7 @@
       <c r="C1124" s="35">
         <v>3</v>
       </c>
-      <c r="D1124" s="58" t="s">
+      <c r="D1124" s="57" t="s">
         <v>1832</v>
       </c>
       <c r="E1124" s="1" t="s">
@@ -31492,7 +31490,7 @@
       <c r="C1125" s="35">
         <v>4</v>
       </c>
-      <c r="D1125" s="58" t="s">
+      <c r="D1125" s="57" t="s">
         <v>1833</v>
       </c>
       <c r="E1125" s="1" t="s">
@@ -31512,7 +31510,7 @@
       <c r="C1126" s="35">
         <v>5</v>
       </c>
-      <c r="D1126" s="58" t="s">
+      <c r="D1126" s="57" t="s">
         <v>1834</v>
       </c>
       <c r="E1126" s="1" t="s">
@@ -31532,7 +31530,7 @@
       <c r="C1127" s="35">
         <v>6</v>
       </c>
-      <c r="D1127" s="58" t="s">
+      <c r="D1127" s="57" t="s">
         <v>1835</v>
       </c>
       <c r="E1127" s="1" t="s">
@@ -31552,7 +31550,7 @@
       <c r="C1128" s="35">
         <v>7</v>
       </c>
-      <c r="D1128" s="58" t="s">
+      <c r="D1128" s="57" t="s">
         <v>1836</v>
       </c>
       <c r="E1128" s="1" t="s">
@@ -31572,7 +31570,7 @@
       <c r="C1129" s="35">
         <v>8</v>
       </c>
-      <c r="D1129" s="58" t="s">
+      <c r="D1129" s="57" t="s">
         <v>1837</v>
       </c>
       <c r="E1129" s="1" t="s">
@@ -31648,7 +31646,7 @@
       </c>
     </row>
     <row r="1135" spans="1:7" ht="28.8">
-      <c r="A1135" s="47" t="s">
+      <c r="A1135" s="46" t="s">
         <v>1727</v>
       </c>
       <c r="B1135" s="24"/>
@@ -31659,12 +31657,12 @@
       <c r="F1135" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1135" s="41" t="s">
+      <c r="G1135" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1136" spans="1:7" ht="28.8">
-      <c r="A1136" s="47" t="s">
+      <c r="A1136" s="46" t="s">
         <v>1728</v>
       </c>
       <c r="B1136"/>
@@ -31675,12 +31673,12 @@
       <c r="F1136" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1136" s="41" t="s">
+      <c r="G1136" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1137" spans="1:7" ht="28.8">
-      <c r="A1137" s="47" t="s">
+      <c r="A1137" s="46" t="s">
         <v>1694</v>
       </c>
       <c r="B1137" s="25"/>
@@ -31691,12 +31689,12 @@
       <c r="F1137" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1137" s="41" t="s">
+      <c r="G1137" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1138" spans="1:7" ht="28.8">
-      <c r="A1138" s="47" t="s">
+      <c r="A1138" s="46" t="s">
         <v>1729</v>
       </c>
       <c r="B1138"/>
@@ -31707,12 +31705,12 @@
       <c r="F1138" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1138" s="41" t="s">
+      <c r="G1138" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1139" spans="1:7" ht="28.8">
-      <c r="A1139" s="47" t="s">
+      <c r="A1139" s="46" t="s">
         <v>1709</v>
       </c>
       <c r="B1139" s="14"/>
@@ -31723,12 +31721,12 @@
       <c r="F1139" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1139" s="41" t="s">
+      <c r="G1139" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1140" spans="1:7" ht="28.8">
-      <c r="A1140" s="47" t="s">
+      <c r="A1140" s="46" t="s">
         <v>1702</v>
       </c>
       <c r="B1140" s="14"/>
@@ -31739,12 +31737,12 @@
       <c r="F1140" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1140" s="41" t="s">
+      <c r="G1140" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1141" spans="1:7" ht="28.8">
-      <c r="A1141" s="47" t="s">
+      <c r="A1141" s="46" t="s">
         <v>1701</v>
       </c>
       <c r="B1141" s="26"/>
@@ -31755,12 +31753,12 @@
       <c r="F1141" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1141" s="41" t="s">
+      <c r="G1141" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1142" spans="1:7" ht="28.8">
-      <c r="A1142" s="47" t="s">
+      <c r="A1142" s="46" t="s">
         <v>1747</v>
       </c>
       <c r="B1142" s="14"/>
@@ -31771,12 +31769,12 @@
       <c r="F1142" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1142" s="41" t="s">
+      <c r="G1142" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1143" spans="1:7" ht="28.8">
-      <c r="A1143" s="47" t="s">
+      <c r="A1143" s="46" t="s">
         <v>1676</v>
       </c>
       <c r="B1143" s="14"/>
@@ -31787,12 +31785,12 @@
       <c r="F1143" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1143" s="41" t="s">
+      <c r="G1143" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1144" spans="1:7" ht="28.8">
-      <c r="A1144" s="47" t="s">
+      <c r="A1144" s="46" t="s">
         <v>1708</v>
       </c>
       <c r="B1144" s="14"/>
@@ -31803,12 +31801,12 @@
       <c r="F1144" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1144" s="41" t="s">
+      <c r="G1144" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1145" spans="1:7" ht="28.8">
-      <c r="A1145" s="47" t="s">
+      <c r="A1145" s="46" t="s">
         <v>1748</v>
       </c>
       <c r="B1145" s="26"/>
@@ -31819,12 +31817,12 @@
       <c r="F1145" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1145" s="41" t="s">
+      <c r="G1145" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1146" spans="1:7" ht="28.8">
-      <c r="A1146" s="47" t="s">
+      <c r="A1146" s="46" t="s">
         <v>1707</v>
       </c>
       <c r="B1146" s="14"/>
@@ -31835,12 +31833,12 @@
       <c r="F1146" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1146" s="41" t="s">
+      <c r="G1146" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1147" spans="1:7" ht="28.8">
-      <c r="A1147" s="47" t="s">
+      <c r="A1147" s="46" t="s">
         <v>1710</v>
       </c>
       <c r="B1147" s="14"/>
@@ -31851,12 +31849,12 @@
       <c r="F1147" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1147" s="41" t="s">
+      <c r="G1147" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1148" spans="1:7" ht="28.8">
-      <c r="A1148" s="47" t="s">
+      <c r="A1148" s="46" t="s">
         <v>1695</v>
       </c>
       <c r="B1148" s="14"/>
@@ -31867,12 +31865,12 @@
       <c r="F1148" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1148" s="41" t="s">
+      <c r="G1148" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1149" spans="1:7" ht="28.8">
-      <c r="A1149" s="47" t="s">
+      <c r="A1149" s="46" t="s">
         <v>1739</v>
       </c>
       <c r="B1149" s="14"/>
@@ -31883,12 +31881,12 @@
       <c r="F1149" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1149" s="41" t="s">
+      <c r="G1149" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1150" spans="1:7" ht="28.8">
-      <c r="A1150" s="47" t="s">
+      <c r="A1150" s="46" t="s">
         <v>1706</v>
       </c>
       <c r="B1150" s="14"/>
@@ -31899,12 +31897,12 @@
       <c r="F1150" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1150" s="41" t="s">
+      <c r="G1150" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1151" spans="1:7" ht="28.8">
-      <c r="A1151" s="47" t="s">
+      <c r="A1151" s="46" t="s">
         <v>1682</v>
       </c>
       <c r="B1151" s="14"/>
@@ -31915,12 +31913,12 @@
       <c r="F1151" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1151" s="41" t="s">
+      <c r="G1151" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1152" spans="1:7" ht="28.8">
-      <c r="A1152" s="47" t="s">
+      <c r="A1152" s="46" t="s">
         <v>1713</v>
       </c>
       <c r="B1152" s="14"/>
@@ -31931,12 +31929,12 @@
       <c r="F1152" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1152" s="41" t="s">
+      <c r="G1152" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1153" spans="1:7" ht="28.8">
-      <c r="A1153" s="47" t="s">
+      <c r="A1153" s="46" t="s">
         <v>1712</v>
       </c>
       <c r="B1153" s="14"/>
@@ -31947,12 +31945,12 @@
       <c r="F1153" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1153" s="41" t="s">
+      <c r="G1153" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1154" spans="1:7" ht="28.8">
-      <c r="A1154" s="47" t="s">
+      <c r="A1154" s="46" t="s">
         <v>1714</v>
       </c>
       <c r="B1154" s="14"/>
@@ -31963,12 +31961,12 @@
       <c r="F1154" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1154" s="41" t="s">
+      <c r="G1154" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1155" spans="1:7" ht="28.8">
-      <c r="A1155" s="47" t="s">
+      <c r="A1155" s="46" t="s">
         <v>1749</v>
       </c>
       <c r="B1155" s="14"/>
@@ -31979,12 +31977,12 @@
       <c r="F1155" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1155" s="41" t="s">
+      <c r="G1155" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1156" spans="1:7" ht="28.8">
-      <c r="A1156" s="47" t="s">
+      <c r="A1156" s="46" t="s">
         <v>1685</v>
       </c>
       <c r="B1156" s="14"/>
@@ -31995,12 +31993,12 @@
       <c r="F1156" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1156" s="41" t="s">
+      <c r="G1156" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1157" spans="1:7" ht="28.8">
-      <c r="A1157" s="47" t="s">
+      <c r="A1157" s="46" t="s">
         <v>1733</v>
       </c>
       <c r="B1157" s="14"/>
@@ -32011,12 +32009,12 @@
       <c r="F1157" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1157" s="41" t="s">
+      <c r="G1157" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="1158" spans="1:7" ht="28.8">
-      <c r="A1158" s="47" t="s">
+      <c r="A1158" s="46" t="s">
         <v>1711</v>
       </c>
       <c r="B1158" s="14"/>
@@ -32027,7 +32025,7 @@
       <c r="F1158" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="G1158" s="41" t="s">
+      <c r="G1158" s="40" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -32162,1644 +32160,1644 @@
       <c r="C1184" s="35"/>
     </row>
     <row r="1294" spans="5:5">
-      <c r="E1294" s="41"/>
+      <c r="E1294" s="40"/>
     </row>
     <row r="1295" spans="5:5">
-      <c r="E1295" s="41"/>
+      <c r="E1295" s="40"/>
     </row>
     <row r="1296" spans="5:5">
-      <c r="E1296" s="41"/>
+      <c r="E1296" s="40"/>
     </row>
     <row r="1297" spans="5:7">
-      <c r="E1297" s="41"/>
+      <c r="E1297" s="40"/>
     </row>
     <row r="1298" spans="5:7">
-      <c r="E1298" s="41"/>
+      <c r="E1298" s="40"/>
     </row>
     <row r="1299" spans="5:7">
-      <c r="E1299" s="41"/>
+      <c r="E1299" s="40"/>
     </row>
     <row r="1300" spans="5:7">
-      <c r="E1300" s="41"/>
+      <c r="E1300" s="40"/>
     </row>
     <row r="1310" spans="5:7">
-      <c r="E1310" s="41"/>
+      <c r="E1310" s="40"/>
     </row>
     <row r="1312" spans="5:7">
-      <c r="E1312" s="41"/>
-      <c r="G1312" s="41"/>
+      <c r="E1312" s="40"/>
+      <c r="G1312" s="40"/>
     </row>
     <row r="1313" spans="5:7">
-      <c r="G1313" s="41"/>
+      <c r="G1313" s="40"/>
     </row>
     <row r="1314" spans="5:7">
-      <c r="E1314" s="42"/>
-      <c r="G1314" s="41"/>
+      <c r="E1314" s="41"/>
+      <c r="G1314" s="40"/>
     </row>
     <row r="1315" spans="5:7">
-      <c r="E1315" s="41"/>
-      <c r="G1315" s="41"/>
+      <c r="E1315" s="40"/>
+      <c r="G1315" s="40"/>
     </row>
     <row r="1316" spans="5:7">
-      <c r="E1316" s="41"/>
-      <c r="G1316" s="41"/>
+      <c r="E1316" s="40"/>
+      <c r="G1316" s="40"/>
     </row>
     <row r="1317" spans="5:7">
-      <c r="E1317" s="41"/>
-      <c r="G1317" s="41"/>
+      <c r="E1317" s="40"/>
+      <c r="G1317" s="40"/>
     </row>
     <row r="1318" spans="5:7">
-      <c r="E1318" s="41"/>
-      <c r="G1318" s="41"/>
+      <c r="E1318" s="40"/>
+      <c r="G1318" s="40"/>
     </row>
     <row r="1319" spans="5:7">
-      <c r="E1319" s="41"/>
-      <c r="G1319" s="41"/>
+      <c r="E1319" s="40"/>
+      <c r="G1319" s="40"/>
     </row>
     <row r="1320" spans="5:7">
-      <c r="E1320" s="43"/>
-      <c r="G1320" s="41"/>
+      <c r="E1320" s="42"/>
+      <c r="G1320" s="40"/>
     </row>
     <row r="1321" spans="5:7">
-      <c r="E1321" s="41"/>
-      <c r="G1321" s="41"/>
+      <c r="E1321" s="40"/>
+      <c r="G1321" s="40"/>
     </row>
     <row r="1322" spans="5:7">
-      <c r="E1322" s="41"/>
-      <c r="G1322" s="41"/>
+      <c r="E1322" s="40"/>
+      <c r="G1322" s="40"/>
     </row>
     <row r="1323" spans="5:7">
-      <c r="E1323" s="41"/>
-      <c r="G1323" s="41"/>
+      <c r="E1323" s="40"/>
+      <c r="G1323" s="40"/>
     </row>
     <row r="1324" spans="5:7">
-      <c r="E1324" s="41"/>
-      <c r="G1324" s="41"/>
+      <c r="E1324" s="40"/>
+      <c r="G1324" s="40"/>
     </row>
     <row r="1325" spans="5:7">
-      <c r="E1325" s="41"/>
-      <c r="G1325" s="41"/>
+      <c r="E1325" s="40"/>
+      <c r="G1325" s="40"/>
     </row>
     <row r="1326" spans="5:7">
-      <c r="E1326" s="41"/>
-      <c r="G1326" s="41"/>
+      <c r="E1326" s="40"/>
+      <c r="G1326" s="40"/>
     </row>
     <row r="1327" spans="5:7">
-      <c r="E1327" s="41"/>
-      <c r="G1327" s="41"/>
+      <c r="E1327" s="40"/>
+      <c r="G1327" s="40"/>
     </row>
     <row r="1328" spans="5:7">
-      <c r="E1328" s="41"/>
-      <c r="G1328" s="41"/>
+      <c r="E1328" s="40"/>
+      <c r="G1328" s="40"/>
     </row>
     <row r="1329" spans="5:7">
-      <c r="E1329" s="41"/>
-      <c r="G1329" s="41"/>
+      <c r="E1329" s="40"/>
+      <c r="G1329" s="40"/>
     </row>
     <row r="1330" spans="5:7">
-      <c r="E1330" s="41"/>
-      <c r="G1330" s="41"/>
+      <c r="E1330" s="40"/>
+      <c r="G1330" s="40"/>
     </row>
     <row r="1331" spans="5:7">
-      <c r="E1331" s="41"/>
-      <c r="G1331" s="41"/>
+      <c r="E1331" s="40"/>
+      <c r="G1331" s="40"/>
     </row>
     <row r="1332" spans="5:7">
-      <c r="E1332" s="41"/>
-      <c r="G1332" s="41"/>
+      <c r="E1332" s="40"/>
+      <c r="G1332" s="40"/>
     </row>
     <row r="1333" spans="5:7">
-      <c r="E1333" s="41"/>
-      <c r="G1333" s="41"/>
+      <c r="E1333" s="40"/>
+      <c r="G1333" s="40"/>
     </row>
     <row r="1334" spans="5:7">
-      <c r="E1334" s="41"/>
-      <c r="G1334" s="41"/>
+      <c r="E1334" s="40"/>
+      <c r="G1334" s="40"/>
     </row>
     <row r="1335" spans="5:7">
-      <c r="E1335" s="41"/>
-      <c r="G1335" s="41"/>
+      <c r="E1335" s="40"/>
+      <c r="G1335" s="40"/>
     </row>
     <row r="1336" spans="5:7">
-      <c r="E1336" s="41"/>
-      <c r="G1336" s="41"/>
+      <c r="E1336" s="40"/>
+      <c r="G1336" s="40"/>
     </row>
     <row r="1337" spans="5:7">
-      <c r="E1337" s="41"/>
-      <c r="G1337" s="41"/>
+      <c r="E1337" s="40"/>
+      <c r="G1337" s="40"/>
     </row>
     <row r="1338" spans="5:7">
-      <c r="E1338" s="41"/>
-      <c r="G1338" s="41"/>
+      <c r="E1338" s="40"/>
+      <c r="G1338" s="40"/>
     </row>
     <row r="1339" spans="5:7">
-      <c r="E1339" s="41"/>
-      <c r="G1339" s="41"/>
+      <c r="E1339" s="40"/>
+      <c r="G1339" s="40"/>
     </row>
     <row r="1340" spans="5:7">
-      <c r="E1340" s="41"/>
-      <c r="G1340" s="41"/>
+      <c r="E1340" s="40"/>
+      <c r="G1340" s="40"/>
     </row>
     <row r="1341" spans="5:7">
-      <c r="E1341" s="41"/>
-      <c r="G1341" s="41"/>
+      <c r="E1341" s="40"/>
+      <c r="G1341" s="40"/>
     </row>
     <row r="1342" spans="5:7">
-      <c r="E1342" s="41"/>
-      <c r="G1342" s="41"/>
+      <c r="E1342" s="40"/>
+      <c r="G1342" s="40"/>
     </row>
     <row r="1343" spans="5:7">
-      <c r="E1343" s="41"/>
-      <c r="G1343" s="41"/>
+      <c r="E1343" s="40"/>
+      <c r="G1343" s="40"/>
     </row>
     <row r="1344" spans="5:7">
-      <c r="E1344" s="41"/>
-      <c r="G1344" s="41"/>
+      <c r="E1344" s="40"/>
+      <c r="G1344" s="40"/>
     </row>
     <row r="1345" spans="5:7">
-      <c r="E1345" s="41"/>
-      <c r="G1345" s="41"/>
+      <c r="E1345" s="40"/>
+      <c r="G1345" s="40"/>
     </row>
     <row r="1346" spans="5:7">
-      <c r="E1346" s="41"/>
-      <c r="G1346" s="41"/>
+      <c r="E1346" s="40"/>
+      <c r="G1346" s="40"/>
     </row>
     <row r="1347" spans="5:7">
-      <c r="E1347" s="41"/>
-      <c r="G1347" s="41"/>
+      <c r="E1347" s="40"/>
+      <c r="G1347" s="40"/>
     </row>
     <row r="1348" spans="5:7">
-      <c r="E1348" s="41"/>
-      <c r="G1348" s="41"/>
+      <c r="E1348" s="40"/>
+      <c r="G1348" s="40"/>
     </row>
     <row r="1349" spans="5:7">
-      <c r="E1349" s="41"/>
-      <c r="G1349" s="41"/>
+      <c r="E1349" s="40"/>
+      <c r="G1349" s="40"/>
     </row>
     <row r="1350" spans="5:7">
-      <c r="E1350" s="41"/>
-      <c r="G1350" s="41"/>
+      <c r="E1350" s="40"/>
+      <c r="G1350" s="40"/>
     </row>
     <row r="1351" spans="5:7">
-      <c r="E1351" s="41"/>
-      <c r="G1351" s="41"/>
+      <c r="E1351" s="40"/>
+      <c r="G1351" s="40"/>
     </row>
     <row r="1352" spans="5:7">
-      <c r="E1352" s="41"/>
-      <c r="G1352" s="41"/>
+      <c r="E1352" s="40"/>
+      <c r="G1352" s="40"/>
     </row>
     <row r="1353" spans="5:7">
-      <c r="E1353" s="41"/>
-      <c r="G1353" s="41"/>
+      <c r="E1353" s="40"/>
+      <c r="G1353" s="40"/>
     </row>
     <row r="1354" spans="5:7">
-      <c r="E1354" s="41"/>
-      <c r="G1354" s="41"/>
+      <c r="E1354" s="40"/>
+      <c r="G1354" s="40"/>
     </row>
     <row r="1355" spans="5:7">
-      <c r="E1355" s="41"/>
-      <c r="G1355" s="41"/>
+      <c r="E1355" s="40"/>
+      <c r="G1355" s="40"/>
     </row>
     <row r="1356" spans="5:7">
-      <c r="E1356" s="41"/>
-      <c r="G1356" s="41"/>
+      <c r="E1356" s="40"/>
+      <c r="G1356" s="40"/>
     </row>
     <row r="1357" spans="5:7">
-      <c r="E1357" s="41"/>
-      <c r="G1357" s="41"/>
+      <c r="E1357" s="40"/>
+      <c r="G1357" s="40"/>
     </row>
     <row r="1358" spans="5:7">
-      <c r="E1358" s="41"/>
-      <c r="G1358" s="41"/>
+      <c r="E1358" s="40"/>
+      <c r="G1358" s="40"/>
     </row>
     <row r="1359" spans="5:7">
-      <c r="E1359" s="41"/>
-      <c r="G1359" s="41"/>
+      <c r="E1359" s="40"/>
+      <c r="G1359" s="40"/>
     </row>
     <row r="1367" spans="5:7">
-      <c r="E1367" s="41"/>
+      <c r="E1367" s="40"/>
     </row>
     <row r="1376" spans="5:7">
-      <c r="G1376" s="41"/>
+      <c r="G1376" s="40"/>
     </row>
     <row r="1377" spans="7:7">
-      <c r="G1377" s="41"/>
+      <c r="G1377" s="40"/>
     </row>
     <row r="1378" spans="7:7">
-      <c r="G1378" s="41"/>
+      <c r="G1378" s="40"/>
     </row>
     <row r="1379" spans="7:7">
-      <c r="G1379" s="41"/>
+      <c r="G1379" s="40"/>
     </row>
     <row r="1380" spans="7:7">
-      <c r="G1380" s="41"/>
+      <c r="G1380" s="40"/>
     </row>
     <row r="1381" spans="7:7">
-      <c r="G1381" s="41"/>
+      <c r="G1381" s="40"/>
     </row>
     <row r="1382" spans="7:7">
-      <c r="G1382" s="41"/>
+      <c r="G1382" s="40"/>
     </row>
     <row r="1383" spans="7:7">
-      <c r="G1383" s="41"/>
+      <c r="G1383" s="40"/>
     </row>
     <row r="1384" spans="7:7">
-      <c r="G1384" s="41"/>
+      <c r="G1384" s="40"/>
     </row>
     <row r="1385" spans="7:7">
-      <c r="G1385" s="41"/>
+      <c r="G1385" s="40"/>
     </row>
     <row r="1386" spans="7:7">
-      <c r="G1386" s="41"/>
+      <c r="G1386" s="40"/>
     </row>
     <row r="1387" spans="7:7">
-      <c r="G1387" s="41"/>
+      <c r="G1387" s="40"/>
     </row>
     <row r="1388" spans="7:7">
-      <c r="G1388" s="41"/>
+      <c r="G1388" s="40"/>
     </row>
     <row r="1389" spans="7:7">
-      <c r="G1389" s="41"/>
+      <c r="G1389" s="40"/>
     </row>
     <row r="1419" spans="5:5">
-      <c r="E1419" s="41"/>
+      <c r="E1419" s="40"/>
     </row>
     <row r="1438" spans="5:5">
-      <c r="E1438" s="41"/>
+      <c r="E1438" s="40"/>
     </row>
     <row r="1439" spans="5:5">
-      <c r="E1439" s="41"/>
+      <c r="E1439" s="40"/>
     </row>
     <row r="1442" spans="5:5">
-      <c r="E1442" s="41"/>
+      <c r="E1442" s="40"/>
     </row>
     <row r="1443" spans="5:5">
-      <c r="E1443" s="41"/>
+      <c r="E1443" s="40"/>
     </row>
     <row r="1444" spans="5:5">
-      <c r="E1444" s="41"/>
+      <c r="E1444" s="40"/>
     </row>
     <row r="1445" spans="5:5">
-      <c r="E1445" s="41"/>
+      <c r="E1445" s="40"/>
     </row>
     <row r="1446" spans="5:5">
-      <c r="E1446" s="41"/>
+      <c r="E1446" s="40"/>
     </row>
     <row r="1447" spans="5:5">
-      <c r="E1447" s="41"/>
+      <c r="E1447" s="40"/>
     </row>
     <row r="1453" spans="5:5">
-      <c r="E1453" s="41"/>
+      <c r="E1453" s="40"/>
     </row>
     <row r="1454" spans="5:5">
-      <c r="E1454" s="41"/>
+      <c r="E1454" s="40"/>
     </row>
     <row r="1455" spans="5:5">
-      <c r="E1455" s="41"/>
+      <c r="E1455" s="40"/>
     </row>
     <row r="1456" spans="5:5">
-      <c r="E1456" s="41"/>
+      <c r="E1456" s="40"/>
     </row>
     <row r="1457" spans="5:5">
-      <c r="E1457" s="41"/>
+      <c r="E1457" s="40"/>
     </row>
     <row r="1458" spans="5:5">
-      <c r="E1458" s="41"/>
+      <c r="E1458" s="40"/>
     </row>
     <row r="1459" spans="5:5">
-      <c r="E1459" s="41"/>
+      <c r="E1459" s="40"/>
     </row>
     <row r="1461" spans="5:5">
-      <c r="E1461" s="41"/>
+      <c r="E1461" s="40"/>
     </row>
     <row r="1462" spans="5:5">
-      <c r="E1462" s="41"/>
+      <c r="E1462" s="40"/>
     </row>
     <row r="1463" spans="5:5">
-      <c r="E1463" s="41"/>
+      <c r="E1463" s="40"/>
     </row>
     <row r="1464" spans="5:5">
-      <c r="E1464" s="41"/>
+      <c r="E1464" s="40"/>
     </row>
     <row r="1468" spans="5:5">
-      <c r="E1468" s="41"/>
+      <c r="E1468" s="40"/>
     </row>
     <row r="1475" spans="5:5">
-      <c r="E1475" s="41"/>
+      <c r="E1475" s="40"/>
     </row>
     <row r="1479" spans="5:5">
-      <c r="E1479" s="41"/>
+      <c r="E1479" s="40"/>
     </row>
     <row r="1490" spans="5:7">
-      <c r="E1490" s="41"/>
+      <c r="E1490" s="40"/>
     </row>
     <row r="1500" spans="5:7">
-      <c r="E1500" s="41"/>
+      <c r="E1500" s="40"/>
     </row>
     <row r="1502" spans="5:7">
-      <c r="G1502" s="41"/>
+      <c r="G1502" s="40"/>
     </row>
     <row r="1503" spans="5:7">
-      <c r="G1503" s="41"/>
+      <c r="G1503" s="40"/>
     </row>
     <row r="1504" spans="5:7">
-      <c r="G1504" s="41"/>
+      <c r="G1504" s="40"/>
     </row>
     <row r="1505" spans="7:7">
-      <c r="G1505" s="41"/>
+      <c r="G1505" s="40"/>
     </row>
     <row r="1506" spans="7:7">
-      <c r="G1506" s="41"/>
+      <c r="G1506" s="40"/>
     </row>
     <row r="1507" spans="7:7">
-      <c r="G1507" s="41"/>
+      <c r="G1507" s="40"/>
     </row>
     <row r="1508" spans="7:7">
-      <c r="G1508" s="41"/>
+      <c r="G1508" s="40"/>
     </row>
     <row r="1509" spans="7:7">
-      <c r="G1509" s="41"/>
+      <c r="G1509" s="40"/>
     </row>
     <row r="1510" spans="7:7">
-      <c r="G1510" s="41"/>
+      <c r="G1510" s="40"/>
     </row>
     <row r="1511" spans="7:7">
-      <c r="G1511" s="41"/>
+      <c r="G1511" s="40"/>
     </row>
     <row r="1512" spans="7:7">
-      <c r="G1512" s="41"/>
+      <c r="G1512" s="40"/>
     </row>
     <row r="1513" spans="7:7">
-      <c r="G1513" s="41"/>
+      <c r="G1513" s="40"/>
     </row>
     <row r="1514" spans="7:7">
-      <c r="G1514" s="41"/>
+      <c r="G1514" s="40"/>
     </row>
     <row r="1515" spans="7:7">
-      <c r="G1515" s="41"/>
+      <c r="G1515" s="40"/>
     </row>
     <row r="1516" spans="7:7">
-      <c r="G1516" s="41"/>
+      <c r="G1516" s="40"/>
     </row>
     <row r="1517" spans="7:7">
-      <c r="G1517" s="41"/>
+      <c r="G1517" s="40"/>
     </row>
     <row r="1518" spans="7:7">
-      <c r="G1518" s="41"/>
+      <c r="G1518" s="40"/>
     </row>
     <row r="1519" spans="7:7">
-      <c r="G1519" s="41"/>
+      <c r="G1519" s="40"/>
     </row>
     <row r="1520" spans="7:7">
-      <c r="G1520" s="41"/>
+      <c r="G1520" s="40"/>
     </row>
     <row r="1521" spans="5:7">
-      <c r="E1521" s="41"/>
-      <c r="G1521" s="41"/>
+      <c r="E1521" s="40"/>
+      <c r="G1521" s="40"/>
     </row>
     <row r="1523" spans="5:7">
-      <c r="G1523" s="41"/>
+      <c r="G1523" s="40"/>
     </row>
     <row r="1524" spans="5:7">
-      <c r="G1524" s="41"/>
+      <c r="G1524" s="40"/>
     </row>
     <row r="1525" spans="5:7">
-      <c r="G1525" s="41"/>
+      <c r="G1525" s="40"/>
     </row>
     <row r="1526" spans="5:7">
-      <c r="G1526" s="41"/>
+      <c r="G1526" s="40"/>
     </row>
     <row r="1527" spans="5:7">
-      <c r="G1527" s="41"/>
+      <c r="G1527" s="40"/>
     </row>
     <row r="1528" spans="5:7">
-      <c r="G1528" s="41"/>
+      <c r="G1528" s="40"/>
     </row>
     <row r="1529" spans="5:7">
-      <c r="G1529" s="41"/>
+      <c r="G1529" s="40"/>
     </row>
     <row r="1530" spans="5:7">
-      <c r="E1530" s="41"/>
-      <c r="G1530" s="41"/>
+      <c r="E1530" s="40"/>
+      <c r="G1530" s="40"/>
     </row>
     <row r="1531" spans="5:7">
-      <c r="G1531" s="41"/>
+      <c r="G1531" s="40"/>
     </row>
     <row r="1532" spans="5:7">
-      <c r="G1532" s="41"/>
+      <c r="G1532" s="40"/>
     </row>
     <row r="1533" spans="5:7">
-      <c r="G1533" s="41"/>
+      <c r="G1533" s="40"/>
     </row>
     <row r="1534" spans="5:7">
-      <c r="G1534" s="41"/>
+      <c r="G1534" s="40"/>
     </row>
     <row r="1535" spans="5:7">
-      <c r="G1535" s="41"/>
+      <c r="G1535" s="40"/>
     </row>
     <row r="1536" spans="5:7">
-      <c r="G1536" s="41"/>
+      <c r="G1536" s="40"/>
     </row>
     <row r="1537" spans="5:7">
-      <c r="G1537" s="41"/>
+      <c r="G1537" s="40"/>
     </row>
     <row r="1538" spans="5:7">
-      <c r="E1538" s="41"/>
-      <c r="G1538" s="41"/>
+      <c r="E1538" s="40"/>
+      <c r="G1538" s="40"/>
     </row>
     <row r="1540" spans="5:7">
-      <c r="G1540" s="41"/>
+      <c r="G1540" s="40"/>
     </row>
     <row r="1541" spans="5:7">
-      <c r="G1541" s="41"/>
+      <c r="G1541" s="40"/>
     </row>
     <row r="1542" spans="5:7">
-      <c r="G1542" s="41"/>
+      <c r="G1542" s="40"/>
     </row>
     <row r="1543" spans="5:7">
-      <c r="G1543" s="41"/>
+      <c r="G1543" s="40"/>
     </row>
     <row r="1544" spans="5:7">
-      <c r="G1544" s="41"/>
+      <c r="G1544" s="40"/>
     </row>
     <row r="1545" spans="5:7">
-      <c r="G1545" s="41"/>
+      <c r="G1545" s="40"/>
     </row>
     <row r="1546" spans="5:7">
-      <c r="G1546" s="41"/>
+      <c r="G1546" s="40"/>
     </row>
     <row r="1547" spans="5:7">
-      <c r="E1547" s="41"/>
-      <c r="G1547" s="41"/>
+      <c r="E1547" s="40"/>
+      <c r="G1547" s="40"/>
     </row>
     <row r="1548" spans="5:7">
-      <c r="G1548" s="41"/>
+      <c r="G1548" s="40"/>
     </row>
     <row r="1549" spans="5:7">
-      <c r="G1549" s="41"/>
+      <c r="G1549" s="40"/>
     </row>
     <row r="1550" spans="5:7">
-      <c r="G1550" s="41"/>
+      <c r="G1550" s="40"/>
     </row>
     <row r="1551" spans="5:7">
-      <c r="G1551" s="41"/>
+      <c r="G1551" s="40"/>
     </row>
     <row r="1552" spans="5:7">
-      <c r="G1552" s="41"/>
+      <c r="G1552" s="40"/>
     </row>
     <row r="1553" spans="5:7">
-      <c r="G1553" s="41"/>
+      <c r="G1553" s="40"/>
     </row>
     <row r="1554" spans="5:7">
-      <c r="G1554" s="41"/>
+      <c r="G1554" s="40"/>
     </row>
     <row r="1555" spans="5:7">
-      <c r="E1555" s="41"/>
-      <c r="G1555" s="41"/>
+      <c r="E1555" s="40"/>
+      <c r="G1555" s="40"/>
     </row>
     <row r="1563" spans="5:7">
-      <c r="E1563" s="41"/>
+      <c r="E1563" s="40"/>
     </row>
     <row r="1570" spans="5:5">
-      <c r="E1570" s="41"/>
+      <c r="E1570" s="40"/>
     </row>
     <row r="1586" spans="5:5">
-      <c r="E1586" s="42"/>
+      <c r="E1586" s="41"/>
     </row>
     <row r="1587" spans="5:5">
-      <c r="E1587" s="42"/>
+      <c r="E1587" s="41"/>
     </row>
     <row r="1590" spans="5:5">
-      <c r="E1590" s="42"/>
+      <c r="E1590" s="41"/>
     </row>
     <row r="1591" spans="5:5">
-      <c r="E1591" s="41"/>
+      <c r="E1591" s="40"/>
     </row>
     <row r="1604" spans="5:5">
-      <c r="E1604" s="41"/>
+      <c r="E1604" s="40"/>
     </row>
     <row r="1616" spans="5:5">
-      <c r="E1616" s="41"/>
+      <c r="E1616" s="40"/>
     </row>
     <row r="1620" spans="5:5">
-      <c r="E1620" s="41"/>
+      <c r="E1620" s="40"/>
     </row>
     <row r="1621" spans="5:5">
-      <c r="E1621" s="41"/>
+      <c r="E1621" s="40"/>
     </row>
     <row r="1622" spans="5:5">
-      <c r="E1622" s="41"/>
+      <c r="E1622" s="40"/>
     </row>
     <row r="1623" spans="5:5">
-      <c r="E1623" s="41"/>
+      <c r="E1623" s="40"/>
     </row>
     <row r="1624" spans="5:5">
-      <c r="E1624" s="41"/>
+      <c r="E1624" s="40"/>
     </row>
     <row r="1625" spans="5:5">
-      <c r="E1625" s="41"/>
+      <c r="E1625" s="40"/>
     </row>
     <row r="1626" spans="5:5">
-      <c r="E1626" s="41"/>
+      <c r="E1626" s="40"/>
     </row>
     <row r="1627" spans="5:5">
-      <c r="E1627" s="41"/>
+      <c r="E1627" s="40"/>
     </row>
     <row r="1628" spans="5:5">
-      <c r="E1628" s="41"/>
+      <c r="E1628" s="40"/>
     </row>
     <row r="1629" spans="5:5">
-      <c r="E1629" s="41"/>
+      <c r="E1629" s="40"/>
     </row>
     <row r="1630" spans="5:5">
-      <c r="E1630" s="41"/>
+      <c r="E1630" s="40"/>
     </row>
     <row r="1631" spans="5:5">
-      <c r="E1631" s="41"/>
+      <c r="E1631" s="40"/>
     </row>
     <row r="1632" spans="5:5">
-      <c r="E1632" s="41"/>
+      <c r="E1632" s="40"/>
     </row>
     <row r="1633" spans="5:7">
-      <c r="E1633" s="41"/>
+      <c r="E1633" s="40"/>
     </row>
     <row r="1634" spans="5:7">
-      <c r="E1634" s="41"/>
+      <c r="E1634" s="40"/>
     </row>
     <row r="1635" spans="5:7">
-      <c r="E1635" s="41"/>
+      <c r="E1635" s="40"/>
     </row>
     <row r="1636" spans="5:7">
-      <c r="E1636" s="41"/>
+      <c r="E1636" s="40"/>
     </row>
     <row r="1637" spans="5:7">
-      <c r="E1637" s="41"/>
+      <c r="E1637" s="40"/>
     </row>
     <row r="1638" spans="5:7">
-      <c r="E1638" s="41"/>
+      <c r="E1638" s="40"/>
     </row>
     <row r="1639" spans="5:7">
-      <c r="E1639" s="41"/>
+      <c r="E1639" s="40"/>
     </row>
     <row r="1640" spans="5:7">
-      <c r="E1640" s="41"/>
+      <c r="E1640" s="40"/>
     </row>
     <row r="1641" spans="5:7">
-      <c r="E1641" s="41"/>
+      <c r="E1641" s="40"/>
     </row>
     <row r="1642" spans="5:7">
-      <c r="E1642" s="41"/>
+      <c r="E1642" s="40"/>
     </row>
     <row r="1643" spans="5:7">
-      <c r="E1643" s="41"/>
+      <c r="E1643" s="40"/>
     </row>
     <row r="1645" spans="5:7">
-      <c r="G1645" s="41"/>
+      <c r="G1645" s="40"/>
     </row>
     <row r="1646" spans="5:7">
-      <c r="G1646" s="41"/>
+      <c r="G1646" s="40"/>
     </row>
     <row r="1647" spans="5:7">
-      <c r="G1647" s="41"/>
+      <c r="G1647" s="40"/>
     </row>
     <row r="1648" spans="5:7">
-      <c r="G1648" s="41"/>
+      <c r="G1648" s="40"/>
     </row>
     <row r="1649" spans="5:7">
-      <c r="G1649" s="41"/>
+      <c r="G1649" s="40"/>
     </row>
     <row r="1650" spans="5:7">
-      <c r="G1650" s="41"/>
+      <c r="G1650" s="40"/>
     </row>
     <row r="1651" spans="5:7">
-      <c r="G1651" s="41"/>
+      <c r="G1651" s="40"/>
     </row>
     <row r="1652" spans="5:7">
-      <c r="G1652" s="41"/>
+      <c r="G1652" s="40"/>
     </row>
     <row r="1653" spans="5:7">
-      <c r="G1653" s="41"/>
+      <c r="G1653" s="40"/>
     </row>
     <row r="1654" spans="5:7">
-      <c r="G1654" s="41"/>
+      <c r="G1654" s="40"/>
     </row>
     <row r="1655" spans="5:7">
-      <c r="G1655" s="41"/>
+      <c r="G1655" s="40"/>
     </row>
     <row r="1656" spans="5:7">
-      <c r="G1656" s="41"/>
+      <c r="G1656" s="40"/>
     </row>
     <row r="1657" spans="5:7">
-      <c r="G1657" s="41"/>
+      <c r="G1657" s="40"/>
     </row>
     <row r="1658" spans="5:7">
-      <c r="E1658" s="41"/>
-      <c r="G1658" s="41"/>
+      <c r="E1658" s="40"/>
+      <c r="G1658" s="40"/>
     </row>
     <row r="1660" spans="5:7">
-      <c r="E1660" s="41"/>
+      <c r="E1660" s="40"/>
     </row>
     <row r="1661" spans="5:7">
-      <c r="E1661" s="41"/>
+      <c r="E1661" s="40"/>
     </row>
     <row r="1662" spans="5:7">
-      <c r="E1662" s="41"/>
+      <c r="E1662" s="40"/>
     </row>
     <row r="1663" spans="5:7">
-      <c r="E1663" s="41"/>
+      <c r="E1663" s="40"/>
     </row>
     <row r="1664" spans="5:7">
-      <c r="E1664" s="41"/>
+      <c r="E1664" s="40"/>
     </row>
     <row r="1665" spans="5:5">
-      <c r="E1665" s="41"/>
+      <c r="E1665" s="40"/>
     </row>
     <row r="1666" spans="5:5">
-      <c r="E1666" s="41"/>
+      <c r="E1666" s="40"/>
     </row>
     <row r="1667" spans="5:5">
-      <c r="E1667" s="41"/>
+      <c r="E1667" s="40"/>
     </row>
     <row r="1668" spans="5:5">
-      <c r="E1668" s="41"/>
+      <c r="E1668" s="40"/>
     </row>
     <row r="1669" spans="5:5">
-      <c r="E1669" s="41"/>
+      <c r="E1669" s="40"/>
     </row>
     <row r="1670" spans="5:5">
-      <c r="E1670" s="41"/>
+      <c r="E1670" s="40"/>
     </row>
     <row r="1671" spans="5:5">
-      <c r="E1671" s="41"/>
+      <c r="E1671" s="40"/>
     </row>
     <row r="1672" spans="5:5">
-      <c r="E1672" s="41"/>
+      <c r="E1672" s="40"/>
     </row>
     <row r="1673" spans="5:5">
-      <c r="E1673" s="41"/>
+      <c r="E1673" s="40"/>
     </row>
     <row r="1674" spans="5:5">
-      <c r="E1674" s="41"/>
+      <c r="E1674" s="40"/>
     </row>
     <row r="1675" spans="5:5">
-      <c r="E1675" s="41"/>
+      <c r="E1675" s="40"/>
     </row>
     <row r="1676" spans="5:5">
-      <c r="E1676" s="41"/>
+      <c r="E1676" s="40"/>
     </row>
     <row r="1677" spans="5:5">
-      <c r="E1677" s="41"/>
+      <c r="E1677" s="40"/>
     </row>
     <row r="1678" spans="5:5">
-      <c r="E1678" s="41"/>
+      <c r="E1678" s="40"/>
     </row>
     <row r="1679" spans="5:5">
-      <c r="E1679" s="41"/>
+      <c r="E1679" s="40"/>
     </row>
     <row r="1680" spans="5:5">
-      <c r="E1680" s="41"/>
+      <c r="E1680" s="40"/>
     </row>
     <row r="1681" spans="5:5">
-      <c r="E1681" s="41"/>
+      <c r="E1681" s="40"/>
     </row>
     <row r="1682" spans="5:5">
-      <c r="E1682" s="41"/>
+      <c r="E1682" s="40"/>
     </row>
     <row r="1683" spans="5:5">
-      <c r="E1683" s="41"/>
+      <c r="E1683" s="40"/>
     </row>
     <row r="1684" spans="5:5">
-      <c r="E1684" s="41"/>
+      <c r="E1684" s="40"/>
     </row>
     <row r="1685" spans="5:5">
-      <c r="E1685" s="41"/>
+      <c r="E1685" s="40"/>
     </row>
     <row r="1686" spans="5:5">
-      <c r="E1686" s="41"/>
+      <c r="E1686" s="40"/>
     </row>
     <row r="1687" spans="5:5">
-      <c r="E1687" s="41"/>
+      <c r="E1687" s="40"/>
     </row>
     <row r="1688" spans="5:5">
-      <c r="E1688" s="41"/>
+      <c r="E1688" s="40"/>
     </row>
     <row r="1689" spans="5:5">
-      <c r="E1689" s="41"/>
+      <c r="E1689" s="40"/>
     </row>
     <row r="1690" spans="5:5">
-      <c r="E1690" s="41"/>
+      <c r="E1690" s="40"/>
     </row>
     <row r="1691" spans="5:5">
-      <c r="E1691" s="41"/>
+      <c r="E1691" s="40"/>
     </row>
     <row r="1692" spans="5:5">
-      <c r="E1692" s="41"/>
+      <c r="E1692" s="40"/>
     </row>
     <row r="1693" spans="5:5">
-      <c r="E1693" s="41"/>
+      <c r="E1693" s="40"/>
     </row>
     <row r="1694" spans="5:5">
-      <c r="E1694" s="41"/>
+      <c r="E1694" s="40"/>
     </row>
     <row r="1695" spans="5:5">
-      <c r="E1695" s="41"/>
+      <c r="E1695" s="40"/>
     </row>
     <row r="1696" spans="5:5">
-      <c r="E1696" s="41"/>
+      <c r="E1696" s="40"/>
     </row>
     <row r="1697" spans="5:7">
-      <c r="E1697" s="41"/>
+      <c r="E1697" s="40"/>
     </row>
     <row r="1698" spans="5:7">
-      <c r="E1698" s="41"/>
+      <c r="E1698" s="40"/>
     </row>
     <row r="1699" spans="5:7">
-      <c r="E1699" s="41"/>
+      <c r="E1699" s="40"/>
     </row>
     <row r="1700" spans="5:7">
-      <c r="E1700" s="41"/>
+      <c r="E1700" s="40"/>
     </row>
     <row r="1701" spans="5:7">
-      <c r="E1701" s="41"/>
+      <c r="E1701" s="40"/>
     </row>
     <row r="1702" spans="5:7">
-      <c r="E1702" s="41"/>
+      <c r="E1702" s="40"/>
     </row>
     <row r="1703" spans="5:7">
-      <c r="E1703" s="41"/>
+      <c r="E1703" s="40"/>
     </row>
     <row r="1704" spans="5:7">
-      <c r="E1704" s="41"/>
+      <c r="E1704" s="40"/>
     </row>
     <row r="1705" spans="5:7">
-      <c r="E1705" s="41"/>
+      <c r="E1705" s="40"/>
     </row>
     <row r="1706" spans="5:7">
-      <c r="E1706" s="41"/>
+      <c r="E1706" s="40"/>
     </row>
     <row r="1707" spans="5:7">
-      <c r="E1707" s="41"/>
+      <c r="E1707" s="40"/>
     </row>
     <row r="1709" spans="5:7">
-      <c r="E1709" s="41"/>
-      <c r="G1709" s="41"/>
+      <c r="E1709" s="40"/>
+      <c r="G1709" s="40"/>
     </row>
     <row r="1710" spans="5:7">
-      <c r="E1710" s="41"/>
-      <c r="G1710" s="41"/>
+      <c r="E1710" s="40"/>
+      <c r="G1710" s="40"/>
     </row>
     <row r="1711" spans="5:7">
-      <c r="E1711" s="41"/>
-      <c r="G1711" s="41"/>
+      <c r="E1711" s="40"/>
+      <c r="G1711" s="40"/>
     </row>
     <row r="1712" spans="5:7">
-      <c r="E1712" s="41"/>
-      <c r="G1712" s="41"/>
+      <c r="E1712" s="40"/>
+      <c r="G1712" s="40"/>
     </row>
     <row r="1713" spans="5:7">
-      <c r="E1713" s="41"/>
-      <c r="G1713" s="41"/>
+      <c r="E1713" s="40"/>
+      <c r="G1713" s="40"/>
     </row>
     <row r="1714" spans="5:7">
-      <c r="E1714" s="41"/>
-      <c r="G1714" s="41"/>
+      <c r="E1714" s="40"/>
+      <c r="G1714" s="40"/>
     </row>
     <row r="1715" spans="5:7">
-      <c r="E1715" s="41"/>
-      <c r="G1715" s="41"/>
+      <c r="E1715" s="40"/>
+      <c r="G1715" s="40"/>
     </row>
     <row r="1716" spans="5:7">
-      <c r="E1716" s="41"/>
-      <c r="G1716" s="41"/>
+      <c r="E1716" s="40"/>
+      <c r="G1716" s="40"/>
     </row>
     <row r="1717" spans="5:7">
-      <c r="E1717" s="41"/>
-      <c r="G1717" s="41"/>
+      <c r="E1717" s="40"/>
+      <c r="G1717" s="40"/>
     </row>
     <row r="1718" spans="5:7">
-      <c r="E1718" s="41"/>
-      <c r="G1718" s="41"/>
+      <c r="E1718" s="40"/>
+      <c r="G1718" s="40"/>
     </row>
     <row r="1719" spans="5:7">
-      <c r="E1719" s="41"/>
-      <c r="G1719" s="41"/>
+      <c r="E1719" s="40"/>
+      <c r="G1719" s="40"/>
     </row>
     <row r="1720" spans="5:7">
-      <c r="E1720" s="41"/>
-      <c r="G1720" s="41"/>
+      <c r="E1720" s="40"/>
+      <c r="G1720" s="40"/>
     </row>
     <row r="1721" spans="5:7">
-      <c r="E1721" s="41"/>
-      <c r="G1721" s="41"/>
+      <c r="E1721" s="40"/>
+      <c r="G1721" s="40"/>
     </row>
     <row r="1722" spans="5:7">
-      <c r="E1722" s="41"/>
-      <c r="G1722" s="41"/>
+      <c r="E1722" s="40"/>
+      <c r="G1722" s="40"/>
     </row>
     <row r="1723" spans="5:7">
-      <c r="E1723" s="41"/>
-      <c r="G1723" s="41"/>
+      <c r="E1723" s="40"/>
+      <c r="G1723" s="40"/>
     </row>
     <row r="1724" spans="5:7">
-      <c r="E1724" s="41"/>
-      <c r="G1724" s="41"/>
+      <c r="E1724" s="40"/>
+      <c r="G1724" s="40"/>
     </row>
     <row r="1725" spans="5:7">
-      <c r="E1725" s="41"/>
-      <c r="G1725" s="41"/>
+      <c r="E1725" s="40"/>
+      <c r="G1725" s="40"/>
     </row>
     <row r="1726" spans="5:7">
-      <c r="E1726" s="41"/>
-      <c r="G1726" s="41"/>
+      <c r="E1726" s="40"/>
+      <c r="G1726" s="40"/>
     </row>
     <row r="1727" spans="5:7">
-      <c r="E1727" s="41"/>
-      <c r="G1727" s="41"/>
+      <c r="E1727" s="40"/>
+      <c r="G1727" s="40"/>
     </row>
     <row r="1728" spans="5:7">
-      <c r="E1728" s="41"/>
-      <c r="G1728" s="41"/>
+      <c r="E1728" s="40"/>
+      <c r="G1728" s="40"/>
     </row>
     <row r="1729" spans="5:7">
-      <c r="E1729" s="41"/>
-      <c r="G1729" s="41"/>
+      <c r="E1729" s="40"/>
+      <c r="G1729" s="40"/>
     </row>
     <row r="1730" spans="5:7">
-      <c r="E1730" s="41"/>
-      <c r="G1730" s="41"/>
+      <c r="E1730" s="40"/>
+      <c r="G1730" s="40"/>
     </row>
     <row r="1731" spans="5:7">
-      <c r="E1731" s="41"/>
-      <c r="G1731" s="41"/>
+      <c r="E1731" s="40"/>
+      <c r="G1731" s="40"/>
     </row>
     <row r="1732" spans="5:7">
-      <c r="E1732" s="41"/>
-      <c r="G1732" s="41"/>
+      <c r="E1732" s="40"/>
+      <c r="G1732" s="40"/>
     </row>
     <row r="1733" spans="5:7">
-      <c r="E1733" s="41"/>
-      <c r="G1733" s="41"/>
+      <c r="E1733" s="40"/>
+      <c r="G1733" s="40"/>
     </row>
     <row r="1734" spans="5:7">
-      <c r="E1734" s="41"/>
-      <c r="G1734" s="41"/>
+      <c r="E1734" s="40"/>
+      <c r="G1734" s="40"/>
     </row>
     <row r="1735" spans="5:7">
-      <c r="E1735" s="41"/>
-      <c r="G1735" s="41"/>
+      <c r="E1735" s="40"/>
+      <c r="G1735" s="40"/>
     </row>
     <row r="1736" spans="5:7">
-      <c r="E1736" s="41"/>
-      <c r="G1736" s="41"/>
+      <c r="E1736" s="40"/>
+      <c r="G1736" s="40"/>
     </row>
     <row r="1737" spans="5:7">
-      <c r="E1737" s="41"/>
-      <c r="G1737" s="41"/>
+      <c r="E1737" s="40"/>
+      <c r="G1737" s="40"/>
     </row>
     <row r="1738" spans="5:7">
-      <c r="E1738" s="41"/>
-      <c r="G1738" s="41"/>
+      <c r="E1738" s="40"/>
+      <c r="G1738" s="40"/>
     </row>
     <row r="1739" spans="5:7">
-      <c r="E1739" s="41"/>
-      <c r="G1739" s="41"/>
+      <c r="E1739" s="40"/>
+      <c r="G1739" s="40"/>
     </row>
     <row r="1740" spans="5:7">
-      <c r="E1740" s="41"/>
-      <c r="G1740" s="41"/>
+      <c r="E1740" s="40"/>
+      <c r="G1740" s="40"/>
     </row>
     <row r="1741" spans="5:7">
-      <c r="E1741" s="41"/>
-      <c r="G1741" s="41"/>
+      <c r="E1741" s="40"/>
+      <c r="G1741" s="40"/>
     </row>
     <row r="1742" spans="5:7">
-      <c r="E1742" s="41"/>
-      <c r="G1742" s="41"/>
+      <c r="E1742" s="40"/>
+      <c r="G1742" s="40"/>
     </row>
     <row r="1743" spans="5:7">
-      <c r="E1743" s="41"/>
-      <c r="G1743" s="41"/>
+      <c r="E1743" s="40"/>
+      <c r="G1743" s="40"/>
     </row>
     <row r="1744" spans="5:7">
-      <c r="E1744" s="41"/>
-      <c r="G1744" s="41"/>
+      <c r="E1744" s="40"/>
+      <c r="G1744" s="40"/>
     </row>
     <row r="1745" spans="5:7">
-      <c r="E1745" s="41"/>
-      <c r="G1745" s="41"/>
+      <c r="E1745" s="40"/>
+      <c r="G1745" s="40"/>
     </row>
     <row r="1746" spans="5:7">
-      <c r="E1746" s="41"/>
-      <c r="G1746" s="41"/>
+      <c r="E1746" s="40"/>
+      <c r="G1746" s="40"/>
     </row>
     <row r="1747" spans="5:7">
-      <c r="E1747" s="41"/>
-      <c r="G1747" s="41"/>
+      <c r="E1747" s="40"/>
+      <c r="G1747" s="40"/>
     </row>
     <row r="1748" spans="5:7">
-      <c r="E1748" s="41"/>
-      <c r="G1748" s="41"/>
+      <c r="E1748" s="40"/>
+      <c r="G1748" s="40"/>
     </row>
     <row r="1749" spans="5:7">
-      <c r="E1749" s="41"/>
-      <c r="G1749" s="41"/>
+      <c r="E1749" s="40"/>
+      <c r="G1749" s="40"/>
     </row>
     <row r="1750" spans="5:7">
-      <c r="E1750" s="41"/>
-      <c r="G1750" s="41"/>
+      <c r="E1750" s="40"/>
+      <c r="G1750" s="40"/>
     </row>
     <row r="1751" spans="5:7">
-      <c r="E1751" s="41"/>
-      <c r="G1751" s="41"/>
+      <c r="E1751" s="40"/>
+      <c r="G1751" s="40"/>
     </row>
     <row r="1752" spans="5:7">
-      <c r="E1752" s="41"/>
-      <c r="G1752" s="41"/>
+      <c r="E1752" s="40"/>
+      <c r="G1752" s="40"/>
     </row>
     <row r="1753" spans="5:7">
-      <c r="E1753" s="41"/>
-      <c r="G1753" s="41"/>
+      <c r="E1753" s="40"/>
+      <c r="G1753" s="40"/>
     </row>
     <row r="1754" spans="5:7">
-      <c r="E1754" s="41"/>
-      <c r="G1754" s="41"/>
+      <c r="E1754" s="40"/>
+      <c r="G1754" s="40"/>
     </row>
     <row r="1755" spans="5:7">
-      <c r="E1755" s="41"/>
-      <c r="G1755" s="41"/>
+      <c r="E1755" s="40"/>
+      <c r="G1755" s="40"/>
     </row>
     <row r="1756" spans="5:7">
-      <c r="E1756" s="41"/>
-      <c r="G1756" s="41"/>
+      <c r="E1756" s="40"/>
+      <c r="G1756" s="40"/>
     </row>
     <row r="1766" spans="5:5">
-      <c r="E1766" s="41"/>
+      <c r="E1766" s="40"/>
     </row>
     <row r="1777" spans="7:7">
-      <c r="G1777" s="41"/>
+      <c r="G1777" s="40"/>
     </row>
     <row r="1778" spans="7:7">
-      <c r="G1778" s="41"/>
+      <c r="G1778" s="40"/>
     </row>
     <row r="1779" spans="7:7">
-      <c r="G1779" s="41"/>
+      <c r="G1779" s="40"/>
     </row>
     <row r="1780" spans="7:7">
-      <c r="G1780" s="41"/>
+      <c r="G1780" s="40"/>
     </row>
     <row r="1781" spans="7:7">
-      <c r="G1781" s="41"/>
+      <c r="G1781" s="40"/>
     </row>
     <row r="1782" spans="7:7">
-      <c r="G1782" s="41"/>
+      <c r="G1782" s="40"/>
     </row>
     <row r="1783" spans="7:7">
-      <c r="G1783" s="41"/>
+      <c r="G1783" s="40"/>
     </row>
     <row r="1784" spans="7:7">
-      <c r="G1784" s="41"/>
+      <c r="G1784" s="40"/>
     </row>
     <row r="1785" spans="7:7">
-      <c r="G1785" s="41"/>
+      <c r="G1785" s="40"/>
     </row>
     <row r="1786" spans="7:7">
-      <c r="G1786" s="41"/>
+      <c r="G1786" s="40"/>
     </row>
     <row r="1787" spans="7:7">
-      <c r="G1787" s="41"/>
+      <c r="G1787" s="40"/>
     </row>
     <row r="1788" spans="7:7">
-      <c r="G1788" s="41"/>
+      <c r="G1788" s="40"/>
     </row>
     <row r="1789" spans="7:7">
-      <c r="G1789" s="41"/>
+      <c r="G1789" s="40"/>
     </row>
     <row r="1790" spans="7:7">
-      <c r="G1790" s="41"/>
+      <c r="G1790" s="40"/>
     </row>
     <row r="1791" spans="7:7">
-      <c r="G1791" s="41"/>
+      <c r="G1791" s="40"/>
     </row>
     <row r="1792" spans="7:7">
-      <c r="G1792" s="41"/>
+      <c r="G1792" s="40"/>
     </row>
     <row r="1793" spans="5:7">
-      <c r="G1793" s="41"/>
+      <c r="G1793" s="40"/>
     </row>
     <row r="1794" spans="5:7">
-      <c r="G1794" s="41"/>
+      <c r="G1794" s="40"/>
     </row>
     <row r="1795" spans="5:7">
-      <c r="G1795" s="41"/>
+      <c r="G1795" s="40"/>
     </row>
     <row r="1796" spans="5:7">
-      <c r="E1796" s="41"/>
-      <c r="G1796" s="41"/>
+      <c r="E1796" s="40"/>
+      <c r="G1796" s="40"/>
     </row>
     <row r="1806" spans="5:7">
-      <c r="E1806" s="41"/>
+      <c r="E1806" s="40"/>
     </row>
     <row r="1817" spans="5:7">
-      <c r="E1817" s="41"/>
-      <c r="G1817" s="41"/>
+      <c r="E1817" s="40"/>
+      <c r="G1817" s="40"/>
     </row>
     <row r="1818" spans="5:7">
-      <c r="E1818" s="41"/>
-      <c r="G1818" s="41"/>
+      <c r="E1818" s="40"/>
+      <c r="G1818" s="40"/>
     </row>
     <row r="1819" spans="5:7">
-      <c r="E1819" s="41"/>
-      <c r="G1819" s="41"/>
+      <c r="E1819" s="40"/>
+      <c r="G1819" s="40"/>
     </row>
     <row r="1820" spans="5:7">
-      <c r="E1820" s="41"/>
-      <c r="G1820" s="41"/>
+      <c r="E1820" s="40"/>
+      <c r="G1820" s="40"/>
     </row>
     <row r="1821" spans="5:7">
-      <c r="E1821" s="41"/>
-      <c r="G1821" s="41"/>
+      <c r="E1821" s="40"/>
+      <c r="G1821" s="40"/>
     </row>
     <row r="1822" spans="5:7">
-      <c r="E1822" s="41"/>
-      <c r="G1822" s="41"/>
+      <c r="E1822" s="40"/>
+      <c r="G1822" s="40"/>
     </row>
     <row r="1823" spans="5:7">
-      <c r="E1823" s="41"/>
-      <c r="G1823" s="41"/>
+      <c r="E1823" s="40"/>
+      <c r="G1823" s="40"/>
     </row>
     <row r="1824" spans="5:7">
-      <c r="E1824" s="41"/>
-      <c r="G1824" s="41"/>
+      <c r="E1824" s="40"/>
+      <c r="G1824" s="40"/>
     </row>
     <row r="1825" spans="5:7">
-      <c r="E1825" s="41"/>
-      <c r="G1825" s="41"/>
+      <c r="E1825" s="40"/>
+      <c r="G1825" s="40"/>
     </row>
     <row r="1826" spans="5:7">
-      <c r="E1826" s="41"/>
-      <c r="G1826" s="41"/>
+      <c r="E1826" s="40"/>
+      <c r="G1826" s="40"/>
     </row>
     <row r="1827" spans="5:7">
-      <c r="E1827" s="41"/>
-      <c r="G1827" s="41"/>
+      <c r="E1827" s="40"/>
+      <c r="G1827" s="40"/>
     </row>
     <row r="1828" spans="5:7">
-      <c r="E1828" s="41"/>
-      <c r="G1828" s="41"/>
+      <c r="E1828" s="40"/>
+      <c r="G1828" s="40"/>
     </row>
     <row r="1829" spans="5:7">
-      <c r="E1829" s="41"/>
-      <c r="G1829" s="41"/>
+      <c r="E1829" s="40"/>
+      <c r="G1829" s="40"/>
     </row>
     <row r="1830" spans="5:7">
-      <c r="E1830" s="41"/>
-      <c r="G1830" s="41"/>
+      <c r="E1830" s="40"/>
+      <c r="G1830" s="40"/>
     </row>
     <row r="1831" spans="5:7">
-      <c r="E1831" s="41"/>
-      <c r="G1831" s="41"/>
+      <c r="E1831" s="40"/>
+      <c r="G1831" s="40"/>
     </row>
     <row r="1832" spans="5:7">
-      <c r="E1832" s="41"/>
-      <c r="G1832" s="41"/>
+      <c r="E1832" s="40"/>
+      <c r="G1832" s="40"/>
     </row>
     <row r="1834" spans="5:7">
-      <c r="E1834" s="41"/>
-      <c r="G1834" s="41"/>
+      <c r="E1834" s="40"/>
+      <c r="G1834" s="40"/>
     </row>
     <row r="1835" spans="5:7">
-      <c r="E1835" s="41"/>
-      <c r="G1835" s="41"/>
+      <c r="E1835" s="40"/>
+      <c r="G1835" s="40"/>
     </row>
     <row r="1836" spans="5:7">
-      <c r="E1836" s="41"/>
-      <c r="G1836" s="41"/>
+      <c r="E1836" s="40"/>
+      <c r="G1836" s="40"/>
     </row>
     <row r="1837" spans="5:7">
-      <c r="E1837" s="41"/>
-      <c r="G1837" s="41"/>
+      <c r="E1837" s="40"/>
+      <c r="G1837" s="40"/>
     </row>
     <row r="1838" spans="5:7">
-      <c r="E1838" s="41"/>
-      <c r="G1838" s="41"/>
+      <c r="E1838" s="40"/>
+      <c r="G1838" s="40"/>
     </row>
     <row r="1839" spans="5:7">
-      <c r="E1839" s="41"/>
-      <c r="G1839" s="41"/>
+      <c r="E1839" s="40"/>
+      <c r="G1839" s="40"/>
     </row>
     <row r="1840" spans="5:7">
-      <c r="E1840" s="41"/>
-      <c r="G1840" s="41"/>
+      <c r="E1840" s="40"/>
+      <c r="G1840" s="40"/>
     </row>
     <row r="1841" spans="5:7">
-      <c r="E1841" s="41"/>
-      <c r="G1841" s="41"/>
+      <c r="E1841" s="40"/>
+      <c r="G1841" s="40"/>
     </row>
     <row r="1842" spans="5:7">
-      <c r="E1842" s="41"/>
-      <c r="G1842" s="41"/>
+      <c r="E1842" s="40"/>
+      <c r="G1842" s="40"/>
     </row>
     <row r="1843" spans="5:7">
-      <c r="E1843" s="41"/>
-      <c r="G1843" s="41"/>
+      <c r="E1843" s="40"/>
+      <c r="G1843" s="40"/>
     </row>
     <row r="1844" spans="5:7">
-      <c r="E1844" s="41"/>
-      <c r="G1844" s="41"/>
+      <c r="E1844" s="40"/>
+      <c r="G1844" s="40"/>
     </row>
     <row r="1845" spans="5:7">
-      <c r="E1845" s="41"/>
-      <c r="G1845" s="41"/>
+      <c r="E1845" s="40"/>
+      <c r="G1845" s="40"/>
     </row>
     <row r="1846" spans="5:7">
-      <c r="E1846" s="41"/>
-      <c r="G1846" s="41"/>
+      <c r="E1846" s="40"/>
+      <c r="G1846" s="40"/>
     </row>
     <row r="1847" spans="5:7">
-      <c r="E1847" s="41"/>
-      <c r="G1847" s="41"/>
+      <c r="E1847" s="40"/>
+      <c r="G1847" s="40"/>
     </row>
     <row r="1850" spans="5:7">
-      <c r="E1850" s="41"/>
+      <c r="E1850" s="40"/>
     </row>
     <row r="1854" spans="5:7">
-      <c r="E1854" s="41"/>
+      <c r="E1854" s="40"/>
     </row>
     <row r="1855" spans="5:7">
-      <c r="E1855" s="41"/>
+      <c r="E1855" s="40"/>
     </row>
     <row r="1856" spans="5:7">
-      <c r="E1856" s="41"/>
+      <c r="E1856" s="40"/>
     </row>
     <row r="1857" spans="5:5">
-      <c r="E1857" s="41"/>
+      <c r="E1857" s="40"/>
     </row>
     <row r="1860" spans="5:5">
-      <c r="E1860" s="41"/>
+      <c r="E1860" s="40"/>
     </row>
     <row r="1861" spans="5:5">
-      <c r="E1861" s="41"/>
+      <c r="E1861" s="40"/>
     </row>
     <row r="1862" spans="5:5">
-      <c r="E1862" s="41"/>
+      <c r="E1862" s="40"/>
     </row>
     <row r="1863" spans="5:5">
-      <c r="E1863" s="41"/>
+      <c r="E1863" s="40"/>
     </row>
     <row r="1866" spans="5:5">
-      <c r="E1866" s="41"/>
+      <c r="E1866" s="40"/>
     </row>
     <row r="1867" spans="5:5">
-      <c r="E1867" s="41"/>
+      <c r="E1867" s="40"/>
     </row>
     <row r="1868" spans="5:5">
-      <c r="E1868" s="41"/>
+      <c r="E1868" s="40"/>
     </row>
     <row r="1869" spans="5:5">
-      <c r="E1869" s="41"/>
+      <c r="E1869" s="40"/>
     </row>
     <row r="1870" spans="5:5">
-      <c r="E1870" s="41"/>
+      <c r="E1870" s="40"/>
     </row>
     <row r="1871" spans="5:5">
-      <c r="E1871" s="41"/>
+      <c r="E1871" s="40"/>
     </row>
     <row r="1872" spans="5:5">
-      <c r="E1872" s="41"/>
+      <c r="E1872" s="40"/>
     </row>
     <row r="1873" spans="5:5">
-      <c r="E1873" s="41"/>
+      <c r="E1873" s="40"/>
     </row>
     <row r="1874" spans="5:5">
-      <c r="E1874" s="41"/>
+      <c r="E1874" s="40"/>
     </row>
     <row r="1875" spans="5:5">
-      <c r="E1875" s="41"/>
+      <c r="E1875" s="40"/>
     </row>
     <row r="1876" spans="5:5">
-      <c r="E1876" s="41"/>
+      <c r="E1876" s="40"/>
     </row>
     <row r="1877" spans="5:5">
-      <c r="E1877" s="41"/>
+      <c r="E1877" s="40"/>
     </row>
     <row r="1878" spans="5:5">
-      <c r="E1878" s="41"/>
+      <c r="E1878" s="40"/>
     </row>
     <row r="1879" spans="5:5">
-      <c r="E1879" s="41"/>
+      <c r="E1879" s="40"/>
     </row>
     <row r="1881" spans="5:5">
-      <c r="E1881" s="41"/>
+      <c r="E1881" s="40"/>
     </row>
     <row r="1882" spans="5:5">
-      <c r="E1882" s="41"/>
+      <c r="E1882" s="40"/>
     </row>
     <row r="1883" spans="5:5">
-      <c r="E1883" s="41"/>
+      <c r="E1883" s="40"/>
     </row>
     <row r="1884" spans="5:5">
-      <c r="E1884" s="41"/>
+      <c r="E1884" s="40"/>
     </row>
     <row r="1885" spans="5:5">
-      <c r="E1885" s="41"/>
+      <c r="E1885" s="40"/>
     </row>
     <row r="1886" spans="5:5">
-      <c r="E1886" s="41"/>
+      <c r="E1886" s="40"/>
     </row>
     <row r="1887" spans="5:5">
-      <c r="E1887" s="41"/>
+      <c r="E1887" s="40"/>
     </row>
     <row r="1888" spans="5:5">
-      <c r="E1888" s="41"/>
+      <c r="E1888" s="40"/>
     </row>
     <row r="1889" spans="5:5">
-      <c r="E1889" s="41"/>
+      <c r="E1889" s="40"/>
     </row>
     <row r="1890" spans="5:5">
-      <c r="E1890" s="41"/>
+      <c r="E1890" s="40"/>
     </row>
     <row r="1891" spans="5:5">
-      <c r="E1891" s="41"/>
+      <c r="E1891" s="40"/>
     </row>
     <row r="1892" spans="5:5">
-      <c r="E1892" s="41"/>
+      <c r="E1892" s="40"/>
     </row>
     <row r="1893" spans="5:5">
-      <c r="E1893" s="41"/>
+      <c r="E1893" s="40"/>
     </row>
     <row r="1894" spans="5:5">
-      <c r="E1894" s="41"/>
+      <c r="E1894" s="40"/>
     </row>
     <row r="1896" spans="5:5">
-      <c r="E1896" s="41"/>
+      <c r="E1896" s="40"/>
     </row>
     <row r="1897" spans="5:5">
-      <c r="E1897" s="41"/>
+      <c r="E1897" s="40"/>
     </row>
     <row r="1898" spans="5:5">
-      <c r="E1898" s="41"/>
+      <c r="E1898" s="40"/>
     </row>
     <row r="1899" spans="5:5">
-      <c r="E1899" s="41"/>
+      <c r="E1899" s="40"/>
     </row>
     <row r="1900" spans="5:5">
-      <c r="E1900" s="41"/>
+      <c r="E1900" s="40"/>
     </row>
     <row r="1901" spans="5:5">
-      <c r="E1901" s="41"/>
+      <c r="E1901" s="40"/>
     </row>
     <row r="1902" spans="5:5">
-      <c r="E1902" s="41"/>
+      <c r="E1902" s="40"/>
     </row>
     <row r="1903" spans="5:5">
-      <c r="E1903" s="41"/>
+      <c r="E1903" s="40"/>
     </row>
     <row r="1904" spans="5:5">
-      <c r="E1904" s="41"/>
+      <c r="E1904" s="40"/>
     </row>
     <row r="1905" spans="5:5">
-      <c r="E1905" s="41"/>
+      <c r="E1905" s="40"/>
     </row>
     <row r="1906" spans="5:5">
-      <c r="E1906" s="41"/>
+      <c r="E1906" s="40"/>
     </row>
     <row r="1907" spans="5:5">
-      <c r="E1907" s="41"/>
+      <c r="E1907" s="40"/>
     </row>
     <row r="1908" spans="5:5">
-      <c r="E1908" s="41"/>
+      <c r="E1908" s="40"/>
     </row>
     <row r="1909" spans="5:5">
-      <c r="E1909" s="41"/>
+      <c r="E1909" s="40"/>
     </row>
     <row r="1911" spans="5:5">
-      <c r="E1911" s="41"/>
+      <c r="E1911" s="40"/>
     </row>
     <row r="1912" spans="5:5">
-      <c r="E1912" s="41"/>
+      <c r="E1912" s="40"/>
     </row>
     <row r="1913" spans="5:5">
-      <c r="E1913" s="41"/>
+      <c r="E1913" s="40"/>
     </row>
     <row r="1914" spans="5:5">
-      <c r="E1914" s="41"/>
+      <c r="E1914" s="40"/>
     </row>
     <row r="1915" spans="5:5">
-      <c r="E1915" s="41"/>
+      <c r="E1915" s="40"/>
     </row>
     <row r="1916" spans="5:5">
-      <c r="E1916" s="41"/>
+      <c r="E1916" s="40"/>
     </row>
     <row r="1917" spans="5:5">
-      <c r="E1917" s="41"/>
+      <c r="E1917" s="40"/>
     </row>
     <row r="1918" spans="5:5">
-      <c r="E1918" s="41"/>
+      <c r="E1918" s="40"/>
     </row>
     <row r="1919" spans="5:5">
-      <c r="E1919" s="41"/>
+      <c r="E1919" s="40"/>
     </row>
     <row r="1920" spans="5:5">
-      <c r="E1920" s="41"/>
+      <c r="E1920" s="40"/>
     </row>
     <row r="1921" spans="5:5">
-      <c r="E1921" s="41"/>
+      <c r="E1921" s="40"/>
     </row>
     <row r="1922" spans="5:5">
-      <c r="E1922" s="41"/>
+      <c r="E1922" s="40"/>
     </row>
     <row r="1923" spans="5:5">
-      <c r="E1923" s="41"/>
+      <c r="E1923" s="40"/>
     </row>
     <row r="1924" spans="5:5">
-      <c r="E1924" s="41"/>
+      <c r="E1924" s="40"/>
     </row>
     <row r="1925" spans="5:5">
-      <c r="E1925" s="41"/>
+      <c r="E1925" s="40"/>
     </row>
     <row r="1926" spans="5:5">
-      <c r="E1926" s="41"/>
+      <c r="E1926" s="40"/>
     </row>
     <row r="1927" spans="5:5">
-      <c r="E1927" s="41"/>
+      <c r="E1927" s="40"/>
     </row>
     <row r="1928" spans="5:5">
-      <c r="E1928" s="41"/>
+      <c r="E1928" s="40"/>
     </row>
     <row r="1929" spans="5:5">
-      <c r="E1929" s="41"/>
+      <c r="E1929" s="40"/>
     </row>
     <row r="1930" spans="5:5">
-      <c r="E1930" s="41"/>
+      <c r="E1930" s="40"/>
     </row>
     <row r="1931" spans="5:5">
-      <c r="E1931" s="41"/>
+      <c r="E1931" s="40"/>
     </row>
     <row r="1932" spans="5:5">
-      <c r="E1932" s="41"/>
+      <c r="E1932" s="40"/>
     </row>
     <row r="1933" spans="5:5">
-      <c r="E1933" s="41"/>
+      <c r="E1933" s="40"/>
     </row>
     <row r="1934" spans="5:5">
-      <c r="E1934" s="41"/>
+      <c r="E1934" s="40"/>
     </row>
     <row r="1935" spans="5:5">
-      <c r="E1935" s="41"/>
+      <c r="E1935" s="40"/>
     </row>
     <row r="1936" spans="5:5">
-      <c r="E1936" s="41"/>
+      <c r="E1936" s="40"/>
     </row>
     <row r="1937" spans="5:5">
-      <c r="E1937" s="41"/>
+      <c r="E1937" s="40"/>
     </row>
     <row r="1938" spans="5:5">
-      <c r="E1938" s="41"/>
+      <c r="E1938" s="40"/>
     </row>
     <row r="1940" spans="5:5">
-      <c r="E1940" s="41"/>
+      <c r="E1940" s="40"/>
     </row>
     <row r="1953" spans="5:5">
-      <c r="E1953" s="41"/>
+      <c r="E1953" s="40"/>
     </row>
     <row r="1967" spans="5:5">
-      <c r="E1967" s="41"/>
+      <c r="E1967" s="40"/>
     </row>
     <row r="1969" spans="5:5">
-      <c r="E1969" s="41"/>
+      <c r="E1969" s="40"/>
     </row>
     <row r="1982" spans="5:5">
-      <c r="E1982" s="41"/>
+      <c r="E1982" s="40"/>
     </row>
     <row r="1996" spans="5:5">
-      <c r="E1996" s="41"/>
+      <c r="E1996" s="40"/>
     </row>
     <row r="1998" spans="5:5">
-      <c r="E1998" s="41"/>
+      <c r="E1998" s="40"/>
     </row>
     <row r="2011" spans="5:5">
-      <c r="E2011" s="41"/>
+      <c r="E2011" s="40"/>
     </row>
     <row r="2025" spans="5:5">
-      <c r="E2025" s="41"/>
+      <c r="E2025" s="40"/>
     </row>
     <row r="2028" spans="5:5">
-      <c r="E2028" s="41"/>
+      <c r="E2028" s="40"/>
     </row>
     <row r="2029" spans="5:5">
-      <c r="E2029" s="41"/>
+      <c r="E2029" s="40"/>
     </row>
     <row r="2030" spans="5:5">
-      <c r="E2030" s="41"/>
+      <c r="E2030" s="40"/>
     </row>
     <row r="2031" spans="5:5">
-      <c r="E2031" s="41"/>
+      <c r="E2031" s="40"/>
     </row>
     <row r="2032" spans="5:5">
-      <c r="E2032" s="41"/>
+      <c r="E2032" s="40"/>
     </row>
     <row r="2033" spans="5:5">
-      <c r="E2033" s="41"/>
+      <c r="E2033" s="40"/>
     </row>
     <row r="2034" spans="5:5">
-      <c r="E2034" s="41"/>
+      <c r="E2034" s="40"/>
     </row>
     <row r="2035" spans="5:5">
-      <c r="E2035" s="41"/>
+      <c r="E2035" s="40"/>
     </row>
     <row r="2036" spans="5:5">
-      <c r="E2036" s="41"/>
+      <c r="E2036" s="40"/>
     </row>
     <row r="2037" spans="5:5">
-      <c r="E2037" s="41"/>
+      <c r="E2037" s="40"/>
     </row>
     <row r="2038" spans="5:5">
-      <c r="E2038" s="41"/>
+      <c r="E2038" s="40"/>
     </row>
     <row r="2039" spans="5:5">
-      <c r="E2039" s="41"/>
+      <c r="E2039" s="40"/>
     </row>
     <row r="2040" spans="5:5">
-      <c r="E2040" s="41"/>
+      <c r="E2040" s="40"/>
     </row>
     <row r="2041" spans="5:5">
-      <c r="E2041" s="41"/>
+      <c r="E2041" s="40"/>
     </row>
     <row r="2050" spans="5:5">
-      <c r="E2050" s="41"/>
+      <c r="E2050" s="40"/>
     </row>
     <row r="2067" spans="5:5">
-      <c r="E2067" s="41"/>
+      <c r="E2067" s="40"/>
     </row>
     <row r="2084" spans="5:5">
-      <c r="E2084" s="41"/>
+      <c r="E2084" s="40"/>
     </row>
     <row r="2101" spans="5:5">
-      <c r="E2101" s="41"/>
+      <c r="E2101" s="40"/>
     </row>
     <row r="2118" spans="5:5">
-      <c r="E2118" s="41"/>
+      <c r="E2118" s="40"/>
     </row>
     <row r="2135" spans="5:5">
-      <c r="E2135" s="41"/>
+      <c r="E2135" s="40"/>
     </row>
     <row r="2152" spans="5:5">
-      <c r="E2152" s="41"/>
+      <c r="E2152" s="40"/>
     </row>
     <row r="2169" spans="5:5">
-      <c r="E2169" s="41"/>
+      <c r="E2169" s="40"/>
     </row>
     <row r="2186" spans="5:5">
-      <c r="E2186" s="41"/>
+      <c r="E2186" s="40"/>
     </row>
     <row r="2203" spans="5:5">
-      <c r="E2203" s="41"/>
+      <c r="E2203" s="40"/>
     </row>
     <row r="2220" spans="5:5">
-      <c r="E2220" s="41"/>
+      <c r="E2220" s="40"/>
     </row>
     <row r="2237" spans="5:5">
-      <c r="E2237" s="41"/>
+      <c r="E2237" s="40"/>
     </row>
     <row r="2254" spans="5:5">
-      <c r="E2254" s="41"/>
+      <c r="E2254" s="40"/>
     </row>
     <row r="2271" spans="5:5">
-      <c r="E2271" s="41"/>
+      <c r="E2271" s="40"/>
     </row>
     <row r="2288" spans="5:5">
-      <c r="E2288" s="41"/>
+      <c r="E2288" s="40"/>
     </row>
     <row r="2305" spans="5:7">
-      <c r="E2305" s="41"/>
+      <c r="E2305" s="40"/>
     </row>
     <row r="2315" spans="5:7">
-      <c r="G2315" s="41"/>
+      <c r="G2315" s="40"/>
     </row>
     <row r="2316" spans="5:7">
-      <c r="G2316" s="41"/>
+      <c r="G2316" s="40"/>
     </row>
     <row r="2317" spans="5:7">
-      <c r="G2317" s="41"/>
+      <c r="G2317" s="40"/>
     </row>
     <row r="2318" spans="5:7">
-      <c r="G2318" s="41"/>
+      <c r="G2318" s="40"/>
     </row>
     <row r="2319" spans="5:7">
-      <c r="G2319" s="41"/>
+      <c r="G2319" s="40"/>
     </row>
     <row r="2320" spans="5:7">
-      <c r="G2320" s="41"/>
+      <c r="G2320" s="40"/>
     </row>
     <row r="2321" spans="5:7">
-      <c r="G2321" s="41"/>
+      <c r="G2321" s="40"/>
     </row>
     <row r="2322" spans="5:7">
-      <c r="G2322" s="41"/>
+      <c r="G2322" s="40"/>
     </row>
     <row r="2323" spans="5:7">
-      <c r="G2323" s="41"/>
+      <c r="G2323" s="40"/>
     </row>
     <row r="2324" spans="5:7">
-      <c r="G2324" s="41"/>
+      <c r="G2324" s="40"/>
     </row>
     <row r="2325" spans="5:7">
-      <c r="G2325" s="41"/>
+      <c r="G2325" s="40"/>
     </row>
     <row r="2326" spans="5:7">
-      <c r="G2326" s="41"/>
+      <c r="G2326" s="40"/>
     </row>
     <row r="2327" spans="5:7">
-      <c r="G2327" s="41"/>
+      <c r="G2327" s="40"/>
     </row>
     <row r="2328" spans="5:7">
-      <c r="E2328" s="41"/>
-      <c r="G2328" s="41"/>
+      <c r="E2328" s="40"/>
+      <c r="G2328" s="40"/>
     </row>
     <row r="2349" spans="5:5">
-      <c r="E2349" s="41"/>
+      <c r="E2349" s="40"/>
     </row>
     <row r="2364" spans="5:5">
-      <c r="E2364" s="41"/>
+      <c r="E2364" s="40"/>
     </row>
     <row r="2379" spans="5:5">
-      <c r="E2379" s="41"/>
+      <c r="E2379" s="40"/>
     </row>
     <row r="2394" spans="5:5">
-      <c r="E2394" s="41"/>
+      <c r="E2394" s="40"/>
     </row>
     <row r="2410" spans="5:5">
-      <c r="E2410" s="41"/>
+      <c r="E2410" s="40"/>
     </row>
     <row r="2418" spans="5:7">
-      <c r="E2418" s="41"/>
+      <c r="E2418" s="40"/>
     </row>
     <row r="2427" spans="5:7">
-      <c r="G2427" s="41"/>
+      <c r="G2427" s="40"/>
     </row>
     <row r="2428" spans="5:7">
-      <c r="G2428" s="41"/>
+      <c r="G2428" s="40"/>
     </row>
     <row r="2429" spans="5:7">
-      <c r="G2429" s="41"/>
+      <c r="G2429" s="40"/>
     </row>
     <row r="2430" spans="5:7">
-      <c r="G2430" s="41"/>
+      <c r="G2430" s="40"/>
     </row>
     <row r="2431" spans="5:7">
-      <c r="G2431" s="41"/>
+      <c r="G2431" s="40"/>
     </row>
     <row r="2432" spans="5:7">
-      <c r="G2432" s="41"/>
+      <c r="G2432" s="40"/>
     </row>
     <row r="2433" spans="5:7">
-      <c r="G2433" s="41"/>
+      <c r="G2433" s="40"/>
     </row>
     <row r="2434" spans="5:7">
-      <c r="G2434" s="41"/>
+      <c r="G2434" s="40"/>
     </row>
     <row r="2435" spans="5:7">
-      <c r="G2435" s="41"/>
+      <c r="G2435" s="40"/>
     </row>
     <row r="2436" spans="5:7">
-      <c r="G2436" s="41"/>
+      <c r="G2436" s="40"/>
     </row>
     <row r="2437" spans="5:7">
-      <c r="G2437" s="41"/>
+      <c r="G2437" s="40"/>
     </row>
     <row r="2438" spans="5:7">
-      <c r="G2438" s="41"/>
+      <c r="G2438" s="40"/>
     </row>
     <row r="2439" spans="5:7">
-      <c r="G2439" s="41"/>
+      <c r="G2439" s="40"/>
     </row>
     <row r="2440" spans="5:7">
-      <c r="G2440" s="41"/>
+      <c r="G2440" s="40"/>
     </row>
     <row r="2441" spans="5:7">
-      <c r="G2441" s="41"/>
+      <c r="G2441" s="40"/>
     </row>
     <row r="2442" spans="5:7">
-      <c r="G2442" s="41"/>
+      <c r="G2442" s="40"/>
     </row>
     <row r="2443" spans="5:7">
-      <c r="G2443" s="41"/>
+      <c r="G2443" s="40"/>
     </row>
     <row r="2444" spans="5:7">
-      <c r="G2444" s="41"/>
+      <c r="G2444" s="40"/>
     </row>
     <row r="2445" spans="5:7">
-      <c r="G2445" s="41"/>
+      <c r="G2445" s="40"/>
     </row>
     <row r="2446" spans="5:7">
-      <c r="E2446" s="41"/>
-      <c r="G2446" s="41"/>
+      <c r="E2446" s="40"/>
+      <c r="G2446" s="40"/>
     </row>
     <row r="2454" spans="5:5">
-      <c r="E2454" s="41"/>
+      <c r="E2454" s="40"/>
     </row>
     <row r="2461" spans="5:5">
-      <c r="E2461" s="41"/>
+      <c r="E2461" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42472,7 +42470,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -42482,7 +42480,7 @@
       <c r="B9" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="59" t="s">
         <v>227</v>
       </c>
     </row>
@@ -42515,7 +42513,7 @@
       <c r="B12" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="59" t="s">
         <v>231</v>
       </c>
     </row>
@@ -42648,12 +42646,8 @@
       <c r="A37" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{E716B8F5-E161-4AAD-967D-917852CCBA3B}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{59A7928A-7382-4B72-8BDB-BA459A9B5DD2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42735,7 +42729,7 @@
       <c r="C9" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>263</v>
       </c>
     </row>
@@ -42746,7 +42740,7 @@
       <c r="C10" t="s">
         <v>262</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>263</v>
       </c>
     </row>
@@ -42760,7 +42754,7 @@
       <c r="C11" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="39" t="s">
         <v>263</v>
       </c>
     </row>
@@ -42774,7 +42768,7 @@
       <c r="C12" t="s">
         <v>1674</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>1675</v>
       </c>
     </row>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F65246-60A2-46BC-A1F6-F73295EAEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EDFF6-D255-4F7B-B7B8-6DF203E23B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7192" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7235" uniqueCount="1855">
   <si>
     <t>Name</t>
   </si>
@@ -5680,6 +5680,30 @@
       </rPr>
       <t>2025-December-22</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_1_NTSC.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_2_NTSC.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_3_NTSC.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_4_NTSC.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_5_NTSC.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_6_NTSC.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_7_NTSC.jpg</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_8_NTSC.jpg</t>
   </si>
 </sst>
 </file>
@@ -5809,7 +5833,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5973,7 +5997,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6293,7 +6316,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -9435,13 +9458,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2461"/>
+  <dimension ref="A1:I2469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D1119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="F1137" sqref="F1137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31439,22 +31462,22 @@
         <v>247</v>
       </c>
       <c r="B1123" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C1123" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1123" s="57" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="E1123" s="1" t="s">
         <v>1828</v>
       </c>
       <c r="F1123" s="14" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="G1123" s="1" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1124" spans="1:7">
@@ -31465,19 +31488,19 @@
         <v>267</v>
       </c>
       <c r="C1124" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1124" s="57" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E1124" s="1" t="s">
         <v>1828</v>
       </c>
       <c r="F1124" s="14" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G1124" s="1" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1125" spans="1:7">
@@ -31485,19 +31508,22 @@
         <v>247</v>
       </c>
       <c r="B1125" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C1125" s="35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1125" s="57" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="E1125" s="1" t="s">
         <v>1828</v>
       </c>
       <c r="F1125" s="14" t="s">
-        <v>1841</v>
+        <v>1848</v>
+      </c>
+      <c r="G1125" s="1" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="1126" spans="1:7">
@@ -31508,16 +31534,19 @@
         <v>267</v>
       </c>
       <c r="C1126" s="35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1126" s="57" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="E1126" s="1" t="s">
         <v>1828</v>
       </c>
       <c r="F1126" s="14" t="s">
-        <v>1842</v>
+        <v>1840</v>
+      </c>
+      <c r="G1126" s="1" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="1127" spans="1:7">
@@ -31525,19 +31554,22 @@
         <v>247</v>
       </c>
       <c r="B1127" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C1127" s="35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1127" s="57" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="E1127" s="1" t="s">
         <v>1828</v>
       </c>
       <c r="F1127" s="14" t="s">
-        <v>1843</v>
+        <v>1849</v>
+      </c>
+      <c r="G1127" s="1" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="1128" spans="1:7">
@@ -31548,16 +31580,16 @@
         <v>267</v>
       </c>
       <c r="C1128" s="35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1128" s="57" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="E1128" s="1" t="s">
         <v>1828</v>
       </c>
       <c r="F1128" s="14" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1129" spans="1:7">
@@ -31565,220 +31597,252 @@
         <v>247</v>
       </c>
       <c r="B1129" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C1129" s="35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1129" s="57" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="E1129" s="1" t="s">
         <v>1828</v>
       </c>
       <c r="F1129" s="14" t="s">
-        <v>1845</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1130" spans="1:7">
       <c r="A1130" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1130" s="14"/>
-      <c r="C1130" s="35"/>
-      <c r="D1130" s="14" t="s">
-        <v>153</v>
+        <v>247</v>
+      </c>
+      <c r="B1130" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1130" s="35">
+        <v>5</v>
+      </c>
+      <c r="D1130" s="57" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E1130" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1130" s="14" t="s">
-        <v>1817</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1131" spans="1:7">
       <c r="A1131" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1131" s="14"/>
-      <c r="C1131" s="35"/>
-      <c r="D1131" s="14" t="s">
-        <v>1816</v>
+        <v>247</v>
+      </c>
+      <c r="B1131" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1131" s="35">
+        <v>5</v>
+      </c>
+      <c r="D1131" s="57" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E1131" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1131" s="14" t="s">
-        <v>1815</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1132" spans="1:7">
       <c r="A1132" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1132" s="14"/>
-      <c r="C1132" s="35"/>
-      <c r="D1132" s="14" t="s">
-        <v>153</v>
+        <v>247</v>
+      </c>
+      <c r="B1132" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1132" s="35">
+        <v>6</v>
+      </c>
+      <c r="D1132" s="57" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E1132" s="1" t="s">
+        <v>1828</v>
       </c>
       <c r="F1132" s="14" t="s">
-        <v>324</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1133" spans="1:7">
       <c r="A1133" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1133" s="14"/>
-      <c r="C1133" s="35"/>
-      <c r="D1133" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1133" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1133" s="35">
+        <v>6</v>
+      </c>
+      <c r="D1133" s="57" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E1133" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1133" s="14" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7">
+      <c r="A1134" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1134" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1134" s="35">
+        <v>7</v>
+      </c>
+      <c r="D1134" s="57" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E1134" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1134" s="14" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7">
+      <c r="A1135" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1135" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1135" s="35">
+        <v>7</v>
+      </c>
+      <c r="D1135" s="57" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E1135" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1135" s="14" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7">
+      <c r="A1136" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1136" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1136" s="35">
+        <v>8</v>
+      </c>
+      <c r="D1136" s="57" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E1136" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1136" s="14" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7">
+      <c r="A1137" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1137" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1137" s="35">
+        <v>8</v>
+      </c>
+      <c r="D1137" s="57" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E1137" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F1137" s="14" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7">
+      <c r="A1138" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1138" s="14"/>
+      <c r="C1138" s="35"/>
+      <c r="D1138" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F1133" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:7" ht="72">
-      <c r="A1134" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1134" s="14"/>
-      <c r="C1134" s="35"/>
-      <c r="D1134" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1134" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:7" ht="28.8">
-      <c r="A1135" s="46" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B1135" s="24"/>
-      <c r="C1135" s="31"/>
-      <c r="D1135" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1135" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1135" s="40" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:7" ht="28.8">
-      <c r="A1136" s="46" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B1136"/>
-      <c r="C1136" s="4"/>
-      <c r="D1136" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1136" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1136" s="40" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:7" ht="28.8">
-      <c r="A1137" s="46" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B1137" s="25"/>
-      <c r="C1137" s="36"/>
-      <c r="D1137" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1137" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1137" s="40" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:7" ht="28.8">
-      <c r="A1138" s="46" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B1138"/>
-      <c r="C1138" s="4"/>
-      <c r="D1138" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F1138" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1138" s="40" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:7" ht="28.8">
-      <c r="A1139" s="46" t="s">
-        <v>1709</v>
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7">
+      <c r="A1139" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="B1139" s="14"/>
       <c r="C1139" s="35"/>
-      <c r="D1139" s="1" t="s">
-        <v>153</v>
+      <c r="D1139" s="14" t="s">
+        <v>1816</v>
       </c>
       <c r="F1139" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1139" s="40" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:7" ht="28.8">
-      <c r="A1140" s="46" t="s">
-        <v>1702</v>
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7">
+      <c r="A1140" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="B1140" s="14"/>
       <c r="C1140" s="35"/>
-      <c r="D1140" s="1" t="s">
+      <c r="D1140" s="14" t="s">
         <v>153</v>
       </c>
       <c r="F1140" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1140" s="40" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:7" ht="28.8">
-      <c r="A1141" s="46" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B1141" s="26"/>
-      <c r="C1141" s="37"/>
-      <c r="D1141" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7">
+      <c r="A1141" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1141" s="14"/>
+      <c r="C1141" s="35"/>
+      <c r="D1141" s="14" t="s">
         <v>153</v>
       </c>
       <c r="F1141" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1141" s="40" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:7" ht="28.8">
-      <c r="A1142" s="46" t="s">
-        <v>1747</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7" ht="72">
+      <c r="A1142" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B1142" s="14"/>
       <c r="C1142" s="35"/>
       <c r="D1142" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F1142" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="G1142" s="40" t="s">
-        <v>1769</v>
+      <c r="G1142" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="1143" spans="1:7" ht="28.8">
       <c r="A1143" s="46" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B1143" s="14"/>
-      <c r="C1143" s="35"/>
+        <v>1727</v>
+      </c>
+      <c r="B1143" s="24"/>
+      <c r="C1143" s="31"/>
       <c r="D1143" s="1" t="s">
         <v>153</v>
       </c>
@@ -31791,10 +31855,10 @@
     </row>
     <row r="1144" spans="1:7" ht="28.8">
       <c r="A1144" s="46" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B1144" s="14"/>
-      <c r="C1144" s="35"/>
+        <v>1728</v>
+      </c>
+      <c r="B1144"/>
+      <c r="C1144" s="4"/>
       <c r="D1144" s="1" t="s">
         <v>153</v>
       </c>
@@ -31807,10 +31871,10 @@
     </row>
     <row r="1145" spans="1:7" ht="28.8">
       <c r="A1145" s="46" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B1145" s="26"/>
-      <c r="C1145" s="37"/>
+        <v>1694</v>
+      </c>
+      <c r="B1145" s="25"/>
+      <c r="C1145" s="36"/>
       <c r="D1145" s="1" t="s">
         <v>153</v>
       </c>
@@ -31823,10 +31887,10 @@
     </row>
     <row r="1146" spans="1:7" ht="28.8">
       <c r="A1146" s="46" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B1146" s="14"/>
-      <c r="C1146" s="35"/>
+        <v>1729</v>
+      </c>
+      <c r="B1146"/>
+      <c r="C1146" s="4"/>
       <c r="D1146" s="1" t="s">
         <v>153</v>
       </c>
@@ -31839,7 +31903,7 @@
     </row>
     <row r="1147" spans="1:7" ht="28.8">
       <c r="A1147" s="46" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B1147" s="14"/>
       <c r="C1147" s="35"/>
@@ -31855,7 +31919,7 @@
     </row>
     <row r="1148" spans="1:7" ht="28.8">
       <c r="A1148" s="46" t="s">
-        <v>1695</v>
+        <v>1702</v>
       </c>
       <c r="B1148" s="14"/>
       <c r="C1148" s="35"/>
@@ -31871,10 +31935,10 @@
     </row>
     <row r="1149" spans="1:7" ht="28.8">
       <c r="A1149" s="46" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B1149" s="14"/>
-      <c r="C1149" s="35"/>
+        <v>1701</v>
+      </c>
+      <c r="B1149" s="26"/>
+      <c r="C1149" s="37"/>
       <c r="D1149" s="1" t="s">
         <v>153</v>
       </c>
@@ -31887,7 +31951,7 @@
     </row>
     <row r="1150" spans="1:7" ht="28.8">
       <c r="A1150" s="46" t="s">
-        <v>1706</v>
+        <v>1747</v>
       </c>
       <c r="B1150" s="14"/>
       <c r="C1150" s="35"/>
@@ -31903,7 +31967,7 @@
     </row>
     <row r="1151" spans="1:7" ht="28.8">
       <c r="A1151" s="46" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="B1151" s="14"/>
       <c r="C1151" s="35"/>
@@ -31919,7 +31983,7 @@
     </row>
     <row r="1152" spans="1:7" ht="28.8">
       <c r="A1152" s="46" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="B1152" s="14"/>
       <c r="C1152" s="35"/>
@@ -31935,10 +31999,10 @@
     </row>
     <row r="1153" spans="1:7" ht="28.8">
       <c r="A1153" s="46" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B1153" s="14"/>
-      <c r="C1153" s="35"/>
+        <v>1748</v>
+      </c>
+      <c r="B1153" s="26"/>
+      <c r="C1153" s="37"/>
       <c r="D1153" s="1" t="s">
         <v>153</v>
       </c>
@@ -31951,7 +32015,7 @@
     </row>
     <row r="1154" spans="1:7" ht="28.8">
       <c r="A1154" s="46" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="B1154" s="14"/>
       <c r="C1154" s="35"/>
@@ -31967,7 +32031,7 @@
     </row>
     <row r="1155" spans="1:7" ht="28.8">
       <c r="A1155" s="46" t="s">
-        <v>1749</v>
+        <v>1710</v>
       </c>
       <c r="B1155" s="14"/>
       <c r="C1155" s="35"/>
@@ -31983,7 +32047,7 @@
     </row>
     <row r="1156" spans="1:7" ht="28.8">
       <c r="A1156" s="46" t="s">
-        <v>1685</v>
+        <v>1695</v>
       </c>
       <c r="B1156" s="14"/>
       <c r="C1156" s="35"/>
@@ -31999,7 +32063,7 @@
     </row>
     <row r="1157" spans="1:7" ht="28.8">
       <c r="A1157" s="46" t="s">
-        <v>1733</v>
+        <v>1739</v>
       </c>
       <c r="B1157" s="14"/>
       <c r="C1157" s="35"/>
@@ -32015,7 +32079,7 @@
     </row>
     <row r="1158" spans="1:7" ht="28.8">
       <c r="A1158" s="46" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="B1158" s="14"/>
       <c r="C1158" s="35"/>
@@ -32029,45 +32093,133 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="1159" spans="1:7">
-      <c r="A1159" s="14"/>
+    <row r="1159" spans="1:7" ht="28.8">
+      <c r="A1159" s="46" t="s">
+        <v>1682</v>
+      </c>
       <c r="B1159" s="14"/>
       <c r="C1159" s="35"/>
-    </row>
-    <row r="1160" spans="1:7">
-      <c r="A1160" s="14"/>
+      <c r="D1159" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1159" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1159" s="40" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7" ht="28.8">
+      <c r="A1160" s="46" t="s">
+        <v>1713</v>
+      </c>
       <c r="B1160" s="14"/>
       <c r="C1160" s="35"/>
-    </row>
-    <row r="1161" spans="1:7">
-      <c r="A1161" s="14"/>
+      <c r="D1160" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1160" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1160" s="40" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:7" ht="28.8">
+      <c r="A1161" s="46" t="s">
+        <v>1712</v>
+      </c>
       <c r="B1161" s="14"/>
       <c r="C1161" s="35"/>
-    </row>
-    <row r="1162" spans="1:7">
-      <c r="A1162" s="14"/>
+      <c r="D1161" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1161" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1161" s="40" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7" ht="28.8">
+      <c r="A1162" s="46" t="s">
+        <v>1714</v>
+      </c>
       <c r="B1162" s="14"/>
       <c r="C1162" s="35"/>
-    </row>
-    <row r="1163" spans="1:7">
-      <c r="A1163" s="14"/>
+      <c r="D1162" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1162" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1162" s="40" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" ht="28.8">
+      <c r="A1163" s="46" t="s">
+        <v>1749</v>
+      </c>
       <c r="B1163" s="14"/>
       <c r="C1163" s="35"/>
-    </row>
-    <row r="1164" spans="1:7">
-      <c r="A1164" s="14"/>
+      <c r="D1163" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1163" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1163" s="40" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" ht="28.8">
+      <c r="A1164" s="46" t="s">
+        <v>1685</v>
+      </c>
       <c r="B1164" s="14"/>
       <c r="C1164" s="35"/>
-    </row>
-    <row r="1165" spans="1:7">
-      <c r="A1165" s="14"/>
+      <c r="D1164" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1164" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1164" s="40" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:7" ht="28.8">
+      <c r="A1165" s="46" t="s">
+        <v>1733</v>
+      </c>
       <c r="B1165" s="14"/>
       <c r="C1165" s="35"/>
-    </row>
-    <row r="1166" spans="1:7">
-      <c r="A1166" s="14"/>
+      <c r="D1165" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1165" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1165" s="40" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:7" ht="28.8">
+      <c r="A1166" s="46" t="s">
+        <v>1711</v>
+      </c>
       <c r="B1166" s="14"/>
       <c r="C1166" s="35"/>
+      <c r="D1166" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1166" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G1166" s="40" t="s">
+        <v>1769</v>
+      </c>
     </row>
     <row r="1167" spans="1:7">
       <c r="A1167" s="14"/>
@@ -32159,71 +32311,79 @@
       <c r="B1184" s="14"/>
       <c r="C1184" s="35"/>
     </row>
-    <row r="1294" spans="5:5">
-      <c r="E1294" s="40"/>
-    </row>
-    <row r="1295" spans="5:5">
-      <c r="E1295" s="40"/>
-    </row>
-    <row r="1296" spans="5:5">
-      <c r="E1296" s="40"/>
-    </row>
-    <row r="1297" spans="5:7">
-      <c r="E1297" s="40"/>
-    </row>
-    <row r="1298" spans="5:7">
-      <c r="E1298" s="40"/>
-    </row>
-    <row r="1299" spans="5:7">
-      <c r="E1299" s="40"/>
-    </row>
-    <row r="1300" spans="5:7">
-      <c r="E1300" s="40"/>
-    </row>
-    <row r="1310" spans="5:7">
-      <c r="E1310" s="40"/>
-    </row>
-    <row r="1312" spans="5:7">
-      <c r="E1312" s="40"/>
-      <c r="G1312" s="40"/>
-    </row>
-    <row r="1313" spans="5:7">
-      <c r="G1313" s="40"/>
-    </row>
-    <row r="1314" spans="5:7">
-      <c r="E1314" s="41"/>
-      <c r="G1314" s="40"/>
-    </row>
-    <row r="1315" spans="5:7">
-      <c r="E1315" s="40"/>
-      <c r="G1315" s="40"/>
-    </row>
-    <row r="1316" spans="5:7">
-      <c r="E1316" s="40"/>
-      <c r="G1316" s="40"/>
-    </row>
-    <row r="1317" spans="5:7">
-      <c r="E1317" s="40"/>
-      <c r="G1317" s="40"/>
+    <row r="1185" spans="1:3">
+      <c r="A1185" s="14"/>
+      <c r="B1185" s="14"/>
+      <c r="C1185" s="35"/>
+    </row>
+    <row r="1186" spans="1:3">
+      <c r="A1186" s="14"/>
+      <c r="B1186" s="14"/>
+      <c r="C1186" s="35"/>
+    </row>
+    <row r="1187" spans="1:3">
+      <c r="A1187" s="14"/>
+      <c r="B1187" s="14"/>
+      <c r="C1187" s="35"/>
+    </row>
+    <row r="1188" spans="1:3">
+      <c r="A1188" s="14"/>
+      <c r="B1188" s="14"/>
+      <c r="C1188" s="35"/>
+    </row>
+    <row r="1189" spans="1:3">
+      <c r="A1189" s="14"/>
+      <c r="B1189" s="14"/>
+      <c r="C1189" s="35"/>
+    </row>
+    <row r="1190" spans="1:3">
+      <c r="A1190" s="14"/>
+      <c r="B1190" s="14"/>
+      <c r="C1190" s="35"/>
+    </row>
+    <row r="1191" spans="1:3">
+      <c r="A1191" s="14"/>
+      <c r="B1191" s="14"/>
+      <c r="C1191" s="35"/>
+    </row>
+    <row r="1192" spans="1:3">
+      <c r="A1192" s="14"/>
+      <c r="B1192" s="14"/>
+      <c r="C1192" s="35"/>
+    </row>
+    <row r="1302" spans="5:5">
+      <c r="E1302" s="40"/>
+    </row>
+    <row r="1303" spans="5:5">
+      <c r="E1303" s="40"/>
+    </row>
+    <row r="1304" spans="5:5">
+      <c r="E1304" s="40"/>
+    </row>
+    <row r="1305" spans="5:5">
+      <c r="E1305" s="40"/>
+    </row>
+    <row r="1306" spans="5:5">
+      <c r="E1306" s="40"/>
+    </row>
+    <row r="1307" spans="5:5">
+      <c r="E1307" s="40"/>
+    </row>
+    <row r="1308" spans="5:5">
+      <c r="E1308" s="40"/>
     </row>
     <row r="1318" spans="5:7">
       <c r="E1318" s="40"/>
-      <c r="G1318" s="40"/>
-    </row>
-    <row r="1319" spans="5:7">
-      <c r="E1319" s="40"/>
-      <c r="G1319" s="40"/>
     </row>
     <row r="1320" spans="5:7">
-      <c r="E1320" s="42"/>
+      <c r="E1320" s="40"/>
       <c r="G1320" s="40"/>
     </row>
     <row r="1321" spans="5:7">
-      <c r="E1321" s="40"/>
       <c r="G1321" s="40"/>
     </row>
     <row r="1322" spans="5:7">
-      <c r="E1322" s="40"/>
+      <c r="E1322" s="41"/>
       <c r="G1322" s="40"/>
     </row>
     <row r="1323" spans="5:7">
@@ -32247,7 +32407,7 @@
       <c r="G1327" s="40"/>
     </row>
     <row r="1328" spans="5:7">
-      <c r="E1328" s="40"/>
+      <c r="E1328" s="42"/>
       <c r="G1328" s="40"/>
     </row>
     <row r="1329" spans="5:7">
@@ -32374,32 +32534,40 @@
       <c r="E1359" s="40"/>
       <c r="G1359" s="40"/>
     </row>
+    <row r="1360" spans="5:7">
+      <c r="E1360" s="40"/>
+      <c r="G1360" s="40"/>
+    </row>
+    <row r="1361" spans="5:7">
+      <c r="E1361" s="40"/>
+      <c r="G1361" s="40"/>
+    </row>
+    <row r="1362" spans="5:7">
+      <c r="E1362" s="40"/>
+      <c r="G1362" s="40"/>
+    </row>
+    <row r="1363" spans="5:7">
+      <c r="E1363" s="40"/>
+      <c r="G1363" s="40"/>
+    </row>
+    <row r="1364" spans="5:7">
+      <c r="E1364" s="40"/>
+      <c r="G1364" s="40"/>
+    </row>
+    <row r="1365" spans="5:7">
+      <c r="E1365" s="40"/>
+      <c r="G1365" s="40"/>
+    </row>
+    <row r="1366" spans="5:7">
+      <c r="E1366" s="40"/>
+      <c r="G1366" s="40"/>
+    </row>
     <row r="1367" spans="5:7">
       <c r="E1367" s="40"/>
-    </row>
-    <row r="1376" spans="5:7">
-      <c r="G1376" s="40"/>
-    </row>
-    <row r="1377" spans="7:7">
-      <c r="G1377" s="40"/>
-    </row>
-    <row r="1378" spans="7:7">
-      <c r="G1378" s="40"/>
-    </row>
-    <row r="1379" spans="7:7">
-      <c r="G1379" s="40"/>
-    </row>
-    <row r="1380" spans="7:7">
-      <c r="G1380" s="40"/>
-    </row>
-    <row r="1381" spans="7:7">
-      <c r="G1381" s="40"/>
-    </row>
-    <row r="1382" spans="7:7">
-      <c r="G1382" s="40"/>
-    </row>
-    <row r="1383" spans="7:7">
-      <c r="G1383" s="40"/>
+      <c r="G1367" s="40"/>
+    </row>
+    <row r="1375" spans="5:7">
+      <c r="E1375" s="40"/>
     </row>
     <row r="1384" spans="7:7">
       <c r="G1384" s="40"/>
@@ -32419,26 +32587,32 @@
     <row r="1389" spans="7:7">
       <c r="G1389" s="40"/>
     </row>
-    <row r="1419" spans="5:5">
-      <c r="E1419" s="40"/>
-    </row>
-    <row r="1438" spans="5:5">
-      <c r="E1438" s="40"/>
-    </row>
-    <row r="1439" spans="5:5">
-      <c r="E1439" s="40"/>
-    </row>
-    <row r="1442" spans="5:5">
-      <c r="E1442" s="40"/>
-    </row>
-    <row r="1443" spans="5:5">
-      <c r="E1443" s="40"/>
-    </row>
-    <row r="1444" spans="5:5">
-      <c r="E1444" s="40"/>
-    </row>
-    <row r="1445" spans="5:5">
-      <c r="E1445" s="40"/>
+    <row r="1390" spans="7:7">
+      <c r="G1390" s="40"/>
+    </row>
+    <row r="1391" spans="7:7">
+      <c r="G1391" s="40"/>
+    </row>
+    <row r="1392" spans="7:7">
+      <c r="G1392" s="40"/>
+    </row>
+    <row r="1393" spans="7:7">
+      <c r="G1393" s="40"/>
+    </row>
+    <row r="1394" spans="7:7">
+      <c r="G1394" s="40"/>
+    </row>
+    <row r="1395" spans="7:7">
+      <c r="G1395" s="40"/>
+    </row>
+    <row r="1396" spans="7:7">
+      <c r="G1396" s="40"/>
+    </row>
+    <row r="1397" spans="7:7">
+      <c r="G1397" s="40"/>
+    </row>
+    <row r="1427" spans="5:5">
+      <c r="E1427" s="40"/>
     </row>
     <row r="1446" spans="5:5">
       <c r="E1446" s="40"/>
@@ -32446,6 +32620,15 @@
     <row r="1447" spans="5:5">
       <c r="E1447" s="40"/>
     </row>
+    <row r="1450" spans="5:5">
+      <c r="E1450" s="40"/>
+    </row>
+    <row r="1451" spans="5:5">
+      <c r="E1451" s="40"/>
+    </row>
+    <row r="1452" spans="5:5">
+      <c r="E1452" s="40"/>
+    </row>
     <row r="1453" spans="5:5">
       <c r="E1453" s="40"/>
     </row>
@@ -32455,18 +32638,6 @@
     <row r="1455" spans="5:5">
       <c r="E1455" s="40"/>
     </row>
-    <row r="1456" spans="5:5">
-      <c r="E1456" s="40"/>
-    </row>
-    <row r="1457" spans="5:5">
-      <c r="E1457" s="40"/>
-    </row>
-    <row r="1458" spans="5:5">
-      <c r="E1458" s="40"/>
-    </row>
-    <row r="1459" spans="5:5">
-      <c r="E1459" s="40"/>
-    </row>
     <row r="1461" spans="5:5">
       <c r="E1461" s="40"/>
     </row>
@@ -32479,81 +32650,80 @@
     <row r="1464" spans="5:5">
       <c r="E1464" s="40"/>
     </row>
-    <row r="1468" spans="5:5">
-      <c r="E1468" s="40"/>
-    </row>
-    <row r="1475" spans="5:5">
-      <c r="E1475" s="40"/>
-    </row>
-    <row r="1479" spans="5:5">
-      <c r="E1479" s="40"/>
-    </row>
-    <row r="1490" spans="5:7">
-      <c r="E1490" s="40"/>
-    </row>
-    <row r="1500" spans="5:7">
-      <c r="E1500" s="40"/>
-    </row>
-    <row r="1502" spans="5:7">
-      <c r="G1502" s="40"/>
-    </row>
-    <row r="1503" spans="5:7">
-      <c r="G1503" s="40"/>
-    </row>
-    <row r="1504" spans="5:7">
-      <c r="G1504" s="40"/>
-    </row>
-    <row r="1505" spans="7:7">
-      <c r="G1505" s="40"/>
-    </row>
-    <row r="1506" spans="7:7">
-      <c r="G1506" s="40"/>
-    </row>
-    <row r="1507" spans="7:7">
-      <c r="G1507" s="40"/>
-    </row>
-    <row r="1508" spans="7:7">
-      <c r="G1508" s="40"/>
-    </row>
-    <row r="1509" spans="7:7">
-      <c r="G1509" s="40"/>
-    </row>
-    <row r="1510" spans="7:7">
+    <row r="1465" spans="5:5">
+      <c r="E1465" s="40"/>
+    </row>
+    <row r="1466" spans="5:5">
+      <c r="E1466" s="40"/>
+    </row>
+    <row r="1467" spans="5:5">
+      <c r="E1467" s="40"/>
+    </row>
+    <row r="1469" spans="5:5">
+      <c r="E1469" s="40"/>
+    </row>
+    <row r="1470" spans="5:5">
+      <c r="E1470" s="40"/>
+    </row>
+    <row r="1471" spans="5:5">
+      <c r="E1471" s="40"/>
+    </row>
+    <row r="1472" spans="5:5">
+      <c r="E1472" s="40"/>
+    </row>
+    <row r="1476" spans="5:5">
+      <c r="E1476" s="40"/>
+    </row>
+    <row r="1483" spans="5:5">
+      <c r="E1483" s="40"/>
+    </row>
+    <row r="1487" spans="5:5">
+      <c r="E1487" s="40"/>
+    </row>
+    <row r="1498" spans="5:5">
+      <c r="E1498" s="40"/>
+    </row>
+    <row r="1508" spans="5:7">
+      <c r="E1508" s="40"/>
+    </row>
+    <row r="1510" spans="5:7">
       <c r="G1510" s="40"/>
     </row>
-    <row r="1511" spans="7:7">
+    <row r="1511" spans="5:7">
       <c r="G1511" s="40"/>
     </row>
-    <row r="1512" spans="7:7">
+    <row r="1512" spans="5:7">
       <c r="G1512" s="40"/>
     </row>
-    <row r="1513" spans="7:7">
+    <row r="1513" spans="5:7">
       <c r="G1513" s="40"/>
     </row>
-    <row r="1514" spans="7:7">
+    <row r="1514" spans="5:7">
       <c r="G1514" s="40"/>
     </row>
-    <row r="1515" spans="7:7">
+    <row r="1515" spans="5:7">
       <c r="G1515" s="40"/>
     </row>
-    <row r="1516" spans="7:7">
+    <row r="1516" spans="5:7">
       <c r="G1516" s="40"/>
     </row>
-    <row r="1517" spans="7:7">
+    <row r="1517" spans="5:7">
       <c r="G1517" s="40"/>
     </row>
-    <row r="1518" spans="7:7">
+    <row r="1518" spans="5:7">
       <c r="G1518" s="40"/>
     </row>
-    <row r="1519" spans="7:7">
+    <row r="1519" spans="5:7">
       <c r="G1519" s="40"/>
     </row>
-    <row r="1520" spans="7:7">
+    <row r="1520" spans="5:7">
       <c r="G1520" s="40"/>
     </row>
     <row r="1521" spans="5:7">
-      <c r="E1521" s="40"/>
       <c r="G1521" s="40"/>
+    </row>
+    <row r="1522" spans="5:7">
+      <c r="G1522" s="40"/>
     </row>
     <row r="1523" spans="5:7">
       <c r="G1523" s="40"/>
@@ -32574,11 +32744,8 @@
       <c r="G1528" s="40"/>
     </row>
     <row r="1529" spans="5:7">
+      <c r="E1529" s="40"/>
       <c r="G1529" s="40"/>
-    </row>
-    <row r="1530" spans="5:7">
-      <c r="E1530" s="40"/>
-      <c r="G1530" s="40"/>
     </row>
     <row r="1531" spans="5:7">
       <c r="G1531" s="40"/>
@@ -32605,6 +32772,9 @@
       <c r="E1538" s="40"/>
       <c r="G1538" s="40"/>
     </row>
+    <row r="1539" spans="5:7">
+      <c r="G1539" s="40"/>
+    </row>
     <row r="1540" spans="5:7">
       <c r="G1540" s="40"/>
     </row>
@@ -32624,11 +32794,8 @@
       <c r="G1545" s="40"/>
     </row>
     <row r="1546" spans="5:7">
+      <c r="E1546" s="40"/>
       <c r="G1546" s="40"/>
-    </row>
-    <row r="1547" spans="5:7">
-      <c r="E1547" s="40"/>
-      <c r="G1547" s="40"/>
     </row>
     <row r="1548" spans="5:7">
       <c r="G1548" s="40"/>
@@ -32655,54 +32822,55 @@
       <c r="E1555" s="40"/>
       <c r="G1555" s="40"/>
     </row>
+    <row r="1556" spans="5:7">
+      <c r="G1556" s="40"/>
+    </row>
+    <row r="1557" spans="5:7">
+      <c r="G1557" s="40"/>
+    </row>
+    <row r="1558" spans="5:7">
+      <c r="G1558" s="40"/>
+    </row>
+    <row r="1559" spans="5:7">
+      <c r="G1559" s="40"/>
+    </row>
+    <row r="1560" spans="5:7">
+      <c r="G1560" s="40"/>
+    </row>
+    <row r="1561" spans="5:7">
+      <c r="G1561" s="40"/>
+    </row>
+    <row r="1562" spans="5:7">
+      <c r="G1562" s="40"/>
+    </row>
     <row r="1563" spans="5:7">
       <c r="E1563" s="40"/>
-    </row>
-    <row r="1570" spans="5:5">
-      <c r="E1570" s="40"/>
-    </row>
-    <row r="1586" spans="5:5">
-      <c r="E1586" s="41"/>
-    </row>
-    <row r="1587" spans="5:5">
-      <c r="E1587" s="41"/>
-    </row>
-    <row r="1590" spans="5:5">
-      <c r="E1590" s="41"/>
-    </row>
-    <row r="1591" spans="5:5">
-      <c r="E1591" s="40"/>
-    </row>
-    <row r="1604" spans="5:5">
-      <c r="E1604" s="40"/>
-    </row>
-    <row r="1616" spans="5:5">
-      <c r="E1616" s="40"/>
-    </row>
-    <row r="1620" spans="5:5">
-      <c r="E1620" s="40"/>
-    </row>
-    <row r="1621" spans="5:5">
-      <c r="E1621" s="40"/>
-    </row>
-    <row r="1622" spans="5:5">
-      <c r="E1622" s="40"/>
-    </row>
-    <row r="1623" spans="5:5">
-      <c r="E1623" s="40"/>
+      <c r="G1563" s="40"/>
+    </row>
+    <row r="1571" spans="5:5">
+      <c r="E1571" s="40"/>
+    </row>
+    <row r="1578" spans="5:5">
+      <c r="E1578" s="40"/>
+    </row>
+    <row r="1594" spans="5:5">
+      <c r="E1594" s="41"/>
+    </row>
+    <row r="1595" spans="5:5">
+      <c r="E1595" s="41"/>
+    </row>
+    <row r="1598" spans="5:5">
+      <c r="E1598" s="41"/>
+    </row>
+    <row r="1599" spans="5:5">
+      <c r="E1599" s="40"/>
+    </row>
+    <row r="1612" spans="5:5">
+      <c r="E1612" s="40"/>
     </row>
     <row r="1624" spans="5:5">
       <c r="E1624" s="40"/>
     </row>
-    <row r="1625" spans="5:5">
-      <c r="E1625" s="40"/>
-    </row>
-    <row r="1626" spans="5:5">
-      <c r="E1626" s="40"/>
-    </row>
-    <row r="1627" spans="5:5">
-      <c r="E1627" s="40"/>
-    </row>
     <row r="1628" spans="5:5">
       <c r="E1628" s="40"/>
     </row>
@@ -32718,62 +32886,62 @@
     <row r="1632" spans="5:5">
       <c r="E1632" s="40"/>
     </row>
-    <row r="1633" spans="5:7">
+    <row r="1633" spans="5:5">
       <c r="E1633" s="40"/>
     </row>
-    <row r="1634" spans="5:7">
+    <row r="1634" spans="5:5">
       <c r="E1634" s="40"/>
     </row>
-    <row r="1635" spans="5:7">
+    <row r="1635" spans="5:5">
       <c r="E1635" s="40"/>
     </row>
-    <row r="1636" spans="5:7">
+    <row r="1636" spans="5:5">
       <c r="E1636" s="40"/>
     </row>
-    <row r="1637" spans="5:7">
+    <row r="1637" spans="5:5">
       <c r="E1637" s="40"/>
     </row>
-    <row r="1638" spans="5:7">
+    <row r="1638" spans="5:5">
       <c r="E1638" s="40"/>
     </row>
-    <row r="1639" spans="5:7">
+    <row r="1639" spans="5:5">
       <c r="E1639" s="40"/>
     </row>
-    <row r="1640" spans="5:7">
+    <row r="1640" spans="5:5">
       <c r="E1640" s="40"/>
     </row>
-    <row r="1641" spans="5:7">
+    <row r="1641" spans="5:5">
       <c r="E1641" s="40"/>
     </row>
-    <row r="1642" spans="5:7">
+    <row r="1642" spans="5:5">
       <c r="E1642" s="40"/>
     </row>
-    <row r="1643" spans="5:7">
+    <row r="1643" spans="5:5">
       <c r="E1643" s="40"/>
     </row>
-    <row r="1645" spans="5:7">
-      <c r="G1645" s="40"/>
-    </row>
-    <row r="1646" spans="5:7">
-      <c r="G1646" s="40"/>
-    </row>
-    <row r="1647" spans="5:7">
-      <c r="G1647" s="40"/>
-    </row>
-    <row r="1648" spans="5:7">
-      <c r="G1648" s="40"/>
+    <row r="1644" spans="5:5">
+      <c r="E1644" s="40"/>
+    </row>
+    <row r="1645" spans="5:5">
+      <c r="E1645" s="40"/>
+    </row>
+    <row r="1646" spans="5:5">
+      <c r="E1646" s="40"/>
+    </row>
+    <row r="1647" spans="5:5">
+      <c r="E1647" s="40"/>
+    </row>
+    <row r="1648" spans="5:5">
+      <c r="E1648" s="40"/>
     </row>
     <row r="1649" spans="5:7">
-      <c r="G1649" s="40"/>
+      <c r="E1649" s="40"/>
     </row>
     <row r="1650" spans="5:7">
-      <c r="G1650" s="40"/>
+      <c r="E1650" s="40"/>
     </row>
     <row r="1651" spans="5:7">
-      <c r="G1651" s="40"/>
-    </row>
-    <row r="1652" spans="5:7">
-      <c r="G1652" s="40"/>
+      <c r="E1651" s="40"/>
     </row>
     <row r="1653" spans="5:7">
       <c r="G1653" s="40"/>
@@ -32791,70 +32959,70 @@
       <c r="G1657" s="40"/>
     </row>
     <row r="1658" spans="5:7">
-      <c r="E1658" s="40"/>
       <c r="G1658" s="40"/>
     </row>
+    <row r="1659" spans="5:7">
+      <c r="G1659" s="40"/>
+    </row>
     <row r="1660" spans="5:7">
-      <c r="E1660" s="40"/>
+      <c r="G1660" s="40"/>
     </row>
     <row r="1661" spans="5:7">
-      <c r="E1661" s="40"/>
+      <c r="G1661" s="40"/>
     </row>
     <row r="1662" spans="5:7">
-      <c r="E1662" s="40"/>
+      <c r="G1662" s="40"/>
     </row>
     <row r="1663" spans="5:7">
-      <c r="E1663" s="40"/>
+      <c r="G1663" s="40"/>
     </row>
     <row r="1664" spans="5:7">
-      <c r="E1664" s="40"/>
-    </row>
-    <row r="1665" spans="5:5">
-      <c r="E1665" s="40"/>
-    </row>
-    <row r="1666" spans="5:5">
+      <c r="G1664" s="40"/>
+    </row>
+    <row r="1665" spans="5:7">
+      <c r="G1665" s="40"/>
+    </row>
+    <row r="1666" spans="5:7">
       <c r="E1666" s="40"/>
-    </row>
-    <row r="1667" spans="5:5">
-      <c r="E1667" s="40"/>
-    </row>
-    <row r="1668" spans="5:5">
+      <c r="G1666" s="40"/>
+    </row>
+    <row r="1668" spans="5:7">
       <c r="E1668" s="40"/>
     </row>
-    <row r="1669" spans="5:5">
+    <row r="1669" spans="5:7">
       <c r="E1669" s="40"/>
     </row>
-    <row r="1670" spans="5:5">
+    <row r="1670" spans="5:7">
       <c r="E1670" s="40"/>
     </row>
-    <row r="1671" spans="5:5">
+    <row r="1671" spans="5:7">
       <c r="E1671" s="40"/>
     </row>
-    <row r="1672" spans="5:5">
+    <row r="1672" spans="5:7">
       <c r="E1672" s="40"/>
     </row>
-    <row r="1673" spans="5:5">
+    <row r="1673" spans="5:7">
       <c r="E1673" s="40"/>
     </row>
-    <row r="1674" spans="5:5">
+    <row r="1674" spans="5:7">
       <c r="E1674" s="40"/>
     </row>
-    <row r="1675" spans="5:5">
+    <row r="1675" spans="5:7">
       <c r="E1675" s="40"/>
     </row>
-    <row r="1676" spans="5:5">
+    <row r="1676" spans="5:7">
       <c r="E1676" s="40"/>
     </row>
-    <row r="1677" spans="5:5">
+    <row r="1677" spans="5:7">
       <c r="E1677" s="40"/>
     </row>
-    <row r="1678" spans="5:5">
+    <row r="1678" spans="5:7">
       <c r="E1678" s="40"/>
     </row>
-    <row r="1679" spans="5:5">
+    <row r="1679" spans="5:7">
       <c r="E1679" s="40"/>
     </row>
-    <row r="1680" spans="5:5">
+    <row r="1680" spans="5:7">
       <c r="E1680" s="40"/>
     </row>
     <row r="1681" spans="5:5">
@@ -32905,70 +33073,62 @@
     <row r="1696" spans="5:5">
       <c r="E1696" s="40"/>
     </row>
-    <row r="1697" spans="5:7">
+    <row r="1697" spans="5:5">
       <c r="E1697" s="40"/>
     </row>
-    <row r="1698" spans="5:7">
+    <row r="1698" spans="5:5">
       <c r="E1698" s="40"/>
     </row>
-    <row r="1699" spans="5:7">
+    <row r="1699" spans="5:5">
       <c r="E1699" s="40"/>
     </row>
-    <row r="1700" spans="5:7">
+    <row r="1700" spans="5:5">
       <c r="E1700" s="40"/>
     </row>
-    <row r="1701" spans="5:7">
+    <row r="1701" spans="5:5">
       <c r="E1701" s="40"/>
     </row>
-    <row r="1702" spans="5:7">
+    <row r="1702" spans="5:5">
       <c r="E1702" s="40"/>
     </row>
-    <row r="1703" spans="5:7">
+    <row r="1703" spans="5:5">
       <c r="E1703" s="40"/>
     </row>
-    <row r="1704" spans="5:7">
+    <row r="1704" spans="5:5">
       <c r="E1704" s="40"/>
     </row>
-    <row r="1705" spans="5:7">
+    <row r="1705" spans="5:5">
       <c r="E1705" s="40"/>
     </row>
-    <row r="1706" spans="5:7">
+    <row r="1706" spans="5:5">
       <c r="E1706" s="40"/>
     </row>
-    <row r="1707" spans="5:7">
+    <row r="1707" spans="5:5">
       <c r="E1707" s="40"/>
     </row>
-    <row r="1709" spans="5:7">
+    <row r="1708" spans="5:5">
+      <c r="E1708" s="40"/>
+    </row>
+    <row r="1709" spans="5:5">
       <c r="E1709" s="40"/>
-      <c r="G1709" s="40"/>
-    </row>
-    <row r="1710" spans="5:7">
+    </row>
+    <row r="1710" spans="5:5">
       <c r="E1710" s="40"/>
-      <c r="G1710" s="40"/>
-    </row>
-    <row r="1711" spans="5:7">
+    </row>
+    <row r="1711" spans="5:5">
       <c r="E1711" s="40"/>
-      <c r="G1711" s="40"/>
-    </row>
-    <row r="1712" spans="5:7">
+    </row>
+    <row r="1712" spans="5:5">
       <c r="E1712" s="40"/>
-      <c r="G1712" s="40"/>
     </row>
     <row r="1713" spans="5:7">
       <c r="E1713" s="40"/>
-      <c r="G1713" s="40"/>
     </row>
     <row r="1714" spans="5:7">
       <c r="E1714" s="40"/>
-      <c r="G1714" s="40"/>
     </row>
     <row r="1715" spans="5:7">
       <c r="E1715" s="40"/>
-      <c r="G1715" s="40"/>
-    </row>
-    <row r="1716" spans="5:7">
-      <c r="E1716" s="40"/>
-      <c r="G1716" s="40"/>
     </row>
     <row r="1717" spans="5:7">
       <c r="E1717" s="40"/>
@@ -33130,32 +33290,40 @@
       <c r="E1756" s="40"/>
       <c r="G1756" s="40"/>
     </row>
-    <row r="1766" spans="5:5">
-      <c r="E1766" s="40"/>
-    </row>
-    <row r="1777" spans="7:7">
-      <c r="G1777" s="40"/>
-    </row>
-    <row r="1778" spans="7:7">
-      <c r="G1778" s="40"/>
-    </row>
-    <row r="1779" spans="7:7">
-      <c r="G1779" s="40"/>
-    </row>
-    <row r="1780" spans="7:7">
-      <c r="G1780" s="40"/>
-    </row>
-    <row r="1781" spans="7:7">
-      <c r="G1781" s="40"/>
-    </row>
-    <row r="1782" spans="7:7">
-      <c r="G1782" s="40"/>
-    </row>
-    <row r="1783" spans="7:7">
-      <c r="G1783" s="40"/>
-    </row>
-    <row r="1784" spans="7:7">
-      <c r="G1784" s="40"/>
+    <row r="1757" spans="5:7">
+      <c r="E1757" s="40"/>
+      <c r="G1757" s="40"/>
+    </row>
+    <row r="1758" spans="5:7">
+      <c r="E1758" s="40"/>
+      <c r="G1758" s="40"/>
+    </row>
+    <row r="1759" spans="5:7">
+      <c r="E1759" s="40"/>
+      <c r="G1759" s="40"/>
+    </row>
+    <row r="1760" spans="5:7">
+      <c r="E1760" s="40"/>
+      <c r="G1760" s="40"/>
+    </row>
+    <row r="1761" spans="5:7">
+      <c r="E1761" s="40"/>
+      <c r="G1761" s="40"/>
+    </row>
+    <row r="1762" spans="5:7">
+      <c r="E1762" s="40"/>
+      <c r="G1762" s="40"/>
+    </row>
+    <row r="1763" spans="5:7">
+      <c r="E1763" s="40"/>
+      <c r="G1763" s="40"/>
+    </row>
+    <row r="1764" spans="5:7">
+      <c r="E1764" s="40"/>
+      <c r="G1764" s="40"/>
+    </row>
+    <row r="1774" spans="5:7">
+      <c r="E1774" s="40"/>
     </row>
     <row r="1785" spans="7:7">
       <c r="G1785" s="40"/>
@@ -33191,43 +33359,35 @@
       <c r="G1795" s="40"/>
     </row>
     <row r="1796" spans="5:7">
-      <c r="E1796" s="40"/>
       <c r="G1796" s="40"/>
     </row>
-    <row r="1806" spans="5:7">
-      <c r="E1806" s="40"/>
-    </row>
-    <row r="1817" spans="5:7">
-      <c r="E1817" s="40"/>
-      <c r="G1817" s="40"/>
-    </row>
-    <row r="1818" spans="5:7">
-      <c r="E1818" s="40"/>
-      <c r="G1818" s="40"/>
-    </row>
-    <row r="1819" spans="5:7">
-      <c r="E1819" s="40"/>
-      <c r="G1819" s="40"/>
-    </row>
-    <row r="1820" spans="5:7">
-      <c r="E1820" s="40"/>
-      <c r="G1820" s="40"/>
-    </row>
-    <row r="1821" spans="5:7">
-      <c r="E1821" s="40"/>
-      <c r="G1821" s="40"/>
-    </row>
-    <row r="1822" spans="5:7">
-      <c r="E1822" s="40"/>
-      <c r="G1822" s="40"/>
-    </row>
-    <row r="1823" spans="5:7">
-      <c r="E1823" s="40"/>
-      <c r="G1823" s="40"/>
-    </row>
-    <row r="1824" spans="5:7">
-      <c r="E1824" s="40"/>
-      <c r="G1824" s="40"/>
+    <row r="1797" spans="5:7">
+      <c r="G1797" s="40"/>
+    </row>
+    <row r="1798" spans="5:7">
+      <c r="G1798" s="40"/>
+    </row>
+    <row r="1799" spans="5:7">
+      <c r="G1799" s="40"/>
+    </row>
+    <row r="1800" spans="5:7">
+      <c r="G1800" s="40"/>
+    </row>
+    <row r="1801" spans="5:7">
+      <c r="G1801" s="40"/>
+    </row>
+    <row r="1802" spans="5:7">
+      <c r="G1802" s="40"/>
+    </row>
+    <row r="1803" spans="5:7">
+      <c r="G1803" s="40"/>
+    </row>
+    <row r="1804" spans="5:7">
+      <c r="E1804" s="40"/>
+      <c r="G1804" s="40"/>
+    </row>
+    <row r="1814" spans="5:5">
+      <c r="E1814" s="40"/>
     </row>
     <row r="1825" spans="5:7">
       <c r="E1825" s="40"/>
@@ -33261,6 +33421,10 @@
       <c r="E1832" s="40"/>
       <c r="G1832" s="40"/>
     </row>
+    <row r="1833" spans="5:7">
+      <c r="E1833" s="40"/>
+      <c r="G1833" s="40"/>
+    </row>
     <row r="1834" spans="5:7">
       <c r="E1834" s="40"/>
       <c r="G1834" s="40"/>
@@ -33289,10 +33453,6 @@
       <c r="E1840" s="40"/>
       <c r="G1840" s="40"/>
     </row>
-    <row r="1841" spans="5:7">
-      <c r="E1841" s="40"/>
-      <c r="G1841" s="40"/>
-    </row>
     <row r="1842" spans="5:7">
       <c r="E1842" s="40"/>
       <c r="G1842" s="40"/>
@@ -33317,26 +33477,40 @@
       <c r="E1847" s="40"/>
       <c r="G1847" s="40"/>
     </row>
+    <row r="1848" spans="5:7">
+      <c r="E1848" s="40"/>
+      <c r="G1848" s="40"/>
+    </row>
+    <row r="1849" spans="5:7">
+      <c r="E1849" s="40"/>
+      <c r="G1849" s="40"/>
+    </row>
     <row r="1850" spans="5:7">
       <c r="E1850" s="40"/>
+      <c r="G1850" s="40"/>
+    </row>
+    <row r="1851" spans="5:7">
+      <c r="E1851" s="40"/>
+      <c r="G1851" s="40"/>
+    </row>
+    <row r="1852" spans="5:7">
+      <c r="E1852" s="40"/>
+      <c r="G1852" s="40"/>
+    </row>
+    <row r="1853" spans="5:7">
+      <c r="E1853" s="40"/>
+      <c r="G1853" s="40"/>
     </row>
     <row r="1854" spans="5:7">
       <c r="E1854" s="40"/>
+      <c r="G1854" s="40"/>
     </row>
     <row r="1855" spans="5:7">
       <c r="E1855" s="40"/>
-    </row>
-    <row r="1856" spans="5:7">
-      <c r="E1856" s="40"/>
-    </row>
-    <row r="1857" spans="5:5">
-      <c r="E1857" s="40"/>
-    </row>
-    <row r="1860" spans="5:5">
-      <c r="E1860" s="40"/>
-    </row>
-    <row r="1861" spans="5:5">
-      <c r="E1861" s="40"/>
+      <c r="G1855" s="40"/>
+    </row>
+    <row r="1858" spans="5:5">
+      <c r="E1858" s="40"/>
     </row>
     <row r="1862" spans="5:5">
       <c r="E1862" s="40"/>
@@ -33344,11 +33518,11 @@
     <row r="1863" spans="5:5">
       <c r="E1863" s="40"/>
     </row>
-    <row r="1866" spans="5:5">
-      <c r="E1866" s="40"/>
-    </row>
-    <row r="1867" spans="5:5">
-      <c r="E1867" s="40"/>
+    <row r="1864" spans="5:5">
+      <c r="E1864" s="40"/>
+    </row>
+    <row r="1865" spans="5:5">
+      <c r="E1865" s="40"/>
     </row>
     <row r="1868" spans="5:5">
       <c r="E1868" s="40"/>
@@ -33362,12 +33536,6 @@
     <row r="1871" spans="5:5">
       <c r="E1871" s="40"/>
     </row>
-    <row r="1872" spans="5:5">
-      <c r="E1872" s="40"/>
-    </row>
-    <row r="1873" spans="5:5">
-      <c r="E1873" s="40"/>
-    </row>
     <row r="1874" spans="5:5">
       <c r="E1874" s="40"/>
     </row>
@@ -33386,6 +33554,9 @@
     <row r="1879" spans="5:5">
       <c r="E1879" s="40"/>
     </row>
+    <row r="1880" spans="5:5">
+      <c r="E1880" s="40"/>
+    </row>
     <row r="1881" spans="5:5">
       <c r="E1881" s="40"/>
     </row>
@@ -33407,9 +33578,6 @@
     <row r="1887" spans="5:5">
       <c r="E1887" s="40"/>
     </row>
-    <row r="1888" spans="5:5">
-      <c r="E1888" s="40"/>
-    </row>
     <row r="1889" spans="5:5">
       <c r="E1889" s="40"/>
     </row>
@@ -33428,6 +33596,9 @@
     <row r="1894" spans="5:5">
       <c r="E1894" s="40"/>
     </row>
+    <row r="1895" spans="5:5">
+      <c r="E1895" s="40"/>
+    </row>
     <row r="1896" spans="5:5">
       <c r="E1896" s="40"/>
     </row>
@@ -33449,9 +33620,6 @@
     <row r="1902" spans="5:5">
       <c r="E1902" s="40"/>
     </row>
-    <row r="1903" spans="5:5">
-      <c r="E1903" s="40"/>
-    </row>
     <row r="1904" spans="5:5">
       <c r="E1904" s="40"/>
     </row>
@@ -33470,6 +33638,9 @@
     <row r="1909" spans="5:5">
       <c r="E1909" s="40"/>
     </row>
+    <row r="1910" spans="5:5">
+      <c r="E1910" s="40"/>
+    </row>
     <row r="1911" spans="5:5">
       <c r="E1911" s="40"/>
     </row>
@@ -33491,9 +33662,6 @@
     <row r="1917" spans="5:5">
       <c r="E1917" s="40"/>
     </row>
-    <row r="1918" spans="5:5">
-      <c r="E1918" s="40"/>
-    </row>
     <row r="1919" spans="5:5">
       <c r="E1919" s="40"/>
     </row>
@@ -33554,57 +33722,57 @@
     <row r="1938" spans="5:5">
       <c r="E1938" s="40"/>
     </row>
+    <row r="1939" spans="5:5">
+      <c r="E1939" s="40"/>
+    </row>
     <row r="1940" spans="5:5">
       <c r="E1940" s="40"/>
     </row>
-    <row r="1953" spans="5:5">
-      <c r="E1953" s="40"/>
-    </row>
-    <row r="1967" spans="5:5">
-      <c r="E1967" s="40"/>
-    </row>
-    <row r="1969" spans="5:5">
-      <c r="E1969" s="40"/>
-    </row>
-    <row r="1982" spans="5:5">
-      <c r="E1982" s="40"/>
-    </row>
-    <row r="1996" spans="5:5">
-      <c r="E1996" s="40"/>
-    </row>
-    <row r="1998" spans="5:5">
-      <c r="E1998" s="40"/>
-    </row>
-    <row r="2011" spans="5:5">
-      <c r="E2011" s="40"/>
-    </row>
-    <row r="2025" spans="5:5">
-      <c r="E2025" s="40"/>
-    </row>
-    <row r="2028" spans="5:5">
-      <c r="E2028" s="40"/>
-    </row>
-    <row r="2029" spans="5:5">
-      <c r="E2029" s="40"/>
-    </row>
-    <row r="2030" spans="5:5">
-      <c r="E2030" s="40"/>
-    </row>
-    <row r="2031" spans="5:5">
-      <c r="E2031" s="40"/>
-    </row>
-    <row r="2032" spans="5:5">
-      <c r="E2032" s="40"/>
+    <row r="1941" spans="5:5">
+      <c r="E1941" s="40"/>
+    </row>
+    <row r="1942" spans="5:5">
+      <c r="E1942" s="40"/>
+    </row>
+    <row r="1943" spans="5:5">
+      <c r="E1943" s="40"/>
+    </row>
+    <row r="1944" spans="5:5">
+      <c r="E1944" s="40"/>
+    </row>
+    <row r="1945" spans="5:5">
+      <c r="E1945" s="40"/>
+    </row>
+    <row r="1946" spans="5:5">
+      <c r="E1946" s="40"/>
+    </row>
+    <row r="1948" spans="5:5">
+      <c r="E1948" s="40"/>
+    </row>
+    <row r="1961" spans="5:5">
+      <c r="E1961" s="40"/>
+    </row>
+    <row r="1975" spans="5:5">
+      <c r="E1975" s="40"/>
+    </row>
+    <row r="1977" spans="5:5">
+      <c r="E1977" s="40"/>
+    </row>
+    <row r="1990" spans="5:5">
+      <c r="E1990" s="40"/>
+    </row>
+    <row r="2004" spans="5:5">
+      <c r="E2004" s="40"/>
+    </row>
+    <row r="2006" spans="5:5">
+      <c r="E2006" s="40"/>
+    </row>
+    <row r="2019" spans="5:5">
+      <c r="E2019" s="40"/>
     </row>
     <row r="2033" spans="5:5">
       <c r="E2033" s="40"/>
     </row>
-    <row r="2034" spans="5:5">
-      <c r="E2034" s="40"/>
-    </row>
-    <row r="2035" spans="5:5">
-      <c r="E2035" s="40"/>
-    </row>
     <row r="2036" spans="5:5">
       <c r="E2036" s="40"/>
     </row>
@@ -33623,77 +33791,77 @@
     <row r="2041" spans="5:5">
       <c r="E2041" s="40"/>
     </row>
-    <row r="2050" spans="5:5">
-      <c r="E2050" s="40"/>
-    </row>
-    <row r="2067" spans="5:5">
-      <c r="E2067" s="40"/>
-    </row>
-    <row r="2084" spans="5:5">
-      <c r="E2084" s="40"/>
-    </row>
-    <row r="2101" spans="5:5">
-      <c r="E2101" s="40"/>
-    </row>
-    <row r="2118" spans="5:5">
-      <c r="E2118" s="40"/>
-    </row>
-    <row r="2135" spans="5:5">
-      <c r="E2135" s="40"/>
-    </row>
-    <row r="2152" spans="5:5">
-      <c r="E2152" s="40"/>
-    </row>
-    <row r="2169" spans="5:5">
-      <c r="E2169" s="40"/>
-    </row>
-    <row r="2186" spans="5:5">
-      <c r="E2186" s="40"/>
-    </row>
-    <row r="2203" spans="5:5">
-      <c r="E2203" s="40"/>
-    </row>
-    <row r="2220" spans="5:5">
-      <c r="E2220" s="40"/>
-    </row>
-    <row r="2237" spans="5:5">
-      <c r="E2237" s="40"/>
-    </row>
-    <row r="2254" spans="5:5">
-      <c r="E2254" s="40"/>
-    </row>
-    <row r="2271" spans="5:5">
-      <c r="E2271" s="40"/>
-    </row>
-    <row r="2288" spans="5:5">
-      <c r="E2288" s="40"/>
-    </row>
-    <row r="2305" spans="5:7">
-      <c r="E2305" s="40"/>
-    </row>
-    <row r="2315" spans="5:7">
-      <c r="G2315" s="40"/>
-    </row>
-    <row r="2316" spans="5:7">
-      <c r="G2316" s="40"/>
-    </row>
-    <row r="2317" spans="5:7">
-      <c r="G2317" s="40"/>
-    </row>
-    <row r="2318" spans="5:7">
-      <c r="G2318" s="40"/>
-    </row>
-    <row r="2319" spans="5:7">
-      <c r="G2319" s="40"/>
-    </row>
-    <row r="2320" spans="5:7">
-      <c r="G2320" s="40"/>
-    </row>
-    <row r="2321" spans="5:7">
-      <c r="G2321" s="40"/>
-    </row>
-    <row r="2322" spans="5:7">
-      <c r="G2322" s="40"/>
+    <row r="2042" spans="5:5">
+      <c r="E2042" s="40"/>
+    </row>
+    <row r="2043" spans="5:5">
+      <c r="E2043" s="40"/>
+    </row>
+    <row r="2044" spans="5:5">
+      <c r="E2044" s="40"/>
+    </row>
+    <row r="2045" spans="5:5">
+      <c r="E2045" s="40"/>
+    </row>
+    <row r="2046" spans="5:5">
+      <c r="E2046" s="40"/>
+    </row>
+    <row r="2047" spans="5:5">
+      <c r="E2047" s="40"/>
+    </row>
+    <row r="2048" spans="5:5">
+      <c r="E2048" s="40"/>
+    </row>
+    <row r="2049" spans="5:5">
+      <c r="E2049" s="40"/>
+    </row>
+    <row r="2058" spans="5:5">
+      <c r="E2058" s="40"/>
+    </row>
+    <row r="2075" spans="5:5">
+      <c r="E2075" s="40"/>
+    </row>
+    <row r="2092" spans="5:5">
+      <c r="E2092" s="40"/>
+    </row>
+    <row r="2109" spans="5:5">
+      <c r="E2109" s="40"/>
+    </row>
+    <row r="2126" spans="5:5">
+      <c r="E2126" s="40"/>
+    </row>
+    <row r="2143" spans="5:5">
+      <c r="E2143" s="40"/>
+    </row>
+    <row r="2160" spans="5:5">
+      <c r="E2160" s="40"/>
+    </row>
+    <row r="2177" spans="5:5">
+      <c r="E2177" s="40"/>
+    </row>
+    <row r="2194" spans="5:5">
+      <c r="E2194" s="40"/>
+    </row>
+    <row r="2211" spans="5:5">
+      <c r="E2211" s="40"/>
+    </row>
+    <row r="2228" spans="5:5">
+      <c r="E2228" s="40"/>
+    </row>
+    <row r="2245" spans="5:5">
+      <c r="E2245" s="40"/>
+    </row>
+    <row r="2262" spans="5:5">
+      <c r="E2262" s="40"/>
+    </row>
+    <row r="2279" spans="5:5">
+      <c r="E2279" s="40"/>
+    </row>
+    <row r="2296" spans="5:5">
+      <c r="E2296" s="40"/>
+    </row>
+    <row r="2313" spans="5:5">
+      <c r="E2313" s="40"/>
     </row>
     <row r="2323" spans="5:7">
       <c r="G2323" s="40"/>
@@ -33711,93 +33879,117 @@
       <c r="G2327" s="40"/>
     </row>
     <row r="2328" spans="5:7">
-      <c r="E2328" s="40"/>
       <c r="G2328" s="40"/>
     </row>
-    <row r="2349" spans="5:5">
-      <c r="E2349" s="40"/>
-    </row>
-    <row r="2364" spans="5:5">
-      <c r="E2364" s="40"/>
-    </row>
-    <row r="2379" spans="5:5">
-      <c r="E2379" s="40"/>
-    </row>
-    <row r="2394" spans="5:5">
-      <c r="E2394" s="40"/>
-    </row>
-    <row r="2410" spans="5:5">
-      <c r="E2410" s="40"/>
-    </row>
-    <row r="2418" spans="5:7">
+    <row r="2329" spans="5:7">
+      <c r="G2329" s="40"/>
+    </row>
+    <row r="2330" spans="5:7">
+      <c r="G2330" s="40"/>
+    </row>
+    <row r="2331" spans="5:7">
+      <c r="G2331" s="40"/>
+    </row>
+    <row r="2332" spans="5:7">
+      <c r="G2332" s="40"/>
+    </row>
+    <row r="2333" spans="5:7">
+      <c r="G2333" s="40"/>
+    </row>
+    <row r="2334" spans="5:7">
+      <c r="G2334" s="40"/>
+    </row>
+    <row r="2335" spans="5:7">
+      <c r="G2335" s="40"/>
+    </row>
+    <row r="2336" spans="5:7">
+      <c r="E2336" s="40"/>
+      <c r="G2336" s="40"/>
+    </row>
+    <row r="2357" spans="5:5">
+      <c r="E2357" s="40"/>
+    </row>
+    <row r="2372" spans="5:5">
+      <c r="E2372" s="40"/>
+    </row>
+    <row r="2387" spans="5:5">
+      <c r="E2387" s="40"/>
+    </row>
+    <row r="2402" spans="5:5">
+      <c r="E2402" s="40"/>
+    </row>
+    <row r="2418" spans="5:5">
       <c r="E2418" s="40"/>
     </row>
-    <row r="2427" spans="5:7">
-      <c r="G2427" s="40"/>
-    </row>
-    <row r="2428" spans="5:7">
-      <c r="G2428" s="40"/>
-    </row>
-    <row r="2429" spans="5:7">
-      <c r="G2429" s="40"/>
-    </row>
-    <row r="2430" spans="5:7">
-      <c r="G2430" s="40"/>
-    </row>
-    <row r="2431" spans="5:7">
-      <c r="G2431" s="40"/>
-    </row>
-    <row r="2432" spans="5:7">
-      <c r="G2432" s="40"/>
-    </row>
-    <row r="2433" spans="5:7">
-      <c r="G2433" s="40"/>
-    </row>
-    <row r="2434" spans="5:7">
-      <c r="G2434" s="40"/>
-    </row>
-    <row r="2435" spans="5:7">
+    <row r="2426" spans="5:5">
+      <c r="E2426" s="40"/>
+    </row>
+    <row r="2435" spans="7:7">
       <c r="G2435" s="40"/>
     </row>
-    <row r="2436" spans="5:7">
+    <row r="2436" spans="7:7">
       <c r="G2436" s="40"/>
     </row>
-    <row r="2437" spans="5:7">
+    <row r="2437" spans="7:7">
       <c r="G2437" s="40"/>
     </row>
-    <row r="2438" spans="5:7">
+    <row r="2438" spans="7:7">
       <c r="G2438" s="40"/>
     </row>
-    <row r="2439" spans="5:7">
+    <row r="2439" spans="7:7">
       <c r="G2439" s="40"/>
     </row>
-    <row r="2440" spans="5:7">
+    <row r="2440" spans="7:7">
       <c r="G2440" s="40"/>
     </row>
-    <row r="2441" spans="5:7">
+    <row r="2441" spans="7:7">
       <c r="G2441" s="40"/>
     </row>
-    <row r="2442" spans="5:7">
+    <row r="2442" spans="7:7">
       <c r="G2442" s="40"/>
     </row>
-    <row r="2443" spans="5:7">
+    <row r="2443" spans="7:7">
       <c r="G2443" s="40"/>
     </row>
-    <row r="2444" spans="5:7">
+    <row r="2444" spans="7:7">
       <c r="G2444" s="40"/>
     </row>
-    <row r="2445" spans="5:7">
+    <row r="2445" spans="7:7">
       <c r="G2445" s="40"/>
     </row>
-    <row r="2446" spans="5:7">
-      <c r="E2446" s="40"/>
+    <row r="2446" spans="7:7">
       <c r="G2446" s="40"/>
     </row>
-    <row r="2454" spans="5:5">
+    <row r="2447" spans="7:7">
+      <c r="G2447" s="40"/>
+    </row>
+    <row r="2448" spans="7:7">
+      <c r="G2448" s="40"/>
+    </row>
+    <row r="2449" spans="5:7">
+      <c r="G2449" s="40"/>
+    </row>
+    <row r="2450" spans="5:7">
+      <c r="G2450" s="40"/>
+    </row>
+    <row r="2451" spans="5:7">
+      <c r="G2451" s="40"/>
+    </row>
+    <row r="2452" spans="5:7">
+      <c r="G2452" s="40"/>
+    </row>
+    <row r="2453" spans="5:7">
+      <c r="G2453" s="40"/>
+    </row>
+    <row r="2454" spans="5:7">
       <c r="E2454" s="40"/>
-    </row>
-    <row r="2461" spans="5:5">
-      <c r="E2461" s="40"/>
+      <c r="G2454" s="40"/>
+    </row>
+    <row r="2462" spans="5:7">
+      <c r="E2462" s="40"/>
+    </row>
+    <row r="2469" spans="5:5">
+      <c r="E2469" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42480,7 +42672,7 @@
       <c r="B9" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -42513,7 +42705,7 @@
       <c r="B12" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" t="s">
         <v>231</v>
       </c>
     </row>

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30AA4A8-9538-4859-B984-E5311F01E1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6458A719-14DD-4915-8417-2DF3E27EE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7280" uniqueCount="1863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7281" uniqueCount="1864">
   <si>
     <t>Name</t>
   </si>
@@ -5633,6 +5633,90 @@
     <t>TIP29A</t>
   </si>
   <si>
+    <t>Compatible part-number: 2SD880</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 2SC2458</t>
+  </si>
+  <si>
+    <t>Compatible part-number: BZX55C2V7</t>
+  </si>
+  <si>
+    <t>Compatible part-number: BZX55C6V8</t>
+  </si>
+  <si>
+    <t>Compatible part-number: S2VB20</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 1N4007</t>
+  </si>
+  <si>
+    <t>1N4371</t>
+  </si>
+  <si>
+    <t>1N754A</t>
+  </si>
+  <si>
+    <t>1N4001</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Compatible part-number: 1N914</t>
+  </si>
+  <si>
+    <t>2.7V Zener</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6510_mpu.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS258_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS139_Hitachi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6581_sid.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6567_vic_ii_preliminary.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/556.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS08_ti.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/8701.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7800.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4066B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS373_national_semiconductor.pdf</t>
+  </si>
+  <si>
+    <t>2026-February-12</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5645,89 +5729,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-January-16</t>
+      <t>2026-February-9</t>
     </r>
-  </si>
-  <si>
-    <t>Compatible part-number: 2SD880</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 2SC2458</t>
-  </si>
-  <si>
-    <t>Compatible part-number: BZX55C2V7</t>
-  </si>
-  <si>
-    <t>Compatible part-number: BZX55C6V8</t>
-  </si>
-  <si>
-    <t>Compatible part-number: S2VB20</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 1N4007</t>
-  </si>
-  <si>
-    <t>1N4371</t>
-  </si>
-  <si>
-    <t>1N754A</t>
-  </si>
-  <si>
-    <t>1N4001</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Compatible part-number: 1N914</t>
-  </si>
-  <si>
-    <t>2.7V Zener</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6526_cia_recreated.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6510_mpu.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS258_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS139_Hitachi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6581_sid.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6567_vic_ii_preliminary.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/556.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS08_ti.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/8701.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7800.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4066B.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS373_national_semiconductor.pdf</t>
   </si>
 </sst>
 </file>
@@ -6340,9 +6343,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6367,7 +6370,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1835</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6583,7 +6586,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2F946A-20C0-4894-B874-4D57C79D6A72}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6627,6 +6630,11 @@
         <v>1774</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6638,8 +6646,8 @@
   <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7837,10 +7845,10 @@
         <v>1735</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1736</v>
@@ -7857,7 +7865,7 @@
         <v>1769</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1715</v>
@@ -7888,7 +7896,7 @@
         <v>1717</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1701</v>
@@ -7902,7 +7910,7 @@
         <v>1700</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1701</v>
@@ -7916,7 +7924,7 @@
         <v>1707</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1704</v>
@@ -7930,7 +7938,7 @@
         <v>1703</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1704</v>
@@ -7944,7 +7952,7 @@
         <v>1708</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1704</v>
@@ -7958,7 +7966,7 @@
         <v>1709</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1704</v>
@@ -7972,7 +7980,7 @@
         <v>1705</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1704</v>
@@ -7986,7 +7994,7 @@
         <v>1706</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1704</v>
@@ -10420,7 +10428,7 @@
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="40" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -10433,7 +10441,7 @@
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="40" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -10446,7 +10454,7 @@
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="40" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -10459,7 +10467,7 @@
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="40" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -10472,7 +10480,7 @@
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="40" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -10485,7 +10493,7 @@
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="40" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -10498,7 +10506,7 @@
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="40" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -10511,7 +10519,7 @@
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="40" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -10524,7 +10532,7 @@
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="40" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -10537,7 +10545,7 @@
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="40" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -10550,7 +10558,7 @@
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="40" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -32398,7 +32406,7 @@
         <v>153</v>
       </c>
       <c r="G1178" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1179" spans="1:7">
@@ -32411,7 +32419,7 @@
         <v>153</v>
       </c>
       <c r="G1179" s="40" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1180" spans="1:7">
@@ -32424,7 +32432,7 @@
         <v>153</v>
       </c>
       <c r="G1180" s="40" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1181" spans="1:7">
@@ -32437,7 +32445,7 @@
         <v>153</v>
       </c>
       <c r="G1181" s="40" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1182" spans="1:7">
@@ -42135,9 +42143,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -42284,7 +42292,7 @@
         <v>156</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -42295,7 +42303,7 @@
         <v>156</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -42306,7 +42314,7 @@
         <v>157</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -42317,7 +42325,7 @@
         <v>157</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -42328,7 +42336,7 @@
         <v>158</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -42350,7 +42358,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -42361,7 +42369,7 @@
         <v>161</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -42383,7 +42391,7 @@
         <v>163</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -42394,7 +42402,7 @@
         <v>164</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -42405,7 +42413,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -42427,7 +42435,7 @@
         <v>294</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -42438,7 +42446,7 @@
         <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -42449,7 +42457,7 @@
         <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -42471,7 +42479,7 @@
         <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -42482,7 +42490,7 @@
         <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -42493,7 +42501,7 @@
         <v>165</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -42504,7 +42512,7 @@
         <v>245</v>
       </c>
       <c r="C36" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -42515,7 +42523,7 @@
         <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -42526,7 +42534,7 @@
         <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="39" spans="1:3">

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6458A719-14DD-4915-8417-2DF3E27EE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDF32C-997D-41D9-8208-B4DDA3FC7A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -5606,30 +5606,6 @@
     <t>Commodore 64/250466/Scope baseline/Images/M1_8_PAL.png</t>
   </si>
   <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_1_NTSC.jpg</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_2_NTSC.jpg</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_3_NTSC.jpg</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_4_NTSC.jpg</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_5_NTSC.jpg</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_6_NTSC.jpg</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_7_NTSC.jpg</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_8_NTSC.jpg</t>
-  </si>
-  <si>
     <t>TIP29A</t>
   </si>
   <si>
@@ -5731,6 +5707,30 @@
       </rPr>
       <t>2026-February-9</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_8_NTSC.png</t>
   </si>
 </sst>
 </file>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1863</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6440,11 +6440,11 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>295</v>
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>297</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -6478,14 +6478,13 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" t="s">
-        <v>297</v>
+      <c r="A12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -6499,6 +6498,7 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
+      <c r="G12" s="20"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24"/>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1862</v>
+        <v>1854</v>
       </c>
     </row>
   </sheetData>
@@ -7845,10 +7845,10 @@
         <v>1735</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1736</v>
@@ -7865,7 +7865,7 @@
         <v>1769</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1715</v>
@@ -7896,7 +7896,7 @@
         <v>1717</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1701</v>
@@ -7910,7 +7910,7 @@
         <v>1700</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1701</v>
@@ -7924,7 +7924,7 @@
         <v>1707</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1704</v>
@@ -7938,7 +7938,7 @@
         <v>1703</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1704</v>
@@ -7952,7 +7952,7 @@
         <v>1708</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1704</v>
@@ -7966,7 +7966,7 @@
         <v>1709</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1704</v>
@@ -7980,7 +7980,7 @@
         <v>1705</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1704</v>
@@ -7994,7 +7994,7 @@
         <v>1706</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1704</v>
@@ -8998,7 +8998,7 @@
         <v>1770</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>1734</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="40" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="40" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="40" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="40" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="40" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="40" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="40" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="40" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="40" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -10545,7 +10545,7 @@
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="40" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -10558,7 +10558,7 @@
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="40" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -31649,7 +31649,7 @@
         <v>1808</v>
       </c>
       <c r="F1134" s="14" t="s">
-        <v>1826</v>
+        <v>1856</v>
       </c>
       <c r="G1134" s="1" t="s">
         <v>1809</v>
@@ -31695,7 +31695,7 @@
         <v>1808</v>
       </c>
       <c r="F1136" s="14" t="s">
-        <v>1827</v>
+        <v>1857</v>
       </c>
       <c r="G1136" s="1" t="s">
         <v>1811</v>
@@ -31741,7 +31741,7 @@
         <v>1808</v>
       </c>
       <c r="F1138" s="14" t="s">
-        <v>1828</v>
+        <v>1858</v>
       </c>
       <c r="G1138" s="1" t="s">
         <v>1809</v>
@@ -31784,7 +31784,7 @@
         <v>1808</v>
       </c>
       <c r="F1140" s="14" t="s">
-        <v>1829</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1141" spans="1:7">
@@ -31824,7 +31824,7 @@
         <v>1808</v>
       </c>
       <c r="F1142" s="14" t="s">
-        <v>1830</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1143" spans="1:7">
@@ -31864,7 +31864,7 @@
         <v>1808</v>
       </c>
       <c r="F1144" s="14" t="s">
-        <v>1831</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1145" spans="1:7">
@@ -31904,7 +31904,7 @@
         <v>1808</v>
       </c>
       <c r="F1146" s="14" t="s">
-        <v>1832</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1147" spans="1:7">
@@ -31944,7 +31944,7 @@
         <v>1808</v>
       </c>
       <c r="F1148" s="14" t="s">
-        <v>1833</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1149" spans="1:7">
@@ -32406,7 +32406,7 @@
         <v>153</v>
       </c>
       <c r="G1178" s="1" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1179" spans="1:7">
@@ -32419,7 +32419,7 @@
         <v>153</v>
       </c>
       <c r="G1179" s="40" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1180" spans="1:7">
@@ -32432,7 +32432,7 @@
         <v>153</v>
       </c>
       <c r="G1180" s="40" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1181" spans="1:7">
@@ -32445,7 +32445,7 @@
         <v>153</v>
       </c>
       <c r="G1181" s="40" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1182" spans="1:7">
@@ -42292,7 +42292,7 @@
         <v>156</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -42303,7 +42303,7 @@
         <v>156</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -42314,7 +42314,7 @@
         <v>157</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -42325,7 +42325,7 @@
         <v>157</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -42336,7 +42336,7 @@
         <v>158</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -42358,7 +42358,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -42369,7 +42369,7 @@
         <v>161</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1851</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -42391,7 +42391,7 @@
         <v>163</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -42402,7 +42402,7 @@
         <v>164</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -42413,7 +42413,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -42435,7 +42435,7 @@
         <v>294</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -42446,7 +42446,7 @@
         <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -42457,7 +42457,7 @@
         <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -42479,7 +42479,7 @@
         <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -42490,7 +42490,7 @@
         <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -42501,7 +42501,7 @@
         <v>165</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -42512,7 +42512,7 @@
         <v>245</v>
       </c>
       <c r="C36" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -42523,7 +42523,7 @@
         <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -42534,7 +42534,7 @@
         <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="39" spans="1:3">

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDF32C-997D-41D9-8208-B4DDA3FC7A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F62F5E-5D46-4591-ACB1-B5DCFFCAC67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7281" uniqueCount="1864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7282" uniqueCount="1865">
   <si>
     <t>Name</t>
   </si>
@@ -5693,6 +5693,33 @@
     <t>2026-February-12</t>
   </si>
   <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_1_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_2_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_3_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_4_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_5_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_6_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_7_NTSC.png</t>
+  </si>
+  <si>
+    <t>Commodore 64/250466/Scope baseline/Images/M1_8_NTSC.png</t>
+  </si>
+  <si>
+    <t>2026-February-21</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -5705,32 +5732,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-9</t>
+      <t>2026-February-21</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_1_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_2_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_3_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_4_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_5_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_6_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_7_NTSC.png</t>
-  </si>
-  <si>
-    <t>Commodore 64/250466/Scope baseline/Images/M1_8_NTSC.png</t>
   </si>
 </sst>
 </file>
@@ -6370,7 +6373,7 @@
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>1855</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6586,7 +6589,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2F946A-20C0-4894-B874-4D57C79D6A72}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6635,8 +6638,14 @@
         <v>1854</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1863</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31649,7 +31658,7 @@
         <v>1808</v>
       </c>
       <c r="F1134" s="14" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G1134" s="1" t="s">
         <v>1809</v>
@@ -31695,7 +31704,7 @@
         <v>1808</v>
       </c>
       <c r="F1136" s="14" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G1136" s="1" t="s">
         <v>1811</v>
@@ -31741,7 +31750,7 @@
         <v>1808</v>
       </c>
       <c r="F1138" s="14" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G1138" s="1" t="s">
         <v>1809</v>
@@ -31784,7 +31793,7 @@
         <v>1808</v>
       </c>
       <c r="F1140" s="14" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1141" spans="1:7">
@@ -31824,7 +31833,7 @@
         <v>1808</v>
       </c>
       <c r="F1142" s="14" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1143" spans="1:7">
@@ -31864,7 +31873,7 @@
         <v>1808</v>
       </c>
       <c r="F1144" s="14" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1145" spans="1:7">
@@ -31904,7 +31913,7 @@
         <v>1808</v>
       </c>
       <c r="F1146" s="14" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1147" spans="1:7">
@@ -31944,7 +31953,7 @@
         <v>1808</v>
       </c>
       <c r="F1148" s="14" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1149" spans="1:7">

--- a/Data/Commodore 64/250466/Data C64 250466.xlsx
+++ b/Data/Commodore 64/250466/Data C64 250466.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F62F5E-5D46-4591-ACB1-B5DCFFCAC67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35807B3A-D769-429E-AA5A-789AC4A0878A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
